--- a/Data/LH_costmatrix.xlsx
+++ b/Data/LH_costmatrix.xlsx
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1640.599614153308</v>
+        <v>1182.333556379696</v>
       </c>
       <c r="C2">
         <v>339.258991815682</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1620.792128255149</v>
+        <v>1155.861907928686</v>
       </c>
       <c r="C3">
         <v>364.2561535091245</v>
@@ -1955,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1618.51526769641</v>
+        <v>1168.000642016378</v>
       </c>
       <c r="C4">
         <v>287.9892170343152</v>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1451.416515085851</v>
+        <v>990.0840882223127</v>
       </c>
       <c r="C5">
         <v>283.1596597251711</v>
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1647.439738150929</v>
+        <v>1199.301457874293</v>
       </c>
       <c r="C6">
         <v>297.7084446732599</v>
@@ -3536,7 +3536,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1889.214347382365</v>
+        <v>1442.024373068587</v>
       </c>
       <c r="C7">
         <v>499.0197255029881</v>
@@ -4063,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1630.533915862166</v>
+        <v>1171.971095689401</v>
       </c>
       <c r="C8">
         <v>334.526259039045</v>
@@ -4590,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1520.124063874742</v>
+        <v>1065.027084378879</v>
       </c>
       <c r="C9">
         <v>261.2941166276885</v>
@@ -5117,7 +5117,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1725.748454243513</v>
+        <v>1326.447386916946</v>
       </c>
       <c r="C10">
         <v>1631.690317796048</v>
@@ -5644,7 +5644,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1608.212918725443</v>
+        <v>1185.099720093294</v>
       </c>
       <c r="C11">
         <v>1454.367512937946</v>
@@ -6171,7 +6171,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1656.215683692053</v>
+        <v>1191.207118605199</v>
       </c>
       <c r="C12">
         <v>1269.169466587439</v>
@@ -6698,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1974.261907555197</v>
+        <v>1530.045742868397</v>
       </c>
       <c r="C13">
         <v>1608.319010951383</v>
@@ -7225,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1572.682231862784</v>
+        <v>1182.216814109879</v>
       </c>
       <c r="C14">
         <v>1558.058418217593</v>
@@ -7752,7 +7752,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1780.543075063964</v>
+        <v>1332.772243846818</v>
       </c>
       <c r="C15">
         <v>1450.384624935267</v>
@@ -8279,7 +8279,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1510.273957280226</v>
+        <v>1073.254260456588</v>
       </c>
       <c r="C16">
         <v>1332.559671043627</v>
@@ -8806,7 +8806,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1547.248985820262</v>
+        <v>1048.079641199171</v>
       </c>
       <c r="C17">
         <v>840.0331533720791</v>
@@ -9333,7 +9333,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1520.593300351816</v>
+        <v>1034.403924967819</v>
       </c>
       <c r="C18">
         <v>1033.010695974503</v>
@@ -9860,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1569.466586028523</v>
+        <v>1069.582131277876</v>
       </c>
       <c r="C19">
         <v>807.1105459466633</v>
@@ -10387,7 +10387,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1809.314930301548</v>
+        <v>1315.212593806503</v>
       </c>
       <c r="C20">
         <v>1095.357988232651</v>
@@ -10914,7 +10914,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1691.369087491077</v>
+        <v>1198.388138326679</v>
       </c>
       <c r="C21">
         <v>1041.649203621874</v>
@@ -11441,7 +11441,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1620.134308537731</v>
+        <v>1126.807891450234</v>
       </c>
       <c r="C22">
         <v>998.232018559682</v>
@@ -11968,7 +11968,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1569.646186893218</v>
+        <v>1077.452645438479</v>
       </c>
       <c r="C23">
         <v>988.802045889985</v>
@@ -12495,7 +12495,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1544.832715862636</v>
+        <v>1722.299395107854</v>
       </c>
       <c r="C24">
         <v>1762.937972583619</v>
@@ -13022,7 +13022,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1290.660003075488</v>
+        <v>1473.165649983752</v>
       </c>
       <c r="C25">
         <v>1595.686547090631</v>
@@ -13549,7 +13549,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1492.617419564568</v>
+        <v>1714.236269305339</v>
       </c>
       <c r="C26">
         <v>1844.269291717954</v>
@@ -14076,7 +14076,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1543.256040730634</v>
+        <v>1805.424125516935</v>
       </c>
       <c r="C27">
         <v>1996.103558591873</v>
@@ -14603,7 +14603,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1236.346707181373</v>
+        <v>1297.47533371702</v>
       </c>
       <c r="C28">
         <v>1259.964710664821</v>
@@ -15130,7 +15130,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1123.137823182715</v>
+        <v>1182.565905388546</v>
       </c>
       <c r="C29">
         <v>1199.837843409368</v>
@@ -15657,7 +15657,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1153.624104545868</v>
+        <v>1216.649210236072</v>
       </c>
       <c r="C30">
         <v>1222.537759851503</v>
@@ -16184,7 +16184,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1149.636647483839</v>
+        <v>1279.681223882744</v>
       </c>
       <c r="C31">
         <v>1378.763355244914</v>
@@ -16711,7 +16711,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1118.621894857661</v>
+        <v>1232.212193911688</v>
       </c>
       <c r="C32">
         <v>1323.170882192938</v>
@@ -17238,7 +17238,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1753.754547708942</v>
+        <v>1368.542868212983</v>
       </c>
       <c r="C33">
         <v>345.0492342826203</v>
@@ -17765,7 +17765,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1848.935082236228</v>
+        <v>1466.296380831695</v>
       </c>
       <c r="C34">
         <v>442.614564172033</v>
@@ -18292,7 +18292,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1992.347888015755</v>
+        <v>1620.877892680747</v>
       </c>
       <c r="C35">
         <v>600.9631033567736</v>
@@ -18819,7 +18819,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1721.886797529071</v>
+        <v>1418.674393272646</v>
       </c>
       <c r="C36">
         <v>524.4447477527958</v>
@@ -19346,7 +19346,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1620.110718377581</v>
+        <v>1227.987237147075</v>
       </c>
       <c r="C37">
         <v>203.3982309045743</v>
@@ -19873,7 +19873,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1624.733050745248</v>
+        <v>1245.853762696215</v>
       </c>
       <c r="C38">
         <v>233.3308005117843</v>
@@ -20400,7 +20400,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1724.252277986673</v>
+        <v>1407.45555386763</v>
       </c>
       <c r="C39">
         <v>486.221933981627</v>
@@ -20927,7 +20927,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1848.514303970836</v>
+        <v>1479.078307347429</v>
       </c>
       <c r="C40">
         <v>464.3200951339547</v>
@@ -21454,7 +21454,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1747.953117844989</v>
+        <v>1394.894790463971</v>
       </c>
       <c r="C41">
         <v>406.4286774144301</v>
@@ -21981,7 +21981,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1703.733027632504</v>
+        <v>1364.566444708743</v>
       </c>
       <c r="C42">
         <v>405.47260133995</v>
@@ -22508,7 +22508,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1684.460636198991</v>
+        <v>1355.080836275361</v>
       </c>
       <c r="C43">
         <v>418.2555676467242</v>
@@ -23035,7 +23035,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1654.739456408048</v>
+        <v>1314.883258105286</v>
       </c>
       <c r="C44">
         <v>364.2796853451505</v>
@@ -23562,7 +23562,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1892.972454577423</v>
+        <v>1396.29777110144</v>
       </c>
       <c r="C45">
         <v>827.9941872606418</v>
@@ -24089,7 +24089,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1677.371588860618</v>
+        <v>1192.371568773346</v>
       </c>
       <c r="C46">
         <v>542.6223425230733</v>
@@ -24616,7 +24616,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1938.380228112932</v>
+        <v>1468.930438746108</v>
       </c>
       <c r="C47">
         <v>621.8244012349049</v>
@@ -25143,7 +25143,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1762.463216252728</v>
+        <v>1280.236847553639</v>
       </c>
       <c r="C48">
         <v>569.6471587746295</v>
@@ -25670,7 +25670,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1623.474828007989</v>
+        <v>1146.238238904656</v>
       </c>
       <c r="C49">
         <v>448.5580459629596</v>
@@ -26197,7 +26197,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1847.612583871784</v>
+        <v>1402.418151126873</v>
       </c>
       <c r="C50">
         <v>455.9860161055246</v>
@@ -26724,7 +26724,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1708.502016090505</v>
+        <v>1230.420299789587</v>
       </c>
       <c r="C51">
         <v>502.6896114871259</v>
@@ -27251,7 +27251,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1750.029047378194</v>
+        <v>1264.110271639052</v>
       </c>
       <c r="C52">
         <v>594.2681836109514</v>
@@ -27778,7 +27778,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1663.30883165806</v>
+        <v>1185.120346761182</v>
       </c>
       <c r="C53">
         <v>476.9232791060578</v>
@@ -28305,7 +28305,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1809.277364478226</v>
+        <v>1328.593480952366</v>
       </c>
       <c r="C54">
         <v>589.4759946614518</v>
@@ -28832,7 +28832,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1630.257169171202</v>
+        <v>1135.1958718801</v>
       </c>
       <c r="C55">
         <v>641.8804747066844</v>
@@ -29359,7 +29359,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>875.6510974261759</v>
+        <v>893.2190011709379</v>
       </c>
       <c r="C56">
         <v>1863.158747583894</v>
@@ -29886,7 +29886,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>754.680973716529</v>
+        <v>749.9419403815662</v>
       </c>
       <c r="C57">
         <v>1727.124436555913</v>
@@ -30413,7 +30413,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>919.1346972085943</v>
+        <v>1027.99082362929</v>
       </c>
       <c r="C58">
         <v>2024.492452342924</v>
@@ -30940,7 +30940,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>745.2190933409204</v>
+        <v>657.4683833235089</v>
       </c>
       <c r="C59">
         <v>1609.170298766039</v>
@@ -31467,7 +31467,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>585.407551985096</v>
+        <v>646.303049422012</v>
       </c>
       <c r="C60">
         <v>1657.070332962669</v>
@@ -31994,7 +31994,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>903.361806652669</v>
+        <v>966.3582652623373</v>
       </c>
       <c r="C61">
         <v>1949.599673986311</v>
@@ -32521,7 +32521,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1163.843151158085</v>
+        <v>1038.785282943154</v>
       </c>
       <c r="C62">
         <v>1889.085736422933</v>
@@ -33048,7 +33048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>174.5747101991197</v>
+        <v>325.4252916096099</v>
       </c>
       <c r="C63">
         <v>1281.307982102449</v>
@@ -33575,7 +33575,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>465.4935510085317</v>
+        <v>146.6572186273262</v>
       </c>
       <c r="C64">
         <v>1161.5532519014</v>
@@ -34102,7 +34102,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>203.9409384046394</v>
+        <v>490.0663270332485</v>
       </c>
       <c r="C65">
         <v>1295.581992916749</v>
@@ -34629,7 +34629,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>143.7479029498843</v>
+        <v>357.0379330550739</v>
       </c>
       <c r="C66">
         <v>1300.728297068587</v>
@@ -35156,7 +35156,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>359.3943242562056</v>
+        <v>156.5021128472</v>
       </c>
       <c r="C67">
         <v>1172.92340052416</v>
@@ -35683,7 +35683,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>338.0836616858874</v>
+        <v>205.6085589932326</v>
       </c>
       <c r="C68">
         <v>1101.534043742576</v>
@@ -36210,7 +36210,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>206.040798489095</v>
+        <v>341.1710531097601</v>
       </c>
       <c r="C69">
         <v>1342.389122623292</v>
@@ -36737,7 +36737,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>423.4919605701576</v>
+        <v>81.2026355877564</v>
       </c>
       <c r="C70">
         <v>1100.000511480888</v>
@@ -37264,7 +37264,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>842.5093565289613</v>
+        <v>1012.593690863142</v>
       </c>
       <c r="C71">
         <v>1313.403768828896</v>
@@ -37791,7 +37791,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1028.285903838309</v>
+        <v>1338.611119058546</v>
       </c>
       <c r="C72">
         <v>1737.151820580146</v>
@@ -38318,7 +38318,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1257.285269489224</v>
+        <v>1447.317229611562</v>
       </c>
       <c r="C73">
         <v>1592.508179497014</v>
@@ -38845,7 +38845,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>829.3024131592922</v>
+        <v>1079.741849712656</v>
       </c>
       <c r="C74">
         <v>1472.113751459959</v>
@@ -39372,7 +39372,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1015.963767120536</v>
+        <v>1260.410942821725</v>
       </c>
       <c r="C75">
         <v>1569.368836715976</v>
@@ -39899,7 +39899,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>890.8247854218147</v>
+        <v>1123.018973564344</v>
       </c>
       <c r="C76">
         <v>1467.127083705858</v>
@@ -40426,7 +40426,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>988.5545480835875</v>
+        <v>1144.578168656672</v>
       </c>
       <c r="C77">
         <v>1352.555363191945</v>
@@ -40953,7 +40953,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>928.9313662238553</v>
+        <v>1221.095214459528</v>
       </c>
       <c r="C78">
         <v>1625.499156651106</v>
@@ -41480,7 +41480,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>737.0742746601228</v>
+        <v>486.6119765482514</v>
       </c>
       <c r="C79">
         <v>721.3536013114973</v>
@@ -42007,7 +42007,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>717.8381887166804</v>
+        <v>380.3392590804405</v>
       </c>
       <c r="C80">
         <v>712.1417692437706</v>
@@ -42534,7 +42534,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>776.7668374673931</v>
+        <v>293.0050855554481</v>
       </c>
       <c r="C81">
         <v>756.8708913130754</v>
@@ -43061,7 +43061,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>763.3500962736259</v>
+        <v>333.4050548389599</v>
       </c>
       <c r="C82">
         <v>694.510779136594</v>
@@ -43588,7 +43588,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>953.6976927200189</v>
+        <v>495.7213779093217</v>
       </c>
       <c r="C83">
         <v>545.940274238339</v>
@@ -44115,7 +44115,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>897.1534890222397</v>
+        <v>562.1443673377249</v>
       </c>
       <c r="C84">
         <v>541.1664356122579</v>
@@ -44642,7 +44642,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>884.7287460420052</v>
+        <v>611.2228898309749</v>
       </c>
       <c r="C85">
         <v>594.3979008756598</v>
@@ -45169,7 +45169,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>942.3513094039614</v>
+        <v>570.6005065010988</v>
       </c>
       <c r="C86">
         <v>487.79015991495</v>
@@ -45696,7 +45696,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>892.2953863883386</v>
+        <v>505.9676662222867</v>
       </c>
       <c r="C87">
         <v>539.205124491599</v>
@@ -46223,7 +46223,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1498.423527266572</v>
+        <v>1415.512828984027</v>
       </c>
       <c r="C88">
         <v>2253.570135708349</v>
@@ -46750,7 +46750,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1487.643748231269</v>
+        <v>1453.049438224472</v>
       </c>
       <c r="C89">
         <v>2331.565206211459</v>
@@ -47277,7 +47277,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1689.458347750088</v>
+        <v>1650.614445242207</v>
       </c>
       <c r="C90">
         <v>2508.544483520549</v>
@@ -47804,7 +47804,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1186.346039910089</v>
+        <v>1232.975081146234</v>
       </c>
       <c r="C91">
         <v>2187.261266428628</v>
@@ -48331,7 +48331,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1443.130958876371</v>
+        <v>1443.337018022376</v>
       </c>
       <c r="C92">
         <v>2350.672432563602</v>
@@ -48858,7 +48858,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1395.941817878208</v>
+        <v>1348.27522042026</v>
       </c>
       <c r="C93">
         <v>2225.78839178309</v>
@@ -49385,7 +49385,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1413.808544872025</v>
+        <v>1456.351469528782</v>
       </c>
       <c r="C94">
         <v>2392.603013607709</v>
@@ -49912,7 +49912,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1447.454920334942</v>
+        <v>1379.125678433805</v>
       </c>
       <c r="C95">
         <v>2235.054307846043</v>
@@ -50439,7 +50439,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>689.9151857518103</v>
+        <v>1121.076309327297</v>
       </c>
       <c r="C96">
         <v>1792.531715884061</v>
@@ -50966,7 +50966,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>558.1646844859342</v>
+        <v>974.379046222519</v>
       </c>
       <c r="C97">
         <v>1658.183678796014</v>
@@ -51493,7 +51493,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>650.2105656836242</v>
+        <v>1069.561714405185</v>
       </c>
       <c r="C98">
         <v>1732.460957225293</v>
@@ -52020,7 +52020,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>619.7259101528491</v>
+        <v>1006.901271494466</v>
       </c>
       <c r="C99">
         <v>1636.048869450368</v>
@@ -52547,7 +52547,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>678.2869789316254</v>
+        <v>1069.42769334938</v>
       </c>
       <c r="C100">
         <v>1685.533281466559</v>
@@ -53074,7 +53074,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>608.8829728505855</v>
+        <v>993.5373985494929</v>
       </c>
       <c r="C101">
         <v>1623.223550000776</v>
@@ -53601,7 +53601,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>664.5114454455179</v>
+        <v>1079.962769599542</v>
       </c>
       <c r="C102">
         <v>1733.508138743653</v>
@@ -54128,7 +54128,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>494.0843989923177</v>
+        <v>922.7746575331283</v>
       </c>
       <c r="C103">
         <v>1640.720919070297</v>
@@ -54655,7 +54655,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1852.844428424334</v>
+        <v>1457.441976238546</v>
       </c>
       <c r="C104">
         <v>431.184129989903</v>
@@ -55182,7 +55182,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1806.92295675233</v>
+        <v>1404.602922724391</v>
       </c>
       <c r="C105">
         <v>379.8409518234042</v>
@@ -55709,7 +55709,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2000.439176372959</v>
+        <v>1657.04112402865</v>
       </c>
       <c r="C106">
         <v>662.2014666843359</v>
@@ -56236,7 +56236,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1393.107795776822</v>
+        <v>1102.494966431753</v>
       </c>
       <c r="C107">
         <v>390.0324287705776</v>
@@ -56763,7 +56763,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1531.995351260389</v>
+        <v>1238.071009480676</v>
       </c>
       <c r="C108">
         <v>430.5249272816091</v>
@@ -57290,7 +57290,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1882.25438095808</v>
+        <v>1509.013802279772</v>
       </c>
       <c r="C109">
         <v>490.2295854988799</v>
@@ -57817,7 +57817,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1835.289557701607</v>
+        <v>1521.146445297042</v>
       </c>
       <c r="C110">
         <v>584.7721881562558</v>
@@ -58344,7 +58344,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1866.285542492893</v>
+        <v>1462.228328729895</v>
       </c>
       <c r="C111">
         <v>438.5163758867554</v>
@@ -58871,7 +58871,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1879.78124904021</v>
+        <v>1503.110327200029</v>
       </c>
       <c r="C112">
         <v>482.1185117456923</v>
@@ -59398,7 +59398,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1920.852571011369</v>
+        <v>1523.507613279838</v>
       </c>
       <c r="C113">
         <v>497.6557618577138</v>
@@ -59925,7 +59925,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1685.180923214433</v>
+        <v>1240.83981080806</v>
       </c>
       <c r="C114">
         <v>312.5696578871393</v>
@@ -60452,7 +60452,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1666.41900508251</v>
+        <v>1205.03069510494</v>
       </c>
       <c r="C115">
         <v>371.9972428398311</v>
@@ -60979,7 +60979,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1587.764198986689</v>
+        <v>1143.805445228237</v>
       </c>
       <c r="C116">
         <v>239.6766582808177</v>
@@ -61506,7 +61506,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1655.934290267313</v>
+        <v>1191.269527965515</v>
       </c>
       <c r="C117">
         <v>383.2620301309412</v>
@@ -62033,7 +62033,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1808.831647723558</v>
+        <v>1328.462837304405</v>
       </c>
       <c r="C118">
         <v>586.7782882691625</v>
@@ -62560,7 +62560,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1605.582743745602</v>
+        <v>1173.591066136467</v>
       </c>
       <c r="C119">
         <v>210.2702824072772</v>

--- a/Data/LH_costmatrix.xlsx
+++ b/Data/LH_costmatrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FS119"/>
+  <dimension ref="A1:GF119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:175">
+    <row r="1" spans="1:188">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -895,8 +895,47 @@
       <c r="FS1" s="1">
         <v>173</v>
       </c>
+      <c r="FT1" s="1">
+        <v>174</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>175</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>176</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>177</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>178</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>179</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>180</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>181</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>182</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>183</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>184</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>185</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>186</v>
+      </c>
     </row>
-    <row r="2" spans="1:175">
+    <row r="2" spans="1:188">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1422,8 +1461,47 @@
       <c r="FS2">
         <v>315.3815886356634</v>
       </c>
+      <c r="FT2">
+        <v>1292.599525678821</v>
+      </c>
+      <c r="FU2">
+        <v>1477.516443308458</v>
+      </c>
+      <c r="FV2">
+        <v>499.828761115336</v>
+      </c>
+      <c r="FW2">
+        <v>2329.15564227634</v>
+      </c>
+      <c r="FX2">
+        <v>2017.711281567832</v>
+      </c>
+      <c r="FY2">
+        <v>235.4530370997837</v>
+      </c>
+      <c r="FZ2">
+        <v>2182.696054906332</v>
+      </c>
+      <c r="GA2">
+        <v>766.5692104697027</v>
+      </c>
+      <c r="GB2">
+        <v>68.23472775528421</v>
+      </c>
+      <c r="GC2">
+        <v>1682.219800764477</v>
+      </c>
+      <c r="GD2">
+        <v>1929.916211348289</v>
+      </c>
+      <c r="GE2">
+        <v>590.8753096158525</v>
+      </c>
+      <c r="GF2">
+        <v>777.9564491880736</v>
+      </c>
     </row>
-    <row r="3" spans="1:175">
+    <row r="3" spans="1:188">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1949,8 +2027,47 @@
       <c r="FS3">
         <v>313.8159461816721</v>
       </c>
+      <c r="FT3">
+        <v>1239.393482207187</v>
+      </c>
+      <c r="FU3">
+        <v>1455.816318836141</v>
+      </c>
+      <c r="FV3">
+        <v>552.8246308581652</v>
+      </c>
+      <c r="FW3">
+        <v>2282.22463871915</v>
+      </c>
+      <c r="FX3">
+        <v>2012.873448361303</v>
+      </c>
+      <c r="FY3">
+        <v>205.6644318399566</v>
+      </c>
+      <c r="FZ3">
+        <v>2201.829653085244</v>
+      </c>
+      <c r="GA3">
+        <v>755.8968785478631</v>
+      </c>
+      <c r="GB3">
+        <v>119.9810678410887</v>
+      </c>
+      <c r="GC3">
+        <v>1693.981849421586</v>
+      </c>
+      <c r="GD3">
+        <v>1889.707969954462</v>
+      </c>
+      <c r="GE3">
+        <v>636.795949304528</v>
+      </c>
+      <c r="GF3">
+        <v>725.1964588627189</v>
+      </c>
     </row>
-    <row r="4" spans="1:175">
+    <row r="4" spans="1:188">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2476,8 +2593,47 @@
       <c r="FS4">
         <v>282.6550824726456</v>
       </c>
+      <c r="FT4">
+        <v>1328.714351684101</v>
+      </c>
+      <c r="FU4">
+        <v>1457.547999795097</v>
+      </c>
+      <c r="FV4">
+        <v>460.4628766475249</v>
+      </c>
+      <c r="FW4">
+        <v>2343.59718120381</v>
+      </c>
+      <c r="FX4">
+        <v>1981.974322024073</v>
+      </c>
+      <c r="FY4">
+        <v>289.9914075239419</v>
+      </c>
+      <c r="FZ4">
+        <v>2132.225978818416</v>
+      </c>
+      <c r="GA4">
+        <v>737.4939851432998</v>
+      </c>
+      <c r="GB4">
+        <v>33.75417744322083</v>
+      </c>
+      <c r="GC4">
+        <v>1635.500581835901</v>
+      </c>
+      <c r="GD4">
+        <v>1932.709572099754</v>
+      </c>
+      <c r="GE4">
+        <v>538.5327479054644</v>
+      </c>
+      <c r="GF4">
+        <v>820.5342063823327</v>
+      </c>
     </row>
-    <row r="5" spans="1:175">
+    <row r="5" spans="1:188">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3003,8 +3159,47 @@
       <c r="FS5">
         <v>165.3961363034745</v>
       </c>
+      <c r="FT5">
+        <v>1194.192857799619</v>
+      </c>
+      <c r="FU5">
+        <v>1287.057905047885</v>
+      </c>
+      <c r="FV5">
+        <v>610.8356810933979</v>
+      </c>
+      <c r="FW5">
+        <v>2164.134504508932</v>
+      </c>
+      <c r="FX5">
+        <v>1847.575466782786</v>
+      </c>
+      <c r="FY5">
+        <v>346.9167348197104</v>
+      </c>
+      <c r="FZ5">
+        <v>2072.291506156633</v>
+      </c>
+      <c r="GA5">
+        <v>587.9787999046868</v>
+      </c>
+      <c r="GB5">
+        <v>219.4108008267956</v>
+      </c>
+      <c r="GC5">
+        <v>1550.509069033862</v>
+      </c>
+      <c r="GD5">
+        <v>1747.00521286878</v>
+      </c>
+      <c r="GE5">
+        <v>623.8695207799367</v>
+      </c>
+      <c r="GF5">
+        <v>718.0893743957261</v>
+      </c>
     </row>
-    <row r="6" spans="1:175">
+    <row r="6" spans="1:188">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3530,8 +3725,47 @@
       <c r="FS6">
         <v>308.9697075534158</v>
       </c>
+      <c r="FT6">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="FU6">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="FV6">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="FW6">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="FX6">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FY6">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="FZ6">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="GA6">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="GB6">
+        <v>0</v>
+      </c>
+      <c r="GC6">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="GD6">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="GE6">
+        <v>524.7822504163031</v>
+      </c>
+      <c r="GF6">
+        <v>845.1010770467474</v>
+      </c>
     </row>
-    <row r="7" spans="1:175">
+    <row r="7" spans="1:188">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4057,8 +4291,47 @@
       <c r="FS7">
         <v>548.8862333947122</v>
       </c>
+      <c r="FT7">
+        <v>1500.664642956036</v>
+      </c>
+      <c r="FU7">
+        <v>1729.787059622296</v>
+      </c>
+      <c r="FV7">
+        <v>387.5077091653985</v>
+      </c>
+      <c r="FW7">
+        <v>2586.092919593492</v>
+      </c>
+      <c r="FX7">
+        <v>2229.635049283246</v>
+      </c>
+      <c r="FY7">
+        <v>340.7838360056893</v>
+      </c>
+      <c r="FZ7">
+        <v>2303.999965680242</v>
+      </c>
+      <c r="GA7">
+        <v>1002.661878292422</v>
+      </c>
+      <c r="GB7">
+        <v>242.9852099925136</v>
+      </c>
+      <c r="GC7">
+        <v>1839.375653003462</v>
+      </c>
+      <c r="GD7">
+        <v>2196.183169056604</v>
+      </c>
+      <c r="GE7">
+        <v>586.8152820784762</v>
+      </c>
+      <c r="GF7">
+        <v>965.9398208494165</v>
+      </c>
     </row>
-    <row r="8" spans="1:175">
+    <row r="8" spans="1:188">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4584,8 +4857,47 @@
       <c r="FS8">
         <v>306.537003760296</v>
       </c>
+      <c r="FT8">
+        <v>1285.878882318404</v>
+      </c>
+      <c r="FU8">
+        <v>1467.346937524479</v>
+      </c>
+      <c r="FV8">
+        <v>505.4998868973768</v>
+      </c>
+      <c r="FW8">
+        <v>2319.61347546458</v>
+      </c>
+      <c r="FX8">
+        <v>2008.879832023911</v>
+      </c>
+      <c r="FY8">
+        <v>237.8883351432412</v>
+      </c>
+      <c r="FZ8">
+        <v>2177.268860513786</v>
+      </c>
+      <c r="GA8">
+        <v>757.0874913299622</v>
+      </c>
+      <c r="GB8">
+        <v>72.48074115398526</v>
+      </c>
+      <c r="GC8">
+        <v>1675.531326695622</v>
+      </c>
+      <c r="GD8">
+        <v>1919.676910196227</v>
+      </c>
+      <c r="GE8">
+        <v>592.1464341842486</v>
+      </c>
+      <c r="GF8">
+        <v>772.6712205839927</v>
+      </c>
     </row>
-    <row r="9" spans="1:175">
+    <row r="9" spans="1:188">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5111,8 +5423,47 @@
       <c r="FS9">
         <v>197.8680961078175</v>
       </c>
+      <c r="FT9">
+        <v>1257.416923004291</v>
+      </c>
+      <c r="FU9">
+        <v>1357.63488616813</v>
+      </c>
+      <c r="FV9">
+        <v>537.4895962142388</v>
+      </c>
+      <c r="FW9">
+        <v>2244.737232545102</v>
+      </c>
+      <c r="FX9">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="FY9">
+        <v>317.9818582996949</v>
+      </c>
+      <c r="FZ9">
+        <v>2088.446306861457</v>
+      </c>
+      <c r="GA9">
+        <v>645.8766832870573</v>
+      </c>
+      <c r="GB9">
+        <v>138.2078322678896</v>
+      </c>
+      <c r="GC9">
+        <v>1577.804693301043</v>
+      </c>
+      <c r="GD9">
+        <v>1828.555686020546</v>
+      </c>
+      <c r="GE9">
+        <v>573.2186395527904</v>
+      </c>
+      <c r="GF9">
+        <v>766.2846397826282</v>
+      </c>
     </row>
-    <row r="10" spans="1:175">
+    <row r="10" spans="1:188">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5638,8 +5989,47 @@
       <c r="FS10">
         <v>1461.595377865535</v>
       </c>
+      <c r="FT10">
+        <v>177.7979728949436</v>
+      </c>
+      <c r="FU10">
+        <v>1579.844712103981</v>
+      </c>
+      <c r="FV10">
+        <v>1961.523354543054</v>
+      </c>
+      <c r="FW10">
+        <v>1240.422206834747</v>
+      </c>
+      <c r="FX10">
+        <v>2365.808848096005</v>
+      </c>
+      <c r="FY10">
+        <v>1326.143370440209</v>
+      </c>
+      <c r="FZ10">
+        <v>3021.958611696206</v>
+      </c>
+      <c r="GA10">
+        <v>1484.702750769659</v>
+      </c>
+      <c r="GB10">
+        <v>1528.596183820728</v>
+      </c>
+      <c r="GC10">
+        <v>2446.194035857552</v>
+      </c>
+      <c r="GD10">
+        <v>1251.176878418219</v>
+      </c>
+      <c r="GE10">
+        <v>1990.672286692612</v>
+      </c>
+      <c r="GF10">
+        <v>699.5957353787878</v>
+      </c>
     </row>
-    <row r="11" spans="1:175">
+    <row r="11" spans="1:188">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6165,8 +6555,47 @@
       <c r="FS11">
         <v>1283.993057924355</v>
       </c>
+      <c r="FT11">
+        <v>0</v>
+      </c>
+      <c r="FU11">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="FV11">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="FW11">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="FX11">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FY11">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="FZ11">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="GA11">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="GB11">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="GC11">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="GD11">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="GE11">
+        <v>1813.916337113418</v>
+      </c>
+      <c r="GF11">
+        <v>540.7414212062423</v>
+      </c>
     </row>
-    <row r="12" spans="1:175">
+    <row r="12" spans="1:188">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6692,8 +7121,47 @@
       <c r="FS12">
         <v>1106.041669761432</v>
       </c>
+      <c r="FT12">
+        <v>259.4731435209294</v>
+      </c>
+      <c r="FU12">
+        <v>1491.294702671202</v>
+      </c>
+      <c r="FV12">
+        <v>1570.892275923546</v>
+      </c>
+      <c r="FW12">
+        <v>1536.129149294197</v>
+      </c>
+      <c r="FX12">
+        <v>2260.70604099593</v>
+      </c>
+      <c r="FY12">
+        <v>922.8438395917019</v>
+      </c>
+      <c r="FZ12">
+        <v>2807.836298111551</v>
+      </c>
+      <c r="GA12">
+        <v>1215.982773525993</v>
+      </c>
+      <c r="GB12">
+        <v>1137.579954668279</v>
+      </c>
+      <c r="GC12">
+        <v>2235.142025101945</v>
+      </c>
+      <c r="GD12">
+        <v>1395.402470239412</v>
+      </c>
+      <c r="GE12">
+        <v>1619.532141376912</v>
+      </c>
+      <c r="GF12">
+        <v>296.8198749537156</v>
+      </c>
     </row>
-    <row r="13" spans="1:175">
+    <row r="13" spans="1:188">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7219,8 +7687,47 @@
       <c r="FS13">
         <v>1451.650000256546</v>
       </c>
+      <c r="FT13">
+        <v>380.1861951930076</v>
+      </c>
+      <c r="FU13">
+        <v>1815.880191592712</v>
+      </c>
+      <c r="FV13">
+        <v>1873.120477754921</v>
+      </c>
+      <c r="FW13">
+        <v>1593.30520647498</v>
+      </c>
+      <c r="FX13">
+        <v>2595.452956163945</v>
+      </c>
+      <c r="FY13">
+        <v>1195.929288972397</v>
+      </c>
+      <c r="FZ13">
+        <v>3170.263880024</v>
+      </c>
+      <c r="GA13">
+        <v>1580.682345658619</v>
+      </c>
+      <c r="GB13">
+        <v>1445.040802669525</v>
+      </c>
+      <c r="GC13">
+        <v>2596.631647035584</v>
+      </c>
+      <c r="GD13">
+        <v>1588.590826010172</v>
+      </c>
+      <c r="GE13">
+        <v>1948.050915625905</v>
+      </c>
+      <c r="GF13">
+        <v>610.3386837218271</v>
+      </c>
     </row>
-    <row r="14" spans="1:175">
+    <row r="14" spans="1:188">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7746,8 +8253,47 @@
       <c r="FS14">
         <v>1385.169897549702</v>
       </c>
+      <c r="FT14">
+        <v>155.7531290556531</v>
+      </c>
+      <c r="FU14">
+        <v>1428.627021511098</v>
+      </c>
+      <c r="FV14">
+        <v>1910.649808266605</v>
+      </c>
+      <c r="FW14">
+        <v>1143.613443978647</v>
+      </c>
+      <c r="FX14">
+        <v>2214.407076819162</v>
+      </c>
+      <c r="FY14">
+        <v>1302.885575975877</v>
+      </c>
+      <c r="FZ14">
+        <v>2885.339385821297</v>
+      </c>
+      <c r="GA14">
+        <v>1369.599914058275</v>
+      </c>
+      <c r="GB14">
+        <v>1481.106314016997</v>
+      </c>
+      <c r="GC14">
+        <v>2310.213379857735</v>
+      </c>
+      <c r="GD14">
+        <v>1106.769534191074</v>
+      </c>
+      <c r="GE14">
+        <v>1920.768989834054</v>
+      </c>
+      <c r="GF14">
+        <v>685.6986900537775</v>
+      </c>
     </row>
-    <row r="15" spans="1:175">
+    <row r="15" spans="1:188">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8273,8 +8819,47 @@
       <c r="FS15">
         <v>1288.114482973389</v>
       </c>
+      <c r="FT15">
+        <v>217.6295994438368</v>
+      </c>
+      <c r="FU15">
+        <v>1620.746114676799</v>
+      </c>
+      <c r="FV15">
+        <v>1743.014913195684</v>
+      </c>
+      <c r="FW15">
+        <v>1500.132893479447</v>
+      </c>
+      <c r="FX15">
+        <v>2398.975878132381</v>
+      </c>
+      <c r="FY15">
+        <v>1082.724855270781</v>
+      </c>
+      <c r="FZ15">
+        <v>2975.631398838817</v>
+      </c>
+      <c r="GA15">
+        <v>1391.062678317408</v>
+      </c>
+      <c r="GB15">
+        <v>1310.48412058798</v>
+      </c>
+      <c r="GC15">
+        <v>2401.429243740838</v>
+      </c>
+      <c r="GD15">
+        <v>1434.550270512337</v>
+      </c>
+      <c r="GE15">
+        <v>1798.856511394922</v>
+      </c>
+      <c r="GF15">
+        <v>465.3992412719157</v>
+      </c>
     </row>
-    <row r="16" spans="1:175">
+    <row r="16" spans="1:188">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8800,8 +9385,47 @@
       <c r="FS16">
         <v>1161.18728233045</v>
       </c>
+      <c r="FT16">
+        <v>127.8372292771171</v>
+      </c>
+      <c r="FU16">
+        <v>1352.750260845459</v>
+      </c>
+      <c r="FV16">
+        <v>1676.360469784923</v>
+      </c>
+      <c r="FW16">
+        <v>1320.539983813022</v>
+      </c>
+      <c r="FX16">
+        <v>2134.260049088228</v>
+      </c>
+      <c r="FY16">
+        <v>1067.309954018196</v>
+      </c>
+      <c r="FZ16">
+        <v>2743.699215139246</v>
+      </c>
+      <c r="GA16">
+        <v>1186.644700732664</v>
+      </c>
+      <c r="GB16">
+        <v>1245.854554670888</v>
+      </c>
+      <c r="GC16">
+        <v>2167.880328452104</v>
+      </c>
+      <c r="GD16">
+        <v>1183.117354132929</v>
+      </c>
+      <c r="GE16">
+        <v>1693.516971856567</v>
+      </c>
+      <c r="GF16">
+        <v>455.8446408389261</v>
+      </c>
     </row>
-    <row r="17" spans="1:175">
+    <row r="17" spans="1:188">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9327,8 +9951,47 @@
       <c r="FS17">
         <v>686.4379173447376</v>
       </c>
+      <c r="FT17">
+        <v>668.5102921102138</v>
+      </c>
+      <c r="FU17">
+        <v>1372.896696281221</v>
+      </c>
+      <c r="FV17">
+        <v>1128.494047953592</v>
+      </c>
+      <c r="FW17">
+        <v>1818.722895897162</v>
+      </c>
+      <c r="FX17">
+        <v>2083.014961580369</v>
+      </c>
+      <c r="FY17">
+        <v>500.3345081770329</v>
+      </c>
+      <c r="FZ17">
+        <v>2500.848591676263</v>
+      </c>
+      <c r="GA17">
+        <v>899.1697759149674</v>
+      </c>
+      <c r="GB17">
+        <v>695.0951870593037</v>
+      </c>
+      <c r="GC17">
+        <v>1942.102530201886</v>
+      </c>
+      <c r="GD17">
+        <v>1536.110224681321</v>
+      </c>
+      <c r="GE17">
+        <v>1182.083672027997</v>
+      </c>
+      <c r="GF17">
+        <v>158.2159316369835</v>
+      </c>
     </row>
-    <row r="18" spans="1:175">
+    <row r="18" spans="1:188">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9854,8 +10517,47 @@
       <c r="FS18">
         <v>868.9621989519748</v>
       </c>
+      <c r="FT18">
+        <v>443.8571358358769</v>
+      </c>
+      <c r="FU18">
+        <v>1349.698871374432</v>
+      </c>
+      <c r="FV18">
+        <v>1347.474124890846</v>
+      </c>
+      <c r="FW18">
+        <v>1621.796709564227</v>
+      </c>
+      <c r="FX18">
+        <v>2098.390007109119</v>
+      </c>
+      <c r="FY18">
+        <v>724.8003264429573</v>
+      </c>
+      <c r="FZ18">
+        <v>2597.178549576636</v>
+      </c>
+      <c r="GA18">
+        <v>996.2623547411174</v>
+      </c>
+      <c r="GB18">
+        <v>914.4737539108199</v>
+      </c>
+      <c r="GC18">
+        <v>2027.982481628943</v>
+      </c>
+      <c r="GD18">
+        <v>1389.159077644704</v>
+      </c>
+      <c r="GE18">
+        <v>1385.667691667149</v>
+      </c>
+      <c r="GF18">
+        <v>134.1946951228162</v>
+      </c>
     </row>
-    <row r="19" spans="1:175">
+    <row r="19" spans="1:188">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10381,8 +11083,47 @@
       <c r="FS19">
         <v>658.3316503717103</v>
       </c>
+      <c r="FT19">
+        <v>717.5644714292528</v>
+      </c>
+      <c r="FU19">
+        <v>1394.923214008804</v>
+      </c>
+      <c r="FV19">
+        <v>1083.841148785195</v>
+      </c>
+      <c r="FW19">
+        <v>1868.663518865395</v>
+      </c>
+      <c r="FX19">
+        <v>2095.174022367706</v>
+      </c>
+      <c r="FY19">
+        <v>449.4936967938019</v>
+      </c>
+      <c r="FZ19">
+        <v>2493.209661740727</v>
+      </c>
+      <c r="GA19">
+        <v>895.8509045983132</v>
+      </c>
+      <c r="GB19">
+        <v>650.752194375063</v>
+      </c>
+      <c r="GC19">
+        <v>1937.849699786463</v>
+      </c>
+      <c r="GD19">
+        <v>1579.772104975718</v>
+      </c>
+      <c r="GE19">
+        <v>1144.170443917885</v>
+      </c>
+      <c r="GF19">
+        <v>195.394688078447</v>
+      </c>
     </row>
-    <row r="20" spans="1:175">
+    <row r="20" spans="1:188">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10908,8 +11649,47 @@
       <c r="FS20">
         <v>956.5093385149976</v>
       </c>
+      <c r="FT20">
+        <v>614.0156486026202</v>
+      </c>
+      <c r="FU20">
+        <v>1636.395277564387</v>
+      </c>
+      <c r="FV20">
+        <v>1319.991280714714</v>
+      </c>
+      <c r="FW20">
+        <v>1882.042790668936</v>
+      </c>
+      <c r="FX20">
+        <v>2366.113040668501</v>
+      </c>
+      <c r="FY20">
+        <v>637.33585011402</v>
+      </c>
+      <c r="FZ20">
+        <v>2797.309037926208</v>
+      </c>
+      <c r="GA20">
+        <v>1196.095414057623</v>
+      </c>
+      <c r="GB20">
+        <v>898.5357239800097</v>
+      </c>
+      <c r="GC20">
+        <v>2239.03138068126</v>
+      </c>
+      <c r="GD20">
+        <v>1689.527138201934</v>
+      </c>
+      <c r="GE20">
+        <v>1414.593716085028</v>
+      </c>
+      <c r="GF20">
+        <v>189.3950268057681</v>
+      </c>
     </row>
-    <row r="21" spans="1:175">
+    <row r="21" spans="1:188">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11435,8 +12215,47 @@
       <c r="FS21">
         <v>892.5508738987196</v>
       </c>
+      <c r="FT21">
+        <v>550.8865148576836</v>
+      </c>
+      <c r="FU21">
+        <v>1518.726898973712</v>
+      </c>
+      <c r="FV21">
+        <v>1301.804540031623</v>
+      </c>
+      <c r="FW21">
+        <v>1791.333238778456</v>
+      </c>
+      <c r="FX21">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="FY21">
+        <v>635.6073320583638</v>
+      </c>
+      <c r="FZ21">
+        <v>2703.017612396271</v>
+      </c>
+      <c r="GA21">
+        <v>1098.819083516361</v>
+      </c>
+      <c r="GB21">
+        <v>871.8610333823568</v>
+      </c>
+      <c r="GC21">
+        <v>2140.906899322383</v>
+      </c>
+      <c r="GD21">
+        <v>1578.403135778178</v>
+      </c>
+      <c r="GE21">
+        <v>1375.358701630832</v>
+      </c>
+      <c r="GF21">
+        <v>71.67504812270678</v>
+      </c>
     </row>
-    <row r="22" spans="1:175">
+    <row r="22" spans="1:188">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11962,8 +12781,47 @@
       <c r="FS22">
         <v>844.0987264833343</v>
       </c>
+      <c r="FT22">
+        <v>540.7414212062423</v>
+      </c>
+      <c r="FU22">
+        <v>1447.372454793094</v>
+      </c>
+      <c r="FV22">
+        <v>1277.658653156077</v>
+      </c>
+      <c r="FW22">
+        <v>1752.997237725009</v>
+      </c>
+      <c r="FX22">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="FY22">
+        <v>626.5915178077541</v>
+      </c>
+      <c r="FZ22">
+        <v>2637.454212781936</v>
+      </c>
+      <c r="GA22">
+        <v>1032.766324625263</v>
+      </c>
+      <c r="GB22">
+        <v>845.1010770467474</v>
+      </c>
+      <c r="GC22">
+        <v>2073.938014463946</v>
+      </c>
+      <c r="GD22">
+        <v>1521.801904484974</v>
+      </c>
+      <c r="GE22">
+        <v>1338.897548960874</v>
+      </c>
+      <c r="GF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:175">
+    <row r="23" spans="1:188">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12489,8 +13347,47 @@
       <c r="FS23">
         <v>830.286949905208</v>
       </c>
+      <c r="FT23">
+        <v>517.7164578106275</v>
+      </c>
+      <c r="FU23">
+        <v>1397.170670130281</v>
+      </c>
+      <c r="FV23">
+        <v>1284.036587173867</v>
+      </c>
+      <c r="FW23">
+        <v>1709.709762922764</v>
+      </c>
+      <c r="FX23">
+        <v>2134.238381606189</v>
+      </c>
+      <c r="FY23">
+        <v>646.5792024935108</v>
+      </c>
+      <c r="FZ23">
+        <v>2602.329872670471</v>
+      </c>
+      <c r="GA23">
+        <v>997.7392227692377</v>
+      </c>
+      <c r="GB23">
+        <v>850.6526737409038</v>
+      </c>
+      <c r="GC23">
+        <v>2036.901341653366</v>
+      </c>
+      <c r="GD23">
+        <v>1470.610743846127</v>
+      </c>
+      <c r="GE23">
+        <v>1334.997593611675</v>
+      </c>
+      <c r="GF23">
+        <v>52.99949669990065</v>
+      </c>
     </row>
-    <row r="24" spans="1:175">
+    <row r="24" spans="1:188">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13016,8 +13913,47 @@
       <c r="FS24">
         <v>1837.74873619307</v>
       </c>
+      <c r="FT24">
+        <v>2850.842611271256</v>
+      </c>
+      <c r="FU24">
+        <v>1591.249574041257</v>
+      </c>
+      <c r="FV24">
+        <v>1903.382094656844</v>
+      </c>
+      <c r="FW24">
+        <v>3032.266333800138</v>
+      </c>
+      <c r="FX24">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="FY24">
+        <v>2329.920850496618</v>
+      </c>
+      <c r="FZ24">
+        <v>158.5521057776684</v>
+      </c>
+      <c r="GA24">
+        <v>1566.153072454196</v>
+      </c>
+      <c r="GB24">
+        <v>2056.980738633294</v>
+      </c>
+      <c r="GC24">
+        <v>579.4163274486818</v>
+      </c>
+      <c r="GD24">
+        <v>2420.08986910537</v>
+      </c>
+      <c r="GE24">
+        <v>1647.698095944643</v>
+      </c>
+      <c r="GF24">
+        <v>2594.979889346879</v>
+      </c>
     </row>
-    <row r="25" spans="1:175">
+    <row r="25" spans="1:188">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13543,8 +14479,47 @@
       <c r="FS25">
         <v>1653.058975003952</v>
       </c>
+      <c r="FT25">
+        <v>2614.11063290799</v>
+      </c>
+      <c r="FU25">
+        <v>1336.060138294878</v>
+      </c>
+      <c r="FV25">
+        <v>1785.406061785597</v>
+      </c>
+      <c r="FW25">
+        <v>2777.743225316957</v>
+      </c>
+      <c r="FX25">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="FY25">
+        <v>2154.602301249736</v>
+      </c>
+      <c r="FZ25">
+        <v>257.6707504164244</v>
+      </c>
+      <c r="GA25">
+        <v>1347.274333669257</v>
+      </c>
+      <c r="GB25">
+        <v>1893.019039457731</v>
+      </c>
+      <c r="GC25">
+        <v>328.6167491499622</v>
+      </c>
+      <c r="GD25">
+        <v>2165.542723992149</v>
+      </c>
+      <c r="GE25">
+        <v>1525.762754665343</v>
+      </c>
+      <c r="GF25">
+        <v>2379.898214048765</v>
+      </c>
     </row>
-    <row r="26" spans="1:175">
+    <row r="26" spans="1:188">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14070,8 +15045,47 @@
       <c r="FS26">
         <v>1906.905932428755</v>
       </c>
+      <c r="FT26">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="FU26">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="FV26">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="FW26">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="FX26">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FY26">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="FZ26">
+        <v>0</v>
+      </c>
+      <c r="GA26">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="GB26">
+        <v>2140.838814979187</v>
+      </c>
+      <c r="GC26">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="GD26">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="GE26">
+        <v>1754.442681727774</v>
+      </c>
+      <c r="GF26">
+        <v>2637.454212781936</v>
+      </c>
     </row>
-    <row r="27" spans="1:175">
+    <row r="27" spans="1:188">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14597,8 +15611,47 @@
       <c r="FS27">
         <v>2052.249646218537</v>
       </c>
+      <c r="FT27">
+        <v>2971.613412956453</v>
+      </c>
+      <c r="FU27">
+        <v>1622.126768652684</v>
+      </c>
+      <c r="FV27">
+        <v>2175.600703077734</v>
+      </c>
+      <c r="FW27">
+        <v>3018.590927675719</v>
+      </c>
+      <c r="FX27">
+        <v>974.3678295961532</v>
+      </c>
+      <c r="FY27">
+        <v>2554.68826712181</v>
+      </c>
+      <c r="FZ27">
+        <v>167.516770776738</v>
+      </c>
+      <c r="GA27">
+        <v>1732.500195056582</v>
+      </c>
+      <c r="GB27">
+        <v>2293.385239618192</v>
+      </c>
+      <c r="GC27">
+        <v>690.9893717161247</v>
+      </c>
+      <c r="GD27">
+        <v>2411.18382971289</v>
+      </c>
+      <c r="GE27">
+        <v>1916.876422679432</v>
+      </c>
+      <c r="GF27">
+        <v>2764.47341475763</v>
+      </c>
     </row>
-    <row r="28" spans="1:175">
+    <row r="28" spans="1:188">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15124,8 +16177,47 @@
       <c r="FS28">
         <v>1330.892736939903</v>
       </c>
+      <c r="FT28">
+        <v>2376.457261219382</v>
+      </c>
+      <c r="FU28">
+        <v>1235.221275231684</v>
+      </c>
+      <c r="FV28">
+        <v>1434.496321395527</v>
+      </c>
+      <c r="FW28">
+        <v>2690.414472549051</v>
+      </c>
+      <c r="FX28">
+        <v>967.6428057527756</v>
+      </c>
+      <c r="FY28">
+        <v>1824.966455338222</v>
+      </c>
+      <c r="FZ28">
+        <v>586.4430727889381</v>
+      </c>
+      <c r="GA28">
+        <v>1073.585795678836</v>
+      </c>
+      <c r="GB28">
+        <v>1555.729020794156</v>
+      </c>
+      <c r="GC28">
+        <v>304.904350600825</v>
+      </c>
+      <c r="GD28">
+        <v>2084.20621369875</v>
+      </c>
+      <c r="GE28">
+        <v>1174.962635865266</v>
+      </c>
+      <c r="GF28">
+        <v>2095.287940847649</v>
+      </c>
     </row>
-    <row r="29" spans="1:175">
+    <row r="29" spans="1:188">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -15651,8 +16743,47 @@
       <c r="FS29">
         <v>1258.459187385208</v>
       </c>
+      <c r="FT29">
+        <v>2271.678408396217</v>
+      </c>
+      <c r="FU29">
+        <v>1119.117477497037</v>
+      </c>
+      <c r="FV29">
+        <v>1406.954436197033</v>
+      </c>
+      <c r="FW29">
+        <v>2574.003135761803</v>
+      </c>
+      <c r="FX29">
+        <v>888.4389276463099</v>
+      </c>
+      <c r="FY29">
+        <v>1758.814527425947</v>
+      </c>
+      <c r="FZ29">
+        <v>648.4509309450181</v>
+      </c>
+      <c r="GA29">
+        <v>976.0986337945037</v>
+      </c>
+      <c r="GB29">
+        <v>1497.295876944792</v>
+      </c>
+      <c r="GC29">
+        <v>236.3378732886219</v>
+      </c>
+      <c r="GD29">
+        <v>1968.137441328871</v>
+      </c>
+      <c r="GE29">
+        <v>1147.109024676767</v>
+      </c>
+      <c r="GF29">
+        <v>2003.765577681036</v>
+      </c>
     </row>
-    <row r="30" spans="1:175">
+    <row r="30" spans="1:188">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16178,8 +17309,47 @@
       <c r="FS30">
         <v>1284.312872648968</v>
       </c>
+      <c r="FT30">
+        <v>2304.752486311645</v>
+      </c>
+      <c r="FU30">
+        <v>1151.585532993183</v>
+      </c>
+      <c r="FV30">
+        <v>1421.0631777125</v>
+      </c>
+      <c r="FW30">
+        <v>2606.816680819979</v>
+      </c>
+      <c r="FX30">
+        <v>904.7641489351713</v>
+      </c>
+      <c r="FY30">
+        <v>1783.280536539226</v>
+      </c>
+      <c r="FZ30">
+        <v>623.0959688387464</v>
+      </c>
+      <c r="GA30">
+        <v>1007.65410467755</v>
+      </c>
+      <c r="GB30">
+        <v>1519.711482543415</v>
+      </c>
+      <c r="GC30">
+        <v>246.1550899265569</v>
+      </c>
+      <c r="GD30">
+        <v>2000.572158023802</v>
+      </c>
+      <c r="GE30">
+        <v>1161.101655992264</v>
+      </c>
+      <c r="GF30">
+        <v>2034.245987215027</v>
+      </c>
     </row>
-    <row r="31" spans="1:175">
+    <row r="31" spans="1:188">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16705,8 +17875,47 @@
       <c r="FS31">
         <v>1432.190468381216</v>
       </c>
+      <c r="FT31">
+        <v>2403.630782641907</v>
+      </c>
+      <c r="FU31">
+        <v>1172.650846280296</v>
+      </c>
+      <c r="FV31">
+        <v>1587.17906010864</v>
+      </c>
+      <c r="FW31">
+        <v>2626.627364680352</v>
+      </c>
+      <c r="FX31">
+        <v>808.5828555426174</v>
+      </c>
+      <c r="FY31">
+        <v>1934.953612372864</v>
+      </c>
+      <c r="FZ31">
+        <v>479.4083542778912</v>
+      </c>
+      <c r="GA31">
+        <v>1127.207405024305</v>
+      </c>
+      <c r="GB31">
+        <v>1676.410385144314</v>
+      </c>
+      <c r="GC31">
+        <v>163.541453167294</v>
+      </c>
+      <c r="GD31">
+        <v>2015.814063468659</v>
+      </c>
+      <c r="GE31">
+        <v>1327.240896317115</v>
+      </c>
+      <c r="GF31">
+        <v>2159.38352421807</v>
+      </c>
     </row>
-    <row r="32" spans="1:175">
+    <row r="32" spans="1:188">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -17232,8 +18441,47 @@
       <c r="FS32">
         <v>1375.501742849538</v>
       </c>
+      <c r="FT32">
+        <v>2350.372934179823</v>
+      </c>
+      <c r="FU32">
+        <v>1134.765445180305</v>
+      </c>
+      <c r="FV32">
+        <v>1536.888020980227</v>
+      </c>
+      <c r="FW32">
+        <v>2590.340308597805</v>
+      </c>
+      <c r="FX32">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="FY32">
+        <v>1878.560735837452</v>
+      </c>
+      <c r="FZ32">
+        <v>536.2752611961101</v>
+      </c>
+      <c r="GA32">
+        <v>1071.090925273024</v>
+      </c>
+      <c r="GB32">
+        <v>1620.858236866926</v>
+      </c>
+      <c r="GC32">
+        <v>148.7513857171557</v>
+      </c>
+      <c r="GD32">
+        <v>1980.441267399269</v>
+      </c>
+      <c r="GE32">
+        <v>1277.068398901912</v>
+      </c>
+      <c r="GF32">
+        <v>2103.040243106572</v>
+      </c>
     </row>
-    <row r="33" spans="1:175">
+    <row r="33" spans="1:188">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -17759,8 +19007,47 @@
       <c r="FS33">
         <v>499.6863318086068</v>
       </c>
+      <c r="FT33">
+        <v>1714.717925323395</v>
+      </c>
+      <c r="FU33">
+        <v>1612.099961461016</v>
+      </c>
+      <c r="FV33">
+        <v>97.80084843190912</v>
+      </c>
+      <c r="FW33">
+        <v>2665.886041556122</v>
+      </c>
+      <c r="FX33">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FY33">
+        <v>642.827697502079</v>
+      </c>
+      <c r="FZ33">
+        <v>1962.779488937596</v>
+      </c>
+      <c r="GA33">
+        <v>872.6733517525387</v>
+      </c>
+      <c r="GB33">
+        <v>368.2980322688836</v>
+      </c>
+      <c r="GC33">
+        <v>1535.56679147305</v>
+      </c>
+      <c r="GD33">
+        <v>2207.315718818601</v>
+      </c>
+      <c r="GE33">
+        <v>213.8692844463879</v>
+      </c>
+      <c r="GF33">
+        <v>1211.974803267944</v>
+      </c>
     </row>
-    <row r="34" spans="1:175">
+    <row r="34" spans="1:188">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18286,8 +19573,47 @@
       <c r="FS34">
         <v>594.4424609073457</v>
       </c>
+      <c r="FT34">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="FU34">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="FV34">
+        <v>0</v>
+      </c>
+      <c r="FW34">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="FX34">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FY34">
+        <v>687.589820448837</v>
+      </c>
+      <c r="FZ34">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="GA34">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="GB34">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="GC34">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="GD34">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="GE34">
+        <v>259.9665107247332</v>
+      </c>
+      <c r="GF34">
+        <v>1277.658653156077</v>
+      </c>
     </row>
-    <row r="35" spans="1:175">
+    <row r="35" spans="1:188">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -18813,8 +20139,47 @@
       <c r="FS35">
         <v>755.0872144746781</v>
       </c>
+      <c r="FT35">
+        <v>1936.436764601656</v>
+      </c>
+      <c r="FU35">
+        <v>1855.791054700558</v>
+      </c>
+      <c r="FV35">
+        <v>160.7125477956193</v>
+      </c>
+      <c r="FW35">
+        <v>2919.719359964111</v>
+      </c>
+      <c r="FX35">
+        <v>2195.327289306505</v>
+      </c>
+      <c r="FY35">
+        <v>810.7807648351719</v>
+      </c>
+      <c r="FZ35">
+        <v>2064.883951247962</v>
+      </c>
+      <c r="GA35">
+        <v>1120.965921766643</v>
+      </c>
+      <c r="GB35">
+        <v>580.0127338392987</v>
+      </c>
+      <c r="GC35">
+        <v>1688.456757141028</v>
+      </c>
+      <c r="GD35">
+        <v>2463.713343017408</v>
+      </c>
+      <c r="GE35">
+        <v>355.3380555784184</v>
+      </c>
+      <c r="GF35">
+        <v>1417.612595351679</v>
+      </c>
     </row>
-    <row r="36" spans="1:175">
+    <row r="36" spans="1:188">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19340,8 +20705,47 @@
       <c r="FS36">
         <v>697.4835267259695</v>
       </c>
+      <c r="FT36">
+        <v>1978.194081478968</v>
+      </c>
+      <c r="FU36">
+        <v>1604.852990571556</v>
+      </c>
+      <c r="FV36">
+        <v>362.8613623325087</v>
+      </c>
+      <c r="FW36">
+        <v>2809.945554185307</v>
+      </c>
+      <c r="FX36">
+        <v>1848.251976140012</v>
+      </c>
+      <c r="FY36">
+        <v>981.9962124468219</v>
+      </c>
+      <c r="FZ36">
+        <v>1673.445439334468</v>
+      </c>
+      <c r="GA36">
+        <v>916.0963288158725</v>
+      </c>
+      <c r="GB36">
+        <v>691.5424721935267</v>
+      </c>
+      <c r="GC36">
+        <v>1308.709805264569</v>
+      </c>
+      <c r="GD36">
+        <v>2301.188640977916</v>
+      </c>
+      <c r="GE36">
+        <v>169.035102014544</v>
+      </c>
+      <c r="GF36">
+        <v>1507.42128199751</v>
+      </c>
     </row>
-    <row r="37" spans="1:175">
+    <row r="37" spans="1:188">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19867,8 +21271,47 @@
       <c r="FS37">
         <v>361.4727480284768</v>
       </c>
+      <c r="FT37">
+        <v>1603.301329830905</v>
+      </c>
+      <c r="FU37">
+        <v>1475.798174128969</v>
+      </c>
+      <c r="FV37">
+        <v>239.2445087355543</v>
+      </c>
+      <c r="FW37">
+        <v>2528.03406041927</v>
+      </c>
+      <c r="FX37">
+        <v>1885.766226525997</v>
+      </c>
+      <c r="FY37">
+        <v>588.9035985712939</v>
+      </c>
+      <c r="FZ37">
+        <v>1908.449616501309</v>
+      </c>
+      <c r="GA37">
+        <v>734.7307554835129</v>
+      </c>
+      <c r="GB37">
+        <v>294.8756744411115</v>
+      </c>
+      <c r="GC37">
+        <v>1454.199474322635</v>
+      </c>
+      <c r="GD37">
+        <v>2065.919124598204</v>
+      </c>
+      <c r="GE37">
+        <v>230.3561245199942</v>
+      </c>
+      <c r="GF37">
+        <v>1115.502421840838</v>
+      </c>
     </row>
-    <row r="38" spans="1:175">
+    <row r="38" spans="1:188">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20394,8 +21837,47 @@
       <c r="FS38">
         <v>401.561301216823</v>
       </c>
+      <c r="FT38">
+        <v>1657.099095143359</v>
+      </c>
+      <c r="FU38">
+        <v>1484.308627896925</v>
+      </c>
+      <c r="FV38">
+        <v>224.2826594112225</v>
+      </c>
+      <c r="FW38">
+        <v>2564.777166122035</v>
+      </c>
+      <c r="FX38">
+        <v>1869.921850173073</v>
+      </c>
+      <c r="FY38">
+        <v>648.4661020716937</v>
+      </c>
+      <c r="FZ38">
+        <v>1865.847176348344</v>
+      </c>
+      <c r="GA38">
+        <v>746.6650947624413</v>
+      </c>
+      <c r="GB38">
+        <v>354.7999012763352</v>
+      </c>
+      <c r="GC38">
+        <v>1421.813303208068</v>
+      </c>
+      <c r="GD38">
+        <v>2093.972058572037</v>
+      </c>
+      <c r="GE38">
+        <v>170.3590125363384</v>
+      </c>
+      <c r="GF38">
+        <v>1173.093270343165</v>
+      </c>
     </row>
-    <row r="39" spans="1:175">
+    <row r="39" spans="1:188">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20921,8 +22403,47 @@
       <c r="FS39">
         <v>660.3463077932836</v>
       </c>
+      <c r="FT39">
+        <v>1937.377589476593</v>
+      </c>
+      <c r="FU39">
+        <v>1603.056487871657</v>
+      </c>
+      <c r="FV39">
+        <v>310.3534750620796</v>
+      </c>
+      <c r="FW39">
+        <v>2787.406676970597</v>
+      </c>
+      <c r="FX39">
+        <v>1869.408868263184</v>
+      </c>
+      <c r="FY39">
+        <v>929.9090566503509</v>
+      </c>
+      <c r="FZ39">
+        <v>1717.462185776625</v>
+      </c>
+      <c r="GA39">
+        <v>902.6998600863592</v>
+      </c>
+      <c r="GB39">
+        <v>640.6616920557194</v>
+      </c>
+      <c r="GC39">
+        <v>1341.603027051589</v>
+      </c>
+      <c r="GD39">
+        <v>2285.571133856522</v>
+      </c>
+      <c r="GE39">
+        <v>123.5719557505343</v>
+      </c>
+      <c r="GF39">
+        <v>1461.62513993125</v>
+      </c>
     </row>
-    <row r="40" spans="1:175">
+    <row r="40" spans="1:188">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21448,8 +22969,47 @@
       <c r="FS40">
         <v>625.0782022691268</v>
       </c>
+      <c r="FT40">
+        <v>1841.177312687092</v>
+      </c>
+      <c r="FU40">
+        <v>1711.995455368464</v>
+      </c>
+      <c r="FV40">
+        <v>66.41513577600516</v>
+      </c>
+      <c r="FW40">
+        <v>2791.734222303068</v>
+      </c>
+      <c r="FX40">
+        <v>2059.272350347574</v>
+      </c>
+      <c r="FY40">
+        <v>750.5665339015206</v>
+      </c>
+      <c r="FZ40">
+        <v>1964.853058476094</v>
+      </c>
+      <c r="GA40">
+        <v>977.989286611395</v>
+      </c>
+      <c r="GB40">
+        <v>489.1738294279598</v>
+      </c>
+      <c r="GC40">
+        <v>1567.01273456174</v>
+      </c>
+      <c r="GD40">
+        <v>2327.13672205501</v>
+      </c>
+      <c r="GE40">
+        <v>222.8352304153107</v>
+      </c>
+      <c r="GF40">
+        <v>1334.274780825663</v>
+      </c>
     </row>
-    <row r="41" spans="1:175">
+    <row r="41" spans="1:188">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -21975,8 +23535,47 @@
       <c r="FS41">
         <v>577.8294795234111</v>
       </c>
+      <c r="FT41">
+        <v>1832.12521716133</v>
+      </c>
+      <c r="FU41">
+        <v>1615.879119232104</v>
+      </c>
+      <c r="FV41">
+        <v>164.8373329215132</v>
+      </c>
+      <c r="FW41">
+        <v>2736.386568762136</v>
+      </c>
+      <c r="FX41">
+        <v>1942.924215355498</v>
+      </c>
+      <c r="FY41">
+        <v>787.849758262534</v>
+      </c>
+      <c r="FZ41">
+        <v>1848.428038898033</v>
+      </c>
+      <c r="GA41">
+        <v>890.0483309987566</v>
+      </c>
+      <c r="GB41">
+        <v>505.1960574210812</v>
+      </c>
+      <c r="GC41">
+        <v>1446.883735012267</v>
+      </c>
+      <c r="GD41">
+        <v>2256.011973688054</v>
+      </c>
+      <c r="GE41">
+        <v>103.4348811662454</v>
+      </c>
+      <c r="GF41">
+        <v>1341.130591383734</v>
+      </c>
     </row>
-    <row r="42" spans="1:175">
+    <row r="42" spans="1:188">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -22502,8 +24101,47 @@
       <c r="FS42">
         <v>579.7609763158861</v>
       </c>
+      <c r="FT42">
+        <v>1849.707381781982</v>
+      </c>
+      <c r="FU42">
+        <v>1575.595967659209</v>
+      </c>
+      <c r="FV42">
+        <v>234.9779488106452</v>
+      </c>
+      <c r="FW42">
+        <v>2724.522184902092</v>
+      </c>
+      <c r="FX42">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="FY42">
+        <v>833.1088191782339</v>
+      </c>
+      <c r="FZ42">
+        <v>1778.168611469406</v>
+      </c>
+      <c r="GA42">
+        <v>858.6197069088229</v>
+      </c>
+      <c r="GB42">
+        <v>544.1088040406474</v>
+      </c>
+      <c r="GC42">
+        <v>1379.34987739488</v>
+      </c>
+      <c r="GD42">
+        <v>2233.880170327612</v>
+      </c>
+      <c r="GE42">
+        <v>49.79181675242354</v>
+      </c>
+      <c r="GF42">
+        <v>1368.690125379696</v>
+      </c>
     </row>
-    <row r="43" spans="1:175">
+    <row r="43" spans="1:188">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -23029,8 +24667,47 @@
       <c r="FS43">
         <v>592.5526851156742</v>
       </c>
+      <c r="FT43">
+        <v>1868.74034593594</v>
+      </c>
+      <c r="FU43">
+        <v>1559.164906045376</v>
+      </c>
+      <c r="FV43">
+        <v>277.1653991609436</v>
+      </c>
+      <c r="FW43">
+        <v>2725.952761402729</v>
+      </c>
+      <c r="FX43">
+        <v>1851.644086354249</v>
+      </c>
+      <c r="FY43">
+        <v>867.184836433303</v>
+      </c>
+      <c r="FZ43">
+        <v>1736.57327351836</v>
+      </c>
+      <c r="GA43">
+        <v>849.331368981776</v>
+      </c>
+      <c r="GB43">
+        <v>576.0318945452501</v>
+      </c>
+      <c r="GC43">
+        <v>1341.59871060092</v>
+      </c>
+      <c r="GD43">
+        <v>2229.079032317666</v>
+      </c>
+      <c r="GE43">
+        <v>54.89720394667815</v>
+      </c>
+      <c r="GF43">
+        <v>1393.455016447605</v>
+      </c>
     </row>
-    <row r="44" spans="1:175">
+    <row r="44" spans="1:188">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -23556,8 +25233,47 @@
       <c r="FS44">
         <v>538.6904395112406</v>
       </c>
+      <c r="FT44">
+        <v>1813.916337113418</v>
+      </c>
+      <c r="FU44">
+        <v>1526.083523222766</v>
+      </c>
+      <c r="FV44">
+        <v>259.9665107247332</v>
+      </c>
+      <c r="FW44">
+        <v>2677.482710022975</v>
+      </c>
+      <c r="FX44">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="FY44">
+        <v>817.3587631501539</v>
+      </c>
+      <c r="FZ44">
+        <v>1754.442681727774</v>
+      </c>
+      <c r="GA44">
+        <v>808.9249118163835</v>
+      </c>
+      <c r="GB44">
+        <v>524.7822504163031</v>
+      </c>
+      <c r="GC44">
+        <v>1344.975323227697</v>
+      </c>
+      <c r="GD44">
+        <v>2184.933818183642</v>
+      </c>
+      <c r="GE44">
+        <v>0</v>
+      </c>
+      <c r="GF44">
+        <v>1338.897548960874</v>
+      </c>
     </row>
-    <row r="45" spans="1:175">
+    <row r="45" spans="1:188">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -24083,8 +25799,47 @@
       <c r="FS45">
         <v>741.7761624019241</v>
       </c>
+      <c r="FT45">
+        <v>1024.33879427389</v>
+      </c>
+      <c r="FU45">
+        <v>1719.337563231224</v>
+      </c>
+      <c r="FV45">
+        <v>941.3528095601845</v>
+      </c>
+      <c r="FW45">
+        <v>2238.836476121754</v>
+      </c>
+      <c r="FX45">
+        <v>2369.293856951108</v>
+      </c>
+      <c r="FY45">
+        <v>267.4801508070989</v>
+      </c>
+      <c r="FZ45">
+        <v>2648.668716114871</v>
+      </c>
+      <c r="GA45">
+        <v>1116.887223865106</v>
+      </c>
+      <c r="GB45">
+        <v>562.7970042104752</v>
+      </c>
+      <c r="GC45">
+        <v>2122.229810363167</v>
+      </c>
+      <c r="GD45">
+        <v>1960.280787775514</v>
+      </c>
+      <c r="GE45">
+        <v>1084.245970187232</v>
+      </c>
+      <c r="GF45">
+        <v>493.2620174868303</v>
+      </c>
     </row>
-    <row r="46" spans="1:175">
+    <row r="46" spans="1:188">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -24610,8 +26365,47 @@
       <c r="FS46">
         <v>455.4653813541684</v>
       </c>
+      <c r="FT46">
+        <v>1095.936964396971</v>
+      </c>
+      <c r="FU46">
+        <v>1506.915868564414</v>
+      </c>
+      <c r="FV46">
+        <v>721.9200721722793</v>
+      </c>
+      <c r="FW46">
+        <v>2205.606171059078</v>
+      </c>
+      <c r="FX46">
+        <v>2115.599817737079</v>
+      </c>
+      <c r="FY46">
+        <v>92.24119508760425</v>
+      </c>
+      <c r="FZ46">
+        <v>2361.97543645961</v>
+      </c>
+      <c r="GA46">
+        <v>854.59151967027</v>
+      </c>
+      <c r="GB46">
+        <v>301.226156485895</v>
+      </c>
+      <c r="GC46">
+        <v>1840.118824872799</v>
+      </c>
+      <c r="GD46">
+        <v>1855.779292698527</v>
+      </c>
+      <c r="GE46">
+        <v>824.2132756402364</v>
+      </c>
+      <c r="GF46">
+        <v>564.5988662923388</v>
+      </c>
     </row>
-    <row r="47" spans="1:175">
+    <row r="47" spans="1:188">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -25137,8 +26931,47 @@
       <c r="FS47">
         <v>622.2411035268569</v>
       </c>
+      <c r="FT47">
+        <v>1377.057768929679</v>
+      </c>
+      <c r="FU47">
+        <v>1772.568045659715</v>
+      </c>
+      <c r="FV47">
+        <v>578.7765844126178</v>
+      </c>
+      <c r="FW47">
+        <v>2519.155888968042</v>
+      </c>
+      <c r="FX47">
+        <v>2324.499446773549</v>
+      </c>
+      <c r="FY47">
+        <v>226.195091072986</v>
+      </c>
+      <c r="FZ47">
+        <v>2458.131052381989</v>
+      </c>
+      <c r="GA47">
+        <v>1072.231558122217</v>
+      </c>
+      <c r="GB47">
+        <v>326.4645256237236</v>
+      </c>
+      <c r="GC47">
+        <v>1974.374438864762</v>
+      </c>
+      <c r="GD47">
+        <v>2167.443376431992</v>
+      </c>
+      <c r="GE47">
+        <v>769.4219340353922</v>
+      </c>
+      <c r="GF47">
+        <v>836.4603302117282</v>
+      </c>
     </row>
-    <row r="48" spans="1:175">
+    <row r="48" spans="1:188">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -25664,8 +27497,47 @@
       <c r="FS48">
         <v>507.8009905580573</v>
       </c>
+      <c r="FT48">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="FU48">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="FV48">
+        <v>687.589820448837</v>
+      </c>
+      <c r="FW48">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="FX48">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FY48">
+        <v>0</v>
+      </c>
+      <c r="FZ48">
+        <v>2406.335303967287</v>
+      </c>
+      <c r="GA48">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="GB48">
+        <v>295.3976522992114</v>
+      </c>
+      <c r="GC48">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="GD48">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="GE48">
+        <v>817.3587631501539</v>
+      </c>
+      <c r="GF48">
+        <v>626.5915178077541</v>
+      </c>
     </row>
-    <row r="49" spans="1:175">
+    <row r="49" spans="1:188">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -26191,8 +28063,47 @@
       <c r="FS49">
         <v>366.5033846826824</v>
       </c>
+      <c r="FT49">
+        <v>1147.029781521533</v>
+      </c>
+      <c r="FU49">
+        <v>1455.106311487037</v>
+      </c>
+      <c r="FV49">
+        <v>650.6764070209389</v>
+      </c>
+      <c r="FW49">
+        <v>2217.580546933605</v>
+      </c>
+      <c r="FX49">
+        <v>2043.423364269398</v>
+      </c>
+      <c r="FY49">
+        <v>145.7882796965619</v>
+      </c>
+      <c r="FZ49">
+        <v>2271.150836845505</v>
+      </c>
+      <c r="GA49">
+        <v>781.6633328847261</v>
+      </c>
+      <c r="GB49">
+        <v>220.0126786021348</v>
+      </c>
+      <c r="GC49">
+        <v>1752.930284369352</v>
+      </c>
+      <c r="GD49">
+        <v>1844.775310027142</v>
+      </c>
+      <c r="GE49">
+        <v>736.8013576909603</v>
+      </c>
+      <c r="GF49">
+        <v>627.1145873979671</v>
+      </c>
     </row>
-    <row r="50" spans="1:175">
+    <row r="50" spans="1:188">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -26718,8 +28629,47 @@
       <c r="FS50">
         <v>507.0739383664227</v>
       </c>
+      <c r="FT50">
+        <v>1486.861547401626</v>
+      </c>
+      <c r="FU50">
+        <v>1688.682576980445</v>
+      </c>
+      <c r="FV50">
+        <v>369.7623910080335</v>
+      </c>
+      <c r="FW50">
+        <v>2558.523020105009</v>
+      </c>
+      <c r="FX50">
+        <v>2186.455970611118</v>
+      </c>
+      <c r="FY50">
+        <v>334.9623995294463</v>
+      </c>
+      <c r="FZ50">
+        <v>2264.887177015536</v>
+      </c>
+      <c r="GA50">
+        <v>960.3339955103513</v>
+      </c>
+      <c r="GB50">
+        <v>203.1677295790646</v>
+      </c>
+      <c r="GC50">
+        <v>1797.773746664019</v>
+      </c>
+      <c r="GD50">
+        <v>2162.598411548857</v>
+      </c>
+      <c r="GE50">
+        <v>555.8164620551599</v>
+      </c>
+      <c r="GF50">
+        <v>955.2360002939307</v>
+      </c>
     </row>
-    <row r="51" spans="1:175">
+    <row r="51" spans="1:188">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -27245,8 +29195,47 @@
       <c r="FS51">
         <v>440.5289576377635</v>
       </c>
+      <c r="FT51">
+        <v>1177.525810938293</v>
+      </c>
+      <c r="FU51">
+        <v>1539.993593385953</v>
+      </c>
+      <c r="FV51">
+        <v>645.3713052189403</v>
+      </c>
+      <c r="FW51">
+        <v>2278.959077323523</v>
+      </c>
+      <c r="FX51">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="FY51">
+        <v>68.02076529614645</v>
+      </c>
+      <c r="FZ51">
+        <v>2338.333692743688</v>
+      </c>
+      <c r="GA51">
+        <v>864.9100117272241</v>
+      </c>
+      <c r="GB51">
+        <v>235.9926750336956</v>
+      </c>
+      <c r="GC51">
+        <v>1826.182650569356</v>
+      </c>
+      <c r="GD51">
+        <v>1918.361865253077</v>
+      </c>
+      <c r="GE51">
+        <v>760.5930825326394</v>
+      </c>
+      <c r="GF51">
+        <v>645.8822385250492</v>
+      </c>
     </row>
-    <row r="52" spans="1:175">
+    <row r="52" spans="1:188">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -27772,8 +29761,47 @@
       <c r="FS52">
         <v>519.9308673513192</v>
       </c>
+      <c r="FT52">
+        <v>1118.695029320384</v>
+      </c>
+      <c r="FU52">
+        <v>1579.367853106086</v>
+      </c>
+      <c r="FV52">
+        <v>731.3580729839653</v>
+      </c>
+      <c r="FW52">
+        <v>2254.32488075841</v>
+      </c>
+      <c r="FX52">
+        <v>2188.003725412793</v>
+      </c>
+      <c r="FY52">
+        <v>46.41187113353489</v>
+      </c>
+      <c r="FZ52">
+        <v>2424.027813383663</v>
+      </c>
+      <c r="GA52">
+        <v>926.6696853912049</v>
+      </c>
+      <c r="GB52">
+        <v>330.5179178289891</v>
+      </c>
+      <c r="GC52">
+        <v>1906.267085249128</v>
+      </c>
+      <c r="GD52">
+        <v>1916.373273195157</v>
+      </c>
+      <c r="GE52">
+        <v>854.7191709424565</v>
+      </c>
+      <c r="GF52">
+        <v>580.557837723432</v>
+      </c>
     </row>
-    <row r="53" spans="1:175">
+    <row r="53" spans="1:188">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -28299,8 +30327,47 @@
       <c r="FS53">
         <v>403.3966689560276</v>
       </c>
+      <c r="FT53">
+        <v>1155.888266734348</v>
+      </c>
+      <c r="FU53">
+        <v>1494.72308145771</v>
+      </c>
+      <c r="FV53">
+        <v>651.9466940040791</v>
+      </c>
+      <c r="FW53">
+        <v>2242.715469121756</v>
+      </c>
+      <c r="FX53">
+        <v>2083.629380884304</v>
+      </c>
+      <c r="FY53">
+        <v>105.9898320501571</v>
+      </c>
+      <c r="FZ53">
+        <v>2305.82214210157</v>
+      </c>
+      <c r="GA53">
+        <v>821.9127281234219</v>
+      </c>
+      <c r="GB53">
+        <v>228.7657657151987</v>
+      </c>
+      <c r="GC53">
+        <v>1789.937396762529</v>
+      </c>
+      <c r="GD53">
+        <v>1876.717489671799</v>
+      </c>
+      <c r="GE53">
+        <v>751.8609641086211</v>
+      </c>
+      <c r="GF53">
+        <v>629.5586374117785</v>
+      </c>
     </row>
-    <row r="54" spans="1:175">
+    <row r="54" spans="1:188">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -28826,8 +30893,47 @@
       <c r="FS54">
         <v>540.5939823983861</v>
       </c>
+      <c r="FT54">
+        <v>1203.622894190623</v>
+      </c>
+      <c r="FU54">
+        <v>1640.129824602487</v>
+      </c>
+      <c r="FV54">
+        <v>672.6374765387297</v>
+      </c>
+      <c r="FW54">
+        <v>2341.415349436308</v>
+      </c>
+      <c r="FX54">
+        <v>2229.618014109515</v>
+      </c>
+      <c r="FY54">
+        <v>50.72838674286199</v>
+      </c>
+      <c r="FZ54">
+        <v>2431.228443106197</v>
+      </c>
+      <c r="GA54">
+        <v>968.2090243034412</v>
+      </c>
+      <c r="GB54">
+        <v>303.5739546757216</v>
+      </c>
+      <c r="GC54">
+        <v>1924.052138685201</v>
+      </c>
+      <c r="GD54">
+        <v>1998.333805919081</v>
+      </c>
+      <c r="GE54">
+        <v>817.2578983014064</v>
+      </c>
+      <c r="GF54">
+        <v>664.1817872163393</v>
+      </c>
     </row>
-    <row r="55" spans="1:175">
+    <row r="55" spans="1:188">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -29353,8 +31459,47 @@
       <c r="FS55">
         <v>520.8380927333058</v>
       </c>
+      <c r="FT55">
+        <v>941.6138316362913</v>
+      </c>
+      <c r="FU55">
+        <v>1457.020973451717</v>
+      </c>
+      <c r="FV55">
+        <v>869.962280914538</v>
+      </c>
+      <c r="FW55">
+        <v>2069.560239301473</v>
+      </c>
+      <c r="FX55">
+        <v>2106.044612398462</v>
+      </c>
+      <c r="FY55">
+        <v>228.1105643415489</v>
+      </c>
+      <c r="FZ55">
+        <v>2415.79200558208</v>
+      </c>
+      <c r="GA55">
+        <v>858.5658500087894</v>
+      </c>
+      <c r="GB55">
+        <v>440.7715081940946</v>
+      </c>
+      <c r="GC55">
+        <v>1878.166536238873</v>
+      </c>
+      <c r="GD55">
+        <v>1743.246987433977</v>
+      </c>
+      <c r="GE55">
+        <v>953.3706239468535</v>
+      </c>
+      <c r="GF55">
+        <v>410.8224260220781</v>
+      </c>
     </row>
-    <row r="56" spans="1:175">
+    <row r="56" spans="1:188">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -29880,8 +32025,47 @@
       <c r="FS56">
         <v>1712.958890746949</v>
       </c>
+      <c r="FT56">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="FU56">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="FV56">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FW56">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="FX56">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FY56">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="FZ56">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="GA56">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="GB56">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="GC56">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="GD56">
+        <v>0</v>
+      </c>
+      <c r="GE56">
+        <v>2184.933818183642</v>
+      </c>
+      <c r="GF56">
+        <v>1521.801904484974</v>
+      </c>
     </row>
-    <row r="57" spans="1:175">
+    <row r="57" spans="1:188">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -30407,8 +32591,47 @@
       <c r="FS57">
         <v>1579.529605844037</v>
       </c>
+      <c r="FT57">
+        <v>1174.974862743859</v>
+      </c>
+      <c r="FU57">
+        <v>714.3329203907607</v>
+      </c>
+      <c r="FV57">
+        <v>2168.871014282338</v>
+      </c>
+      <c r="FW57">
+        <v>741.9941724982177</v>
+      </c>
+      <c r="FX57">
+        <v>1367.643024033791</v>
+      </c>
+      <c r="FY57">
+        <v>1831.784379386889</v>
+      </c>
+      <c r="FZ57">
+        <v>2247.01036799259</v>
+      </c>
+      <c r="GA57">
+        <v>1244.002265374939</v>
+      </c>
+      <c r="GB57">
+        <v>1838.705873627947</v>
+      </c>
+      <c r="GC57">
+        <v>1728.367135958493</v>
+      </c>
+      <c r="GD57">
+        <v>143.4959789630574</v>
+      </c>
+      <c r="GE57">
+        <v>2045.365509620538</v>
+      </c>
+      <c r="GF57">
+        <v>1434.170334138102</v>
+      </c>
     </row>
-    <row r="58" spans="1:175">
+    <row r="58" spans="1:188">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -30934,8 +33157,47 @@
       <c r="FS58">
         <v>1879.462760743626</v>
       </c>
+      <c r="FT58">
+        <v>1406.225268311255</v>
+      </c>
+      <c r="FU58">
+        <v>928.4607188114537</v>
+      </c>
+      <c r="FV58">
+        <v>2466.81567997644</v>
+      </c>
+      <c r="FW58">
+        <v>613.3949530573411</v>
+      </c>
+      <c r="FX58">
+        <v>1458.210387784508</v>
+      </c>
+      <c r="FY58">
+        <v>2132.78745792187</v>
+      </c>
+      <c r="FZ58">
+        <v>2390.689742061864</v>
+      </c>
+      <c r="GA58">
+        <v>1530.408810780716</v>
+      </c>
+      <c r="GB58">
+        <v>2141.070515819373</v>
+      </c>
+      <c r="GC58">
+        <v>1907.259638794943</v>
+      </c>
+      <c r="GD58">
+        <v>194.1363056056288</v>
+      </c>
+      <c r="GE58">
+        <v>2336.429842641679</v>
+      </c>
+      <c r="GF58">
+        <v>1715.690378637673</v>
+      </c>
     </row>
-    <row r="59" spans="1:175">
+    <row r="59" spans="1:188">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -31461,8 +33723,47 @@
       <c r="FS59">
         <v>1458.321487475708</v>
       </c>
+      <c r="FT59">
+        <v>1062.372994576193</v>
+      </c>
+      <c r="FU59">
+        <v>674.9747676672591</v>
+      </c>
+      <c r="FV59">
+        <v>2049.813197151171</v>
+      </c>
+      <c r="FW59">
+        <v>800.6469760851916</v>
+      </c>
+      <c r="FX59">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="FY59">
+        <v>1700.555790702361</v>
+      </c>
+      <c r="FZ59">
+        <v>2226.831199363003</v>
+      </c>
+      <c r="GA59">
+        <v>1138.723307843685</v>
+      </c>
+      <c r="GB59">
+        <v>1712.524250521775</v>
+      </c>
+      <c r="GC59">
+        <v>1692.732673551185</v>
+      </c>
+      <c r="GD59">
+        <v>254.694544939913</v>
+      </c>
+      <c r="GE59">
+        <v>1933.642377930124</v>
+      </c>
+      <c r="GF59">
+        <v>1303.355668270563</v>
+      </c>
     </row>
-    <row r="60" spans="1:175">
+    <row r="60" spans="1:188">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -31988,8 +34289,47 @@
       <c r="FS60">
         <v>1519.305594937145</v>
       </c>
+      <c r="FT60">
+        <v>1268.813089008749</v>
+      </c>
+      <c r="FU60">
+        <v>558.6607201629156</v>
+      </c>
+      <c r="FV60">
+        <v>2099.596057966915</v>
+      </c>
+      <c r="FW60">
+        <v>904.2643322405752</v>
+      </c>
+      <c r="FX60">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="FY60">
+        <v>1814.117379681718</v>
+      </c>
+      <c r="FZ60">
+        <v>2078.003067948911</v>
+      </c>
+      <c r="GA60">
+        <v>1151.272157527125</v>
+      </c>
+      <c r="GB60">
+        <v>1793.627309153909</v>
+      </c>
+      <c r="GC60">
+        <v>1565.099913258613</v>
+      </c>
+      <c r="GD60">
+        <v>292.5196854541394</v>
+      </c>
+      <c r="GE60">
+        <v>1959.483814068845</v>
+      </c>
+      <c r="GF60">
+        <v>1469.710034203682</v>
+      </c>
     </row>
-    <row r="61" spans="1:175">
+    <row r="61" spans="1:188">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -32515,8 +34855,47 @@
       <c r="FS61">
         <v>1801.583669203883</v>
       </c>
+      <c r="FT61">
+        <v>1309.666653667009</v>
+      </c>
+      <c r="FU61">
+        <v>894.6578043382506</v>
+      </c>
+      <c r="FV61">
+        <v>2391.295791045003</v>
+      </c>
+      <c r="FW61">
+        <v>593.8897389818142</v>
+      </c>
+      <c r="FX61">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FY61">
+        <v>2043.771658392359</v>
+      </c>
+      <c r="FZ61">
+        <v>2388.147477045949</v>
+      </c>
+      <c r="GA61">
+        <v>1464.272447824977</v>
+      </c>
+      <c r="GB61">
+        <v>2058.48544681988</v>
+      </c>
+      <c r="GC61">
+        <v>1890.979430310116</v>
+      </c>
+      <c r="GD61">
+        <v>98.05901464887026</v>
+      </c>
+      <c r="GE61">
+        <v>2267.141399197434</v>
+      </c>
+      <c r="GF61">
+        <v>1619.692114480247</v>
+      </c>
     </row>
-    <row r="62" spans="1:175">
+    <row r="62" spans="1:188">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -33042,8 +35421,47 @@
       <c r="FS62">
         <v>1724.192530942505</v>
       </c>
+      <c r="FT62">
+        <v>956.7917471854025</v>
+      </c>
+      <c r="FU62">
+        <v>1096.169081390228</v>
+      </c>
+      <c r="FV62">
+        <v>2316.897532167678</v>
+      </c>
+      <c r="FW62">
+        <v>442.5183713362562</v>
+      </c>
+      <c r="FX62">
+        <v>1789.713125354962</v>
+      </c>
+      <c r="FY62">
+        <v>1865.406391911059</v>
+      </c>
+      <c r="FZ62">
+        <v>2648.644410534672</v>
+      </c>
+      <c r="GA62">
+        <v>1476.87460710462</v>
+      </c>
+      <c r="GB62">
+        <v>1938.010722329472</v>
+      </c>
+      <c r="GC62">
+        <v>2112.998715443366</v>
+      </c>
+      <c r="GD62">
+        <v>360.9731297400503</v>
+      </c>
+      <c r="GE62">
+        <v>2235.844710275173</v>
+      </c>
+      <c r="GF62">
+        <v>1354.898587323019</v>
+      </c>
     </row>
-    <row r="63" spans="1:175">
+    <row r="63" spans="1:188">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -33569,8 +35987,47 @@
       <c r="FS63">
         <v>1182.604231994676</v>
       </c>
+      <c r="FT63">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="FU63">
+        <v>0</v>
+      </c>
+      <c r="FV63">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="FW63">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="FX63">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FY63">
+        <v>1592.844294549488</v>
+      </c>
+      <c r="FZ63">
+        <v>1555.370820870623</v>
+      </c>
+      <c r="GA63">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="GB63">
+        <v>1487.212085563108</v>
+      </c>
+      <c r="GC63">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="GD63">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="GE63">
+        <v>1526.083523222766</v>
+      </c>
+      <c r="GF63">
+        <v>1447.372454793094</v>
+      </c>
     </row>
-    <row r="64" spans="1:175">
+    <row r="64" spans="1:188">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -34096,8 +36553,47 @@
       <c r="FS64">
         <v>1032.198007813574</v>
       </c>
+      <c r="FT64">
+        <v>1152.808813437833</v>
+      </c>
+      <c r="FU64">
+        <v>302.8748624694482</v>
+      </c>
+      <c r="FV64">
+        <v>1603.175640372244</v>
+      </c>
+      <c r="FW64">
+        <v>1312.770493539037</v>
+      </c>
+      <c r="FX64">
+        <v>1086.680734677368</v>
+      </c>
+      <c r="FY64">
+        <v>1379.082979396924</v>
+      </c>
+      <c r="FZ64">
+        <v>1800.281730152573</v>
+      </c>
+      <c r="GA64">
+        <v>649.6839626712886</v>
+      </c>
+      <c r="GB64">
+        <v>1319.608174212826</v>
+      </c>
+      <c r="GC64">
+        <v>1239.214365246256</v>
+      </c>
+      <c r="GD64">
+        <v>746.9099455086618</v>
+      </c>
+      <c r="GE64">
+        <v>1457.987891725407</v>
+      </c>
+      <c r="GF64">
+        <v>1162.992986188108</v>
+      </c>
     </row>
-    <row r="65" spans="1:175">
+    <row r="65" spans="1:188">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -34623,8 +37119,47 @@
       <c r="FS65">
         <v>1225.122161815765</v>
       </c>
+      <c r="FT65">
+        <v>1664.225575478051</v>
+      </c>
+      <c r="FU65">
+        <v>232.6038714904711</v>
+      </c>
+      <c r="FV65">
+        <v>1699.303973312193</v>
+      </c>
+      <c r="FW65">
+        <v>1670.037460352651</v>
+      </c>
+      <c r="FX65">
+        <v>579.638425840815</v>
+      </c>
+      <c r="FY65">
+        <v>1677.71221367733</v>
+      </c>
+      <c r="FZ65">
+        <v>1325.334161500135</v>
+      </c>
+      <c r="GA65">
+        <v>770.0085988518408</v>
+      </c>
+      <c r="GB65">
+        <v>1534.091619523791</v>
+      </c>
+      <c r="GC65">
+        <v>799.0861652196731</v>
+      </c>
+      <c r="GD65">
+        <v>1058.528985589027</v>
+      </c>
+      <c r="GE65">
+        <v>1492.150641507411</v>
+      </c>
+      <c r="GF65">
+        <v>1608.767796622782</v>
+      </c>
     </row>
-    <row r="66" spans="1:175">
+    <row r="66" spans="1:188">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -35150,8 +37685,47 @@
       <c r="FS66">
         <v>1205.121608579108</v>
       </c>
+      <c r="FT66">
+        <v>1488.464409476226</v>
+      </c>
+      <c r="FU66">
+        <v>33.84503696752498</v>
+      </c>
+      <c r="FV66">
+        <v>1725.572323643961</v>
+      </c>
+      <c r="FW66">
+        <v>1472.984549208486</v>
+      </c>
+      <c r="FX66">
+        <v>753.0000765960648</v>
+      </c>
+      <c r="FY66">
+        <v>1620.215667625813</v>
+      </c>
+      <c r="FZ66">
+        <v>1531.17349697149</v>
+      </c>
+      <c r="GA66">
+        <v>761.6112661088823</v>
+      </c>
+      <c r="GB66">
+        <v>1510.637973388774</v>
+      </c>
+      <c r="GC66">
+        <v>998.3161386727373</v>
+      </c>
+      <c r="GD66">
+        <v>863.8510562006435</v>
+      </c>
+      <c r="GE66">
+        <v>1539.799026825227</v>
+      </c>
+      <c r="GF66">
+        <v>1480.339600527344</v>
+      </c>
     </row>
-    <row r="67" spans="1:175">
+    <row r="67" spans="1:188">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -35677,8 +38251,47 @@
       <c r="FS67">
         <v>1056.806093947772</v>
       </c>
+      <c r="FT67">
+        <v>1270.738839531788</v>
+      </c>
+      <c r="FU67">
+        <v>189.2344112232919</v>
+      </c>
+      <c r="FV67">
+        <v>1610.302609668838</v>
+      </c>
+      <c r="FW67">
+        <v>1387.394876575396</v>
+      </c>
+      <c r="FX67">
+        <v>968.6136688862637</v>
+      </c>
+      <c r="FY67">
+        <v>1436.442388385263</v>
+      </c>
+      <c r="FZ67">
+        <v>1687.827754178614</v>
+      </c>
+      <c r="GA67">
+        <v>642.6366431223045</v>
+      </c>
+      <c r="GB67">
+        <v>1353.932247849718</v>
+      </c>
+      <c r="GC67">
+        <v>1131.178573497587</v>
+      </c>
+      <c r="GD67">
+        <v>801.3504864338805</v>
+      </c>
+      <c r="GE67">
+        <v>1448.715819828684</v>
+      </c>
+      <c r="GF67">
+        <v>1260.897726577338</v>
+      </c>
     </row>
-    <row r="68" spans="1:175">
+    <row r="68" spans="1:188">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -36204,8 +38817,47 @@
       <c r="FS68">
         <v>1004.831728154517</v>
       </c>
+      <c r="FT68">
+        <v>1388.95638950359</v>
+      </c>
+      <c r="FU68">
+        <v>179.8266870929529</v>
+      </c>
+      <c r="FV68">
+        <v>1528.937183021177</v>
+      </c>
+      <c r="FW68">
+        <v>1548.706317579863</v>
+      </c>
+      <c r="FX68">
+        <v>865.0336529388038</v>
+      </c>
+      <c r="FY68">
+        <v>1425.801597711021</v>
+      </c>
+      <c r="FZ68">
+        <v>1531.854605450893</v>
+      </c>
+      <c r="GA68">
+        <v>562.3372593958078</v>
+      </c>
+      <c r="GB68">
+        <v>1310.627258356753</v>
+      </c>
+      <c r="GC68">
+        <v>970.5874335205049</v>
+      </c>
+      <c r="GD68">
+        <v>956.3724738276285</v>
+      </c>
+      <c r="GE68">
+        <v>1349.218847475684</v>
+      </c>
+      <c r="GF68">
+        <v>1323.112769129727</v>
+      </c>
     </row>
-    <row r="69" spans="1:175">
+    <row r="69" spans="1:188">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -36731,8 +39383,47 @@
       <c r="FS69">
         <v>1233.528694333948</v>
       </c>
+      <c r="FT69">
+        <v>1402.81190903839</v>
+      </c>
+      <c r="FU69">
+        <v>107.0697737575445</v>
+      </c>
+      <c r="FV69">
+        <v>1775.424577226897</v>
+      </c>
+      <c r="FW69">
+        <v>1349.905749892677</v>
+      </c>
+      <c r="FX69">
+        <v>852.6759613393226</v>
+      </c>
+      <c r="FY69">
+        <v>1621.405530564566</v>
+      </c>
+      <c r="FZ69">
+        <v>1654.240744621133</v>
+      </c>
+      <c r="GA69">
+        <v>805.6935487948261</v>
+      </c>
+      <c r="GB69">
+        <v>1533.728184429853</v>
+      </c>
+      <c r="GC69">
+        <v>1122.380803958357</v>
+      </c>
+      <c r="GD69">
+        <v>742.0425671156638</v>
+      </c>
+      <c r="GE69">
+        <v>1602.199154307693</v>
+      </c>
+      <c r="GF69">
+        <v>1433.534981433488</v>
+      </c>
     </row>
-    <row r="70" spans="1:175">
+    <row r="70" spans="1:188">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -37258,8 +39949,47 @@
       <c r="FS70">
         <v>981.9833781749766</v>
       </c>
+      <c r="FT70">
+        <v>1232.223986342361</v>
+      </c>
+      <c r="FU70">
+        <v>249.4380072966607</v>
+      </c>
+      <c r="FV70">
+        <v>1538.435889182408</v>
+      </c>
+      <c r="FW70">
+        <v>1422.208408237486</v>
+      </c>
+      <c r="FX70">
+        <v>1011.405534579599</v>
+      </c>
+      <c r="FY70">
+        <v>1361.439387908185</v>
+      </c>
+      <c r="FZ70">
+        <v>1693.472690553678</v>
+      </c>
+      <c r="GA70">
+        <v>572.8699181703921</v>
+      </c>
+      <c r="GB70">
+        <v>1278.476133202621</v>
+      </c>
+      <c r="GC70">
+        <v>1129.568180991047</v>
+      </c>
+      <c r="GD70">
+        <v>847.6816562721161</v>
+      </c>
+      <c r="GE70">
+        <v>1380.780827032846</v>
+      </c>
+      <c r="GF70">
+        <v>1198.340917086457</v>
+      </c>
     </row>
-    <row r="71" spans="1:175">
+    <row r="71" spans="1:188">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -37785,8 +40515,47 @@
       <c r="FS71">
         <v>1329.704811022829</v>
       </c>
+      <c r="FT71">
+        <v>2171.121949023391</v>
+      </c>
+      <c r="FU71">
+        <v>873.579957474921</v>
+      </c>
+      <c r="FV71">
+        <v>1598.563169443345</v>
+      </c>
+      <c r="FW71">
+        <v>2323.199939147177</v>
+      </c>
+      <c r="FX71">
+        <v>564.0475214545233</v>
+      </c>
+      <c r="FY71">
+        <v>1837.105501767512</v>
+      </c>
+      <c r="FZ71">
+        <v>701.6493097757242</v>
+      </c>
+      <c r="GA71">
+        <v>955.6531922966975</v>
+      </c>
+      <c r="GB71">
+        <v>1606.190689103894</v>
+      </c>
+      <c r="GC71">
+        <v>146.1486715652675</v>
+      </c>
+      <c r="GD71">
+        <v>1711.601523545493</v>
+      </c>
+      <c r="GE71">
+        <v>1345.201782396599</v>
+      </c>
+      <c r="GF71">
+        <v>1978.496700469187</v>
+      </c>
     </row>
-    <row r="72" spans="1:175">
+    <row r="72" spans="1:188">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -38312,8 +41081,47 @@
       <c r="FS72">
         <v>1753.177461365114</v>
       </c>
+      <c r="FT72">
+        <v>2521.774448257541</v>
+      </c>
+      <c r="FU72">
+        <v>1121.149891729814</v>
+      </c>
+      <c r="FV72">
+        <v>2008.490445839093</v>
+      </c>
+      <c r="FW72">
+        <v>2496.662306113575</v>
+      </c>
+      <c r="FX72">
+        <v>459.1223610704129</v>
+      </c>
+      <c r="FY72">
+        <v>2260.168513170813</v>
+      </c>
+      <c r="FZ72">
+        <v>513.3066621313901</v>
+      </c>
+      <c r="GA72">
+        <v>1366.532293359762</v>
+      </c>
+      <c r="GB72">
+        <v>2030.419811251658</v>
+      </c>
+      <c r="GC72">
+        <v>409.2094277671001</v>
+      </c>
+      <c r="GD72">
+        <v>1890.566338866817</v>
+      </c>
+      <c r="GE72">
+        <v>1751.687605798541</v>
+      </c>
+      <c r="GF72">
+        <v>2374.138874090274</v>
+      </c>
     </row>
-    <row r="73" spans="1:175">
+    <row r="73" spans="1:188">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -38839,8 +41647,47 @@
       <c r="FS73">
         <v>1646.110380745351</v>
       </c>
+      <c r="FT73">
+        <v>2592.885919350477</v>
+      </c>
+      <c r="FU73">
+        <v>1305.126252294265</v>
+      </c>
+      <c r="FV73">
+        <v>1791.014086632373</v>
+      </c>
+      <c r="FW73">
+        <v>2744.677394159593</v>
+      </c>
+      <c r="FX73">
+        <v>808.2252201700509</v>
+      </c>
+      <c r="FY73">
+        <v>2149.109981067109</v>
+      </c>
+      <c r="FZ73">
+        <v>273.8377376902392</v>
+      </c>
+      <c r="GA73">
+        <v>1332.329436063281</v>
+      </c>
+      <c r="GB73">
+        <v>1890.092789428946</v>
+      </c>
+      <c r="GC73">
+        <v>304.0374006734781</v>
+      </c>
+      <c r="GD73">
+        <v>2132.498827978574</v>
+      </c>
+      <c r="GE73">
+        <v>1531.146192972155</v>
+      </c>
+      <c r="GF73">
+        <v>2365.092307862843</v>
+      </c>
     </row>
-    <row r="74" spans="1:175">
+    <row r="74" spans="1:188">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -39366,8 +42213,47 @@
       <c r="FS74">
         <v>1480.304325499007</v>
       </c>
+      <c r="FT74">
+        <v>2257.173449125231</v>
+      </c>
+      <c r="FU74">
+        <v>893.2118810424475</v>
+      </c>
+      <c r="FV74">
+        <v>1765.513056301651</v>
+      </c>
+      <c r="FW74">
+        <v>2316.521334110994</v>
+      </c>
+      <c r="FX74">
+        <v>425.5276968863239</v>
+      </c>
+      <c r="FY74">
+        <v>1986.220209848038</v>
+      </c>
+      <c r="FZ74">
+        <v>664.4656160577582</v>
+      </c>
+      <c r="GA74">
+        <v>1087.875346971875</v>
+      </c>
+      <c r="GB74">
+        <v>1762.629584225142</v>
+      </c>
+      <c r="GC74">
+        <v>237.4058624015208</v>
+      </c>
+      <c r="GD74">
+        <v>1704.810127305452</v>
+      </c>
+      <c r="GE74">
+        <v>1512.774922140095</v>
+      </c>
+      <c r="GF74">
+        <v>2096.55162701937</v>
+      </c>
     </row>
-    <row r="75" spans="1:175">
+    <row r="75" spans="1:188">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -39893,8 +42779,47 @@
       <c r="FS75">
         <v>1595.230604037031</v>
       </c>
+      <c r="FT75">
+        <v>2431.981251108199</v>
+      </c>
+      <c r="FU75">
+        <v>1081.488532034626</v>
+      </c>
+      <c r="FV75">
+        <v>1827.021981140202</v>
+      </c>
+      <c r="FW75">
+        <v>2502.223615724191</v>
+      </c>
+      <c r="FX75">
+        <v>546.0283918483485</v>
+      </c>
+      <c r="FY75">
+        <v>2103.030196370858</v>
+      </c>
+      <c r="FZ75">
+        <v>476.7399328676094</v>
+      </c>
+      <c r="GA75">
+        <v>1228.705510457825</v>
+      </c>
+      <c r="GB75">
+        <v>1864.79367793904</v>
+      </c>
+      <c r="GC75">
+        <v>224.2374854021976</v>
+      </c>
+      <c r="GD75">
+        <v>1890.93639892742</v>
+      </c>
+      <c r="GE75">
+        <v>1569.207324416219</v>
+      </c>
+      <c r="GF75">
+        <v>2250.968703903236</v>
+      </c>
     </row>
-    <row r="76" spans="1:175">
+    <row r="76" spans="1:188">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -40420,8 +43345,47 @@
       <c r="FS76">
         <v>1483.258354295864</v>
       </c>
+      <c r="FT76">
+        <v>2295.2138595336</v>
+      </c>
+      <c r="FU76">
+        <v>948.6759183891151</v>
+      </c>
+      <c r="FV76">
+        <v>1746.609525649385</v>
+      </c>
+      <c r="FW76">
+        <v>2378.450378414138</v>
+      </c>
+      <c r="FX76">
+        <v>487.011547218689</v>
+      </c>
+      <c r="FY76">
+        <v>1990.498302305505</v>
+      </c>
+      <c r="FZ76">
+        <v>606.7308341206729</v>
+      </c>
+      <c r="GA76">
+        <v>1103.433129294198</v>
+      </c>
+      <c r="GB76">
+        <v>1760.107068229698</v>
+      </c>
+      <c r="GC76">
+        <v>181.2894030044008</v>
+      </c>
+      <c r="GD76">
+        <v>1766.468128509116</v>
+      </c>
+      <c r="GE76">
+        <v>1491.659691234148</v>
+      </c>
+      <c r="GF76">
+        <v>2120.593147051139</v>
+      </c>
     </row>
-    <row r="77" spans="1:175">
+    <row r="77" spans="1:188">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -40947,8 +43911,47 @@
       <c r="FS77">
         <v>1386.563828253004</v>
       </c>
+      <c r="FT77">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="FU77">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="FV77">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="FW77">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="FX77">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="FY77">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="FZ77">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="GA77">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="GB77">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="GC77">
+        <v>0</v>
+      </c>
+      <c r="GD77">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="GE77">
+        <v>1344.975323227697</v>
+      </c>
+      <c r="GF77">
+        <v>2073.938014463946</v>
+      </c>
     </row>
-    <row r="78" spans="1:175">
+    <row r="78" spans="1:188">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -41474,8 +44477,47 @@
       <c r="FS78">
         <v>1637.217121241835</v>
       </c>
+      <c r="FT78">
+        <v>2403.050632691989</v>
+      </c>
+      <c r="FU78">
+        <v>1012.615310433973</v>
+      </c>
+      <c r="FV78">
+        <v>1907.885477686847</v>
+      </c>
+      <c r="FW78">
+        <v>2407.259504208528</v>
+      </c>
+      <c r="FX78">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="FY78">
+        <v>2143.607838751089</v>
+      </c>
+      <c r="FZ78">
+        <v>577.1982863134238</v>
+      </c>
+      <c r="GA78">
+        <v>1246.34942642334</v>
+      </c>
+      <c r="GB78">
+        <v>1917.381932143699</v>
+      </c>
+      <c r="GC78">
+        <v>325.4031523102259</v>
+      </c>
+      <c r="GD78">
+        <v>1798.332658341223</v>
+      </c>
+      <c r="GE78">
+        <v>1652.798869655626</v>
+      </c>
+      <c r="GF78">
+        <v>2252.761725222908</v>
+      </c>
     </row>
-    <row r="79" spans="1:175">
+    <row r="79" spans="1:188">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -42001,8 +45043,47 @@
       <c r="FS79">
         <v>674.4512416612494</v>
       </c>
+      <c r="FT79">
+        <v>1497.899898365263</v>
+      </c>
+      <c r="FU79">
+        <v>615.9853988904827</v>
+      </c>
+      <c r="FV79">
+        <v>1118.985232914958</v>
+      </c>
+      <c r="FW79">
+        <v>1939.625037337395</v>
+      </c>
+      <c r="FX79">
+        <v>1028.280642550083</v>
+      </c>
+      <c r="FY79">
+        <v>1164.020939396995</v>
+      </c>
+      <c r="FZ79">
+        <v>1382.587222149701</v>
+      </c>
+      <c r="GA79">
+        <v>243.6289659784976</v>
+      </c>
+      <c r="GB79">
+        <v>979.0386328321982</v>
+      </c>
+      <c r="GC79">
+        <v>812.6947054043526</v>
+      </c>
+      <c r="GD79">
+        <v>1373.298226931041</v>
+      </c>
+      <c r="GE79">
+        <v>917.7213742844619</v>
+      </c>
+      <c r="GF79">
+        <v>1262.622741749623</v>
+      </c>
     </row>
-    <row r="80" spans="1:175">
+    <row r="80" spans="1:188">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -42528,8 +45609,47 @@
       <c r="FS80">
         <v>632.9398862959245</v>
       </c>
+      <c r="FT80">
+        <v>1361.051770185596</v>
+      </c>
+      <c r="FU80">
+        <v>573.6370536670489</v>
+      </c>
+      <c r="FV80">
+        <v>1134.903363763771</v>
+      </c>
+      <c r="FW80">
+        <v>1826.073758601715</v>
+      </c>
+      <c r="FX80">
+        <v>1095.311251735366</v>
+      </c>
+      <c r="FY80">
+        <v>1097.222591840506</v>
+      </c>
+      <c r="FZ80">
+        <v>1513.553693513409</v>
+      </c>
+      <c r="GA80">
+        <v>177.8786399332136</v>
+      </c>
+      <c r="GB80">
+        <v>941.9094668858282</v>
+      </c>
+      <c r="GC80">
+        <v>940.5815185919871</v>
+      </c>
+      <c r="GD80">
+        <v>1273.557336349578</v>
+      </c>
+      <c r="GE80">
+        <v>957.0516653228299</v>
+      </c>
+      <c r="GF80">
+        <v>1142.964825926888</v>
+      </c>
     </row>
-    <row r="81" spans="1:175">
+    <row r="81" spans="1:188">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -43055,8 +46175,47 @@
       <c r="FS81">
         <v>621.3448838802391</v>
       </c>
+      <c r="FT81">
+        <v>1080.165273336332</v>
+      </c>
+      <c r="FU81">
+        <v>604.8643466475432</v>
+      </c>
+      <c r="FV81">
+        <v>1199.485455459765</v>
+      </c>
+      <c r="FW81">
+        <v>1619.287121571243</v>
+      </c>
+      <c r="FX81">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FY81">
+        <v>989.3330802994128</v>
+      </c>
+      <c r="FZ81">
+        <v>1788.589441457957</v>
+      </c>
+      <c r="GA81">
+        <v>295.8191950233522</v>
+      </c>
+      <c r="GB81">
+        <v>909.2927278698656</v>
+      </c>
+      <c r="GC81">
+        <v>1213.358985764359</v>
+      </c>
+      <c r="GD81">
+        <v>1112.098906652667</v>
+      </c>
+      <c r="GE81">
+        <v>1073.270664886812</v>
+      </c>
+      <c r="GF81">
+        <v>903.7920720149059</v>
+      </c>
     </row>
-    <row r="82" spans="1:175">
+    <row r="82" spans="1:188">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -43582,8 +46741,47 @@
       <c r="FS82">
         <v>582.6816464437462</v>
       </c>
+      <c r="FT82">
+        <v>1211.423372066764</v>
+      </c>
+      <c r="FU82">
+        <v>601.0347539873843</v>
+      </c>
+      <c r="FV82">
+        <v>1133.25561500881</v>
+      </c>
+      <c r="FW82">
+        <v>1734.500045075881</v>
+      </c>
+      <c r="FX82">
+        <v>1209.204222944999</v>
+      </c>
+      <c r="FY82">
+        <v>1006.577707663798</v>
+      </c>
+      <c r="FZ82">
+        <v>1663.723580182163</v>
+      </c>
+      <c r="GA82">
+        <v>179.0121187164972</v>
+      </c>
+      <c r="GB82">
+        <v>886.1841365439677</v>
+      </c>
+      <c r="GC82">
+        <v>1090.224183321514</v>
+      </c>
+      <c r="GD82">
+        <v>1206.658481128847</v>
+      </c>
+      <c r="GE82">
+        <v>984.2351544748586</v>
+      </c>
+      <c r="GF82">
+        <v>1000.382845051785</v>
+      </c>
     </row>
-    <row r="83" spans="1:175">
+    <row r="83" spans="1:188">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -44109,8 +47307,47 @@
       <c r="FS83">
         <v>410.2639656024951</v>
       </c>
+      <c r="FT83">
+        <v>1130.785046188998</v>
+      </c>
+      <c r="FU83">
+        <v>788.005044648549</v>
+      </c>
+      <c r="FV83">
+        <v>988.4218810096019</v>
+      </c>
+      <c r="FW83">
+        <v>1808.015615423747</v>
+      </c>
+      <c r="FX83">
+        <v>1396.01198343432</v>
+      </c>
+      <c r="FY83">
+        <v>812.921158720423</v>
+      </c>
+      <c r="FZ83">
+        <v>1790.067691801918</v>
+      </c>
+      <c r="GA83">
+        <v>187.9009605509411</v>
+      </c>
+      <c r="GB83">
+        <v>704.2033245577431</v>
+      </c>
+      <c r="GC83">
+        <v>1224.890335583636</v>
+      </c>
+      <c r="GD83">
+        <v>1318.733953250071</v>
+      </c>
+      <c r="GE83">
+        <v>871.915527224387</v>
+      </c>
+      <c r="GF83">
+        <v>849.0479585273794</v>
+      </c>
     </row>
-    <row r="84" spans="1:175">
+    <row r="84" spans="1:188">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -44636,8 +47873,47 @@
       <c r="FS84">
         <v>490.7578844520484</v>
       </c>
+      <c r="FT84">
+        <v>1421.402844152136</v>
+      </c>
+      <c r="FU84">
+        <v>759.8428935813431</v>
+      </c>
+      <c r="FV84">
+        <v>951.7955616167743</v>
+      </c>
+      <c r="FW84">
+        <v>1992.307265591839</v>
+      </c>
+      <c r="FX84">
+        <v>1211.593457365197</v>
+      </c>
+      <c r="FY84">
+        <v>984.8165205329321</v>
+      </c>
+      <c r="FZ84">
+        <v>1506.213772885434</v>
+      </c>
+      <c r="GA84">
+        <v>107.4292940712628</v>
+      </c>
+      <c r="GB84">
+        <v>794.868607158942</v>
+      </c>
+      <c r="GC84">
+        <v>949.7190605239954</v>
+      </c>
+      <c r="GD84">
+        <v>1452.930347077751</v>
+      </c>
+      <c r="GE84">
+        <v>767.871983738428</v>
+      </c>
+      <c r="GF84">
+        <v>1132.047406759517</v>
+      </c>
     </row>
-    <row r="85" spans="1:175">
+    <row r="85" spans="1:188">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -45163,8 +48439,47 @@
       <c r="FS85">
         <v>572.3459735225481</v>
       </c>
+      <c r="FT85">
+        <v>1531.5272503234</v>
+      </c>
+      <c r="FU85">
+        <v>763.5803695378321</v>
+      </c>
+      <c r="FV85">
+        <v>976.9616683642233</v>
+      </c>
+      <c r="FW85">
+        <v>2058.686824062338</v>
+      </c>
+      <c r="FX85">
+        <v>1139.234763227529</v>
+      </c>
+      <c r="FY85">
+        <v>1075.680296223071</v>
+      </c>
+      <c r="FZ85">
+        <v>1393.665695214136</v>
+      </c>
+      <c r="GA85">
+        <v>219.1491539917556</v>
+      </c>
+      <c r="GB85">
+        <v>867.1474725322995</v>
+      </c>
+      <c r="GC85">
+        <v>840.5343996236766</v>
+      </c>
+      <c r="GD85">
+        <v>1503.858635952434</v>
+      </c>
+      <c r="GE85">
+        <v>770.5699081451664</v>
+      </c>
+      <c r="GF85">
+        <v>1245.425025880942</v>
+      </c>
     </row>
-    <row r="86" spans="1:175">
+    <row r="86" spans="1:188">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -45690,8 +49005,47 @@
       <c r="FS86">
         <v>420.5131485125544</v>
       </c>
+      <c r="FT86">
+        <v>1358.995803506446</v>
+      </c>
+      <c r="FU86">
+        <v>796.7556962495172</v>
+      </c>
+      <c r="FV86">
+        <v>912.0844778520328</v>
+      </c>
+      <c r="FW86">
+        <v>1977.342631865509</v>
+      </c>
+      <c r="FX86">
+        <v>1283.966180389816</v>
+      </c>
+      <c r="FY86">
+        <v>908.4383377310276</v>
+      </c>
+      <c r="FZ86">
+        <v>1583.914020055373</v>
+      </c>
+      <c r="GA86">
+        <v>66.79262625569991</v>
+      </c>
+      <c r="GB86">
+        <v>727.6805321103533</v>
+      </c>
+      <c r="GC86">
+        <v>1029.160186995852</v>
+      </c>
+      <c r="GD86">
+        <v>1452.129922133154</v>
+      </c>
+      <c r="GE86">
+        <v>744.9398857485049</v>
+      </c>
+      <c r="GF86">
+        <v>1055.794126046708</v>
+      </c>
     </row>
-    <row r="87" spans="1:175">
+    <row r="87" spans="1:188">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -46217,8 +49571,47 @@
       <c r="FS87">
         <v>455.1515384320251</v>
       </c>
+      <c r="FT87">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="FU87">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="FV87">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="FW87">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="FX87">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FY87">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="FZ87">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="GA87">
+        <v>0</v>
+      </c>
+      <c r="GB87">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="GC87">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="GD87">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="GE87">
+        <v>808.9249118163835</v>
+      </c>
+      <c r="GF87">
+        <v>1032.766324625263</v>
+      </c>
     </row>
-    <row r="88" spans="1:175">
+    <row r="88" spans="1:188">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -46744,8 +50137,47 @@
       <c r="FS88">
         <v>2085.840642839735</v>
       </c>
+      <c r="FT88">
+        <v>1162.365885000306</v>
+      </c>
+      <c r="FU88">
+        <v>1450.574424036748</v>
+      </c>
+      <c r="FV88">
+        <v>2675.246242760777</v>
+      </c>
+      <c r="FW88">
+        <v>143.0416520787503</v>
+      </c>
+      <c r="FX88">
+        <v>2097.559283836537</v>
+      </c>
+      <c r="FY88">
+        <v>2187.645464108314</v>
+      </c>
+      <c r="FZ88">
+        <v>2990.883971444247</v>
+      </c>
+      <c r="GA88">
+        <v>1854.168852944468</v>
+      </c>
+      <c r="GB88">
+        <v>2284.411711379415</v>
+      </c>
+      <c r="GC88">
+        <v>2468.334609723202</v>
+      </c>
+      <c r="GD88">
+        <v>629.7390398150832</v>
+      </c>
+      <c r="GE88">
+        <v>2604.70555940965</v>
+      </c>
+      <c r="GF88">
+        <v>1633.819771344985</v>
+      </c>
     </row>
-    <row r="89" spans="1:175">
+    <row r="89" spans="1:188">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -47271,8 +50703,47 @@
       <c r="FS89">
         <v>2166.661152871417</v>
       </c>
+      <c r="FT89">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="FU89">
+        <v>1456.300827132447</v>
+      </c>
+      <c r="FV89">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="FW89">
+        <v>0</v>
+      </c>
+      <c r="FX89">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FY89">
+        <v>2292.978805295378</v>
+      </c>
+      <c r="FZ89">
+        <v>2978.161445398661</v>
+      </c>
+      <c r="GA89">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="GB89">
+        <v>2377.05705330035</v>
+      </c>
+      <c r="GC89">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="GD89">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="GE89">
+        <v>2677.482710022975</v>
+      </c>
+      <c r="GF89">
+        <v>1752.997237725009</v>
+      </c>
     </row>
-    <row r="90" spans="1:175">
+    <row r="90" spans="1:188">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -47798,8 +51269,47 @@
       <c r="FS90">
         <v>2341.336685435321</v>
       </c>
+      <c r="FT90">
+        <v>1393.752125503732</v>
+      </c>
+      <c r="FU90">
+        <v>1658.983447191009</v>
+      </c>
+      <c r="FV90">
+        <v>2931.283173519457</v>
+      </c>
+      <c r="FW90">
+        <v>202.7073544089431</v>
+      </c>
+      <c r="FX90">
+        <v>2260.555485237192</v>
+      </c>
+      <c r="FY90">
+        <v>2441.713349078249</v>
+      </c>
+      <c r="FZ90">
+        <v>3179.072486159952</v>
+      </c>
+      <c r="GA90">
+        <v>2101.186822142997</v>
+      </c>
+      <c r="GB90">
+        <v>2540.795111546557</v>
+      </c>
+      <c r="GC90">
+        <v>2671.654711549311</v>
+      </c>
+      <c r="GD90">
+        <v>814.420760765028</v>
+      </c>
+      <c r="GE90">
+        <v>2858.427081327212</v>
+      </c>
+      <c r="GF90">
+        <v>1880.415390181699</v>
+      </c>
     </row>
-    <row r="91" spans="1:175">
+    <row r="91" spans="1:188">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -48325,8 +51835,47 @@
       <c r="FS91">
         <v>2032.218298615531</v>
       </c>
+      <c r="FT91">
+        <v>1369.440922737579</v>
+      </c>
+      <c r="FU91">
+        <v>1179.000189021479</v>
+      </c>
+      <c r="FV91">
+        <v>2625.882080607564</v>
+      </c>
+      <c r="FW91">
+        <v>342.5767844385426</v>
+      </c>
+      <c r="FX91">
+        <v>1736.503454204559</v>
+      </c>
+      <c r="FY91">
+        <v>2230.944375741169</v>
+      </c>
+      <c r="FZ91">
+        <v>2666.033997145066</v>
+      </c>
+      <c r="GA91">
+        <v>1721.52108531072</v>
+      </c>
+      <c r="GB91">
+        <v>2273.20303874762</v>
+      </c>
+      <c r="GC91">
+        <v>2174.624107184008</v>
+      </c>
+      <c r="GD91">
+        <v>340.5001789684775</v>
+      </c>
+      <c r="GE91">
+        <v>2515.976150313739</v>
+      </c>
+      <c r="GF91">
+        <v>1753.151848716588</v>
+      </c>
     </row>
-    <row r="92" spans="1:175">
+    <row r="92" spans="1:188">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -48852,8 +52401,47 @@
       <c r="FS92">
         <v>2188.53726030792</v>
       </c>
+      <c r="FT92">
+        <v>1368.703328815124</v>
+      </c>
+      <c r="FU92">
+        <v>1423.404806204417</v>
+      </c>
+      <c r="FV92">
+        <v>2782.508769643509</v>
+      </c>
+      <c r="FW92">
+        <v>105.1140432231545</v>
+      </c>
+      <c r="FX92">
+        <v>2003.543313126395</v>
+      </c>
+      <c r="FY92">
+        <v>2336.59242806869</v>
+      </c>
+      <c r="FZ92">
+        <v>2928.55245556869</v>
+      </c>
+      <c r="GA92">
+        <v>1913.887027965326</v>
+      </c>
+      <c r="GB92">
+        <v>2408.795925242089</v>
+      </c>
+      <c r="GC92">
+        <v>2429.319500166556</v>
+      </c>
+      <c r="GD92">
+        <v>574.3830556368341</v>
+      </c>
+      <c r="GE92">
+        <v>2691.566375012972</v>
+      </c>
+      <c r="GF92">
+        <v>1811.52280855225</v>
+      </c>
     </row>
-    <row r="93" spans="1:175">
+    <row r="93" spans="1:188">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -49379,8 +52967,47 @@
       <c r="FS93">
         <v>2061.247868539997</v>
       </c>
+      <c r="FT93">
+        <v>1215.68886474172</v>
+      </c>
+      <c r="FU93">
+        <v>1358.758856541469</v>
+      </c>
+      <c r="FV93">
+        <v>2654.028735718156</v>
+      </c>
+      <c r="FW93">
+        <v>106.514079164533</v>
+      </c>
+      <c r="FX93">
+        <v>1983.373323291821</v>
+      </c>
+      <c r="FY93">
+        <v>2193.669996266093</v>
+      </c>
+      <c r="FZ93">
+        <v>2888.052681764204</v>
+      </c>
+      <c r="GA93">
+        <v>1804.527133820729</v>
+      </c>
+      <c r="GB93">
+        <v>2273.738630751659</v>
+      </c>
+      <c r="GC93">
+        <v>2373.791387667277</v>
+      </c>
+      <c r="GD93">
+        <v>520.9447492018544</v>
+      </c>
+      <c r="GE93">
+        <v>2571.234899093045</v>
+      </c>
+      <c r="GF93">
+        <v>1661.413652401142</v>
+      </c>
     </row>
-    <row r="94" spans="1:175">
+    <row r="94" spans="1:188">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -49906,8 +53533,47 @@
       <c r="FS94">
         <v>2233.877809707645</v>
       </c>
+      <c r="FT94">
+        <v>1468.734947707836</v>
+      </c>
+      <c r="FU94">
+        <v>1408.805720404409</v>
+      </c>
+      <c r="FV94">
+        <v>2828.310470874469</v>
+      </c>
+      <c r="FW94">
+        <v>226.9480192324523</v>
+      </c>
+      <c r="FX94">
+        <v>1950.357203408483</v>
+      </c>
+      <c r="FY94">
+        <v>2404.702132482176</v>
+      </c>
+      <c r="FZ94">
+        <v>2888.360523271532</v>
+      </c>
+      <c r="GA94">
+        <v>1939.100645380867</v>
+      </c>
+      <c r="GB94">
+        <v>2464.274705427926</v>
+      </c>
+      <c r="GC94">
+        <v>2402.350000456121</v>
+      </c>
+      <c r="GD94">
+        <v>567.5175633086475</v>
+      </c>
+      <c r="GE94">
+        <v>2727.26961221897</v>
+      </c>
+      <c r="GF94">
+        <v>1895.737273710907</v>
+      </c>
     </row>
-    <row r="95" spans="1:175">
+    <row r="95" spans="1:188">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -50433,8 +54099,47 @@
       <c r="FS95">
         <v>2068.688137287756</v>
       </c>
+      <c r="FT95">
+        <v>1180.967236908127</v>
+      </c>
+      <c r="FU95">
+        <v>1403.90047198046</v>
+      </c>
+      <c r="FV95">
+        <v>2659.846391539954</v>
+      </c>
+      <c r="FW95">
+        <v>113.6357700454867</v>
+      </c>
+      <c r="FX95">
+        <v>2042.132703633684</v>
+      </c>
+      <c r="FY95">
+        <v>2184.561276208833</v>
+      </c>
+      <c r="FZ95">
+        <v>2940.069799676609</v>
+      </c>
+      <c r="GA95">
+        <v>1825.722393253814</v>
+      </c>
+      <c r="GB95">
+        <v>2273.676962700783</v>
+      </c>
+      <c r="GC95">
+        <v>2420.857723788964</v>
+      </c>
+      <c r="GD95">
+        <v>575.5769397304546</v>
+      </c>
+      <c r="GE95">
+        <v>2583.756175746235</v>
+      </c>
+      <c r="GF95">
+        <v>1640.516312538851</v>
+      </c>
     </row>
-    <row r="96" spans="1:175">
+    <row r="96" spans="1:188">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -50960,8 +54665,47 @@
       <c r="FS96">
         <v>1762.294127114606</v>
       </c>
+      <c r="FT96">
+        <v>2286.439210074429</v>
+      </c>
+      <c r="FU96">
+        <v>831.7331936287776</v>
+      </c>
+      <c r="FV96">
+        <v>2139.401278860867</v>
+      </c>
+      <c r="FW96">
+        <v>2082.420511046259</v>
+      </c>
+      <c r="FX96">
+        <v>60.0945328883939</v>
+      </c>
+      <c r="FY96">
+        <v>2248.532332593565</v>
+      </c>
+      <c r="FZ96">
+        <v>981.5638096654868</v>
+      </c>
+      <c r="GA96">
+        <v>1321.276780816838</v>
+      </c>
+      <c r="GB96">
+        <v>2064.491448449923</v>
+      </c>
+      <c r="GC96">
+        <v>705.0375249777818</v>
+      </c>
+      <c r="GD96">
+        <v>1490.783063696187</v>
+      </c>
+      <c r="GE96">
+        <v>1898.645879019992</v>
+      </c>
+      <c r="GF96">
+        <v>2235.789718278801</v>
+      </c>
     </row>
-    <row r="97" spans="1:175">
+    <row r="97" spans="1:188">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -51487,8 +55231,47 @@
       <c r="FS97">
         <v>1622.338170277859</v>
       </c>
+      <c r="FT97">
+        <v>2143.922720523957</v>
+      </c>
+      <c r="FU97">
+        <v>690.9640408768793</v>
+      </c>
+      <c r="FV97">
+        <v>2015.274293857335</v>
+      </c>
+      <c r="FW97">
+        <v>1989.434008756974</v>
+      </c>
+      <c r="FX97">
+        <v>95.50454497260695</v>
+      </c>
+      <c r="FY97">
+        <v>2105.142435880916</v>
+      </c>
+      <c r="FZ97">
+        <v>1020.959963425247</v>
+      </c>
+      <c r="GA97">
+        <v>1178.127312488492</v>
+      </c>
+      <c r="GB97">
+        <v>1926.212498710177</v>
+      </c>
+      <c r="GC97">
+        <v>658.602244913885</v>
+      </c>
+      <c r="GD97">
+        <v>1388.796834748075</v>
+      </c>
+      <c r="GE97">
+        <v>1778.976847245407</v>
+      </c>
+      <c r="GF97">
+        <v>2087.602538020352</v>
+      </c>
     </row>
-    <row r="98" spans="1:175">
+    <row r="98" spans="1:188">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -52014,8 +55797,47 @@
       <c r="FS98">
         <v>1702.347825829961</v>
       </c>
+      <c r="FT98">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FU98">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FV98">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FW98">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FX98">
+        <v>0</v>
+      </c>
+      <c r="FY98">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FZ98">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="GA98">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="GB98">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="GC98">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="GD98">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="GE98">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="GF98">
+        <v>2181.129490787039</v>
+      </c>
     </row>
-    <row r="99" spans="1:175">
+    <row r="99" spans="1:188">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -52541,8 +56363,47 @@
       <c r="FS99">
         <v>1609.349008123349</v>
       </c>
+      <c r="FT99">
+        <v>2185.207656289705</v>
+      </c>
+      <c r="FU99">
+        <v>739.6756873231482</v>
+      </c>
+      <c r="FV99">
+        <v>1980.648067372531</v>
+      </c>
+      <c r="FW99">
+        <v>2068.825986885106</v>
+      </c>
+      <c r="FX99">
+        <v>100.4439222071138</v>
+      </c>
+      <c r="FY99">
+        <v>2099.128167886137</v>
+      </c>
+      <c r="FZ99">
+        <v>933.5392674050487</v>
+      </c>
+      <c r="GA99">
+        <v>1172.394111895128</v>
+      </c>
+      <c r="GB99">
+        <v>1910.071626924605</v>
+      </c>
+      <c r="GC99">
+        <v>577.5624918194264</v>
+      </c>
+      <c r="GD99">
+        <v>1465.440699228469</v>
+      </c>
+      <c r="GE99">
+        <v>1739.906634973697</v>
+      </c>
+      <c r="GF99">
+        <v>2107.965774877132</v>
+      </c>
     </row>
-    <row r="100" spans="1:175">
+    <row r="100" spans="1:188">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -53068,8 +56929,47 @@
       <c r="FS100">
         <v>1662.564205898721</v>
       </c>
+      <c r="FT100">
+        <v>2247.651411534252</v>
+      </c>
+      <c r="FU100">
+        <v>801.1993631117732</v>
+      </c>
+      <c r="FV100">
+        <v>2023.648622031338</v>
+      </c>
+      <c r="FW100">
+        <v>2118.036163968248</v>
+      </c>
+      <c r="FX100">
+        <v>82.58726662375588</v>
+      </c>
+      <c r="FY100">
+        <v>2154.50384690763</v>
+      </c>
+      <c r="FZ100">
+        <v>898.5532901470923</v>
+      </c>
+      <c r="GA100">
+        <v>1228.46894317921</v>
+      </c>
+      <c r="GB100">
+        <v>1961.878631361313</v>
+      </c>
+      <c r="GC100">
+        <v>581.262218244234</v>
+      </c>
+      <c r="GD100">
+        <v>1516.955095705132</v>
+      </c>
+      <c r="GE100">
+        <v>1780.550999277638</v>
+      </c>
+      <c r="GF100">
+        <v>2169.402735092009</v>
+      </c>
     </row>
-    <row r="101" spans="1:175">
+    <row r="101" spans="1:188">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -53595,8 +57495,47 @@
       <c r="FS101">
         <v>1596.044088785165</v>
       </c>
+      <c r="FT101">
+        <v>2172.194737866935</v>
+      </c>
+      <c r="FU101">
+        <v>727.4034514751789</v>
+      </c>
+      <c r="FV101">
+        <v>1968.775145502505</v>
+      </c>
+      <c r="FW101">
+        <v>2060.938632139293</v>
+      </c>
+      <c r="FX101">
+        <v>111.5757229068901</v>
+      </c>
+      <c r="FY101">
+        <v>2085.58068896</v>
+      </c>
+      <c r="FZ101">
+        <v>938.1754923583968</v>
+      </c>
+      <c r="GA101">
+        <v>1158.794735382131</v>
+      </c>
+      <c r="GB101">
+        <v>1896.930767292745</v>
+      </c>
+      <c r="GC101">
+        <v>573.7317210924773</v>
+      </c>
+      <c r="GD101">
+        <v>1456.902353546904</v>
+      </c>
+      <c r="GE101">
+        <v>1728.428836461589</v>
+      </c>
+      <c r="GF101">
+        <v>2094.194025192947</v>
+      </c>
     </row>
-    <row r="102" spans="1:175">
+    <row r="102" spans="1:188">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -54122,8 +58061,47 @@
       <c r="FS102">
         <v>1705.113718739868</v>
       </c>
+      <c r="FT102">
+        <v>2251.296659748836</v>
+      </c>
+      <c r="FU102">
+        <v>798.6172872664207</v>
+      </c>
+      <c r="FV102">
+        <v>2078.71904921713</v>
+      </c>
+      <c r="FW102">
+        <v>2081.539941752834</v>
+      </c>
+      <c r="FX102">
+        <v>17.27877067005251</v>
+      </c>
+      <c r="FY102">
+        <v>2193.081446633184</v>
+      </c>
+      <c r="FZ102">
+        <v>954.8776542162676</v>
+      </c>
+      <c r="GA102">
+        <v>1265.938970684921</v>
+      </c>
+      <c r="GB102">
+        <v>2006.588472192445</v>
+      </c>
+      <c r="GC102">
+        <v>651.2471847907051</v>
+      </c>
+      <c r="GD102">
+        <v>1484.803930059252</v>
+      </c>
+      <c r="GE102">
+        <v>1837.679661501414</v>
+      </c>
+      <c r="GF102">
+        <v>2189.744111833585</v>
+      </c>
     </row>
-    <row r="103" spans="1:175">
+    <row r="103" spans="1:188">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -54649,8 +58627,47 @@
       <c r="FS103">
         <v>1598.17968480109</v>
       </c>
+      <c r="FT103">
+        <v>2086.50984087331</v>
+      </c>
+      <c r="FU103">
+        <v>631.9538617667313</v>
+      </c>
+      <c r="FV103">
+        <v>2007.087518780928</v>
+      </c>
+      <c r="FW103">
+        <v>1922.207543064886</v>
+      </c>
+      <c r="FX103">
+        <v>156.1299639899798</v>
+      </c>
+      <c r="FY103">
+        <v>2075.403454942868</v>
+      </c>
+      <c r="FZ103">
+        <v>1083.517876147561</v>
+      </c>
+      <c r="GA103">
+        <v>1149.921450787148</v>
+      </c>
+      <c r="GB103">
+        <v>1903.872220748577</v>
+      </c>
+      <c r="GC103">
+        <v>700.0178935918827</v>
+      </c>
+      <c r="GD103">
+        <v>1321.312309578699</v>
+      </c>
+      <c r="GE103">
+        <v>1774.792026467163</v>
+      </c>
+      <c r="GF103">
+        <v>2041.16164102135</v>
+      </c>
     </row>
-    <row r="104" spans="1:175">
+    <row r="104" spans="1:188">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -55176,8 +59193,47 @@
       <c r="FS104">
         <v>570.8000231720082</v>
       </c>
+      <c r="FT104">
+        <v>1738.236489288902</v>
+      </c>
+      <c r="FU104">
+        <v>1708.561029432534</v>
+      </c>
+      <c r="FV104">
+        <v>66.90852831829814</v>
+      </c>
+      <c r="FW104">
+        <v>2728.475511396906</v>
+      </c>
+      <c r="FX104">
+        <v>2104.155556190674</v>
+      </c>
+      <c r="FY104">
+        <v>625.2680030750175</v>
+      </c>
+      <c r="FZ104">
+        <v>2062.459549219011</v>
+      </c>
+      <c r="GA104">
+        <v>967.1762537502468</v>
+      </c>
+      <c r="GB104">
+        <v>381.4367056421884</v>
+      </c>
+      <c r="GC104">
+        <v>1641.795950747206</v>
+      </c>
+      <c r="GD104">
+        <v>2283.716066382881</v>
+      </c>
+      <c r="GE104">
+        <v>308.2007945522555</v>
+      </c>
+      <c r="GF104">
+        <v>1222.229948182216</v>
+      </c>
     </row>
-    <row r="105" spans="1:175">
+    <row r="105" spans="1:188">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -55703,8 +59759,47 @@
       <c r="FS105">
         <v>512.838883159973</v>
       </c>
+      <c r="FT105">
+        <v>1677.590310659193</v>
+      </c>
+      <c r="FU105">
+        <v>1660.421314580667</v>
+      </c>
+      <c r="FV105">
+        <v>115.4101110334508</v>
+      </c>
+      <c r="FW105">
+        <v>2667.582625079087</v>
+      </c>
+      <c r="FX105">
+        <v>2072.913971981963</v>
+      </c>
+      <c r="FY105">
+        <v>572.7153090500901</v>
+      </c>
+      <c r="FZ105">
+        <v>2058.995117655576</v>
+      </c>
+      <c r="GA105">
+        <v>918.3661082112619</v>
+      </c>
+      <c r="GB105">
+        <v>320.7866510885363</v>
+      </c>
+      <c r="GC105">
+        <v>1625.456134747246</v>
+      </c>
+      <c r="GD105">
+        <v>2225.661375217637</v>
+      </c>
+      <c r="GE105">
+        <v>311.9832572493019</v>
+      </c>
+      <c r="GF105">
+        <v>1163.444404434374</v>
+      </c>
     </row>
-    <row r="106" spans="1:175">
+    <row r="106" spans="1:188">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -56230,8 +60325,47 @@
       <c r="FS106">
         <v>828.7347589446098</v>
       </c>
+      <c r="FT106">
+        <v>2050.232160689974</v>
+      </c>
+      <c r="FU106">
+        <v>1872.530567329037</v>
+      </c>
+      <c r="FV106">
+        <v>262.2387927354486</v>
+      </c>
+      <c r="FW106">
+        <v>2993.668618957312</v>
+      </c>
+      <c r="FX106">
+        <v>2159.577132345645</v>
+      </c>
+      <c r="FY106">
+        <v>944.1293865715401</v>
+      </c>
+      <c r="FZ106">
+        <v>1969.366169168735</v>
+      </c>
+      <c r="GA106">
+        <v>1151.702936174674</v>
+      </c>
+      <c r="GB106">
+        <v>695.576238294231</v>
+      </c>
+      <c r="GC106">
+        <v>1623.038910694772</v>
+      </c>
+      <c r="GD106">
+        <v>2518.315043608914</v>
+      </c>
+      <c r="GE106">
+        <v>346.4476110833114</v>
+      </c>
+      <c r="GF106">
+        <v>1539.854343094222</v>
+      </c>
     </row>
-    <row r="107" spans="1:175">
+    <row r="107" spans="1:188">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -56757,8 +60891,47 @@
       <c r="FS107">
         <v>524.5150829415981</v>
       </c>
+      <c r="FT107">
+        <v>1786.303799473342</v>
+      </c>
+      <c r="FU107">
+        <v>1276.979206655618</v>
+      </c>
+      <c r="FV107">
+        <v>546.5851025213542</v>
+      </c>
+      <c r="FW107">
+        <v>2518.665906142461</v>
+      </c>
+      <c r="FX107">
+        <v>1546.326291295974</v>
+      </c>
+      <c r="FY107">
+        <v>953.1422334131393</v>
+      </c>
+      <c r="FZ107">
+        <v>1497.509902247095</v>
+      </c>
+      <c r="GA107">
+        <v>609.1148224596865</v>
+      </c>
+      <c r="GB107">
+        <v>665.1480837665837</v>
+      </c>
+      <c r="GC107">
+        <v>1058.117929102317</v>
+      </c>
+      <c r="GD107">
+        <v>1991.825418293704</v>
+      </c>
+      <c r="GE107">
+        <v>294.701221637118</v>
+      </c>
+      <c r="GF107">
+        <v>1368.318067067148</v>
+      </c>
     </row>
-    <row r="108" spans="1:175">
+    <row r="108" spans="1:188">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -57284,8 +61457,47 @@
       <c r="FS108">
         <v>589.8190711278985</v>
       </c>
+      <c r="FT108">
+        <v>1870.692960319367</v>
+      </c>
+      <c r="FU108">
+        <v>1416.290967694169</v>
+      </c>
+      <c r="FV108">
+        <v>456.7956713868294</v>
+      </c>
+      <c r="FW108">
+        <v>2645.263549976445</v>
+      </c>
+      <c r="FX108">
+        <v>1668.859124282156</v>
+      </c>
+      <c r="FY108">
+        <v>961.3674350134374</v>
+      </c>
+      <c r="FZ108">
+        <v>1557.631380079257</v>
+      </c>
+      <c r="GA108">
+        <v>740.1524711507923</v>
+      </c>
+      <c r="GB108">
+        <v>666.3343209673583</v>
+      </c>
+      <c r="GC108">
+        <v>1152.95765814684</v>
+      </c>
+      <c r="GD108">
+        <v>2125.216635042185</v>
+      </c>
+      <c r="GE108">
+        <v>197.128532235374</v>
+      </c>
+      <c r="GF108">
+        <v>1428.361703463058</v>
+      </c>
     </row>
-    <row r="109" spans="1:175">
+    <row r="109" spans="1:188">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -57811,8 +62023,47 @@
       <c r="FS109">
         <v>647.294281112568</v>
       </c>
+      <c r="FT109">
+        <v>1850.009988287148</v>
+      </c>
+      <c r="FU109">
+        <v>1744.731010051728</v>
+      </c>
+      <c r="FV109">
+        <v>61.21525370028444</v>
+      </c>
+      <c r="FW109">
+        <v>2813.509362711236</v>
+      </c>
+      <c r="FX109">
+        <v>2096.198469191059</v>
+      </c>
+      <c r="FY109">
+        <v>747.0856296615908</v>
+      </c>
+      <c r="FZ109">
+        <v>1999.667989591111</v>
+      </c>
+      <c r="GA109">
+        <v>1009.217570879871</v>
+      </c>
+      <c r="GB109">
+        <v>494.6106417055487</v>
+      </c>
+      <c r="GC109">
+        <v>1603.926483548961</v>
+      </c>
+      <c r="GD109">
+        <v>2353.355303324</v>
+      </c>
+      <c r="GE109">
+        <v>259.9990473408942</v>
+      </c>
+      <c r="GF109">
+        <v>1338.859179375401</v>
+      </c>
     </row>
-    <row r="110" spans="1:175">
+    <row r="110" spans="1:188">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -58338,8 +62589,47 @@
       <c r="FS110">
         <v>759.1253136230611</v>
       </c>
+      <c r="FT110">
+        <v>2027.22081473407</v>
+      </c>
+      <c r="FU110">
+        <v>1715.599254735632</v>
+      </c>
+      <c r="FV110">
+        <v>318.8556655696736</v>
+      </c>
+      <c r="FW110">
+        <v>2897.606995452644</v>
+      </c>
+      <c r="FX110">
+        <v>1965.544629278248</v>
+      </c>
+      <c r="FY110">
+        <v>985.1822076988818</v>
+      </c>
+      <c r="FZ110">
+        <v>1769.785138394243</v>
+      </c>
+      <c r="GA110">
+        <v>1016.26732035214</v>
+      </c>
+      <c r="GB110">
+        <v>705.2419457556932</v>
+      </c>
+      <c r="GC110">
+        <v>1420.563955242887</v>
+      </c>
+      <c r="GD110">
+        <v>2398.571510284511</v>
+      </c>
+      <c r="GE110">
+        <v>222.1639839070232</v>
+      </c>
+      <c r="GF110">
+        <v>1540.610941799147</v>
+      </c>
     </row>
-    <row r="111" spans="1:175">
+    <row r="111" spans="1:188">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -58865,8 +63155,47 @@
       <c r="FS111">
         <v>567.3270930370339</v>
       </c>
+      <c r="FT111">
+        <v>1709.11156277478</v>
+      </c>
+      <c r="FU111">
+        <v>1719.475747371227</v>
+      </c>
+      <c r="FV111">
+        <v>114.7460663953346</v>
+      </c>
+      <c r="FW111">
+        <v>2715.867947902166</v>
+      </c>
+      <c r="FX111">
+        <v>2130.802211677115</v>
+      </c>
+      <c r="FY111">
+        <v>585.5343575777036</v>
+      </c>
+      <c r="FZ111">
+        <v>2104.411167415854</v>
+      </c>
+      <c r="GA111">
+        <v>977.3710339724882</v>
+      </c>
+      <c r="GB111">
+        <v>354.5353855585357</v>
+      </c>
+      <c r="GC111">
+        <v>1677.80459241338</v>
+      </c>
+      <c r="GD111">
+        <v>2279.222959143337</v>
+      </c>
+      <c r="GE111">
+        <v>351.5150897351692</v>
+      </c>
+      <c r="GF111">
+        <v>1189.127463179708</v>
+      </c>
     </row>
-    <row r="112" spans="1:175">
+    <row r="112" spans="1:188">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -59392,8 +63721,47 @@
       <c r="FS112">
         <v>637.0298386880614</v>
       </c>
+      <c r="FT112">
+        <v>1834.605209884034</v>
+      </c>
+      <c r="FU112">
+        <v>1741.21303802816</v>
+      </c>
+      <c r="FV112">
+        <v>45.68096676446184</v>
+      </c>
+      <c r="FW112">
+        <v>2802.643065022577</v>
+      </c>
+      <c r="FX112">
+        <v>2099.265952192047</v>
+      </c>
+      <c r="FY112">
+        <v>729.56751007516</v>
+      </c>
+      <c r="FZ112">
+        <v>2010.503452811589</v>
+      </c>
+      <c r="GA112">
+        <v>1004.459472665077</v>
+      </c>
+      <c r="GB112">
+        <v>478.6839804908348</v>
+      </c>
+      <c r="GC112">
+        <v>1611.168802322705</v>
+      </c>
+      <c r="GD112">
+        <v>2344.872084925416</v>
+      </c>
+      <c r="GE112">
+        <v>266.323670786231</v>
+      </c>
+      <c r="GF112">
+        <v>1322.520818095869</v>
+      </c>
     </row>
-    <row r="113" spans="1:175">
+    <row r="113" spans="1:188">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -59919,8 +64287,47 @@
       <c r="FS113">
         <v>632.8414847017278</v>
       </c>
+      <c r="FT113">
+        <v>1776.309358315718</v>
+      </c>
+      <c r="FU113">
+        <v>1776.225221704897</v>
+      </c>
+      <c r="FV113">
+        <v>102.1388831184507</v>
+      </c>
+      <c r="FW113">
+        <v>2784.649414665677</v>
+      </c>
+      <c r="FX113">
+        <v>2170.463735806192</v>
+      </c>
+      <c r="FY113">
+        <v>645.3449563998477</v>
+      </c>
+      <c r="FZ113">
+        <v>2114.718206011168</v>
+      </c>
+      <c r="GA113">
+        <v>1034.631411822385</v>
+      </c>
+      <c r="GB113">
+        <v>423.1865558011732</v>
+      </c>
+      <c r="GC113">
+        <v>1702.130540617874</v>
+      </c>
+      <c r="GD113">
+        <v>2345.551624348236</v>
+      </c>
+      <c r="GE113">
+        <v>361.48756390706</v>
+      </c>
+      <c r="GF113">
+        <v>1254.306065366782</v>
+      </c>
     </row>
-    <row r="114" spans="1:175">
+    <row r="114" spans="1:188">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -60446,8 +64853,47 @@
       <c r="FS114">
         <v>344.8073698221564</v>
       </c>
+      <c r="FT114">
+        <v>1398.121355141747</v>
+      </c>
+      <c r="FU114">
+        <v>1526.12248729905</v>
+      </c>
+      <c r="FV114">
+        <v>395.1119580307268</v>
+      </c>
+      <c r="FW114">
+        <v>2423.474584478633</v>
+      </c>
+      <c r="FX114">
+        <v>2032.520942739618</v>
+      </c>
+      <c r="FY114">
+        <v>312.7862411060349</v>
+      </c>
+      <c r="FZ114">
+        <v>2149.248817465333</v>
+      </c>
+      <c r="GA114">
+        <v>798.9340702434125</v>
+      </c>
+      <c r="GB114">
+        <v>46.4486611784135</v>
+      </c>
+      <c r="GC114">
+        <v>1664.826357137806</v>
+      </c>
+      <c r="GD114">
+        <v>2012.124162977426</v>
+      </c>
+      <c r="GE114">
+        <v>504.8185312321597</v>
+      </c>
+      <c r="GF114">
+        <v>882.5897323985873</v>
+      </c>
     </row>
-    <row r="115" spans="1:175">
+    <row r="115" spans="1:188">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -60973,8 +65419,47 @@
       <c r="FS115">
         <v>346.0706491154921</v>
       </c>
+      <c r="FT115">
+        <v>1284.91443624306</v>
+      </c>
+      <c r="FU115">
+        <v>1502.513699993801</v>
+      </c>
+      <c r="FV115">
+        <v>513.1193948602713</v>
+      </c>
+      <c r="FW115">
+        <v>2336.04742417552</v>
+      </c>
+      <c r="FX115">
+        <v>2048.326903498619</v>
+      </c>
+      <c r="FY115">
+        <v>205.5551328839888</v>
+      </c>
+      <c r="FZ115">
+        <v>2215.63162074931</v>
+      </c>
+      <c r="GA115">
+        <v>795.4111346797201</v>
+      </c>
+      <c r="GB115">
+        <v>91.04804121557227</v>
+      </c>
+      <c r="GC115">
+        <v>1715.149546015592</v>
+      </c>
+      <c r="GD115">
+        <v>1943.694995221083</v>
+      </c>
+      <c r="GE115">
+        <v>615.7766302855484</v>
+      </c>
+      <c r="GF115">
+        <v>765.3001971313081</v>
+      </c>
     </row>
-    <row r="116" spans="1:175">
+    <row r="116" spans="1:188">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -61500,8 +65985,47 @@
       <c r="FS116">
         <v>247.7502713028823</v>
       </c>
+      <c r="FT116">
+        <v>1350.154048710479</v>
+      </c>
+      <c r="FU116">
+        <v>1428.546148186869</v>
+      </c>
+      <c r="FV116">
+        <v>440.7041624135588</v>
+      </c>
+      <c r="FW116">
+        <v>2343.225155352953</v>
+      </c>
+      <c r="FX116">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="FY116">
+        <v>337.1715874067943</v>
+      </c>
+      <c r="FZ116">
+        <v>2083.94582544947</v>
+      </c>
+      <c r="GA116">
+        <v>702.5354803286618</v>
+      </c>
+      <c r="GB116">
+        <v>63.1436218408767</v>
+      </c>
+      <c r="GC116">
+        <v>1588.59897833568</v>
+      </c>
+      <c r="GD116">
+        <v>1922.148686641001</v>
+      </c>
+      <c r="GE116">
+        <v>499.2213468234353</v>
+      </c>
+      <c r="GF116">
+        <v>849.5916606544675</v>
+      </c>
     </row>
-    <row r="117" spans="1:175">
+    <row r="117" spans="1:188">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -62027,8 +66551,47 @@
       <c r="FS117">
         <v>344.5740099152765</v>
       </c>
+      <c r="FT117">
+        <v>1257.591986652068</v>
+      </c>
+      <c r="FU117">
+        <v>1491.094675541428</v>
+      </c>
+      <c r="FV117">
+        <v>540.0580263202095</v>
+      </c>
+      <c r="FW117">
+        <v>2311.862810038825</v>
+      </c>
+      <c r="FX117">
+        <v>2045.36287956254</v>
+      </c>
+      <c r="FY117">
+        <v>188.2586437061806</v>
+      </c>
+      <c r="FZ117">
+        <v>2224.849384492247</v>
+      </c>
+      <c r="GA117">
+        <v>789.5569285862889</v>
+      </c>
+      <c r="GB117">
+        <v>114.1871660817137</v>
+      </c>
+      <c r="GC117">
+        <v>1720.567763772338</v>
+      </c>
+      <c r="GD117">
+        <v>1922.930549456376</v>
+      </c>
+      <c r="GE117">
+        <v>638.4437241923678</v>
+      </c>
+      <c r="GF117">
+        <v>738.1152414309634</v>
+      </c>
     </row>
-    <row r="118" spans="1:175">
+    <row r="118" spans="1:188">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -62554,8 +67117,47 @@
       <c r="FS118">
         <v>538.6928152400144</v>
       </c>
+      <c r="FT118">
+        <v>1206.470491935434</v>
+      </c>
+      <c r="FU118">
+        <v>1639.772823432862</v>
+      </c>
+      <c r="FV118">
+        <v>669.0908628491879</v>
+      </c>
+      <c r="FW118">
+        <v>2343.30567809679</v>
+      </c>
+      <c r="FX118">
+        <v>2228.322750662384</v>
+      </c>
+      <c r="FY118">
+        <v>51.76382015734057</v>
+      </c>
+      <c r="FZ118">
+        <v>2428.720945560795</v>
+      </c>
+      <c r="GA118">
+        <v>966.9899678838547</v>
+      </c>
+      <c r="GB118">
+        <v>300.4801575000173</v>
+      </c>
+      <c r="GC118">
+        <v>1921.881095202411</v>
+      </c>
+      <c r="GD118">
+        <v>1999.474306954776</v>
+      </c>
+      <c r="GE118">
+        <v>813.8620989492139</v>
+      </c>
+      <c r="GF118">
+        <v>667.1167159521041</v>
+      </c>
     </row>
-    <row r="119" spans="1:175">
+    <row r="119" spans="1:188">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -63080,6 +67682,45 @@
       </c>
       <c r="FS119">
         <v>269.1097153918495</v>
+      </c>
+      <c r="FT119">
+        <v>1420.544040741213</v>
+      </c>
+      <c r="FU119">
+        <v>1449.78454306351</v>
+      </c>
+      <c r="FV119">
+        <v>372.7808667076673</v>
+      </c>
+      <c r="FW119">
+        <v>2400.059946228459</v>
+      </c>
+      <c r="FX119">
+        <v>1936.722876804326</v>
+      </c>
+      <c r="FY119">
+        <v>395.243934710645</v>
+      </c>
+      <c r="FZ119">
+        <v>2046.469917864226</v>
+      </c>
+      <c r="GA119">
+        <v>714.8969284484222</v>
+      </c>
+      <c r="GB119">
+        <v>100.5655802129055</v>
+      </c>
+      <c r="GC119">
+        <v>1561.860798907826</v>
+      </c>
+      <c r="GD119">
+        <v>1968.911403977059</v>
+      </c>
+      <c r="GE119">
+        <v>430.1570314008308</v>
+      </c>
+      <c r="GF119">
+        <v>921.2435492479507</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LH_costmatrix.xlsx
+++ b/Data/LH_costmatrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GF119"/>
+  <dimension ref="A1:GJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:188">
+    <row r="1" spans="1:192">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -934,8 +934,20 @@
       <c r="GF1" s="1">
         <v>186</v>
       </c>
+      <c r="GG1" s="1">
+        <v>187</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>188</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>189</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>190</v>
+      </c>
     </row>
-    <row r="2" spans="1:188">
+    <row r="2" spans="1:192">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1462,46 +1474,58 @@
         <v>315.3815886356634</v>
       </c>
       <c r="FT2">
-        <v>1292.599525678821</v>
+        <v>1715.038634507163</v>
       </c>
       <c r="FU2">
-        <v>1477.516443308458</v>
+        <v>1659.091004192277</v>
       </c>
       <c r="FV2">
         <v>499.828761115336</v>
       </c>
       <c r="FW2">
+        <v>1929.916211348289</v>
+      </c>
+      <c r="FX2">
+        <v>2022.983029228003</v>
+      </c>
+      <c r="FY2">
+        <v>2017.711281567832</v>
+      </c>
+      <c r="FZ2">
+        <v>101.9920741541128</v>
+      </c>
+      <c r="GA2">
+        <v>121.0279577714368</v>
+      </c>
+      <c r="GB2">
         <v>2329.15564227634</v>
       </c>
-      <c r="FX2">
-        <v>2017.711281567832</v>
-      </c>
-      <c r="FY2">
-        <v>235.4530370997837</v>
-      </c>
-      <c r="FZ2">
-        <v>2182.696054906332</v>
-      </c>
-      <c r="GA2">
-        <v>766.5692104697027</v>
-      </c>
-      <c r="GB2">
-        <v>68.23472775528421</v>
-      </c>
       <c r="GC2">
-        <v>1682.219800764477</v>
+        <v>642.6427083647148</v>
       </c>
       <c r="GD2">
-        <v>1929.916211348289</v>
+        <v>707.7522796179455</v>
       </c>
       <c r="GE2">
-        <v>590.8753096158525</v>
+        <v>735.3776239995864</v>
       </c>
       <c r="GF2">
-        <v>777.9564491880736</v>
+        <v>943.3743222288423</v>
+      </c>
+      <c r="GG2">
+        <v>1933.071917189193</v>
+      </c>
+      <c r="GH2">
+        <v>2102.196889213828</v>
+      </c>
+      <c r="GI2">
+        <v>1944.001733938364</v>
+      </c>
+      <c r="GJ2">
+        <v>1895.652472568322</v>
       </c>
     </row>
-    <row r="3" spans="1:188">
+    <row r="3" spans="1:192">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2028,46 +2052,58 @@
         <v>313.8159461816721</v>
       </c>
       <c r="FT3">
-        <v>1239.393482207187</v>
+        <v>1731.605839344035</v>
       </c>
       <c r="FU3">
-        <v>1455.816318836141</v>
+        <v>1675.36195824165</v>
       </c>
       <c r="FV3">
         <v>552.8246308581652</v>
       </c>
       <c r="FW3">
+        <v>1889.707969954462</v>
+      </c>
+      <c r="FX3">
+        <v>1983.315727753159</v>
+      </c>
+      <c r="FY3">
+        <v>2012.873448361303</v>
+      </c>
+      <c r="FZ3">
+        <v>139.2743942612058</v>
+      </c>
+      <c r="GA3">
+        <v>116.7085909993906</v>
+      </c>
+      <c r="GB3">
         <v>2282.22463871915</v>
       </c>
-      <c r="FX3">
-        <v>2012.873448361303</v>
-      </c>
-      <c r="FY3">
-        <v>205.6644318399566</v>
-      </c>
-      <c r="FZ3">
-        <v>2201.829653085244</v>
-      </c>
-      <c r="GA3">
-        <v>755.8968785478631</v>
-      </c>
-      <c r="GB3">
-        <v>119.9810678410887</v>
-      </c>
       <c r="GC3">
-        <v>1693.981849421586</v>
+        <v>689.2719903805393</v>
       </c>
       <c r="GD3">
-        <v>1889.707969954462</v>
+        <v>755.1228802635493</v>
       </c>
       <c r="GE3">
-        <v>636.795949304528</v>
+        <v>728.9373226831434</v>
       </c>
       <c r="GF3">
-        <v>725.1964588627189</v>
+        <v>931.1662898353761</v>
+      </c>
+      <c r="GG3">
+        <v>1950.731718845303</v>
+      </c>
+      <c r="GH3">
+        <v>2124.463890966874</v>
+      </c>
+      <c r="GI3">
+        <v>1950.058763805771</v>
+      </c>
+      <c r="GJ3">
+        <v>1905.322004589864</v>
       </c>
     </row>
-    <row r="4" spans="1:188">
+    <row r="4" spans="1:192">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2594,46 +2630,58 @@
         <v>282.6550824726456</v>
       </c>
       <c r="FT4">
-        <v>1328.714351684101</v>
+        <v>1665.829379322268</v>
       </c>
       <c r="FU4">
-        <v>1457.547999795097</v>
+        <v>1610.041559023887</v>
       </c>
       <c r="FV4">
         <v>460.4628766475249</v>
       </c>
       <c r="FW4">
+        <v>1932.709572099754</v>
+      </c>
+      <c r="FX4">
+        <v>2024.888818863039</v>
+      </c>
+      <c r="FY4">
+        <v>1981.974322024073</v>
+      </c>
+      <c r="FZ4">
+        <v>48.52453190639622</v>
+      </c>
+      <c r="GA4">
+        <v>104.9755709700557</v>
+      </c>
+      <c r="GB4">
         <v>2343.59718120381</v>
       </c>
-      <c r="FX4">
-        <v>1981.974322024073</v>
-      </c>
-      <c r="FY4">
-        <v>289.9914075239419</v>
-      </c>
-      <c r="FZ4">
-        <v>2132.225978818416</v>
-      </c>
-      <c r="GA4">
-        <v>737.4939851432998</v>
-      </c>
-      <c r="GB4">
-        <v>33.75417744322083</v>
-      </c>
       <c r="GC4">
-        <v>1635.500581835901</v>
+        <v>590.7857273641202</v>
       </c>
       <c r="GD4">
-        <v>1932.709572099754</v>
+        <v>656.4745201168741</v>
       </c>
       <c r="GE4">
-        <v>538.5327479054644</v>
+        <v>702.745272549371</v>
       </c>
       <c r="GF4">
-        <v>820.5342063823327</v>
+        <v>915.1102394549946</v>
+      </c>
+      <c r="GG4">
+        <v>1883.297334215124</v>
+      </c>
+      <c r="GH4">
+        <v>2050.491469429438</v>
+      </c>
+      <c r="GI4">
+        <v>1900.568155380594</v>
+      </c>
+      <c r="GJ4">
+        <v>1850.040905951078</v>
       </c>
     </row>
-    <row r="5" spans="1:188">
+    <row r="5" spans="1:192">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3160,46 +3208,58 @@
         <v>165.3961363034745</v>
       </c>
       <c r="FT5">
-        <v>1194.192857799619</v>
+        <v>1597.525490497403</v>
       </c>
       <c r="FU5">
-        <v>1287.057905047885</v>
+        <v>1540.818703126225</v>
       </c>
       <c r="FV5">
         <v>610.8356810933979</v>
       </c>
       <c r="FW5">
+        <v>1747.00521286878</v>
+      </c>
+      <c r="FX5">
+        <v>1839.078122869549</v>
+      </c>
+      <c r="FY5">
+        <v>1847.575466782786</v>
+      </c>
+      <c r="FZ5">
+        <v>179.098847799536</v>
+      </c>
+      <c r="GA5">
+        <v>81.70689301203285</v>
+      </c>
+      <c r="GB5">
         <v>2164.134504508932</v>
       </c>
-      <c r="FX5">
-        <v>1847.575466782786</v>
-      </c>
-      <c r="FY5">
-        <v>346.9167348197104</v>
-      </c>
-      <c r="FZ5">
-        <v>2072.291506156633</v>
-      </c>
-      <c r="GA5">
-        <v>587.9787999046868</v>
-      </c>
-      <c r="GB5">
-        <v>219.4108008267956</v>
-      </c>
       <c r="GC5">
-        <v>1550.509069033862</v>
+        <v>678.7241630073122</v>
       </c>
       <c r="GD5">
-        <v>1747.00521286878</v>
+        <v>747.3138675118208</v>
       </c>
       <c r="GE5">
-        <v>623.8695207799367</v>
+        <v>564.1498537918088</v>
       </c>
       <c r="GF5">
-        <v>718.0893743957261</v>
+        <v>762.3033966283332</v>
+      </c>
+      <c r="GG5">
+        <v>1818.442153564975</v>
+      </c>
+      <c r="GH5">
+        <v>2002.557432959212</v>
+      </c>
+      <c r="GI5">
+        <v>1796.834409459851</v>
+      </c>
+      <c r="GJ5">
+        <v>1757.771875923759</v>
       </c>
     </row>
-    <row r="6" spans="1:188">
+    <row r="6" spans="1:192">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3726,46 +3786,58 @@
         <v>308.9697075534158</v>
       </c>
       <c r="FT6">
-        <v>1356.847101704532</v>
+        <v>1676.410385144314</v>
       </c>
       <c r="FU6">
-        <v>1487.212085563108</v>
+        <v>1620.858236866926</v>
       </c>
       <c r="FV6">
         <v>433.4175883183877</v>
       </c>
       <c r="FW6">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="FX6">
+        <v>2058.48544681988</v>
+      </c>
+      <c r="FY6">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FZ6">
+        <v>63.1436218408767</v>
+      </c>
+      <c r="GA6">
+        <v>138.2078322678896</v>
+      </c>
+      <c r="GB6">
         <v>2377.05705330035</v>
       </c>
-      <c r="FX6">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FY6">
-        <v>295.3976522992114</v>
-      </c>
-      <c r="FZ6">
-        <v>2140.838814979187</v>
-      </c>
-      <c r="GA6">
-        <v>764.1087266705579</v>
-      </c>
-      <c r="GB6">
-        <v>0</v>
-      </c>
       <c r="GC6">
-        <v>1649.142707861918</v>
+        <v>576.0318945452501</v>
       </c>
       <c r="GD6">
-        <v>1966.356178939537</v>
+        <v>640.6616920557194</v>
       </c>
       <c r="GE6">
-        <v>524.7822504163031</v>
+        <v>727.6805321103533</v>
       </c>
       <c r="GF6">
-        <v>845.1010770467474</v>
+        <v>941.9094668858282</v>
+      </c>
+      <c r="GG6">
+        <v>1893.019039457731</v>
+      </c>
+      <c r="GH6">
+        <v>2056.980738633294</v>
+      </c>
+      <c r="GI6">
+        <v>1917.381932143699</v>
+      </c>
+      <c r="GJ6">
+        <v>1864.79367793904</v>
       </c>
     </row>
-    <row r="7" spans="1:188">
+    <row r="7" spans="1:192">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4292,46 +4364,58 @@
         <v>548.8862333947122</v>
       </c>
       <c r="FT7">
-        <v>1500.664642956036</v>
+        <v>1851.833178563258</v>
       </c>
       <c r="FU7">
-        <v>1729.787059622296</v>
+        <v>1797.757767487578</v>
       </c>
       <c r="FV7">
         <v>387.5077091653985</v>
       </c>
       <c r="FW7">
+        <v>2196.183169056604</v>
+      </c>
+      <c r="FX7">
+        <v>2289.471232506734</v>
+      </c>
+      <c r="FY7">
+        <v>2229.635049283246</v>
+      </c>
+      <c r="FZ7">
+        <v>301.454836136403</v>
+      </c>
+      <c r="GA7">
+        <v>377.8427890556344</v>
+      </c>
+      <c r="GB7">
         <v>2586.092919593492</v>
       </c>
-      <c r="FX7">
-        <v>2229.635049283246</v>
-      </c>
-      <c r="FY7">
-        <v>340.7838360056893</v>
-      </c>
-      <c r="FZ7">
-        <v>2303.999965680242</v>
-      </c>
-      <c r="GA7">
-        <v>1002.661878292422</v>
-      </c>
-      <c r="GB7">
-        <v>242.9852099925136</v>
-      </c>
       <c r="GC7">
-        <v>1839.375653003462</v>
+        <v>625.8757881298391</v>
       </c>
       <c r="GD7">
-        <v>2196.183169056604</v>
+        <v>677.1612146506974</v>
       </c>
       <c r="GE7">
-        <v>586.8152820784762</v>
+        <v>962.7877270615228</v>
       </c>
       <c r="GF7">
-        <v>965.9398208494165</v>
+        <v>1180.510530555955</v>
+      </c>
+      <c r="GG7">
+        <v>2063.015603475425</v>
+      </c>
+      <c r="GH7">
+        <v>2209.021175551898</v>
+      </c>
+      <c r="GI7">
+        <v>2120.809117748343</v>
+      </c>
+      <c r="GJ7">
+        <v>2059.264694593553</v>
       </c>
     </row>
-    <row r="8" spans="1:188">
+    <row r="8" spans="1:192">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4858,46 +4942,58 @@
         <v>306.537003760296</v>
       </c>
       <c r="FT8">
-        <v>1285.878882318404</v>
+        <v>1709.137055494012</v>
       </c>
       <c r="FU8">
-        <v>1467.346937524479</v>
+        <v>1653.135236689358</v>
       </c>
       <c r="FV8">
         <v>505.4998868973768</v>
       </c>
       <c r="FW8">
+        <v>1919.676910196227</v>
+      </c>
+      <c r="FX8">
+        <v>2012.712511341386</v>
+      </c>
+      <c r="FY8">
+        <v>2008.879832023911</v>
+      </c>
+      <c r="FZ8">
+        <v>99.39226586560058</v>
+      </c>
+      <c r="GA8">
+        <v>111.3197780655546</v>
+      </c>
+      <c r="GB8">
         <v>2319.61347546458</v>
       </c>
-      <c r="FX8">
-        <v>2008.879832023911</v>
-      </c>
-      <c r="FY8">
-        <v>237.8883351432412</v>
-      </c>
-      <c r="FZ8">
-        <v>2177.268860513786</v>
-      </c>
-      <c r="GA8">
-        <v>757.0874913299622</v>
-      </c>
-      <c r="GB8">
-        <v>72.48074115398526</v>
-      </c>
       <c r="GC8">
-        <v>1675.531326695622</v>
+        <v>644.2130473318587</v>
       </c>
       <c r="GD8">
-        <v>1919.676910196227</v>
+        <v>709.6483764838441</v>
       </c>
       <c r="GE8">
-        <v>592.1464341842486</v>
+        <v>726.2730542939534</v>
       </c>
       <c r="GF8">
-        <v>772.6712205839927</v>
+        <v>933.7917641860695</v>
+      </c>
+      <c r="GG8">
+        <v>1927.371679212307</v>
+      </c>
+      <c r="GH8">
+        <v>2097.351073459678</v>
+      </c>
+      <c r="GI8">
+        <v>1936.491288072117</v>
+      </c>
+      <c r="GJ8">
+        <v>1888.657378096292</v>
       </c>
     </row>
-    <row r="9" spans="1:188">
+    <row r="9" spans="1:192">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5424,46 +5520,58 @@
         <v>197.8680961078175</v>
       </c>
       <c r="FT9">
-        <v>1257.416923004291</v>
+        <v>1617.033210667203</v>
       </c>
       <c r="FU9">
-        <v>1357.63488616813</v>
+        <v>1560.673370672326</v>
       </c>
       <c r="FV9">
         <v>537.4895962142388</v>
       </c>
       <c r="FW9">
+        <v>1828.555686020546</v>
+      </c>
+      <c r="FX9">
+        <v>1920.521242129814</v>
+      </c>
+      <c r="FY9">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="FZ9">
+        <v>99.23882736766056</v>
+      </c>
+      <c r="GA9">
+        <v>0</v>
+      </c>
+      <c r="GB9">
         <v>2244.737232545102</v>
       </c>
-      <c r="FX9">
-        <v>1899.252435369556</v>
-      </c>
-      <c r="FY9">
-        <v>317.9818582996949</v>
-      </c>
-      <c r="FZ9">
-        <v>2088.446306861457</v>
-      </c>
-      <c r="GA9">
-        <v>645.8766832870573</v>
-      </c>
-      <c r="GB9">
-        <v>138.2078322678896</v>
-      </c>
       <c r="GC9">
-        <v>1577.804693301043</v>
+        <v>627.565412719794</v>
       </c>
       <c r="GD9">
-        <v>1828.555686020546</v>
+        <v>695.5390206533834</v>
       </c>
       <c r="GE9">
-        <v>573.2186395527904</v>
+        <v>615.9107326488017</v>
       </c>
       <c r="GF9">
-        <v>766.2846397826282</v>
+        <v>822.4893969617166</v>
+      </c>
+      <c r="GG9">
+        <v>1836.620944154725</v>
+      </c>
+      <c r="GH9">
+        <v>2013.151774378297</v>
+      </c>
+      <c r="GI9">
+        <v>1833.371185171114</v>
+      </c>
+      <c r="GJ9">
+        <v>1788.771287495631</v>
       </c>
     </row>
-    <row r="10" spans="1:188">
+    <row r="10" spans="1:192">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5990,46 +6098,58 @@
         <v>1461.595377865535</v>
       </c>
       <c r="FT10">
-        <v>177.7979728949436</v>
+        <v>2563.869523305822</v>
       </c>
       <c r="FU10">
-        <v>1579.844712103981</v>
+        <v>2511.266390825244</v>
       </c>
       <c r="FV10">
         <v>1961.523354543054</v>
       </c>
       <c r="FW10">
+        <v>1251.176878418219</v>
+      </c>
+      <c r="FX10">
+        <v>1336.588823072665</v>
+      </c>
+      <c r="FY10">
+        <v>2365.808848096005</v>
+      </c>
+      <c r="FZ10">
+        <v>1523.750008170714</v>
+      </c>
+      <c r="GA10">
+        <v>1431.964524849627</v>
+      </c>
+      <c r="GB10">
         <v>1240.422206834747</v>
       </c>
-      <c r="FX10">
-        <v>2365.808848096005</v>
-      </c>
-      <c r="FY10">
-        <v>1326.143370440209</v>
-      </c>
-      <c r="FZ10">
-        <v>3021.958611696206</v>
-      </c>
-      <c r="GA10">
-        <v>1484.702750769659</v>
-      </c>
-      <c r="GB10">
-        <v>1528.596183820728</v>
-      </c>
       <c r="GC10">
-        <v>2446.194035857552</v>
+        <v>2045.5216898217</v>
       </c>
       <c r="GD10">
-        <v>1251.176878418219</v>
+        <v>2114.178435691585</v>
       </c>
       <c r="GE10">
-        <v>1990.672286692612</v>
+        <v>1531.317418513182</v>
       </c>
       <c r="GF10">
-        <v>699.5957353787878</v>
+        <v>1524.48299480178</v>
+      </c>
+      <c r="GG10">
+        <v>2772.068180823187</v>
+      </c>
+      <c r="GH10">
+        <v>3011.392994735686</v>
+      </c>
+      <c r="GI10">
+        <v>2547.459003920119</v>
+      </c>
+      <c r="GJ10">
+        <v>2581.849174696022</v>
       </c>
     </row>
-    <row r="11" spans="1:188">
+    <row r="11" spans="1:192">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6556,46 +6676,58 @@
         <v>1283.993057924355</v>
       </c>
       <c r="FT11">
-        <v>0</v>
+        <v>2403.630782641907</v>
       </c>
       <c r="FU11">
-        <v>1454.961215984152</v>
+        <v>2350.372934179823</v>
       </c>
       <c r="FV11">
         <v>1789.055123291982</v>
       </c>
       <c r="FW11">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="FX11">
+        <v>1309.666653667009</v>
+      </c>
+      <c r="FY11">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FZ11">
+        <v>1350.154048710479</v>
+      </c>
+      <c r="GA11">
+        <v>1257.416923004291</v>
+      </c>
+      <c r="GB11">
         <v>1294.431249717264</v>
       </c>
-      <c r="FX11">
-        <v>2239.32858767394</v>
-      </c>
-      <c r="FY11">
-        <v>1164.231267850083</v>
-      </c>
-      <c r="FZ11">
-        <v>2865.750722220912</v>
-      </c>
-      <c r="GA11">
-        <v>1313.981033523644</v>
-      </c>
-      <c r="GB11">
-        <v>1356.847101704532</v>
-      </c>
       <c r="GC11">
-        <v>2289.807931209242</v>
+        <v>1868.74034593594</v>
       </c>
       <c r="GD11">
-        <v>1218.467442353749</v>
+        <v>1937.377589476593</v>
       </c>
       <c r="GE11">
-        <v>1813.916337113418</v>
+        <v>1358.995803506446</v>
       </c>
       <c r="GF11">
-        <v>540.7414212062423</v>
+        <v>1361.051770185596</v>
+      </c>
+      <c r="GG11">
+        <v>2614.11063290799</v>
+      </c>
+      <c r="GH11">
+        <v>2850.842611271256</v>
+      </c>
+      <c r="GI11">
+        <v>2403.050632691989</v>
+      </c>
+      <c r="GJ11">
+        <v>2431.981251108199</v>
       </c>
     </row>
-    <row r="12" spans="1:188">
+    <row r="12" spans="1:192">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7122,46 +7254,58 @@
         <v>1106.041669761432</v>
       </c>
       <c r="FT12">
-        <v>259.4731435209294</v>
+        <v>2335.52195691239</v>
       </c>
       <c r="FU12">
-        <v>1491.294702671202</v>
+        <v>2280.410207953933</v>
       </c>
       <c r="FV12">
         <v>1570.892275923546</v>
       </c>
       <c r="FW12">
+        <v>1395.402470239412</v>
+      </c>
+      <c r="FX12">
+        <v>1490.720659985896</v>
+      </c>
+      <c r="FY12">
+        <v>2260.70604099593</v>
+      </c>
+      <c r="FZ12">
+        <v>1138.218677993401</v>
+      </c>
+      <c r="GA12">
+        <v>1050.775442373455</v>
+      </c>
+      <c r="GB12">
         <v>1536.129149294197</v>
       </c>
-      <c r="FX12">
-        <v>2260.70604099593</v>
-      </c>
-      <c r="FY12">
-        <v>922.8438395917019</v>
-      </c>
-      <c r="FZ12">
-        <v>2807.836298111551</v>
-      </c>
-      <c r="GA12">
-        <v>1215.982773525993</v>
-      </c>
-      <c r="GB12">
-        <v>1137.579954668279</v>
-      </c>
       <c r="GC12">
-        <v>2235.142025101945</v>
+        <v>1674.36844081184</v>
       </c>
       <c r="GD12">
-        <v>1395.402470239412</v>
+        <v>1742.920419381339</v>
       </c>
       <c r="GE12">
-        <v>1619.532141376912</v>
+        <v>1251.108177023818</v>
       </c>
       <c r="GF12">
-        <v>296.8198749537156</v>
+        <v>1294.639847559144</v>
+      </c>
+      <c r="GG12">
+        <v>2552.12740872314</v>
+      </c>
+      <c r="GH12">
+        <v>2778.966979111794</v>
+      </c>
+      <c r="GI12">
+        <v>2381.297767416743</v>
+      </c>
+      <c r="GJ12">
+        <v>2395.392186033854</v>
       </c>
     </row>
-    <row r="13" spans="1:188">
+    <row r="13" spans="1:192">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7688,46 +7832,58 @@
         <v>1451.650000256546</v>
       </c>
       <c r="FT13">
-        <v>380.1861951930076</v>
+        <v>2699.042143774495</v>
       </c>
       <c r="FU13">
-        <v>1815.880191592712</v>
+        <v>2644.098930450178</v>
       </c>
       <c r="FV13">
         <v>1873.120477754921</v>
       </c>
       <c r="FW13">
+        <v>1588.590826010172</v>
+      </c>
+      <c r="FX13">
+        <v>1677.29849551642</v>
+      </c>
+      <c r="FY13">
+        <v>2595.452956163945</v>
+      </c>
+      <c r="FZ13">
+        <v>1454.917409399502</v>
+      </c>
+      <c r="GA13">
+        <v>1374.883506428144</v>
+      </c>
+      <c r="GB13">
         <v>1593.30520647498</v>
       </c>
-      <c r="FX13">
-        <v>2595.452956163945</v>
-      </c>
-      <c r="FY13">
-        <v>1195.929288972397</v>
-      </c>
-      <c r="FZ13">
-        <v>3170.263880024</v>
-      </c>
-      <c r="GA13">
-        <v>1580.682345658619</v>
-      </c>
-      <c r="GB13">
-        <v>1445.040802669525</v>
-      </c>
       <c r="GC13">
-        <v>2596.631647035584</v>
+        <v>2002.446998791217</v>
       </c>
       <c r="GD13">
-        <v>1588.590826010172</v>
+        <v>2070.389991598435</v>
       </c>
       <c r="GE13">
-        <v>1948.050915625905</v>
+        <v>1615.625136116528</v>
       </c>
       <c r="GF13">
-        <v>610.3386837218271</v>
+        <v>1656.711923014767</v>
+      </c>
+      <c r="GG13">
+        <v>2915.008064470022</v>
+      </c>
+      <c r="GH13">
+        <v>3143.034701910877</v>
+      </c>
+      <c r="GI13">
+        <v>2734.566699041752</v>
+      </c>
+      <c r="GJ13">
+        <v>2753.059610872387</v>
       </c>
     </row>
-    <row r="14" spans="1:188">
+    <row r="14" spans="1:192">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8254,46 +8410,58 @@
         <v>1385.169897549702</v>
       </c>
       <c r="FT14">
-        <v>155.7531290556531</v>
+        <v>2431.452896002509</v>
       </c>
       <c r="FU14">
-        <v>1428.627021511098</v>
+        <v>2379.599205056869</v>
       </c>
       <c r="FV14">
         <v>1910.649808266605</v>
       </c>
       <c r="FW14">
+        <v>1106.769534191074</v>
+      </c>
+      <c r="FX14">
+        <v>1194.42517968238</v>
+      </c>
+      <c r="FY14">
+        <v>2214.407076819162</v>
+      </c>
+      <c r="FZ14">
+        <v>1470.138136848547</v>
+      </c>
+      <c r="GA14">
+        <v>1375.042543017223</v>
+      </c>
+      <c r="GB14">
         <v>1143.613443978647</v>
       </c>
-      <c r="FX14">
-        <v>2214.407076819162</v>
-      </c>
-      <c r="FY14">
-        <v>1302.885575975877</v>
-      </c>
-      <c r="FZ14">
-        <v>2885.339385821297</v>
-      </c>
-      <c r="GA14">
-        <v>1369.599914058275</v>
-      </c>
-      <c r="GB14">
-        <v>1481.106314016997</v>
-      </c>
       <c r="GC14">
-        <v>2310.213379857735</v>
+        <v>1975.324930865973</v>
       </c>
       <c r="GD14">
-        <v>1106.769534191074</v>
+        <v>2043.707861358251</v>
       </c>
       <c r="GE14">
-        <v>1920.768989834054</v>
+        <v>1419.578984054196</v>
       </c>
       <c r="GF14">
-        <v>685.6986900537775</v>
+        <v>1397.659915392636</v>
+      </c>
+      <c r="GG14">
+        <v>2637.206598530656</v>
+      </c>
+      <c r="GH14">
+        <v>2878.914597698607</v>
+      </c>
+      <c r="GI14">
+        <v>2403.052588043231</v>
+      </c>
+      <c r="GJ14">
+        <v>2440.728438971725</v>
       </c>
     </row>
-    <row r="15" spans="1:188">
+    <row r="15" spans="1:192">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8820,46 +8988,58 @@
         <v>1288.114482973389</v>
       </c>
       <c r="FT15">
-        <v>217.6295994438368</v>
+        <v>2505.62259417016</v>
       </c>
       <c r="FU15">
-        <v>1620.746114676799</v>
+        <v>2450.927920782348</v>
       </c>
       <c r="FV15">
         <v>1743.014913195684</v>
       </c>
       <c r="FW15">
+        <v>1434.550270512337</v>
+      </c>
+      <c r="FX15">
+        <v>1526.345532721647</v>
+      </c>
+      <c r="FY15">
+        <v>2398.975878132381</v>
+      </c>
+      <c r="FZ15">
+        <v>1313.911576860108</v>
+      </c>
+      <c r="GA15">
+        <v>1228.359078927705</v>
+      </c>
+      <c r="GB15">
         <v>1500.132893479447</v>
       </c>
-      <c r="FX15">
-        <v>2398.975878132381</v>
-      </c>
-      <c r="FY15">
-        <v>1082.724855270781</v>
-      </c>
-      <c r="FZ15">
-        <v>2975.631398838817</v>
-      </c>
-      <c r="GA15">
-        <v>1391.062678317408</v>
-      </c>
-      <c r="GB15">
-        <v>1310.48412058798</v>
-      </c>
       <c r="GC15">
-        <v>2401.429243740838</v>
+        <v>1853.631165900631</v>
       </c>
       <c r="GD15">
-        <v>1434.550270512337</v>
+        <v>1922.090143825416</v>
       </c>
       <c r="GE15">
-        <v>1798.856511394922</v>
+        <v>1428.226764423665</v>
       </c>
       <c r="GF15">
-        <v>465.3992412719157</v>
+        <v>1462.234838194722</v>
+      </c>
+      <c r="GG15">
+        <v>2720.820317754146</v>
+      </c>
+      <c r="GH15">
+        <v>2950.414248470104</v>
+      </c>
+      <c r="GI15">
+        <v>2537.096249021145</v>
+      </c>
+      <c r="GJ15">
+        <v>2556.298596473085</v>
       </c>
     </row>
-    <row r="16" spans="1:188">
+    <row r="16" spans="1:192">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9386,46 +9566,58 @@
         <v>1161.18728233045</v>
       </c>
       <c r="FT16">
-        <v>127.8372292771171</v>
+        <v>2279.877229000772</v>
       </c>
       <c r="FU16">
-        <v>1352.750260845459</v>
+        <v>2226.348730157236</v>
       </c>
       <c r="FV16">
         <v>1676.360469784923</v>
       </c>
       <c r="FW16">
+        <v>1183.117354132929</v>
+      </c>
+      <c r="FX16">
+        <v>1277.430589188046</v>
+      </c>
+      <c r="FY16">
+        <v>2134.260049088228</v>
+      </c>
+      <c r="FZ16">
+        <v>1236.22766001853</v>
+      </c>
+      <c r="GA16">
+        <v>1141.983114217654</v>
+      </c>
+      <c r="GB16">
         <v>1320.539983813022</v>
       </c>
-      <c r="FX16">
-        <v>2134.260049088228</v>
-      </c>
-      <c r="FY16">
-        <v>1067.309954018196</v>
-      </c>
-      <c r="FZ16">
-        <v>2743.699215139246</v>
-      </c>
-      <c r="GA16">
-        <v>1186.644700732664</v>
-      </c>
-      <c r="GB16">
-        <v>1245.854554670888</v>
-      </c>
       <c r="GC16">
-        <v>2167.880328452104</v>
+        <v>1748.256870052213</v>
       </c>
       <c r="GD16">
-        <v>1183.117354132929</v>
+        <v>1816.820651393493</v>
       </c>
       <c r="GE16">
-        <v>1693.516971856567</v>
+        <v>1231.315804510532</v>
       </c>
       <c r="GF16">
-        <v>455.8446408389261</v>
+        <v>1236.384024111043</v>
+      </c>
+      <c r="GG16">
+        <v>2491.320606090801</v>
+      </c>
+      <c r="GH16">
+        <v>2726.840943120852</v>
+      </c>
+      <c r="GI16">
+        <v>2287.298067835753</v>
+      </c>
+      <c r="GJ16">
+        <v>2313.268885826156</v>
       </c>
     </row>
-    <row r="17" spans="1:188">
+    <row r="17" spans="1:192">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9952,46 +10144,58 @@
         <v>686.4379173447376</v>
       </c>
       <c r="FT17">
-        <v>668.5102921102138</v>
+        <v>2021.835577215545</v>
       </c>
       <c r="FU17">
-        <v>1372.896696281221</v>
+        <v>1965.213608276392</v>
       </c>
       <c r="FV17">
         <v>1128.494047953592</v>
       </c>
       <c r="FW17">
+        <v>1536.110224681321</v>
+      </c>
+      <c r="FX17">
+        <v>1634.085778992515</v>
+      </c>
+      <c r="FY17">
+        <v>2083.014961580369</v>
+      </c>
+      <c r="FZ17">
+        <v>695.9618825238166</v>
+      </c>
+      <c r="GA17">
+        <v>610.3375676367474</v>
+      </c>
+      <c r="GB17">
         <v>1818.722895897162</v>
       </c>
-      <c r="FX17">
-        <v>2083.014961580369</v>
-      </c>
-      <c r="FY17">
-        <v>500.3345081770329</v>
-      </c>
-      <c r="FZ17">
-        <v>2500.848591676263</v>
-      </c>
-      <c r="GA17">
-        <v>899.1697759149674</v>
-      </c>
-      <c r="GB17">
-        <v>695.0951870593037</v>
-      </c>
       <c r="GC17">
-        <v>1942.102530201886</v>
+        <v>1236.734958500635</v>
       </c>
       <c r="GD17">
-        <v>1536.110224681321</v>
+        <v>1305.033097683272</v>
       </c>
       <c r="GE17">
-        <v>1182.083672027997</v>
+        <v>916.9498108633721</v>
       </c>
       <c r="GF17">
-        <v>158.2159316369835</v>
+        <v>1021.670178283663</v>
+      </c>
+      <c r="GG17">
+        <v>2243.178912084728</v>
+      </c>
+      <c r="GH17">
+        <v>2453.850993413474</v>
+      </c>
+      <c r="GI17">
+        <v>2133.141934794864</v>
+      </c>
+      <c r="GJ17">
+        <v>2124.98235970279</v>
       </c>
     </row>
-    <row r="18" spans="1:188">
+    <row r="18" spans="1:192">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10518,46 +10722,58 @@
         <v>868.9621989519748</v>
       </c>
       <c r="FT18">
-        <v>443.8571358358769</v>
+        <v>2121.752481625512</v>
       </c>
       <c r="FU18">
-        <v>1349.698871374432</v>
+        <v>2066.02870245886</v>
       </c>
       <c r="FV18">
         <v>1347.474124890846</v>
       </c>
       <c r="FW18">
+        <v>1389.159077644704</v>
+      </c>
+      <c r="FX18">
+        <v>1486.963725990395</v>
+      </c>
+      <c r="FY18">
+        <v>2098.390007109119</v>
+      </c>
+      <c r="FZ18">
+        <v>910.5419699719354</v>
+      </c>
+      <c r="GA18">
+        <v>820.3034629527569</v>
+      </c>
+      <c r="GB18">
         <v>1621.796709564227</v>
       </c>
-      <c r="FX18">
-        <v>2098.390007109119</v>
-      </c>
-      <c r="FY18">
-        <v>724.8003264429573</v>
-      </c>
-      <c r="FZ18">
-        <v>2597.178549576636</v>
-      </c>
-      <c r="GA18">
-        <v>996.2623547411174</v>
-      </c>
-      <c r="GB18">
-        <v>914.4737539108199</v>
-      </c>
       <c r="GC18">
-        <v>2027.982481628943</v>
+        <v>1440.55304358981</v>
       </c>
       <c r="GD18">
-        <v>1389.159077644704</v>
+        <v>1509.189077046485</v>
       </c>
       <c r="GE18">
-        <v>1385.667691667149</v>
+        <v>1027.030092031112</v>
       </c>
       <c r="GF18">
-        <v>134.1946951228162</v>
+        <v>1089.132208928731</v>
+      </c>
+      <c r="GG18">
+        <v>2340.361057865743</v>
+      </c>
+      <c r="GH18">
+        <v>2562.348189220264</v>
+      </c>
+      <c r="GI18">
+        <v>2190.871712742312</v>
+      </c>
+      <c r="GJ18">
+        <v>2196.693523099132</v>
       </c>
     </row>
-    <row r="19" spans="1:188">
+    <row r="19" spans="1:192">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11084,46 +11300,58 @@
         <v>658.3316503717103</v>
       </c>
       <c r="FT19">
-        <v>717.5644714292528</v>
+        <v>2013.879102603183</v>
       </c>
       <c r="FU19">
-        <v>1394.923214008804</v>
+        <v>1957.114991127318</v>
       </c>
       <c r="FV19">
         <v>1083.841148785195</v>
       </c>
       <c r="FW19">
+        <v>1579.772104975718</v>
+      </c>
+      <c r="FX19">
+        <v>1677.665673147177</v>
+      </c>
+      <c r="FY19">
+        <v>2095.174022367706</v>
+      </c>
+      <c r="FZ19">
+        <v>654.2312485046209</v>
+      </c>
+      <c r="GA19">
+        <v>571.2230613736709</v>
+      </c>
+      <c r="GB19">
         <v>1868.663518865395</v>
       </c>
-      <c r="FX19">
-        <v>2095.174022367706</v>
-      </c>
-      <c r="FY19">
-        <v>449.4936967938019</v>
-      </c>
-      <c r="FZ19">
-        <v>2493.209661740727</v>
-      </c>
-      <c r="GA19">
-        <v>895.8509045983132</v>
-      </c>
-      <c r="GB19">
-        <v>650.752194375063</v>
-      </c>
       <c r="GC19">
-        <v>1937.849699786463</v>
+        <v>1198.648318952709</v>
       </c>
       <c r="GD19">
-        <v>1579.772104975718</v>
+        <v>1266.723121638404</v>
       </c>
       <c r="GE19">
-        <v>1144.170443917885</v>
+        <v>909.9732479109359</v>
       </c>
       <c r="GF19">
-        <v>195.394688078447</v>
+        <v>1025.079878518906</v>
+      </c>
+      <c r="GG19">
+        <v>2235.615280158841</v>
+      </c>
+      <c r="GH19">
+        <v>2443.129762339899</v>
+      </c>
+      <c r="GI19">
+        <v>2135.47063801248</v>
+      </c>
+      <c r="GJ19">
+        <v>2123.946954117129</v>
       </c>
     </row>
-    <row r="20" spans="1:188">
+    <row r="20" spans="1:192">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11650,46 +11878,58 @@
         <v>956.5093385149976</v>
       </c>
       <c r="FT20">
-        <v>614.0156486026202</v>
+        <v>2318.164474447262</v>
       </c>
       <c r="FU20">
-        <v>1636.395277564387</v>
+        <v>2261.487857708213</v>
       </c>
       <c r="FV20">
         <v>1319.991280714714</v>
       </c>
       <c r="FW20">
+        <v>1689.527138201934</v>
+      </c>
+      <c r="FX20">
+        <v>1786.969464329949</v>
+      </c>
+      <c r="FY20">
+        <v>2366.113040668501</v>
+      </c>
+      <c r="FZ20">
+        <v>915.7730427140643</v>
+      </c>
+      <c r="GA20">
+        <v>845.3934777642298</v>
+      </c>
+      <c r="GB20">
         <v>1882.042790668936</v>
       </c>
-      <c r="FX20">
-        <v>2366.113040668501</v>
-      </c>
-      <c r="FY20">
-        <v>637.33585011402</v>
-      </c>
-      <c r="FZ20">
-        <v>2797.309037926208</v>
-      </c>
-      <c r="GA20">
-        <v>1196.095414057623</v>
-      </c>
-      <c r="GB20">
-        <v>898.5357239800097</v>
-      </c>
       <c r="GC20">
-        <v>2239.03138068126</v>
+        <v>1467.977990851022</v>
       </c>
       <c r="GD20">
-        <v>1689.527138201934</v>
+        <v>1534.671686042396</v>
       </c>
       <c r="GE20">
-        <v>1414.593716085028</v>
+        <v>1213.419476258185</v>
       </c>
       <c r="GF20">
-        <v>189.3950268057681</v>
+        <v>1316.300951584956</v>
+      </c>
+      <c r="GG20">
+        <v>2539.649901560838</v>
+      </c>
+      <c r="GH20">
+        <v>2748.854775131857</v>
+      </c>
+      <c r="GI20">
+        <v>2427.756210455635</v>
+      </c>
+      <c r="GJ20">
+        <v>2421.315158945148</v>
       </c>
     </row>
-    <row r="21" spans="1:188">
+    <row r="21" spans="1:192">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12216,46 +12456,58 @@
         <v>892.5508738987196</v>
       </c>
       <c r="FT21">
-        <v>550.8865148576836</v>
+        <v>2224.54721714387</v>
       </c>
       <c r="FU21">
-        <v>1518.726898973712</v>
+        <v>2168.092466597079</v>
       </c>
       <c r="FV21">
         <v>1301.804540031623</v>
       </c>
       <c r="FW21">
+        <v>1578.403135778178</v>
+      </c>
+      <c r="FX21">
+        <v>1676.09737462393</v>
+      </c>
+      <c r="FY21">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="FZ21">
+        <v>881.1203375670574</v>
+      </c>
+      <c r="GA21">
+        <v>802.1963637003975</v>
+      </c>
+      <c r="GB21">
         <v>1791.333238778456</v>
       </c>
-      <c r="FX21">
-        <v>2252.672164175856</v>
-      </c>
-      <c r="FY21">
-        <v>635.6073320583638</v>
-      </c>
-      <c r="FZ21">
-        <v>2703.017612396271</v>
-      </c>
-      <c r="GA21">
-        <v>1098.819083516361</v>
-      </c>
-      <c r="GB21">
-        <v>871.8610333823568</v>
-      </c>
       <c r="GC21">
-        <v>2140.906899322383</v>
+        <v>1429.589506819375</v>
       </c>
       <c r="GD21">
-        <v>1578.403135778178</v>
+        <v>1497.338919718324</v>
       </c>
       <c r="GE21">
-        <v>1375.358701630832</v>
+        <v>1120.10535031013</v>
       </c>
       <c r="GF21">
-        <v>71.67504812270678</v>
+        <v>1211.946953250025</v>
+      </c>
+      <c r="GG21">
+        <v>2445.390491320444</v>
+      </c>
+      <c r="GH21">
+        <v>2658.767461153329</v>
+      </c>
+      <c r="GI21">
+        <v>2322.367432356157</v>
+      </c>
+      <c r="GJ21">
+        <v>2319.398061715976</v>
       </c>
     </row>
-    <row r="22" spans="1:188">
+    <row r="22" spans="1:192">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12782,46 +13034,58 @@
         <v>844.0987264833343</v>
       </c>
       <c r="FT22">
-        <v>540.7414212062423</v>
+        <v>2159.38352421807</v>
       </c>
       <c r="FU22">
-        <v>1447.372454793094</v>
+        <v>2103.040243106572</v>
       </c>
       <c r="FV22">
         <v>1277.658653156077</v>
       </c>
       <c r="FW22">
+        <v>1521.801904484974</v>
+      </c>
+      <c r="FX22">
+        <v>1619.692114480247</v>
+      </c>
+      <c r="FY22">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="FZ22">
+        <v>849.5916606544675</v>
+      </c>
+      <c r="GA22">
+        <v>766.2846397826282</v>
+      </c>
+      <c r="GB22">
         <v>1752.997237725009</v>
       </c>
-      <c r="FX22">
-        <v>2181.129490787039</v>
-      </c>
-      <c r="FY22">
-        <v>626.5915178077541</v>
-      </c>
-      <c r="FZ22">
-        <v>2637.454212781936</v>
-      </c>
-      <c r="GA22">
-        <v>1032.766324625263</v>
-      </c>
-      <c r="GB22">
-        <v>845.1010770467474</v>
-      </c>
       <c r="GC22">
-        <v>2073.938014463946</v>
+        <v>1393.455016447605</v>
       </c>
       <c r="GD22">
-        <v>1521.801904484974</v>
+        <v>1461.62513993125</v>
       </c>
       <c r="GE22">
-        <v>1338.897548960874</v>
+        <v>1055.794126046708</v>
       </c>
       <c r="GF22">
-        <v>0</v>
+        <v>1142.964825926888</v>
+      </c>
+      <c r="GG22">
+        <v>2379.898214048765</v>
+      </c>
+      <c r="GH22">
+        <v>2594.979889346879</v>
+      </c>
+      <c r="GI22">
+        <v>2252.761725222908</v>
+      </c>
+      <c r="GJ22">
+        <v>2250.968703903236</v>
       </c>
     </row>
-    <row r="23" spans="1:188">
+    <row r="23" spans="1:192">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13348,46 +13612,58 @@
         <v>830.286949905208</v>
       </c>
       <c r="FT23">
-        <v>517.7164578106275</v>
+        <v>2124.931284411812</v>
       </c>
       <c r="FU23">
-        <v>1397.170670130281</v>
+        <v>2068.759293323599</v>
       </c>
       <c r="FV23">
         <v>1284.036587173867</v>
       </c>
       <c r="FW23">
+        <v>1470.610743846127</v>
+      </c>
+      <c r="FX23">
+        <v>1568.548487640524</v>
+      </c>
+      <c r="FY23">
+        <v>2134.238381606189</v>
+      </c>
+      <c r="FZ23">
+        <v>851.2143039260925</v>
+      </c>
+      <c r="GA23">
+        <v>764.5462853958368</v>
+      </c>
+      <c r="GB23">
         <v>1709.709762922764</v>
       </c>
-      <c r="FX23">
-        <v>2134.238381606189</v>
-      </c>
-      <c r="FY23">
-        <v>646.5792024935108</v>
-      </c>
-      <c r="FZ23">
-        <v>2602.329872670471</v>
-      </c>
-      <c r="GA23">
-        <v>997.7392227692377</v>
-      </c>
-      <c r="GB23">
-        <v>850.6526737409038</v>
-      </c>
       <c r="GC23">
-        <v>2036.901341653366</v>
+        <v>1389.750377095339</v>
       </c>
       <c r="GD23">
-        <v>1470.610743846127</v>
+        <v>1458.182963600162</v>
       </c>
       <c r="GE23">
-        <v>1334.997593611675</v>
+        <v>1023.239815973682</v>
       </c>
       <c r="GF23">
-        <v>52.99949669990065</v>
+        <v>1102.983863972746</v>
+      </c>
+      <c r="GG23">
+        <v>2344.929643807622</v>
+      </c>
+      <c r="GH23">
+        <v>2562.253103044602</v>
+      </c>
+      <c r="GI23">
+        <v>2211.198356140704</v>
+      </c>
+      <c r="GJ23">
+        <v>2211.548208310779</v>
       </c>
     </row>
-    <row r="24" spans="1:188">
+    <row r="24" spans="1:192">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13914,46 +14190,58 @@
         <v>1837.74873619307</v>
       </c>
       <c r="FT24">
-        <v>2850.842611271256</v>
+        <v>447.5470201187202</v>
       </c>
       <c r="FU24">
-        <v>1591.249574041257</v>
+        <v>500.4937523573565</v>
       </c>
       <c r="FV24">
         <v>1903.382094656844</v>
       </c>
       <c r="FW24">
+        <v>2420.08986910537</v>
+      </c>
+      <c r="FX24">
+        <v>2446.866642200703</v>
+      </c>
+      <c r="FY24">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="FZ24">
+        <v>2001.996118426327</v>
+      </c>
+      <c r="GA24">
+        <v>2013.151774378297</v>
+      </c>
+      <c r="GB24">
         <v>3032.266333800138</v>
       </c>
-      <c r="FX24">
-        <v>1070.536583284225</v>
-      </c>
-      <c r="FY24">
-        <v>2329.920850496618</v>
-      </c>
-      <c r="FZ24">
-        <v>158.5521057776684</v>
-      </c>
-      <c r="GA24">
-        <v>1566.153072454196</v>
-      </c>
-      <c r="GB24">
-        <v>2056.980738633294</v>
-      </c>
       <c r="GC24">
-        <v>579.4163274486818</v>
+        <v>1626.32258675641</v>
       </c>
       <c r="GD24">
-        <v>2420.08986910537</v>
+        <v>1602.841400668312</v>
       </c>
       <c r="GE24">
-        <v>1647.698095944643</v>
+        <v>1539.239552209969</v>
       </c>
       <c r="GF24">
-        <v>2594.979889346879</v>
+        <v>1490.78016826052</v>
+      </c>
+      <c r="GG24">
+        <v>255.2678598206981</v>
+      </c>
+      <c r="GH24">
+        <v>0</v>
+      </c>
+      <c r="GI24">
+        <v>662.5094841507452</v>
+      </c>
+      <c r="GJ24">
+        <v>541.0783288168114</v>
       </c>
     </row>
-    <row r="25" spans="1:188">
+    <row r="25" spans="1:192">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14480,46 +14768,58 @@
         <v>1653.058975003952</v>
       </c>
       <c r="FT25">
-        <v>2614.11063290799</v>
+        <v>222.1661717212423</v>
       </c>
       <c r="FU25">
-        <v>1336.060138294878</v>
+        <v>279.1297681198093</v>
       </c>
       <c r="FV25">
         <v>1785.406061785597</v>
       </c>
       <c r="FW25">
+        <v>2165.542723992149</v>
+      </c>
+      <c r="FX25">
+        <v>2193.316231382819</v>
+      </c>
+      <c r="FY25">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="FZ25">
+        <v>1835.209116732357</v>
+      </c>
+      <c r="GA25">
+        <v>1836.620944154725</v>
+      </c>
+      <c r="GB25">
         <v>2777.743225316957</v>
       </c>
-      <c r="FX25">
-        <v>845.5395286766365</v>
-      </c>
-      <c r="FY25">
-        <v>2154.602301249736</v>
-      </c>
-      <c r="FZ25">
-        <v>257.6707504164244</v>
-      </c>
-      <c r="GA25">
-        <v>1347.274333669257</v>
-      </c>
-      <c r="GB25">
-        <v>1893.019039457731</v>
-      </c>
       <c r="GC25">
-        <v>328.6167491499622</v>
+        <v>1511.84378270692</v>
       </c>
       <c r="GD25">
-        <v>2165.542723992149</v>
+        <v>1498.138195683403</v>
       </c>
       <c r="GE25">
-        <v>1525.762754665343</v>
+        <v>1326.247734136045</v>
       </c>
       <c r="GF25">
-        <v>2379.898214048765</v>
+        <v>1258.599693951744</v>
+      </c>
+      <c r="GG25">
+        <v>0</v>
+      </c>
+      <c r="GH25">
+        <v>255.2678598206981</v>
+      </c>
+      <c r="GI25">
+        <v>434.8418642166652</v>
+      </c>
+      <c r="GJ25">
+        <v>301.2231997272007</v>
       </c>
     </row>
-    <row r="26" spans="1:188">
+    <row r="26" spans="1:192">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15046,46 +15346,58 @@
         <v>1906.905932428755</v>
       </c>
       <c r="FT26">
-        <v>2865.750722220912</v>
+        <v>479.4083542778912</v>
       </c>
       <c r="FU26">
-        <v>1555.370820870623</v>
+        <v>536.2752611961101</v>
       </c>
       <c r="FV26">
         <v>2012.59800866785</v>
       </c>
       <c r="FW26">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="FX26">
+        <v>2388.147477045949</v>
+      </c>
+      <c r="FY26">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FZ26">
+        <v>2083.94582544947</v>
+      </c>
+      <c r="GA26">
+        <v>2088.446306861457</v>
+      </c>
+      <c r="GB26">
         <v>2978.161445398661</v>
       </c>
-      <c r="FX26">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="FY26">
-        <v>2406.335303967287</v>
-      </c>
-      <c r="FZ26">
-        <v>0</v>
-      </c>
-      <c r="GA26">
-        <v>1604.763311894769</v>
-      </c>
-      <c r="GB26">
-        <v>2140.838814979187</v>
-      </c>
       <c r="GC26">
-        <v>575.9546717543826</v>
+        <v>1736.57327351836</v>
       </c>
       <c r="GD26">
-        <v>2367.239097417825</v>
+        <v>1717.462185776625</v>
       </c>
       <c r="GE26">
-        <v>1754.442681727774</v>
+        <v>1583.914020055373</v>
       </c>
       <c r="GF26">
-        <v>2637.454212781936</v>
+        <v>1513.553693513409</v>
+      </c>
+      <c r="GG26">
+        <v>257.6707504164244</v>
+      </c>
+      <c r="GH26">
+        <v>158.5521057776684</v>
+      </c>
+      <c r="GI26">
+        <v>577.1982863134238</v>
+      </c>
+      <c r="GJ26">
+        <v>476.7399328676094</v>
       </c>
     </row>
-    <row r="27" spans="1:188">
+    <row r="27" spans="1:192">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15612,46 +15924,58 @@
         <v>2052.249646218537</v>
       </c>
       <c r="FT27">
-        <v>2971.613412956453</v>
+        <v>620.0653365130365</v>
       </c>
       <c r="FU27">
-        <v>1622.126768652684</v>
+        <v>676.7601827435179</v>
       </c>
       <c r="FV27">
         <v>2175.600703077734</v>
       </c>
       <c r="FW27">
+        <v>2411.18382971289</v>
+      </c>
+      <c r="FX27">
+        <v>2425.555547976002</v>
+      </c>
+      <c r="FY27">
+        <v>974.3678295961532</v>
+      </c>
+      <c r="FZ27">
+        <v>2235.643084077522</v>
+      </c>
+      <c r="GA27">
+        <v>2236.720683306246</v>
+      </c>
+      <c r="GB27">
         <v>3018.590927675719</v>
       </c>
-      <c r="FX27">
-        <v>974.3678295961532</v>
-      </c>
-      <c r="FY27">
-        <v>2554.68826712181</v>
-      </c>
-      <c r="FZ27">
-        <v>167.516770776738</v>
-      </c>
-      <c r="GA27">
-        <v>1732.500195056582</v>
-      </c>
-      <c r="GB27">
-        <v>2293.385239618192</v>
-      </c>
       <c r="GC27">
-        <v>690.9893717161247</v>
+        <v>1900.109611806428</v>
       </c>
       <c r="GD27">
-        <v>2411.18382971289</v>
+        <v>1882.217295505593</v>
       </c>
       <c r="GE27">
-        <v>1916.876422679432</v>
+        <v>1715.744000549983</v>
       </c>
       <c r="GF27">
-        <v>2764.47341475763</v>
+        <v>1630.75306773262</v>
+      </c>
+      <c r="GG27">
+        <v>400.4450693823938</v>
+      </c>
+      <c r="GH27">
+        <v>314.270149092374</v>
+      </c>
+      <c r="GI27">
+        <v>614.3247381828302</v>
+      </c>
+      <c r="GJ27">
+        <v>545.8052549132843</v>
       </c>
     </row>
-    <row r="28" spans="1:188">
+    <row r="28" spans="1:192">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16178,46 +16502,58 @@
         <v>1330.892736939903</v>
       </c>
       <c r="FT28">
-        <v>2376.457261219382</v>
+        <v>182.0583700120018</v>
       </c>
       <c r="FU28">
-        <v>1235.221275231684</v>
+        <v>160.0485342092437</v>
       </c>
       <c r="FV28">
         <v>1434.496321395527</v>
       </c>
       <c r="FW28">
+        <v>2084.20621369875</v>
+      </c>
+      <c r="FX28">
+        <v>2126.640698694611</v>
+      </c>
+      <c r="FY28">
+        <v>967.6428057527756</v>
+      </c>
+      <c r="FZ28">
+        <v>1499.525602972334</v>
+      </c>
+      <c r="GA28">
+        <v>1507.660183563723</v>
+      </c>
+      <c r="GB28">
         <v>2690.414472549051</v>
       </c>
-      <c r="FX28">
-        <v>967.6428057527756</v>
-      </c>
-      <c r="FY28">
-        <v>1824.966455338222</v>
-      </c>
-      <c r="FZ28">
-        <v>586.4430727889381</v>
-      </c>
-      <c r="GA28">
-        <v>1073.585795678836</v>
-      </c>
-      <c r="GB28">
-        <v>1555.729020794156</v>
-      </c>
       <c r="GC28">
-        <v>304.904350600825</v>
+        <v>1160.798038497201</v>
       </c>
       <c r="GD28">
-        <v>2084.20621369875</v>
+        <v>1147.593213036414</v>
       </c>
       <c r="GE28">
-        <v>1174.962635865266</v>
+        <v>1041.598813441091</v>
       </c>
       <c r="GF28">
-        <v>2095.287940847649</v>
+        <v>1018.099205051659</v>
+      </c>
+      <c r="GG28">
+        <v>351.0467268281084</v>
+      </c>
+      <c r="GH28">
+        <v>506.9776580385359</v>
+      </c>
+      <c r="GI28">
+        <v>609.5914461105975</v>
+      </c>
+      <c r="GJ28">
+        <v>480.5945311358208</v>
       </c>
     </row>
-    <row r="29" spans="1:188">
+    <row r="29" spans="1:192">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16744,46 +17080,58 @@
         <v>1258.459187385208</v>
       </c>
       <c r="FT29">
-        <v>2271.678408396217</v>
+        <v>181.4445691906978</v>
       </c>
       <c r="FU29">
-        <v>1119.117477497037</v>
+        <v>130.0126445624274</v>
       </c>
       <c r="FV29">
         <v>1406.954436197033</v>
       </c>
       <c r="FW29">
+        <v>1968.137441328871</v>
+      </c>
+      <c r="FX29">
+        <v>2011.167358858279</v>
+      </c>
+      <c r="FY29">
+        <v>888.4389276463099</v>
+      </c>
+      <c r="FZ29">
+        <v>1439.290278709718</v>
+      </c>
+      <c r="GA29">
+        <v>1440.838838198358</v>
+      </c>
+      <c r="GB29">
         <v>2574.003135761803</v>
       </c>
-      <c r="FX29">
-        <v>888.4389276463099</v>
-      </c>
-      <c r="FY29">
-        <v>1758.814527425947</v>
-      </c>
-      <c r="FZ29">
-        <v>648.4509309450181</v>
-      </c>
-      <c r="GA29">
-        <v>976.0986337945037</v>
-      </c>
-      <c r="GB29">
-        <v>1497.295876944792</v>
-      </c>
       <c r="GC29">
-        <v>236.3378732886219</v>
+        <v>1138.2345107661</v>
       </c>
       <c r="GD29">
-        <v>1968.137441328871</v>
+        <v>1131.861504108497</v>
       </c>
       <c r="GE29">
-        <v>1147.109024676767</v>
+        <v>948.0664974962252</v>
       </c>
       <c r="GF29">
-        <v>2003.765577681036</v>
+        <v>911.2470280156339</v>
+      </c>
+      <c r="GG29">
+        <v>396.0412190156883</v>
+      </c>
+      <c r="GH29">
+        <v>591.2236252885497</v>
+      </c>
+      <c r="GI29">
+        <v>559.9627769076042</v>
+      </c>
+      <c r="GJ29">
+        <v>445.0419855380138</v>
       </c>
     </row>
-    <row r="30" spans="1:188">
+    <row r="30" spans="1:192">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -17310,46 +17658,58 @@
         <v>1284.312872648968</v>
       </c>
       <c r="FT30">
-        <v>2304.752486311645</v>
+        <v>166.5394907898786</v>
       </c>
       <c r="FU30">
-        <v>1151.585532993183</v>
+        <v>121.5939988741015</v>
       </c>
       <c r="FV30">
         <v>1421.0631777125</v>
       </c>
       <c r="FW30">
+        <v>2000.572158023802</v>
+      </c>
+      <c r="FX30">
+        <v>2043.106763062725</v>
+      </c>
+      <c r="FY30">
+        <v>904.7641489351713</v>
+      </c>
+      <c r="FZ30">
+        <v>1462.144780143754</v>
+      </c>
+      <c r="GA30">
+        <v>1465.36893650739</v>
+      </c>
+      <c r="GB30">
         <v>2606.816680819979</v>
       </c>
-      <c r="FX30">
-        <v>904.7641489351713</v>
-      </c>
-      <c r="FY30">
-        <v>1783.280536539226</v>
-      </c>
-      <c r="FZ30">
-        <v>623.0959688387464</v>
-      </c>
-      <c r="GA30">
-        <v>1007.65410467755</v>
-      </c>
-      <c r="GB30">
-        <v>1519.711482543415</v>
-      </c>
       <c r="GC30">
-        <v>246.1550899265569</v>
+        <v>1150.749281912029</v>
       </c>
       <c r="GD30">
-        <v>2000.572158023802</v>
+        <v>1142.45556861392</v>
       </c>
       <c r="GE30">
-        <v>1161.101655992264</v>
+        <v>978.7619243121055</v>
       </c>
       <c r="GF30">
-        <v>2034.245987215027</v>
+        <v>944.5612320545896</v>
+      </c>
+      <c r="GG30">
+        <v>373.5309641255633</v>
+      </c>
+      <c r="GH30">
+        <v>561.1180486124731</v>
+      </c>
+      <c r="GI30">
+        <v>565.3997500809425</v>
+      </c>
+      <c r="GJ30">
+        <v>445.3250304458387</v>
       </c>
     </row>
-    <row r="31" spans="1:188">
+    <row r="31" spans="1:192">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -17876,46 +18236,58 @@
         <v>1432.190468381216</v>
       </c>
       <c r="FT31">
-        <v>2403.630782641907</v>
+        <v>0</v>
       </c>
       <c r="FU31">
-        <v>1172.650846280296</v>
+        <v>56.97139655378361</v>
       </c>
       <c r="FV31">
         <v>1587.17906010864</v>
       </c>
       <c r="FW31">
+        <v>2015.814063468659</v>
+      </c>
+      <c r="FX31">
+        <v>2050.972094951585</v>
+      </c>
+      <c r="FY31">
+        <v>808.5828555426174</v>
+      </c>
+      <c r="FZ31">
+        <v>1617.928285621456</v>
+      </c>
+      <c r="GA31">
+        <v>1617.033210667203</v>
+      </c>
+      <c r="GB31">
         <v>2626.627364680352</v>
       </c>
-      <c r="FX31">
-        <v>808.5828555426174</v>
-      </c>
-      <c r="FY31">
-        <v>1934.953612372864</v>
-      </c>
-      <c r="FZ31">
-        <v>479.4083542778912</v>
-      </c>
-      <c r="GA31">
-        <v>1127.207405024305</v>
-      </c>
-      <c r="GB31">
-        <v>1676.410385144314</v>
-      </c>
       <c r="GC31">
-        <v>163.541453167294</v>
+        <v>1317.233753592191</v>
       </c>
       <c r="GD31">
-        <v>2015.814063468659</v>
+        <v>1308.920803532985</v>
       </c>
       <c r="GE31">
-        <v>1327.240896317115</v>
+        <v>1104.899652605855</v>
       </c>
       <c r="GF31">
-        <v>2159.38352421807</v>
+        <v>1044.410594452489</v>
+      </c>
+      <c r="GG31">
+        <v>222.1661717212423</v>
+      </c>
+      <c r="GH31">
+        <v>447.5470201187202</v>
+      </c>
+      <c r="GI31">
+        <v>432.5011104279552</v>
+      </c>
+      <c r="GJ31">
+        <v>299.8902878035115</v>
       </c>
     </row>
-    <row r="32" spans="1:188">
+    <row r="32" spans="1:192">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18442,46 +18814,58 @@
         <v>1375.501742849538</v>
       </c>
       <c r="FT32">
-        <v>2350.372934179823</v>
+        <v>56.97139655378361</v>
       </c>
       <c r="FU32">
-        <v>1134.765445180305</v>
+        <v>0</v>
       </c>
       <c r="FV32">
         <v>1536.888020980227</v>
       </c>
       <c r="FW32">
+        <v>1980.441267399269</v>
+      </c>
+      <c r="FX32">
+        <v>2017.65380181623</v>
+      </c>
+      <c r="FY32">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="FZ32">
+        <v>1562.197890852499</v>
+      </c>
+      <c r="GA32">
+        <v>1560.673370672326</v>
+      </c>
+      <c r="GB32">
         <v>2590.340308597805</v>
       </c>
-      <c r="FX32">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="FY32">
-        <v>1878.560735837452</v>
-      </c>
-      <c r="FZ32">
-        <v>536.2752611961101</v>
-      </c>
-      <c r="GA32">
-        <v>1071.090925273024</v>
-      </c>
-      <c r="GB32">
-        <v>1620.858236866926</v>
-      </c>
       <c r="GC32">
-        <v>148.7513857171557</v>
+        <v>1268.229875752277</v>
       </c>
       <c r="GD32">
-        <v>1980.441267399269</v>
+        <v>1261.524372511312</v>
       </c>
       <c r="GE32">
-        <v>1277.068398901912</v>
+        <v>1048.308713851717</v>
       </c>
       <c r="GF32">
-        <v>2103.040243106572</v>
+        <v>990.3860427871608</v>
+      </c>
+      <c r="GG32">
+        <v>279.1297681198093</v>
+      </c>
+      <c r="GH32">
+        <v>500.4937523573565</v>
+      </c>
+      <c r="GI32">
+        <v>450.913775465109</v>
+      </c>
+      <c r="GJ32">
+        <v>325.9135388590792</v>
       </c>
     </row>
-    <row r="33" spans="1:188">
+    <row r="33" spans="1:192">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19008,46 +19392,58 @@
         <v>499.6863318086068</v>
       </c>
       <c r="FT33">
-        <v>1714.717925323395</v>
+        <v>1527.635351676169</v>
       </c>
       <c r="FU33">
-        <v>1612.099961461016</v>
+        <v>1476.061013173426</v>
       </c>
       <c r="FV33">
         <v>97.80084843190912</v>
       </c>
       <c r="FW33">
+        <v>2207.315718818601</v>
+      </c>
+      <c r="FX33">
+        <v>2294.221365649386</v>
+      </c>
+      <c r="FY33">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FZ33">
+        <v>364.9246639997015</v>
+      </c>
+      <c r="GA33">
+        <v>457.9387294737518</v>
+      </c>
+      <c r="GB33">
         <v>2665.886041556122</v>
       </c>
-      <c r="FX33">
-        <v>1996.768719322315</v>
-      </c>
-      <c r="FY33">
-        <v>642.827697502079</v>
-      </c>
-      <c r="FZ33">
-        <v>1962.779488937596</v>
-      </c>
-      <c r="GA33">
-        <v>872.6733517525387</v>
-      </c>
-      <c r="GB33">
-        <v>368.2980322688836</v>
-      </c>
       <c r="GC33">
-        <v>1535.56679147305</v>
+        <v>248.5427273192036</v>
       </c>
       <c r="GD33">
-        <v>2207.315718818601</v>
+        <v>299.890945114355</v>
       </c>
       <c r="GE33">
-        <v>213.8692844463879</v>
+        <v>815.4727570597178</v>
       </c>
       <c r="GF33">
-        <v>1211.974803267944</v>
+        <v>1038.733462004461</v>
+      </c>
+      <c r="GG33">
+        <v>1730.440372095904</v>
+      </c>
+      <c r="GH33">
+        <v>1858.759991257081</v>
+      </c>
+      <c r="GI33">
+        <v>1835.79991319492</v>
+      </c>
+      <c r="GJ33">
+        <v>1759.252894451268</v>
       </c>
     </row>
-    <row r="34" spans="1:188">
+    <row r="34" spans="1:192">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19574,46 +19970,58 @@
         <v>594.4424609073457</v>
       </c>
       <c r="FT34">
-        <v>1789.055123291982</v>
+        <v>1587.17906010864</v>
       </c>
       <c r="FU34">
-        <v>1708.449175647813</v>
+        <v>1536.888020980227</v>
       </c>
       <c r="FV34">
         <v>0</v>
       </c>
       <c r="FW34">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FX34">
+        <v>2391.295791045003</v>
+      </c>
+      <c r="FY34">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FZ34">
+        <v>440.7041624135588</v>
+      </c>
+      <c r="GA34">
+        <v>537.4895962142388</v>
+      </c>
+      <c r="GB34">
         <v>2759.125586227252</v>
       </c>
-      <c r="FX34">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FY34">
-        <v>687.589820448837</v>
-      </c>
-      <c r="FZ34">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="GA34">
-        <v>969.7956996288503</v>
-      </c>
-      <c r="GB34">
-        <v>433.4175883183877</v>
-      </c>
       <c r="GC34">
-        <v>1602.872144433732</v>
+        <v>277.1653991609436</v>
       </c>
       <c r="GD34">
-        <v>2304.137529427024</v>
+        <v>310.3534750620796</v>
       </c>
       <c r="GE34">
-        <v>259.9665107247332</v>
+        <v>912.0844778520328</v>
       </c>
       <c r="GF34">
-        <v>1277.658653156077</v>
+        <v>1134.903363763771</v>
+      </c>
+      <c r="GG34">
+        <v>1785.406061785597</v>
+      </c>
+      <c r="GH34">
+        <v>1903.382094656844</v>
+      </c>
+      <c r="GI34">
+        <v>1907.885477686847</v>
+      </c>
+      <c r="GJ34">
+        <v>1827.021981140202</v>
       </c>
     </row>
-    <row r="35" spans="1:188">
+    <row r="35" spans="1:192">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20140,46 +20548,58 @@
         <v>755.0872144746781</v>
       </c>
       <c r="FT35">
-        <v>1936.436764601656</v>
+        <v>1658.875000793395</v>
       </c>
       <c r="FU35">
-        <v>1855.791054700558</v>
+        <v>1611.181948250061</v>
       </c>
       <c r="FV35">
         <v>160.7125477956193</v>
       </c>
       <c r="FW35">
+        <v>2463.713343017408</v>
+      </c>
+      <c r="FX35">
+        <v>2550.487435160244</v>
+      </c>
+      <c r="FY35">
+        <v>2195.327289306505</v>
+      </c>
+      <c r="FZ35">
+        <v>594.2684648745188</v>
+      </c>
+      <c r="GA35">
+        <v>692.5025234702096</v>
+      </c>
+      <c r="GB35">
         <v>2919.719359964111</v>
       </c>
-      <c r="FX35">
-        <v>2195.327289306505</v>
-      </c>
-      <c r="FY35">
-        <v>810.7807648351719</v>
-      </c>
-      <c r="FZ35">
-        <v>2064.883951247962</v>
-      </c>
-      <c r="GA35">
-        <v>1120.965921766643</v>
-      </c>
-      <c r="GB35">
-        <v>580.0127338392987</v>
-      </c>
       <c r="GC35">
-        <v>1688.456757141028</v>
+        <v>348.112618387679</v>
       </c>
       <c r="GD35">
-        <v>2463.713343017408</v>
+        <v>350.0944477314083</v>
       </c>
       <c r="GE35">
-        <v>355.3380555784184</v>
+        <v>1061.456509595098</v>
       </c>
       <c r="GF35">
-        <v>1417.612595351679</v>
+        <v>1282.346030746322</v>
+      </c>
+      <c r="GG35">
+        <v>1847.85933287221</v>
+      </c>
+      <c r="GH35">
+        <v>1947.103629815078</v>
+      </c>
+      <c r="GI35">
+        <v>2001.062877280107</v>
+      </c>
+      <c r="GJ35">
+        <v>1912.417755062309</v>
       </c>
     </row>
-    <row r="36" spans="1:188">
+    <row r="36" spans="1:192">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20706,46 +21126,58 @@
         <v>697.4835267259695</v>
       </c>
       <c r="FT36">
-        <v>1978.194081478968</v>
+        <v>1271.016991717539</v>
       </c>
       <c r="FU36">
-        <v>1604.852990571556</v>
+        <v>1224.623231128728</v>
       </c>
       <c r="FV36">
         <v>362.8613623325087</v>
       </c>
       <c r="FW36">
+        <v>2301.188640977916</v>
+      </c>
+      <c r="FX36">
+        <v>2380.368702497412</v>
+      </c>
+      <c r="FY36">
+        <v>1848.251976140012</v>
+      </c>
+      <c r="FZ36">
+        <v>667.8927733017485</v>
+      </c>
+      <c r="GA36">
+        <v>742.1046759666502</v>
+      </c>
+      <c r="GB36">
         <v>2809.945554185307</v>
       </c>
-      <c r="FX36">
-        <v>1848.251976140012</v>
-      </c>
-      <c r="FY36">
-        <v>981.9962124468219</v>
-      </c>
-      <c r="FZ36">
-        <v>1673.445439334468</v>
-      </c>
-      <c r="GA36">
-        <v>916.0963288158725</v>
-      </c>
-      <c r="GB36">
-        <v>691.5424721935267</v>
-      </c>
       <c r="GC36">
-        <v>1308.709805264569</v>
+        <v>115.6860997425716</v>
       </c>
       <c r="GD36">
-        <v>2301.188640977916</v>
+        <v>54.22133485097527</v>
       </c>
       <c r="GE36">
-        <v>169.035102014544</v>
+        <v>849.8827261035838</v>
       </c>
       <c r="GF36">
-        <v>1507.42128199751</v>
+        <v>1048.147293294976</v>
+      </c>
+      <c r="GG36">
+        <v>1457.037166592304</v>
+      </c>
+      <c r="GH36">
+        <v>1556.823558641453</v>
+      </c>
+      <c r="GI36">
+        <v>1626.44512235721</v>
+      </c>
+      <c r="GJ36">
+        <v>1531.638664313832</v>
       </c>
     </row>
-    <row r="37" spans="1:188">
+    <row r="37" spans="1:192">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21272,46 +21704,58 @@
         <v>361.4727480284768</v>
       </c>
       <c r="FT37">
-        <v>1603.301329830905</v>
+        <v>1459.431799009556</v>
       </c>
       <c r="FU37">
-        <v>1475.798174128969</v>
+        <v>1406.002080099486</v>
       </c>
       <c r="FV37">
         <v>239.2445087355543</v>
       </c>
       <c r="FW37">
+        <v>2065.919124598204</v>
+      </c>
+      <c r="FX37">
+        <v>2152.675973158168</v>
+      </c>
+      <c r="FY37">
+        <v>1885.766226525997</v>
+      </c>
+      <c r="FZ37">
+        <v>269.7962020533888</v>
+      </c>
+      <c r="GA37">
+        <v>349.7060381534903</v>
+      </c>
+      <c r="GB37">
         <v>2528.03406041927</v>
       </c>
-      <c r="FX37">
-        <v>1885.766226525997</v>
-      </c>
-      <c r="FY37">
-        <v>588.9035985712939</v>
-      </c>
-      <c r="FZ37">
-        <v>1908.449616501309</v>
-      </c>
-      <c r="GA37">
-        <v>734.7307554835129</v>
-      </c>
-      <c r="GB37">
-        <v>294.8756744411115</v>
-      </c>
       <c r="GC37">
-        <v>1454.199474322635</v>
+        <v>282.7326842760723</v>
       </c>
       <c r="GD37">
-        <v>2065.919124598204</v>
+        <v>349.1083622238723</v>
       </c>
       <c r="GE37">
-        <v>230.3561245199942</v>
+        <v>679.1722263228567</v>
       </c>
       <c r="GF37">
-        <v>1115.502421840838</v>
+        <v>903.3175761911101</v>
+      </c>
+      <c r="GG37">
+        <v>1668.766425646545</v>
+      </c>
+      <c r="GH37">
+        <v>1813.095409935694</v>
+      </c>
+      <c r="GI37">
+        <v>1745.09677091884</v>
+      </c>
+      <c r="GJ37">
+        <v>1676.174706989569</v>
       </c>
     </row>
-    <row r="38" spans="1:188">
+    <row r="38" spans="1:192">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21838,46 +22282,58 @@
         <v>401.561301216823</v>
       </c>
       <c r="FT38">
-        <v>1657.099095143359</v>
+        <v>1421.522533643415</v>
       </c>
       <c r="FU38">
-        <v>1484.308627896925</v>
+        <v>1368.776753350516</v>
       </c>
       <c r="FV38">
         <v>224.2826594112225</v>
       </c>
       <c r="FW38">
+        <v>2093.972058572037</v>
+      </c>
+      <c r="FX38">
+        <v>2179.552532405144</v>
+      </c>
+      <c r="FY38">
+        <v>1869.921850173073</v>
+      </c>
+      <c r="FZ38">
+        <v>329.2998365162655</v>
+      </c>
+      <c r="GA38">
+        <v>406.8386598602455</v>
+      </c>
+      <c r="GB38">
         <v>2564.777166122035</v>
       </c>
-      <c r="FX38">
-        <v>1869.921850173073</v>
-      </c>
-      <c r="FY38">
-        <v>648.4661020716937</v>
-      </c>
-      <c r="FZ38">
-        <v>1865.847176348344</v>
-      </c>
-      <c r="GA38">
-        <v>746.6650947624413</v>
-      </c>
-      <c r="GB38">
-        <v>354.7999012763352</v>
-      </c>
       <c r="GC38">
-        <v>1421.813303208068</v>
+        <v>223.0016457640002</v>
       </c>
       <c r="GD38">
-        <v>2093.972058572037</v>
+        <v>289.8286504548519</v>
       </c>
       <c r="GE38">
-        <v>170.3590125363384</v>
+        <v>688.2220942923524</v>
       </c>
       <c r="GF38">
-        <v>1173.093270343165</v>
+        <v>910.7139748439689</v>
+      </c>
+      <c r="GG38">
+        <v>1628.565806470629</v>
+      </c>
+      <c r="GH38">
+        <v>1767.70514850024</v>
+      </c>
+      <c r="GI38">
+        <v>1717.351862784924</v>
+      </c>
+      <c r="GJ38">
+        <v>1644.713340255495</v>
       </c>
     </row>
-    <row r="39" spans="1:188">
+    <row r="39" spans="1:192">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -22404,46 +22860,58 @@
         <v>660.3463077932836</v>
       </c>
       <c r="FT39">
-        <v>1937.377589476593</v>
+        <v>1308.920803532985</v>
       </c>
       <c r="FU39">
-        <v>1603.056487871657</v>
+        <v>1261.524372511312</v>
       </c>
       <c r="FV39">
         <v>310.3534750620796</v>
       </c>
       <c r="FW39">
+        <v>2285.571133856522</v>
+      </c>
+      <c r="FX39">
+        <v>2366.023441643853</v>
+      </c>
+      <c r="FY39">
+        <v>1869.408868263184</v>
+      </c>
+      <c r="FZ39">
+        <v>618.9043052074642</v>
+      </c>
+      <c r="GA39">
+        <v>695.5390206533834</v>
+      </c>
+      <c r="GB39">
         <v>2787.406676970597</v>
       </c>
-      <c r="FX39">
-        <v>1869.408868263184</v>
-      </c>
-      <c r="FY39">
-        <v>929.9090566503509</v>
-      </c>
-      <c r="FZ39">
-        <v>1717.462185776625</v>
-      </c>
-      <c r="GA39">
-        <v>902.6998600863592</v>
-      </c>
-      <c r="GB39">
-        <v>640.6616920557194</v>
-      </c>
       <c r="GC39">
-        <v>1341.603027051589</v>
+        <v>68.67846497453625</v>
       </c>
       <c r="GD39">
-        <v>2285.571133856522</v>
+        <v>0</v>
       </c>
       <c r="GE39">
-        <v>123.5719557505343</v>
+        <v>837.1328135965426</v>
       </c>
       <c r="GF39">
-        <v>1461.62513993125</v>
+        <v>1041.06170129759</v>
+      </c>
+      <c r="GG39">
+        <v>1498.138195683403</v>
+      </c>
+      <c r="GH39">
+        <v>1602.841400668312</v>
+      </c>
+      <c r="GI39">
+        <v>1657.106208984158</v>
+      </c>
+      <c r="GJ39">
+        <v>1565.155898707714</v>
       </c>
     </row>
-    <row r="40" spans="1:188">
+    <row r="40" spans="1:192">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -22970,46 +23438,58 @@
         <v>625.0782022691268</v>
       </c>
       <c r="FT40">
-        <v>1841.177312687092</v>
+        <v>1545.752584694142</v>
       </c>
       <c r="FU40">
-        <v>1711.995455368464</v>
+        <v>1496.398381936366</v>
       </c>
       <c r="FV40">
         <v>66.41513577600516</v>
       </c>
       <c r="FW40">
+        <v>2327.13672205501</v>
+      </c>
+      <c r="FX40">
+        <v>2413.073198224234</v>
+      </c>
+      <c r="FY40">
+        <v>2059.272350347574</v>
+      </c>
+      <c r="FZ40">
+        <v>491.0452187413453</v>
+      </c>
+      <c r="GA40">
+        <v>585.5493861637959</v>
+      </c>
+      <c r="GB40">
         <v>2791.734222303068</v>
       </c>
-      <c r="FX40">
-        <v>2059.272350347574</v>
-      </c>
-      <c r="FY40">
-        <v>750.5665339015206</v>
-      </c>
-      <c r="FZ40">
-        <v>1964.853058476094</v>
-      </c>
-      <c r="GA40">
-        <v>977.989286611395</v>
-      </c>
-      <c r="GB40">
-        <v>489.1738294279598</v>
-      </c>
       <c r="GC40">
-        <v>1567.01273456174</v>
+        <v>228.9934651589758</v>
       </c>
       <c r="GD40">
-        <v>2327.13672205501</v>
+        <v>252.8390589609866</v>
       </c>
       <c r="GE40">
-        <v>222.8352304153107</v>
+        <v>918.0685490841564</v>
       </c>
       <c r="GF40">
-        <v>1334.274780825663</v>
+        <v>1138.611907997298</v>
+      </c>
+      <c r="GG40">
+        <v>1740.833433803741</v>
+      </c>
+      <c r="GH40">
+        <v>1853.005480123265</v>
+      </c>
+      <c r="GI40">
+        <v>1875.592427062324</v>
+      </c>
+      <c r="GJ40">
+        <v>1791.247335748752</v>
       </c>
     </row>
-    <row r="41" spans="1:188">
+    <row r="41" spans="1:192">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -23536,46 +24016,58 @@
         <v>577.8294795234111</v>
       </c>
       <c r="FT41">
-        <v>1832.12521716133</v>
+        <v>1426.376972906156</v>
       </c>
       <c r="FU41">
-        <v>1615.879119232104</v>
+        <v>1376.785058571447</v>
       </c>
       <c r="FV41">
         <v>164.8373329215132</v>
       </c>
       <c r="FW41">
+        <v>2256.011973688054</v>
+      </c>
+      <c r="FX41">
+        <v>2339.931772985421</v>
+      </c>
+      <c r="FY41">
+        <v>1942.924215355498</v>
+      </c>
+      <c r="FZ41">
+        <v>491.8234130894999</v>
+      </c>
+      <c r="GA41">
+        <v>577.1821555488179</v>
+      </c>
+      <c r="GB41">
         <v>2736.386568762136</v>
       </c>
-      <c r="FX41">
-        <v>1942.924215355498</v>
-      </c>
-      <c r="FY41">
-        <v>787.849758262534</v>
-      </c>
-      <c r="FZ41">
-        <v>1848.428038898033</v>
-      </c>
-      <c r="GA41">
-        <v>890.0483309987566</v>
-      </c>
-      <c r="GB41">
-        <v>505.1960574210812</v>
-      </c>
       <c r="GC41">
-        <v>1446.883735012267</v>
+        <v>112.3288559341177</v>
       </c>
       <c r="GD41">
-        <v>2256.011973688054</v>
+        <v>152.5913724270738</v>
       </c>
       <c r="GE41">
-        <v>103.4348811662454</v>
+        <v>827.7343294645152</v>
       </c>
       <c r="GF41">
-        <v>1341.130591383734</v>
+        <v>1044.269814853869</v>
+      </c>
+      <c r="GG41">
+        <v>1622.617422929444</v>
+      </c>
+      <c r="GH41">
+        <v>1738.613105654734</v>
+      </c>
+      <c r="GI41">
+        <v>1755.669703146357</v>
+      </c>
+      <c r="GJ41">
+        <v>1671.118658684321</v>
       </c>
     </row>
-    <row r="42" spans="1:188">
+    <row r="42" spans="1:192">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -24102,46 +24594,58 @@
         <v>579.7609763158861</v>
       </c>
       <c r="FT42">
-        <v>1849.707381781982</v>
+        <v>1357.051011087112</v>
       </c>
       <c r="FU42">
-        <v>1575.595967659209</v>
+        <v>1307.711944994037</v>
       </c>
       <c r="FV42">
         <v>234.9779488106452</v>
       </c>
       <c r="FW42">
+        <v>2233.880170327612</v>
+      </c>
+      <c r="FX42">
+        <v>2316.290433681671</v>
+      </c>
+      <c r="FY42">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="FZ42">
+        <v>523.5779889581303</v>
+      </c>
+      <c r="GA42">
+        <v>602.4159180790492</v>
+      </c>
+      <c r="GB42">
         <v>2724.522184902092</v>
       </c>
-      <c r="FX42">
-        <v>1882.857872641294</v>
-      </c>
-      <c r="FY42">
-        <v>833.1088191782339</v>
-      </c>
-      <c r="FZ42">
-        <v>1778.168611469406</v>
-      </c>
-      <c r="GA42">
-        <v>858.6197069088229</v>
-      </c>
-      <c r="GB42">
-        <v>544.1088040406474</v>
-      </c>
       <c r="GC42">
-        <v>1379.34987739488</v>
+        <v>42.49665954282744</v>
       </c>
       <c r="GD42">
-        <v>2233.880170327612</v>
+        <v>96.80673381624253</v>
       </c>
       <c r="GE42">
-        <v>49.79181675242354</v>
+        <v>794.6950308769985</v>
       </c>
       <c r="GF42">
-        <v>1368.690125379696</v>
+        <v>1006.78973630586</v>
+      </c>
+      <c r="GG42">
+        <v>1552.653111637053</v>
+      </c>
+      <c r="GH42">
+        <v>1668.408200485353</v>
+      </c>
+      <c r="GI42">
+        <v>1689.527725359579</v>
+      </c>
+      <c r="GJ42">
+        <v>1603.552937740716</v>
       </c>
     </row>
-    <row r="43" spans="1:188">
+    <row r="43" spans="1:192">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -24668,46 +25172,58 @@
         <v>592.5526851156742</v>
       </c>
       <c r="FT43">
-        <v>1868.74034593594</v>
+        <v>1317.233753592191</v>
       </c>
       <c r="FU43">
-        <v>1559.164906045376</v>
+        <v>1268.229875752277</v>
       </c>
       <c r="FV43">
         <v>277.1653991609436</v>
       </c>
       <c r="FW43">
+        <v>2229.079032317666</v>
+      </c>
+      <c r="FX43">
+        <v>2310.488937132395</v>
+      </c>
+      <c r="FY43">
+        <v>1851.644086354249</v>
+      </c>
+      <c r="FZ43">
+        <v>552.2968130437771</v>
+      </c>
+      <c r="GA43">
+        <v>627.565412719794</v>
+      </c>
+      <c r="GB43">
         <v>2725.952761402729</v>
       </c>
-      <c r="FX43">
-        <v>1851.644086354249</v>
-      </c>
-      <c r="FY43">
-        <v>867.184836433303</v>
-      </c>
-      <c r="FZ43">
-        <v>1736.57327351836</v>
-      </c>
-      <c r="GA43">
-        <v>849.331368981776</v>
-      </c>
-      <c r="GB43">
-        <v>576.0318945452501</v>
-      </c>
       <c r="GC43">
-        <v>1341.59871060092</v>
+        <v>0</v>
       </c>
       <c r="GD43">
-        <v>2229.079032317666</v>
+        <v>68.67846497453625</v>
       </c>
       <c r="GE43">
-        <v>54.89720394667815</v>
+        <v>784.5127212918381</v>
       </c>
       <c r="GF43">
-        <v>1393.455016447605</v>
+        <v>993.001578469387</v>
+      </c>
+      <c r="GG43">
+        <v>1511.84378270692</v>
+      </c>
+      <c r="GH43">
+        <v>1626.32258675641</v>
+      </c>
+      <c r="GI43">
+        <v>1653.098389730191</v>
+      </c>
+      <c r="GJ43">
+        <v>1565.730070129918</v>
       </c>
     </row>
-    <row r="44" spans="1:188">
+    <row r="44" spans="1:192">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -25234,46 +25750,58 @@
         <v>538.6904395112406</v>
       </c>
       <c r="FT44">
-        <v>1813.916337113418</v>
+        <v>1327.240896317115</v>
       </c>
       <c r="FU44">
-        <v>1526.083523222766</v>
+        <v>1277.068398901912</v>
       </c>
       <c r="FV44">
         <v>259.9665107247332</v>
       </c>
       <c r="FW44">
+        <v>2184.933818183642</v>
+      </c>
+      <c r="FX44">
+        <v>2267.141399197434</v>
+      </c>
+      <c r="FY44">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="FZ44">
+        <v>499.2213468234353</v>
+      </c>
+      <c r="GA44">
+        <v>573.2186395527904</v>
+      </c>
+      <c r="GB44">
         <v>2677.482710022975</v>
       </c>
-      <c r="FX44">
-        <v>1840.003959379539</v>
-      </c>
-      <c r="FY44">
-        <v>817.3587631501539</v>
-      </c>
-      <c r="FZ44">
-        <v>1754.442681727774</v>
-      </c>
-      <c r="GA44">
-        <v>808.9249118163835</v>
-      </c>
-      <c r="GB44">
-        <v>524.7822504163031</v>
-      </c>
       <c r="GC44">
-        <v>1344.975323227697</v>
+        <v>54.89720394667815</v>
       </c>
       <c r="GD44">
-        <v>2184.933818183642</v>
+        <v>123.5719557505343</v>
       </c>
       <c r="GE44">
-        <v>0</v>
+        <v>744.9398857485049</v>
       </c>
       <c r="GF44">
-        <v>1338.897548960874</v>
+        <v>957.0516653228299</v>
+      </c>
+      <c r="GG44">
+        <v>1525.762754665343</v>
+      </c>
+      <c r="GH44">
+        <v>1647.698095944643</v>
+      </c>
+      <c r="GI44">
+        <v>1652.798869655626</v>
+      </c>
+      <c r="GJ44">
+        <v>1569.207324416219</v>
       </c>
     </row>
-    <row r="45" spans="1:188">
+    <row r="45" spans="1:192">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -25800,46 +26328,58 @@
         <v>741.7761624019241</v>
       </c>
       <c r="FT45">
-        <v>1024.33879427389</v>
+        <v>2173.413702598536</v>
       </c>
       <c r="FU45">
-        <v>1719.337563231224</v>
+        <v>2116.636145581857</v>
       </c>
       <c r="FV45">
         <v>941.3528095601845</v>
       </c>
       <c r="FW45">
+        <v>1960.280787775514</v>
+      </c>
+      <c r="FX45">
+        <v>2058.108752335568</v>
+      </c>
+      <c r="FY45">
+        <v>2369.293856951108</v>
+      </c>
+      <c r="FZ45">
+        <v>602.125781238654</v>
+      </c>
+      <c r="GA45">
+        <v>568.6301714671581</v>
+      </c>
+      <c r="GB45">
         <v>2238.836476121754</v>
       </c>
-      <c r="FX45">
-        <v>2369.293856951108</v>
-      </c>
-      <c r="FY45">
-        <v>267.4801508070989</v>
-      </c>
-      <c r="FZ45">
-        <v>2648.668716114871</v>
-      </c>
-      <c r="GA45">
-        <v>1116.887223865106</v>
-      </c>
-      <c r="GB45">
-        <v>562.7970042104752</v>
-      </c>
       <c r="GC45">
-        <v>2122.229810363167</v>
+        <v>1133.557964900759</v>
       </c>
       <c r="GD45">
-        <v>1960.280787775514</v>
+        <v>1195.49088972309</v>
       </c>
       <c r="GE45">
-        <v>1084.245970187232</v>
+        <v>1109.892597240307</v>
       </c>
       <c r="GF45">
-        <v>493.2620174868303</v>
+        <v>1274.929646829959</v>
+      </c>
+      <c r="GG45">
+        <v>2394.573175813773</v>
+      </c>
+      <c r="GH45">
+        <v>2578.261422074517</v>
+      </c>
+      <c r="GI45">
+        <v>2356.55108266054</v>
+      </c>
+      <c r="GJ45">
+        <v>2325.397334834425</v>
       </c>
     </row>
-    <row r="46" spans="1:188">
+    <row r="46" spans="1:192">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26366,46 +26906,58 @@
         <v>455.4653813541684</v>
       </c>
       <c r="FT46">
-        <v>1095.936964396971</v>
+        <v>1887.649804805925</v>
       </c>
       <c r="FU46">
-        <v>1506.915868564414</v>
+        <v>1830.966521834425</v>
       </c>
       <c r="FV46">
         <v>721.9200721722793</v>
       </c>
       <c r="FW46">
+        <v>1855.779292698527</v>
+      </c>
+      <c r="FX46">
+        <v>1951.768181307556</v>
+      </c>
+      <c r="FY46">
+        <v>2115.599817737079</v>
+      </c>
+      <c r="FZ46">
+        <v>327.4885768485813</v>
+      </c>
+      <c r="GA46">
+        <v>281.7901297162987</v>
+      </c>
+      <c r="GB46">
         <v>2205.606171059078</v>
       </c>
-      <c r="FX46">
-        <v>2115.599817737079</v>
-      </c>
-      <c r="FY46">
-        <v>92.24119508760425</v>
-      </c>
-      <c r="FZ46">
-        <v>2361.97543645961</v>
-      </c>
-      <c r="GA46">
-        <v>854.59151967027</v>
-      </c>
-      <c r="GB46">
-        <v>301.226156485895</v>
-      </c>
       <c r="GC46">
-        <v>1840.118824872799</v>
+        <v>876.2452760257975</v>
       </c>
       <c r="GD46">
-        <v>1855.779292698527</v>
+        <v>941.4817333928971</v>
       </c>
       <c r="GE46">
-        <v>824.2132756402364</v>
+        <v>840.1345937636763</v>
       </c>
       <c r="GF46">
-        <v>564.5988662923388</v>
+        <v>1021.336828436768</v>
+      </c>
+      <c r="GG46">
+        <v>2108.441841880122</v>
+      </c>
+      <c r="GH46">
+        <v>2290.470907880016</v>
+      </c>
+      <c r="GI46">
+        <v>2082.150776649821</v>
+      </c>
+      <c r="GJ46">
+        <v>2046.120232838736</v>
       </c>
     </row>
-    <row r="47" spans="1:188">
+    <row r="47" spans="1:192">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -26932,46 +27484,58 @@
         <v>622.2411035268569</v>
       </c>
       <c r="FT47">
-        <v>1377.057768929679</v>
+        <v>1997.839209321939</v>
       </c>
       <c r="FU47">
-        <v>1772.568045659715</v>
+        <v>1942.705862896893</v>
       </c>
       <c r="FV47">
         <v>578.7765844126178</v>
       </c>
       <c r="FW47">
+        <v>2167.443376431992</v>
+      </c>
+      <c r="FX47">
+        <v>2262.958787204668</v>
+      </c>
+      <c r="FY47">
+        <v>2324.499446773549</v>
+      </c>
+      <c r="FZ47">
+        <v>388.681372817102</v>
+      </c>
+      <c r="GA47">
+        <v>426.5989021433448</v>
+      </c>
+      <c r="GB47">
         <v>2519.155888968042</v>
       </c>
-      <c r="FX47">
-        <v>2324.499446773549</v>
-      </c>
-      <c r="FY47">
-        <v>226.195091072986</v>
-      </c>
-      <c r="FZ47">
-        <v>2458.131052381989</v>
-      </c>
-      <c r="GA47">
-        <v>1072.231558122217</v>
-      </c>
-      <c r="GB47">
-        <v>326.4645256237236</v>
-      </c>
       <c r="GC47">
-        <v>1974.374438864762</v>
+        <v>811.2689363368894</v>
       </c>
       <c r="GD47">
-        <v>2167.443376431992</v>
+        <v>865.0380365876783</v>
       </c>
       <c r="GE47">
-        <v>769.4219340353922</v>
+        <v>1042.180694240935</v>
       </c>
       <c r="GF47">
-        <v>836.4603302117282</v>
+        <v>1248.347049191425</v>
+      </c>
+      <c r="GG47">
+        <v>2212.769523850684</v>
+      </c>
+      <c r="GH47">
+        <v>2369.182278457323</v>
+      </c>
+      <c r="GI47">
+        <v>2243.836374326177</v>
+      </c>
+      <c r="GJ47">
+        <v>2190.756680353811</v>
       </c>
     </row>
-    <row r="48" spans="1:188">
+    <row r="48" spans="1:192">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27498,46 +28062,58 @@
         <v>507.8009905580573</v>
       </c>
       <c r="FT48">
-        <v>1164.231267850083</v>
+        <v>1934.953612372864</v>
       </c>
       <c r="FU48">
-        <v>1592.844294549488</v>
+        <v>1878.560735837452</v>
       </c>
       <c r="FV48">
         <v>687.589820448837</v>
       </c>
       <c r="FW48">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="FX48">
+        <v>2043.771658392359</v>
+      </c>
+      <c r="FY48">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FZ48">
+        <v>337.1715874067943</v>
+      </c>
+      <c r="GA48">
+        <v>317.9818582996949</v>
+      </c>
+      <c r="GB48">
         <v>2292.978805295378</v>
       </c>
-      <c r="FX48">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="FY48">
-        <v>0</v>
-      </c>
-      <c r="FZ48">
-        <v>2406.335303967287</v>
-      </c>
-      <c r="GA48">
-        <v>927.2556214530194</v>
-      </c>
-      <c r="GB48">
-        <v>295.3976522992114</v>
-      </c>
       <c r="GC48">
-        <v>1893.852326734406</v>
+        <v>867.184836433303</v>
       </c>
       <c r="GD48">
-        <v>1947.71051178082</v>
+        <v>929.9090566503509</v>
       </c>
       <c r="GE48">
-        <v>817.3587631501539</v>
+        <v>908.4383377310276</v>
       </c>
       <c r="GF48">
-        <v>626.5915178077541</v>
+        <v>1097.222591840506</v>
+      </c>
+      <c r="GG48">
+        <v>2154.602301249736</v>
+      </c>
+      <c r="GH48">
+        <v>2329.920850496618</v>
+      </c>
+      <c r="GI48">
+        <v>2143.607838751089</v>
+      </c>
+      <c r="GJ48">
+        <v>2103.030196370858</v>
       </c>
     </row>
-    <row r="49" spans="1:188">
+    <row r="49" spans="1:192">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -28064,46 +28640,58 @@
         <v>366.5033846826824</v>
       </c>
       <c r="FT49">
-        <v>1147.029781521533</v>
+        <v>1797.742311158281</v>
       </c>
       <c r="FU49">
-        <v>1455.106311487037</v>
+        <v>1741.153487597905</v>
       </c>
       <c r="FV49">
         <v>650.6764070209389</v>
       </c>
       <c r="FW49">
+        <v>1844.775310027142</v>
+      </c>
+      <c r="FX49">
+        <v>1939.662153799327</v>
+      </c>
+      <c r="FY49">
+        <v>2043.423364269398</v>
+      </c>
+      <c r="FZ49">
+        <v>237.8397684658256</v>
+      </c>
+      <c r="GA49">
+        <v>187.7851822273068</v>
+      </c>
+      <c r="GB49">
         <v>2217.580546933605</v>
       </c>
-      <c r="FX49">
-        <v>2043.423364269398</v>
-      </c>
-      <c r="FY49">
-        <v>145.7882796965619</v>
-      </c>
-      <c r="FZ49">
-        <v>2271.150836845505</v>
-      </c>
-      <c r="GA49">
-        <v>781.6633328847261</v>
-      </c>
-      <c r="GB49">
-        <v>220.0126786021348</v>
-      </c>
       <c r="GC49">
-        <v>1752.930284369352</v>
+        <v>789.5571226920863</v>
       </c>
       <c r="GD49">
-        <v>1844.775310027142</v>
+        <v>855.6643638147345</v>
       </c>
       <c r="GE49">
-        <v>736.8013576909603</v>
+        <v>762.6929691364261</v>
       </c>
       <c r="GF49">
-        <v>627.1145873979671</v>
+        <v>952.2675983627084</v>
+      </c>
+      <c r="GG49">
+        <v>2018.170516050469</v>
+      </c>
+      <c r="GH49">
+        <v>2198.304404194826</v>
+      </c>
+      <c r="GI49">
+        <v>1999.471197727117</v>
+      </c>
+      <c r="GJ49">
+        <v>1960.633578879102</v>
       </c>
     </row>
-    <row r="50" spans="1:188">
+    <row r="50" spans="1:192">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -28630,46 +29218,58 @@
         <v>507.0739383664227</v>
       </c>
       <c r="FT50">
-        <v>1486.861547401626</v>
+        <v>1811.429201559702</v>
       </c>
       <c r="FU50">
-        <v>1688.682576980445</v>
+        <v>1757.206261106456</v>
       </c>
       <c r="FV50">
         <v>369.7623910080335</v>
       </c>
       <c r="FW50">
+        <v>2162.598411548857</v>
+      </c>
+      <c r="FX50">
+        <v>2255.51436005957</v>
+      </c>
+      <c r="FY50">
+        <v>2186.455970611118</v>
+      </c>
+      <c r="FZ50">
+        <v>260.137653392329</v>
+      </c>
+      <c r="GA50">
+        <v>339.7179069227455</v>
+      </c>
+      <c r="GB50">
         <v>2558.523020105009</v>
       </c>
-      <c r="FX50">
-        <v>2186.455970611118</v>
-      </c>
-      <c r="FY50">
-        <v>334.9623995294463</v>
-      </c>
-      <c r="FZ50">
-        <v>2264.887177015536</v>
-      </c>
-      <c r="GA50">
-        <v>960.3339955103513</v>
-      </c>
-      <c r="GB50">
-        <v>203.1677295790646</v>
-      </c>
       <c r="GC50">
-        <v>1797.773746664019</v>
+        <v>596.8482531650253</v>
       </c>
       <c r="GD50">
-        <v>2162.598411548857</v>
+        <v>650.4279848282908</v>
       </c>
       <c r="GE50">
-        <v>555.8164620551599</v>
+        <v>920.0510724590177</v>
       </c>
       <c r="GF50">
-        <v>955.2360002939307</v>
+        <v>1138.151173655563</v>
+      </c>
+      <c r="GG50">
+        <v>2023.172948960724</v>
+      </c>
+      <c r="GH50">
+        <v>2171.013085143119</v>
+      </c>
+      <c r="GI50">
+        <v>2078.383772186734</v>
+      </c>
+      <c r="GJ50">
+        <v>2017.406189403613</v>
       </c>
     </row>
-    <row r="51" spans="1:188">
+    <row r="51" spans="1:192">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -29196,46 +29796,58 @@
         <v>440.5289576377635</v>
       </c>
       <c r="FT51">
-        <v>1177.525810938293</v>
+        <v>1866.943146567817</v>
       </c>
       <c r="FU51">
-        <v>1539.993593385953</v>
+        <v>1810.556042026494</v>
       </c>
       <c r="FV51">
         <v>645.3713052189403</v>
       </c>
       <c r="FW51">
+        <v>1918.361865253077</v>
+      </c>
+      <c r="FX51">
+        <v>2013.768524788115</v>
+      </c>
+      <c r="FY51">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="FZ51">
+        <v>272.9138492891167</v>
+      </c>
+      <c r="GA51">
+        <v>249.961126462766</v>
+      </c>
+      <c r="GB51">
         <v>2278.959077323523</v>
       </c>
-      <c r="FX51">
-        <v>2126.369210130919</v>
-      </c>
-      <c r="FY51">
-        <v>68.02076529614645</v>
-      </c>
-      <c r="FZ51">
-        <v>2338.333692743688</v>
-      </c>
-      <c r="GA51">
-        <v>864.9100117272241</v>
-      </c>
-      <c r="GB51">
-        <v>235.9926750336956</v>
-      </c>
       <c r="GC51">
-        <v>1826.182650569356</v>
+        <v>811.4472501685578</v>
       </c>
       <c r="GD51">
-        <v>1918.361865253077</v>
+        <v>875.386147040361</v>
       </c>
       <c r="GE51">
-        <v>760.5930825326394</v>
+        <v>844.2958458336869</v>
       </c>
       <c r="GF51">
-        <v>645.8822385250492</v>
+        <v>1036.348313858974</v>
+      </c>
+      <c r="GG51">
+        <v>2086.581556230778</v>
+      </c>
+      <c r="GH51">
+        <v>2262.13592838817</v>
+      </c>
+      <c r="GI51">
+        <v>2077.03443532564</v>
+      </c>
+      <c r="GJ51">
+        <v>2035.69994137336</v>
       </c>
     </row>
-    <row r="52" spans="1:188">
+    <row r="52" spans="1:192">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -29762,46 +30374,58 @@
         <v>519.9308673513192</v>
       </c>
       <c r="FT52">
-        <v>1118.695029320384</v>
+        <v>1950.996448672021</v>
       </c>
       <c r="FU52">
-        <v>1579.367853106086</v>
+        <v>1894.433843529429</v>
       </c>
       <c r="FV52">
         <v>731.3580729839653</v>
       </c>
       <c r="FW52">
+        <v>1916.373273195157</v>
+      </c>
+      <c r="FX52">
+        <v>2012.761986992736</v>
+      </c>
+      <c r="FY52">
+        <v>2188.003725412793</v>
+      </c>
+      <c r="FZ52">
+        <v>367.3990333208175</v>
+      </c>
+      <c r="GA52">
+        <v>337.1286032716496</v>
+      </c>
+      <c r="GB52">
         <v>2254.32488075841</v>
       </c>
-      <c r="FX52">
-        <v>2188.003725412793</v>
-      </c>
-      <c r="FY52">
-        <v>46.41187113353489</v>
-      </c>
-      <c r="FZ52">
-        <v>2424.027813383663</v>
-      </c>
-      <c r="GA52">
-        <v>926.6696853912049</v>
-      </c>
-      <c r="GB52">
-        <v>330.5179178289891</v>
-      </c>
       <c r="GC52">
-        <v>1906.267085249128</v>
+        <v>905.2449402751772</v>
       </c>
       <c r="GD52">
-        <v>1916.373273195157</v>
+        <v>968.7368251105909</v>
       </c>
       <c r="GE52">
-        <v>854.7191709424565</v>
+        <v>911.1134987977179</v>
       </c>
       <c r="GF52">
-        <v>580.557837723432</v>
+        <v>1094.043352540736</v>
+      </c>
+      <c r="GG52">
+        <v>2171.302328391633</v>
+      </c>
+      <c r="GH52">
+        <v>2350.101368388205</v>
+      </c>
+      <c r="GI52">
+        <v>2151.281284394282</v>
+      </c>
+      <c r="GJ52">
+        <v>2113.577081022563</v>
       </c>
     </row>
-    <row r="53" spans="1:188">
+    <row r="53" spans="1:192">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30328,46 +30952,58 @@
         <v>403.3966689560276</v>
       </c>
       <c r="FT53">
-        <v>1155.888266734348</v>
+        <v>1833.18202942154</v>
       </c>
       <c r="FU53">
-        <v>1494.72308145771</v>
+        <v>1776.667907392082</v>
       </c>
       <c r="FV53">
         <v>651.9466940040791</v>
       </c>
       <c r="FW53">
+        <v>1876.717489671799</v>
+      </c>
+      <c r="FX53">
+        <v>1971.914891855356</v>
+      </c>
+      <c r="FY53">
+        <v>2083.629380884304</v>
+      </c>
+      <c r="FZ53">
+        <v>256.1216396655768</v>
+      </c>
+      <c r="GA53">
+        <v>218.6756974474958</v>
+      </c>
+      <c r="GB53">
         <v>2242.715469121756</v>
       </c>
-      <c r="FX53">
-        <v>2083.629380884304</v>
-      </c>
-      <c r="FY53">
-        <v>105.9898320501571</v>
-      </c>
-      <c r="FZ53">
-        <v>2305.82214210157</v>
-      </c>
-      <c r="GA53">
-        <v>821.9127281234219</v>
-      </c>
-      <c r="GB53">
-        <v>228.7657657151987</v>
-      </c>
       <c r="GC53">
-        <v>1789.937396762529</v>
+        <v>803.8112831074268</v>
       </c>
       <c r="GD53">
-        <v>1876.717489671799</v>
+        <v>868.9961496801742</v>
       </c>
       <c r="GE53">
-        <v>751.8609641086211</v>
+        <v>802.5186999172728</v>
       </c>
       <c r="GF53">
-        <v>629.5586374117785</v>
+        <v>992.6575982978978</v>
+      </c>
+      <c r="GG53">
+        <v>2053.314665033363</v>
+      </c>
+      <c r="GH53">
+        <v>2231.61347541399</v>
+      </c>
+      <c r="GI53">
+        <v>2038.059632860892</v>
+      </c>
+      <c r="GJ53">
+        <v>1998.328918327375</v>
       </c>
     </row>
-    <row r="54" spans="1:188">
+    <row r="54" spans="1:192">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -30894,46 +31530,58 @@
         <v>540.5939823983861</v>
       </c>
       <c r="FT54">
-        <v>1203.622894190623</v>
+        <v>1961.699124072363</v>
       </c>
       <c r="FU54">
-        <v>1640.129824602487</v>
+        <v>1905.501971731118</v>
       </c>
       <c r="FV54">
         <v>672.6374765387297</v>
       </c>
       <c r="FW54">
+        <v>1998.333805919081</v>
+      </c>
+      <c r="FX54">
+        <v>2094.424261264219</v>
+      </c>
+      <c r="FY54">
+        <v>2229.618014109515</v>
+      </c>
+      <c r="FZ54">
+        <v>352.1128243915662</v>
+      </c>
+      <c r="GA54">
+        <v>346.252691667458</v>
+      </c>
+      <c r="GB54">
         <v>2341.415349436308</v>
       </c>
-      <c r="FX54">
-        <v>2229.618014109515</v>
-      </c>
-      <c r="FY54">
-        <v>50.72838674286199</v>
-      </c>
-      <c r="FZ54">
-        <v>2431.228443106197</v>
-      </c>
-      <c r="GA54">
-        <v>968.2090243034412</v>
-      </c>
-      <c r="GB54">
-        <v>303.5739546757216</v>
-      </c>
       <c r="GC54">
-        <v>1924.052138685201</v>
+        <v>865.6050501020849</v>
       </c>
       <c r="GD54">
-        <v>1998.333805919081</v>
+        <v>926.649350956381</v>
       </c>
       <c r="GE54">
-        <v>817.2578983014064</v>
+        <v>947.262132429864</v>
       </c>
       <c r="GF54">
-        <v>664.1817872163393</v>
+        <v>1139.583218109611</v>
+      </c>
+      <c r="GG54">
+        <v>2180.595720418335</v>
+      </c>
+      <c r="GH54">
+        <v>2352.206101469396</v>
+      </c>
+      <c r="GI54">
+        <v>2177.784552301732</v>
+      </c>
+      <c r="GJ54">
+        <v>2134.801541926785</v>
       </c>
     </row>
-    <row r="55" spans="1:188">
+    <row r="55" spans="1:192">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31460,46 +32108,58 @@
         <v>520.8380927333058</v>
       </c>
       <c r="FT55">
-        <v>941.6138316362913</v>
+        <v>1937.828746238266</v>
       </c>
       <c r="FU55">
-        <v>1457.020973451717</v>
+        <v>1880.872421527929</v>
       </c>
       <c r="FV55">
         <v>869.962280914538</v>
       </c>
       <c r="FW55">
+        <v>1743.246987433977</v>
+      </c>
+      <c r="FX55">
+        <v>1840.230991731644</v>
+      </c>
+      <c r="FY55">
+        <v>2106.044612398462</v>
+      </c>
+      <c r="FZ55">
+        <v>454.7112977355927</v>
+      </c>
+      <c r="GA55">
+        <v>386.0455011808609</v>
+      </c>
+      <c r="GB55">
         <v>2069.560239301473</v>
       </c>
-      <c r="FX55">
-        <v>2106.044612398462</v>
-      </c>
-      <c r="FY55">
-        <v>228.1105643415489</v>
-      </c>
-      <c r="FZ55">
-        <v>2415.79200558208</v>
-      </c>
-      <c r="GA55">
-        <v>858.5658500087894</v>
-      </c>
-      <c r="GB55">
-        <v>440.7715081940946</v>
-      </c>
       <c r="GC55">
-        <v>1878.166536238873</v>
+        <v>1006.787935622078</v>
       </c>
       <c r="GD55">
-        <v>1743.246987433977</v>
+        <v>1073.59210190575</v>
       </c>
       <c r="GE55">
-        <v>953.3706239468535</v>
+        <v>856.0932801194386</v>
       </c>
       <c r="GF55">
-        <v>410.8224260220781</v>
+        <v>1012.809697069478</v>
+      </c>
+      <c r="GG55">
+        <v>2159.825684392345</v>
+      </c>
+      <c r="GH55">
+        <v>2353.016117083674</v>
+      </c>
+      <c r="GI55">
+        <v>2102.767294874782</v>
+      </c>
+      <c r="GJ55">
+        <v>2076.747035578032</v>
       </c>
     </row>
-    <row r="56" spans="1:188">
+    <row r="56" spans="1:192">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -32026,46 +32686,58 @@
         <v>1712.958890746949</v>
       </c>
       <c r="FT56">
-        <v>1218.467442353749</v>
+        <v>2015.814063468659</v>
       </c>
       <c r="FU56">
-        <v>849.0218689274357</v>
+        <v>1980.441267399269</v>
       </c>
       <c r="FV56">
         <v>2304.137529427024</v>
       </c>
       <c r="FW56">
+        <v>0</v>
+      </c>
+      <c r="FX56">
+        <v>98.05901464887026</v>
+      </c>
+      <c r="FY56">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FZ56">
+        <v>1922.148686641001</v>
+      </c>
+      <c r="GA56">
+        <v>1828.555686020546</v>
+      </c>
+      <c r="GB56">
         <v>612.2011787023229</v>
       </c>
-      <c r="FX56">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FY56">
-        <v>1947.71051178082</v>
-      </c>
-      <c r="FZ56">
-        <v>2367.239097417825</v>
-      </c>
-      <c r="GA56">
-        <v>1385.569038720099</v>
-      </c>
-      <c r="GB56">
-        <v>1966.356178939537</v>
-      </c>
       <c r="GC56">
-        <v>1857.592856382699</v>
+        <v>2229.079032317666</v>
       </c>
       <c r="GD56">
-        <v>0</v>
+        <v>2285.571133856522</v>
       </c>
       <c r="GE56">
-        <v>2184.933818183642</v>
+        <v>1452.129922133154</v>
       </c>
       <c r="GF56">
-        <v>1521.801904484974</v>
+        <v>1273.557336349578</v>
+      </c>
+      <c r="GG56">
+        <v>2165.542723992149</v>
+      </c>
+      <c r="GH56">
+        <v>2420.08986910537</v>
+      </c>
+      <c r="GI56">
+        <v>1798.332658341223</v>
+      </c>
+      <c r="GJ56">
+        <v>1890.93639892742</v>
       </c>
     </row>
-    <row r="57" spans="1:188">
+    <row r="57" spans="1:192">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -32592,46 +33264,58 @@
         <v>1579.529605844037</v>
       </c>
       <c r="FT57">
-        <v>1174.974862743859</v>
+        <v>1885.157297144516</v>
       </c>
       <c r="FU57">
-        <v>714.3329203907607</v>
+        <v>1848.463159752431</v>
       </c>
       <c r="FV57">
         <v>2168.871014282338</v>
       </c>
       <c r="FW57">
+        <v>143.4959789630574</v>
+      </c>
+      <c r="FX57">
+        <v>222.4855449893136</v>
+      </c>
+      <c r="FY57">
+        <v>1367.643024033791</v>
+      </c>
+      <c r="FZ57">
+        <v>1792.987554623161</v>
+      </c>
+      <c r="GA57">
+        <v>1700.615053441593</v>
+      </c>
+      <c r="GB57">
         <v>741.9941724982177</v>
       </c>
-      <c r="FX57">
-        <v>1367.643024033791</v>
-      </c>
-      <c r="FY57">
-        <v>1831.784379386889</v>
-      </c>
-      <c r="FZ57">
-        <v>2247.01036799259</v>
-      </c>
-      <c r="GA57">
-        <v>1244.002265374939</v>
-      </c>
-      <c r="GB57">
-        <v>1838.705873627947</v>
-      </c>
       <c r="GC57">
-        <v>1728.367135958493</v>
+        <v>2089.012728423209</v>
       </c>
       <c r="GD57">
-        <v>143.4959789630574</v>
+        <v>2144.9649423981</v>
       </c>
       <c r="GE57">
-        <v>2045.365509620538</v>
+        <v>1310.457783633765</v>
       </c>
       <c r="GF57">
-        <v>1434.170334138102</v>
+        <v>1130.274929815576</v>
+      </c>
+      <c r="GG57">
+        <v>2040.039333093689</v>
+      </c>
+      <c r="GH57">
+        <v>2295.063367536375</v>
+      </c>
+      <c r="GI57">
+        <v>1682.545386914505</v>
+      </c>
+      <c r="GJ57">
+        <v>1770.276060834812</v>
       </c>
     </row>
-    <row r="58" spans="1:188">
+    <row r="58" spans="1:192">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -33158,46 +33842,58 @@
         <v>1879.462760743626</v>
       </c>
       <c r="FT58">
-        <v>1406.225268311255</v>
+        <v>2068.706222200783</v>
       </c>
       <c r="FU58">
-        <v>928.4607188114537</v>
+        <v>2037.583738710657</v>
       </c>
       <c r="FV58">
         <v>2466.81567997644</v>
       </c>
       <c r="FW58">
+        <v>194.1363056056288</v>
+      </c>
+      <c r="FX58">
+        <v>97.35947656792639</v>
+      </c>
+      <c r="FY58">
+        <v>1458.210387784508</v>
+      </c>
+      <c r="FZ58">
+        <v>2094.980912711936</v>
+      </c>
+      <c r="GA58">
+        <v>2002.942134840708</v>
+      </c>
+      <c r="GB58">
         <v>613.3949530573411</v>
       </c>
-      <c r="FX58">
-        <v>1458.210387784508</v>
-      </c>
-      <c r="FY58">
-        <v>2132.78745792187</v>
-      </c>
-      <c r="FZ58">
-        <v>2390.689742061864</v>
-      </c>
-      <c r="GA58">
-        <v>1530.408810780716</v>
-      </c>
-      <c r="GB58">
-        <v>2141.070515819373</v>
-      </c>
       <c r="GC58">
-        <v>1907.259638794943</v>
+        <v>2378.759168916865</v>
       </c>
       <c r="GD58">
-        <v>194.1363056056288</v>
+        <v>2433.07698563063</v>
       </c>
       <c r="GE58">
-        <v>2336.429842641679</v>
+        <v>1596.233550409396</v>
       </c>
       <c r="GF58">
-        <v>1715.690378637673</v>
+        <v>1405.480762645557</v>
+      </c>
+      <c r="GG58">
+        <v>2203.180826238624</v>
+      </c>
+      <c r="GH58">
+        <v>2455.276015801711</v>
+      </c>
+      <c r="GI58">
+        <v>1815.181160835804</v>
+      </c>
+      <c r="GJ58">
+        <v>1918.178406850661</v>
       </c>
     </row>
-    <row r="59" spans="1:188">
+    <row r="59" spans="1:192">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -33724,46 +34420,58 @@
         <v>1458.321487475708</v>
       </c>
       <c r="FT59">
-        <v>1062.372994576193</v>
+        <v>1845.81441228031</v>
       </c>
       <c r="FU59">
-        <v>674.9747676672591</v>
+        <v>1806.228205960925</v>
       </c>
       <c r="FV59">
         <v>2049.813197151171</v>
       </c>
       <c r="FW59">
+        <v>254.694544939913</v>
+      </c>
+      <c r="FX59">
+        <v>346.1031247849477</v>
+      </c>
+      <c r="FY59">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="FZ59">
+        <v>1667.876120548888</v>
+      </c>
+      <c r="GA59">
+        <v>1574.611212757783</v>
+      </c>
+      <c r="GB59">
         <v>800.6469760851916</v>
       </c>
-      <c r="FX59">
-        <v>1381.231187581728</v>
-      </c>
-      <c r="FY59">
-        <v>1700.555790702361</v>
-      </c>
-      <c r="FZ59">
-        <v>2226.831199363003</v>
-      </c>
-      <c r="GA59">
-        <v>1138.723307843685</v>
-      </c>
-      <c r="GB59">
-        <v>1712.524250521775</v>
-      </c>
       <c r="GC59">
-        <v>1692.732673551185</v>
+        <v>1978.460213983548</v>
       </c>
       <c r="GD59">
-        <v>254.694544939913</v>
+        <v>2035.812352869028</v>
       </c>
       <c r="GE59">
-        <v>1933.642377930124</v>
+        <v>1205.47650899798</v>
       </c>
       <c r="GF59">
-        <v>1303.355668270563</v>
+        <v>1035.8192848816</v>
+      </c>
+      <c r="GG59">
+        <v>2010.854605164001</v>
+      </c>
+      <c r="GH59">
+        <v>2266.087640034582</v>
+      </c>
+      <c r="GI59">
+        <v>1671.86851382694</v>
+      </c>
+      <c r="GJ59">
+        <v>1750.985351687097</v>
       </c>
     </row>
-    <row r="60" spans="1:188">
+    <row r="60" spans="1:192">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -34290,46 +34998,58 @@
         <v>1519.305594937145</v>
       </c>
       <c r="FT60">
-        <v>1268.813089008749</v>
+        <v>1723.308143315403</v>
       </c>
       <c r="FU60">
-        <v>558.6607201629156</v>
+        <v>1688.08991884421</v>
       </c>
       <c r="FV60">
         <v>2099.596057966915</v>
       </c>
       <c r="FW60">
+        <v>292.5196854541394</v>
+      </c>
+      <c r="FX60">
+        <v>337.7143857684325</v>
+      </c>
+      <c r="FY60">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="FZ60">
+        <v>1744.091564149758</v>
+      </c>
+      <c r="GA60">
+        <v>1655.619852083581</v>
+      </c>
+      <c r="GB60">
         <v>904.2643322405752</v>
       </c>
-      <c r="FX60">
-        <v>1196.240769113751</v>
-      </c>
-      <c r="FY60">
-        <v>1814.117379681718</v>
-      </c>
-      <c r="FZ60">
-        <v>2078.003067948911</v>
-      </c>
-      <c r="GA60">
-        <v>1151.272157527125</v>
-      </c>
-      <c r="GB60">
-        <v>1793.627309153909</v>
-      </c>
       <c r="GC60">
-        <v>1565.099913258613</v>
+        <v>2000.57928602719</v>
       </c>
       <c r="GD60">
-        <v>292.5196854541394</v>
+        <v>2053.579047996374</v>
       </c>
       <c r="GE60">
-        <v>1959.483814068845</v>
+        <v>1216.485348140689</v>
       </c>
       <c r="GF60">
-        <v>1469.710034203682</v>
+        <v>1021.657213076435</v>
+      </c>
+      <c r="GG60">
+        <v>1873.841851212319</v>
+      </c>
+      <c r="GH60">
+        <v>2128.581106670868</v>
+      </c>
+      <c r="GI60">
+        <v>1511.936170952169</v>
+      </c>
+      <c r="GJ60">
+        <v>1601.369819397873</v>
       </c>
     </row>
-    <row r="61" spans="1:188">
+    <row r="61" spans="1:192">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -34856,46 +35576,58 @@
         <v>1801.583669203883</v>
       </c>
       <c r="FT61">
-        <v>1309.666653667009</v>
+        <v>2050.972094951585</v>
       </c>
       <c r="FU61">
-        <v>894.6578043382506</v>
+        <v>2017.65380181623</v>
       </c>
       <c r="FV61">
         <v>2391.295791045003</v>
       </c>
       <c r="FW61">
+        <v>98.05901464887026</v>
+      </c>
+      <c r="FX61">
+        <v>0</v>
+      </c>
+      <c r="FY61">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FZ61">
+        <v>2013.500202823117</v>
+      </c>
+      <c r="GA61">
+        <v>1920.521242129814</v>
+      </c>
+      <c r="GB61">
         <v>593.8897389818142</v>
       </c>
-      <c r="FX61">
-        <v>1471.132315428259</v>
-      </c>
-      <c r="FY61">
-        <v>2043.771658392359</v>
-      </c>
-      <c r="FZ61">
-        <v>2388.147477045949</v>
-      </c>
-      <c r="GA61">
-        <v>1464.272447824977</v>
-      </c>
-      <c r="GB61">
-        <v>2058.48544681988</v>
-      </c>
       <c r="GC61">
-        <v>1890.979430310116</v>
+        <v>2310.488937132395</v>
       </c>
       <c r="GD61">
-        <v>98.05901464887026</v>
+        <v>2366.023441643853</v>
       </c>
       <c r="GE61">
-        <v>2267.141399197434</v>
+        <v>1530.555563972293</v>
       </c>
       <c r="GF61">
-        <v>1619.692114480247</v>
+        <v>1346.072444348868</v>
+      </c>
+      <c r="GG61">
+        <v>2193.316231382819</v>
+      </c>
+      <c r="GH61">
+        <v>2446.866642200703</v>
+      </c>
+      <c r="GI61">
+        <v>1815.330087647173</v>
+      </c>
+      <c r="GJ61">
+        <v>1913.244444017787</v>
       </c>
     </row>
-    <row r="62" spans="1:188">
+    <row r="62" spans="1:192">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -35422,46 +36154,58 @@
         <v>1724.192530942505</v>
       </c>
       <c r="FT62">
-        <v>956.7917471854025</v>
+        <v>2264.790621192808</v>
       </c>
       <c r="FU62">
-        <v>1096.169081390228</v>
+        <v>2224.13884244292</v>
       </c>
       <c r="FV62">
         <v>2316.897532167678</v>
       </c>
       <c r="FW62">
+        <v>360.9731297400503</v>
+      </c>
+      <c r="FX62">
+        <v>419.0673900236047</v>
+      </c>
+      <c r="FY62">
+        <v>1789.713125354962</v>
+      </c>
+      <c r="FZ62">
+        <v>1902.939423806666</v>
+      </c>
+      <c r="GA62">
+        <v>1804.746579015624</v>
+      </c>
+      <c r="GB62">
         <v>442.5183713362562</v>
       </c>
-      <c r="FX62">
-        <v>1789.713125354962</v>
-      </c>
-      <c r="FY62">
-        <v>1865.406391911059</v>
-      </c>
-      <c r="FZ62">
-        <v>2648.644410534672</v>
-      </c>
-      <c r="GA62">
-        <v>1476.87460710462</v>
-      </c>
-      <c r="GB62">
-        <v>1938.010722329472</v>
-      </c>
       <c r="GC62">
-        <v>2112.998715443366</v>
+        <v>2284.625907600956</v>
       </c>
       <c r="GD62">
-        <v>360.9731297400503</v>
+        <v>2346.499794001822</v>
       </c>
       <c r="GE62">
-        <v>2235.844710275173</v>
+        <v>1542.856523805582</v>
       </c>
       <c r="GF62">
-        <v>1354.898587323019</v>
+        <v>1402.408128399315</v>
+      </c>
+      <c r="GG62">
+        <v>2432.228892842852</v>
+      </c>
+      <c r="GH62">
+        <v>2687.415126883949</v>
+      </c>
+      <c r="GI62">
+        <v>2092.150318056944</v>
+      </c>
+      <c r="GJ62">
+        <v>2172.691427418594</v>
       </c>
     </row>
-    <row r="63" spans="1:188">
+    <row r="63" spans="1:192">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -35988,46 +36732,58 @@
         <v>1182.604231994676</v>
       </c>
       <c r="FT63">
-        <v>1454.961215984152</v>
+        <v>1172.650846280296</v>
       </c>
       <c r="FU63">
-        <v>0</v>
+        <v>1134.765445180305</v>
       </c>
       <c r="FV63">
         <v>1708.449175647813</v>
       </c>
       <c r="FW63">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="FX63">
+        <v>894.6578043382506</v>
+      </c>
+      <c r="FY63">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FZ63">
+        <v>1428.546148186869</v>
+      </c>
+      <c r="GA63">
+        <v>1357.63488616813</v>
+      </c>
+      <c r="GB63">
         <v>1456.300827132447</v>
       </c>
-      <c r="FX63">
-        <v>785.968908805777</v>
-      </c>
-      <c r="FY63">
-        <v>1592.844294549488</v>
-      </c>
-      <c r="FZ63">
-        <v>1555.370820870623</v>
-      </c>
-      <c r="GA63">
-        <v>742.1300272160526</v>
-      </c>
-      <c r="GB63">
-        <v>1487.212085563108</v>
-      </c>
       <c r="GC63">
-        <v>1018.131974997718</v>
+        <v>1559.164906045376</v>
       </c>
       <c r="GD63">
-        <v>849.0218689274357</v>
+        <v>1603.056487871657</v>
       </c>
       <c r="GE63">
-        <v>1526.083523222766</v>
+        <v>796.7556962495172</v>
       </c>
       <c r="GF63">
-        <v>1447.372454793094</v>
+        <v>573.6370536670489</v>
+      </c>
+      <c r="GG63">
+        <v>1336.060138294878</v>
+      </c>
+      <c r="GH63">
+        <v>1591.249574041257</v>
+      </c>
+      <c r="GI63">
+        <v>1012.615310433973</v>
+      </c>
+      <c r="GJ63">
+        <v>1081.488532034626</v>
       </c>
     </row>
-    <row r="64" spans="1:188">
+    <row r="64" spans="1:192">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -36554,46 +37310,58 @@
         <v>1032.198007813574</v>
       </c>
       <c r="FT64">
-        <v>1152.808813437833</v>
+        <v>1381.768140857588</v>
       </c>
       <c r="FU64">
-        <v>302.8748624694482</v>
+        <v>1336.954844386958</v>
       </c>
       <c r="FV64">
         <v>1603.175640372244</v>
       </c>
       <c r="FW64">
+        <v>746.9099455086618</v>
+      </c>
+      <c r="FX64">
+        <v>819.7056588708048</v>
+      </c>
+      <c r="FY64">
+        <v>1086.680734677368</v>
+      </c>
+      <c r="FZ64">
+        <v>1266.249985697332</v>
+      </c>
+      <c r="GA64">
+        <v>1183.331732558029</v>
+      </c>
+      <c r="GB64">
         <v>1312.770493539037</v>
       </c>
-      <c r="FX64">
-        <v>1086.680734677368</v>
-      </c>
-      <c r="FY64">
-        <v>1379.082979396924</v>
-      </c>
-      <c r="FZ64">
-        <v>1800.281730152573</v>
-      </c>
-      <c r="GA64">
-        <v>649.6839626712886</v>
-      </c>
-      <c r="GB64">
-        <v>1319.608174212826</v>
-      </c>
       <c r="GC64">
-        <v>1239.214365246256</v>
+        <v>1498.979896829636</v>
       </c>
       <c r="GD64">
-        <v>746.9099455086618</v>
+        <v>1552.145816104693</v>
       </c>
       <c r="GE64">
-        <v>1457.987891725407</v>
+        <v>715.013040296953</v>
       </c>
       <c r="GF64">
-        <v>1162.992986188108</v>
+        <v>526.8035530107375</v>
+      </c>
+      <c r="GG64">
+        <v>1566.281834299761</v>
+      </c>
+      <c r="GH64">
+        <v>1818.630683240372</v>
+      </c>
+      <c r="GI64">
+        <v>1283.40162284337</v>
+      </c>
+      <c r="GJ64">
+        <v>1336.127304193739</v>
       </c>
     </row>
-    <row r="65" spans="1:188">
+    <row r="65" spans="1:192">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -37120,46 +37888,58 @@
         <v>1225.122161815765</v>
       </c>
       <c r="FT65">
-        <v>1664.225575478051</v>
+        <v>957.6118557705341</v>
       </c>
       <c r="FU65">
-        <v>232.6038714904711</v>
+        <v>923.6822375405293</v>
       </c>
       <c r="FV65">
         <v>1699.303973312193</v>
       </c>
       <c r="FW65">
+        <v>1058.528985589027</v>
+      </c>
+      <c r="FX65">
+        <v>1093.971582277503</v>
+      </c>
+      <c r="FY65">
+        <v>579.638425840815</v>
+      </c>
+      <c r="FZ65">
+        <v>1472.53368349374</v>
+      </c>
+      <c r="GA65">
+        <v>1413.623334365539</v>
+      </c>
+      <c r="GB65">
         <v>1670.037460352651</v>
       </c>
-      <c r="FX65">
-        <v>579.638425840815</v>
-      </c>
-      <c r="FY65">
-        <v>1677.71221367733</v>
-      </c>
-      <c r="FZ65">
-        <v>1325.334161500135</v>
-      </c>
-      <c r="GA65">
-        <v>770.0085988518408</v>
-      </c>
-      <c r="GB65">
-        <v>1534.091619523791</v>
-      </c>
       <c r="GC65">
-        <v>799.0861652196731</v>
+        <v>1518.274598686564</v>
       </c>
       <c r="GD65">
-        <v>1058.528985589027</v>
+        <v>1553.980570516246</v>
       </c>
       <c r="GE65">
-        <v>1492.150641507411</v>
+        <v>810.9269048015179</v>
       </c>
       <c r="GF65">
-        <v>1608.767796622782</v>
+        <v>592.1823413817858</v>
+      </c>
+      <c r="GG65">
+        <v>1110.915471270411</v>
+      </c>
+      <c r="GH65">
+        <v>1366.137934244671</v>
+      </c>
+      <c r="GI65">
+        <v>780.0686785333509</v>
+      </c>
+      <c r="GJ65">
+        <v>850.2764982471041</v>
       </c>
     </row>
-    <row r="66" spans="1:188">
+    <row r="66" spans="1:192">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -37686,46 +38466,58 @@
         <v>1205.121608579108</v>
       </c>
       <c r="FT66">
-        <v>1488.464409476226</v>
+        <v>1154.163751734449</v>
       </c>
       <c r="FU66">
-        <v>33.84503696752498</v>
+        <v>1117.356824361293</v>
       </c>
       <c r="FV66">
         <v>1725.572323643961</v>
       </c>
       <c r="FW66">
+        <v>863.8510562006435</v>
+      </c>
+      <c r="FX66">
+        <v>906.3826426892759</v>
+      </c>
+      <c r="FY66">
+        <v>753.0000765960648</v>
+      </c>
+      <c r="FZ66">
+        <v>1451.589080563005</v>
+      </c>
+      <c r="GA66">
+        <v>1381.884950414616</v>
+      </c>
+      <c r="GB66">
         <v>1472.984549208486</v>
       </c>
-      <c r="FX66">
-        <v>753.0000765960648</v>
-      </c>
-      <c r="FY66">
-        <v>1620.215667625813</v>
-      </c>
-      <c r="FZ66">
-        <v>1531.17349697149</v>
-      </c>
-      <c r="GA66">
-        <v>761.6112661088823</v>
-      </c>
-      <c r="GB66">
-        <v>1510.637973388774</v>
-      </c>
       <c r="GC66">
-        <v>998.3161386727373</v>
+        <v>1571.993315836649</v>
       </c>
       <c r="GD66">
-        <v>863.8510562006435</v>
+        <v>1614.826870860605</v>
       </c>
       <c r="GE66">
-        <v>1539.799026825227</v>
+        <v>814.810732028916</v>
       </c>
       <c r="GF66">
-        <v>1480.339600527344</v>
+        <v>590.8234964987056</v>
+      </c>
+      <c r="GG66">
+        <v>1314.241282106455</v>
+      </c>
+      <c r="GH66">
+        <v>1569.50308629633</v>
+      </c>
+      <c r="GI66">
+        <v>985.0642453764279</v>
+      </c>
+      <c r="GJ66">
+        <v>1056.426762033183</v>
       </c>
     </row>
-    <row r="67" spans="1:188">
+    <row r="67" spans="1:192">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -38252,46 +39044,58 @@
         <v>1056.806093947772</v>
       </c>
       <c r="FT67">
-        <v>1270.738839531788</v>
+        <v>1277.064934699816</v>
       </c>
       <c r="FU67">
-        <v>189.2344112232919</v>
+        <v>1233.883961317546</v>
       </c>
       <c r="FV67">
         <v>1610.302609668838</v>
       </c>
       <c r="FW67">
+        <v>801.3504864338805</v>
+      </c>
+      <c r="FX67">
+        <v>864.6670843717463</v>
+      </c>
+      <c r="FY67">
+        <v>968.6136688862637</v>
+      </c>
+      <c r="FZ67">
+        <v>1297.820729016016</v>
+      </c>
+      <c r="GA67">
+        <v>1220.276290334687</v>
+      </c>
+      <c r="GB67">
         <v>1387.394876575396</v>
       </c>
-      <c r="FX67">
-        <v>968.6136688862637</v>
-      </c>
-      <c r="FY67">
-        <v>1436.442388385263</v>
-      </c>
-      <c r="FZ67">
-        <v>1687.827754178614</v>
-      </c>
-      <c r="GA67">
-        <v>642.6366431223045</v>
-      </c>
-      <c r="GB67">
-        <v>1353.932247849718</v>
-      </c>
       <c r="GC67">
-        <v>1131.178573497587</v>
+        <v>1486.627537326069</v>
       </c>
       <c r="GD67">
-        <v>801.3504864338805</v>
+        <v>1536.237489983268</v>
       </c>
       <c r="GE67">
-        <v>1448.715819828684</v>
+        <v>704.5183420213989</v>
       </c>
       <c r="GF67">
-        <v>1260.897726577338</v>
+        <v>496.092848240093</v>
+      </c>
+      <c r="GG67">
+        <v>1456.845385624637</v>
+      </c>
+      <c r="GH67">
+        <v>1710.236492520642</v>
+      </c>
+      <c r="GI67">
+        <v>1165.705846379305</v>
+      </c>
+      <c r="GJ67">
+        <v>1221.159922026921</v>
       </c>
     </row>
-    <row r="68" spans="1:188">
+    <row r="68" spans="1:192">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -38818,46 +39622,58 @@
         <v>1004.831728154517</v>
       </c>
       <c r="FT68">
-        <v>1388.95638950359</v>
+        <v>1114.488742082217</v>
       </c>
       <c r="FU68">
-        <v>179.8266870929529</v>
+        <v>1070.64142983219</v>
       </c>
       <c r="FV68">
         <v>1528.937183021177</v>
       </c>
       <c r="FW68">
+        <v>956.3724738276285</v>
+      </c>
+      <c r="FX68">
+        <v>1014.505328605109</v>
+      </c>
+      <c r="FY68">
+        <v>865.0336529388038</v>
+      </c>
+      <c r="FZ68">
+        <v>1251.421994541044</v>
+      </c>
+      <c r="GA68">
+        <v>1182.449025914741</v>
+      </c>
+      <c r="GB68">
         <v>1548.706317579863</v>
       </c>
-      <c r="FX68">
-        <v>865.0336529388038</v>
-      </c>
-      <c r="FY68">
-        <v>1425.801597711021</v>
-      </c>
-      <c r="FZ68">
-        <v>1531.854605450893</v>
-      </c>
-      <c r="GA68">
-        <v>562.3372593958078</v>
-      </c>
-      <c r="GB68">
-        <v>1310.627258356753</v>
-      </c>
       <c r="GC68">
-        <v>970.5874335205049</v>
+        <v>1383.351087543669</v>
       </c>
       <c r="GD68">
-        <v>956.3724738276285</v>
+        <v>1428.673476556005</v>
       </c>
       <c r="GE68">
-        <v>1349.218847475684</v>
+        <v>617.0560710513222</v>
       </c>
       <c r="GF68">
-        <v>1323.112769129727</v>
+        <v>394.4606541343907</v>
+      </c>
+      <c r="GG68">
+        <v>1297.463031773997</v>
+      </c>
+      <c r="GH68">
+        <v>1549.985258552111</v>
+      </c>
+      <c r="GI68">
+        <v>1022.769193752096</v>
+      </c>
+      <c r="GJ68">
+        <v>1069.765722005992</v>
       </c>
     </row>
-    <row r="69" spans="1:188">
+    <row r="69" spans="1:192">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -39384,46 +40200,58 @@
         <v>1233.528694333948</v>
       </c>
       <c r="FT69">
-        <v>1402.81190903839</v>
+        <v>1277.902894096814</v>
       </c>
       <c r="FU69">
-        <v>107.0697737575445</v>
+        <v>1240.649043303421</v>
       </c>
       <c r="FV69">
         <v>1775.424577226897</v>
       </c>
       <c r="FW69">
+        <v>742.0425671156638</v>
+      </c>
+      <c r="FX69">
+        <v>787.8156450718219</v>
+      </c>
+      <c r="FY69">
+        <v>852.6759613393226</v>
+      </c>
+      <c r="FZ69">
+        <v>1476.699154160221</v>
+      </c>
+      <c r="GA69">
+        <v>1401.210918836641</v>
+      </c>
+      <c r="GB69">
         <v>1349.905749892677</v>
       </c>
-      <c r="FX69">
-        <v>852.6759613393226</v>
-      </c>
-      <c r="FY69">
-        <v>1621.405530564566</v>
-      </c>
-      <c r="FZ69">
-        <v>1654.240744621133</v>
-      </c>
-      <c r="GA69">
-        <v>805.6935487948261</v>
-      </c>
-      <c r="GB69">
-        <v>1533.728184429853</v>
-      </c>
       <c r="GC69">
-        <v>1122.380803958357</v>
+        <v>1637.301690784213</v>
       </c>
       <c r="GD69">
-        <v>742.0425671156638</v>
+        <v>1683.495081347008</v>
       </c>
       <c r="GE69">
-        <v>1602.199154307693</v>
+        <v>864.0736952586039</v>
       </c>
       <c r="GF69">
-        <v>1433.534981433488</v>
+        <v>645.3149615414189</v>
+      </c>
+      <c r="GG69">
+        <v>1438.304268400599</v>
+      </c>
+      <c r="GH69">
+        <v>1693.570282876982</v>
+      </c>
+      <c r="GI69">
+        <v>1104.608721632181</v>
+      </c>
+      <c r="GJ69">
+        <v>1178.942817249504</v>
       </c>
     </row>
-    <row r="70" spans="1:188">
+    <row r="70" spans="1:192">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -39950,46 +40778,58 @@
         <v>981.9833781749766</v>
       </c>
       <c r="FT70">
-        <v>1232.223986342361</v>
+        <v>1270.51304963491</v>
       </c>
       <c r="FU70">
-        <v>249.4380072966607</v>
+        <v>1225.175414733926</v>
       </c>
       <c r="FV70">
         <v>1538.435889182408</v>
       </c>
       <c r="FW70">
+        <v>847.6816562721161</v>
+      </c>
+      <c r="FX70">
+        <v>915.9057816706</v>
+      </c>
+      <c r="FY70">
+        <v>1011.405534579599</v>
+      </c>
+      <c r="FZ70">
+        <v>1222.513915292828</v>
+      </c>
+      <c r="GA70">
+        <v>1144.688692761835</v>
+      </c>
+      <c r="GB70">
         <v>1422.208408237486</v>
       </c>
-      <c r="FX70">
-        <v>1011.405534579599</v>
-      </c>
-      <c r="FY70">
-        <v>1361.439387908185</v>
-      </c>
-      <c r="FZ70">
-        <v>1693.472690553678</v>
-      </c>
-      <c r="GA70">
-        <v>572.8699181703921</v>
-      </c>
-      <c r="GB70">
-        <v>1278.476133202621</v>
-      </c>
       <c r="GC70">
-        <v>1129.568180991047</v>
+        <v>1419.63079478014</v>
       </c>
       <c r="GD70">
-        <v>847.6816562721161</v>
+        <v>1470.390713380948</v>
       </c>
       <c r="GE70">
-        <v>1380.780827032846</v>
+        <v>635.8870883038577</v>
       </c>
       <c r="GF70">
-        <v>1198.340917086457</v>
+        <v>433.5282510262262</v>
+      </c>
+      <c r="GG70">
+        <v>1457.258213977231</v>
+      </c>
+      <c r="GH70">
+        <v>1708.877044540299</v>
+      </c>
+      <c r="GI70">
+        <v>1185.103648887182</v>
+      </c>
+      <c r="GJ70">
+        <v>1232.528782669708</v>
       </c>
     </row>
-    <row r="71" spans="1:188">
+    <row r="71" spans="1:192">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -40516,46 +41356,58 @@
         <v>1329.704811022829</v>
       </c>
       <c r="FT71">
-        <v>2171.121949023391</v>
+        <v>307.7879321453299</v>
       </c>
       <c r="FU71">
-        <v>873.579957474921</v>
+        <v>282.7243549562519</v>
       </c>
       <c r="FV71">
         <v>1598.563169443345</v>
       </c>
       <c r="FW71">
+        <v>1711.601523545493</v>
+      </c>
+      <c r="FX71">
+        <v>1744.832475085812</v>
+      </c>
+      <c r="FY71">
+        <v>564.0475214545233</v>
+      </c>
+      <c r="FZ71">
+        <v>1544.312846685824</v>
+      </c>
+      <c r="GA71">
+        <v>1524.846877743714</v>
+      </c>
+      <c r="GB71">
         <v>2323.199939147177</v>
       </c>
-      <c r="FX71">
-        <v>564.0475214545233</v>
-      </c>
-      <c r="FY71">
-        <v>1837.105501767512</v>
-      </c>
-      <c r="FZ71">
-        <v>701.6493097757242</v>
-      </c>
-      <c r="GA71">
-        <v>955.6531922966975</v>
-      </c>
-      <c r="GB71">
-        <v>1606.190689103894</v>
-      </c>
       <c r="GC71">
-        <v>146.1486715652675</v>
+        <v>1347.789233315065</v>
       </c>
       <c r="GD71">
-        <v>1711.601523545493</v>
+        <v>1355.219575110776</v>
       </c>
       <c r="GE71">
-        <v>1345.201782396599</v>
+        <v>949.857325950609</v>
       </c>
       <c r="GF71">
-        <v>1978.496700469187</v>
+        <v>836.9580867949194</v>
+      </c>
+      <c r="GG71">
+        <v>465.4318253087293</v>
+      </c>
+      <c r="GH71">
+        <v>719.5509599075446</v>
+      </c>
+      <c r="GI71">
+        <v>312.7520549515853</v>
+      </c>
+      <c r="GJ71">
+        <v>273.1425589097474</v>
       </c>
     </row>
-    <row r="72" spans="1:188">
+    <row r="72" spans="1:192">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -41082,46 +41934,58 @@
         <v>1753.177461365114</v>
       </c>
       <c r="FT72">
-        <v>2521.774448257541</v>
+        <v>482.8881440396517</v>
       </c>
       <c r="FU72">
-        <v>1121.149891729814</v>
+        <v>513.0969448920848</v>
       </c>
       <c r="FV72">
         <v>2008.490445839093</v>
       </c>
       <c r="FW72">
+        <v>1890.566338866817</v>
+      </c>
+      <c r="FX72">
+        <v>1903.307612499969</v>
+      </c>
+      <c r="FY72">
+        <v>459.1223610704129</v>
+      </c>
+      <c r="FZ72">
+        <v>1968.590972036073</v>
+      </c>
+      <c r="GA72">
+        <v>1948.75604591765</v>
+      </c>
+      <c r="GB72">
         <v>2496.662306113575</v>
       </c>
-      <c r="FX72">
-        <v>459.1223610704129</v>
-      </c>
-      <c r="FY72">
-        <v>2260.168513170813</v>
-      </c>
-      <c r="FZ72">
-        <v>513.3066621313901</v>
-      </c>
-      <c r="GA72">
-        <v>1366.532293359762</v>
-      </c>
-      <c r="GB72">
-        <v>2030.419811251658</v>
-      </c>
       <c r="GC72">
-        <v>409.2094277671001</v>
+        <v>1749.66468820382</v>
       </c>
       <c r="GD72">
-        <v>1890.566338866817</v>
+        <v>1750.62892024853</v>
       </c>
       <c r="GE72">
-        <v>1751.687605798541</v>
+        <v>1366.225264096555</v>
       </c>
       <c r="GF72">
-        <v>2374.138874090274</v>
+        <v>1232.787503708407</v>
+      </c>
+      <c r="GG72">
+        <v>425.8618106840532</v>
+      </c>
+      <c r="GH72">
+        <v>621.7828983799318</v>
+      </c>
+      <c r="GI72">
+        <v>121.3816813803645</v>
+      </c>
+      <c r="GJ72">
+        <v>188.4274652903957</v>
       </c>
     </row>
-    <row r="73" spans="1:188">
+    <row r="73" spans="1:192">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -41648,46 +42512,58 @@
         <v>1646.110380745351</v>
       </c>
       <c r="FT73">
-        <v>2592.885919350477</v>
+        <v>214.1628649654321</v>
       </c>
       <c r="FU73">
-        <v>1305.126252294265</v>
+        <v>270.6369937427432</v>
       </c>
       <c r="FV73">
         <v>1791.014086632373</v>
       </c>
       <c r="FW73">
+        <v>2132.498827978574</v>
+      </c>
+      <c r="FX73">
+        <v>2159.549203403284</v>
+      </c>
+      <c r="FY73">
+        <v>808.2252201700509</v>
+      </c>
+      <c r="FZ73">
+        <v>1831.787337201443</v>
+      </c>
+      <c r="GA73">
+        <v>1831.194009472049</v>
+      </c>
+      <c r="GB73">
         <v>2744.677394159593</v>
       </c>
-      <c r="FX73">
-        <v>808.2252201700509</v>
-      </c>
-      <c r="FY73">
-        <v>2149.109981067109</v>
-      </c>
-      <c r="FZ73">
-        <v>273.8377376902392</v>
-      </c>
-      <c r="GA73">
-        <v>1332.329436063281</v>
-      </c>
-      <c r="GB73">
-        <v>1890.092789428946</v>
-      </c>
       <c r="GC73">
-        <v>304.0374006734781</v>
+        <v>1518.516180810221</v>
       </c>
       <c r="GD73">
-        <v>2132.498827978574</v>
+        <v>1506.445029430125</v>
       </c>
       <c r="GE73">
-        <v>1531.146192972155</v>
+        <v>1312.956578012471</v>
       </c>
       <c r="GF73">
-        <v>2365.092307862843</v>
+        <v>1239.721493338215</v>
+      </c>
+      <c r="GG73">
+        <v>37.31431410034923</v>
+      </c>
+      <c r="GH73">
+        <v>287.5918869439546</v>
+      </c>
+      <c r="GI73">
+        <v>397.5457104937072</v>
+      </c>
+      <c r="GJ73">
+        <v>264.0629743414219</v>
       </c>
     </row>
-    <row r="74" spans="1:188">
+    <row r="74" spans="1:192">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -42214,46 +43090,58 @@
         <v>1480.304325499007</v>
       </c>
       <c r="FT74">
-        <v>2257.173449125231</v>
+        <v>386.1386355173105</v>
       </c>
       <c r="FU74">
-        <v>893.2118810424475</v>
+        <v>384.3225728969718</v>
       </c>
       <c r="FV74">
         <v>1765.513056301651</v>
       </c>
       <c r="FW74">
+        <v>1704.810127305452</v>
+      </c>
+      <c r="FX74">
+        <v>1728.912621573726</v>
+      </c>
+      <c r="FY74">
+        <v>425.5276968863239</v>
+      </c>
+      <c r="FZ74">
+        <v>1700.323160440671</v>
+      </c>
+      <c r="GA74">
+        <v>1676.81278607193</v>
+      </c>
+      <c r="GB74">
         <v>2316.521334110994</v>
       </c>
-      <c r="FX74">
-        <v>425.5276968863239</v>
-      </c>
-      <c r="FY74">
-        <v>1986.220209848038</v>
-      </c>
-      <c r="FZ74">
-        <v>664.4656160577582</v>
-      </c>
-      <c r="GA74">
-        <v>1087.875346971875</v>
-      </c>
-      <c r="GB74">
-        <v>1762.629584225142</v>
-      </c>
       <c r="GC74">
-        <v>237.4058624015208</v>
+        <v>1515.73716180079</v>
       </c>
       <c r="GD74">
-        <v>1704.810127305452</v>
+        <v>1523.288295954956</v>
       </c>
       <c r="GE74">
-        <v>1512.774922140095</v>
+        <v>1088.59322403016</v>
       </c>
       <c r="GF74">
-        <v>2096.55162701937</v>
+        <v>954.4533896862571</v>
+      </c>
+      <c r="GG74">
+        <v>468.759749368084</v>
+      </c>
+      <c r="GH74">
+        <v>719.1293559899948</v>
+      </c>
+      <c r="GI74">
+        <v>158.5407836898937</v>
+      </c>
+      <c r="GJ74">
+        <v>188.3934141104386</v>
       </c>
     </row>
-    <row r="75" spans="1:188">
+    <row r="75" spans="1:192">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -42780,46 +43668,58 @@
         <v>1595.230604037031</v>
       </c>
       <c r="FT75">
-        <v>2431.981251108199</v>
+        <v>299.8902878035115</v>
       </c>
       <c r="FU75">
-        <v>1081.488532034626</v>
+        <v>325.9135388590792</v>
       </c>
       <c r="FV75">
         <v>1827.021981140202</v>
       </c>
       <c r="FW75">
+        <v>1890.93639892742</v>
+      </c>
+      <c r="FX75">
+        <v>1913.244444017787</v>
+      </c>
+      <c r="FY75">
+        <v>546.0283918483485</v>
+      </c>
+      <c r="FZ75">
+        <v>1803.639278015092</v>
+      </c>
+      <c r="GA75">
+        <v>1788.771287495631</v>
+      </c>
+      <c r="GB75">
         <v>2502.223615724191</v>
       </c>
-      <c r="FX75">
-        <v>546.0283918483485</v>
-      </c>
-      <c r="FY75">
-        <v>2103.030196370858</v>
-      </c>
-      <c r="FZ75">
-        <v>476.7399328676094</v>
-      </c>
-      <c r="GA75">
-        <v>1228.705510457825</v>
-      </c>
-      <c r="GB75">
-        <v>1864.79367793904</v>
-      </c>
       <c r="GC75">
-        <v>224.2374854021976</v>
+        <v>1565.730070129918</v>
       </c>
       <c r="GD75">
-        <v>1890.93639892742</v>
+        <v>1565.155898707714</v>
       </c>
       <c r="GE75">
-        <v>1569.207324416219</v>
+        <v>1221.960630293429</v>
       </c>
       <c r="GF75">
-        <v>2250.968703903236</v>
+        <v>1108.640233902342</v>
+      </c>
+      <c r="GG75">
+        <v>301.2231997272007</v>
+      </c>
+      <c r="GH75">
+        <v>541.0783288168114</v>
+      </c>
+      <c r="GI75">
+        <v>139.9368381543991</v>
+      </c>
+      <c r="GJ75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:188">
+    <row r="76" spans="1:192">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -43346,46 +44246,58 @@
         <v>1483.258354295864</v>
       </c>
       <c r="FT76">
-        <v>2295.2138595336</v>
+        <v>321.8858831337699</v>
       </c>
       <c r="FU76">
-        <v>948.6759183891151</v>
+        <v>324.1557342892302</v>
       </c>
       <c r="FV76">
         <v>1746.609525649385</v>
       </c>
       <c r="FW76">
+        <v>1766.468128509116</v>
+      </c>
+      <c r="FX76">
+        <v>1791.949705895003</v>
+      </c>
+      <c r="FY76">
+        <v>487.011547218689</v>
+      </c>
+      <c r="FZ76">
+        <v>1698.246425209766</v>
+      </c>
+      <c r="GA76">
+        <v>1678.599542237891</v>
+      </c>
+      <c r="GB76">
         <v>2378.450378414138</v>
       </c>
-      <c r="FX76">
-        <v>487.011547218689</v>
-      </c>
-      <c r="FY76">
-        <v>1990.498302305505</v>
-      </c>
-      <c r="FZ76">
-        <v>606.7308341206729</v>
-      </c>
-      <c r="GA76">
-        <v>1103.433129294198</v>
-      </c>
-      <c r="GB76">
-        <v>1760.107068229698</v>
-      </c>
       <c r="GC76">
-        <v>181.2894030044008</v>
+        <v>1492.301977372202</v>
       </c>
       <c r="GD76">
-        <v>1766.468128509116</v>
+        <v>1497.012199202651</v>
       </c>
       <c r="GE76">
-        <v>1491.659691234148</v>
+        <v>1100.127785477576</v>
       </c>
       <c r="GF76">
-        <v>2120.593147051139</v>
+        <v>977.6440958475506</v>
+      </c>
+      <c r="GG76">
+        <v>403.1816248236352</v>
+      </c>
+      <c r="GH76">
+        <v>655.0590286600707</v>
+      </c>
+      <c r="GI76">
+        <v>161.2907276789513</v>
+      </c>
+      <c r="GJ76">
+        <v>137.3981072880761</v>
       </c>
     </row>
-    <row r="77" spans="1:188">
+    <row r="77" spans="1:192">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -43912,46 +44824,58 @@
         <v>1386.563828253004</v>
       </c>
       <c r="FT77">
-        <v>2289.807931209242</v>
+        <v>163.541453167294</v>
       </c>
       <c r="FU77">
-        <v>1018.131974997718</v>
+        <v>148.7513857171557</v>
       </c>
       <c r="FV77">
         <v>1602.872144433732</v>
       </c>
       <c r="FW77">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="FX77">
+        <v>1890.979430310116</v>
+      </c>
+      <c r="FY77">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="FZ77">
+        <v>1588.59897833568</v>
+      </c>
+      <c r="GA77">
+        <v>1577.804693301043</v>
+      </c>
+      <c r="GB77">
         <v>2469.084695111085</v>
       </c>
-      <c r="FX77">
-        <v>662.7394045387417</v>
-      </c>
-      <c r="FY77">
-        <v>1893.852326734406</v>
-      </c>
-      <c r="FZ77">
-        <v>575.9546717543826</v>
-      </c>
-      <c r="GA77">
-        <v>1042.939864350439</v>
-      </c>
-      <c r="GB77">
-        <v>1649.142707861918</v>
-      </c>
       <c r="GC77">
-        <v>0</v>
+        <v>1341.59871060092</v>
       </c>
       <c r="GD77">
-        <v>1857.592856382699</v>
+        <v>1341.603027051589</v>
       </c>
       <c r="GE77">
-        <v>1344.975323227697</v>
+        <v>1029.160186995852</v>
       </c>
       <c r="GF77">
-        <v>2073.938014463946</v>
+        <v>940.5815185919871</v>
+      </c>
+      <c r="GG77">
+        <v>328.6167491499622</v>
+      </c>
+      <c r="GH77">
+        <v>579.4163274486818</v>
+      </c>
+      <c r="GI77">
+        <v>325.4031523102259</v>
+      </c>
+      <c r="GJ77">
+        <v>224.2374854021976</v>
       </c>
     </row>
-    <row r="78" spans="1:188">
+    <row r="78" spans="1:192">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -44478,46 +45402,58 @@
         <v>1637.217121241835</v>
       </c>
       <c r="FT78">
-        <v>2403.050632691989</v>
+        <v>432.5011104279552</v>
       </c>
       <c r="FU78">
-        <v>1012.615310433973</v>
+        <v>450.913775465109</v>
       </c>
       <c r="FV78">
         <v>1907.885477686847</v>
       </c>
       <c r="FW78">
+        <v>1798.332658341223</v>
+      </c>
+      <c r="FX78">
+        <v>1815.330087647173</v>
+      </c>
+      <c r="FY78">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="FZ78">
+        <v>1855.279279024875</v>
+      </c>
+      <c r="GA78">
+        <v>1833.371185171114</v>
+      </c>
+      <c r="GB78">
         <v>2407.259504208528</v>
       </c>
-      <c r="FX78">
-        <v>411.0816437505482</v>
-      </c>
-      <c r="FY78">
-        <v>2143.607838751089</v>
-      </c>
-      <c r="FZ78">
-        <v>577.1982863134238</v>
-      </c>
-      <c r="GA78">
-        <v>1246.34942642334</v>
-      </c>
-      <c r="GB78">
-        <v>1917.381932143699</v>
-      </c>
       <c r="GC78">
-        <v>325.4031523102259</v>
+        <v>1653.098389730191</v>
       </c>
       <c r="GD78">
-        <v>1798.332658341223</v>
+        <v>1657.106208984158</v>
       </c>
       <c r="GE78">
-        <v>1652.798869655626</v>
+        <v>1247.070350224069</v>
       </c>
       <c r="GF78">
-        <v>2252.761725222908</v>
+        <v>1111.535568414422</v>
+      </c>
+      <c r="GG78">
+        <v>434.8418642166652</v>
+      </c>
+      <c r="GH78">
+        <v>662.5094841507452</v>
+      </c>
+      <c r="GI78">
+        <v>0</v>
+      </c>
+      <c r="GJ78">
+        <v>139.9368381543991</v>
       </c>
     </row>
-    <row r="79" spans="1:188">
+    <row r="79" spans="1:192">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -45044,46 +45980,58 @@
         <v>674.4512416612494</v>
       </c>
       <c r="FT79">
-        <v>1497.899898365263</v>
+        <v>910.4109875308651</v>
       </c>
       <c r="FU79">
-        <v>615.9853988904827</v>
+        <v>855.7833727582489</v>
       </c>
       <c r="FV79">
         <v>1118.985232914958</v>
       </c>
       <c r="FW79">
+        <v>1373.298226931041</v>
+      </c>
+      <c r="FX79">
+        <v>1440.838804128671</v>
+      </c>
+      <c r="FY79">
+        <v>1028.280642550083</v>
+      </c>
+      <c r="FZ79">
+        <v>916.1185194992547</v>
+      </c>
+      <c r="GA79">
+        <v>871.017064436197</v>
+      </c>
+      <c r="GB79">
         <v>1939.625037337395</v>
       </c>
-      <c r="FX79">
-        <v>1028.280642550083</v>
-      </c>
-      <c r="FY79">
-        <v>1164.020939396995</v>
-      </c>
-      <c r="FZ79">
-        <v>1382.587222149701</v>
-      </c>
-      <c r="GA79">
-        <v>243.6289659784976</v>
-      </c>
-      <c r="GB79">
-        <v>979.0386328321982</v>
-      </c>
       <c r="GC79">
-        <v>812.6947054043526</v>
+        <v>947.6094081588481</v>
       </c>
       <c r="GD79">
-        <v>1373.298226931041</v>
+        <v>988.8700760810132</v>
       </c>
       <c r="GE79">
-        <v>917.7213742844619</v>
+        <v>256.0209667447571</v>
       </c>
       <c r="GF79">
-        <v>1262.622741749623</v>
+        <v>138.3858897063428</v>
+      </c>
+      <c r="GG79">
+        <v>1126.546518182791</v>
+      </c>
+      <c r="GH79">
+        <v>1355.720228982576</v>
+      </c>
+      <c r="GI79">
+        <v>1003.444834539236</v>
+      </c>
+      <c r="GJ79">
+        <v>990.0517632404983</v>
       </c>
     </row>
-    <row r="80" spans="1:188">
+    <row r="80" spans="1:192">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -45610,46 +46558,58 @@
         <v>632.9398862959245</v>
       </c>
       <c r="FT80">
-        <v>1361.051770185596</v>
+        <v>1044.410594452489</v>
       </c>
       <c r="FU80">
-        <v>573.6370536670489</v>
+        <v>990.3860427871608</v>
       </c>
       <c r="FV80">
         <v>1134.903363763771</v>
       </c>
       <c r="FW80">
+        <v>1273.557336349578</v>
+      </c>
+      <c r="FX80">
+        <v>1346.072444348868</v>
+      </c>
+      <c r="FY80">
+        <v>1095.311251735366</v>
+      </c>
+      <c r="FZ80">
+        <v>880.4006839662886</v>
+      </c>
+      <c r="GA80">
+        <v>822.4893969617166</v>
+      </c>
+      <c r="GB80">
         <v>1826.073758601715</v>
       </c>
-      <c r="FX80">
-        <v>1095.311251735366</v>
-      </c>
-      <c r="FY80">
-        <v>1097.222591840506</v>
-      </c>
-      <c r="FZ80">
-        <v>1513.553693513409</v>
-      </c>
-      <c r="GA80">
-        <v>177.8786399332136</v>
-      </c>
-      <c r="GB80">
-        <v>941.9094668858282</v>
-      </c>
       <c r="GC80">
-        <v>940.5815185919871</v>
+        <v>993.001578469387</v>
       </c>
       <c r="GD80">
-        <v>1273.557336349578</v>
+        <v>1041.06170129759</v>
       </c>
       <c r="GE80">
-        <v>957.0516653228299</v>
+        <v>224.5484842962076</v>
       </c>
       <c r="GF80">
-        <v>1142.964825926888</v>
+        <v>0</v>
+      </c>
+      <c r="GG80">
+        <v>1258.599693951744</v>
+      </c>
+      <c r="GH80">
+        <v>1490.78016826052</v>
+      </c>
+      <c r="GI80">
+        <v>1111.535568414422</v>
+      </c>
+      <c r="GJ80">
+        <v>1108.640233902342</v>
       </c>
     </row>
-    <row r="81" spans="1:188">
+    <row r="81" spans="1:192">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -46176,46 +47136,58 @@
         <v>621.3448838802391</v>
       </c>
       <c r="FT81">
-        <v>1080.165273336332</v>
+        <v>1323.569288123069</v>
       </c>
       <c r="FU81">
-        <v>604.8643466475432</v>
+        <v>1270.210806071794</v>
       </c>
       <c r="FV81">
         <v>1199.485455459765</v>
       </c>
       <c r="FW81">
+        <v>1112.098906652667</v>
+      </c>
+      <c r="FX81">
+        <v>1195.872831791194</v>
+      </c>
+      <c r="FY81">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FZ81">
+        <v>855.2252012961808</v>
+      </c>
+      <c r="GA81">
+        <v>773.8630236214317</v>
+      </c>
+      <c r="GB81">
         <v>1619.287121571243</v>
       </c>
-      <c r="FX81">
-        <v>1281.528221774515</v>
-      </c>
-      <c r="FY81">
-        <v>989.3330802994128</v>
-      </c>
-      <c r="FZ81">
-        <v>1788.589441457957</v>
-      </c>
-      <c r="GA81">
-        <v>295.8191950233522</v>
-      </c>
-      <c r="GB81">
-        <v>909.2927278698656</v>
-      </c>
       <c r="GC81">
-        <v>1213.358985764359</v>
+        <v>1118.29276192073</v>
       </c>
       <c r="GD81">
-        <v>1112.098906652667</v>
+        <v>1176.363780771056</v>
       </c>
       <c r="GE81">
-        <v>1073.270664886812</v>
+        <v>360.7341099908504</v>
       </c>
       <c r="GF81">
-        <v>903.7920720149059</v>
+        <v>282.377050637132</v>
+      </c>
+      <c r="GG81">
+        <v>1535.319759912854</v>
+      </c>
+      <c r="GH81">
+        <v>1770.689052880049</v>
+      </c>
+      <c r="GI81">
+        <v>1357.913017983126</v>
+      </c>
+      <c r="GJ81">
+        <v>1369.086152435215</v>
       </c>
     </row>
-    <row r="82" spans="1:188">
+    <row r="82" spans="1:192">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -46742,46 +47714,58 @@
         <v>582.6816464437462</v>
       </c>
       <c r="FT82">
-        <v>1211.423372066764</v>
+        <v>1194.808927678077</v>
       </c>
       <c r="FU82">
-        <v>601.0347539873843</v>
+        <v>1140.721943006315</v>
       </c>
       <c r="FV82">
         <v>1133.25561500881</v>
       </c>
       <c r="FW82">
+        <v>1206.658481128847</v>
+      </c>
+      <c r="FX82">
+        <v>1285.796032276844</v>
+      </c>
+      <c r="FY82">
+        <v>1209.204222944999</v>
+      </c>
+      <c r="FZ82">
+        <v>827.7126194364911</v>
+      </c>
+      <c r="GA82">
+        <v>757.0904807148119</v>
+      </c>
+      <c r="GB82">
         <v>1734.500045075881</v>
       </c>
-      <c r="FX82">
-        <v>1209.204222944999</v>
-      </c>
-      <c r="FY82">
-        <v>1006.577707663798</v>
-      </c>
-      <c r="FZ82">
-        <v>1663.723580182163</v>
-      </c>
-      <c r="GA82">
-        <v>179.0121187164972</v>
-      </c>
-      <c r="GB82">
-        <v>886.1841365439677</v>
-      </c>
       <c r="GC82">
-        <v>1090.224183321514</v>
+        <v>1025.947386239112</v>
       </c>
       <c r="GD82">
-        <v>1206.658481128847</v>
+        <v>1080.435113520199</v>
       </c>
       <c r="GE82">
-        <v>984.2351544748586</v>
+        <v>245.7341646945454</v>
       </c>
       <c r="GF82">
-        <v>1000.382845051785</v>
+        <v>150.4197737852586</v>
+      </c>
+      <c r="GG82">
+        <v>1408.944503921307</v>
+      </c>
+      <c r="GH82">
+        <v>1641.06733434617</v>
+      </c>
+      <c r="GI82">
+        <v>1252.412225362983</v>
+      </c>
+      <c r="GJ82">
+        <v>1254.76913910246</v>
       </c>
     </row>
-    <row r="83" spans="1:188">
+    <row r="83" spans="1:192">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -47308,46 +48292,58 @@
         <v>410.2639656024951</v>
       </c>
       <c r="FT83">
-        <v>1130.785046188998</v>
+        <v>1313.427255105041</v>
       </c>
       <c r="FU83">
-        <v>788.005044648549</v>
+        <v>1257.523222365614</v>
       </c>
       <c r="FV83">
         <v>988.4218810096019</v>
       </c>
       <c r="FW83">
+        <v>1318.733953250071</v>
+      </c>
+      <c r="FX83">
+        <v>1404.217861256725</v>
+      </c>
+      <c r="FY83">
+        <v>1396.01198343432</v>
+      </c>
+      <c r="FZ83">
+        <v>648.1546168092279</v>
+      </c>
+      <c r="GA83">
+        <v>571.4066360677692</v>
+      </c>
+      <c r="GB83">
         <v>1808.015615423747</v>
       </c>
-      <c r="FX83">
-        <v>1396.01198343432</v>
-      </c>
-      <c r="FY83">
-        <v>812.921158720423</v>
-      </c>
-      <c r="FZ83">
-        <v>1790.067691801918</v>
-      </c>
-      <c r="GA83">
-        <v>187.9009605509411</v>
-      </c>
-      <c r="GB83">
-        <v>704.2033245577431</v>
-      </c>
       <c r="GC83">
-        <v>1224.890335583636</v>
+        <v>919.0251540415106</v>
       </c>
       <c r="GD83">
-        <v>1318.733953250071</v>
+        <v>979.6001056141831</v>
       </c>
       <c r="GE83">
-        <v>871.915527224387</v>
+        <v>228.2343513300683</v>
       </c>
       <c r="GF83">
-        <v>849.0479585273794</v>
+        <v>306.0130855747632</v>
+      </c>
+      <c r="GG83">
+        <v>1532.81610406397</v>
+      </c>
+      <c r="GH83">
+        <v>1753.532893287725</v>
+      </c>
+      <c r="GI83">
+        <v>1414.344807589904</v>
+      </c>
+      <c r="GJ83">
+        <v>1404.630063684894</v>
       </c>
     </row>
-    <row r="84" spans="1:188">
+    <row r="84" spans="1:192">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -47874,46 +48870,58 @@
         <v>490.7578844520484</v>
       </c>
       <c r="FT84">
-        <v>1421.402844152136</v>
+        <v>1027.554037975723</v>
       </c>
       <c r="FU84">
-        <v>759.8428935813431</v>
+        <v>971.105242567399</v>
       </c>
       <c r="FV84">
         <v>951.7955616167743</v>
       </c>
       <c r="FW84">
+        <v>1452.930347077751</v>
+      </c>
+      <c r="FX84">
+        <v>1528.08529932399</v>
+      </c>
+      <c r="FY84">
+        <v>1211.593457365197</v>
+      </c>
+      <c r="FZ84">
+        <v>731.9552436535106</v>
+      </c>
+      <c r="GA84">
+        <v>687.8116463110168</v>
+      </c>
+      <c r="GB84">
         <v>1992.307265591839</v>
       </c>
-      <c r="FX84">
-        <v>1211.593457365197</v>
-      </c>
-      <c r="FY84">
-        <v>984.8165205329321</v>
-      </c>
-      <c r="FZ84">
-        <v>1506.213772885434</v>
-      </c>
-      <c r="GA84">
-        <v>107.4292940712628</v>
-      </c>
-      <c r="GB84">
-        <v>794.868607158942</v>
-      </c>
       <c r="GC84">
-        <v>949.7190605239954</v>
+        <v>803.4627585618975</v>
       </c>
       <c r="GD84">
-        <v>1452.930347077751</v>
+        <v>851.6312518500825</v>
       </c>
       <c r="GE84">
-        <v>767.871983738428</v>
+        <v>79.98716445337901</v>
       </c>
       <c r="GF84">
-        <v>1132.047406759517</v>
+        <v>189.5631564657355</v>
+      </c>
+      <c r="GG84">
+        <v>1248.550439487756</v>
+      </c>
+      <c r="GH84">
+        <v>1463.827809675573</v>
+      </c>
+      <c r="GI84">
+        <v>1167.522430839368</v>
+      </c>
+      <c r="GJ84">
+        <v>1141.977867528399</v>
       </c>
     </row>
-    <row r="85" spans="1:188">
+    <row r="85" spans="1:192">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -48440,46 +49448,58 @@
         <v>572.3459735225481</v>
       </c>
       <c r="FT85">
-        <v>1531.5272503234</v>
+        <v>914.6871984940566</v>
       </c>
       <c r="FU85">
-        <v>763.5803695378321</v>
+        <v>858.1264915265141</v>
       </c>
       <c r="FV85">
         <v>976.9616683642233</v>
       </c>
       <c r="FW85">
+        <v>1503.858635952434</v>
+      </c>
+      <c r="FX85">
+        <v>1574.562161735</v>
+      </c>
+      <c r="FY85">
+        <v>1139.234763227529</v>
+      </c>
+      <c r="FZ85">
+        <v>804.0235191705742</v>
+      </c>
+      <c r="GA85">
+        <v>770.0814334212608</v>
+      </c>
+      <c r="GB85">
         <v>2058.686824062338</v>
       </c>
-      <c r="FX85">
-        <v>1139.234763227529</v>
-      </c>
-      <c r="FY85">
-        <v>1075.680296223071</v>
-      </c>
-      <c r="FZ85">
-        <v>1393.665695214136</v>
-      </c>
-      <c r="GA85">
-        <v>219.1491539917556</v>
-      </c>
-      <c r="GB85">
-        <v>867.1474725322995</v>
-      </c>
       <c r="GC85">
-        <v>840.5343996236766</v>
+        <v>799.7425862733932</v>
       </c>
       <c r="GD85">
-        <v>1503.858635952434</v>
+        <v>840.7154582402053</v>
       </c>
       <c r="GE85">
-        <v>770.5699081451664</v>
+        <v>190.2494738800234</v>
       </c>
       <c r="GF85">
-        <v>1245.425025880942</v>
+        <v>232.6485057499794</v>
+      </c>
+      <c r="GG85">
+        <v>1135.998804425727</v>
+      </c>
+      <c r="GH85">
+        <v>1350.089967723241</v>
+      </c>
+      <c r="GI85">
+        <v>1068.995930382836</v>
+      </c>
+      <c r="GJ85">
+        <v>1037.139228096466</v>
       </c>
     </row>
-    <row r="86" spans="1:188">
+    <row r="86" spans="1:192">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -49006,46 +50026,58 @@
         <v>420.5131485125544</v>
       </c>
       <c r="FT86">
-        <v>1358.995803506446</v>
+        <v>1104.899652605855</v>
       </c>
       <c r="FU86">
-        <v>796.7556962495172</v>
+        <v>1048.308713851717</v>
       </c>
       <c r="FV86">
         <v>912.0844778520328</v>
       </c>
       <c r="FW86">
+        <v>1452.129922133154</v>
+      </c>
+      <c r="FX86">
+        <v>1530.555563972293</v>
+      </c>
+      <c r="FY86">
+        <v>1283.966180389816</v>
+      </c>
+      <c r="FZ86">
+        <v>665.2038676860965</v>
+      </c>
+      <c r="GA86">
+        <v>615.9107326488017</v>
+      </c>
+      <c r="GB86">
         <v>1977.342631865509</v>
       </c>
-      <c r="FX86">
-        <v>1283.966180389816</v>
-      </c>
-      <c r="FY86">
-        <v>908.4383377310276</v>
-      </c>
-      <c r="FZ86">
-        <v>1583.914020055373</v>
-      </c>
-      <c r="GA86">
-        <v>66.79262625569991</v>
-      </c>
-      <c r="GB86">
-        <v>727.6805321103533</v>
-      </c>
       <c r="GC86">
-        <v>1029.160186995852</v>
+        <v>784.5127212918381</v>
       </c>
       <c r="GD86">
-        <v>1452.129922133154</v>
+        <v>837.1328135965426</v>
       </c>
       <c r="GE86">
-        <v>744.9398857485049</v>
+        <v>0</v>
       </c>
       <c r="GF86">
-        <v>1055.794126046708</v>
+        <v>224.5484842962076</v>
+      </c>
+      <c r="GG86">
+        <v>1326.247734136045</v>
+      </c>
+      <c r="GH86">
+        <v>1539.239552209969</v>
+      </c>
+      <c r="GI86">
+        <v>1247.070350224069</v>
+      </c>
+      <c r="GJ86">
+        <v>1221.960630293429</v>
       </c>
     </row>
-    <row r="87" spans="1:188">
+    <row r="87" spans="1:192">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -49572,46 +50604,58 @@
         <v>455.1515384320251</v>
       </c>
       <c r="FT87">
-        <v>1313.981033523644</v>
+        <v>1127.207405024305</v>
       </c>
       <c r="FU87">
-        <v>742.1300272160526</v>
+        <v>1071.090925273024</v>
       </c>
       <c r="FV87">
         <v>969.7956996288503</v>
       </c>
       <c r="FW87">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="FX87">
+        <v>1464.272447824977</v>
+      </c>
+      <c r="FY87">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FZ87">
+        <v>702.5354803286618</v>
+      </c>
+      <c r="GA87">
+        <v>645.8766832870573</v>
+      </c>
+      <c r="GB87">
         <v>1910.927125445697</v>
       </c>
-      <c r="FX87">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="FY87">
-        <v>927.2556214530194</v>
-      </c>
-      <c r="FZ87">
-        <v>1604.763311894769</v>
-      </c>
-      <c r="GA87">
-        <v>0</v>
-      </c>
-      <c r="GB87">
-        <v>764.1087266705579</v>
-      </c>
       <c r="GC87">
-        <v>1042.939864350439</v>
+        <v>849.331368981776</v>
       </c>
       <c r="GD87">
-        <v>1385.569038720099</v>
+        <v>902.6998600863592</v>
       </c>
       <c r="GE87">
-        <v>808.9249118163835</v>
+        <v>66.79262625569991</v>
       </c>
       <c r="GF87">
-        <v>1032.766324625263</v>
+        <v>177.8786399332136</v>
+      </c>
+      <c r="GG87">
+        <v>1347.274333669257</v>
+      </c>
+      <c r="GH87">
+        <v>1566.153072454196</v>
+      </c>
+      <c r="GI87">
+        <v>1246.34942642334</v>
+      </c>
+      <c r="GJ87">
+        <v>1228.705510457825</v>
       </c>
     </row>
-    <row r="88" spans="1:188">
+    <row r="88" spans="1:192">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -50138,46 +51182,58 @@
         <v>2085.840642839735</v>
       </c>
       <c r="FT88">
-        <v>1162.365885000306</v>
+        <v>2623.16374200981</v>
       </c>
       <c r="FU88">
-        <v>1450.574424036748</v>
+        <v>2584.522796704426</v>
       </c>
       <c r="FV88">
         <v>2675.246242760777</v>
       </c>
       <c r="FW88">
+        <v>629.7390398150832</v>
+      </c>
+      <c r="FX88">
+        <v>633.6299743074113</v>
+      </c>
+      <c r="FY88">
+        <v>2097.559283836537</v>
+      </c>
+      <c r="FZ88">
+        <v>2253.153251334898</v>
+      </c>
+      <c r="GA88">
+        <v>2154.184127263729</v>
+      </c>
+      <c r="GB88">
         <v>143.0416520787503</v>
       </c>
-      <c r="FX88">
-        <v>2097.559283836537</v>
-      </c>
-      <c r="FY88">
-        <v>2187.645464108314</v>
-      </c>
-      <c r="FZ88">
-        <v>2990.883971444247</v>
-      </c>
-      <c r="GA88">
-        <v>1854.168852944468</v>
-      </c>
-      <c r="GB88">
-        <v>2284.411711379415</v>
-      </c>
       <c r="GC88">
-        <v>2468.334609723202</v>
+        <v>2654.317411202699</v>
       </c>
       <c r="GD88">
-        <v>629.7390398150832</v>
+        <v>2717.106548668172</v>
       </c>
       <c r="GE88">
-        <v>2604.70555940965</v>
+        <v>1919.943465417516</v>
       </c>
       <c r="GF88">
-        <v>1633.819771344985</v>
+        <v>1780.870229831219</v>
+      </c>
+      <c r="GG88">
+        <v>2782.687836254871</v>
+      </c>
+      <c r="GH88">
+        <v>3037.861327848798</v>
+      </c>
+      <c r="GI88">
+        <v>2425.283643619665</v>
+      </c>
+      <c r="GJ88">
+        <v>2514.152402422923</v>
       </c>
     </row>
-    <row r="89" spans="1:188">
+    <row r="89" spans="1:192">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -50704,46 +51760,58 @@
         <v>2166.661152871417</v>
       </c>
       <c r="FT89">
-        <v>1294.431249717264</v>
+        <v>2626.627364680352</v>
       </c>
       <c r="FU89">
-        <v>1456.300827132447</v>
+        <v>2590.340308597805</v>
       </c>
       <c r="FV89">
         <v>2759.125586227252</v>
       </c>
       <c r="FW89">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="FX89">
+        <v>593.8897389818142</v>
+      </c>
+      <c r="FY89">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FZ89">
+        <v>2343.225155352953</v>
+      </c>
+      <c r="GA89">
+        <v>2244.737232545102</v>
+      </c>
+      <c r="GB89">
         <v>0</v>
       </c>
-      <c r="FX89">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="FY89">
-        <v>2292.978805295378</v>
-      </c>
-      <c r="FZ89">
-        <v>2978.161445398661</v>
-      </c>
-      <c r="GA89">
-        <v>1910.927125445697</v>
-      </c>
-      <c r="GB89">
-        <v>2377.05705330035</v>
-      </c>
       <c r="GC89">
-        <v>2469.084695111085</v>
+        <v>2725.952761402729</v>
       </c>
       <c r="GD89">
-        <v>612.2011787023229</v>
+        <v>2787.406676970597</v>
       </c>
       <c r="GE89">
-        <v>2677.482710022975</v>
+        <v>1977.342631865509</v>
       </c>
       <c r="GF89">
-        <v>1752.997237725009</v>
+        <v>1826.073758601715</v>
+      </c>
+      <c r="GG89">
+        <v>2777.743225316957</v>
+      </c>
+      <c r="GH89">
+        <v>3032.266333800138</v>
+      </c>
+      <c r="GI89">
+        <v>2407.259504208528</v>
+      </c>
+      <c r="GJ89">
+        <v>2502.223615724191</v>
       </c>
     </row>
-    <row r="90" spans="1:188">
+    <row r="90" spans="1:192">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -51270,46 +52338,58 @@
         <v>2341.336685435321</v>
       </c>
       <c r="FT90">
-        <v>1393.752125503732</v>
+        <v>2829.292987431081</v>
       </c>
       <c r="FU90">
-        <v>1658.983447191009</v>
+        <v>2793.045987373165</v>
       </c>
       <c r="FV90">
         <v>2931.283173519457</v>
       </c>
       <c r="FW90">
+        <v>814.420760765028</v>
+      </c>
+      <c r="FX90">
+        <v>792.2543428455093</v>
+      </c>
+      <c r="FY90">
+        <v>2260.555485237192</v>
+      </c>
+      <c r="FZ90">
+        <v>2509.571806745045</v>
+      </c>
+      <c r="GA90">
+        <v>2410.605839508223</v>
+      </c>
+      <c r="GB90">
         <v>202.7073544089431</v>
       </c>
-      <c r="FX90">
-        <v>2260.555485237192</v>
-      </c>
-      <c r="FY90">
-        <v>2441.713349078249</v>
-      </c>
-      <c r="FZ90">
-        <v>3179.072486159952</v>
-      </c>
-      <c r="GA90">
-        <v>2101.186822142997</v>
-      </c>
-      <c r="GB90">
-        <v>2540.795111546557</v>
-      </c>
       <c r="GC90">
-        <v>2671.654711549311</v>
+        <v>2907.707926029943</v>
       </c>
       <c r="GD90">
-        <v>814.420760765028</v>
+        <v>2970.088480681006</v>
       </c>
       <c r="GE90">
-        <v>2858.427081327212</v>
+        <v>2167.318049505363</v>
       </c>
       <c r="GF90">
-        <v>1880.415390181699</v>
+        <v>2021.334612790497</v>
+      </c>
+      <c r="GG90">
+        <v>2979.82557018606</v>
+      </c>
+      <c r="GH90">
+        <v>3234.237129511852</v>
+      </c>
+      <c r="GI90">
+        <v>2607.288379702899</v>
+      </c>
+      <c r="GJ90">
+        <v>2703.407311775466</v>
       </c>
     </row>
-    <row r="91" spans="1:188">
+    <row r="91" spans="1:192">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -51836,46 +52916,58 @@
         <v>2032.218298615531</v>
       </c>
       <c r="FT91">
-        <v>1369.440922737579</v>
+        <v>2334.982739513286</v>
       </c>
       <c r="FU91">
-        <v>1179.000189021479</v>
+        <v>2302.050943033654</v>
       </c>
       <c r="FV91">
         <v>2625.882080607564</v>
       </c>
       <c r="FW91">
+        <v>340.5001789684775</v>
+      </c>
+      <c r="FX91">
+        <v>284.7963704676405</v>
+      </c>
+      <c r="FY91">
+        <v>1736.503454204559</v>
+      </c>
+      <c r="FZ91">
+        <v>2232.204830771972</v>
+      </c>
+      <c r="GA91">
+        <v>2136.515123766495</v>
+      </c>
+      <c r="GB91">
         <v>342.5767844385426</v>
       </c>
-      <c r="FX91">
-        <v>1736.503454204559</v>
-      </c>
-      <c r="FY91">
-        <v>2230.944375741169</v>
-      </c>
-      <c r="FZ91">
-        <v>2666.033997145066</v>
-      </c>
-      <c r="GA91">
-        <v>1721.52108531072</v>
-      </c>
-      <c r="GB91">
-        <v>2273.20303874762</v>
-      </c>
       <c r="GC91">
-        <v>2174.624107184008</v>
+        <v>2561.165572304993</v>
       </c>
       <c r="GD91">
-        <v>340.5001789684775</v>
+        <v>2618.804829122238</v>
       </c>
       <c r="GE91">
-        <v>2515.976150313739</v>
+        <v>1788.235295047079</v>
       </c>
       <c r="GF91">
-        <v>1753.151848716588</v>
+        <v>1613.230132685549</v>
+      </c>
+      <c r="GG91">
+        <v>2474.901723116928</v>
+      </c>
+      <c r="GH91">
+        <v>2727.874660579848</v>
+      </c>
+      <c r="GI91">
+        <v>2091.35159170046</v>
+      </c>
+      <c r="GJ91">
+        <v>2192.385829709349</v>
       </c>
     </row>
-    <row r="92" spans="1:188">
+    <row r="92" spans="1:192">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -52402,46 +53494,58 @@
         <v>2188.53726030792</v>
       </c>
       <c r="FT92">
-        <v>1368.703328815124</v>
+        <v>2588.439681805914</v>
       </c>
       <c r="FU92">
-        <v>1423.404806204417</v>
+        <v>2553.844855762413</v>
       </c>
       <c r="FV92">
         <v>2782.508769643509</v>
       </c>
       <c r="FW92">
+        <v>574.3830556368341</v>
+      </c>
+      <c r="FX92">
+        <v>540.6363276255986</v>
+      </c>
+      <c r="FY92">
+        <v>2003.543313126395</v>
+      </c>
+      <c r="FZ92">
+        <v>2372.7379014574</v>
+      </c>
+      <c r="GA92">
+        <v>2274.875805227008</v>
+      </c>
+      <c r="GB92">
         <v>105.1140432231545</v>
       </c>
-      <c r="FX92">
-        <v>2003.543313126395</v>
-      </c>
-      <c r="FY92">
-        <v>2336.59242806869</v>
-      </c>
-      <c r="FZ92">
-        <v>2928.55245556869</v>
-      </c>
-      <c r="GA92">
-        <v>1913.887027965326</v>
-      </c>
-      <c r="GB92">
-        <v>2408.795925242089</v>
-      </c>
       <c r="GC92">
-        <v>2429.319500166556</v>
+        <v>2739.008738280041</v>
       </c>
       <c r="GD92">
-        <v>574.3830556368341</v>
+        <v>2799.260629235554</v>
       </c>
       <c r="GE92">
-        <v>2691.566375012972</v>
+        <v>1980.588326403723</v>
       </c>
       <c r="GF92">
-        <v>1811.52280855225</v>
+        <v>1820.371808525254</v>
+      </c>
+      <c r="GG92">
+        <v>2733.582724048216</v>
+      </c>
+      <c r="GH92">
+        <v>2987.322674063053</v>
+      </c>
+      <c r="GI92">
+        <v>2355.045765957657</v>
+      </c>
+      <c r="GJ92">
+        <v>2453.846035151074</v>
       </c>
     </row>
-    <row r="93" spans="1:188">
+    <row r="93" spans="1:192">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -52968,46 +54072,58 @@
         <v>2061.247868539997</v>
       </c>
       <c r="FT93">
-        <v>1215.68886474172</v>
+        <v>2530.485836500902</v>
       </c>
       <c r="FU93">
-        <v>1358.758856541469</v>
+        <v>2493.431822771382</v>
       </c>
       <c r="FV93">
         <v>2654.028735718156</v>
       </c>
       <c r="FW93">
+        <v>520.9447492018544</v>
+      </c>
+      <c r="FX93">
+        <v>513.5416374384957</v>
+      </c>
+      <c r="FY93">
+        <v>1983.373323291821</v>
+      </c>
+      <c r="FZ93">
+        <v>2239.337939092258</v>
+      </c>
+      <c r="GA93">
+        <v>2140.985004078982</v>
+      </c>
+      <c r="GB93">
         <v>106.514079164533</v>
       </c>
-      <c r="FX93">
-        <v>1983.373323291821</v>
-      </c>
-      <c r="FY93">
-        <v>2193.669996266093</v>
-      </c>
-      <c r="FZ93">
-        <v>2888.052681764204</v>
-      </c>
-      <c r="GA93">
-        <v>1804.527133820729</v>
-      </c>
-      <c r="GB93">
-        <v>2273.738630751659</v>
-      </c>
       <c r="GC93">
-        <v>2373.791387667277</v>
+        <v>2619.636562093568</v>
       </c>
       <c r="GD93">
-        <v>520.9447492018544</v>
+        <v>2681.023568592464</v>
       </c>
       <c r="GE93">
-        <v>2571.234899093045</v>
+        <v>1870.924705845706</v>
       </c>
       <c r="GF93">
-        <v>1661.413652401142</v>
+        <v>1720.494833822728</v>
+      </c>
+      <c r="GG93">
+        <v>2684.568346896393</v>
+      </c>
+      <c r="GH93">
+        <v>2939.403523661425</v>
+      </c>
+      <c r="GI93">
+        <v>2319.175480842397</v>
+      </c>
+      <c r="GJ93">
+        <v>2411.639003929325</v>
       </c>
     </row>
-    <row r="94" spans="1:188">
+    <row r="94" spans="1:192">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -53534,46 +54650,58 @@
         <v>2233.877809707645</v>
       </c>
       <c r="FT94">
-        <v>1468.734947707836</v>
+        <v>2563.095461596919</v>
       </c>
       <c r="FU94">
-        <v>1408.805720404409</v>
+        <v>2530.657392835387</v>
       </c>
       <c r="FV94">
         <v>2828.310470874469</v>
       </c>
       <c r="FW94">
+        <v>567.5175633086475</v>
+      </c>
+      <c r="FX94">
+        <v>514.3958981104302</v>
+      </c>
+      <c r="FY94">
+        <v>1950.357203408483</v>
+      </c>
+      <c r="FZ94">
+        <v>2425.90631936586</v>
+      </c>
+      <c r="GA94">
+        <v>2328.921117130945</v>
+      </c>
+      <c r="GB94">
         <v>226.9480192324523</v>
       </c>
-      <c r="FX94">
-        <v>1950.357203408483</v>
-      </c>
-      <c r="FY94">
-        <v>2404.702132482176</v>
-      </c>
-      <c r="FZ94">
-        <v>2888.360523271532</v>
-      </c>
-      <c r="GA94">
-        <v>1939.100645380867</v>
-      </c>
-      <c r="GB94">
-        <v>2464.274705427926</v>
-      </c>
       <c r="GC94">
-        <v>2402.350000456121</v>
+        <v>2773.485044350038</v>
       </c>
       <c r="GD94">
-        <v>567.5175633086475</v>
+        <v>2832.293475411181</v>
       </c>
       <c r="GE94">
-        <v>2727.26961221897</v>
+        <v>2005.890715319192</v>
       </c>
       <c r="GF94">
-        <v>1895.737273710907</v>
+        <v>1836.0658835553</v>
+      </c>
+      <c r="GG94">
+        <v>2700.546697685649</v>
+      </c>
+      <c r="GH94">
+        <v>2952.916272696435</v>
+      </c>
+      <c r="GI94">
+        <v>2312.53565517886</v>
+      </c>
+      <c r="GJ94">
+        <v>2416.018542006033</v>
       </c>
     </row>
-    <row r="95" spans="1:188">
+    <row r="95" spans="1:192">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -54100,46 +55228,58 @@
         <v>2068.688137287756</v>
       </c>
       <c r="FT95">
-        <v>1180.967236908127</v>
+        <v>2576.488099088904</v>
       </c>
       <c r="FU95">
-        <v>1403.90047198046</v>
+        <v>2538.50252016393</v>
       </c>
       <c r="FV95">
         <v>2659.846391539954</v>
       </c>
       <c r="FW95">
+        <v>575.5769397304546</v>
+      </c>
+      <c r="FX95">
+        <v>575.5331265805394</v>
+      </c>
+      <c r="FY95">
+        <v>2042.132703633684</v>
+      </c>
+      <c r="FZ95">
+        <v>2240.969868488818</v>
+      </c>
+      <c r="GA95">
+        <v>2142.237737030167</v>
+      </c>
+      <c r="GB95">
         <v>113.6357700454867</v>
       </c>
-      <c r="FX95">
-        <v>2042.132703633684</v>
-      </c>
-      <c r="FY95">
-        <v>2184.561276208833</v>
-      </c>
-      <c r="FZ95">
-        <v>2940.069799676609</v>
-      </c>
-      <c r="GA95">
-        <v>1825.722393253814</v>
-      </c>
-      <c r="GB95">
-        <v>2273.676962700783</v>
-      </c>
       <c r="GC95">
-        <v>2420.857723788964</v>
+        <v>2632.839990964951</v>
       </c>
       <c r="GD95">
-        <v>575.5769397304546</v>
+        <v>2695.018697730532</v>
       </c>
       <c r="GE95">
-        <v>2583.756175746235</v>
+        <v>1891.80657247361</v>
       </c>
       <c r="GF95">
-        <v>1640.516312538851</v>
+        <v>1747.690899319344</v>
+      </c>
+      <c r="GG95">
+        <v>2733.781022654723</v>
+      </c>
+      <c r="GH95">
+        <v>2988.844862423695</v>
+      </c>
+      <c r="GI95">
+        <v>2373.079971483722</v>
+      </c>
+      <c r="GJ95">
+        <v>2463.411993376368</v>
       </c>
     </row>
-    <row r="96" spans="1:188">
+    <row r="96" spans="1:192">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -54666,46 +55806,58 @@
         <v>1762.294127114606</v>
       </c>
       <c r="FT96">
-        <v>2286.439210074429</v>
+        <v>846.2120070098235</v>
       </c>
       <c r="FU96">
-        <v>831.7331936287776</v>
+        <v>850.535110643594</v>
       </c>
       <c r="FV96">
         <v>2139.401278860867</v>
       </c>
       <c r="FW96">
+        <v>1490.783063696187</v>
+      </c>
+      <c r="FX96">
+        <v>1489.978002218659</v>
+      </c>
+      <c r="FY96">
+        <v>60.0945328883939</v>
+      </c>
+      <c r="FZ96">
+        <v>2001.372498034353</v>
+      </c>
+      <c r="GA96">
+        <v>1959.149666721152</v>
+      </c>
+      <c r="GB96">
         <v>2082.420511046259</v>
       </c>
-      <c r="FX96">
-        <v>60.0945328883939</v>
-      </c>
-      <c r="FY96">
-        <v>2248.532332593565</v>
-      </c>
-      <c r="FZ96">
-        <v>981.5638096654868</v>
-      </c>
-      <c r="GA96">
-        <v>1321.276780816838</v>
-      </c>
-      <c r="GB96">
-        <v>2064.491448449923</v>
-      </c>
       <c r="GC96">
-        <v>705.0375249777818</v>
+        <v>1909.885882472841</v>
       </c>
       <c r="GD96">
-        <v>1490.783063696187</v>
+        <v>1927.094235807397</v>
       </c>
       <c r="GE96">
-        <v>1898.645879019992</v>
+        <v>1343.773407984506</v>
       </c>
       <c r="GF96">
-        <v>2235.789718278801</v>
+        <v>1154.23744667888</v>
+      </c>
+      <c r="GG96">
+        <v>869.7445355263709</v>
+      </c>
+      <c r="GH96">
+        <v>1087.276317268167</v>
+      </c>
+      <c r="GI96">
+        <v>435.4305459197316</v>
+      </c>
+      <c r="GJ96">
+        <v>573.6581495044904</v>
       </c>
     </row>
-    <row r="97" spans="1:188">
+    <row r="97" spans="1:192">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -55232,46 +56384,58 @@
         <v>1622.338170277859</v>
       </c>
       <c r="FT97">
-        <v>2143.922720523957</v>
+        <v>812.8397559166702</v>
       </c>
       <c r="FU97">
-        <v>690.9640408768793</v>
+        <v>807.3202565481743</v>
       </c>
       <c r="FV97">
         <v>2015.274293857335</v>
       </c>
       <c r="FW97">
+        <v>1388.796834748075</v>
+      </c>
+      <c r="FX97">
+        <v>1395.546511250403</v>
+      </c>
+      <c r="FY97">
+        <v>95.50454497260695</v>
+      </c>
+      <c r="FZ97">
+        <v>1863.165279856788</v>
+      </c>
+      <c r="GA97">
+        <v>1818.584787138501</v>
+      </c>
+      <c r="GB97">
         <v>1989.434008756974</v>
       </c>
-      <c r="FX97">
-        <v>95.50454497260695</v>
-      </c>
-      <c r="FY97">
-        <v>2105.142435880916</v>
-      </c>
-      <c r="FZ97">
-        <v>1020.959963425247</v>
-      </c>
-      <c r="GA97">
-        <v>1178.127312488492</v>
-      </c>
-      <c r="GB97">
-        <v>1926.212498710177</v>
-      </c>
       <c r="GC97">
-        <v>658.602244913885</v>
+        <v>1792.803787608952</v>
       </c>
       <c r="GD97">
-        <v>1388.796834748075</v>
+        <v>1813.315291213582</v>
       </c>
       <c r="GE97">
-        <v>1778.976847245407</v>
+        <v>1202.716192160756</v>
       </c>
       <c r="GF97">
-        <v>2087.602538020352</v>
+        <v>1009.320559783702</v>
+      </c>
+      <c r="GG97">
+        <v>874.2013172517679</v>
+      </c>
+      <c r="GH97">
+        <v>1109.355524073085</v>
+      </c>
+      <c r="GI97">
+        <v>447.1979054244193</v>
+      </c>
+      <c r="GJ97">
+        <v>573.0735090709546</v>
       </c>
     </row>
-    <row r="98" spans="1:188">
+    <row r="98" spans="1:192">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -55798,46 +56962,58 @@
         <v>1702.347825829961</v>
       </c>
       <c r="FT98">
-        <v>2239.32858767394</v>
+        <v>808.5828555426174</v>
       </c>
       <c r="FU98">
-        <v>785.968908805777</v>
+        <v>809.7785923858052</v>
       </c>
       <c r="FV98">
         <v>2080.178776275282</v>
       </c>
       <c r="FW98">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FX98">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FY98">
+        <v>0</v>
+      </c>
+      <c r="FZ98">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="GA98">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="GB98">
         <v>2064.612053979791</v>
       </c>
-      <c r="FX98">
-        <v>0</v>
-      </c>
-      <c r="FY98">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="FZ98">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="GA98">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="GB98">
-        <v>2004.435505640418</v>
-      </c>
       <c r="GC98">
-        <v>662.7394045387417</v>
+        <v>1851.644086354249</v>
       </c>
       <c r="GD98">
-        <v>1468.200226639043</v>
+        <v>1869.408868263184</v>
       </c>
       <c r="GE98">
-        <v>1840.003959379539</v>
+        <v>1283.966180389816</v>
       </c>
       <c r="GF98">
-        <v>2181.129490787039</v>
+        <v>1095.311251735366</v>
+      </c>
+      <c r="GG98">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="GH98">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="GI98">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="GJ98">
+        <v>546.0283918483485</v>
       </c>
     </row>
-    <row r="99" spans="1:188">
+    <row r="99" spans="1:192">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -56364,46 +57540,58 @@
         <v>1609.349008123349</v>
       </c>
       <c r="FT99">
-        <v>2185.207656289705</v>
+        <v>729.0539562760638</v>
       </c>
       <c r="FU99">
-        <v>739.6756873231482</v>
+        <v>725.9169775681808</v>
       </c>
       <c r="FV99">
         <v>1980.648067372531</v>
       </c>
       <c r="FW99">
+        <v>1465.440699228469</v>
+      </c>
+      <c r="FX99">
+        <v>1475.059423804106</v>
+      </c>
+      <c r="FY99">
+        <v>100.4439222071138</v>
+      </c>
+      <c r="FZ99">
+        <v>1846.930577920781</v>
+      </c>
+      <c r="GA99">
+        <v>1806.634030023188</v>
+      </c>
+      <c r="GB99">
         <v>2068.825986885106</v>
       </c>
-      <c r="FX99">
-        <v>100.4439222071138</v>
-      </c>
-      <c r="FY99">
-        <v>2099.128167886137</v>
-      </c>
-      <c r="FZ99">
-        <v>933.5392674050487</v>
-      </c>
-      <c r="GA99">
-        <v>1172.394111895128</v>
-      </c>
-      <c r="GB99">
-        <v>1910.071626924605</v>
-      </c>
       <c r="GC99">
-        <v>577.5624918194264</v>
+        <v>1751.342254479836</v>
       </c>
       <c r="GD99">
-        <v>1465.440699228469</v>
+        <v>1768.978660596158</v>
       </c>
       <c r="GE99">
-        <v>1739.906634973697</v>
+        <v>1192.294019062333</v>
       </c>
       <c r="GF99">
-        <v>2107.965774877132</v>
+        <v>1008.707985773778</v>
+      </c>
+      <c r="GG99">
+        <v>785.6906047416644</v>
+      </c>
+      <c r="GH99">
+        <v>1020.727348986716</v>
+      </c>
+      <c r="GI99">
+        <v>358.7639195965816</v>
+      </c>
+      <c r="GJ99">
+        <v>484.5110804591059</v>
       </c>
     </row>
-    <row r="100" spans="1:188">
+    <row r="100" spans="1:192">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -56930,46 +58118,58 @@
         <v>1662.564205898721</v>
       </c>
       <c r="FT100">
-        <v>2247.651411534252</v>
+        <v>726.1223204256854</v>
       </c>
       <c r="FU100">
-        <v>801.1993631117732</v>
+        <v>727.8847533122329</v>
       </c>
       <c r="FV100">
         <v>2023.648622031338</v>
       </c>
       <c r="FW100">
+        <v>1516.955095705132</v>
+      </c>
+      <c r="FX100">
+        <v>1524.147066233883</v>
+      </c>
+      <c r="FY100">
+        <v>82.58726662375588</v>
+      </c>
+      <c r="FZ100">
+        <v>1898.7377873308</v>
+      </c>
+      <c r="GA100">
+        <v>1860.100439745668</v>
+      </c>
+      <c r="GB100">
         <v>2118.036163968248</v>
       </c>
-      <c r="FX100">
-        <v>82.58726662375588</v>
-      </c>
-      <c r="FY100">
-        <v>2154.50384690763</v>
-      </c>
-      <c r="FZ100">
-        <v>898.5532901470923</v>
-      </c>
-      <c r="GA100">
-        <v>1228.46894317921</v>
-      </c>
-      <c r="GB100">
-        <v>1961.878631361313</v>
-      </c>
       <c r="GC100">
-        <v>581.262218244234</v>
+        <v>1790.517916765083</v>
       </c>
       <c r="GD100">
-        <v>1516.955095705132</v>
+        <v>1806.301561215134</v>
       </c>
       <c r="GE100">
-        <v>1780.550999277638</v>
+        <v>1246.824929324439</v>
       </c>
       <c r="GF100">
-        <v>2169.402735092009</v>
+        <v>1066.443034949895</v>
+      </c>
+      <c r="GG100">
+        <v>765.022198647811</v>
+      </c>
+      <c r="GH100">
+        <v>993.0602542897016</v>
+      </c>
+      <c r="GI100">
+        <v>331.5468552831649</v>
+      </c>
+      <c r="GJ100">
+        <v>464.7771301525128</v>
       </c>
     </row>
-    <row r="101" spans="1:188">
+    <row r="101" spans="1:192">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -57496,46 +58696,58 @@
         <v>1596.044088785165</v>
       </c>
       <c r="FT101">
-        <v>2172.194737866935</v>
+        <v>726.4714143537923</v>
       </c>
       <c r="FU101">
-        <v>727.4034514751789</v>
+        <v>722.2786785354651</v>
       </c>
       <c r="FV101">
         <v>1968.775145502505</v>
       </c>
       <c r="FW101">
+        <v>1456.902353546904</v>
+      </c>
+      <c r="FX101">
+        <v>1467.263864253049</v>
+      </c>
+      <c r="FY101">
+        <v>111.5757229068901</v>
+      </c>
+      <c r="FZ101">
+        <v>1833.791205819771</v>
+      </c>
+      <c r="GA101">
+        <v>1793.295274577222</v>
+      </c>
+      <c r="GB101">
         <v>2060.938632139293</v>
       </c>
-      <c r="FX101">
-        <v>111.5757229068901</v>
-      </c>
-      <c r="FY101">
-        <v>2085.58068896</v>
-      </c>
-      <c r="FZ101">
-        <v>938.1754923583968</v>
-      </c>
-      <c r="GA101">
-        <v>1158.794735382131</v>
-      </c>
-      <c r="GB101">
-        <v>1896.930767292745</v>
-      </c>
       <c r="GC101">
-        <v>573.7317210924773</v>
+        <v>1740.10814575514</v>
       </c>
       <c r="GD101">
-        <v>1456.902353546904</v>
+        <v>1758.057801485056</v>
       </c>
       <c r="GE101">
-        <v>1728.428836461589</v>
+        <v>1178.852443130503</v>
       </c>
       <c r="GF101">
-        <v>2094.194025192947</v>
+        <v>994.9733343838533</v>
+      </c>
+      <c r="GG101">
+        <v>787.0231762444934</v>
+      </c>
+      <c r="GH101">
+        <v>1023.551974234266</v>
+      </c>
+      <c r="GI101">
+        <v>362.3474142318991</v>
+      </c>
+      <c r="GJ101">
+        <v>486.0326441292826</v>
       </c>
     </row>
-    <row r="102" spans="1:188">
+    <row r="102" spans="1:192">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -58062,46 +59274,58 @@
         <v>1705.113718739868</v>
       </c>
       <c r="FT102">
-        <v>2251.296659748836</v>
+        <v>795.8170394668703</v>
       </c>
       <c r="FU102">
-        <v>798.6172872664207</v>
+        <v>797.8701798809374</v>
       </c>
       <c r="FV102">
         <v>2078.71904921713</v>
       </c>
       <c r="FW102">
+        <v>1484.803930059252</v>
+      </c>
+      <c r="FX102">
+        <v>1488.016482554184</v>
+      </c>
+      <c r="FY102">
+        <v>17.27877067005251</v>
+      </c>
+      <c r="FZ102">
+        <v>1943.455314854186</v>
+      </c>
+      <c r="GA102">
+        <v>1902.194187060668</v>
+      </c>
+      <c r="GB102">
         <v>2081.539941752834</v>
       </c>
-      <c r="FX102">
-        <v>17.27877067005251</v>
-      </c>
-      <c r="FY102">
-        <v>2193.081446633184</v>
-      </c>
-      <c r="FZ102">
-        <v>954.8776542162676</v>
-      </c>
-      <c r="GA102">
-        <v>1265.938970684921</v>
-      </c>
-      <c r="GB102">
-        <v>2006.588472192445</v>
-      </c>
       <c r="GC102">
-        <v>651.2471847907051</v>
+        <v>1848.82233794995</v>
       </c>
       <c r="GD102">
-        <v>1484.803930059252</v>
+        <v>1865.979921174805</v>
       </c>
       <c r="GE102">
-        <v>1837.679661501414</v>
+        <v>1287.24578299871</v>
       </c>
       <c r="GF102">
-        <v>2189.744111833585</v>
+        <v>1100.328925219629</v>
+      </c>
+      <c r="GG102">
+        <v>830.1436523192409</v>
+      </c>
+      <c r="GH102">
+        <v>1054.261019192752</v>
+      </c>
+      <c r="GI102">
+        <v>395.4831772329746</v>
+      </c>
+      <c r="GJ102">
+        <v>531.0479306808998</v>
       </c>
     </row>
-    <row r="103" spans="1:188">
+    <row r="103" spans="1:192">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -58628,46 +59852,58 @@
         <v>1598.17968480109</v>
       </c>
       <c r="FT103">
-        <v>2086.50984087331</v>
+        <v>857.6357878075695</v>
       </c>
       <c r="FU103">
-        <v>631.9538617667313</v>
+        <v>848.5833796309727</v>
       </c>
       <c r="FV103">
         <v>2007.087518780928</v>
       </c>
       <c r="FW103">
+        <v>1321.312309578699</v>
+      </c>
+      <c r="FX103">
+        <v>1328.318057807973</v>
+      </c>
+      <c r="FY103">
+        <v>156.1299639899798</v>
+      </c>
+      <c r="FZ103">
+        <v>1840.979073980556</v>
+      </c>
+      <c r="GA103">
+        <v>1793.36212174451</v>
+      </c>
+      <c r="GB103">
         <v>1922.207543064886</v>
       </c>
-      <c r="FX103">
-        <v>156.1299639899798</v>
-      </c>
-      <c r="FY103">
-        <v>2075.403454942868</v>
-      </c>
-      <c r="FZ103">
-        <v>1083.517876147561</v>
-      </c>
-      <c r="GA103">
-        <v>1149.921450787148</v>
-      </c>
-      <c r="GB103">
-        <v>1903.872220748577</v>
-      </c>
       <c r="GC103">
-        <v>700.0178935918827</v>
+        <v>1790.616144050821</v>
       </c>
       <c r="GD103">
-        <v>1321.312309578699</v>
+        <v>1813.5667988915</v>
       </c>
       <c r="GE103">
-        <v>1774.792026467163</v>
+        <v>1177.748128921259</v>
       </c>
       <c r="GF103">
-        <v>2041.16164102135</v>
+        <v>978.2226195680558</v>
+      </c>
+      <c r="GG103">
+        <v>929.8978679364983</v>
+      </c>
+      <c r="GH103">
+        <v>1168.383989035401</v>
+      </c>
+      <c r="GI103">
+        <v>507.7404980392457</v>
+      </c>
+      <c r="GJ103">
+        <v>629.5484855243272</v>
       </c>
     </row>
-    <row r="104" spans="1:188">
+    <row r="104" spans="1:192">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -59194,46 +60430,58 @@
         <v>570.8000231720082</v>
       </c>
       <c r="FT104">
-        <v>1738.236489288902</v>
+        <v>1631.388840351139</v>
       </c>
       <c r="FU104">
-        <v>1708.561029432534</v>
+        <v>1580.268526119061</v>
       </c>
       <c r="FV104">
         <v>66.90852831829814</v>
       </c>
       <c r="FW104">
+        <v>2283.716066382881</v>
+      </c>
+      <c r="FX104">
+        <v>2372.070124891638</v>
+      </c>
+      <c r="FY104">
+        <v>2104.155556190674</v>
+      </c>
+      <c r="FZ104">
+        <v>395.658811067596</v>
+      </c>
+      <c r="GA104">
+        <v>494.2489505426873</v>
+      </c>
+      <c r="GB104">
         <v>2728.475511396906</v>
       </c>
-      <c r="FX104">
-        <v>2104.155556190674</v>
-      </c>
-      <c r="FY104">
-        <v>625.2680030750175</v>
-      </c>
-      <c r="FZ104">
-        <v>2062.459549219011</v>
-      </c>
-      <c r="GA104">
-        <v>967.1762537502468</v>
-      </c>
-      <c r="GB104">
-        <v>381.4367056421884</v>
-      </c>
       <c r="GC104">
-        <v>1641.795950747206</v>
+        <v>332.6762543352143</v>
       </c>
       <c r="GD104">
-        <v>2283.716066382881</v>
+        <v>371.7105322550584</v>
       </c>
       <c r="GE104">
-        <v>308.2007945522555</v>
+        <v>912.003055359069</v>
       </c>
       <c r="GF104">
-        <v>1222.229948182216</v>
+        <v>1136.168194430298</v>
+      </c>
+      <c r="GG104">
+        <v>1832.411708430704</v>
+      </c>
+      <c r="GH104">
+        <v>1955.770037500391</v>
+      </c>
+      <c r="GI104">
+        <v>1943.085561789505</v>
+      </c>
+      <c r="GJ104">
+        <v>1865.636997389825</v>
       </c>
     </row>
-    <row r="105" spans="1:188">
+    <row r="105" spans="1:192">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -59760,46 +61008,58 @@
         <v>512.838883159973</v>
       </c>
       <c r="FT105">
-        <v>1677.590310659193</v>
+        <v>1621.113516961408</v>
       </c>
       <c r="FU105">
-        <v>1660.421314580667</v>
+        <v>1569.071652194851</v>
       </c>
       <c r="FV105">
         <v>115.4101110334508</v>
       </c>
       <c r="FW105">
+        <v>2225.661375217637</v>
+      </c>
+      <c r="FX105">
+        <v>2314.4214018433</v>
+      </c>
+      <c r="FY105">
+        <v>2072.913971981963</v>
+      </c>
+      <c r="FZ105">
+        <v>333.7384169002192</v>
+      </c>
+      <c r="GA105">
+        <v>432.2969254784304</v>
+      </c>
+      <c r="GB105">
         <v>2667.582625079087</v>
       </c>
-      <c r="FX105">
-        <v>2072.913971981963</v>
-      </c>
-      <c r="FY105">
-        <v>572.7153090500901</v>
-      </c>
-      <c r="FZ105">
-        <v>2058.995117655576</v>
-      </c>
-      <c r="GA105">
-        <v>918.3661082112619</v>
-      </c>
-      <c r="GB105">
-        <v>320.7866510885363</v>
-      </c>
       <c r="GC105">
-        <v>1625.456134747246</v>
+        <v>345.285446870078</v>
       </c>
       <c r="GD105">
-        <v>2225.661375217637</v>
+        <v>393.1038760899597</v>
       </c>
       <c r="GE105">
-        <v>311.9832572493019</v>
+        <v>864.8553240531556</v>
       </c>
       <c r="GF105">
-        <v>1163.444404434374</v>
+        <v>1089.368227239469</v>
+      </c>
+      <c r="GG105">
+        <v>1825.373346653088</v>
+      </c>
+      <c r="GH105">
+        <v>1955.974004482146</v>
+      </c>
+      <c r="GI105">
+        <v>1922.488582340444</v>
+      </c>
+      <c r="GJ105">
+        <v>1848.709218529324</v>
       </c>
     </row>
-    <row r="106" spans="1:188">
+    <row r="106" spans="1:192">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -60326,46 +61586,58 @@
         <v>828.7347589446098</v>
       </c>
       <c r="FT106">
-        <v>2050.232160689974</v>
+        <v>1580.94957165452</v>
       </c>
       <c r="FU106">
-        <v>1872.530567329037</v>
+        <v>1535.852319787468</v>
       </c>
       <c r="FV106">
         <v>262.2387927354486</v>
       </c>
       <c r="FW106">
+        <v>2518.315043608914</v>
+      </c>
+      <c r="FX106">
+        <v>2602.492397920141</v>
+      </c>
+      <c r="FY106">
+        <v>2159.577132345645</v>
+      </c>
+      <c r="FZ106">
+        <v>700.4285619229413</v>
+      </c>
+      <c r="GA106">
+        <v>795.4682010707008</v>
+      </c>
+      <c r="GB106">
         <v>2993.668618957312</v>
       </c>
-      <c r="FX106">
-        <v>2159.577132345645</v>
-      </c>
-      <c r="FY106">
-        <v>944.1293865715401</v>
-      </c>
-      <c r="FZ106">
-        <v>1969.366169168735</v>
-      </c>
-      <c r="GA106">
-        <v>1151.702936174674</v>
-      </c>
-      <c r="GB106">
-        <v>695.576238294231</v>
-      </c>
       <c r="GC106">
-        <v>1623.038910694772</v>
+        <v>317.1986241405571</v>
       </c>
       <c r="GD106">
-        <v>2518.315043608914</v>
+        <v>290.2083964071783</v>
       </c>
       <c r="GE106">
-        <v>346.4476110833114</v>
+        <v>1088.752212364324</v>
       </c>
       <c r="GF106">
-        <v>1539.854343094222</v>
+        <v>1303.009856740663</v>
+      </c>
+      <c r="GG106">
+        <v>1761.135754578228</v>
+      </c>
+      <c r="GH106">
+        <v>1845.841389678875</v>
+      </c>
+      <c r="GI106">
+        <v>1941.449384544502</v>
+      </c>
+      <c r="GJ106">
+        <v>1845.550488189796</v>
       </c>
     </row>
-    <row r="107" spans="1:188">
+    <row r="107" spans="1:192">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -60892,46 +62164,58 @@
         <v>524.5150829415981</v>
       </c>
       <c r="FT107">
-        <v>1786.303799473342</v>
+        <v>1052.347308200889</v>
       </c>
       <c r="FU107">
-        <v>1276.979206655618</v>
+        <v>999.9656633945109</v>
       </c>
       <c r="FV107">
         <v>546.5851025213542</v>
       </c>
       <c r="FW107">
+        <v>1991.825418293704</v>
+      </c>
+      <c r="FX107">
+        <v>2068.067391486707</v>
+      </c>
+      <c r="FY107">
+        <v>1546.326291295974</v>
+      </c>
+      <c r="FZ107">
+        <v>616.3200161077237</v>
+      </c>
+      <c r="GA107">
+        <v>651.2242129941287</v>
+      </c>
+      <c r="GB107">
         <v>2518.665906142461</v>
       </c>
-      <c r="FX107">
-        <v>1546.326291295974</v>
-      </c>
-      <c r="FY107">
-        <v>953.1422334131393</v>
-      </c>
-      <c r="FZ107">
-        <v>1497.509902247095</v>
-      </c>
-      <c r="GA107">
-        <v>609.1148224596865</v>
-      </c>
-      <c r="GB107">
-        <v>665.1480837665837</v>
-      </c>
       <c r="GC107">
-        <v>1058.117929102317</v>
+        <v>306.3044040597314</v>
       </c>
       <c r="GD107">
-        <v>1991.825418293704</v>
+        <v>334.1539043655155</v>
       </c>
       <c r="GE107">
-        <v>294.701221637118</v>
+        <v>542.358133650025</v>
       </c>
       <c r="GF107">
-        <v>1368.318067067148</v>
+        <v>726.5244563928841</v>
+      </c>
+      <c r="GG107">
+        <v>1259.076236512899</v>
+      </c>
+      <c r="GH107">
+        <v>1402.786069442175</v>
+      </c>
+      <c r="GI107">
+        <v>1361.301406934566</v>
+      </c>
+      <c r="GJ107">
+        <v>1281.974447657963</v>
       </c>
     </row>
-    <row r="108" spans="1:188">
+    <row r="108" spans="1:192">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -61458,46 +62742,58 @@
         <v>589.8190711278985</v>
       </c>
       <c r="FT108">
-        <v>1870.692960319367</v>
+        <v>1131.033079988195</v>
       </c>
       <c r="FU108">
-        <v>1416.290967694169</v>
+        <v>1081.346922928538</v>
       </c>
       <c r="FV108">
         <v>456.7956713868294</v>
       </c>
       <c r="FW108">
+        <v>2125.216635042185</v>
+      </c>
+      <c r="FX108">
+        <v>2202.572436929784</v>
+      </c>
+      <c r="FY108">
+        <v>1668.859124282156</v>
+      </c>
+      <c r="FZ108">
+        <v>627.2599653107758</v>
+      </c>
+      <c r="GA108">
+        <v>681.1438720341329</v>
+      </c>
+      <c r="GB108">
         <v>2645.263549976445</v>
       </c>
-      <c r="FX108">
-        <v>1668.859124282156</v>
-      </c>
-      <c r="FY108">
-        <v>961.3674350134374</v>
-      </c>
-      <c r="FZ108">
-        <v>1557.631380079257</v>
-      </c>
-      <c r="GA108">
-        <v>740.1524711507923</v>
-      </c>
-      <c r="GB108">
-        <v>666.3343209673583</v>
-      </c>
       <c r="GC108">
-        <v>1152.95765814684</v>
+        <v>188.7426399995301</v>
       </c>
       <c r="GD108">
-        <v>2125.216635042185</v>
+        <v>201.1642095861274</v>
       </c>
       <c r="GE108">
-        <v>197.128532235374</v>
+        <v>673.4172775861744</v>
       </c>
       <c r="GF108">
-        <v>1428.361703463058</v>
+        <v>863.907875087094</v>
+      </c>
+      <c r="GG108">
+        <v>1328.675654820297</v>
+      </c>
+      <c r="GH108">
+        <v>1452.244547411572</v>
+      </c>
+      <c r="GI108">
+        <v>1464.470230111996</v>
+      </c>
+      <c r="GJ108">
+        <v>1377.120182503992</v>
       </c>
     </row>
-    <row r="109" spans="1:188">
+    <row r="109" spans="1:192">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -62024,46 +63320,58 @@
         <v>647.294281112568</v>
       </c>
       <c r="FT109">
-        <v>1850.009988287148</v>
+        <v>1581.99794774608</v>
       </c>
       <c r="FU109">
-        <v>1744.731010051728</v>
+        <v>1532.792945557662</v>
       </c>
       <c r="FV109">
         <v>61.21525370028444</v>
       </c>
       <c r="FW109">
+        <v>2353.355303324</v>
+      </c>
+      <c r="FX109">
+        <v>2439.804486260058</v>
+      </c>
+      <c r="FY109">
+        <v>2096.198469191059</v>
+      </c>
+      <c r="FZ109">
+        <v>501.1219224294442</v>
+      </c>
+      <c r="GA109">
+        <v>597.4090242839995</v>
+      </c>
+      <c r="GB109">
         <v>2813.509362711236</v>
       </c>
-      <c r="FX109">
-        <v>2096.198469191059</v>
-      </c>
-      <c r="FY109">
-        <v>747.0856296615908</v>
-      </c>
-      <c r="FZ109">
-        <v>1999.667989591111</v>
-      </c>
-      <c r="GA109">
-        <v>1009.217570879871</v>
-      </c>
-      <c r="GB109">
-        <v>494.6106417055487</v>
-      </c>
       <c r="GC109">
-        <v>1603.926483548961</v>
+        <v>264.8615957888548</v>
       </c>
       <c r="GD109">
-        <v>2353.355303324</v>
+        <v>285.085203261702</v>
       </c>
       <c r="GE109">
-        <v>259.9990473408942</v>
+        <v>949.9135644031795</v>
       </c>
       <c r="GF109">
-        <v>1338.859179375401</v>
+        <v>1171.177966234167</v>
+      </c>
+      <c r="GG109">
+        <v>1776.464494005822</v>
+      </c>
+      <c r="GH109">
+        <v>1886.999822337753</v>
+      </c>
+      <c r="GI109">
+        <v>1912.714080422693</v>
+      </c>
+      <c r="GJ109">
+        <v>1828.157155215564</v>
       </c>
     </row>
-    <row r="110" spans="1:188">
+    <row r="110" spans="1:192">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -62590,46 +63898,58 @@
         <v>759.1253136230611</v>
       </c>
       <c r="FT110">
-        <v>2027.22081473407</v>
+        <v>1377.79432877893</v>
       </c>
       <c r="FU110">
-        <v>1715.599254735632</v>
+        <v>1332.652954140139</v>
       </c>
       <c r="FV110">
         <v>318.8556655696736</v>
       </c>
       <c r="FW110">
+        <v>2398.571510284511</v>
+      </c>
+      <c r="FX110">
+        <v>2479.29274186073</v>
+      </c>
+      <c r="FY110">
+        <v>1965.544629278248</v>
+      </c>
+      <c r="FZ110">
+        <v>691.7625017307925</v>
+      </c>
+      <c r="GA110">
+        <v>775.4745513766576</v>
+      </c>
+      <c r="GB110">
         <v>2897.606995452644</v>
       </c>
-      <c r="FX110">
-        <v>1965.544629278248</v>
-      </c>
-      <c r="FY110">
-        <v>985.1822076988818</v>
-      </c>
-      <c r="FZ110">
-        <v>1769.785138394243</v>
-      </c>
-      <c r="GA110">
-        <v>1016.26732035214</v>
-      </c>
-      <c r="GB110">
-        <v>705.2419457556932</v>
-      </c>
       <c r="GC110">
-        <v>1420.563955242887</v>
+        <v>171.6897602049043</v>
       </c>
       <c r="GD110">
-        <v>2398.571510284511</v>
+        <v>113.7217888759566</v>
       </c>
       <c r="GE110">
-        <v>222.1639839070232</v>
+        <v>950.7719499333778</v>
       </c>
       <c r="GF110">
-        <v>1540.610941799147</v>
+        <v>1154.598415726905</v>
+      </c>
+      <c r="GG110">
+        <v>1559.027199314437</v>
+      </c>
+      <c r="GH110">
+        <v>1648.705891307329</v>
+      </c>
+      <c r="GI110">
+        <v>1739.796250559737</v>
+      </c>
+      <c r="GJ110">
+        <v>1642.803342415954</v>
       </c>
     </row>
-    <row r="111" spans="1:188">
+    <row r="111" spans="1:192">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -63156,46 +64476,58 @@
         <v>567.3270930370339</v>
       </c>
       <c r="FT111">
-        <v>1709.11156277478</v>
+        <v>1670.402793618448</v>
       </c>
       <c r="FU111">
-        <v>1719.475747371227</v>
+        <v>1618.843768593025</v>
       </c>
       <c r="FV111">
         <v>114.7460663953346</v>
       </c>
       <c r="FW111">
+        <v>2279.222959143337</v>
+      </c>
+      <c r="FX111">
+        <v>2368.439376741904</v>
+      </c>
+      <c r="FY111">
+        <v>2130.802211677115</v>
+      </c>
+      <c r="FZ111">
+        <v>375.5559549600774</v>
+      </c>
+      <c r="GA111">
+        <v>474.7873480447569</v>
+      </c>
+      <c r="GB111">
         <v>2715.867947902166</v>
       </c>
-      <c r="FX111">
-        <v>2130.802211677115</v>
-      </c>
-      <c r="FY111">
-        <v>585.5343575777036</v>
-      </c>
-      <c r="FZ111">
-        <v>2104.411167415854</v>
-      </c>
-      <c r="GA111">
-        <v>977.3710339724882</v>
-      </c>
-      <c r="GB111">
-        <v>354.5353855585357</v>
-      </c>
       <c r="GC111">
-        <v>1677.80459241338</v>
+        <v>378.5965000544917</v>
       </c>
       <c r="GD111">
-        <v>2279.222959143337</v>
+        <v>419.3761628578615</v>
       </c>
       <c r="GE111">
-        <v>351.5150897351692</v>
+        <v>924.1404609880851</v>
       </c>
       <c r="GF111">
-        <v>1189.127463179708</v>
+        <v>1148.670622323147</v>
+      </c>
+      <c r="GG111">
+        <v>1872.889584658979</v>
+      </c>
+      <c r="GH111">
+        <v>1999.047367037368</v>
+      </c>
+      <c r="GI111">
+        <v>1976.757995158838</v>
+      </c>
+      <c r="GJ111">
+        <v>1901.36348160423</v>
       </c>
     </row>
-    <row r="112" spans="1:188">
+    <row r="112" spans="1:192">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -63722,46 +65054,58 @@
         <v>637.0298386880614</v>
       </c>
       <c r="FT112">
-        <v>1834.605209884034</v>
+        <v>1590.86931946082</v>
       </c>
       <c r="FU112">
-        <v>1741.21303802816</v>
+        <v>1541.378248421275</v>
       </c>
       <c r="FV112">
         <v>45.68096676446184</v>
       </c>
       <c r="FW112">
+        <v>2344.872084925416</v>
+      </c>
+      <c r="FX112">
+        <v>2431.627126737071</v>
+      </c>
+      <c r="FY112">
+        <v>2099.265952192047</v>
+      </c>
+      <c r="FZ112">
+        <v>486.3850543544121</v>
+      </c>
+      <c r="GA112">
+        <v>583.1241382928442</v>
+      </c>
+      <c r="GB112">
         <v>2802.643065022577</v>
       </c>
-      <c r="FX112">
-        <v>2099.265952192047</v>
-      </c>
-      <c r="FY112">
-        <v>729.56751007516</v>
-      </c>
-      <c r="FZ112">
-        <v>2010.503452811589</v>
-      </c>
-      <c r="GA112">
-        <v>1004.459472665077</v>
-      </c>
-      <c r="GB112">
-        <v>478.6839804908348</v>
-      </c>
       <c r="GC112">
-        <v>1611.168802322705</v>
+        <v>274.474807527662</v>
       </c>
       <c r="GD112">
-        <v>2344.872084925416</v>
+        <v>297.937824449033</v>
       </c>
       <c r="GE112">
-        <v>266.323670786231</v>
+        <v>945.7118050407354</v>
       </c>
       <c r="GF112">
-        <v>1322.520818095869</v>
+        <v>1167.5825555175</v>
+      </c>
+      <c r="GG112">
+        <v>1786.306932944241</v>
+      </c>
+      <c r="GH112">
+        <v>1898.639915116206</v>
+      </c>
+      <c r="GI112">
+        <v>1918.969309874514</v>
+      </c>
+      <c r="GJ112">
+        <v>1835.40593311429</v>
       </c>
     </row>
-    <row r="113" spans="1:188">
+    <row r="113" spans="1:192">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -64288,46 +65632,58 @@
         <v>632.8414847017278</v>
       </c>
       <c r="FT113">
-        <v>1776.309358315718</v>
+        <v>1688.333336560035</v>
       </c>
       <c r="FU113">
-        <v>1776.225221704897</v>
+        <v>1637.7956473729</v>
       </c>
       <c r="FV113">
         <v>102.1388831184507</v>
       </c>
       <c r="FW113">
+        <v>2345.551624348236</v>
+      </c>
+      <c r="FX113">
+        <v>2434.406514768615</v>
+      </c>
+      <c r="FY113">
+        <v>2170.463735806192</v>
+      </c>
+      <c r="FZ113">
+        <v>444.8759060211844</v>
+      </c>
+      <c r="GA113">
+        <v>544.1050173500468</v>
+      </c>
+      <c r="GB113">
         <v>2784.649414665677</v>
       </c>
-      <c r="FX113">
-        <v>2170.463735806192</v>
-      </c>
-      <c r="FY113">
-        <v>645.3449563998477</v>
-      </c>
-      <c r="FZ113">
-        <v>2114.718206011168</v>
-      </c>
-      <c r="GA113">
-        <v>1034.631411822385</v>
-      </c>
-      <c r="GB113">
-        <v>423.1865558011732</v>
-      </c>
       <c r="GC113">
-        <v>1702.130540617874</v>
+        <v>379.1482013107773</v>
       </c>
       <c r="GD113">
-        <v>2345.551624348236</v>
+        <v>409.6978009886682</v>
       </c>
       <c r="GE113">
-        <v>361.48756390706</v>
+        <v>979.7874251298891</v>
       </c>
       <c r="GF113">
-        <v>1254.306065366782</v>
+        <v>1204.031931760434</v>
+      </c>
+      <c r="GG113">
+        <v>1887.206300419145</v>
+      </c>
+      <c r="GH113">
+        <v>2005.446790990313</v>
+      </c>
+      <c r="GI113">
+        <v>2005.388931444462</v>
+      </c>
+      <c r="GJ113">
+        <v>1926.172448479835</v>
       </c>
     </row>
-    <row r="114" spans="1:188">
+    <row r="114" spans="1:192">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -64854,46 +66210,58 @@
         <v>344.8073698221564</v>
       </c>
       <c r="FT114">
-        <v>1398.121355141747</v>
+        <v>1687.793486832632</v>
       </c>
       <c r="FU114">
-        <v>1526.12248729905</v>
+        <v>1632.605522106974</v>
       </c>
       <c r="FV114">
         <v>395.1119580307268</v>
       </c>
       <c r="FW114">
+        <v>2012.124162977426</v>
+      </c>
+      <c r="FX114">
+        <v>2104.115631478226</v>
+      </c>
+      <c r="FY114">
+        <v>2032.520942739618</v>
+      </c>
+      <c r="FZ114">
+        <v>97.58375842055965</v>
+      </c>
+      <c r="GA114">
+        <v>183.5944125286741</v>
+      </c>
+      <c r="GB114">
         <v>2423.474584478633</v>
       </c>
-      <c r="FX114">
-        <v>2032.520942739618</v>
-      </c>
-      <c r="FY114">
-        <v>312.7862411060349</v>
-      </c>
-      <c r="FZ114">
-        <v>2149.248817465333</v>
-      </c>
-      <c r="GA114">
-        <v>798.9340702434125</v>
-      </c>
-      <c r="GB114">
-        <v>46.4486611784135</v>
-      </c>
       <c r="GC114">
-        <v>1664.826357137806</v>
+        <v>554.4021159590952</v>
       </c>
       <c r="GD114">
-        <v>2012.124162977426</v>
+        <v>617.2991393978369</v>
       </c>
       <c r="GE114">
-        <v>504.8185312321597</v>
+        <v>760.1900814481912</v>
       </c>
       <c r="GF114">
-        <v>882.5897323985873</v>
+        <v>976.8096561746755</v>
+      </c>
+      <c r="GG114">
+        <v>1903.083966114488</v>
+      </c>
+      <c r="GH114">
+        <v>2062.470931973223</v>
+      </c>
+      <c r="GI114">
+        <v>1937.407268612432</v>
+      </c>
+      <c r="GJ114">
+        <v>1881.927395205801</v>
       </c>
     </row>
-    <row r="115" spans="1:188">
+    <row r="115" spans="1:192">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -65420,46 +66788,58 @@
         <v>346.0706491154921</v>
       </c>
       <c r="FT115">
-        <v>1284.91443624306</v>
+        <v>1748.055595253892</v>
       </c>
       <c r="FU115">
-        <v>1502.513699993801</v>
+        <v>1692.111154718892</v>
       </c>
       <c r="FV115">
         <v>513.1193948602713</v>
       </c>
       <c r="FW115">
+        <v>1943.694995221083</v>
+      </c>
+      <c r="FX115">
+        <v>2037.217068015074</v>
+      </c>
+      <c r="FY115">
+        <v>2048.326903498619</v>
+      </c>
+      <c r="FZ115">
+        <v>133.7418966783841</v>
+      </c>
+      <c r="GA115">
+        <v>149.6388913442061</v>
+      </c>
+      <c r="GB115">
         <v>2336.04742417552</v>
       </c>
-      <c r="FX115">
-        <v>2048.326903498619</v>
-      </c>
-      <c r="FY115">
-        <v>205.5551328839888</v>
-      </c>
-      <c r="FZ115">
-        <v>2215.63162074931</v>
-      </c>
-      <c r="GA115">
-        <v>795.4111346797201</v>
-      </c>
-      <c r="GB115">
-        <v>91.04804121557227</v>
-      </c>
       <c r="GC115">
-        <v>1715.149546015592</v>
+        <v>666.8706029539269</v>
       </c>
       <c r="GD115">
-        <v>1943.694995221083</v>
+        <v>731.2169426079635</v>
       </c>
       <c r="GE115">
-        <v>615.7766302855484</v>
+        <v>765.3791952631444</v>
       </c>
       <c r="GF115">
-        <v>765.3001971313081</v>
+        <v>971.8134541093157</v>
+      </c>
+      <c r="GG115">
+        <v>1966.065793780258</v>
+      </c>
+      <c r="GH115">
+        <v>2134.915097140759</v>
+      </c>
+      <c r="GI115">
+        <v>1976.484025781697</v>
+      </c>
+      <c r="GJ115">
+        <v>1928.463459936561</v>
       </c>
     </row>
-    <row r="116" spans="1:188">
+    <row r="116" spans="1:192">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -65986,46 +67366,58 @@
         <v>247.7502713028823</v>
       </c>
       <c r="FT116">
-        <v>1350.154048710479</v>
+        <v>1617.928285621456</v>
       </c>
       <c r="FU116">
-        <v>1428.546148186869</v>
+        <v>1562.197890852499</v>
       </c>
       <c r="FV116">
         <v>440.7041624135588</v>
       </c>
       <c r="FW116">
+        <v>1922.148686641001</v>
+      </c>
+      <c r="FX116">
+        <v>2013.500202823117</v>
+      </c>
+      <c r="FY116">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="FZ116">
+        <v>0</v>
+      </c>
+      <c r="GA116">
+        <v>99.23882736766056</v>
+      </c>
+      <c r="GB116">
         <v>2343.225155352953</v>
       </c>
-      <c r="FX116">
-        <v>1941.314715809784</v>
-      </c>
-      <c r="FY116">
-        <v>337.1715874067943</v>
-      </c>
-      <c r="FZ116">
-        <v>2083.94582544947</v>
-      </c>
-      <c r="GA116">
-        <v>702.5354803286618</v>
-      </c>
-      <c r="GB116">
-        <v>63.1436218408767</v>
-      </c>
       <c r="GC116">
-        <v>1588.59897833568</v>
+        <v>552.2968130437771</v>
       </c>
       <c r="GD116">
-        <v>1922.148686641001</v>
+        <v>618.9043052074642</v>
       </c>
       <c r="GE116">
-        <v>499.2213468234353</v>
+        <v>665.2038676860965</v>
       </c>
       <c r="GF116">
-        <v>849.5916606544675</v>
+        <v>880.4006839662886</v>
+      </c>
+      <c r="GG116">
+        <v>1835.209116732357</v>
+      </c>
+      <c r="GH116">
+        <v>2001.996118426327</v>
+      </c>
+      <c r="GI116">
+        <v>1855.279279024875</v>
+      </c>
+      <c r="GJ116">
+        <v>1803.639278015092</v>
       </c>
     </row>
-    <row r="117" spans="1:188">
+    <row r="117" spans="1:192">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -66552,46 +67944,58 @@
         <v>344.5740099152765</v>
       </c>
       <c r="FT117">
-        <v>1257.591986652068</v>
+        <v>1755.919570398083</v>
       </c>
       <c r="FU117">
-        <v>1491.094675541428</v>
+        <v>1699.817822149693</v>
       </c>
       <c r="FV117">
         <v>540.0580263202095</v>
       </c>
       <c r="FW117">
+        <v>1922.930549456376</v>
+      </c>
+      <c r="FX117">
+        <v>2016.716119850512</v>
+      </c>
+      <c r="FY117">
+        <v>2045.36287956254</v>
+      </c>
+      <c r="FZ117">
+        <v>148.9782262270821</v>
+      </c>
+      <c r="GA117">
+        <v>146.7059141610503</v>
+      </c>
+      <c r="GB117">
         <v>2311.862810038825</v>
       </c>
-      <c r="FX117">
-        <v>2045.36287956254</v>
-      </c>
-      <c r="FY117">
-        <v>188.2586437061806</v>
-      </c>
-      <c r="FZ117">
-        <v>2224.849384492247</v>
-      </c>
-      <c r="GA117">
-        <v>789.5569285862889</v>
-      </c>
-      <c r="GB117">
-        <v>114.1871660817137</v>
-      </c>
       <c r="GC117">
-        <v>1720.567763772338</v>
+        <v>689.9848422987005</v>
       </c>
       <c r="GD117">
-        <v>1922.930549456376</v>
+        <v>754.7996287306073</v>
       </c>
       <c r="GE117">
-        <v>638.4437241923678</v>
+        <v>761.6075082716216</v>
       </c>
       <c r="GF117">
-        <v>738.1152414309634</v>
+        <v>965.182761732832</v>
+      </c>
+      <c r="GG117">
+        <v>1974.509192501186</v>
+      </c>
+      <c r="GH117">
+        <v>2145.731351360954</v>
+      </c>
+      <c r="GI117">
+        <v>1979.028127841454</v>
+      </c>
+      <c r="GJ117">
+        <v>1932.836975716045</v>
       </c>
     </row>
-    <row r="118" spans="1:188">
+    <row r="118" spans="1:192">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -67118,46 +68522,58 @@
         <v>538.6928152400144</v>
       </c>
       <c r="FT118">
-        <v>1206.470491935434</v>
+        <v>1959.305659467555</v>
       </c>
       <c r="FU118">
-        <v>1639.772823432862</v>
+        <v>1903.121266160041</v>
       </c>
       <c r="FV118">
         <v>669.0908628491879</v>
       </c>
       <c r="FW118">
+        <v>1999.474306954776</v>
+      </c>
+      <c r="FX118">
+        <v>2095.532498173072</v>
+      </c>
+      <c r="FY118">
+        <v>2228.322750662384</v>
+      </c>
+      <c r="FZ118">
+        <v>349.2566956143871</v>
+      </c>
+      <c r="GA118">
+        <v>344.1051072164929</v>
+      </c>
+      <c r="GB118">
         <v>2343.30567809679</v>
       </c>
-      <c r="FX118">
-        <v>2228.322750662384</v>
-      </c>
-      <c r="FY118">
-        <v>51.76382015734057</v>
-      </c>
-      <c r="FZ118">
-        <v>2428.720945560795</v>
-      </c>
-      <c r="GA118">
-        <v>966.9899678838547</v>
-      </c>
-      <c r="GB118">
-        <v>300.4801575000173</v>
-      </c>
       <c r="GC118">
-        <v>1921.881095202411</v>
+        <v>862.1791525187688</v>
       </c>
       <c r="GD118">
-        <v>1999.474306954776</v>
+        <v>923.1932566504871</v>
       </c>
       <c r="GE118">
-        <v>813.8620989492139</v>
+        <v>945.8252767748256</v>
       </c>
       <c r="GF118">
-        <v>667.1167159521041</v>
+        <v>1138.515701588459</v>
+      </c>
+      <c r="GG118">
+        <v>2178.154408449772</v>
+      </c>
+      <c r="GH118">
+        <v>2349.558603443098</v>
+      </c>
+      <c r="GI118">
+        <v>2175.902922874596</v>
+      </c>
+      <c r="GJ118">
+        <v>2132.737869262098</v>
       </c>
     </row>
-    <row r="119" spans="1:188">
+    <row r="119" spans="1:192">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -67684,43 +69100,55 @@
         <v>269.1097153918495</v>
       </c>
       <c r="FT119">
-        <v>1420.544040741213</v>
+        <v>1584.578693857734</v>
       </c>
       <c r="FU119">
-        <v>1449.78454306351</v>
+        <v>1529.371446870437</v>
       </c>
       <c r="FV119">
         <v>372.7808667076673</v>
       </c>
       <c r="FW119">
+        <v>1968.911403977059</v>
+      </c>
+      <c r="FX119">
+        <v>2059.248528747612</v>
+      </c>
+      <c r="FY119">
+        <v>1936.722876804326</v>
+      </c>
+      <c r="FZ119">
+        <v>71.65197134054419</v>
+      </c>
+      <c r="GA119">
+        <v>164.7853948573026</v>
+      </c>
+      <c r="GB119">
         <v>2400.059946228459</v>
       </c>
-      <c r="FX119">
-        <v>1936.722876804326</v>
-      </c>
-      <c r="FY119">
-        <v>395.243934710645</v>
-      </c>
-      <c r="FZ119">
-        <v>2046.469917864226</v>
-      </c>
-      <c r="GA119">
-        <v>714.8969284484222</v>
-      </c>
-      <c r="GB119">
-        <v>100.5655802129055</v>
-      </c>
       <c r="GC119">
-        <v>1561.860798907826</v>
+        <v>482.6798693545946</v>
       </c>
       <c r="GD119">
-        <v>1968.911403977059</v>
+        <v>548.7766343113385</v>
       </c>
       <c r="GE119">
-        <v>430.1570314008308</v>
+        <v>672.0585267486015</v>
       </c>
       <c r="GF119">
-        <v>921.2435492479507</v>
+        <v>892.250585943097</v>
+      </c>
+      <c r="GG119">
+        <v>1800.003099907677</v>
+      </c>
+      <c r="GH119">
+        <v>1960.544290612054</v>
+      </c>
+      <c r="GI119">
+        <v>1835.743933953187</v>
+      </c>
+      <c r="GJ119">
+        <v>1779.262690299602</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LH_costmatrix.xlsx
+++ b/Data/LH_costmatrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GJ119"/>
+  <dimension ref="A1:GD119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:192">
+    <row r="1" spans="1:186">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -928,26 +928,8 @@
       <c r="GD1" s="1">
         <v>184</v>
       </c>
-      <c r="GE1" s="1">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1">
-        <v>190</v>
-      </c>
     </row>
-    <row r="2" spans="1:192">
+    <row r="2" spans="1:186">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1474,58 +1456,40 @@
         <v>315.3815886356634</v>
       </c>
       <c r="FT2">
-        <v>1715.038634507163</v>
+        <v>690.3646813011139</v>
       </c>
       <c r="FU2">
+        <v>890.2547855041341</v>
+      </c>
+      <c r="FV2">
+        <v>1929.916211348289</v>
+      </c>
+      <c r="FW2">
+        <v>2017.711281567832</v>
+      </c>
+      <c r="FX2">
+        <v>436.40643968107</v>
+      </c>
+      <c r="FY2">
+        <v>499.828761115336</v>
+      </c>
+      <c r="FZ2">
         <v>1659.091004192277</v>
       </c>
-      <c r="FV2">
-        <v>499.828761115336</v>
-      </c>
-      <c r="FW2">
-        <v>1929.916211348289</v>
-      </c>
-      <c r="FX2">
-        <v>2022.983029228003</v>
-      </c>
-      <c r="FY2">
-        <v>2017.711281567832</v>
-      </c>
-      <c r="FZ2">
-        <v>101.9920741541128</v>
-      </c>
       <c r="GA2">
-        <v>121.0279577714368</v>
+        <v>1477.516443308458</v>
       </c>
       <c r="GB2">
-        <v>2329.15564227634</v>
+        <v>151.9261995142741</v>
       </c>
       <c r="GC2">
-        <v>642.6427083647148</v>
+        <v>161.2440896462045</v>
       </c>
       <c r="GD2">
-        <v>707.7522796179455</v>
-      </c>
-      <c r="GE2">
-        <v>735.3776239995864</v>
-      </c>
-      <c r="GF2">
-        <v>943.3743222288423</v>
-      </c>
-      <c r="GG2">
-        <v>1933.071917189193</v>
-      </c>
-      <c r="GH2">
-        <v>2102.196889213828</v>
-      </c>
-      <c r="GI2">
-        <v>1944.001733938364</v>
-      </c>
-      <c r="GJ2">
-        <v>1895.652472568322</v>
+        <v>1788.02538151044</v>
       </c>
     </row>
-    <row r="3" spans="1:192">
+    <row r="3" spans="1:186">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2052,58 +2016,40 @@
         <v>313.8159461816721</v>
       </c>
       <c r="FT3">
-        <v>1731.605839344035</v>
+        <v>667.8128383881219</v>
       </c>
       <c r="FU3">
+        <v>863.0273146551593</v>
+      </c>
+      <c r="FV3">
+        <v>1889.707969954462</v>
+      </c>
+      <c r="FW3">
+        <v>2012.873448361303</v>
+      </c>
+      <c r="FX3">
+        <v>488.0424183781134</v>
+      </c>
+      <c r="FY3">
+        <v>552.8246308581652</v>
+      </c>
+      <c r="FZ3">
         <v>1675.36195824165</v>
       </c>
-      <c r="FV3">
-        <v>552.8246308581652</v>
-      </c>
-      <c r="FW3">
-        <v>1889.707969954462</v>
-      </c>
-      <c r="FX3">
-        <v>1983.315727753159</v>
-      </c>
-      <c r="FY3">
-        <v>2012.873448361303</v>
-      </c>
-      <c r="FZ3">
-        <v>139.2743942612058</v>
-      </c>
       <c r="GA3">
-        <v>116.7085909993906</v>
+        <v>1455.816318836141</v>
       </c>
       <c r="GB3">
-        <v>2282.22463871915</v>
+        <v>100.953663135464</v>
       </c>
       <c r="GC3">
-        <v>689.2719903805393</v>
+        <v>116.9515163369199</v>
       </c>
       <c r="GD3">
-        <v>755.1228802635493</v>
-      </c>
-      <c r="GE3">
-        <v>728.9373226831434</v>
-      </c>
-      <c r="GF3">
-        <v>931.1662898353761</v>
-      </c>
-      <c r="GG3">
-        <v>1950.731718845303</v>
-      </c>
-      <c r="GH3">
-        <v>2124.463890966874</v>
-      </c>
-      <c r="GI3">
-        <v>1950.058763805771</v>
-      </c>
-      <c r="GJ3">
-        <v>1905.322004589864</v>
+        <v>1795.30596429027</v>
       </c>
     </row>
-    <row r="4" spans="1:192">
+    <row r="4" spans="1:186">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2630,58 +2576,40 @@
         <v>282.6550824726456</v>
       </c>
       <c r="FT4">
-        <v>1665.829379322268</v>
+        <v>673.3161107358331</v>
       </c>
       <c r="FU4">
+        <v>877.5231089987452</v>
+      </c>
+      <c r="FV4">
+        <v>1932.709572099754</v>
+      </c>
+      <c r="FW4">
+        <v>1981.974322024073</v>
+      </c>
+      <c r="FX4">
+        <v>391.4627581450533</v>
+      </c>
+      <c r="FY4">
+        <v>460.4628766475249</v>
+      </c>
+      <c r="FZ4">
         <v>1610.041559023887</v>
       </c>
-      <c r="FV4">
-        <v>460.4628766475249</v>
-      </c>
-      <c r="FW4">
-        <v>1932.709572099754</v>
-      </c>
-      <c r="FX4">
-        <v>2024.888818863039</v>
-      </c>
-      <c r="FY4">
-        <v>1981.974322024073</v>
-      </c>
-      <c r="FZ4">
-        <v>48.52453190639622</v>
-      </c>
       <c r="GA4">
-        <v>104.9755709700557</v>
+        <v>1457.547999795097</v>
       </c>
       <c r="GB4">
-        <v>2343.59718120381</v>
+        <v>199.6005562192649</v>
       </c>
       <c r="GC4">
-        <v>590.7857273641202</v>
+        <v>213.5099881928784</v>
       </c>
       <c r="GD4">
-        <v>656.4745201168741</v>
-      </c>
-      <c r="GE4">
-        <v>702.745272549371</v>
-      </c>
-      <c r="GF4">
-        <v>915.1102394549946</v>
-      </c>
-      <c r="GG4">
-        <v>1883.297334215124</v>
-      </c>
-      <c r="GH4">
-        <v>2050.491469429438</v>
-      </c>
-      <c r="GI4">
-        <v>1900.568155380594</v>
-      </c>
-      <c r="GJ4">
-        <v>1850.040905951078</v>
+        <v>1743.889382626035</v>
       </c>
     </row>
-    <row r="5" spans="1:192">
+    <row r="5" spans="1:186">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3208,58 +3136,40 @@
         <v>165.3961363034745</v>
       </c>
       <c r="FT5">
-        <v>1597.525490497403</v>
+        <v>499.2088224803979</v>
       </c>
       <c r="FU5">
+        <v>697.9261230434553</v>
+      </c>
+      <c r="FV5">
+        <v>1747.00521286878</v>
+      </c>
+      <c r="FW5">
+        <v>1847.575466782786</v>
+      </c>
+      <c r="FX5">
+        <v>527.2555201512421</v>
+      </c>
+      <c r="FY5">
+        <v>610.8356810933979</v>
+      </c>
+      <c r="FZ5">
         <v>1540.818703126225</v>
       </c>
-      <c r="FV5">
-        <v>610.8356810933979</v>
-      </c>
-      <c r="FW5">
-        <v>1747.00521286878</v>
-      </c>
-      <c r="FX5">
-        <v>1839.078122869549</v>
-      </c>
-      <c r="FY5">
-        <v>1847.575466782786</v>
-      </c>
-      <c r="FZ5">
-        <v>179.098847799536</v>
-      </c>
       <c r="GA5">
-        <v>81.70689301203285</v>
+        <v>1287.057905047885</v>
       </c>
       <c r="GB5">
-        <v>2164.134504508932</v>
+        <v>202.9037667854153</v>
       </c>
       <c r="GC5">
-        <v>678.7241630073122</v>
+        <v>241.2268020071976</v>
       </c>
       <c r="GD5">
-        <v>747.3138675118208</v>
-      </c>
-      <c r="GE5">
-        <v>564.1498537918088</v>
-      </c>
-      <c r="GF5">
-        <v>762.3033966283332</v>
-      </c>
-      <c r="GG5">
-        <v>1818.442153564975</v>
-      </c>
-      <c r="GH5">
-        <v>2002.557432959212</v>
-      </c>
-      <c r="GI5">
-        <v>1796.834409459851</v>
-      </c>
-      <c r="GJ5">
-        <v>1757.771875923759</v>
+        <v>1644.124953362366</v>
       </c>
     </row>
-    <row r="6" spans="1:192">
+    <row r="6" spans="1:186">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3786,58 +3696,40 @@
         <v>308.9697075534158</v>
       </c>
       <c r="FT6">
-        <v>1676.410385144314</v>
+        <v>704.2033245577431</v>
       </c>
       <c r="FU6">
+        <v>909.2927278698656</v>
+      </c>
+      <c r="FV6">
+        <v>1966.356178939537</v>
+      </c>
+      <c r="FW6">
+        <v>2004.435505640418</v>
+      </c>
+      <c r="FX6">
+        <v>368.2980322688836</v>
+      </c>
+      <c r="FY6">
+        <v>433.4175883183877</v>
+      </c>
+      <c r="FZ6">
         <v>1620.858236866926</v>
       </c>
-      <c r="FV6">
-        <v>433.4175883183877</v>
-      </c>
-      <c r="FW6">
-        <v>1966.356178939537</v>
-      </c>
-      <c r="FX6">
-        <v>2058.48544681988</v>
-      </c>
-      <c r="FY6">
-        <v>2004.435505640418</v>
-      </c>
-      <c r="FZ6">
-        <v>63.1436218408767</v>
-      </c>
       <c r="GA6">
-        <v>138.2078322678896</v>
+        <v>1487.212085563108</v>
       </c>
       <c r="GB6">
-        <v>2377.05705330035</v>
+        <v>220.0126786021348</v>
       </c>
       <c r="GC6">
-        <v>576.0318945452501</v>
+        <v>228.7657657151987</v>
       </c>
       <c r="GD6">
-        <v>640.6616920557194</v>
-      </c>
-      <c r="GE6">
-        <v>727.6805321103533</v>
-      </c>
-      <c r="GF6">
-        <v>941.9094668858282</v>
-      </c>
-      <c r="GG6">
-        <v>1893.019039457731</v>
-      </c>
-      <c r="GH6">
-        <v>2056.980738633294</v>
-      </c>
-      <c r="GI6">
-        <v>1917.381932143699</v>
-      </c>
-      <c r="GJ6">
-        <v>1864.79367793904</v>
+        <v>1760.107068229698</v>
       </c>
     </row>
-    <row r="7" spans="1:192">
+    <row r="7" spans="1:186">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4364,58 +4256,40 @@
         <v>548.8862333947122</v>
       </c>
       <c r="FT7">
-        <v>1851.833178563258</v>
+        <v>947.1368700667886</v>
       </c>
       <c r="FU7">
+        <v>1151.484563268337</v>
+      </c>
+      <c r="FV7">
+        <v>2196.183169056604</v>
+      </c>
+      <c r="FW7">
+        <v>2229.635049283246</v>
+      </c>
+      <c r="FX7">
+        <v>377.85605917513</v>
+      </c>
+      <c r="FY7">
+        <v>387.5077091653985</v>
+      </c>
+      <c r="FZ7">
         <v>1797.757767487578</v>
       </c>
-      <c r="FV7">
-        <v>387.5077091653985</v>
-      </c>
-      <c r="FW7">
-        <v>2196.183169056604</v>
-      </c>
-      <c r="FX7">
-        <v>2289.471232506734</v>
-      </c>
-      <c r="FY7">
-        <v>2229.635049283246</v>
-      </c>
-      <c r="FZ7">
-        <v>301.454836136403</v>
-      </c>
       <c r="GA7">
-        <v>377.8427890556344</v>
+        <v>1729.787059622296</v>
       </c>
       <c r="GB7">
-        <v>2586.092919593492</v>
+        <v>370.5135838068735</v>
       </c>
       <c r="GC7">
-        <v>625.8757881298391</v>
+        <v>351.0191614855198</v>
       </c>
       <c r="GD7">
-        <v>677.1612146506974</v>
-      </c>
-      <c r="GE7">
-        <v>962.7877270615228</v>
-      </c>
-      <c r="GF7">
-        <v>1180.510530555955</v>
-      </c>
-      <c r="GG7">
-        <v>2063.015603475425</v>
-      </c>
-      <c r="GH7">
-        <v>2209.021175551898</v>
-      </c>
-      <c r="GI7">
-        <v>2120.809117748343</v>
-      </c>
-      <c r="GJ7">
-        <v>2059.264694593553</v>
+        <v>1961.430438226987</v>
       </c>
     </row>
-    <row r="8" spans="1:192">
+    <row r="8" spans="1:186">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4942,58 +4816,40 @@
         <v>306.537003760296</v>
       </c>
       <c r="FT8">
-        <v>1709.137055494012</v>
+        <v>680.1165221285653</v>
       </c>
       <c r="FU8">
+        <v>879.8650864082769</v>
+      </c>
+      <c r="FV8">
+        <v>1919.676910196227</v>
+      </c>
+      <c r="FW8">
+        <v>2008.879832023911</v>
+      </c>
+      <c r="FX8">
+        <v>440.6322541697126</v>
+      </c>
+      <c r="FY8">
+        <v>505.4998868973768</v>
+      </c>
+      <c r="FZ8">
         <v>1653.135236689358</v>
       </c>
-      <c r="FV8">
-        <v>505.4998868973768</v>
-      </c>
-      <c r="FW8">
-        <v>1919.676910196227</v>
-      </c>
-      <c r="FX8">
-        <v>2012.712511341386</v>
-      </c>
-      <c r="FY8">
-        <v>2008.879832023911</v>
-      </c>
-      <c r="FZ8">
-        <v>99.39226586560058</v>
-      </c>
       <c r="GA8">
-        <v>111.3197780655546</v>
+        <v>1467.346937524479</v>
       </c>
       <c r="GB8">
-        <v>2319.61347546458</v>
+        <v>147.8863512531137</v>
       </c>
       <c r="GC8">
-        <v>644.2130473318587</v>
+        <v>159.7350590444235</v>
       </c>
       <c r="GD8">
-        <v>709.6483764838441</v>
-      </c>
-      <c r="GE8">
-        <v>726.2730542939534</v>
-      </c>
-      <c r="GF8">
-        <v>933.7917641860695</v>
-      </c>
-      <c r="GG8">
-        <v>1927.371679212307</v>
-      </c>
-      <c r="GH8">
-        <v>2097.351073459678</v>
-      </c>
-      <c r="GI8">
-        <v>1936.491288072117</v>
-      </c>
-      <c r="GJ8">
-        <v>1888.657378096292</v>
+        <v>1780.678214543751</v>
       </c>
     </row>
-    <row r="9" spans="1:192">
+    <row r="9" spans="1:186">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5520,58 +5376,40 @@
         <v>197.8680961078175</v>
       </c>
       <c r="FT9">
-        <v>1617.033210667203</v>
+        <v>571.4066360677692</v>
       </c>
       <c r="FU9">
+        <v>773.8630236214317</v>
+      </c>
+      <c r="FV9">
+        <v>1828.555686020546</v>
+      </c>
+      <c r="FW9">
+        <v>1899.252435369556</v>
+      </c>
+      <c r="FX9">
+        <v>457.9387294737518</v>
+      </c>
+      <c r="FY9">
+        <v>537.4895962142388</v>
+      </c>
+      <c r="FZ9">
         <v>1560.673370672326</v>
       </c>
-      <c r="FV9">
-        <v>537.4895962142388</v>
-      </c>
-      <c r="FW9">
-        <v>1828.555686020546</v>
-      </c>
-      <c r="FX9">
-        <v>1920.521242129814</v>
-      </c>
-      <c r="FY9">
-        <v>1899.252435369556</v>
-      </c>
-      <c r="FZ9">
-        <v>99.23882736766056</v>
-      </c>
       <c r="GA9">
-        <v>0</v>
+        <v>1357.63488616813</v>
       </c>
       <c r="GB9">
-        <v>2244.737232545102</v>
+        <v>187.7851822273068</v>
       </c>
       <c r="GC9">
-        <v>627.565412719794</v>
+        <v>218.6756974474958</v>
       </c>
       <c r="GD9">
-        <v>695.5390206533834</v>
-      </c>
-      <c r="GE9">
-        <v>615.9107326488017</v>
-      </c>
-      <c r="GF9">
-        <v>822.4893969617166</v>
-      </c>
-      <c r="GG9">
-        <v>1836.620944154725</v>
-      </c>
-      <c r="GH9">
-        <v>2013.151774378297</v>
-      </c>
-      <c r="GI9">
-        <v>1833.371185171114</v>
-      </c>
-      <c r="GJ9">
-        <v>1788.771287495631</v>
+        <v>1678.599542237891</v>
       </c>
     </row>
-    <row r="10" spans="1:192">
+    <row r="10" spans="1:186">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6098,58 +5936,40 @@
         <v>1461.595377865535</v>
       </c>
       <c r="FT10">
-        <v>2563.869523305822</v>
+        <v>1303.122918080846</v>
       </c>
       <c r="FU10">
+        <v>1242.425097351728</v>
+      </c>
+      <c r="FV10">
+        <v>1251.176878418219</v>
+      </c>
+      <c r="FW10">
+        <v>2365.808848096005</v>
+      </c>
+      <c r="FX10">
+        <v>1888.594557402108</v>
+      </c>
+      <c r="FY10">
+        <v>1961.523354543054</v>
+      </c>
+      <c r="FZ10">
         <v>2511.266390825244</v>
       </c>
-      <c r="FV10">
-        <v>1961.523354543054</v>
-      </c>
-      <c r="FW10">
-        <v>1251.176878418219</v>
-      </c>
-      <c r="FX10">
-        <v>1336.588823072665</v>
-      </c>
-      <c r="FY10">
-        <v>2365.808848096005</v>
-      </c>
-      <c r="FZ10">
-        <v>1523.750008170714</v>
-      </c>
       <c r="GA10">
-        <v>1431.964524849627</v>
+        <v>1579.844712103981</v>
       </c>
       <c r="GB10">
-        <v>1240.422206834747</v>
+        <v>1316.43994256565</v>
       </c>
       <c r="GC10">
-        <v>2045.5216898217</v>
+        <v>1323.476725275711</v>
       </c>
       <c r="GD10">
-        <v>2114.178435691585</v>
-      </c>
-      <c r="GE10">
-        <v>1531.317418513182</v>
-      </c>
-      <c r="GF10">
-        <v>1524.48299480178</v>
-      </c>
-      <c r="GG10">
-        <v>2772.068180823187</v>
-      </c>
-      <c r="GH10">
-        <v>3011.392994735686</v>
-      </c>
-      <c r="GI10">
-        <v>2547.459003920119</v>
-      </c>
-      <c r="GJ10">
-        <v>2581.849174696022</v>
+        <v>2444.669948481261</v>
       </c>
     </row>
-    <row r="11" spans="1:192">
+    <row r="11" spans="1:186">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6676,58 +6496,40 @@
         <v>1283.993057924355</v>
       </c>
       <c r="FT11">
-        <v>2403.630782641907</v>
+        <v>1130.785046188998</v>
       </c>
       <c r="FU11">
+        <v>1080.165273336332</v>
+      </c>
+      <c r="FV11">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="FW11">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="FX11">
+        <v>1714.717925323395</v>
+      </c>
+      <c r="FY11">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="FZ11">
         <v>2350.372934179823</v>
       </c>
-      <c r="FV11">
-        <v>1789.055123291982</v>
-      </c>
-      <c r="FW11">
-        <v>1218.467442353749</v>
-      </c>
-      <c r="FX11">
-        <v>1309.666653667009</v>
-      </c>
-      <c r="FY11">
-        <v>2239.32858767394</v>
-      </c>
-      <c r="FZ11">
-        <v>1350.154048710479</v>
-      </c>
       <c r="GA11">
-        <v>1257.416923004291</v>
+        <v>1454.961215984152</v>
       </c>
       <c r="GB11">
-        <v>1294.431249717264</v>
+        <v>1147.029781521533</v>
       </c>
       <c r="GC11">
-        <v>1868.74034593594</v>
+        <v>1155.888266734348</v>
       </c>
       <c r="GD11">
-        <v>1937.377589476593</v>
-      </c>
-      <c r="GE11">
-        <v>1358.995803506446</v>
-      </c>
-      <c r="GF11">
-        <v>1361.051770185596</v>
-      </c>
-      <c r="GG11">
-        <v>2614.11063290799</v>
-      </c>
-      <c r="GH11">
-        <v>2850.842611271256</v>
-      </c>
-      <c r="GI11">
-        <v>2403.050632691989</v>
-      </c>
-      <c r="GJ11">
-        <v>2431.981251108199</v>
+        <v>2295.2138595336</v>
       </c>
     </row>
-    <row r="12" spans="1:192">
+    <row r="12" spans="1:186">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7254,58 +7056,40 @@
         <v>1106.041669761432</v>
       </c>
       <c r="FT12">
-        <v>2335.52195691239</v>
+        <v>1028.115447778283</v>
       </c>
       <c r="FU12">
+        <v>1026.307630097036</v>
+      </c>
+      <c r="FV12">
+        <v>1395.402470239412</v>
+      </c>
+      <c r="FW12">
+        <v>2260.70604099593</v>
+      </c>
+      <c r="FX12">
+        <v>1502.452644126769</v>
+      </c>
+      <c r="FY12">
+        <v>1570.892275923546</v>
+      </c>
+      <c r="FZ12">
         <v>2280.410207953933</v>
       </c>
-      <c r="FV12">
-        <v>1570.892275923546</v>
-      </c>
-      <c r="FW12">
-        <v>1395.402470239412</v>
-      </c>
-      <c r="FX12">
-        <v>1490.720659985896</v>
-      </c>
-      <c r="FY12">
-        <v>2260.70604099593</v>
-      </c>
-      <c r="FZ12">
-        <v>1138.218677993401</v>
-      </c>
       <c r="GA12">
-        <v>1050.775442373455</v>
+        <v>1491.294702671202</v>
       </c>
       <c r="GB12">
-        <v>1536.129149294197</v>
+        <v>921.4209671586375</v>
       </c>
       <c r="GC12">
-        <v>1674.36844081184</v>
+        <v>925.4911461607818</v>
       </c>
       <c r="GD12">
-        <v>1742.920419381339</v>
-      </c>
-      <c r="GE12">
-        <v>1251.108177023818</v>
-      </c>
-      <c r="GF12">
-        <v>1294.639847559144</v>
-      </c>
-      <c r="GG12">
-        <v>2552.12740872314</v>
-      </c>
-      <c r="GH12">
-        <v>2778.966979111794</v>
-      </c>
-      <c r="GI12">
-        <v>2381.297767416743</v>
-      </c>
-      <c r="GJ12">
-        <v>2395.392186033854</v>
+        <v>2260.885857323207</v>
       </c>
     </row>
-    <row r="13" spans="1:192">
+    <row r="13" spans="1:186">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7832,58 +7616,40 @@
         <v>1451.650000256546</v>
       </c>
       <c r="FT13">
-        <v>2699.042143774495</v>
+        <v>1392.8218207346</v>
       </c>
       <c r="FU13">
+        <v>1384.949492676528</v>
+      </c>
+      <c r="FV13">
+        <v>1588.590826010172</v>
+      </c>
+      <c r="FW13">
+        <v>2595.452956163945</v>
+      </c>
+      <c r="FX13">
+        <v>1813.336673651245</v>
+      </c>
+      <c r="FY13">
+        <v>1873.120477754921</v>
+      </c>
+      <c r="FZ13">
         <v>2644.098930450178</v>
       </c>
-      <c r="FV13">
-        <v>1873.120477754921</v>
-      </c>
-      <c r="FW13">
-        <v>1588.590826010172</v>
-      </c>
-      <c r="FX13">
-        <v>1677.29849551642</v>
-      </c>
-      <c r="FY13">
-        <v>2595.452956163945</v>
-      </c>
-      <c r="FZ13">
-        <v>1454.917409399502</v>
-      </c>
       <c r="GA13">
-        <v>1374.883506428144</v>
+        <v>1815.880191592712</v>
       </c>
       <c r="GB13">
-        <v>1593.30520647498</v>
+        <v>1225.058578820777</v>
       </c>
       <c r="GC13">
-        <v>2002.446998791217</v>
+        <v>1221.228366097184</v>
       </c>
       <c r="GD13">
-        <v>2070.389991598435</v>
-      </c>
-      <c r="GE13">
-        <v>1615.625136116528</v>
-      </c>
-      <c r="GF13">
-        <v>1656.711923014767</v>
-      </c>
-      <c r="GG13">
-        <v>2915.008064470022</v>
-      </c>
-      <c r="GH13">
-        <v>3143.034701910877</v>
-      </c>
-      <c r="GI13">
-        <v>2734.566699041752</v>
-      </c>
-      <c r="GJ13">
-        <v>2753.059610872387</v>
+        <v>2617.789898468679</v>
       </c>
     </row>
-    <row r="14" spans="1:192">
+    <row r="14" spans="1:186">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8410,58 +8176,40 @@
         <v>1385.169897549702</v>
       </c>
       <c r="FT14">
-        <v>2431.452896002509</v>
+        <v>1192.450582448278</v>
       </c>
       <c r="FU14">
+        <v>1115.342015853947</v>
+      </c>
+      <c r="FV14">
+        <v>1106.769534191074</v>
+      </c>
+      <c r="FW14">
+        <v>2214.407076819162</v>
+      </c>
+      <c r="FX14">
+        <v>1832.937200566824</v>
+      </c>
+      <c r="FY14">
+        <v>1910.649808266605</v>
+      </c>
+      <c r="FZ14">
         <v>2379.599205056869</v>
       </c>
-      <c r="FV14">
-        <v>1910.649808266605</v>
-      </c>
-      <c r="FW14">
-        <v>1106.769534191074</v>
-      </c>
-      <c r="FX14">
-        <v>1194.42517968238</v>
-      </c>
-      <c r="FY14">
-        <v>2214.407076819162</v>
-      </c>
-      <c r="FZ14">
-        <v>1470.138136848547</v>
-      </c>
       <c r="GA14">
-        <v>1375.042543017223</v>
+        <v>1428.627021511098</v>
       </c>
       <c r="GB14">
-        <v>1143.613443978647</v>
+        <v>1276.35468882189</v>
       </c>
       <c r="GC14">
-        <v>1975.324930865973</v>
+        <v>1287.938809876874</v>
       </c>
       <c r="GD14">
-        <v>2043.707861358251</v>
-      </c>
-      <c r="GE14">
-        <v>1419.578984054196</v>
-      </c>
-      <c r="GF14">
-        <v>1397.659915392636</v>
-      </c>
-      <c r="GG14">
-        <v>2637.206598530656</v>
-      </c>
-      <c r="GH14">
-        <v>2878.914597698607</v>
-      </c>
-      <c r="GI14">
-        <v>2403.052588043231</v>
-      </c>
-      <c r="GJ14">
-        <v>2440.728438971725</v>
+        <v>2303.392702484089</v>
       </c>
     </row>
-    <row r="15" spans="1:192">
+    <row r="15" spans="1:186">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8988,58 +8736,40 @@
         <v>1288.114482973389</v>
       </c>
       <c r="FT15">
-        <v>2505.62259417016</v>
+        <v>1203.515436496665</v>
       </c>
       <c r="FU15">
+        <v>1188.897363283744</v>
+      </c>
+      <c r="FV15">
+        <v>1434.550270512337</v>
+      </c>
+      <c r="FW15">
+        <v>2398.975878132381</v>
+      </c>
+      <c r="FX15">
+        <v>1677.072298399954</v>
+      </c>
+      <c r="FY15">
+        <v>1743.014913195684</v>
+      </c>
+      <c r="FZ15">
         <v>2450.927920782348</v>
       </c>
-      <c r="FV15">
-        <v>1743.014913195684</v>
-      </c>
-      <c r="FW15">
-        <v>1434.550270512337</v>
-      </c>
-      <c r="FX15">
-        <v>1526.345532721647</v>
-      </c>
-      <c r="FY15">
-        <v>2398.975878132381</v>
-      </c>
-      <c r="FZ15">
-        <v>1313.911576860108</v>
-      </c>
       <c r="GA15">
-        <v>1228.359078927705</v>
+        <v>1620.746114676799</v>
       </c>
       <c r="GB15">
-        <v>1500.132893479447</v>
+        <v>1092.389293647842</v>
       </c>
       <c r="GC15">
-        <v>1853.631165900631</v>
+        <v>1093.757138356614</v>
       </c>
       <c r="GD15">
-        <v>1922.090143825416</v>
-      </c>
-      <c r="GE15">
-        <v>1428.226764423665</v>
-      </c>
-      <c r="GF15">
-        <v>1462.234838194722</v>
-      </c>
-      <c r="GG15">
-        <v>2720.820317754146</v>
-      </c>
-      <c r="GH15">
-        <v>2950.414248470104</v>
-      </c>
-      <c r="GI15">
-        <v>2537.096249021145</v>
-      </c>
-      <c r="GJ15">
-        <v>2556.298596473085</v>
+        <v>2420.866234351441</v>
       </c>
     </row>
-    <row r="16" spans="1:192">
+    <row r="16" spans="1:186">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9566,58 +9296,40 @@
         <v>1161.18728233045</v>
       </c>
       <c r="FT16">
-        <v>2279.877229000772</v>
+        <v>1003.126918658868</v>
       </c>
       <c r="FU16">
+        <v>956.3522255744746</v>
+      </c>
+      <c r="FV16">
+        <v>1183.117354132929</v>
+      </c>
+      <c r="FW16">
+        <v>2134.260049088228</v>
+      </c>
+      <c r="FX16">
+        <v>1599.881043041219</v>
+      </c>
+      <c r="FY16">
+        <v>1676.360469784923</v>
+      </c>
+      <c r="FZ16">
         <v>2226.348730157236</v>
       </c>
-      <c r="FV16">
-        <v>1676.360469784923</v>
-      </c>
-      <c r="FW16">
-        <v>1183.117354132929</v>
-      </c>
-      <c r="FX16">
-        <v>1277.430589188046</v>
-      </c>
-      <c r="FY16">
-        <v>2134.260049088228</v>
-      </c>
-      <c r="FZ16">
-        <v>1236.22766001853</v>
-      </c>
       <c r="GA16">
-        <v>1141.983114217654</v>
+        <v>1352.750260845459</v>
       </c>
       <c r="GB16">
-        <v>1320.539983813022</v>
+        <v>1040.073191091923</v>
       </c>
       <c r="GC16">
-        <v>1748.256870052213</v>
+        <v>1051.495253183818</v>
       </c>
       <c r="GD16">
-        <v>1816.820651393493</v>
-      </c>
-      <c r="GE16">
-        <v>1231.315804510532</v>
-      </c>
-      <c r="GF16">
-        <v>1236.384024111043</v>
-      </c>
-      <c r="GG16">
-        <v>2491.320606090801</v>
-      </c>
-      <c r="GH16">
-        <v>2726.840943120852</v>
-      </c>
-      <c r="GI16">
-        <v>2287.298067835753</v>
-      </c>
-      <c r="GJ16">
-        <v>2313.268885826156</v>
+        <v>2176.803984931717</v>
       </c>
     </row>
-    <row r="17" spans="1:192">
+    <row r="17" spans="1:186">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10144,58 +9856,40 @@
         <v>686.4379173447376</v>
       </c>
       <c r="FT17">
-        <v>2021.835577215545</v>
+        <v>720.4183374683221</v>
       </c>
       <c r="FU17">
+        <v>801.5514813403561</v>
+      </c>
+      <c r="FV17">
+        <v>1536.110224681321</v>
+      </c>
+      <c r="FW17">
+        <v>2083.014961580369</v>
+      </c>
+      <c r="FX17">
+        <v>1059.874369782147</v>
+      </c>
+      <c r="FY17">
+        <v>1128.494047953592</v>
+      </c>
+      <c r="FZ17">
         <v>1965.213608276392</v>
       </c>
-      <c r="FV17">
-        <v>1128.494047953592</v>
-      </c>
-      <c r="FW17">
-        <v>1536.110224681321</v>
-      </c>
-      <c r="FX17">
-        <v>1634.085778992515</v>
-      </c>
-      <c r="FY17">
-        <v>2083.014961580369</v>
-      </c>
-      <c r="FZ17">
-        <v>695.9618825238166</v>
-      </c>
       <c r="GA17">
-        <v>610.3375676367474</v>
+        <v>1372.896696281221</v>
       </c>
       <c r="GB17">
-        <v>1818.722895897162</v>
+        <v>480.4001466292172</v>
       </c>
       <c r="GC17">
-        <v>1236.734958500635</v>
+        <v>487.5390549173537</v>
       </c>
       <c r="GD17">
-        <v>1305.033097683272</v>
-      </c>
-      <c r="GE17">
-        <v>916.9498108633721</v>
-      </c>
-      <c r="GF17">
-        <v>1021.670178283663</v>
-      </c>
-      <c r="GG17">
-        <v>2243.178912084728</v>
-      </c>
-      <c r="GH17">
-        <v>2453.850993413474</v>
-      </c>
-      <c r="GI17">
-        <v>2133.141934794864</v>
-      </c>
-      <c r="GJ17">
-        <v>2124.98235970279</v>
+        <v>1996.727149616185</v>
       </c>
     </row>
-    <row r="18" spans="1:192">
+    <row r="18" spans="1:186">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10722,58 +10416,40 @@
         <v>868.9621989519748</v>
       </c>
       <c r="FT18">
-        <v>2121.752481625512</v>
+        <v>808.8349635549422</v>
       </c>
       <c r="FU18">
+        <v>833.5982225201572</v>
+      </c>
+      <c r="FV18">
+        <v>1389.159077644704</v>
+      </c>
+      <c r="FW18">
+        <v>2098.390007109119</v>
+      </c>
+      <c r="FX18">
+        <v>1275.463219937366</v>
+      </c>
+      <c r="FY18">
+        <v>1347.474124890846</v>
+      </c>
+      <c r="FZ18">
         <v>2066.02870245886</v>
       </c>
-      <c r="FV18">
-        <v>1347.474124890846</v>
-      </c>
-      <c r="FW18">
-        <v>1389.159077644704</v>
-      </c>
-      <c r="FX18">
-        <v>1486.963725990395</v>
-      </c>
-      <c r="FY18">
-        <v>2098.390007109119</v>
-      </c>
-      <c r="FZ18">
-        <v>910.5419699719354</v>
-      </c>
       <c r="GA18">
-        <v>820.3034629527569</v>
+        <v>1349.698871374432</v>
       </c>
       <c r="GB18">
-        <v>1621.796709564227</v>
+        <v>703.2440309269052</v>
       </c>
       <c r="GC18">
-        <v>1440.55304358981</v>
+        <v>712.178141599196</v>
       </c>
       <c r="GD18">
-        <v>1509.189077046485</v>
-      </c>
-      <c r="GE18">
-        <v>1027.030092031112</v>
-      </c>
-      <c r="GF18">
-        <v>1089.132208928731</v>
-      </c>
-      <c r="GG18">
-        <v>2340.361057865743</v>
-      </c>
-      <c r="GH18">
-        <v>2562.348189220264</v>
-      </c>
-      <c r="GI18">
-        <v>2190.871712742312</v>
-      </c>
-      <c r="GJ18">
-        <v>2196.693523099132</v>
+        <v>2064.070963470615</v>
       </c>
     </row>
-    <row r="19" spans="1:192">
+    <row r="19" spans="1:186">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11300,58 +10976,40 @@
         <v>658.3316503717103</v>
       </c>
       <c r="FT19">
-        <v>2013.879102603183</v>
+        <v>721.1558871903726</v>
       </c>
       <c r="FU19">
+        <v>815.1395337188051</v>
+      </c>
+      <c r="FV19">
+        <v>1579.772104975718</v>
+      </c>
+      <c r="FW19">
+        <v>2095.174022367706</v>
+      </c>
+      <c r="FX19">
+        <v>1016.982755054867</v>
+      </c>
+      <c r="FY19">
+        <v>1083.841148785195</v>
+      </c>
+      <c r="FZ19">
         <v>1957.114991127318</v>
       </c>
-      <c r="FV19">
-        <v>1083.841148785195</v>
-      </c>
-      <c r="FW19">
-        <v>1579.772104975718</v>
-      </c>
-      <c r="FX19">
-        <v>1677.665673147177</v>
-      </c>
-      <c r="FY19">
-        <v>2095.174022367706</v>
-      </c>
-      <c r="FZ19">
-        <v>654.2312485046209</v>
-      </c>
       <c r="GA19">
-        <v>571.2230613736709</v>
+        <v>1394.923214008804</v>
       </c>
       <c r="GB19">
-        <v>1868.663518865395</v>
+        <v>434.1712043477953</v>
       </c>
       <c r="GC19">
-        <v>1198.648318952709</v>
+        <v>439.550834010808</v>
       </c>
       <c r="GD19">
-        <v>1266.723121638404</v>
-      </c>
-      <c r="GE19">
-        <v>909.9732479109359</v>
-      </c>
-      <c r="GF19">
-        <v>1025.079878518906</v>
-      </c>
-      <c r="GG19">
-        <v>2235.615280158841</v>
-      </c>
-      <c r="GH19">
-        <v>2443.129762339899</v>
-      </c>
-      <c r="GI19">
-        <v>2135.47063801248</v>
-      </c>
-      <c r="GJ19">
-        <v>2123.946954117129</v>
+        <v>1996.959444229212</v>
       </c>
     </row>
-    <row r="20" spans="1:192">
+    <row r="20" spans="1:186">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11878,58 +11536,40 @@
         <v>956.5093385149976</v>
       </c>
       <c r="FT20">
-        <v>2318.164474447262</v>
+        <v>1016.696908092594</v>
       </c>
       <c r="FU20">
+        <v>1086.210322822976</v>
+      </c>
+      <c r="FV20">
+        <v>1689.527138201934</v>
+      </c>
+      <c r="FW20">
+        <v>2366.113040668501</v>
+      </c>
+      <c r="FX20">
+        <v>1265.435235714879</v>
+      </c>
+      <c r="FY20">
+        <v>1319.991280714714</v>
+      </c>
+      <c r="FZ20">
         <v>2261.487857708213</v>
       </c>
-      <c r="FV20">
-        <v>1319.991280714714</v>
-      </c>
-      <c r="FW20">
-        <v>1689.527138201934</v>
-      </c>
-      <c r="FX20">
-        <v>1786.969464329949</v>
-      </c>
-      <c r="FY20">
-        <v>2366.113040668501</v>
-      </c>
-      <c r="FZ20">
-        <v>915.7730427140643</v>
-      </c>
       <c r="GA20">
-        <v>845.3934777642298</v>
+        <v>1636.395277564387</v>
       </c>
       <c r="GB20">
-        <v>1882.042790668936</v>
+        <v>679.7543790359791</v>
       </c>
       <c r="GC20">
-        <v>1467.977990851022</v>
+        <v>670.8530319688959</v>
       </c>
       <c r="GD20">
-        <v>1534.671686042396</v>
-      </c>
-      <c r="GE20">
-        <v>1213.419476258185</v>
-      </c>
-      <c r="GF20">
-        <v>1316.300951584956</v>
-      </c>
-      <c r="GG20">
-        <v>2539.649901560838</v>
-      </c>
-      <c r="GH20">
-        <v>2748.854775131857</v>
-      </c>
-      <c r="GI20">
-        <v>2427.756210455635</v>
-      </c>
-      <c r="GJ20">
-        <v>2421.315158945148</v>
+        <v>2292.571891080082</v>
       </c>
     </row>
-    <row r="21" spans="1:192">
+    <row r="21" spans="1:186">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12456,58 +12096,40 @@
         <v>892.5508738987196</v>
       </c>
       <c r="FT21">
-        <v>2224.54721714387</v>
+        <v>916.2421544640426</v>
       </c>
       <c r="FU21">
+        <v>974.857789362021</v>
+      </c>
+      <c r="FV21">
+        <v>1578.403135778178</v>
+      </c>
+      <c r="FW21">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="FX21">
+        <v>1240.058169763844</v>
+      </c>
+      <c r="FY21">
+        <v>1301.804540031623</v>
+      </c>
+      <c r="FZ21">
         <v>2168.092466597079</v>
       </c>
-      <c r="FV21">
-        <v>1301.804540031623</v>
-      </c>
-      <c r="FW21">
-        <v>1578.403135778178</v>
-      </c>
-      <c r="FX21">
-        <v>1676.09737462393</v>
-      </c>
-      <c r="FY21">
-        <v>2252.672164175856</v>
-      </c>
-      <c r="FZ21">
-        <v>881.1203375670574</v>
-      </c>
       <c r="GA21">
-        <v>802.1963637003975</v>
+        <v>1518.726898973712</v>
       </c>
       <c r="GB21">
-        <v>1791.333238778456</v>
+        <v>652.0766875097041</v>
       </c>
       <c r="GC21">
-        <v>1429.589506819375</v>
+        <v>650.2283001474188</v>
       </c>
       <c r="GD21">
-        <v>1497.338919718324</v>
-      </c>
-      <c r="GE21">
-        <v>1120.10535031013</v>
-      </c>
-      <c r="GF21">
-        <v>1211.946953250025</v>
-      </c>
-      <c r="GG21">
-        <v>2445.390491320444</v>
-      </c>
-      <c r="GH21">
-        <v>2658.767461153329</v>
-      </c>
-      <c r="GI21">
-        <v>2322.367432356157</v>
-      </c>
-      <c r="GJ21">
-        <v>2319.398061715976</v>
+        <v>2189.431624620642</v>
       </c>
     </row>
-    <row r="22" spans="1:192">
+    <row r="22" spans="1:186">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13034,58 +12656,40 @@
         <v>844.0987264833343</v>
       </c>
       <c r="FT22">
-        <v>2159.38352421807</v>
+        <v>849.0479585273794</v>
       </c>
       <c r="FU22">
+        <v>903.7920720149059</v>
+      </c>
+      <c r="FV22">
+        <v>1521.801904484974</v>
+      </c>
+      <c r="FW22">
+        <v>2181.129490787039</v>
+      </c>
+      <c r="FX22">
+        <v>1211.974803267944</v>
+      </c>
+      <c r="FY22">
+        <v>1277.658653156077</v>
+      </c>
+      <c r="FZ22">
         <v>2103.040243106572</v>
       </c>
-      <c r="FV22">
-        <v>1277.658653156077</v>
-      </c>
-      <c r="FW22">
-        <v>1521.801904484974</v>
-      </c>
-      <c r="FX22">
-        <v>1619.692114480247</v>
-      </c>
-      <c r="FY22">
-        <v>2181.129490787039</v>
-      </c>
-      <c r="FZ22">
-        <v>849.5916606544675</v>
-      </c>
       <c r="GA22">
-        <v>766.2846397826282</v>
+        <v>1447.372454793094</v>
       </c>
       <c r="GB22">
-        <v>1752.997237725009</v>
+        <v>627.1145873979671</v>
       </c>
       <c r="GC22">
-        <v>1393.455016447605</v>
+        <v>629.5586374117785</v>
       </c>
       <c r="GD22">
-        <v>1461.62513993125</v>
-      </c>
-      <c r="GE22">
-        <v>1055.794126046708</v>
-      </c>
-      <c r="GF22">
-        <v>1142.964825926888</v>
-      </c>
-      <c r="GG22">
-        <v>2379.898214048765</v>
-      </c>
-      <c r="GH22">
-        <v>2594.979889346879</v>
-      </c>
-      <c r="GI22">
-        <v>2252.761725222908</v>
-      </c>
-      <c r="GJ22">
-        <v>2250.968703903236</v>
+        <v>2120.593147051139</v>
       </c>
     </row>
-    <row r="23" spans="1:192">
+    <row r="23" spans="1:186">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13612,58 +13216,40 @@
         <v>830.286949905208</v>
       </c>
       <c r="FT23">
-        <v>2124.931284411812</v>
+        <v>812.5093184418628</v>
       </c>
       <c r="FU23">
+        <v>859.1409611512249</v>
+      </c>
+      <c r="FV23">
+        <v>1470.610743846127</v>
+      </c>
+      <c r="FW23">
+        <v>2134.238381606189</v>
+      </c>
+      <c r="FX23">
+        <v>1215.345112438585</v>
+      </c>
+      <c r="FY23">
+        <v>1284.036587173867</v>
+      </c>
+      <c r="FZ23">
         <v>2068.759293323599</v>
       </c>
-      <c r="FV23">
-        <v>1284.036587173867</v>
-      </c>
-      <c r="FW23">
-        <v>1470.610743846127</v>
-      </c>
-      <c r="FX23">
-        <v>1568.548487640524</v>
-      </c>
-      <c r="FY23">
-        <v>2134.238381606189</v>
-      </c>
-      <c r="FZ23">
-        <v>851.2143039260925</v>
-      </c>
       <c r="GA23">
-        <v>764.5462853958368</v>
+        <v>1397.170670130281</v>
       </c>
       <c r="GB23">
-        <v>1709.709762922764</v>
+        <v>635.3669778931787</v>
       </c>
       <c r="GC23">
-        <v>1389.750377095339</v>
+        <v>641.1163966592904</v>
       </c>
       <c r="GD23">
-        <v>1458.182963600162</v>
-      </c>
-      <c r="GE23">
-        <v>1023.239815973682</v>
-      </c>
-      <c r="GF23">
-        <v>1102.983863972746</v>
-      </c>
-      <c r="GG23">
-        <v>2344.929643807622</v>
-      </c>
-      <c r="GH23">
-        <v>2562.253103044602</v>
-      </c>
-      <c r="GI23">
-        <v>2211.198356140704</v>
-      </c>
-      <c r="GJ23">
-        <v>2211.548208310779</v>
+        <v>2080.487881224038</v>
       </c>
     </row>
-    <row r="24" spans="1:192">
+    <row r="24" spans="1:186">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14190,58 +13776,40 @@
         <v>1837.74873619307</v>
       </c>
       <c r="FT24">
-        <v>447.5470201187202</v>
+        <v>1753.532893287725</v>
       </c>
       <c r="FU24">
+        <v>1770.689052880049</v>
+      </c>
+      <c r="FV24">
+        <v>2420.08986910537</v>
+      </c>
+      <c r="FW24">
+        <v>1070.536583284225</v>
+      </c>
+      <c r="FX24">
+        <v>1858.759991257081</v>
+      </c>
+      <c r="FY24">
+        <v>1903.382094656844</v>
+      </c>
+      <c r="FZ24">
         <v>500.4937523573565</v>
       </c>
-      <c r="FV24">
-        <v>1903.382094656844</v>
-      </c>
-      <c r="FW24">
-        <v>2420.08986910537</v>
-      </c>
-      <c r="FX24">
-        <v>2446.866642200703</v>
-      </c>
-      <c r="FY24">
-        <v>1070.536583284225</v>
-      </c>
-      <c r="FZ24">
-        <v>2001.996118426327</v>
-      </c>
       <c r="GA24">
-        <v>2013.151774378297</v>
+        <v>1591.249574041257</v>
       </c>
       <c r="GB24">
-        <v>3032.266333800138</v>
+        <v>2198.304404194826</v>
       </c>
       <c r="GC24">
-        <v>1626.32258675641</v>
+        <v>2231.61347541399</v>
       </c>
       <c r="GD24">
-        <v>1602.841400668312</v>
-      </c>
-      <c r="GE24">
-        <v>1539.239552209969</v>
-      </c>
-      <c r="GF24">
-        <v>1490.78016826052</v>
-      </c>
-      <c r="GG24">
-        <v>255.2678598206981</v>
-      </c>
-      <c r="GH24">
-        <v>0</v>
-      </c>
-      <c r="GI24">
-        <v>662.5094841507452</v>
-      </c>
-      <c r="GJ24">
-        <v>541.0783288168114</v>
+        <v>655.0590286600707</v>
       </c>
     </row>
-    <row r="25" spans="1:192">
+    <row r="25" spans="1:186">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14768,58 +14336,40 @@
         <v>1653.058975003952</v>
       </c>
       <c r="FT25">
-        <v>222.1661717212423</v>
+        <v>1532.81610406397</v>
       </c>
       <c r="FU25">
+        <v>1535.319759912854</v>
+      </c>
+      <c r="FV25">
+        <v>2165.542723992149</v>
+      </c>
+      <c r="FW25">
+        <v>845.5395286766365</v>
+      </c>
+      <c r="FX25">
+        <v>1730.440372095904</v>
+      </c>
+      <c r="FY25">
+        <v>1785.406061785597</v>
+      </c>
+      <c r="FZ25">
         <v>279.1297681198093</v>
       </c>
-      <c r="FV25">
-        <v>1785.406061785597</v>
-      </c>
-      <c r="FW25">
-        <v>2165.542723992149</v>
-      </c>
-      <c r="FX25">
-        <v>2193.316231382819</v>
-      </c>
-      <c r="FY25">
-        <v>845.5395286766365</v>
-      </c>
-      <c r="FZ25">
-        <v>1835.209116732357</v>
-      </c>
       <c r="GA25">
-        <v>1836.620944154725</v>
+        <v>1336.060138294878</v>
       </c>
       <c r="GB25">
-        <v>2777.743225316957</v>
+        <v>2018.170516050469</v>
       </c>
       <c r="GC25">
-        <v>1511.84378270692</v>
+        <v>2053.314665033363</v>
       </c>
       <c r="GD25">
-        <v>1498.138195683403</v>
-      </c>
-      <c r="GE25">
-        <v>1326.247734136045</v>
-      </c>
-      <c r="GF25">
-        <v>1258.599693951744</v>
-      </c>
-      <c r="GG25">
-        <v>0</v>
-      </c>
-      <c r="GH25">
-        <v>255.2678598206981</v>
-      </c>
-      <c r="GI25">
-        <v>434.8418642166652</v>
-      </c>
-      <c r="GJ25">
-        <v>301.2231997272007</v>
+        <v>403.1816248236352</v>
       </c>
     </row>
-    <row r="26" spans="1:192">
+    <row r="26" spans="1:186">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -15346,58 +14896,40 @@
         <v>1906.905932428755</v>
       </c>
       <c r="FT26">
-        <v>479.4083542778912</v>
+        <v>1790.067691801918</v>
       </c>
       <c r="FU26">
+        <v>1788.589441457957</v>
+      </c>
+      <c r="FV26">
+        <v>2367.239097417825</v>
+      </c>
+      <c r="FW26">
+        <v>971.7399439992511</v>
+      </c>
+      <c r="FX26">
+        <v>1962.779488937596</v>
+      </c>
+      <c r="FY26">
+        <v>2012.59800866785</v>
+      </c>
+      <c r="FZ26">
         <v>536.2752611961101</v>
       </c>
-      <c r="FV26">
-        <v>2012.59800866785</v>
-      </c>
-      <c r="FW26">
-        <v>2367.239097417825</v>
-      </c>
-      <c r="FX26">
-        <v>2388.147477045949</v>
-      </c>
-      <c r="FY26">
-        <v>971.7399439992511</v>
-      </c>
-      <c r="FZ26">
-        <v>2083.94582544947</v>
-      </c>
       <c r="GA26">
-        <v>2088.446306861457</v>
+        <v>1555.370820870623</v>
       </c>
       <c r="GB26">
-        <v>2978.161445398661</v>
+        <v>2271.150836845505</v>
       </c>
       <c r="GC26">
-        <v>1736.57327351836</v>
+        <v>2305.82214210157</v>
       </c>
       <c r="GD26">
-        <v>1717.462185776625</v>
-      </c>
-      <c r="GE26">
-        <v>1583.914020055373</v>
-      </c>
-      <c r="GF26">
-        <v>1513.553693513409</v>
-      </c>
-      <c r="GG26">
-        <v>257.6707504164244</v>
-      </c>
-      <c r="GH26">
-        <v>158.5521057776684</v>
-      </c>
-      <c r="GI26">
-        <v>577.1982863134238</v>
-      </c>
-      <c r="GJ26">
-        <v>476.7399328676094</v>
+        <v>606.7308341206729</v>
       </c>
     </row>
-    <row r="27" spans="1:192">
+    <row r="27" spans="1:186">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15924,58 +15456,40 @@
         <v>2052.249646218537</v>
       </c>
       <c r="FT27">
-        <v>620.0653365130365</v>
+        <v>1915.500710875951</v>
       </c>
       <c r="FU27">
+        <v>1900.489498072391</v>
+      </c>
+      <c r="FV27">
+        <v>2411.18382971289</v>
+      </c>
+      <c r="FW27">
+        <v>974.3678295961532</v>
+      </c>
+      <c r="FX27">
+        <v>2124.085823784338</v>
+      </c>
+      <c r="FY27">
+        <v>2175.600703077734</v>
+      </c>
+      <c r="FZ27">
         <v>676.7601827435179</v>
       </c>
-      <c r="FV27">
-        <v>2175.600703077734</v>
-      </c>
-      <c r="FW27">
-        <v>2411.18382971289</v>
-      </c>
-      <c r="FX27">
-        <v>2425.555547976002</v>
-      </c>
-      <c r="FY27">
-        <v>974.3678295961532</v>
-      </c>
-      <c r="FZ27">
-        <v>2235.643084077522</v>
-      </c>
       <c r="GA27">
-        <v>2236.720683306246</v>
+        <v>1622.126768652684</v>
       </c>
       <c r="GB27">
-        <v>3018.590927675719</v>
+        <v>2417.779177254934</v>
       </c>
       <c r="GC27">
-        <v>1900.109611806428</v>
+        <v>2453.137157164239</v>
       </c>
       <c r="GD27">
-        <v>1882.217295505593</v>
-      </c>
-      <c r="GE27">
-        <v>1715.744000549983</v>
-      </c>
-      <c r="GF27">
-        <v>1630.75306773262</v>
-      </c>
-      <c r="GG27">
-        <v>400.4450693823938</v>
-      </c>
-      <c r="GH27">
-        <v>314.270149092374</v>
-      </c>
-      <c r="GI27">
-        <v>614.3247381828302</v>
-      </c>
-      <c r="GJ27">
-        <v>545.8052549132843</v>
+        <v>682.9075949699363</v>
       </c>
     </row>
-    <row r="28" spans="1:192">
+    <row r="28" spans="1:186">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16502,58 +16016,40 @@
         <v>1330.892736939903</v>
       </c>
       <c r="FT28">
-        <v>182.0583700120018</v>
+        <v>1261.471628467883</v>
       </c>
       <c r="FU28">
+        <v>1300.473863475917</v>
+      </c>
+      <c r="FV28">
+        <v>2084.20621369875</v>
+      </c>
+      <c r="FW28">
+        <v>967.6428057527756</v>
+      </c>
+      <c r="FX28">
+        <v>1380.504830054261</v>
+      </c>
+      <c r="FY28">
+        <v>1434.496321395527</v>
+      </c>
+      <c r="FZ28">
         <v>160.0485342092437</v>
       </c>
-      <c r="FV28">
-        <v>1434.496321395527</v>
-      </c>
-      <c r="FW28">
-        <v>2084.20621369875</v>
-      </c>
-      <c r="FX28">
-        <v>2126.640698694611</v>
-      </c>
-      <c r="FY28">
-        <v>967.6428057527756</v>
-      </c>
-      <c r="FZ28">
-        <v>1499.525602972334</v>
-      </c>
       <c r="GA28">
-        <v>1507.660183563723</v>
+        <v>1235.221275231684</v>
       </c>
       <c r="GB28">
-        <v>2690.414472549051</v>
+        <v>1692.195480972903</v>
       </c>
       <c r="GC28">
-        <v>1160.798038497201</v>
+        <v>1725.883362501405</v>
       </c>
       <c r="GD28">
-        <v>1147.593213036414</v>
-      </c>
-      <c r="GE28">
-        <v>1041.598813441091</v>
-      </c>
-      <c r="GF28">
-        <v>1018.099205051659</v>
-      </c>
-      <c r="GG28">
-        <v>351.0467268281084</v>
-      </c>
-      <c r="GH28">
-        <v>506.9776580385359</v>
-      </c>
-      <c r="GI28">
-        <v>609.5914461105975</v>
-      </c>
-      <c r="GJ28">
-        <v>480.5945311358208</v>
+        <v>483.5656160875095</v>
       </c>
     </row>
-    <row r="29" spans="1:192">
+    <row r="29" spans="1:186">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -17080,58 +16576,40 @@
         <v>1258.459187385208</v>
       </c>
       <c r="FT29">
-        <v>181.4445691906978</v>
+        <v>1163.812188167267</v>
       </c>
       <c r="FU29">
+        <v>1193.416797522116</v>
+      </c>
+      <c r="FV29">
+        <v>1968.137441328871</v>
+      </c>
+      <c r="FW29">
+        <v>888.4389276463099</v>
+      </c>
+      <c r="FX29">
+        <v>1346.55360742862</v>
+      </c>
+      <c r="FY29">
+        <v>1406.954436197033</v>
+      </c>
+      <c r="FZ29">
         <v>130.0126445624274</v>
       </c>
-      <c r="FV29">
-        <v>1406.954436197033</v>
-      </c>
-      <c r="FW29">
-        <v>1968.137441328871</v>
-      </c>
-      <c r="FX29">
-        <v>2011.167358858279</v>
-      </c>
-      <c r="FY29">
-        <v>888.4389276463099</v>
-      </c>
-      <c r="FZ29">
-        <v>1439.290278709718</v>
-      </c>
       <c r="GA29">
-        <v>1440.838838198358</v>
+        <v>1119.117477497037</v>
       </c>
       <c r="GB29">
-        <v>2574.003135761803</v>
+        <v>1622.928395123208</v>
       </c>
       <c r="GC29">
-        <v>1138.2345107661</v>
+        <v>1657.819056728566</v>
       </c>
       <c r="GD29">
-        <v>1131.861504108497</v>
-      </c>
-      <c r="GE29">
-        <v>948.0664974962252</v>
-      </c>
-      <c r="GF29">
-        <v>911.2470280156339</v>
-      </c>
-      <c r="GG29">
-        <v>396.0412190156883</v>
-      </c>
-      <c r="GH29">
-        <v>591.2236252885497</v>
-      </c>
-      <c r="GI29">
-        <v>559.9627769076042</v>
-      </c>
-      <c r="GJ29">
-        <v>445.0419855380138</v>
+        <v>416.6494225194275</v>
       </c>
     </row>
-    <row r="30" spans="1:192">
+    <row r="30" spans="1:186">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -17658,58 +17136,40 @@
         <v>1284.312872648968</v>
       </c>
       <c r="FT30">
-        <v>166.5394907898786</v>
+        <v>1195.454012863854</v>
       </c>
       <c r="FU30">
+        <v>1226.797611743828</v>
+      </c>
+      <c r="FV30">
+        <v>2000.572158023802</v>
+      </c>
+      <c r="FW30">
+        <v>904.7641489351713</v>
+      </c>
+      <c r="FX30">
+        <v>1362.380319316657</v>
+      </c>
+      <c r="FY30">
+        <v>1421.0631777125</v>
+      </c>
+      <c r="FZ30">
         <v>121.5939988741015</v>
       </c>
-      <c r="FV30">
-        <v>1421.0631777125</v>
-      </c>
-      <c r="FW30">
-        <v>2000.572158023802</v>
-      </c>
-      <c r="FX30">
-        <v>2043.106763062725</v>
-      </c>
-      <c r="FY30">
-        <v>904.7641489351713</v>
-      </c>
-      <c r="FZ30">
-        <v>1462.144780143754</v>
-      </c>
       <c r="GA30">
-        <v>1465.36893650739</v>
+        <v>1151.585532993183</v>
       </c>
       <c r="GB30">
-        <v>2606.816680819979</v>
+        <v>1648.13252681184</v>
       </c>
       <c r="GC30">
-        <v>1150.749281912029</v>
+        <v>1682.734352606848</v>
       </c>
       <c r="GD30">
-        <v>1142.45556861392</v>
-      </c>
-      <c r="GE30">
-        <v>978.7619243121055</v>
-      </c>
-      <c r="GF30">
-        <v>944.5612320545896</v>
-      </c>
-      <c r="GG30">
-        <v>373.5309641255633</v>
-      </c>
-      <c r="GH30">
-        <v>561.1180486124731</v>
-      </c>
-      <c r="GI30">
-        <v>565.3997500809425</v>
-      </c>
-      <c r="GJ30">
-        <v>445.3250304458387</v>
+        <v>427.4441476670224</v>
       </c>
     </row>
-    <row r="31" spans="1:192">
+    <row r="31" spans="1:186">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18236,58 +17696,40 @@
         <v>1432.190468381216</v>
       </c>
       <c r="FT31">
-        <v>0</v>
+        <v>1313.427255105041</v>
       </c>
       <c r="FU31">
+        <v>1323.569288123069</v>
+      </c>
+      <c r="FV31">
+        <v>2015.814063468659</v>
+      </c>
+      <c r="FW31">
+        <v>808.5828555426174</v>
+      </c>
+      <c r="FX31">
+        <v>1527.635351676169</v>
+      </c>
+      <c r="FY31">
+        <v>1587.17906010864</v>
+      </c>
+      <c r="FZ31">
         <v>56.97139655378361</v>
       </c>
-      <c r="FV31">
-        <v>1587.17906010864</v>
-      </c>
-      <c r="FW31">
-        <v>2015.814063468659</v>
-      </c>
-      <c r="FX31">
-        <v>2050.972094951585</v>
-      </c>
-      <c r="FY31">
-        <v>808.5828555426174</v>
-      </c>
-      <c r="FZ31">
-        <v>1617.928285621456</v>
-      </c>
       <c r="GA31">
-        <v>1617.033210667203</v>
+        <v>1172.650846280296</v>
       </c>
       <c r="GB31">
-        <v>2626.627364680352</v>
+        <v>1797.742311158281</v>
       </c>
       <c r="GC31">
-        <v>1317.233753592191</v>
+        <v>1833.18202942154</v>
       </c>
       <c r="GD31">
-        <v>1308.920803532985</v>
-      </c>
-      <c r="GE31">
-        <v>1104.899652605855</v>
-      </c>
-      <c r="GF31">
-        <v>1044.410594452489</v>
-      </c>
-      <c r="GG31">
-        <v>222.1661717212423</v>
-      </c>
-      <c r="GH31">
-        <v>447.5470201187202</v>
-      </c>
-      <c r="GI31">
-        <v>432.5011104279552</v>
-      </c>
-      <c r="GJ31">
-        <v>299.8902878035115</v>
+        <v>321.8858831337699</v>
       </c>
     </row>
-    <row r="32" spans="1:192">
+    <row r="32" spans="1:186">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18814,58 +18256,40 @@
         <v>1375.501742849538</v>
       </c>
       <c r="FT32">
-        <v>56.97139655378361</v>
+        <v>1257.523222365614</v>
       </c>
       <c r="FU32">
+        <v>1270.210806071794</v>
+      </c>
+      <c r="FV32">
+        <v>1980.441267399269</v>
+      </c>
+      <c r="FW32">
+        <v>809.7785923858052</v>
+      </c>
+      <c r="FX32">
+        <v>1476.061013173426</v>
+      </c>
+      <c r="FY32">
+        <v>1536.888020980227</v>
+      </c>
+      <c r="FZ32">
         <v>0</v>
       </c>
-      <c r="FV32">
-        <v>1536.888020980227</v>
-      </c>
-      <c r="FW32">
-        <v>1980.441267399269</v>
-      </c>
-      <c r="FX32">
-        <v>2017.65380181623</v>
-      </c>
-      <c r="FY32">
-        <v>809.7785923858052</v>
-      </c>
-      <c r="FZ32">
-        <v>1562.197890852499</v>
-      </c>
       <c r="GA32">
-        <v>1560.673370672326</v>
+        <v>1134.765445180305</v>
       </c>
       <c r="GB32">
-        <v>2590.340308597805</v>
+        <v>1741.153487597905</v>
       </c>
       <c r="GC32">
-        <v>1268.229875752277</v>
+        <v>1776.667907392082</v>
       </c>
       <c r="GD32">
-        <v>1261.524372511312</v>
-      </c>
-      <c r="GE32">
-        <v>1048.308713851717</v>
-      </c>
-      <c r="GF32">
-        <v>990.3860427871608</v>
-      </c>
-      <c r="GG32">
-        <v>279.1297681198093</v>
-      </c>
-      <c r="GH32">
-        <v>500.4937523573565</v>
-      </c>
-      <c r="GI32">
-        <v>450.913775465109</v>
-      </c>
-      <c r="GJ32">
-        <v>325.9135388590792</v>
+        <v>324.1557342892302</v>
       </c>
     </row>
-    <row r="33" spans="1:192">
+    <row r="33" spans="1:186">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19392,58 +18816,40 @@
         <v>499.6863318086068</v>
       </c>
       <c r="FT33">
-        <v>1527.635351676169</v>
+        <v>890.9636984603683</v>
       </c>
       <c r="FU33">
+        <v>1101.884478584052</v>
+      </c>
+      <c r="FV33">
+        <v>2207.315718818601</v>
+      </c>
+      <c r="FW33">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FX33">
+        <v>0</v>
+      </c>
+      <c r="FY33">
+        <v>97.80084843190912</v>
+      </c>
+      <c r="FZ33">
         <v>1476.061013173426</v>
       </c>
-      <c r="FV33">
-        <v>97.80084843190912</v>
-      </c>
-      <c r="FW33">
-        <v>2207.315718818601</v>
-      </c>
-      <c r="FX33">
-        <v>2294.221365649386</v>
-      </c>
-      <c r="FY33">
-        <v>1996.768719322315</v>
-      </c>
-      <c r="FZ33">
-        <v>364.9246639997015</v>
-      </c>
       <c r="GA33">
-        <v>457.9387294737518</v>
+        <v>1612.099961461016</v>
       </c>
       <c r="GB33">
-        <v>2665.886041556122</v>
+        <v>588.3016312808954</v>
       </c>
       <c r="GC33">
-        <v>248.5427273192036</v>
+        <v>594.5836700271891</v>
       </c>
       <c r="GD33">
-        <v>299.890945114355</v>
-      </c>
-      <c r="GE33">
-        <v>815.4727570597178</v>
-      </c>
-      <c r="GF33">
-        <v>1038.733462004461</v>
-      </c>
-      <c r="GG33">
-        <v>1730.440372095904</v>
-      </c>
-      <c r="GH33">
-        <v>1858.759991257081</v>
-      </c>
-      <c r="GI33">
-        <v>1835.79991319492</v>
-      </c>
-      <c r="GJ33">
-        <v>1759.252894451268</v>
+        <v>1674.553418278093</v>
       </c>
     </row>
-    <row r="34" spans="1:192">
+    <row r="34" spans="1:186">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19970,58 +19376,40 @@
         <v>594.4424609073457</v>
       </c>
       <c r="FT34">
-        <v>1587.17906010864</v>
+        <v>988.4218810096019</v>
       </c>
       <c r="FU34">
+        <v>1199.485455459765</v>
+      </c>
+      <c r="FV34">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FW34">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FX34">
+        <v>97.80084843190912</v>
+      </c>
+      <c r="FY34">
+        <v>0</v>
+      </c>
+      <c r="FZ34">
         <v>1536.888020980227</v>
       </c>
-      <c r="FV34">
-        <v>0</v>
-      </c>
-      <c r="FW34">
-        <v>2304.137529427024</v>
-      </c>
-      <c r="FX34">
-        <v>2391.295791045003</v>
-      </c>
-      <c r="FY34">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FZ34">
-        <v>440.7041624135588</v>
-      </c>
       <c r="GA34">
-        <v>537.4895962142388</v>
+        <v>1708.449175647813</v>
       </c>
       <c r="GB34">
-        <v>2759.125586227252</v>
+        <v>650.6764070209389</v>
       </c>
       <c r="GC34">
-        <v>277.1653991609436</v>
+        <v>651.9466940040791</v>
       </c>
       <c r="GD34">
-        <v>310.3534750620796</v>
-      </c>
-      <c r="GE34">
-        <v>912.0844778520328</v>
-      </c>
-      <c r="GF34">
-        <v>1134.903363763771</v>
-      </c>
-      <c r="GG34">
-        <v>1785.406061785597</v>
-      </c>
-      <c r="GH34">
-        <v>1903.382094656844</v>
-      </c>
-      <c r="GI34">
-        <v>1907.885477686847</v>
-      </c>
-      <c r="GJ34">
-        <v>1827.021981140202</v>
+        <v>1746.609525649385</v>
       </c>
     </row>
-    <row r="35" spans="1:192">
+    <row r="35" spans="1:186">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -20548,58 +19936,40 @@
         <v>755.0872144746781</v>
       </c>
       <c r="FT35">
-        <v>1658.875000793395</v>
+        <v>1146.844587530362</v>
       </c>
       <c r="FU35">
+        <v>1357.359207942185</v>
+      </c>
+      <c r="FV35">
+        <v>2463.713343017408</v>
+      </c>
+      <c r="FW35">
+        <v>2195.327289306505</v>
+      </c>
+      <c r="FX35">
+        <v>256.4354105115059</v>
+      </c>
+      <c r="FY35">
+        <v>160.7125477956193</v>
+      </c>
+      <c r="FZ35">
         <v>1611.181948250061</v>
       </c>
-      <c r="FV35">
-        <v>160.7125477956193</v>
-      </c>
-      <c r="FW35">
-        <v>2463.713343017408</v>
-      </c>
-      <c r="FX35">
-        <v>2550.487435160244</v>
-      </c>
-      <c r="FY35">
-        <v>2195.327289306505</v>
-      </c>
-      <c r="FZ35">
-        <v>594.2684648745188</v>
-      </c>
       <c r="GA35">
-        <v>692.5025234702096</v>
+        <v>1855.791054700558</v>
       </c>
       <c r="GB35">
-        <v>2919.719359964111</v>
+        <v>791.588200058183</v>
       </c>
       <c r="GC35">
-        <v>348.112618387679</v>
+        <v>788.284027401897</v>
       </c>
       <c r="GD35">
-        <v>350.0944477314083</v>
-      </c>
-      <c r="GE35">
-        <v>1061.456509595098</v>
-      </c>
-      <c r="GF35">
-        <v>1282.346030746322</v>
-      </c>
-      <c r="GG35">
-        <v>1847.85933287221</v>
-      </c>
-      <c r="GH35">
-        <v>1947.103629815078</v>
-      </c>
-      <c r="GI35">
-        <v>2001.062877280107</v>
-      </c>
-      <c r="GJ35">
-        <v>1912.417755062309</v>
+        <v>1840.332864447834</v>
       </c>
     </row>
-    <row r="36" spans="1:192">
+    <row r="36" spans="1:186">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -21126,58 +20496,40 @@
         <v>697.4835267259695</v>
       </c>
       <c r="FT36">
-        <v>1271.016991717539</v>
+        <v>1002.117727611242</v>
       </c>
       <c r="FU36">
+        <v>1195.020764219904</v>
+      </c>
+      <c r="FV36">
+        <v>2301.188640977916</v>
+      </c>
+      <c r="FW36">
+        <v>1848.251976140012</v>
+      </c>
+      <c r="FX36">
+        <v>354.0613554476053</v>
+      </c>
+      <c r="FY36">
+        <v>362.8613623325087</v>
+      </c>
+      <c r="FZ36">
         <v>1224.623231128728</v>
       </c>
-      <c r="FV36">
-        <v>362.8613623325087</v>
-      </c>
-      <c r="FW36">
-        <v>2301.188640977916</v>
-      </c>
-      <c r="FX36">
-        <v>2380.368702497412</v>
-      </c>
-      <c r="FY36">
-        <v>1848.251976140012</v>
-      </c>
-      <c r="FZ36">
-        <v>667.8927733017485</v>
-      </c>
       <c r="GA36">
-        <v>742.1046759666502</v>
+        <v>1604.852990571556</v>
       </c>
       <c r="GB36">
-        <v>2809.945554185307</v>
+        <v>905.2263475337407</v>
       </c>
       <c r="GC36">
-        <v>115.6860997425716</v>
+        <v>919.4543228573544</v>
       </c>
       <c r="GD36">
-        <v>54.22133485097527</v>
-      </c>
-      <c r="GE36">
-        <v>849.8827261035838</v>
-      </c>
-      <c r="GF36">
-        <v>1048.147293294976</v>
-      </c>
-      <c r="GG36">
-        <v>1457.037166592304</v>
-      </c>
-      <c r="GH36">
-        <v>1556.823558641453</v>
-      </c>
-      <c r="GI36">
-        <v>1626.44512235721</v>
-      </c>
-      <c r="GJ36">
-        <v>1531.638664313832</v>
+        <v>1466.982453320637</v>
       </c>
     </row>
-    <row r="37" spans="1:192">
+    <row r="37" spans="1:186">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21704,58 +21056,40 @@
         <v>361.4727480284768</v>
       </c>
       <c r="FT37">
-        <v>1459.431799009556</v>
+        <v>749.3066154579237</v>
       </c>
       <c r="FU37">
+        <v>960.2571455318473</v>
+      </c>
+      <c r="FV37">
+        <v>2065.919124598204</v>
+      </c>
+      <c r="FW37">
+        <v>1885.766226525997</v>
+      </c>
+      <c r="FX37">
+        <v>141.6574987871466</v>
+      </c>
+      <c r="FY37">
+        <v>239.2445087355543</v>
+      </c>
+      <c r="FZ37">
         <v>1406.002080099486</v>
       </c>
-      <c r="FV37">
-        <v>239.2445087355543</v>
-      </c>
-      <c r="FW37">
-        <v>2065.919124598204</v>
-      </c>
-      <c r="FX37">
-        <v>2152.675973158168</v>
-      </c>
-      <c r="FY37">
-        <v>1885.766226525997</v>
-      </c>
-      <c r="FZ37">
-        <v>269.7962020533888</v>
-      </c>
       <c r="GA37">
-        <v>349.7060381534903</v>
+        <v>1475.798174128969</v>
       </c>
       <c r="GB37">
-        <v>2528.03406041927</v>
+        <v>506.8266747170592</v>
       </c>
       <c r="GC37">
-        <v>282.7326842760723</v>
+        <v>521.5060193793727</v>
       </c>
       <c r="GD37">
-        <v>349.1083622238723</v>
-      </c>
-      <c r="GE37">
-        <v>679.1722263228567</v>
-      </c>
-      <c r="GF37">
-        <v>903.3175761911101</v>
-      </c>
-      <c r="GG37">
-        <v>1668.766425646545</v>
-      </c>
-      <c r="GH37">
-        <v>1813.095409935694</v>
-      </c>
-      <c r="GI37">
-        <v>1745.09677091884</v>
-      </c>
-      <c r="GJ37">
-        <v>1676.174706989569</v>
+        <v>1584.420219005443</v>
       </c>
     </row>
-    <row r="38" spans="1:192">
+    <row r="38" spans="1:186">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -22282,58 +21616,40 @@
         <v>401.561301216823</v>
       </c>
       <c r="FT38">
-        <v>1421.522533643415</v>
+        <v>775.3706645785722</v>
       </c>
       <c r="FU38">
+        <v>984.5711833848133</v>
+      </c>
+      <c r="FV38">
+        <v>2093.972058572037</v>
+      </c>
+      <c r="FW38">
+        <v>1869.921850173073</v>
+      </c>
+      <c r="FX38">
+        <v>129.9164900021853</v>
+      </c>
+      <c r="FY38">
+        <v>224.2826594112225</v>
+      </c>
+      <c r="FZ38">
         <v>1368.776753350516</v>
       </c>
-      <c r="FV38">
-        <v>224.2826594112225</v>
-      </c>
-      <c r="FW38">
-        <v>2093.972058572037</v>
-      </c>
-      <c r="FX38">
-        <v>2179.552532405144</v>
-      </c>
-      <c r="FY38">
-        <v>1869.921850173073</v>
-      </c>
-      <c r="FZ38">
-        <v>329.2998365162655</v>
-      </c>
       <c r="GA38">
-        <v>406.8386598602455</v>
+        <v>1484.308627896925</v>
       </c>
       <c r="GB38">
-        <v>2564.777166122035</v>
+        <v>566.6184373833598</v>
       </c>
       <c r="GC38">
-        <v>223.0016457640002</v>
+        <v>581.5141357797614</v>
       </c>
       <c r="GD38">
-        <v>289.8286504548519</v>
-      </c>
-      <c r="GE38">
-        <v>688.2220942923524</v>
-      </c>
-      <c r="GF38">
-        <v>910.7139748439689</v>
-      </c>
-      <c r="GG38">
-        <v>1628.565806470629</v>
-      </c>
-      <c r="GH38">
-        <v>1767.70514850024</v>
-      </c>
-      <c r="GI38">
-        <v>1717.351862784924</v>
-      </c>
-      <c r="GJ38">
-        <v>1644.713340255495</v>
+        <v>1556.305693656192</v>
       </c>
     </row>
-    <row r="39" spans="1:192">
+    <row r="39" spans="1:186">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -22860,58 +22176,40 @@
         <v>660.3463077932836</v>
       </c>
       <c r="FT39">
-        <v>1308.920803532985</v>
+        <v>979.6001056141831</v>
       </c>
       <c r="FU39">
+        <v>1176.363780771056</v>
+      </c>
+      <c r="FV39">
+        <v>2285.571133856522</v>
+      </c>
+      <c r="FW39">
+        <v>1869.408868263184</v>
+      </c>
+      <c r="FX39">
+        <v>299.890945114355</v>
+      </c>
+      <c r="FY39">
+        <v>310.3534750620796</v>
+      </c>
+      <c r="FZ39">
         <v>1261.524372511312</v>
       </c>
-      <c r="FV39">
-        <v>310.3534750620796</v>
-      </c>
-      <c r="FW39">
-        <v>2285.571133856522</v>
-      </c>
-      <c r="FX39">
-        <v>2366.023441643853</v>
-      </c>
-      <c r="FY39">
-        <v>1869.408868263184</v>
-      </c>
-      <c r="FZ39">
-        <v>618.9043052074642</v>
-      </c>
       <c r="GA39">
-        <v>695.5390206533834</v>
+        <v>1603.056487871657</v>
       </c>
       <c r="GB39">
-        <v>2787.406676970597</v>
+        <v>855.6643638147345</v>
       </c>
       <c r="GC39">
-        <v>68.67846497453625</v>
+        <v>868.9961496801742</v>
       </c>
       <c r="GD39">
-        <v>0</v>
-      </c>
-      <c r="GE39">
-        <v>837.1328135965426</v>
-      </c>
-      <c r="GF39">
-        <v>1041.06170129759</v>
-      </c>
-      <c r="GG39">
-        <v>1498.138195683403</v>
-      </c>
-      <c r="GH39">
-        <v>1602.841400668312</v>
-      </c>
-      <c r="GI39">
-        <v>1657.106208984158</v>
-      </c>
-      <c r="GJ39">
-        <v>1565.155898707714</v>
+        <v>1497.012199202651</v>
       </c>
     </row>
-    <row r="40" spans="1:192">
+    <row r="40" spans="1:186">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -23438,58 +22736,40 @@
         <v>625.0782022691268</v>
       </c>
       <c r="FT40">
-        <v>1545.752584694142</v>
+        <v>1008.862050676551</v>
       </c>
       <c r="FU40">
+        <v>1218.429976068175</v>
+      </c>
+      <c r="FV40">
+        <v>2327.13672205501</v>
+      </c>
+      <c r="FW40">
+        <v>2059.272350347574</v>
+      </c>
+      <c r="FX40">
+        <v>128.7498892238502</v>
+      </c>
+      <c r="FY40">
+        <v>66.41513577600516</v>
+      </c>
+      <c r="FZ40">
         <v>1496.398381936366</v>
       </c>
-      <c r="FV40">
-        <v>66.41513577600516</v>
-      </c>
-      <c r="FW40">
-        <v>2327.13672205501</v>
-      </c>
-      <c r="FX40">
-        <v>2413.073198224234</v>
-      </c>
-      <c r="FY40">
-        <v>2059.272350347574</v>
-      </c>
-      <c r="FZ40">
-        <v>491.0452187413453</v>
-      </c>
       <c r="GA40">
-        <v>585.5493861637959</v>
+        <v>1711.995455368464</v>
       </c>
       <c r="GB40">
-        <v>2791.734222303068</v>
+        <v>708.166225856575</v>
       </c>
       <c r="GC40">
-        <v>228.9934651589758</v>
+        <v>711.3080654451011</v>
       </c>
       <c r="GD40">
-        <v>252.8390589609866</v>
-      </c>
-      <c r="GE40">
-        <v>918.0685490841564</v>
-      </c>
-      <c r="GF40">
-        <v>1138.611907997298</v>
-      </c>
-      <c r="GG40">
-        <v>1740.833433803741</v>
-      </c>
-      <c r="GH40">
-        <v>1853.005480123265</v>
-      </c>
-      <c r="GI40">
-        <v>1875.592427062324</v>
-      </c>
-      <c r="GJ40">
-        <v>1791.247335748752</v>
+        <v>1714.469637073092</v>
       </c>
     </row>
-    <row r="41" spans="1:192">
+    <row r="41" spans="1:186">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -24016,58 +23296,40 @@
         <v>577.8294795234111</v>
       </c>
       <c r="FT41">
-        <v>1426.376972906156</v>
+        <v>938.2598353262949</v>
       </c>
       <c r="FU41">
+        <v>1144.135077746179</v>
+      </c>
+      <c r="FV41">
+        <v>2256.011973688054</v>
+      </c>
+      <c r="FW41">
+        <v>1942.924215355498</v>
+      </c>
+      <c r="FX41">
+        <v>148.847245361119</v>
+      </c>
+      <c r="FY41">
+        <v>164.8373329215132</v>
+      </c>
+      <c r="FZ41">
         <v>1376.785058571447</v>
       </c>
-      <c r="FV41">
-        <v>164.8373329215132</v>
-      </c>
-      <c r="FW41">
-        <v>2256.011973688054</v>
-      </c>
-      <c r="FX41">
-        <v>2339.931772985421</v>
-      </c>
-      <c r="FY41">
-        <v>1942.924215355498</v>
-      </c>
-      <c r="FZ41">
-        <v>491.8234130894999</v>
-      </c>
       <c r="GA41">
-        <v>577.1821555488179</v>
+        <v>1615.879119232104</v>
       </c>
       <c r="GB41">
-        <v>2736.386568762136</v>
+        <v>724.02932494715</v>
       </c>
       <c r="GC41">
-        <v>112.3288559341177</v>
+        <v>733.7489857076861</v>
       </c>
       <c r="GD41">
-        <v>152.5913724270738</v>
-      </c>
-      <c r="GE41">
-        <v>827.7343294645152</v>
-      </c>
-      <c r="GF41">
-        <v>1044.269814853869</v>
-      </c>
-      <c r="GG41">
-        <v>1622.617422929444</v>
-      </c>
-      <c r="GH41">
-        <v>1738.613105654734</v>
-      </c>
-      <c r="GI41">
-        <v>1755.669703146357</v>
-      </c>
-      <c r="GJ41">
-        <v>1671.118658684321</v>
+        <v>1594.579431044276</v>
       </c>
     </row>
-    <row r="42" spans="1:192">
+    <row r="42" spans="1:186">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -24594,58 +23856,40 @@
         <v>579.7609763158861</v>
       </c>
       <c r="FT42">
-        <v>1357.051011087112</v>
+        <v>919.9292358777483</v>
       </c>
       <c r="FU42">
+        <v>1122.046662222137</v>
+      </c>
+      <c r="FV42">
+        <v>2233.880170327612</v>
+      </c>
+      <c r="FW42">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="FX42">
+        <v>207.5976196247393</v>
+      </c>
+      <c r="FY42">
+        <v>234.9779488106452</v>
+      </c>
+      <c r="FZ42">
         <v>1307.711944994037</v>
       </c>
-      <c r="FV42">
-        <v>234.9779488106452</v>
-      </c>
-      <c r="FW42">
-        <v>2233.880170327612</v>
-      </c>
-      <c r="FX42">
-        <v>2316.290433681671</v>
-      </c>
-      <c r="FY42">
-        <v>1882.857872641294</v>
-      </c>
-      <c r="FZ42">
-        <v>523.5779889581303</v>
-      </c>
       <c r="GA42">
-        <v>602.4159180790492</v>
+        <v>1575.595967659209</v>
       </c>
       <c r="GB42">
-        <v>2724.522184902092</v>
+        <v>759.7754094996569</v>
       </c>
       <c r="GC42">
-        <v>42.49665954282744</v>
+        <v>772.5878423658781</v>
       </c>
       <c r="GD42">
-        <v>96.80673381624253</v>
-      </c>
-      <c r="GE42">
-        <v>794.6950308769985</v>
-      </c>
-      <c r="GF42">
-        <v>1006.78973630586</v>
-      </c>
-      <c r="GG42">
-        <v>1552.653111637053</v>
-      </c>
-      <c r="GH42">
-        <v>1668.408200485353</v>
-      </c>
-      <c r="GI42">
-        <v>1689.527725359579</v>
-      </c>
-      <c r="GJ42">
-        <v>1603.552937740716</v>
+        <v>1528.571909901297</v>
       </c>
     </row>
-    <row r="43" spans="1:192">
+    <row r="43" spans="1:186">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -25172,58 +24416,40 @@
         <v>592.5526851156742</v>
       </c>
       <c r="FT43">
-        <v>1317.233753592191</v>
+        <v>919.0251540415106</v>
       </c>
       <c r="FU43">
+        <v>1118.29276192073</v>
+      </c>
+      <c r="FV43">
+        <v>2229.079032317666</v>
+      </c>
+      <c r="FW43">
+        <v>1851.644086354249</v>
+      </c>
+      <c r="FX43">
+        <v>248.5427273192036</v>
+      </c>
+      <c r="FY43">
+        <v>277.1653991609436</v>
+      </c>
+      <c r="FZ43">
         <v>1268.229875752277</v>
       </c>
-      <c r="FV43">
-        <v>277.1653991609436</v>
-      </c>
-      <c r="FW43">
-        <v>2229.079032317666</v>
-      </c>
-      <c r="FX43">
-        <v>2310.488937132395</v>
-      </c>
-      <c r="FY43">
-        <v>1851.644086354249</v>
-      </c>
-      <c r="FZ43">
-        <v>552.2968130437771</v>
-      </c>
       <c r="GA43">
-        <v>627.565412719794</v>
+        <v>1559.164906045376</v>
       </c>
       <c r="GB43">
-        <v>2725.952761402729</v>
+        <v>789.5571226920863</v>
       </c>
       <c r="GC43">
-        <v>0</v>
+        <v>803.8112831074268</v>
       </c>
       <c r="GD43">
-        <v>68.67846497453625</v>
-      </c>
-      <c r="GE43">
-        <v>784.5127212918381</v>
-      </c>
-      <c r="GF43">
-        <v>993.001578469387</v>
-      </c>
-      <c r="GG43">
-        <v>1511.84378270692</v>
-      </c>
-      <c r="GH43">
-        <v>1626.32258675641</v>
-      </c>
-      <c r="GI43">
-        <v>1653.098389730191</v>
-      </c>
-      <c r="GJ43">
-        <v>1565.730070129918</v>
+        <v>1492.301977372202</v>
       </c>
     </row>
-    <row r="44" spans="1:192">
+    <row r="44" spans="1:186">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -25750,58 +24976,40 @@
         <v>538.6904395112406</v>
       </c>
       <c r="FT44">
-        <v>1327.240896317115</v>
+        <v>871.915527224387</v>
       </c>
       <c r="FU44">
+        <v>1073.270664886812</v>
+      </c>
+      <c r="FV44">
+        <v>2184.933818183642</v>
+      </c>
+      <c r="FW44">
+        <v>1840.003959379539</v>
+      </c>
+      <c r="FX44">
+        <v>213.8692844463879</v>
+      </c>
+      <c r="FY44">
+        <v>259.9665107247332</v>
+      </c>
+      <c r="FZ44">
         <v>1277.068398901912</v>
       </c>
-      <c r="FV44">
-        <v>259.9665107247332</v>
-      </c>
-      <c r="FW44">
-        <v>2184.933818183642</v>
-      </c>
-      <c r="FX44">
-        <v>2267.141399197434</v>
-      </c>
-      <c r="FY44">
-        <v>1840.003959379539</v>
-      </c>
-      <c r="FZ44">
-        <v>499.2213468234353</v>
-      </c>
       <c r="GA44">
-        <v>573.2186395527904</v>
+        <v>1526.083523222766</v>
       </c>
       <c r="GB44">
-        <v>2677.482710022975</v>
+        <v>736.8013576909603</v>
       </c>
       <c r="GC44">
-        <v>54.89720394667815</v>
+        <v>751.8609641086211</v>
       </c>
       <c r="GD44">
-        <v>123.5719557505343</v>
-      </c>
-      <c r="GE44">
-        <v>744.9398857485049</v>
-      </c>
-      <c r="GF44">
-        <v>957.0516653228299</v>
-      </c>
-      <c r="GG44">
-        <v>1525.762754665343</v>
-      </c>
-      <c r="GH44">
-        <v>1647.698095944643</v>
-      </c>
-      <c r="GI44">
-        <v>1652.798869655626</v>
-      </c>
-      <c r="GJ44">
-        <v>1569.207324416219</v>
+        <v>1491.659691234148</v>
       </c>
     </row>
-    <row r="45" spans="1:192">
+    <row r="45" spans="1:186">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -26328,58 +25536,40 @@
         <v>741.7761624019241</v>
       </c>
       <c r="FT45">
-        <v>2173.413702598536</v>
+        <v>973.6855734222007</v>
       </c>
       <c r="FU45">
+        <v>1118.229475395245</v>
+      </c>
+      <c r="FV45">
+        <v>1960.280787775514</v>
+      </c>
+      <c r="FW45">
+        <v>2369.293856951108</v>
+      </c>
+      <c r="FX45">
+        <v>904.5360063674176</v>
+      </c>
+      <c r="FY45">
+        <v>941.3528095601845</v>
+      </c>
+      <c r="FZ45">
         <v>2116.636145581857</v>
       </c>
-      <c r="FV45">
-        <v>941.3528095601845</v>
-      </c>
-      <c r="FW45">
-        <v>1960.280787775514</v>
-      </c>
-      <c r="FX45">
-        <v>2058.108752335568</v>
-      </c>
-      <c r="FY45">
-        <v>2369.293856951108</v>
-      </c>
-      <c r="FZ45">
-        <v>602.125781238654</v>
-      </c>
       <c r="GA45">
-        <v>568.6301714671581</v>
+        <v>1719.337563231224</v>
       </c>
       <c r="GB45">
-        <v>2238.836476121754</v>
+        <v>381.1840643187202</v>
       </c>
       <c r="GC45">
-        <v>1133.557964900759</v>
+        <v>351.0741582959446</v>
       </c>
       <c r="GD45">
-        <v>1195.49088972309</v>
-      </c>
-      <c r="GE45">
-        <v>1109.892597240307</v>
-      </c>
-      <c r="GF45">
-        <v>1274.929646829959</v>
-      </c>
-      <c r="GG45">
-        <v>2394.573175813773</v>
-      </c>
-      <c r="GH45">
-        <v>2578.261422074517</v>
-      </c>
-      <c r="GI45">
-        <v>2356.55108266054</v>
-      </c>
-      <c r="GJ45">
-        <v>2325.397334834425</v>
+        <v>2207.567559155363</v>
       </c>
     </row>
-    <row r="46" spans="1:192">
+    <row r="46" spans="1:186">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26906,58 +26096,40 @@
         <v>455.4653813541684</v>
       </c>
       <c r="FT46">
-        <v>1887.649804805925</v>
+        <v>731.4337756313544</v>
       </c>
       <c r="FU46">
+        <v>902.5386462825302</v>
+      </c>
+      <c r="FV46">
+        <v>1855.779292698527</v>
+      </c>
+      <c r="FW46">
+        <v>2115.599817737079</v>
+      </c>
+      <c r="FX46">
+        <v>666.3394621068743</v>
+      </c>
+      <c r="FY46">
+        <v>721.9200721722793</v>
+      </c>
+      <c r="FZ46">
         <v>1830.966521834425</v>
       </c>
-      <c r="FV46">
-        <v>721.9200721722793</v>
-      </c>
-      <c r="FW46">
-        <v>1855.779292698527</v>
-      </c>
-      <c r="FX46">
-        <v>1951.768181307556</v>
-      </c>
-      <c r="FY46">
-        <v>2115.599817737079</v>
-      </c>
-      <c r="FZ46">
-        <v>327.4885768485813</v>
-      </c>
       <c r="GA46">
-        <v>281.7901297162987</v>
+        <v>1506.915868564414</v>
       </c>
       <c r="GB46">
-        <v>2205.606171059078</v>
+        <v>94.06942514570288</v>
       </c>
       <c r="GC46">
-        <v>876.2452760257975</v>
+        <v>72.49534843428812</v>
       </c>
       <c r="GD46">
-        <v>941.4817333928971</v>
-      </c>
-      <c r="GE46">
-        <v>840.1345937636763</v>
-      </c>
-      <c r="GF46">
-        <v>1021.336828436768</v>
-      </c>
-      <c r="GG46">
-        <v>2108.441841880122</v>
-      </c>
-      <c r="GH46">
-        <v>2290.470907880016</v>
-      </c>
-      <c r="GI46">
-        <v>2082.150776649821</v>
-      </c>
-      <c r="GJ46">
-        <v>2046.120232838736</v>
+        <v>1930.864578422501</v>
       </c>
     </row>
-    <row r="47" spans="1:192">
+    <row r="47" spans="1:186">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -27484,58 +26656,40 @@
         <v>622.2411035268569</v>
       </c>
       <c r="FT47">
-        <v>1997.839209321939</v>
+        <v>984.8565675086832</v>
       </c>
       <c r="FU47">
+        <v>1175.962688388817</v>
+      </c>
+      <c r="FV47">
+        <v>2167.443376431992</v>
+      </c>
+      <c r="FW47">
+        <v>2324.499446773549</v>
+      </c>
+      <c r="FX47">
+        <v>565.1471001080134</v>
+      </c>
+      <c r="FY47">
+        <v>578.7765844126178</v>
+      </c>
+      <c r="FZ47">
         <v>1942.705862896893</v>
       </c>
-      <c r="FV47">
-        <v>578.7765844126178</v>
-      </c>
-      <c r="FW47">
-        <v>2167.443376431992</v>
-      </c>
-      <c r="FX47">
-        <v>2262.958787204668</v>
-      </c>
-      <c r="FY47">
-        <v>2324.499446773549</v>
-      </c>
-      <c r="FZ47">
-        <v>388.681372817102</v>
-      </c>
       <c r="GA47">
-        <v>426.5989021433448</v>
+        <v>1772.568045659715</v>
       </c>
       <c r="GB47">
-        <v>2519.155888968042</v>
+        <v>327.6075649921474</v>
       </c>
       <c r="GC47">
-        <v>811.2689363368894</v>
+        <v>292.3038832835646</v>
       </c>
       <c r="GD47">
-        <v>865.0380365876783</v>
-      </c>
-      <c r="GE47">
-        <v>1042.180694240935</v>
-      </c>
-      <c r="GF47">
-        <v>1248.347049191425</v>
-      </c>
-      <c r="GG47">
-        <v>2212.769523850684</v>
-      </c>
-      <c r="GH47">
-        <v>2369.182278457323</v>
-      </c>
-      <c r="GI47">
-        <v>2243.836374326177</v>
-      </c>
-      <c r="GJ47">
-        <v>2190.756680353811</v>
+        <v>2086.55503047109</v>
       </c>
     </row>
-    <row r="48" spans="1:192">
+    <row r="48" spans="1:186">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -28062,58 +27216,40 @@
         <v>507.8009905580573</v>
       </c>
       <c r="FT48">
-        <v>1934.953612372864</v>
+        <v>812.921158720423</v>
       </c>
       <c r="FU48">
+        <v>989.3330802994128</v>
+      </c>
+      <c r="FV48">
+        <v>1947.71051178082</v>
+      </c>
+      <c r="FW48">
+        <v>2189.064501471923</v>
+      </c>
+      <c r="FX48">
+        <v>642.827697502079</v>
+      </c>
+      <c r="FY48">
+        <v>687.589820448837</v>
+      </c>
+      <c r="FZ48">
         <v>1878.560735837452</v>
       </c>
-      <c r="FV48">
-        <v>687.589820448837</v>
-      </c>
-      <c r="FW48">
-        <v>1947.71051178082</v>
-      </c>
-      <c r="FX48">
-        <v>2043.771658392359</v>
-      </c>
-      <c r="FY48">
-        <v>2189.064501471923</v>
-      </c>
-      <c r="FZ48">
-        <v>337.1715874067943</v>
-      </c>
       <c r="GA48">
-        <v>317.9818582996949</v>
+        <v>1592.844294549488</v>
       </c>
       <c r="GB48">
-        <v>2292.978805295378</v>
+        <v>145.7882796965619</v>
       </c>
       <c r="GC48">
-        <v>867.184836433303</v>
+        <v>105.9898320501571</v>
       </c>
       <c r="GD48">
-        <v>929.9090566503509</v>
-      </c>
-      <c r="GE48">
-        <v>908.4383377310276</v>
-      </c>
-      <c r="GF48">
-        <v>1097.222591840506</v>
-      </c>
-      <c r="GG48">
-        <v>2154.602301249736</v>
-      </c>
-      <c r="GH48">
-        <v>2329.920850496618</v>
-      </c>
-      <c r="GI48">
-        <v>2143.607838751089</v>
-      </c>
-      <c r="GJ48">
-        <v>2103.030196370858</v>
+        <v>1990.498302305505</v>
       </c>
     </row>
-    <row r="49" spans="1:192">
+    <row r="49" spans="1:186">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -28640,58 +27776,40 @@
         <v>366.5033846826824</v>
       </c>
       <c r="FT49">
-        <v>1797.742311158281</v>
+        <v>671.3843689584847</v>
       </c>
       <c r="FU49">
+        <v>853.8915499126527</v>
+      </c>
+      <c r="FV49">
+        <v>1844.775310027142</v>
+      </c>
+      <c r="FW49">
+        <v>2043.423364269398</v>
+      </c>
+      <c r="FX49">
+        <v>588.3016312808954</v>
+      </c>
+      <c r="FY49">
+        <v>650.6764070209389</v>
+      </c>
+      <c r="FZ49">
         <v>1741.153487597905</v>
       </c>
-      <c r="FV49">
-        <v>650.6764070209389</v>
-      </c>
-      <c r="FW49">
-        <v>1844.775310027142</v>
-      </c>
-      <c r="FX49">
-        <v>1939.662153799327</v>
-      </c>
-      <c r="FY49">
-        <v>2043.423364269398</v>
-      </c>
-      <c r="FZ49">
-        <v>237.8397684658256</v>
-      </c>
       <c r="GA49">
-        <v>187.7851822273068</v>
+        <v>1455.106311487037</v>
       </c>
       <c r="GB49">
-        <v>2217.580546933605</v>
+        <v>0</v>
       </c>
       <c r="GC49">
-        <v>789.5571226920863</v>
+        <v>40.41193271543054</v>
       </c>
       <c r="GD49">
-        <v>855.6643638147345</v>
-      </c>
-      <c r="GE49">
-        <v>762.6929691364261</v>
-      </c>
-      <c r="GF49">
-        <v>952.2675983627084</v>
-      </c>
-      <c r="GG49">
-        <v>2018.170516050469</v>
-      </c>
-      <c r="GH49">
-        <v>2198.304404194826</v>
-      </c>
-      <c r="GI49">
-        <v>1999.471197727117</v>
-      </c>
-      <c r="GJ49">
-        <v>1960.633578879102</v>
+        <v>1846.977048451541</v>
       </c>
     </row>
-    <row r="50" spans="1:192">
+    <row r="50" spans="1:186">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -29218,58 +28336,40 @@
         <v>507.0739383664227</v>
       </c>
       <c r="FT50">
-        <v>1811.429201559702</v>
+        <v>907.1637566348161</v>
       </c>
       <c r="FU50">
+        <v>1112.439762358049</v>
+      </c>
+      <c r="FV50">
+        <v>2162.598411548857</v>
+      </c>
+      <c r="FW50">
+        <v>2186.455970611118</v>
+      </c>
+      <c r="FX50">
+        <v>350.5424819877144</v>
+      </c>
+      <c r="FY50">
+        <v>369.7623910080335</v>
+      </c>
+      <c r="FZ50">
         <v>1757.206261106456</v>
       </c>
-      <c r="FV50">
-        <v>369.7623910080335</v>
-      </c>
-      <c r="FW50">
-        <v>2162.598411548857</v>
-      </c>
-      <c r="FX50">
-        <v>2255.51436005957</v>
-      </c>
-      <c r="FY50">
-        <v>2186.455970611118</v>
-      </c>
-      <c r="FZ50">
-        <v>260.137653392329</v>
-      </c>
       <c r="GA50">
-        <v>339.7179069227455</v>
+        <v>1688.682576980445</v>
       </c>
       <c r="GB50">
-        <v>2558.523020105009</v>
+        <v>347.8590458716259</v>
       </c>
       <c r="GC50">
-        <v>596.8482531650253</v>
+        <v>332.3032396491879</v>
       </c>
       <c r="GD50">
-        <v>650.4279848282908</v>
-      </c>
-      <c r="GE50">
-        <v>920.0510724590177</v>
-      </c>
-      <c r="GF50">
-        <v>1138.151173655563</v>
-      </c>
-      <c r="GG50">
-        <v>2023.172948960724</v>
-      </c>
-      <c r="GH50">
-        <v>2171.013085143119</v>
-      </c>
-      <c r="GI50">
-        <v>2078.383772186734</v>
-      </c>
-      <c r="GJ50">
-        <v>2017.406189403613</v>
+        <v>1919.108233831766</v>
       </c>
     </row>
-    <row r="51" spans="1:192">
+    <row r="51" spans="1:186">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -29796,58 +28896,40 @@
         <v>440.5289576377635</v>
       </c>
       <c r="FT51">
-        <v>1866.943146567817</v>
+        <v>756.4832379997104</v>
       </c>
       <c r="FU51">
+        <v>938.3132791039594</v>
+      </c>
+      <c r="FV51">
+        <v>1918.361865253077</v>
+      </c>
+      <c r="FW51">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="FX51">
+        <v>593.9196365080511</v>
+      </c>
+      <c r="FY51">
+        <v>645.3713052189403</v>
+      </c>
+      <c r="FZ51">
         <v>1810.556042026494</v>
       </c>
-      <c r="FV51">
-        <v>645.3713052189403</v>
-      </c>
-      <c r="FW51">
-        <v>1918.361865253077</v>
-      </c>
-      <c r="FX51">
-        <v>2013.768524788115</v>
-      </c>
-      <c r="FY51">
-        <v>2126.369210130919</v>
-      </c>
-      <c r="FZ51">
-        <v>272.9138492891167</v>
-      </c>
       <c r="GA51">
-        <v>249.961126462766</v>
+        <v>1539.993593385953</v>
       </c>
       <c r="GB51">
-        <v>2278.959077323523</v>
+        <v>85.10253074076296</v>
       </c>
       <c r="GC51">
-        <v>811.4472501685578</v>
+        <v>45.31807952568974</v>
       </c>
       <c r="GD51">
-        <v>875.386147040361</v>
-      </c>
-      <c r="GE51">
-        <v>844.2958458336869</v>
-      </c>
-      <c r="GF51">
-        <v>1036.348313858974</v>
-      </c>
-      <c r="GG51">
-        <v>2086.581556230778</v>
-      </c>
-      <c r="GH51">
-        <v>2262.13592838817</v>
-      </c>
-      <c r="GI51">
-        <v>2077.03443532564</v>
-      </c>
-      <c r="GJ51">
-        <v>2035.69994137336</v>
+        <v>1923.600294227255</v>
       </c>
     </row>
-    <row r="52" spans="1:192">
+    <row r="52" spans="1:186">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -30374,58 +29456,40 @@
         <v>519.9308673513192</v>
       </c>
       <c r="FT52">
-        <v>1950.996448672021</v>
+        <v>804.5453748469084</v>
       </c>
       <c r="FU52">
+        <v>974.8025261139062</v>
+      </c>
+      <c r="FV52">
+        <v>1916.373273195157</v>
+      </c>
+      <c r="FW52">
+        <v>2188.003725412793</v>
+      </c>
+      <c r="FX52">
+        <v>684.3086038330978</v>
+      </c>
+      <c r="FY52">
+        <v>731.3580729839653</v>
+      </c>
+      <c r="FZ52">
         <v>1894.433843529429</v>
       </c>
-      <c r="FV52">
-        <v>731.3580729839653</v>
-      </c>
-      <c r="FW52">
-        <v>1916.373273195157</v>
-      </c>
-      <c r="FX52">
-        <v>2012.761986992736</v>
-      </c>
-      <c r="FY52">
-        <v>2188.003725412793</v>
-      </c>
-      <c r="FZ52">
-        <v>367.3990333208175</v>
-      </c>
       <c r="GA52">
-        <v>337.1286032716496</v>
+        <v>1579.367853106086</v>
       </c>
       <c r="GB52">
-        <v>2254.32488075841</v>
+        <v>153.437221927442</v>
       </c>
       <c r="GC52">
-        <v>905.2449402751772</v>
+        <v>118.4931435108464</v>
       </c>
       <c r="GD52">
-        <v>968.7368251105909</v>
-      </c>
-      <c r="GE52">
-        <v>911.1134987977179</v>
-      </c>
-      <c r="GF52">
-        <v>1094.043352540736</v>
-      </c>
-      <c r="GG52">
-        <v>2171.302328391633</v>
-      </c>
-      <c r="GH52">
-        <v>2350.101368388205</v>
-      </c>
-      <c r="GI52">
-        <v>2151.281284394282</v>
-      </c>
-      <c r="GJ52">
-        <v>2113.577081022563</v>
+        <v>1999.328086965613</v>
       </c>
     </row>
-    <row r="53" spans="1:192">
+    <row r="53" spans="1:186">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30952,58 +30016,40 @@
         <v>403.3966689560276</v>
       </c>
       <c r="FT53">
-        <v>1833.18202942154</v>
+        <v>711.5294305561113</v>
       </c>
       <c r="FU53">
+        <v>892.9961822756936</v>
+      </c>
+      <c r="FV53">
+        <v>1876.717489671799</v>
+      </c>
+      <c r="FW53">
+        <v>2083.629380884304</v>
+      </c>
+      <c r="FX53">
+        <v>594.5836700271891</v>
+      </c>
+      <c r="FY53">
+        <v>651.9466940040791</v>
+      </c>
+      <c r="FZ53">
         <v>1776.667907392082</v>
       </c>
-      <c r="FV53">
-        <v>651.9466940040791</v>
-      </c>
-      <c r="FW53">
-        <v>1876.717489671799</v>
-      </c>
-      <c r="FX53">
-        <v>1971.914891855356</v>
-      </c>
-      <c r="FY53">
-        <v>2083.629380884304</v>
-      </c>
-      <c r="FZ53">
-        <v>256.1216396655768</v>
-      </c>
       <c r="GA53">
-        <v>218.6756974474958</v>
+        <v>1494.72308145771</v>
       </c>
       <c r="GB53">
-        <v>2242.715469121756</v>
+        <v>40.41193271543054</v>
       </c>
       <c r="GC53">
-        <v>803.8112831074268</v>
+        <v>0</v>
       </c>
       <c r="GD53">
-        <v>868.9961496801742</v>
-      </c>
-      <c r="GE53">
-        <v>802.5186999172728</v>
-      </c>
-      <c r="GF53">
-        <v>992.6575982978978</v>
-      </c>
-      <c r="GG53">
-        <v>2053.314665033363</v>
-      </c>
-      <c r="GH53">
-        <v>2231.61347541399</v>
-      </c>
-      <c r="GI53">
-        <v>2038.059632860892</v>
-      </c>
-      <c r="GJ53">
-        <v>1998.328918327375</v>
+        <v>1885.229780341391</v>
       </c>
     </row>
-    <row r="54" spans="1:192">
+    <row r="54" spans="1:186">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -31530,58 +30576,40 @@
         <v>540.5939823983861</v>
       </c>
       <c r="FT54">
-        <v>1961.699124072363</v>
+        <v>858.3420507589772</v>
       </c>
       <c r="FU54">
+        <v>1037.229705966495</v>
+      </c>
+      <c r="FV54">
+        <v>1998.333805919081</v>
+      </c>
+      <c r="FW54">
+        <v>2229.618014109515</v>
+      </c>
+      <c r="FX54">
+        <v>634.5104251211727</v>
+      </c>
+      <c r="FY54">
+        <v>672.6374765387297</v>
+      </c>
+      <c r="FZ54">
         <v>1905.501971731118</v>
       </c>
-      <c r="FV54">
-        <v>672.6374765387297</v>
-      </c>
-      <c r="FW54">
-        <v>1998.333805919081</v>
-      </c>
-      <c r="FX54">
-        <v>2094.424261264219</v>
-      </c>
-      <c r="FY54">
-        <v>2229.618014109515</v>
-      </c>
-      <c r="FZ54">
-        <v>352.1128243915662</v>
-      </c>
       <c r="GA54">
-        <v>346.252691667458</v>
+        <v>1640.129824602487</v>
       </c>
       <c r="GB54">
-        <v>2341.415349436308</v>
+        <v>187.5897944483013</v>
       </c>
       <c r="GC54">
-        <v>865.6050501020849</v>
+        <v>147.1946295644717</v>
       </c>
       <c r="GD54">
-        <v>926.649350956381</v>
-      </c>
-      <c r="GE54">
-        <v>947.262132429864</v>
-      </c>
-      <c r="GF54">
-        <v>1139.583218109611</v>
-      </c>
-      <c r="GG54">
-        <v>2180.595720418335</v>
-      </c>
-      <c r="GH54">
-        <v>2352.206101469396</v>
-      </c>
-      <c r="GI54">
-        <v>2177.784552301732</v>
-      </c>
-      <c r="GJ54">
-        <v>2134.801541926785</v>
+        <v>2023.777614163008</v>
       </c>
     </row>
-    <row r="55" spans="1:192">
+    <row r="55" spans="1:186">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -32108,58 +31136,40 @@
         <v>520.8380927333058</v>
       </c>
       <c r="FT55">
-        <v>1937.828746238266</v>
+        <v>710.054288948196</v>
       </c>
       <c r="FU55">
+        <v>854.5202191447237</v>
+      </c>
+      <c r="FV55">
+        <v>1743.246987433977</v>
+      </c>
+      <c r="FW55">
+        <v>2106.044612398462</v>
+      </c>
+      <c r="FX55">
+        <v>809.0502373119904</v>
+      </c>
+      <c r="FY55">
+        <v>869.962280914538</v>
+      </c>
+      <c r="FZ55">
         <v>1880.872421527929</v>
       </c>
-      <c r="FV55">
-        <v>869.962280914538</v>
-      </c>
-      <c r="FW55">
-        <v>1743.246987433977</v>
-      </c>
-      <c r="FX55">
-        <v>1840.230991731644</v>
-      </c>
-      <c r="FY55">
-        <v>2106.044612398462</v>
-      </c>
-      <c r="FZ55">
-        <v>454.7112977355927</v>
-      </c>
       <c r="GA55">
-        <v>386.0455011808609</v>
+        <v>1457.020973451717</v>
       </c>
       <c r="GB55">
-        <v>2069.560239301473</v>
+        <v>220.7600831317339</v>
       </c>
       <c r="GC55">
-        <v>1006.787935622078</v>
+        <v>219.045430015672</v>
       </c>
       <c r="GD55">
-        <v>1073.59210190575</v>
-      </c>
-      <c r="GE55">
-        <v>856.0932801194386</v>
-      </c>
-      <c r="GF55">
-        <v>1012.809697069478</v>
-      </c>
-      <c r="GG55">
-        <v>2159.825684392345</v>
-      </c>
-      <c r="GH55">
-        <v>2353.016117083674</v>
-      </c>
-      <c r="GI55">
-        <v>2102.767294874782</v>
-      </c>
-      <c r="GJ55">
-        <v>2076.747035578032</v>
+        <v>1956.149291968002</v>
       </c>
     </row>
-    <row r="56" spans="1:192">
+    <row r="56" spans="1:186">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -32686,58 +31696,40 @@
         <v>1712.958890746949</v>
       </c>
       <c r="FT56">
-        <v>2015.814063468659</v>
+        <v>1318.733953250071</v>
       </c>
       <c r="FU56">
+        <v>1112.098906652667</v>
+      </c>
+      <c r="FV56">
+        <v>0</v>
+      </c>
+      <c r="FW56">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FX56">
+        <v>2207.315718818601</v>
+      </c>
+      <c r="FY56">
+        <v>2304.137529427024</v>
+      </c>
+      <c r="FZ56">
         <v>1980.441267399269</v>
       </c>
-      <c r="FV56">
-        <v>2304.137529427024</v>
-      </c>
-      <c r="FW56">
-        <v>0</v>
-      </c>
-      <c r="FX56">
-        <v>98.05901464887026</v>
-      </c>
-      <c r="FY56">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FZ56">
-        <v>1922.148686641001</v>
-      </c>
       <c r="GA56">
-        <v>1828.555686020546</v>
+        <v>849.0218689274357</v>
       </c>
       <c r="GB56">
-        <v>612.2011787023229</v>
+        <v>1844.775310027142</v>
       </c>
       <c r="GC56">
-        <v>2229.079032317666</v>
+        <v>1876.717489671799</v>
       </c>
       <c r="GD56">
-        <v>2285.571133856522</v>
-      </c>
-      <c r="GE56">
-        <v>1452.129922133154</v>
-      </c>
-      <c r="GF56">
-        <v>1273.557336349578</v>
-      </c>
-      <c r="GG56">
-        <v>2165.542723992149</v>
-      </c>
-      <c r="GH56">
-        <v>2420.08986910537</v>
-      </c>
-      <c r="GI56">
-        <v>1798.332658341223</v>
-      </c>
-      <c r="GJ56">
-        <v>1890.93639892742</v>
+        <v>1766.468128509116</v>
       </c>
     </row>
-    <row r="57" spans="1:192">
+    <row r="57" spans="1:186">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -33264,58 +32256,40 @@
         <v>1579.529605844037</v>
       </c>
       <c r="FT57">
-        <v>1885.157297144516</v>
+        <v>1181.736856332863</v>
       </c>
       <c r="FU57">
+        <v>973.5651407064667</v>
+      </c>
+      <c r="FV57">
+        <v>143.4959789630574</v>
+      </c>
+      <c r="FW57">
+        <v>1367.643024033791</v>
+      </c>
+      <c r="FX57">
+        <v>2071.772176640709</v>
+      </c>
+      <c r="FY57">
+        <v>2168.871014282338</v>
+      </c>
+      <c r="FZ57">
         <v>1848.463159752431</v>
       </c>
-      <c r="FV57">
-        <v>2168.871014282338</v>
-      </c>
-      <c r="FW57">
-        <v>143.4959789630574</v>
-      </c>
-      <c r="FX57">
-        <v>222.4855449893136</v>
-      </c>
-      <c r="FY57">
-        <v>1367.643024033791</v>
-      </c>
-      <c r="FZ57">
-        <v>1792.987554623161</v>
-      </c>
       <c r="GA57">
-        <v>1700.615053441593</v>
+        <v>714.3329203907607</v>
       </c>
       <c r="GB57">
-        <v>741.9941724982177</v>
+        <v>1724.375570697006</v>
       </c>
       <c r="GC57">
-        <v>2089.012728423209</v>
+        <v>1757.371708153376</v>
       </c>
       <c r="GD57">
-        <v>2144.9649423981</v>
-      </c>
-      <c r="GE57">
-        <v>1310.457783633765</v>
-      </c>
-      <c r="GF57">
-        <v>1130.274929815576</v>
-      </c>
-      <c r="GG57">
-        <v>2040.039333093689</v>
-      </c>
-      <c r="GH57">
-        <v>2295.063367536375</v>
-      </c>
-      <c r="GI57">
-        <v>1682.545386914505</v>
-      </c>
-      <c r="GJ57">
-        <v>1770.276060834812</v>
+        <v>1643.426128267196</v>
       </c>
     </row>
-    <row r="58" spans="1:192">
+    <row r="58" spans="1:186">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -33842,58 +32816,40 @@
         <v>1879.462760743626</v>
       </c>
       <c r="FT58">
-        <v>2068.706222200783</v>
+        <v>1478.570868021784</v>
       </c>
       <c r="FU58">
+        <v>1268.590074722837</v>
+      </c>
+      <c r="FV58">
+        <v>194.1363056056288</v>
+      </c>
+      <c r="FW58">
+        <v>1458.210387784508</v>
+      </c>
+      <c r="FX58">
+        <v>2369.465754356711</v>
+      </c>
+      <c r="FY58">
+        <v>2466.81567997644</v>
+      </c>
+      <c r="FZ58">
         <v>2037.583738710657</v>
       </c>
-      <c r="FV58">
-        <v>2466.81567997644</v>
-      </c>
-      <c r="FW58">
-        <v>194.1363056056288</v>
-      </c>
-      <c r="FX58">
-        <v>97.35947656792639</v>
-      </c>
-      <c r="FY58">
-        <v>1458.210387784508</v>
-      </c>
-      <c r="FZ58">
-        <v>2094.980912711936</v>
-      </c>
       <c r="GA58">
-        <v>2002.942134840708</v>
+        <v>928.4607188114537</v>
       </c>
       <c r="GB58">
-        <v>613.3949530573411</v>
+        <v>2026.611578404819</v>
       </c>
       <c r="GC58">
-        <v>2378.759168916865</v>
+        <v>2059.383943080059</v>
       </c>
       <c r="GD58">
-        <v>2433.07698563063</v>
-      </c>
-      <c r="GE58">
-        <v>1596.233550409396</v>
-      </c>
-      <c r="GF58">
-        <v>1405.480762645557</v>
-      </c>
-      <c r="GG58">
-        <v>2203.180826238624</v>
-      </c>
-      <c r="GH58">
-        <v>2455.276015801711</v>
-      </c>
-      <c r="GI58">
-        <v>1815.181160835804</v>
-      </c>
-      <c r="GJ58">
-        <v>1918.178406850661</v>
+        <v>1800.428307323139</v>
       </c>
     </row>
-    <row r="59" spans="1:192">
+    <row r="59" spans="1:186">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -34420,58 +33376,40 @@
         <v>1458.321487475708</v>
       </c>
       <c r="FT59">
-        <v>1845.81441228031</v>
+        <v>1065.466031040204</v>
       </c>
       <c r="FU59">
+        <v>860.3717365230295</v>
+      </c>
+      <c r="FV59">
+        <v>254.694544939913</v>
+      </c>
+      <c r="FW59">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="FX59">
+        <v>1953.08836736237</v>
+      </c>
+      <c r="FY59">
+        <v>2049.813197151171</v>
+      </c>
+      <c r="FZ59">
         <v>1806.228205960925</v>
       </c>
-      <c r="FV59">
-        <v>2049.813197151171</v>
-      </c>
-      <c r="FW59">
-        <v>254.694544939913</v>
-      </c>
-      <c r="FX59">
-        <v>346.1031247849477</v>
-      </c>
-      <c r="FY59">
-        <v>1381.231187581728</v>
-      </c>
-      <c r="FZ59">
-        <v>1667.876120548888</v>
-      </c>
       <c r="GA59">
-        <v>1574.611212757783</v>
+        <v>674.9747676672591</v>
       </c>
       <c r="GB59">
-        <v>800.6469760851916</v>
+        <v>1594.492110243111</v>
       </c>
       <c r="GC59">
-        <v>1978.460213983548</v>
+        <v>1627.121456427503</v>
       </c>
       <c r="GD59">
-        <v>2035.812352869028</v>
-      </c>
-      <c r="GE59">
-        <v>1205.47650899798</v>
-      </c>
-      <c r="GF59">
-        <v>1035.8192848816</v>
-      </c>
-      <c r="GG59">
-        <v>2010.854605164001</v>
-      </c>
-      <c r="GH59">
-        <v>2266.087640034582</v>
-      </c>
-      <c r="GI59">
-        <v>1671.86851382694</v>
-      </c>
-      <c r="GJ59">
-        <v>1750.985351687097</v>
+        <v>1620.438158095671</v>
       </c>
     </row>
-    <row r="60" spans="1:192">
+    <row r="60" spans="1:186">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -34998,58 +33936,40 @@
         <v>1519.305594937145</v>
       </c>
       <c r="FT60">
-        <v>1723.308143315403</v>
+        <v>1112.384626586209</v>
       </c>
       <c r="FU60">
+        <v>900.554124244367</v>
+      </c>
+      <c r="FV60">
+        <v>292.5196854541394</v>
+      </c>
+      <c r="FW60">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="FX60">
+        <v>2001.892131901087</v>
+      </c>
+      <c r="FY60">
+        <v>2099.596057966915</v>
+      </c>
+      <c r="FZ60">
         <v>1688.08991884421</v>
       </c>
-      <c r="FV60">
-        <v>2099.596057966915</v>
-      </c>
-      <c r="FW60">
-        <v>292.5196854541394</v>
-      </c>
-      <c r="FX60">
-        <v>337.7143857684325</v>
-      </c>
-      <c r="FY60">
-        <v>1196.240769113751</v>
-      </c>
-      <c r="FZ60">
-        <v>1744.091564149758</v>
-      </c>
       <c r="GA60">
-        <v>1655.619852083581</v>
+        <v>558.6607201629156</v>
       </c>
       <c r="GB60">
-        <v>904.2643322405752</v>
+        <v>1697.710493559</v>
       </c>
       <c r="GC60">
-        <v>2000.57928602719</v>
+        <v>1732.838180748347</v>
       </c>
       <c r="GD60">
-        <v>2053.579047996374</v>
-      </c>
-      <c r="GE60">
-        <v>1216.485348140689</v>
-      </c>
-      <c r="GF60">
-        <v>1021.657213076435</v>
-      </c>
-      <c r="GG60">
-        <v>1873.841851212319</v>
-      </c>
-      <c r="GH60">
-        <v>2128.581106670868</v>
-      </c>
-      <c r="GI60">
-        <v>1511.936170952169</v>
-      </c>
-      <c r="GJ60">
-        <v>1601.369819397873</v>
+        <v>1475.662518801673</v>
       </c>
     </row>
-    <row r="61" spans="1:192">
+    <row r="61" spans="1:186">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -35576,58 +34496,40 @@
         <v>1801.583669203883</v>
       </c>
       <c r="FT61">
-        <v>2050.972094951585</v>
+        <v>1404.217861256725</v>
       </c>
       <c r="FU61">
+        <v>1195.872831791194</v>
+      </c>
+      <c r="FV61">
+        <v>98.05901464887026</v>
+      </c>
+      <c r="FW61">
+        <v>1471.132315428259</v>
+      </c>
+      <c r="FX61">
+        <v>2294.221365649386</v>
+      </c>
+      <c r="FY61">
+        <v>2391.295791045003</v>
+      </c>
+      <c r="FZ61">
         <v>2017.65380181623</v>
       </c>
-      <c r="FV61">
-        <v>2391.295791045003</v>
-      </c>
-      <c r="FW61">
-        <v>98.05901464887026</v>
-      </c>
-      <c r="FX61">
-        <v>0</v>
-      </c>
-      <c r="FY61">
-        <v>1471.132315428259</v>
-      </c>
-      <c r="FZ61">
-        <v>2013.500202823117</v>
-      </c>
       <c r="GA61">
-        <v>1920.521242129814</v>
+        <v>894.6578043382506</v>
       </c>
       <c r="GB61">
-        <v>593.8897389818142</v>
+        <v>1939.662153799327</v>
       </c>
       <c r="GC61">
-        <v>2310.488937132395</v>
+        <v>1971.914891855356</v>
       </c>
       <c r="GD61">
-        <v>2366.023441643853</v>
-      </c>
-      <c r="GE61">
-        <v>1530.555563972293</v>
-      </c>
-      <c r="GF61">
-        <v>1346.072444348868</v>
-      </c>
-      <c r="GG61">
-        <v>2193.316231382819</v>
-      </c>
-      <c r="GH61">
-        <v>2446.866642200703</v>
-      </c>
-      <c r="GI61">
-        <v>1815.330087647173</v>
-      </c>
-      <c r="GJ61">
-        <v>1913.244444017787</v>
+        <v>1791.949705895003</v>
       </c>
     </row>
-    <row r="62" spans="1:192">
+    <row r="62" spans="1:186">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -36154,58 +35056,40 @@
         <v>1724.192530942505</v>
       </c>
       <c r="FT62">
-        <v>2264.790621192808</v>
+        <v>1367.727932996584</v>
       </c>
       <c r="FU62">
+        <v>1183.033489393939</v>
+      </c>
+      <c r="FV62">
+        <v>360.9731297400503</v>
+      </c>
+      <c r="FW62">
+        <v>1789.713125354962</v>
+      </c>
+      <c r="FX62">
+        <v>2223.499704474207</v>
+      </c>
+      <c r="FY62">
+        <v>2316.897532167678</v>
+      </c>
+      <c r="FZ62">
         <v>2224.13884244292</v>
       </c>
-      <c r="FV62">
-        <v>2316.897532167678</v>
-      </c>
-      <c r="FW62">
-        <v>360.9731297400503</v>
-      </c>
-      <c r="FX62">
-        <v>419.0673900236047</v>
-      </c>
-      <c r="FY62">
-        <v>1789.713125354962</v>
-      </c>
-      <c r="FZ62">
-        <v>1902.939423806666</v>
-      </c>
       <c r="GA62">
-        <v>1804.746579015624</v>
+        <v>1096.169081390228</v>
       </c>
       <c r="GB62">
-        <v>442.5183713362562</v>
+        <v>1783.887826125665</v>
       </c>
       <c r="GC62">
-        <v>2284.625907600956</v>
+        <v>1810.439398390568</v>
       </c>
       <c r="GD62">
-        <v>2346.499794001822</v>
-      </c>
-      <c r="GE62">
-        <v>1542.856523805582</v>
-      </c>
-      <c r="GF62">
-        <v>1402.408128399315</v>
-      </c>
-      <c r="GG62">
-        <v>2432.228892842852</v>
-      </c>
-      <c r="GH62">
-        <v>2687.415126883949</v>
-      </c>
-      <c r="GI62">
-        <v>2092.150318056944</v>
-      </c>
-      <c r="GJ62">
-        <v>2172.691427418594</v>
+        <v>2042.285145376576</v>
       </c>
     </row>
-    <row r="63" spans="1:192">
+    <row r="63" spans="1:186">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -36732,58 +35616,40 @@
         <v>1182.604231994676</v>
       </c>
       <c r="FT63">
-        <v>1172.650846280296</v>
+        <v>788.005044648549</v>
       </c>
       <c r="FU63">
+        <v>604.8643466475432</v>
+      </c>
+      <c r="FV63">
+        <v>849.0218689274357</v>
+      </c>
+      <c r="FW63">
+        <v>785.968908805777</v>
+      </c>
+      <c r="FX63">
+        <v>1612.099961461016</v>
+      </c>
+      <c r="FY63">
+        <v>1708.449175647813</v>
+      </c>
+      <c r="FZ63">
         <v>1134.765445180305</v>
       </c>
-      <c r="FV63">
-        <v>1708.449175647813</v>
-      </c>
-      <c r="FW63">
-        <v>849.0218689274357</v>
-      </c>
-      <c r="FX63">
-        <v>894.6578043382506</v>
-      </c>
-      <c r="FY63">
-        <v>785.968908805777</v>
-      </c>
-      <c r="FZ63">
-        <v>1428.546148186869</v>
-      </c>
       <c r="GA63">
-        <v>1357.63488616813</v>
+        <v>0</v>
       </c>
       <c r="GB63">
-        <v>1456.300827132447</v>
+        <v>1455.106311487037</v>
       </c>
       <c r="GC63">
-        <v>1559.164906045376</v>
+        <v>1494.72308145771</v>
       </c>
       <c r="GD63">
-        <v>1603.056487871657</v>
-      </c>
-      <c r="GE63">
-        <v>796.7556962495172</v>
-      </c>
-      <c r="GF63">
-        <v>573.6370536670489</v>
-      </c>
-      <c r="GG63">
-        <v>1336.060138294878</v>
-      </c>
-      <c r="GH63">
-        <v>1591.249574041257</v>
-      </c>
-      <c r="GI63">
-        <v>1012.615310433973</v>
-      </c>
-      <c r="GJ63">
-        <v>1081.488532034626</v>
+        <v>948.6759183891151</v>
       </c>
     </row>
-    <row r="64" spans="1:192">
+    <row r="64" spans="1:186">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -37310,58 +36176,40 @@
         <v>1032.198007813574</v>
       </c>
       <c r="FT64">
-        <v>1381.768140857588</v>
+        <v>621.9968527315907</v>
       </c>
       <c r="FU64">
+        <v>411.3530352995165</v>
+      </c>
+      <c r="FV64">
+        <v>746.9099455086618</v>
+      </c>
+      <c r="FW64">
+        <v>1086.680734677368</v>
+      </c>
+      <c r="FX64">
+        <v>1505.375748213317</v>
+      </c>
+      <c r="FY64">
+        <v>1603.175640372244</v>
+      </c>
+      <c r="FZ64">
         <v>1336.954844386958</v>
       </c>
-      <c r="FV64">
-        <v>1603.175640372244</v>
-      </c>
-      <c r="FW64">
-        <v>746.9099455086618</v>
-      </c>
-      <c r="FX64">
-        <v>819.7056588708048</v>
-      </c>
-      <c r="FY64">
-        <v>1086.680734677368</v>
-      </c>
-      <c r="FZ64">
-        <v>1266.249985697332</v>
-      </c>
       <c r="GA64">
-        <v>1183.331732558029</v>
+        <v>302.8748624694482</v>
       </c>
       <c r="GB64">
-        <v>1312.770493539037</v>
+        <v>1250.371479504627</v>
       </c>
       <c r="GC64">
-        <v>1498.979896829636</v>
+        <v>1288.172718633219</v>
       </c>
       <c r="GD64">
-        <v>1552.145816104693</v>
-      </c>
-      <c r="GE64">
-        <v>715.013040296953</v>
-      </c>
-      <c r="GF64">
-        <v>526.8035530107375</v>
-      </c>
-      <c r="GG64">
-        <v>1566.281834299761</v>
-      </c>
-      <c r="GH64">
-        <v>1818.630683240372</v>
-      </c>
-      <c r="GI64">
-        <v>1283.40162284337</v>
-      </c>
-      <c r="GJ64">
-        <v>1336.127304193739</v>
+        <v>1199.584346023232</v>
       </c>
     </row>
-    <row r="65" spans="1:192">
+    <row r="65" spans="1:186">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -37888,58 +36736,40 @@
         <v>1225.122161815765</v>
       </c>
       <c r="FT65">
-        <v>957.6118557705341</v>
+        <v>865.6813261265814</v>
       </c>
       <c r="FU65">
+        <v>720.3037768334666</v>
+      </c>
+      <c r="FV65">
+        <v>1058.528985589027</v>
+      </c>
+      <c r="FW65">
+        <v>579.638425840815</v>
+      </c>
+      <c r="FX65">
+        <v>1606.255646781529</v>
+      </c>
+      <c r="FY65">
+        <v>1699.303973312193</v>
+      </c>
+      <c r="FZ65">
         <v>923.6822375405293</v>
       </c>
-      <c r="FV65">
-        <v>1699.303973312193</v>
-      </c>
-      <c r="FW65">
-        <v>1058.528985589027</v>
-      </c>
-      <c r="FX65">
-        <v>1093.971582277503</v>
-      </c>
-      <c r="FY65">
-        <v>579.638425840815</v>
-      </c>
-      <c r="FZ65">
-        <v>1472.53368349374</v>
-      </c>
       <c r="GA65">
-        <v>1413.623334365539</v>
+        <v>232.6038714904711</v>
       </c>
       <c r="GB65">
-        <v>1670.037460352651</v>
+        <v>1534.674096410238</v>
       </c>
       <c r="GC65">
-        <v>1518.274598686564</v>
+        <v>1575.026423124664</v>
       </c>
       <c r="GD65">
-        <v>1553.980570516246</v>
-      </c>
-      <c r="GE65">
-        <v>810.9269048015179</v>
-      </c>
-      <c r="GF65">
-        <v>592.1823413817858</v>
-      </c>
-      <c r="GG65">
-        <v>1110.915471270411</v>
-      </c>
-      <c r="GH65">
-        <v>1366.137934244671</v>
-      </c>
-      <c r="GI65">
-        <v>780.0686785333509</v>
-      </c>
-      <c r="GJ65">
-        <v>850.2764982471041</v>
+        <v>718.7378101358277</v>
       </c>
     </row>
-    <row r="66" spans="1:192">
+    <row r="66" spans="1:186">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -38466,58 +37296,40 @@
         <v>1205.121608579108</v>
       </c>
       <c r="FT66">
-        <v>1154.163751734449</v>
+        <v>813.3818880826459</v>
       </c>
       <c r="FU66">
+        <v>633.4046989818572</v>
+      </c>
+      <c r="FV66">
+        <v>863.8510562006435</v>
+      </c>
+      <c r="FW66">
+        <v>753.0000765960648</v>
+      </c>
+      <c r="FX66">
+        <v>1629.530639499052</v>
+      </c>
+      <c r="FY66">
+        <v>1725.572323643961</v>
+      </c>
+      <c r="FZ66">
         <v>1117.356824361293</v>
       </c>
-      <c r="FV66">
-        <v>1725.572323643961</v>
-      </c>
-      <c r="FW66">
-        <v>863.8510562006435</v>
-      </c>
-      <c r="FX66">
-        <v>906.3826426892759</v>
-      </c>
-      <c r="FY66">
-        <v>753.0000765960648</v>
-      </c>
-      <c r="FZ66">
-        <v>1451.589080563005</v>
-      </c>
       <c r="GA66">
-        <v>1381.884950414616</v>
+        <v>33.84503696752498</v>
       </c>
       <c r="GB66">
-        <v>1472.984549208486</v>
+        <v>1481.857611950322</v>
       </c>
       <c r="GC66">
-        <v>1571.993315836649</v>
+        <v>1521.581328977206</v>
       </c>
       <c r="GD66">
-        <v>1614.826870860605</v>
-      </c>
-      <c r="GE66">
-        <v>814.810732028916</v>
-      </c>
-      <c r="GF66">
-        <v>590.8234964987056</v>
-      </c>
-      <c r="GG66">
-        <v>1314.241282106455</v>
-      </c>
-      <c r="GH66">
-        <v>1569.50308629633</v>
-      </c>
-      <c r="GI66">
-        <v>985.0642453764279</v>
-      </c>
-      <c r="GJ66">
-        <v>1056.426762033183</v>
+        <v>924.4661339346878</v>
       </c>
     </row>
-    <row r="67" spans="1:192">
+    <row r="67" spans="1:186">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -39044,58 +37856,40 @@
         <v>1056.806093947772</v>
       </c>
       <c r="FT67">
-        <v>1277.064934699816</v>
+        <v>649.7771216274914</v>
       </c>
       <c r="FU67">
+        <v>449.4253952541186</v>
+      </c>
+      <c r="FV67">
+        <v>801.3504864338805</v>
+      </c>
+      <c r="FW67">
+        <v>968.6136688862637</v>
+      </c>
+      <c r="FX67">
+        <v>1512.75630875137</v>
+      </c>
+      <c r="FY67">
+        <v>1610.302609668838</v>
+      </c>
+      <c r="FZ67">
         <v>1233.883961317546</v>
       </c>
-      <c r="FV67">
-        <v>1610.302609668838</v>
-      </c>
-      <c r="FW67">
-        <v>801.3504864338805</v>
-      </c>
-      <c r="FX67">
-        <v>864.6670843717463</v>
-      </c>
-      <c r="FY67">
-        <v>968.6136688862637</v>
-      </c>
-      <c r="FZ67">
-        <v>1297.820729016016</v>
-      </c>
       <c r="GA67">
-        <v>1220.276290334687</v>
+        <v>189.2344112232919</v>
       </c>
       <c r="GB67">
-        <v>1387.394876575396</v>
+        <v>1302.718513299906</v>
       </c>
       <c r="GC67">
-        <v>1486.627537326069</v>
+        <v>1341.571097057493</v>
       </c>
       <c r="GD67">
-        <v>1536.237489983268</v>
-      </c>
-      <c r="GE67">
-        <v>704.5183420213989</v>
-      </c>
-      <c r="GF67">
-        <v>496.092848240093</v>
-      </c>
-      <c r="GG67">
-        <v>1456.845385624637</v>
-      </c>
-      <c r="GH67">
-        <v>1710.236492520642</v>
-      </c>
-      <c r="GI67">
-        <v>1165.705846379305</v>
-      </c>
-      <c r="GJ67">
-        <v>1221.159922026921</v>
+        <v>1085.089812960672</v>
       </c>
     </row>
-    <row r="68" spans="1:192">
+    <row r="68" spans="1:186">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -39622,58 +38416,40 @@
         <v>1004.831728154517</v>
       </c>
       <c r="FT68">
-        <v>1114.488742082217</v>
+        <v>615.7102378113107</v>
       </c>
       <c r="FU68">
+        <v>445.7973109358212</v>
+      </c>
+      <c r="FV68">
+        <v>956.3724738276285</v>
+      </c>
+      <c r="FW68">
+        <v>865.0336529388038</v>
+      </c>
+      <c r="FX68">
+        <v>1432.486015856559</v>
+      </c>
+      <c r="FY68">
+        <v>1528.937183021177</v>
+      </c>
+      <c r="FZ68">
         <v>1070.64142983219</v>
       </c>
-      <c r="FV68">
-        <v>1528.937183021177</v>
-      </c>
-      <c r="FW68">
-        <v>956.3724738276285</v>
-      </c>
-      <c r="FX68">
-        <v>1014.505328605109</v>
-      </c>
-      <c r="FY68">
-        <v>865.0336529388038</v>
-      </c>
-      <c r="FZ68">
-        <v>1251.421994541044</v>
-      </c>
       <c r="GA68">
-        <v>1182.449025914741</v>
+        <v>179.8266870929529</v>
       </c>
       <c r="GB68">
-        <v>1548.706317579863</v>
+        <v>1286.071938955801</v>
       </c>
       <c r="GC68">
-        <v>1383.351087543669</v>
+        <v>1326.004541797579</v>
       </c>
       <c r="GD68">
-        <v>1428.673476556005</v>
-      </c>
-      <c r="GE68">
-        <v>617.0560710513222</v>
-      </c>
-      <c r="GF68">
-        <v>394.4606541343907</v>
-      </c>
-      <c r="GG68">
-        <v>1297.463031773997</v>
-      </c>
-      <c r="GH68">
-        <v>1549.985258552111</v>
-      </c>
-      <c r="GI68">
-        <v>1022.769193752096</v>
-      </c>
-      <c r="GJ68">
-        <v>1069.765722005992</v>
+        <v>932.8136102767006</v>
       </c>
     </row>
-    <row r="69" spans="1:192">
+    <row r="69" spans="1:186">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -40200,58 +38976,40 @@
         <v>1233.528694333948</v>
       </c>
       <c r="FT69">
-        <v>1277.902894096814</v>
+        <v>829.8612634329953</v>
       </c>
       <c r="FU69">
+        <v>633.3710699065343</v>
+      </c>
+      <c r="FV69">
+        <v>742.0425671156638</v>
+      </c>
+      <c r="FW69">
+        <v>852.6759613393226</v>
+      </c>
+      <c r="FX69">
+        <v>1678.362385521125</v>
+      </c>
+      <c r="FY69">
+        <v>1775.424577226897</v>
+      </c>
+      <c r="FZ69">
         <v>1240.649043303421</v>
       </c>
-      <c r="FV69">
-        <v>1775.424577226897</v>
-      </c>
-      <c r="FW69">
-        <v>742.0425671156638</v>
-      </c>
-      <c r="FX69">
-        <v>787.8156450718219</v>
-      </c>
-      <c r="FY69">
-        <v>852.6759613393226</v>
-      </c>
-      <c r="FZ69">
-        <v>1476.699154160221</v>
-      </c>
       <c r="GA69">
-        <v>1401.210918836641</v>
+        <v>107.0697737575445</v>
       </c>
       <c r="GB69">
-        <v>1349.905749892677</v>
+        <v>1487.163740286384</v>
       </c>
       <c r="GC69">
-        <v>1637.301690784213</v>
+        <v>1526.14034396636</v>
       </c>
       <c r="GD69">
-        <v>1683.495081347008</v>
-      </c>
-      <c r="GE69">
-        <v>864.0736952586039</v>
-      </c>
-      <c r="GF69">
-        <v>645.3149615414189</v>
-      </c>
-      <c r="GG69">
-        <v>1438.304268400599</v>
-      </c>
-      <c r="GH69">
-        <v>1693.570282876982</v>
-      </c>
-      <c r="GI69">
-        <v>1104.608721632181</v>
-      </c>
-      <c r="GJ69">
-        <v>1178.942817249504</v>
+        <v>1047.650310425549</v>
       </c>
     </row>
-    <row r="70" spans="1:192">
+    <row r="70" spans="1:186">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -40778,58 +39536,40 @@
         <v>981.9833781749766</v>
       </c>
       <c r="FT70">
-        <v>1270.51304963491</v>
+        <v>574.3948185692174</v>
       </c>
       <c r="FU70">
+        <v>373.8449167726541</v>
+      </c>
+      <c r="FV70">
+        <v>847.6816562721161</v>
+      </c>
+      <c r="FW70">
+        <v>1011.405534579599</v>
+      </c>
+      <c r="FX70">
+        <v>1440.792271727013</v>
+      </c>
+      <c r="FY70">
+        <v>1538.435889182408</v>
+      </c>
+      <c r="FZ70">
         <v>1225.175414733926</v>
       </c>
-      <c r="FV70">
-        <v>1538.435889182408</v>
-      </c>
-      <c r="FW70">
-        <v>847.6816562721161</v>
-      </c>
-      <c r="FX70">
-        <v>915.9057816706</v>
-      </c>
-      <c r="FY70">
-        <v>1011.405534579599</v>
-      </c>
-      <c r="FZ70">
-        <v>1222.513915292828</v>
-      </c>
       <c r="GA70">
-        <v>1144.688692761835</v>
+        <v>249.4380072966607</v>
       </c>
       <c r="GB70">
-        <v>1422.208408237486</v>
+        <v>1227.34987291986</v>
       </c>
       <c r="GC70">
-        <v>1419.63079478014</v>
+        <v>1266.263566724701</v>
       </c>
       <c r="GD70">
-        <v>1470.390713380948</v>
-      </c>
-      <c r="GE70">
-        <v>635.8870883038577</v>
-      </c>
-      <c r="GF70">
-        <v>433.5282510262262</v>
-      </c>
-      <c r="GG70">
-        <v>1457.258213977231</v>
-      </c>
-      <c r="GH70">
-        <v>1708.877044540299</v>
-      </c>
-      <c r="GI70">
-        <v>1185.103648887182</v>
-      </c>
-      <c r="GJ70">
-        <v>1232.528782669708</v>
+        <v>1095.51062419614</v>
       </c>
     </row>
-    <row r="71" spans="1:192">
+    <row r="71" spans="1:186">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -41356,58 +40096,40 @@
         <v>1329.704811022829</v>
       </c>
       <c r="FT71">
-        <v>307.7879321453299</v>
+        <v>1131.616468784735</v>
       </c>
       <c r="FU71">
+        <v>1101.347691810376</v>
+      </c>
+      <c r="FV71">
+        <v>1711.601523545493</v>
+      </c>
+      <c r="FW71">
+        <v>564.0475214545233</v>
+      </c>
+      <c r="FX71">
+        <v>1524.940275449904</v>
+      </c>
+      <c r="FY71">
+        <v>1598.563169443345</v>
+      </c>
+      <c r="FZ71">
         <v>282.7243549562519</v>
       </c>
-      <c r="FV71">
-        <v>1598.563169443345</v>
-      </c>
-      <c r="FW71">
-        <v>1711.601523545493</v>
-      </c>
-      <c r="FX71">
-        <v>1744.832475085812</v>
-      </c>
-      <c r="FY71">
-        <v>564.0475214545233</v>
-      </c>
-      <c r="FZ71">
-        <v>1544.312846685824</v>
-      </c>
       <c r="GA71">
-        <v>1524.846877743714</v>
+        <v>873.579957474921</v>
       </c>
       <c r="GB71">
-        <v>2323.199939147177</v>
+        <v>1693.784647565758</v>
       </c>
       <c r="GC71">
-        <v>1347.789233315065</v>
+        <v>1731.929569267134</v>
       </c>
       <c r="GD71">
-        <v>1355.219575110776</v>
-      </c>
-      <c r="GE71">
-        <v>949.857325950609</v>
-      </c>
-      <c r="GF71">
-        <v>836.9580867949194</v>
-      </c>
-      <c r="GG71">
-        <v>465.4318253087293</v>
-      </c>
-      <c r="GH71">
-        <v>719.5509599075446</v>
-      </c>
-      <c r="GI71">
-        <v>312.7520549515853</v>
-      </c>
-      <c r="GJ71">
-        <v>273.1425589097474</v>
+        <v>153.9425274258294</v>
       </c>
     </row>
-    <row r="72" spans="1:192">
+    <row r="72" spans="1:186">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -41934,58 +40656,40 @@
         <v>1753.177461365114</v>
       </c>
       <c r="FT72">
-        <v>482.8881440396517</v>
+        <v>1535.33298291359</v>
       </c>
       <c r="FU72">
+        <v>1479.068988475387</v>
+      </c>
+      <c r="FV72">
+        <v>1890.566338866817</v>
+      </c>
+      <c r="FW72">
+        <v>459.1223610704129</v>
+      </c>
+      <c r="FX72">
+        <v>1938.722068116451</v>
+      </c>
+      <c r="FY72">
+        <v>2008.490445839093</v>
+      </c>
+      <c r="FZ72">
         <v>513.0969448920848</v>
       </c>
-      <c r="FV72">
-        <v>2008.490445839093</v>
-      </c>
-      <c r="FW72">
-        <v>1890.566338866817</v>
-      </c>
-      <c r="FX72">
-        <v>1903.307612499969</v>
-      </c>
-      <c r="FY72">
-        <v>459.1223610704129</v>
-      </c>
-      <c r="FZ72">
-        <v>1968.590972036073</v>
-      </c>
       <c r="GA72">
-        <v>1948.75604591765</v>
+        <v>1121.149891729814</v>
       </c>
       <c r="GB72">
-        <v>2496.662306113575</v>
+        <v>2116.391262416923</v>
       </c>
       <c r="GC72">
-        <v>1749.66468820382</v>
+        <v>2154.784348335338</v>
       </c>
       <c r="GD72">
-        <v>1750.62892024853</v>
-      </c>
-      <c r="GE72">
-        <v>1366.225264096555</v>
-      </c>
-      <c r="GF72">
-        <v>1232.787503708407</v>
-      </c>
-      <c r="GG72">
-        <v>425.8618106840532</v>
-      </c>
-      <c r="GH72">
-        <v>621.7828983799318</v>
-      </c>
-      <c r="GI72">
-        <v>121.3816813803645</v>
-      </c>
-      <c r="GJ72">
-        <v>188.4274652903957</v>
+        <v>270.370062834607</v>
       </c>
     </row>
-    <row r="73" spans="1:192">
+    <row r="73" spans="1:186">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -42512,58 +41216,40 @@
         <v>1646.110380745351</v>
       </c>
       <c r="FT73">
-        <v>214.1628649654321</v>
+        <v>1517.112203747157</v>
       </c>
       <c r="FU73">
+        <v>1515.073747408706</v>
+      </c>
+      <c r="FV73">
+        <v>2132.498827978574</v>
+      </c>
+      <c r="FW73">
+        <v>808.2252201700509</v>
+      </c>
+      <c r="FX73">
+        <v>1734.359710716395</v>
+      </c>
+      <c r="FY73">
+        <v>1791.014086632373</v>
+      </c>
+      <c r="FZ73">
         <v>270.6369937427432</v>
       </c>
-      <c r="FV73">
-        <v>1791.014086632373</v>
-      </c>
-      <c r="FW73">
-        <v>2132.498827978574</v>
-      </c>
-      <c r="FX73">
-        <v>2159.549203403284</v>
-      </c>
-      <c r="FY73">
-        <v>808.2252201700509</v>
-      </c>
-      <c r="FZ73">
-        <v>1831.787337201443</v>
-      </c>
       <c r="GA73">
-        <v>1831.194009472049</v>
+        <v>1305.126252294265</v>
       </c>
       <c r="GB73">
-        <v>2744.677394159593</v>
+        <v>2011.790470834791</v>
       </c>
       <c r="GC73">
-        <v>1518.516180810221</v>
+        <v>2047.29000352283</v>
       </c>
       <c r="GD73">
-        <v>1506.445029430125</v>
-      </c>
-      <c r="GE73">
-        <v>1312.956578012471</v>
-      </c>
-      <c r="GF73">
-        <v>1239.721493338215</v>
-      </c>
-      <c r="GG73">
-        <v>37.31431410034923</v>
-      </c>
-      <c r="GH73">
-        <v>287.5918869439546</v>
-      </c>
-      <c r="GI73">
-        <v>397.5457104937072</v>
-      </c>
-      <c r="GJ73">
-        <v>264.0629743414219</v>
+        <v>368.3541428344373</v>
       </c>
     </row>
-    <row r="74" spans="1:192">
+    <row r="74" spans="1:186">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -43090,58 +41776,40 @@
         <v>1480.304325499007</v>
       </c>
       <c r="FT74">
-        <v>386.1386355173105</v>
+        <v>1256.53463267496</v>
       </c>
       <c r="FU74">
+        <v>1204.425252578439</v>
+      </c>
+      <c r="FV74">
+        <v>1704.810127305452</v>
+      </c>
+      <c r="FW74">
+        <v>425.5276968863239</v>
+      </c>
+      <c r="FX74">
+        <v>1691.009059914001</v>
+      </c>
+      <c r="FY74">
+        <v>1765.513056301651</v>
+      </c>
+      <c r="FZ74">
         <v>384.3225728969718</v>
       </c>
-      <c r="FV74">
-        <v>1765.513056301651</v>
-      </c>
-      <c r="FW74">
-        <v>1704.810127305452</v>
-      </c>
-      <c r="FX74">
-        <v>1728.912621573726</v>
-      </c>
-      <c r="FY74">
-        <v>425.5276968863239</v>
-      </c>
-      <c r="FZ74">
-        <v>1700.323160440671</v>
-      </c>
       <c r="GA74">
-        <v>1676.81278607193</v>
+        <v>893.2118810424475</v>
       </c>
       <c r="GB74">
-        <v>2316.521334110994</v>
+        <v>1841.888968630243</v>
       </c>
       <c r="GC74">
-        <v>1515.73716180079</v>
+        <v>1880.586525798508</v>
       </c>
       <c r="GD74">
-        <v>1523.288295954956</v>
-      </c>
-      <c r="GE74">
-        <v>1088.59322403016</v>
-      </c>
-      <c r="GF74">
-        <v>954.4533896862571</v>
-      </c>
-      <c r="GG74">
-        <v>468.759749368084</v>
-      </c>
-      <c r="GH74">
-        <v>719.1293559899948</v>
-      </c>
-      <c r="GI74">
-        <v>158.5407836898937</v>
-      </c>
-      <c r="GJ74">
-        <v>188.3934141104386</v>
+        <v>67.34605862364431</v>
       </c>
     </row>
-    <row r="75" spans="1:192">
+    <row r="75" spans="1:186">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -43668,58 +42336,40 @@
         <v>1595.230604037031</v>
       </c>
       <c r="FT75">
-        <v>299.8902878035115</v>
+        <v>1404.630063684894</v>
       </c>
       <c r="FU75">
+        <v>1369.086152435215</v>
+      </c>
+      <c r="FV75">
+        <v>1890.93639892742</v>
+      </c>
+      <c r="FW75">
+        <v>546.0283918483485</v>
+      </c>
+      <c r="FX75">
+        <v>1759.252894451268</v>
+      </c>
+      <c r="FY75">
+        <v>1827.021981140202</v>
+      </c>
+      <c r="FZ75">
         <v>325.9135388590792</v>
       </c>
-      <c r="FV75">
-        <v>1827.021981140202</v>
-      </c>
-      <c r="FW75">
-        <v>1890.93639892742</v>
-      </c>
-      <c r="FX75">
-        <v>1913.244444017787</v>
-      </c>
-      <c r="FY75">
-        <v>546.0283918483485</v>
-      </c>
-      <c r="FZ75">
-        <v>1803.639278015092</v>
-      </c>
       <c r="GA75">
-        <v>1788.771287495631</v>
+        <v>1081.488532034626</v>
       </c>
       <c r="GB75">
-        <v>2502.223615724191</v>
+        <v>1960.633578879102</v>
       </c>
       <c r="GC75">
-        <v>1565.730070129918</v>
+        <v>1998.328918327375</v>
       </c>
       <c r="GD75">
-        <v>1565.155898707714</v>
-      </c>
-      <c r="GE75">
-        <v>1221.960630293429</v>
-      </c>
-      <c r="GF75">
-        <v>1108.640233902342</v>
-      </c>
-      <c r="GG75">
-        <v>301.2231997272007</v>
-      </c>
-      <c r="GH75">
-        <v>541.0783288168114</v>
-      </c>
-      <c r="GI75">
-        <v>139.9368381543991</v>
-      </c>
-      <c r="GJ75">
-        <v>0</v>
+        <v>137.3981072880761</v>
       </c>
     </row>
-    <row r="76" spans="1:192">
+    <row r="76" spans="1:186">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -44246,58 +42896,40 @@
         <v>1483.258354295864</v>
       </c>
       <c r="FT76">
-        <v>321.8858831337699</v>
+        <v>1276.40284021037</v>
       </c>
       <c r="FU76">
+        <v>1234.686132749848</v>
+      </c>
+      <c r="FV76">
+        <v>1766.468128509116</v>
+      </c>
+      <c r="FW76">
+        <v>487.011547218689</v>
+      </c>
+      <c r="FX76">
+        <v>1674.553418278093</v>
+      </c>
+      <c r="FY76">
+        <v>1746.609525649385</v>
+      </c>
+      <c r="FZ76">
         <v>324.1557342892302</v>
       </c>
-      <c r="FV76">
-        <v>1746.609525649385</v>
-      </c>
-      <c r="FW76">
-        <v>1766.468128509116</v>
-      </c>
-      <c r="FX76">
-        <v>1791.949705895003</v>
-      </c>
-      <c r="FY76">
-        <v>487.011547218689</v>
-      </c>
-      <c r="FZ76">
-        <v>1698.246425209766</v>
-      </c>
       <c r="GA76">
-        <v>1678.599542237891</v>
+        <v>948.6759183891151</v>
       </c>
       <c r="GB76">
-        <v>2378.450378414138</v>
+        <v>1846.977048451541</v>
       </c>
       <c r="GC76">
-        <v>1492.301977372202</v>
+        <v>1885.229780341391</v>
       </c>
       <c r="GD76">
-        <v>1497.012199202651</v>
-      </c>
-      <c r="GE76">
-        <v>1100.127785477576</v>
-      </c>
-      <c r="GF76">
-        <v>977.6440958475506</v>
-      </c>
-      <c r="GG76">
-        <v>403.1816248236352</v>
-      </c>
-      <c r="GH76">
-        <v>655.0590286600707</v>
-      </c>
-      <c r="GI76">
-        <v>161.2907276789513</v>
-      </c>
-      <c r="GJ76">
-        <v>137.3981072880761</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:192">
+    <row r="77" spans="1:186">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -44824,58 +43456,40 @@
         <v>1386.563828253004</v>
       </c>
       <c r="FT77">
-        <v>163.541453167294</v>
+        <v>1224.890335583636</v>
       </c>
       <c r="FU77">
+        <v>1213.358985764359</v>
+      </c>
+      <c r="FV77">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="FW77">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="FX77">
+        <v>1535.56679147305</v>
+      </c>
+      <c r="FY77">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="FZ77">
         <v>148.7513857171557</v>
       </c>
-      <c r="FV77">
-        <v>1602.872144433732</v>
-      </c>
-      <c r="FW77">
-        <v>1857.592856382699</v>
-      </c>
-      <c r="FX77">
-        <v>1890.979430310116</v>
-      </c>
-      <c r="FY77">
-        <v>662.7394045387417</v>
-      </c>
-      <c r="FZ77">
-        <v>1588.59897833568</v>
-      </c>
       <c r="GA77">
-        <v>1577.804693301043</v>
+        <v>1018.131974997718</v>
       </c>
       <c r="GB77">
-        <v>2469.084695111085</v>
+        <v>1752.930284369352</v>
       </c>
       <c r="GC77">
-        <v>1341.59871060092</v>
+        <v>1789.937396762529</v>
       </c>
       <c r="GD77">
-        <v>1341.603027051589</v>
-      </c>
-      <c r="GE77">
-        <v>1029.160186995852</v>
-      </c>
-      <c r="GF77">
-        <v>940.5815185919871</v>
-      </c>
-      <c r="GG77">
-        <v>328.6167491499622</v>
-      </c>
-      <c r="GH77">
-        <v>579.4163274486818</v>
-      </c>
-      <c r="GI77">
-        <v>325.4031523102259</v>
-      </c>
-      <c r="GJ77">
-        <v>224.2374854021976</v>
+        <v>181.2894030044008</v>
       </c>
     </row>
-    <row r="78" spans="1:192">
+    <row r="78" spans="1:186">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -45402,58 +44016,40 @@
         <v>1637.217121241835</v>
       </c>
       <c r="FT78">
-        <v>432.5011104279552</v>
+        <v>1414.344807589904</v>
       </c>
       <c r="FU78">
+        <v>1357.913017983126</v>
+      </c>
+      <c r="FV78">
+        <v>1798.332658341223</v>
+      </c>
+      <c r="FW78">
+        <v>411.0816437505482</v>
+      </c>
+      <c r="FX78">
+        <v>1835.79991319492</v>
+      </c>
+      <c r="FY78">
+        <v>1907.885477686847</v>
+      </c>
+      <c r="FZ78">
         <v>450.913775465109</v>
       </c>
-      <c r="FV78">
-        <v>1907.885477686847</v>
-      </c>
-      <c r="FW78">
-        <v>1798.332658341223</v>
-      </c>
-      <c r="FX78">
-        <v>1815.330087647173</v>
-      </c>
-      <c r="FY78">
-        <v>411.0816437505482</v>
-      </c>
-      <c r="FZ78">
-        <v>1855.279279024875</v>
-      </c>
       <c r="GA78">
-        <v>1833.371185171114</v>
+        <v>1012.615310433973</v>
       </c>
       <c r="GB78">
-        <v>2407.259504208528</v>
+        <v>1999.471197727117</v>
       </c>
       <c r="GC78">
-        <v>1653.098389730191</v>
+        <v>2038.059632860892</v>
       </c>
       <c r="GD78">
-        <v>1657.106208984158</v>
-      </c>
-      <c r="GE78">
-        <v>1247.070350224069</v>
-      </c>
-      <c r="GF78">
-        <v>1111.535568414422</v>
-      </c>
-      <c r="GG78">
-        <v>434.8418642166652</v>
-      </c>
-      <c r="GH78">
-        <v>662.5094841507452</v>
-      </c>
-      <c r="GI78">
-        <v>0</v>
-      </c>
-      <c r="GJ78">
-        <v>139.9368381543991</v>
+        <v>161.2907276789513</v>
       </c>
     </row>
-    <row r="79" spans="1:192">
+    <row r="79" spans="1:186">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -45980,58 +44576,40 @@
         <v>674.4512416612494</v>
       </c>
       <c r="FT79">
-        <v>910.4109875308651</v>
+        <v>414.6354129681811</v>
       </c>
       <c r="FU79">
+        <v>420.5664161264548</v>
+      </c>
+      <c r="FV79">
+        <v>1373.298226931041</v>
+      </c>
+      <c r="FW79">
+        <v>1028.280642550083</v>
+      </c>
+      <c r="FX79">
+        <v>1025.863478689789</v>
+      </c>
+      <c r="FY79">
+        <v>1118.985232914958</v>
+      </c>
+      <c r="FZ79">
         <v>855.7833727582489</v>
       </c>
-      <c r="FV79">
-        <v>1118.985232914958</v>
-      </c>
-      <c r="FW79">
-        <v>1373.298226931041</v>
-      </c>
-      <c r="FX79">
-        <v>1440.838804128671</v>
-      </c>
-      <c r="FY79">
-        <v>1028.280642550083</v>
-      </c>
-      <c r="FZ79">
-        <v>916.1185194992547</v>
-      </c>
       <c r="GA79">
-        <v>871.017064436197</v>
+        <v>615.9853988904827</v>
       </c>
       <c r="GB79">
-        <v>1939.625037337395</v>
+        <v>1018.237559586634</v>
       </c>
       <c r="GC79">
-        <v>947.6094081588481</v>
+        <v>1058.169753410276</v>
       </c>
       <c r="GD79">
-        <v>988.8700760810132</v>
-      </c>
-      <c r="GE79">
-        <v>256.0209667447571</v>
-      </c>
-      <c r="GF79">
-        <v>138.3858897063428</v>
-      </c>
-      <c r="GG79">
-        <v>1126.546518182791</v>
-      </c>
-      <c r="GH79">
-        <v>1355.720228982576</v>
-      </c>
-      <c r="GI79">
-        <v>1003.444834539236</v>
-      </c>
-      <c r="GJ79">
-        <v>990.0517632404983</v>
+        <v>862.5592459037262</v>
       </c>
     </row>
-    <row r="80" spans="1:192">
+    <row r="80" spans="1:186">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -46558,58 +45136,40 @@
         <v>632.9398862959245</v>
       </c>
       <c r="FT80">
-        <v>1044.410594452489</v>
+        <v>306.0130855747632</v>
       </c>
       <c r="FU80">
+        <v>282.377050637132</v>
+      </c>
+      <c r="FV80">
+        <v>1273.557336349578</v>
+      </c>
+      <c r="FW80">
+        <v>1095.311251735366</v>
+      </c>
+      <c r="FX80">
+        <v>1038.733462004461</v>
+      </c>
+      <c r="FY80">
+        <v>1134.903363763771</v>
+      </c>
+      <c r="FZ80">
         <v>990.3860427871608</v>
       </c>
-      <c r="FV80">
-        <v>1134.903363763771</v>
-      </c>
-      <c r="FW80">
-        <v>1273.557336349578</v>
-      </c>
-      <c r="FX80">
-        <v>1346.072444348868</v>
-      </c>
-      <c r="FY80">
-        <v>1095.311251735366</v>
-      </c>
-      <c r="FZ80">
-        <v>880.4006839662886</v>
-      </c>
       <c r="GA80">
-        <v>822.4893969617166</v>
+        <v>573.6370536670489</v>
       </c>
       <c r="GB80">
-        <v>1826.073758601715</v>
+        <v>952.2675983627084</v>
       </c>
       <c r="GC80">
-        <v>993.001578469387</v>
+        <v>992.6575982978978</v>
       </c>
       <c r="GD80">
-        <v>1041.06170129759</v>
-      </c>
-      <c r="GE80">
-        <v>224.5484842962076</v>
-      </c>
-      <c r="GF80">
-        <v>0</v>
-      </c>
-      <c r="GG80">
-        <v>1258.599693951744</v>
-      </c>
-      <c r="GH80">
-        <v>1490.78016826052</v>
-      </c>
-      <c r="GI80">
-        <v>1111.535568414422</v>
-      </c>
-      <c r="GJ80">
-        <v>1108.640233902342</v>
+        <v>977.6440958475506</v>
       </c>
     </row>
-    <row r="81" spans="1:192">
+    <row r="81" spans="1:186">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -47136,58 +45696,40 @@
         <v>621.3448838802391</v>
       </c>
       <c r="FT81">
-        <v>1323.569288123069</v>
+        <v>211.9925422098528</v>
       </c>
       <c r="FU81">
+        <v>0</v>
+      </c>
+      <c r="FV81">
+        <v>1112.098906652667</v>
+      </c>
+      <c r="FW81">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FX81">
+        <v>1101.884478584052</v>
+      </c>
+      <c r="FY81">
+        <v>1199.485455459765</v>
+      </c>
+      <c r="FZ81">
         <v>1270.210806071794</v>
       </c>
-      <c r="FV81">
-        <v>1199.485455459765</v>
-      </c>
-      <c r="FW81">
-        <v>1112.098906652667</v>
-      </c>
-      <c r="FX81">
-        <v>1195.872831791194</v>
-      </c>
-      <c r="FY81">
-        <v>1281.528221774515</v>
-      </c>
-      <c r="FZ81">
-        <v>855.2252012961808</v>
-      </c>
       <c r="GA81">
-        <v>773.8630236214317</v>
+        <v>604.8643466475432</v>
       </c>
       <c r="GB81">
-        <v>1619.287121571243</v>
+        <v>853.8915499126527</v>
       </c>
       <c r="GC81">
-        <v>1118.29276192073</v>
+        <v>892.9961822756936</v>
       </c>
       <c r="GD81">
-        <v>1176.363780771056</v>
-      </c>
-      <c r="GE81">
-        <v>360.7341099908504</v>
-      </c>
-      <c r="GF81">
-        <v>282.377050637132</v>
-      </c>
-      <c r="GG81">
-        <v>1535.319759912854</v>
-      </c>
-      <c r="GH81">
-        <v>1770.689052880049</v>
-      </c>
-      <c r="GI81">
-        <v>1357.913017983126</v>
-      </c>
-      <c r="GJ81">
-        <v>1369.086152435215</v>
+        <v>1234.686132749848</v>
       </c>
     </row>
-    <row r="82" spans="1:192">
+    <row r="82" spans="1:186">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -47714,58 +46256,40 @@
         <v>582.6816464437462</v>
       </c>
       <c r="FT82">
-        <v>1194.808927678077</v>
+        <v>193.7241692114509</v>
       </c>
       <c r="FU82">
+        <v>137.5311398406996</v>
+      </c>
+      <c r="FV82">
+        <v>1206.658481128847</v>
+      </c>
+      <c r="FW82">
+        <v>1209.204222944999</v>
+      </c>
+      <c r="FX82">
+        <v>1035.549813751343</v>
+      </c>
+      <c r="FY82">
+        <v>1133.25561500881</v>
+      </c>
+      <c r="FZ82">
         <v>1140.721943006315</v>
       </c>
-      <c r="FV82">
-        <v>1133.25561500881</v>
-      </c>
-      <c r="FW82">
-        <v>1206.658481128847</v>
-      </c>
-      <c r="FX82">
-        <v>1285.796032276844</v>
-      </c>
-      <c r="FY82">
-        <v>1209.204222944999</v>
-      </c>
-      <c r="FZ82">
-        <v>827.7126194364911</v>
-      </c>
       <c r="GA82">
-        <v>757.0904807148119</v>
+        <v>601.0347539873843</v>
       </c>
       <c r="GB82">
-        <v>1734.500045075881</v>
+        <v>864.6662271736374</v>
       </c>
       <c r="GC82">
-        <v>1025.947386239112</v>
+        <v>904.8805367692</v>
       </c>
       <c r="GD82">
-        <v>1080.435113520199</v>
-      </c>
-      <c r="GE82">
-        <v>245.7341646945454</v>
-      </c>
-      <c r="GF82">
-        <v>150.4197737852586</v>
-      </c>
-      <c r="GG82">
-        <v>1408.944503921307</v>
-      </c>
-      <c r="GH82">
-        <v>1641.06733434617</v>
-      </c>
-      <c r="GI82">
-        <v>1252.412225362983</v>
-      </c>
-      <c r="GJ82">
-        <v>1254.76913910246</v>
+        <v>1122.424606818479</v>
       </c>
     </row>
-    <row r="83" spans="1:192">
+    <row r="83" spans="1:186">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -48292,58 +46816,40 @@
         <v>410.2639656024951</v>
       </c>
       <c r="FT83">
-        <v>1313.427255105041</v>
+        <v>0</v>
       </c>
       <c r="FU83">
+        <v>211.9925422098528</v>
+      </c>
+      <c r="FV83">
+        <v>1318.733953250071</v>
+      </c>
+      <c r="FW83">
+        <v>1396.01198343432</v>
+      </c>
+      <c r="FX83">
+        <v>890.9636984603683</v>
+      </c>
+      <c r="FY83">
+        <v>988.4218810096019</v>
+      </c>
+      <c r="FZ83">
         <v>1257.523222365614</v>
       </c>
-      <c r="FV83">
-        <v>988.4218810096019</v>
-      </c>
-      <c r="FW83">
-        <v>1318.733953250071</v>
-      </c>
-      <c r="FX83">
-        <v>1404.217861256725</v>
-      </c>
-      <c r="FY83">
-        <v>1396.01198343432</v>
-      </c>
-      <c r="FZ83">
-        <v>648.1546168092279</v>
-      </c>
       <c r="GA83">
-        <v>571.4066360677692</v>
+        <v>788.005044648549</v>
       </c>
       <c r="GB83">
-        <v>1808.015615423747</v>
+        <v>671.3843689584847</v>
       </c>
       <c r="GC83">
-        <v>919.0251540415106</v>
+        <v>711.5294305561113</v>
       </c>
       <c r="GD83">
-        <v>979.6001056141831</v>
-      </c>
-      <c r="GE83">
-        <v>228.2343513300683</v>
-      </c>
-      <c r="GF83">
-        <v>306.0130855747632</v>
-      </c>
-      <c r="GG83">
-        <v>1532.81610406397</v>
-      </c>
-      <c r="GH83">
-        <v>1753.532893287725</v>
-      </c>
-      <c r="GI83">
-        <v>1414.344807589904</v>
-      </c>
-      <c r="GJ83">
-        <v>1404.630063684894</v>
+        <v>1276.40284021037</v>
       </c>
     </row>
-    <row r="84" spans="1:192">
+    <row r="84" spans="1:186">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -48870,58 +47376,40 @@
         <v>490.7578844520484</v>
       </c>
       <c r="FT84">
-        <v>1027.554037975723</v>
+        <v>293.6777176402856</v>
       </c>
       <c r="FU84">
+        <v>390.3849238910674</v>
+      </c>
+      <c r="FV84">
+        <v>1452.930347077751</v>
+      </c>
+      <c r="FW84">
+        <v>1211.593457365197</v>
+      </c>
+      <c r="FX84">
+        <v>856.6671636209181</v>
+      </c>
+      <c r="FY84">
+        <v>951.7955616167743</v>
+      </c>
+      <c r="FZ84">
         <v>971.105242567399</v>
       </c>
-      <c r="FV84">
-        <v>951.7955616167743</v>
-      </c>
-      <c r="FW84">
-        <v>1452.930347077751</v>
-      </c>
-      <c r="FX84">
-        <v>1528.08529932399</v>
-      </c>
-      <c r="FY84">
-        <v>1211.593457365197</v>
-      </c>
-      <c r="FZ84">
-        <v>731.9552436535106</v>
-      </c>
       <c r="GA84">
-        <v>687.8116463110168</v>
+        <v>759.8428935813431</v>
       </c>
       <c r="GB84">
-        <v>1992.307265591839</v>
+        <v>839.2199895665752</v>
       </c>
       <c r="GC84">
-        <v>803.4627585618975</v>
+        <v>878.8315974729937</v>
       </c>
       <c r="GD84">
-        <v>851.6312518500825</v>
-      </c>
-      <c r="GE84">
-        <v>79.98716445337901</v>
-      </c>
-      <c r="GF84">
-        <v>189.5631564657355</v>
-      </c>
-      <c r="GG84">
-        <v>1248.550439487756</v>
-      </c>
-      <c r="GH84">
-        <v>1463.827809675573</v>
-      </c>
-      <c r="GI84">
-        <v>1167.522430839368</v>
-      </c>
-      <c r="GJ84">
-        <v>1141.977867528399</v>
+        <v>1020.226591728707</v>
       </c>
     </row>
-    <row r="85" spans="1:192">
+    <row r="85" spans="1:186">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -49448,58 +47936,40 @@
         <v>572.3459735225481</v>
       </c>
       <c r="FT85">
-        <v>914.6871984940566</v>
+        <v>406.7498615603797</v>
       </c>
       <c r="FU85">
+        <v>482.9222352005885</v>
+      </c>
+      <c r="FV85">
+        <v>1503.858635952434</v>
+      </c>
+      <c r="FW85">
+        <v>1139.234763227529</v>
+      </c>
+      <c r="FX85">
+        <v>885.2627783631091</v>
+      </c>
+      <c r="FY85">
+        <v>976.9616683642233</v>
+      </c>
+      <c r="FZ85">
         <v>858.1264915265141</v>
       </c>
-      <c r="FV85">
-        <v>976.9616683642233</v>
-      </c>
-      <c r="FW85">
-        <v>1503.858635952434</v>
-      </c>
-      <c r="FX85">
-        <v>1574.562161735</v>
-      </c>
-      <c r="FY85">
-        <v>1139.234763227529</v>
-      </c>
-      <c r="FZ85">
-        <v>804.0235191705742</v>
-      </c>
       <c r="GA85">
-        <v>770.0814334212608</v>
+        <v>763.5803695378321</v>
       </c>
       <c r="GB85">
-        <v>2058.686824062338</v>
+        <v>930.9861915965498</v>
       </c>
       <c r="GC85">
-        <v>799.7425862733932</v>
+        <v>969.8852203700901</v>
       </c>
       <c r="GD85">
-        <v>840.7154582402053</v>
-      </c>
-      <c r="GE85">
-        <v>190.2494738800234</v>
-      </c>
-      <c r="GF85">
-        <v>232.6485057499794</v>
-      </c>
-      <c r="GG85">
-        <v>1135.998804425727</v>
-      </c>
-      <c r="GH85">
-        <v>1350.089967723241</v>
-      </c>
-      <c r="GI85">
-        <v>1068.995930382836</v>
-      </c>
-      <c r="GJ85">
-        <v>1037.139228096466</v>
+        <v>918.4823343640123</v>
       </c>
     </row>
-    <row r="86" spans="1:192">
+    <row r="86" spans="1:186">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -50026,58 +48496,40 @@
         <v>420.5131485125544</v>
       </c>
       <c r="FT86">
-        <v>1104.899652605855</v>
+        <v>228.2343513300683</v>
       </c>
       <c r="FU86">
+        <v>360.7341099908504</v>
+      </c>
+      <c r="FV86">
+        <v>1452.129922133154</v>
+      </c>
+      <c r="FW86">
+        <v>1283.966180389816</v>
+      </c>
+      <c r="FX86">
+        <v>815.4727570597178</v>
+      </c>
+      <c r="FY86">
+        <v>912.0844778520328</v>
+      </c>
+      <c r="FZ86">
         <v>1048.308713851717</v>
       </c>
-      <c r="FV86">
-        <v>912.0844778520328</v>
-      </c>
-      <c r="FW86">
-        <v>1452.129922133154</v>
-      </c>
-      <c r="FX86">
-        <v>1530.555563972293</v>
-      </c>
-      <c r="FY86">
-        <v>1283.966180389816</v>
-      </c>
-      <c r="FZ86">
-        <v>665.2038676860965</v>
-      </c>
       <c r="GA86">
-        <v>615.9107326488017</v>
+        <v>796.7556962495172</v>
       </c>
       <c r="GB86">
-        <v>1977.342631865509</v>
+        <v>762.6929691364261</v>
       </c>
       <c r="GC86">
-        <v>784.5127212918381</v>
+        <v>802.5186999172728</v>
       </c>
       <c r="GD86">
-        <v>837.1328135965426</v>
-      </c>
-      <c r="GE86">
-        <v>0</v>
-      </c>
-      <c r="GF86">
-        <v>224.5484842962076</v>
-      </c>
-      <c r="GG86">
-        <v>1326.247734136045</v>
-      </c>
-      <c r="GH86">
-        <v>1539.239552209969</v>
-      </c>
-      <c r="GI86">
-        <v>1247.070350224069</v>
-      </c>
-      <c r="GJ86">
-        <v>1221.960630293429</v>
+        <v>1100.127785477576</v>
       </c>
     </row>
-    <row r="87" spans="1:192">
+    <row r="87" spans="1:186">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -50604,58 +49056,40 @@
         <v>455.1515384320251</v>
       </c>
       <c r="FT87">
-        <v>1127.207405024305</v>
+        <v>187.9009605509411</v>
       </c>
       <c r="FU87">
+        <v>295.8191950233522</v>
+      </c>
+      <c r="FV87">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="FW87">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="FX87">
+        <v>872.6733517525387</v>
+      </c>
+      <c r="FY87">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="FZ87">
         <v>1071.090925273024</v>
       </c>
-      <c r="FV87">
-        <v>969.7956996288503</v>
-      </c>
-      <c r="FW87">
-        <v>1385.569038720099</v>
-      </c>
-      <c r="FX87">
-        <v>1464.272447824977</v>
-      </c>
-      <c r="FY87">
-        <v>1261.823060385196</v>
-      </c>
-      <c r="FZ87">
-        <v>702.5354803286618</v>
-      </c>
       <c r="GA87">
-        <v>645.8766832870573</v>
+        <v>742.1300272160526</v>
       </c>
       <c r="GB87">
-        <v>1910.927125445697</v>
+        <v>781.6633328847261</v>
       </c>
       <c r="GC87">
-        <v>849.331368981776</v>
+        <v>821.9127281234219</v>
       </c>
       <c r="GD87">
-        <v>902.6998600863592</v>
-      </c>
-      <c r="GE87">
-        <v>66.79262625569991</v>
-      </c>
-      <c r="GF87">
-        <v>177.8786399332136</v>
-      </c>
-      <c r="GG87">
-        <v>1347.274333669257</v>
-      </c>
-      <c r="GH87">
-        <v>1566.153072454196</v>
-      </c>
-      <c r="GI87">
-        <v>1246.34942642334</v>
-      </c>
-      <c r="GJ87">
-        <v>1228.705510457825</v>
+        <v>1103.433129294198</v>
       </c>
     </row>
-    <row r="88" spans="1:192">
+    <row r="88" spans="1:186">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -51182,58 +49616,40 @@
         <v>2085.840642839735</v>
       </c>
       <c r="FT88">
-        <v>2623.16374200981</v>
+        <v>1740.438631234766</v>
       </c>
       <c r="FU88">
+        <v>1559.620536310007</v>
+      </c>
+      <c r="FV88">
+        <v>629.7390398150832</v>
+      </c>
+      <c r="FW88">
+        <v>2097.559283836537</v>
+      </c>
+      <c r="FX88">
+        <v>2583.381310184317</v>
+      </c>
+      <c r="FY88">
+        <v>2675.246242760777</v>
+      </c>
+      <c r="FZ88">
         <v>2584.522796704426</v>
       </c>
-      <c r="FV88">
-        <v>2675.246242760777</v>
-      </c>
-      <c r="FW88">
-        <v>629.7390398150832</v>
-      </c>
-      <c r="FX88">
-        <v>633.6299743074113</v>
-      </c>
-      <c r="FY88">
-        <v>2097.559283836537</v>
-      </c>
-      <c r="FZ88">
-        <v>2253.153251334898</v>
-      </c>
       <c r="GA88">
-        <v>2154.184127263729</v>
+        <v>1450.574424036748</v>
       </c>
       <c r="GB88">
-        <v>143.0416520787503</v>
+        <v>2117.973043275126</v>
       </c>
       <c r="GC88">
-        <v>2654.317411202699</v>
+        <v>2141.60097883191</v>
       </c>
       <c r="GD88">
-        <v>2717.106548668172</v>
-      </c>
-      <c r="GE88">
-        <v>1919.943465417516</v>
-      </c>
-      <c r="GF88">
-        <v>1780.870229831219</v>
-      </c>
-      <c r="GG88">
-        <v>2782.687836254871</v>
-      </c>
-      <c r="GH88">
-        <v>3037.861327848798</v>
-      </c>
-      <c r="GI88">
-        <v>2425.283643619665</v>
-      </c>
-      <c r="GJ88">
-        <v>2514.152402422923</v>
+        <v>2387.110114446656</v>
       </c>
     </row>
-    <row r="89" spans="1:192">
+    <row r="89" spans="1:186">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -51760,58 +50176,40 @@
         <v>2166.661152871417</v>
       </c>
       <c r="FT89">
-        <v>2626.627364680352</v>
+        <v>1808.015615423747</v>
       </c>
       <c r="FU89">
+        <v>1619.287121571243</v>
+      </c>
+      <c r="FV89">
+        <v>612.2011787023229</v>
+      </c>
+      <c r="FW89">
+        <v>2064.612053979791</v>
+      </c>
+      <c r="FX89">
+        <v>2665.886041556122</v>
+      </c>
+      <c r="FY89">
+        <v>2759.125586227252</v>
+      </c>
+      <c r="FZ89">
         <v>2590.340308597805</v>
       </c>
-      <c r="FV89">
-        <v>2759.125586227252</v>
-      </c>
-      <c r="FW89">
-        <v>612.2011787023229</v>
-      </c>
-      <c r="FX89">
-        <v>593.8897389818142</v>
-      </c>
-      <c r="FY89">
-        <v>2064.612053979791</v>
-      </c>
-      <c r="FZ89">
-        <v>2343.225155352953</v>
-      </c>
       <c r="GA89">
-        <v>2244.737232545102</v>
+        <v>1456.300827132447</v>
       </c>
       <c r="GB89">
-        <v>0</v>
+        <v>2217.580546933605</v>
       </c>
       <c r="GC89">
-        <v>2725.952761402729</v>
+        <v>2242.715469121756</v>
       </c>
       <c r="GD89">
-        <v>2787.406676970597</v>
-      </c>
-      <c r="GE89">
-        <v>1977.342631865509</v>
-      </c>
-      <c r="GF89">
-        <v>1826.073758601715</v>
-      </c>
-      <c r="GG89">
-        <v>2777.743225316957</v>
-      </c>
-      <c r="GH89">
-        <v>3032.266333800138</v>
-      </c>
-      <c r="GI89">
-        <v>2407.259504208528</v>
-      </c>
-      <c r="GJ89">
-        <v>2502.223615724191</v>
+        <v>2378.450378414138</v>
       </c>
     </row>
-    <row r="90" spans="1:192">
+    <row r="90" spans="1:186">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -52338,58 +50736,40 @@
         <v>2341.336685435321</v>
       </c>
       <c r="FT90">
-        <v>2829.292987431081</v>
+        <v>1992.113654426658</v>
       </c>
       <c r="FU90">
+        <v>1807.837087659171</v>
+      </c>
+      <c r="FV90">
+        <v>814.420760765028</v>
+      </c>
+      <c r="FW90">
+        <v>2260.555485237192</v>
+      </c>
+      <c r="FX90">
+        <v>2839.229618459596</v>
+      </c>
+      <c r="FY90">
+        <v>2931.283173519457</v>
+      </c>
+      <c r="FZ90">
         <v>2793.045987373165</v>
       </c>
-      <c r="FV90">
-        <v>2931.283173519457</v>
-      </c>
-      <c r="FW90">
-        <v>814.420760765028</v>
-      </c>
-      <c r="FX90">
-        <v>792.2543428455093</v>
-      </c>
-      <c r="FY90">
-        <v>2260.555485237192</v>
-      </c>
-      <c r="FZ90">
-        <v>2509.571806745045</v>
-      </c>
       <c r="GA90">
-        <v>2410.605839508223</v>
+        <v>1658.983447191009</v>
       </c>
       <c r="GB90">
-        <v>202.7073544089431</v>
+        <v>2373.592226561971</v>
       </c>
       <c r="GC90">
-        <v>2907.707926029943</v>
+        <v>2396.896899145033</v>
       </c>
       <c r="GD90">
-        <v>2970.088480681006</v>
-      </c>
-      <c r="GE90">
-        <v>2167.318049505363</v>
-      </c>
-      <c r="GF90">
-        <v>2021.334612790497</v>
-      </c>
-      <c r="GG90">
-        <v>2979.82557018606</v>
-      </c>
-      <c r="GH90">
-        <v>3234.237129511852</v>
-      </c>
-      <c r="GI90">
-        <v>2607.288379702899</v>
-      </c>
-      <c r="GJ90">
-        <v>2703.407311775466</v>
+        <v>2580.165780139078</v>
       </c>
     </row>
-    <row r="91" spans="1:192">
+    <row r="91" spans="1:186">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -52916,58 +51296,40 @@
         <v>2032.218298615531</v>
       </c>
       <c r="FT91">
-        <v>2334.982739513286</v>
+        <v>1646.069401725078</v>
       </c>
       <c r="FU91">
+        <v>1442.880205736041</v>
+      </c>
+      <c r="FV91">
+        <v>340.5001789684775</v>
+      </c>
+      <c r="FW91">
+        <v>1736.503454204559</v>
+      </c>
+      <c r="FX91">
+        <v>2529.79355376341</v>
+      </c>
+      <c r="FY91">
+        <v>2625.882080607564</v>
+      </c>
+      <c r="FZ91">
         <v>2302.050943033654</v>
       </c>
-      <c r="FV91">
-        <v>2625.882080607564</v>
-      </c>
-      <c r="FW91">
-        <v>340.5001789684775</v>
-      </c>
-      <c r="FX91">
-        <v>284.7963704676405</v>
-      </c>
-      <c r="FY91">
-        <v>1736.503454204559</v>
-      </c>
-      <c r="FZ91">
-        <v>2232.204830771972</v>
-      </c>
       <c r="GA91">
-        <v>2136.515123766495</v>
+        <v>1179.000189021479</v>
       </c>
       <c r="GB91">
-        <v>342.5767844385426</v>
+        <v>2137.615585106028</v>
       </c>
       <c r="GC91">
-        <v>2561.165572304993</v>
+        <v>2167.264072148903</v>
       </c>
       <c r="GD91">
-        <v>2618.804829122238</v>
-      </c>
-      <c r="GE91">
-        <v>1788.235295047079</v>
-      </c>
-      <c r="GF91">
-        <v>1613.230132685549</v>
-      </c>
-      <c r="GG91">
-        <v>2474.901723116928</v>
-      </c>
-      <c r="GH91">
-        <v>2727.874660579848</v>
-      </c>
-      <c r="GI91">
-        <v>2091.35159170046</v>
-      </c>
-      <c r="GJ91">
-        <v>2192.385829709349</v>
+        <v>2072.815635888687</v>
       </c>
     </row>
-    <row r="92" spans="1:192">
+    <row r="92" spans="1:186">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -53494,58 +51856,40 @@
         <v>2188.53726030792</v>
       </c>
       <c r="FT92">
-        <v>2588.439681805914</v>
+        <v>1819.985043012487</v>
       </c>
       <c r="FU92">
+        <v>1625.717722770595</v>
+      </c>
+      <c r="FV92">
+        <v>574.3830556368341</v>
+      </c>
+      <c r="FW92">
+        <v>2003.543313126395</v>
+      </c>
+      <c r="FX92">
+        <v>2688.223549350592</v>
+      </c>
+      <c r="FY92">
+        <v>2782.508769643509</v>
+      </c>
+      <c r="FZ92">
         <v>2553.844855762413</v>
       </c>
-      <c r="FV92">
-        <v>2782.508769643509</v>
-      </c>
-      <c r="FW92">
-        <v>574.3830556368341</v>
-      </c>
-      <c r="FX92">
-        <v>540.6363276255986</v>
-      </c>
-      <c r="FY92">
-        <v>2003.543313126395</v>
-      </c>
-      <c r="FZ92">
-        <v>2372.7379014574</v>
-      </c>
       <c r="GA92">
-        <v>2274.875805227008</v>
+        <v>1423.404806204417</v>
       </c>
       <c r="GB92">
-        <v>105.1140432231545</v>
+        <v>2255.956067238684</v>
       </c>
       <c r="GC92">
-        <v>2739.008738280041</v>
+        <v>2282.439818703921</v>
       </c>
       <c r="GD92">
-        <v>2799.260629235554</v>
-      </c>
-      <c r="GE92">
-        <v>1980.588326403723</v>
-      </c>
-      <c r="GF92">
-        <v>1820.371808525254</v>
-      </c>
-      <c r="GG92">
-        <v>2733.582724048216</v>
-      </c>
-      <c r="GH92">
-        <v>2987.322674063053</v>
-      </c>
-      <c r="GI92">
-        <v>2355.045765957657</v>
-      </c>
-      <c r="GJ92">
-        <v>2453.846035151074</v>
+        <v>2332.485326838606</v>
       </c>
     </row>
-    <row r="93" spans="1:192">
+    <row r="93" spans="1:186">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -54072,58 +52416,40 @@
         <v>2061.247868539997</v>
       </c>
       <c r="FT93">
-        <v>2530.485836500902</v>
+        <v>1701.590377244064</v>
       </c>
       <c r="FU93">
+        <v>1512.789153498068</v>
+      </c>
+      <c r="FV93">
+        <v>520.9447492018544</v>
+      </c>
+      <c r="FW93">
+        <v>1983.373323291821</v>
+      </c>
+      <c r="FX93">
+        <v>2560.605198348382</v>
+      </c>
+      <c r="FY93">
+        <v>2654.028735718156</v>
+      </c>
+      <c r="FZ93">
         <v>2493.431822771382</v>
       </c>
-      <c r="FV93">
-        <v>2654.028735718156</v>
-      </c>
-      <c r="FW93">
-        <v>520.9447492018544</v>
-      </c>
-      <c r="FX93">
-        <v>513.5416374384957</v>
-      </c>
-      <c r="FY93">
-        <v>1983.373323291821</v>
-      </c>
-      <c r="FZ93">
-        <v>2239.337939092258</v>
-      </c>
       <c r="GA93">
-        <v>2140.985004078982</v>
+        <v>1358.758856541469</v>
       </c>
       <c r="GB93">
-        <v>106.514079164533</v>
+        <v>2116.26091364059</v>
       </c>
       <c r="GC93">
-        <v>2619.636562093568</v>
+        <v>2141.880606063021</v>
       </c>
       <c r="GD93">
-        <v>2681.023568592464</v>
-      </c>
-      <c r="GE93">
-        <v>1870.924705845706</v>
-      </c>
-      <c r="GF93">
-        <v>1720.494833822728</v>
-      </c>
-      <c r="GG93">
-        <v>2684.568346896393</v>
-      </c>
-      <c r="GH93">
-        <v>2939.403523661425</v>
-      </c>
-      <c r="GI93">
-        <v>2319.175480842397</v>
-      </c>
-      <c r="GJ93">
-        <v>2411.639003929325</v>
+        <v>2286.529504182276</v>
       </c>
     </row>
-    <row r="94" spans="1:192">
+    <row r="94" spans="1:186">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -54650,58 +52976,40 @@
         <v>2233.877809707645</v>
       </c>
       <c r="FT94">
-        <v>2563.095461596919</v>
+        <v>1855.620481965435</v>
       </c>
       <c r="FU94">
+        <v>1656.050432871269</v>
+      </c>
+      <c r="FV94">
+        <v>567.5175633086475</v>
+      </c>
+      <c r="FW94">
+        <v>1950.357203408483</v>
+      </c>
+      <c r="FX94">
+        <v>2733.035398948155</v>
+      </c>
+      <c r="FY94">
+        <v>2828.310470874469</v>
+      </c>
+      <c r="FZ94">
         <v>2530.657392835387</v>
       </c>
-      <c r="FV94">
-        <v>2828.310470874469</v>
-      </c>
-      <c r="FW94">
-        <v>567.5175633086475</v>
-      </c>
-      <c r="FX94">
-        <v>514.3958981104302</v>
-      </c>
-      <c r="FY94">
-        <v>1950.357203408483</v>
-      </c>
-      <c r="FZ94">
-        <v>2425.90631936586</v>
-      </c>
       <c r="GA94">
-        <v>2328.921117130945</v>
+        <v>1408.805720404409</v>
       </c>
       <c r="GB94">
-        <v>226.9480192324523</v>
+        <v>2318.761380137869</v>
       </c>
       <c r="GC94">
-        <v>2773.485044350038</v>
+        <v>2346.603527209609</v>
       </c>
       <c r="GD94">
-        <v>2832.293475411181</v>
-      </c>
-      <c r="GE94">
-        <v>2005.890715319192</v>
-      </c>
-      <c r="GF94">
-        <v>1836.0658835553</v>
-      </c>
-      <c r="GG94">
-        <v>2700.546697685649</v>
-      </c>
-      <c r="GH94">
-        <v>2952.916272696435</v>
-      </c>
-      <c r="GI94">
-        <v>2312.53565517886</v>
-      </c>
-      <c r="GJ94">
-        <v>2416.018542006033</v>
+        <v>2297.971969800574</v>
       </c>
     </row>
-    <row r="95" spans="1:192">
+    <row r="95" spans="1:186">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -55228,58 +53536,40 @@
         <v>2068.688137287756</v>
       </c>
       <c r="FT95">
-        <v>2576.488099088904</v>
+        <v>1716.697534306984</v>
       </c>
       <c r="FU95">
+        <v>1532.214319171318</v>
+      </c>
+      <c r="FV95">
+        <v>575.5769397304546</v>
+      </c>
+      <c r="FW95">
+        <v>2042.132703633684</v>
+      </c>
+      <c r="FX95">
+        <v>2567.246688319327</v>
+      </c>
+      <c r="FY95">
+        <v>2659.846391539954</v>
+      </c>
+      <c r="FZ95">
         <v>2538.50252016393</v>
       </c>
-      <c r="FV95">
-        <v>2659.846391539954</v>
-      </c>
-      <c r="FW95">
-        <v>575.5769397304546</v>
-      </c>
-      <c r="FX95">
-        <v>575.5331265805394</v>
-      </c>
-      <c r="FY95">
-        <v>2042.132703633684</v>
-      </c>
-      <c r="FZ95">
-        <v>2240.969868488818</v>
-      </c>
       <c r="GA95">
-        <v>2142.237737030167</v>
+        <v>1403.90047198046</v>
       </c>
       <c r="GB95">
-        <v>113.6357700454867</v>
+        <v>2111.278137876585</v>
       </c>
       <c r="GC95">
-        <v>2632.839990964951</v>
+        <v>2135.836312831071</v>
       </c>
       <c r="GD95">
-        <v>2695.018697730532</v>
-      </c>
-      <c r="GE95">
-        <v>1891.80657247361</v>
-      </c>
-      <c r="GF95">
-        <v>1747.690899319344</v>
-      </c>
-      <c r="GG95">
-        <v>2733.781022654723</v>
-      </c>
-      <c r="GH95">
-        <v>2988.844862423695</v>
-      </c>
-      <c r="GI95">
-        <v>2373.079971483722</v>
-      </c>
-      <c r="GJ95">
-        <v>2463.411993376368</v>
+        <v>2337.137084804796</v>
       </c>
     </row>
-    <row r="96" spans="1:192">
+    <row r="96" spans="1:186">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -55806,58 +54096,40 @@
         <v>1762.294127114606</v>
       </c>
       <c r="FT96">
-        <v>846.2120070098235</v>
+        <v>1454.332293229703</v>
       </c>
       <c r="FU96">
+        <v>1337.473846635528</v>
+      </c>
+      <c r="FV96">
+        <v>1490.783063696187</v>
+      </c>
+      <c r="FW96">
+        <v>60.0945328883939</v>
+      </c>
+      <c r="FX96">
+        <v>2056.225887684361</v>
+      </c>
+      <c r="FY96">
+        <v>2139.401278860867</v>
+      </c>
+      <c r="FZ96">
         <v>850.535110643594</v>
       </c>
-      <c r="FV96">
-        <v>2139.401278860867</v>
-      </c>
-      <c r="FW96">
-        <v>1490.783063696187</v>
-      </c>
-      <c r="FX96">
-        <v>1489.978002218659</v>
-      </c>
-      <c r="FY96">
-        <v>60.0945328883939</v>
-      </c>
-      <c r="FZ96">
-        <v>2001.372498034353</v>
-      </c>
       <c r="GA96">
-        <v>1959.149666721152</v>
+        <v>831.7331936287776</v>
       </c>
       <c r="GB96">
-        <v>2082.420511046259</v>
+        <v>2102.918498254423</v>
       </c>
       <c r="GC96">
-        <v>1909.885882472841</v>
+        <v>2143.140561498782</v>
       </c>
       <c r="GD96">
-        <v>1927.094235807397</v>
-      </c>
-      <c r="GE96">
-        <v>1343.773407984506</v>
-      </c>
-      <c r="GF96">
-        <v>1154.23744667888</v>
-      </c>
-      <c r="GG96">
-        <v>869.7445355263709</v>
-      </c>
-      <c r="GH96">
-        <v>1087.276317268167</v>
-      </c>
-      <c r="GI96">
-        <v>435.4305459197316</v>
-      </c>
-      <c r="GJ96">
-        <v>573.6581495044904</v>
+        <v>526.4692782087576</v>
       </c>
     </row>
-    <row r="97" spans="1:192">
+    <row r="97" spans="1:186">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -56384,58 +54656,40 @@
         <v>1622.338170277859</v>
       </c>
       <c r="FT97">
-        <v>812.8397559166702</v>
+        <v>1307.985543844348</v>
       </c>
       <c r="FU97">
+        <v>1189.262650007685</v>
+      </c>
+      <c r="FV97">
+        <v>1388.796834748075</v>
+      </c>
+      <c r="FW97">
+        <v>95.50454497260695</v>
+      </c>
+      <c r="FX97">
+        <v>1930.150333066182</v>
+      </c>
+      <c r="FY97">
+        <v>2015.274293857335</v>
+      </c>
+      <c r="FZ97">
         <v>807.3202565481743</v>
       </c>
-      <c r="FV97">
-        <v>2015.274293857335</v>
-      </c>
-      <c r="FW97">
-        <v>1388.796834748075</v>
-      </c>
-      <c r="FX97">
-        <v>1395.546511250403</v>
-      </c>
-      <c r="FY97">
-        <v>95.50454497260695</v>
-      </c>
-      <c r="FZ97">
-        <v>1863.165279856788</v>
-      </c>
       <c r="GA97">
-        <v>1818.584787138501</v>
+        <v>690.9640408768793</v>
       </c>
       <c r="GB97">
-        <v>1989.434008756974</v>
+        <v>1959.681327754257</v>
       </c>
       <c r="GC97">
-        <v>1792.803787608952</v>
+        <v>1999.969643220091</v>
       </c>
       <c r="GD97">
-        <v>1813.315291213582</v>
-      </c>
-      <c r="GE97">
-        <v>1202.716192160756</v>
-      </c>
-      <c r="GF97">
-        <v>1009.320559783702</v>
-      </c>
-      <c r="GG97">
-        <v>874.2013172517679</v>
-      </c>
-      <c r="GH97">
-        <v>1109.355524073085</v>
-      </c>
-      <c r="GI97">
-        <v>447.1979054244193</v>
-      </c>
-      <c r="GJ97">
-        <v>573.0735090709546</v>
+        <v>492.8048197742068</v>
       </c>
     </row>
-    <row r="98" spans="1:192">
+    <row r="98" spans="1:186">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -56962,58 +55216,40 @@
         <v>1702.347825829961</v>
       </c>
       <c r="FT98">
-        <v>808.5828555426174</v>
+        <v>1396.01198343432</v>
       </c>
       <c r="FU98">
+        <v>1281.528221774515</v>
+      </c>
+      <c r="FV98">
+        <v>1468.200226639043</v>
+      </c>
+      <c r="FW98">
+        <v>0</v>
+      </c>
+      <c r="FX98">
+        <v>1996.768719322315</v>
+      </c>
+      <c r="FY98">
+        <v>2080.178776275282</v>
+      </c>
+      <c r="FZ98">
         <v>809.7785923858052</v>
       </c>
-      <c r="FV98">
-        <v>2080.178776275282</v>
-      </c>
-      <c r="FW98">
-        <v>1468.200226639043</v>
-      </c>
-      <c r="FX98">
-        <v>1471.132315428259</v>
-      </c>
-      <c r="FY98">
-        <v>0</v>
-      </c>
-      <c r="FZ98">
-        <v>1941.314715809784</v>
-      </c>
       <c r="GA98">
-        <v>1899.252435369556</v>
+        <v>785.968908805777</v>
       </c>
       <c r="GB98">
-        <v>2064.612053979791</v>
+        <v>2043.423364269398</v>
       </c>
       <c r="GC98">
-        <v>1851.644086354249</v>
+        <v>2083.629380884304</v>
       </c>
       <c r="GD98">
-        <v>1869.408868263184</v>
-      </c>
-      <c r="GE98">
-        <v>1283.966180389816</v>
-      </c>
-      <c r="GF98">
-        <v>1095.311251735366</v>
-      </c>
-      <c r="GG98">
-        <v>845.5395286766365</v>
-      </c>
-      <c r="GH98">
-        <v>1070.536583284225</v>
-      </c>
-      <c r="GI98">
-        <v>411.0816437505482</v>
-      </c>
-      <c r="GJ98">
-        <v>546.0283918483485</v>
+        <v>487.011547218689</v>
       </c>
     </row>
-    <row r="99" spans="1:192">
+    <row r="99" spans="1:186">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -57540,58 +55776,40 @@
         <v>1609.349008123349</v>
       </c>
       <c r="FT99">
-        <v>729.0539562760638</v>
+        <v>1311.622794253509</v>
       </c>
       <c r="FU99">
+        <v>1205.546747075071</v>
+      </c>
+      <c r="FV99">
+        <v>1465.440699228469</v>
+      </c>
+      <c r="FW99">
+        <v>100.4439222071138</v>
+      </c>
+      <c r="FX99">
+        <v>1897.620508903207</v>
+      </c>
+      <c r="FY99">
+        <v>1980.648067372531</v>
+      </c>
+      <c r="FZ99">
         <v>725.9169775681808</v>
       </c>
-      <c r="FV99">
-        <v>1980.648067372531</v>
-      </c>
-      <c r="FW99">
-        <v>1465.440699228469</v>
-      </c>
-      <c r="FX99">
-        <v>1475.059423804106</v>
-      </c>
-      <c r="FY99">
-        <v>100.4439222071138</v>
-      </c>
-      <c r="FZ99">
-        <v>1846.930577920781</v>
-      </c>
       <c r="GA99">
-        <v>1806.634030023188</v>
+        <v>739.6756873231482</v>
       </c>
       <c r="GB99">
-        <v>2068.825986885106</v>
+        <v>1953.379704468822</v>
       </c>
       <c r="GC99">
-        <v>1751.342254479836</v>
+        <v>1993.486321841032</v>
       </c>
       <c r="GD99">
-        <v>1768.978660596158</v>
-      </c>
-      <c r="GE99">
-        <v>1192.294019062333</v>
-      </c>
-      <c r="GF99">
-        <v>1008.707985773778</v>
-      </c>
-      <c r="GG99">
-        <v>785.6906047416644</v>
-      </c>
-      <c r="GH99">
-        <v>1020.727348986716</v>
-      </c>
-      <c r="GI99">
-        <v>358.7639195965816</v>
-      </c>
-      <c r="GJ99">
-        <v>484.5110804591059</v>
+        <v>407.7673330796325</v>
       </c>
     </row>
-    <row r="100" spans="1:192">
+    <row r="100" spans="1:186">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -58118,58 +56336,40 @@
         <v>1662.564205898721</v>
       </c>
       <c r="FT100">
-        <v>726.1223204256854</v>
+        <v>1370.149499797127</v>
       </c>
       <c r="FU100">
+        <v>1266.624573983381</v>
+      </c>
+      <c r="FV100">
+        <v>1516.955095705132</v>
+      </c>
+      <c r="FW100">
+        <v>82.58726662375588</v>
+      </c>
+      <c r="FX100">
+        <v>1941.824946580788</v>
+      </c>
+      <c r="FY100">
+        <v>2023.648622031338</v>
+      </c>
+      <c r="FZ100">
         <v>727.8847533122329</v>
       </c>
-      <c r="FV100">
-        <v>2023.648622031338</v>
-      </c>
-      <c r="FW100">
-        <v>1516.955095705132</v>
-      </c>
-      <c r="FX100">
-        <v>1524.147066233883</v>
-      </c>
-      <c r="FY100">
-        <v>82.58726662375588</v>
-      </c>
-      <c r="FZ100">
-        <v>1898.7377873308</v>
-      </c>
       <c r="GA100">
-        <v>1860.100439745668</v>
+        <v>801.1993631117732</v>
       </c>
       <c r="GB100">
-        <v>2118.036163968248</v>
+        <v>2008.721719245918</v>
       </c>
       <c r="GC100">
-        <v>1790.517916765083</v>
+        <v>2048.751655189954</v>
       </c>
       <c r="GD100">
-        <v>1806.301561215134</v>
-      </c>
-      <c r="GE100">
-        <v>1246.824929324439</v>
-      </c>
-      <c r="GF100">
-        <v>1066.443034949895</v>
-      </c>
-      <c r="GG100">
-        <v>765.022198647811</v>
-      </c>
-      <c r="GH100">
-        <v>993.0602542897016</v>
-      </c>
-      <c r="GI100">
-        <v>331.5468552831649</v>
-      </c>
-      <c r="GJ100">
-        <v>464.7771301525128</v>
+        <v>404.705062227588</v>
       </c>
     </row>
-    <row r="101" spans="1:192">
+    <row r="101" spans="1:186">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -58696,58 +56896,40 @@
         <v>1596.044088785165</v>
       </c>
       <c r="FT101">
-        <v>726.4714143537923</v>
+        <v>1297.834673729735</v>
       </c>
       <c r="FU101">
+        <v>1191.740476816298</v>
+      </c>
+      <c r="FV101">
+        <v>1456.902353546904</v>
+      </c>
+      <c r="FW101">
+        <v>111.5757229068901</v>
+      </c>
+      <c r="FX101">
+        <v>1885.562437974356</v>
+      </c>
+      <c r="FY101">
+        <v>1968.775145502505</v>
+      </c>
+      <c r="FZ101">
         <v>722.2786785354651</v>
       </c>
-      <c r="FV101">
-        <v>1968.775145502505</v>
-      </c>
-      <c r="FW101">
-        <v>1456.902353546904</v>
-      </c>
-      <c r="FX101">
-        <v>1467.263864253049</v>
-      </c>
-      <c r="FY101">
-        <v>111.5757229068901</v>
-      </c>
-      <c r="FZ101">
-        <v>1833.791205819771</v>
-      </c>
       <c r="GA101">
-        <v>1793.295274577222</v>
+        <v>727.4034514751789</v>
       </c>
       <c r="GB101">
-        <v>2060.938632139293</v>
+        <v>1939.837124801346</v>
       </c>
       <c r="GC101">
-        <v>1740.10814575514</v>
+        <v>1979.950877308033</v>
       </c>
       <c r="GD101">
-        <v>1758.057801485056</v>
-      </c>
-      <c r="GE101">
-        <v>1178.852443130503</v>
-      </c>
-      <c r="GF101">
-        <v>994.9733343838533</v>
-      </c>
-      <c r="GG101">
-        <v>787.0231762444934</v>
-      </c>
-      <c r="GH101">
-        <v>1023.551974234266</v>
-      </c>
-      <c r="GI101">
-        <v>362.3474142318991</v>
-      </c>
-      <c r="GJ101">
-        <v>486.0326441292826</v>
+        <v>405.7781336251169</v>
       </c>
     </row>
-    <row r="102" spans="1:192">
+    <row r="102" spans="1:186">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -59274,58 +57456,40 @@
         <v>1705.113718739868</v>
       </c>
       <c r="FT102">
-        <v>795.8170394668703</v>
+        <v>1401.755446385303</v>
       </c>
       <c r="FU102">
+        <v>1289.392089422479</v>
+      </c>
+      <c r="FV102">
+        <v>1484.803930059252</v>
+      </c>
+      <c r="FW102">
+        <v>17.27877067005251</v>
+      </c>
+      <c r="FX102">
+        <v>1995.743928471415</v>
+      </c>
+      <c r="FY102">
+        <v>2078.71904921713</v>
+      </c>
+      <c r="FZ102">
         <v>797.8701798809374</v>
       </c>
-      <c r="FV102">
-        <v>2078.71904921713</v>
-      </c>
-      <c r="FW102">
-        <v>1484.803930059252</v>
-      </c>
-      <c r="FX102">
-        <v>1488.016482554184</v>
-      </c>
-      <c r="FY102">
-        <v>17.27877067005251</v>
-      </c>
-      <c r="FZ102">
-        <v>1943.455314854186</v>
-      </c>
       <c r="GA102">
-        <v>1902.194187060668</v>
+        <v>798.6172872664207</v>
       </c>
       <c r="GB102">
-        <v>2081.539941752834</v>
+        <v>2047.392900929375</v>
       </c>
       <c r="GC102">
-        <v>1848.82233794995</v>
+        <v>2087.564402706695</v>
       </c>
       <c r="GD102">
-        <v>1865.979921174805</v>
-      </c>
-      <c r="GE102">
-        <v>1287.24578299871</v>
-      </c>
-      <c r="GF102">
-        <v>1100.328925219629</v>
-      </c>
-      <c r="GG102">
-        <v>830.1436523192409</v>
-      </c>
-      <c r="GH102">
-        <v>1054.261019192752</v>
-      </c>
-      <c r="GI102">
-        <v>395.4831772329746</v>
-      </c>
-      <c r="GJ102">
-        <v>531.0479306808998</v>
+        <v>474.574793622317</v>
       </c>
     </row>
-    <row r="103" spans="1:192">
+    <row r="103" spans="1:186">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -59852,58 +58016,40 @@
         <v>1598.17968480109</v>
       </c>
       <c r="FT103">
-        <v>857.6357878075695</v>
+        <v>1273.021128803345</v>
       </c>
       <c r="FU103">
+        <v>1146.532760020391</v>
+      </c>
+      <c r="FV103">
+        <v>1321.312309578699</v>
+      </c>
+      <c r="FW103">
+        <v>156.1299639899798</v>
+      </c>
+      <c r="FX103">
+        <v>1920.375945433278</v>
+      </c>
+      <c r="FY103">
+        <v>2007.087518780928</v>
+      </c>
+      <c r="FZ103">
         <v>848.5833796309727</v>
       </c>
-      <c r="FV103">
-        <v>2007.087518780928</v>
-      </c>
-      <c r="FW103">
-        <v>1321.312309578699</v>
-      </c>
-      <c r="FX103">
-        <v>1328.318057807973</v>
-      </c>
-      <c r="FY103">
-        <v>156.1299639899798</v>
-      </c>
-      <c r="FZ103">
-        <v>1840.979073980556</v>
-      </c>
       <c r="GA103">
-        <v>1793.36212174451</v>
+        <v>631.9538617667313</v>
       </c>
       <c r="GB103">
-        <v>1922.207543064886</v>
+        <v>1930.301941316286</v>
       </c>
       <c r="GC103">
-        <v>1790.616144050821</v>
+        <v>1970.668670968541</v>
       </c>
       <c r="GD103">
-        <v>1813.5667988915</v>
-      </c>
-      <c r="GE103">
-        <v>1177.748128921259</v>
-      </c>
-      <c r="GF103">
-        <v>978.2226195680558</v>
-      </c>
-      <c r="GG103">
-        <v>929.8978679364983</v>
-      </c>
-      <c r="GH103">
-        <v>1168.383989035401</v>
-      </c>
-      <c r="GI103">
-        <v>507.7404980392457</v>
-      </c>
-      <c r="GJ103">
-        <v>629.5484855243272</v>
+        <v>541.0511406344351</v>
       </c>
     </row>
-    <row r="104" spans="1:192">
+    <row r="104" spans="1:186">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -60430,58 +58576,40 @@
         <v>570.8000231720082</v>
       </c>
       <c r="FT104">
-        <v>1631.388840351139</v>
+        <v>973.0478159985477</v>
       </c>
       <c r="FU104">
+        <v>1184.922607541452</v>
+      </c>
+      <c r="FV104">
+        <v>2283.716066382881</v>
+      </c>
+      <c r="FW104">
+        <v>2104.155556190674</v>
+      </c>
+      <c r="FX104">
+        <v>107.8368030125127</v>
+      </c>
+      <c r="FY104">
+        <v>66.90852831829814</v>
+      </c>
+      <c r="FZ104">
         <v>1580.268526119061</v>
       </c>
-      <c r="FV104">
-        <v>66.90852831829814</v>
-      </c>
-      <c r="FW104">
-        <v>2283.716066382881</v>
-      </c>
-      <c r="FX104">
-        <v>2372.070124891638</v>
-      </c>
-      <c r="FY104">
-        <v>2104.155556190674</v>
-      </c>
-      <c r="FZ104">
-        <v>395.658811067596</v>
-      </c>
       <c r="GA104">
-        <v>494.2489505426873</v>
+        <v>1708.561029432534</v>
       </c>
       <c r="GB104">
-        <v>2728.475511396906</v>
+        <v>595.2666741366426</v>
       </c>
       <c r="GC104">
-        <v>332.6762543352143</v>
+        <v>594.2199238812041</v>
       </c>
       <c r="GD104">
-        <v>371.7105322550584</v>
-      </c>
-      <c r="GE104">
-        <v>912.003055359069</v>
-      </c>
-      <c r="GF104">
-        <v>1136.168194430298</v>
-      </c>
-      <c r="GG104">
-        <v>1832.411708430704</v>
-      </c>
-      <c r="GH104">
-        <v>1955.770037500391</v>
-      </c>
-      <c r="GI104">
-        <v>1943.085561789505</v>
-      </c>
-      <c r="GJ104">
-        <v>1865.636997389825</v>
+        <v>1781.819075279842</v>
       </c>
     </row>
-    <row r="105" spans="1:192">
+    <row r="105" spans="1:186">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -61008,58 +59136,40 @@
         <v>512.838883159973</v>
       </c>
       <c r="FT105">
-        <v>1621.113516961408</v>
+        <v>917.6466603534349</v>
       </c>
       <c r="FU105">
+        <v>1129.634438094124</v>
+      </c>
+      <c r="FV105">
+        <v>2225.661375217637</v>
+      </c>
+      <c r="FW105">
+        <v>2072.913971981963</v>
+      </c>
+      <c r="FX105">
+        <v>98.11976437111069</v>
+      </c>
+      <c r="FY105">
+        <v>115.4101110334508</v>
+      </c>
+      <c r="FZ105">
         <v>1569.071652194851</v>
       </c>
-      <c r="FV105">
-        <v>115.4101110334508</v>
-      </c>
-      <c r="FW105">
-        <v>2225.661375217637</v>
-      </c>
-      <c r="FX105">
-        <v>2314.4214018433</v>
-      </c>
-      <c r="FY105">
-        <v>2072.913971981963</v>
-      </c>
-      <c r="FZ105">
-        <v>333.7384169002192</v>
-      </c>
       <c r="GA105">
-        <v>432.2969254784304</v>
+        <v>1660.421314580667</v>
       </c>
       <c r="GB105">
-        <v>2667.582625079087</v>
+        <v>536.3305939588133</v>
       </c>
       <c r="GC105">
-        <v>345.285446870078</v>
+        <v>536.7998239328402</v>
       </c>
       <c r="GD105">
-        <v>393.1038760899597</v>
-      </c>
-      <c r="GE105">
-        <v>864.8553240531556</v>
-      </c>
-      <c r="GF105">
-        <v>1089.368227239469</v>
-      </c>
-      <c r="GG105">
-        <v>1825.373346653088</v>
-      </c>
-      <c r="GH105">
-        <v>1955.974004482146</v>
-      </c>
-      <c r="GI105">
-        <v>1922.488582340444</v>
-      </c>
-      <c r="GJ105">
-        <v>1848.709218529324</v>
+        <v>1761.390900789849</v>
       </c>
     </row>
-    <row r="106" spans="1:192">
+    <row r="106" spans="1:186">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -61586,58 +59696,40 @@
         <v>828.7347589446098</v>
       </c>
       <c r="FT106">
-        <v>1580.94957165452</v>
+        <v>1200.057033147006</v>
       </c>
       <c r="FU106">
+        <v>1406.63715077749</v>
+      </c>
+      <c r="FV106">
+        <v>2518.315043608914</v>
+      </c>
+      <c r="FW106">
+        <v>2159.577132345645</v>
+      </c>
+      <c r="FX106">
+        <v>338.5128699185785</v>
+      </c>
+      <c r="FY106">
+        <v>262.2387927354486</v>
+      </c>
+      <c r="FZ106">
         <v>1535.852319787468</v>
       </c>
-      <c r="FV106">
-        <v>262.2387927354486</v>
-      </c>
-      <c r="FW106">
-        <v>2518.315043608914</v>
-      </c>
-      <c r="FX106">
-        <v>2602.492397920141</v>
-      </c>
-      <c r="FY106">
-        <v>2159.577132345645</v>
-      </c>
-      <c r="FZ106">
-        <v>700.4285619229413</v>
-      </c>
       <c r="GA106">
-        <v>795.4682010707008</v>
+        <v>1872.530567329037</v>
       </c>
       <c r="GB106">
-        <v>2993.668618957312</v>
+        <v>912.8069507782219</v>
       </c>
       <c r="GC106">
-        <v>317.1986241405571</v>
+        <v>913.3228894046953</v>
       </c>
       <c r="GD106">
-        <v>290.2083964071783</v>
-      </c>
-      <c r="GE106">
-        <v>1088.752212364324</v>
-      </c>
-      <c r="GF106">
-        <v>1303.009856740663</v>
-      </c>
-      <c r="GG106">
-        <v>1761.135754578228</v>
-      </c>
-      <c r="GH106">
-        <v>1845.841389678875</v>
-      </c>
-      <c r="GI106">
-        <v>1941.449384544502</v>
-      </c>
-      <c r="GJ106">
-        <v>1845.550488189796</v>
+        <v>1782.085541410669</v>
       </c>
     </row>
-    <row r="107" spans="1:192">
+    <row r="107" spans="1:186">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -62164,58 +60256,40 @@
         <v>524.5150829415981</v>
       </c>
       <c r="FT107">
-        <v>1052.347308200889</v>
+        <v>724.4476655926351</v>
       </c>
       <c r="FU107">
+        <v>899.5840896181929</v>
+      </c>
+      <c r="FV107">
+        <v>1991.825418293704</v>
+      </c>
+      <c r="FW107">
+        <v>1546.326291295974</v>
+      </c>
+      <c r="FX107">
+        <v>477.6512512535531</v>
+      </c>
+      <c r="FY107">
+        <v>546.5851025213542</v>
+      </c>
+      <c r="FZ107">
         <v>999.9656633945109</v>
       </c>
-      <c r="FV107">
-        <v>546.5851025213542</v>
-      </c>
-      <c r="FW107">
-        <v>1991.825418293704</v>
-      </c>
-      <c r="FX107">
-        <v>2068.067391486707</v>
-      </c>
-      <c r="FY107">
-        <v>1546.326291295974</v>
-      </c>
-      <c r="FZ107">
-        <v>616.3200161077237</v>
-      </c>
       <c r="GA107">
-        <v>651.2242129941287</v>
+        <v>1276.979206655618</v>
       </c>
       <c r="GB107">
-        <v>2518.665906142461</v>
+        <v>837.9719083552271</v>
       </c>
       <c r="GC107">
-        <v>306.3044040597314</v>
+        <v>864.8762192336918</v>
       </c>
       <c r="GD107">
-        <v>334.1539043655155</v>
-      </c>
-      <c r="GE107">
-        <v>542.358133650025</v>
-      </c>
-      <c r="GF107">
-        <v>726.5244563928841</v>
-      </c>
-      <c r="GG107">
-        <v>1259.076236512899</v>
-      </c>
-      <c r="GH107">
-        <v>1402.786069442175</v>
-      </c>
-      <c r="GI107">
-        <v>1361.301406934566</v>
-      </c>
-      <c r="GJ107">
-        <v>1281.974447657963</v>
+        <v>1200.024502011771</v>
       </c>
     </row>
-    <row r="108" spans="1:192">
+    <row r="108" spans="1:186">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -62742,58 +60816,40 @@
         <v>589.8190711278985</v>
       </c>
       <c r="FT108">
-        <v>1131.033079988195</v>
+        <v>842.612992104612</v>
       </c>
       <c r="FU108">
+        <v>1026.330399174309</v>
+      </c>
+      <c r="FV108">
+        <v>2125.216635042185</v>
+      </c>
+      <c r="FW108">
+        <v>1668.859124282156</v>
+      </c>
+      <c r="FX108">
+        <v>406.5485740136707</v>
+      </c>
+      <c r="FY108">
+        <v>456.7956713868294</v>
+      </c>
+      <c r="FZ108">
         <v>1081.346922928538</v>
       </c>
-      <c r="FV108">
-        <v>456.7956713868294</v>
-      </c>
-      <c r="FW108">
-        <v>2125.216635042185</v>
-      </c>
-      <c r="FX108">
-        <v>2202.572436929784</v>
-      </c>
-      <c r="FY108">
-        <v>1668.859124282156</v>
-      </c>
-      <c r="FZ108">
-        <v>627.2599653107758</v>
-      </c>
       <c r="GA108">
-        <v>681.1438720341329</v>
+        <v>1416.290967694169</v>
       </c>
       <c r="GB108">
-        <v>2645.263549976445</v>
+        <v>861.2351702632395</v>
       </c>
       <c r="GC108">
-        <v>188.7426399995301</v>
+        <v>882.989013034514</v>
       </c>
       <c r="GD108">
-        <v>201.1642095861274</v>
-      </c>
-      <c r="GE108">
-        <v>673.4172775861744</v>
-      </c>
-      <c r="GF108">
-        <v>863.907875087094</v>
-      </c>
-      <c r="GG108">
-        <v>1328.675654820297</v>
-      </c>
-      <c r="GH108">
-        <v>1452.244547411572</v>
-      </c>
-      <c r="GI108">
-        <v>1464.470230111996</v>
-      </c>
-      <c r="GJ108">
-        <v>1377.120182503992</v>
+        <v>1303.739285787557</v>
       </c>
     </row>
-    <row r="109" spans="1:192">
+    <row r="109" spans="1:186">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -63320,58 +61376,40 @@
         <v>647.294281112568</v>
       </c>
       <c r="FT109">
-        <v>1581.99794774608</v>
+        <v>1035.85174533809</v>
       </c>
       <c r="FU109">
+        <v>1246.085640750749</v>
+      </c>
+      <c r="FV109">
+        <v>2353.355303324</v>
+      </c>
+      <c r="FW109">
+        <v>2096.198469191059</v>
+      </c>
+      <c r="FX109">
+        <v>147.6395052200767</v>
+      </c>
+      <c r="FY109">
+        <v>61.21525370028444</v>
+      </c>
+      <c r="FZ109">
         <v>1532.792945557662</v>
       </c>
-      <c r="FV109">
-        <v>61.21525370028444</v>
-      </c>
-      <c r="FW109">
-        <v>2353.355303324</v>
-      </c>
-      <c r="FX109">
-        <v>2439.804486260058</v>
-      </c>
-      <c r="FY109">
-        <v>2096.198469191059</v>
-      </c>
-      <c r="FZ109">
-        <v>501.1219224294442</v>
-      </c>
       <c r="GA109">
-        <v>597.4090242839995</v>
+        <v>1744.731010051728</v>
       </c>
       <c r="GB109">
-        <v>2813.509362711236</v>
+        <v>711.8542198202169</v>
       </c>
       <c r="GC109">
-        <v>264.8615957888548</v>
+        <v>712.8900305420489</v>
       </c>
       <c r="GD109">
-        <v>285.085203261702</v>
-      </c>
-      <c r="GE109">
-        <v>949.9135644031795</v>
-      </c>
-      <c r="GF109">
-        <v>1171.177966234167</v>
-      </c>
-      <c r="GG109">
-        <v>1776.464494005822</v>
-      </c>
-      <c r="GH109">
-        <v>1886.999822337753</v>
-      </c>
-      <c r="GI109">
-        <v>1912.714080422693</v>
-      </c>
-      <c r="GJ109">
-        <v>1828.157155215564</v>
+        <v>1751.60084838467</v>
       </c>
     </row>
-    <row r="110" spans="1:192">
+    <row r="110" spans="1:186">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -63898,58 +61936,40 @@
         <v>759.1253136230611</v>
       </c>
       <c r="FT110">
-        <v>1377.79432877893</v>
+        <v>1090.449337980495</v>
       </c>
       <c r="FU110">
+        <v>1288.687599001953</v>
+      </c>
+      <c r="FV110">
+        <v>2398.571510284511</v>
+      </c>
+      <c r="FW110">
+        <v>1965.544629278248</v>
+      </c>
+      <c r="FX110">
+        <v>342.4186708198069</v>
+      </c>
+      <c r="FY110">
+        <v>318.8556655696736</v>
+      </c>
+      <c r="FZ110">
         <v>1332.652954140139</v>
       </c>
-      <c r="FV110">
-        <v>318.8556655696736</v>
-      </c>
-      <c r="FW110">
-        <v>2398.571510284511</v>
-      </c>
-      <c r="FX110">
-        <v>2479.29274186073</v>
-      </c>
-      <c r="FY110">
-        <v>1965.544629278248</v>
-      </c>
-      <c r="FZ110">
-        <v>691.7625017307925</v>
-      </c>
       <c r="GA110">
-        <v>775.4745513766576</v>
+        <v>1715.599254735632</v>
       </c>
       <c r="GB110">
-        <v>2897.606995452644</v>
+        <v>924.2724586577059</v>
       </c>
       <c r="GC110">
-        <v>171.6897602049043</v>
+        <v>933.6104172457304</v>
       </c>
       <c r="GD110">
-        <v>113.7217888759566</v>
-      </c>
-      <c r="GE110">
-        <v>950.7719499333778</v>
-      </c>
-      <c r="GF110">
-        <v>1154.598415726905</v>
-      </c>
-      <c r="GG110">
-        <v>1559.027199314437</v>
-      </c>
-      <c r="GH110">
-        <v>1648.705891307329</v>
-      </c>
-      <c r="GI110">
-        <v>1739.796250559737</v>
-      </c>
-      <c r="GJ110">
-        <v>1642.803342415954</v>
+        <v>1580.825923868529</v>
       </c>
     </row>
-    <row r="111" spans="1:192">
+    <row r="111" spans="1:186">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -64476,58 +62496,40 @@
         <v>567.3270930370339</v>
       </c>
       <c r="FT111">
-        <v>1670.402793618448</v>
+        <v>973.9654807212918</v>
       </c>
       <c r="FU111">
+        <v>1185.943566376208</v>
+      </c>
+      <c r="FV111">
+        <v>2279.222959143337</v>
+      </c>
+      <c r="FW111">
+        <v>2130.802211677115</v>
+      </c>
+      <c r="FX111">
+        <v>142.7827953830283</v>
+      </c>
+      <c r="FY111">
+        <v>114.7460663953346</v>
+      </c>
+      <c r="FZ111">
         <v>1618.843768593025</v>
       </c>
-      <c r="FV111">
-        <v>114.7460663953346</v>
-      </c>
-      <c r="FW111">
-        <v>2279.222959143337</v>
-      </c>
-      <c r="FX111">
-        <v>2368.439376741904</v>
-      </c>
-      <c r="FY111">
-        <v>2130.802211677115</v>
-      </c>
-      <c r="FZ111">
-        <v>375.5559549600774</v>
-      </c>
       <c r="GA111">
-        <v>474.7873480447569</v>
+        <v>1719.475747371227</v>
       </c>
       <c r="GB111">
-        <v>2715.867947902166</v>
+        <v>563.3291463236158</v>
       </c>
       <c r="GC111">
-        <v>378.5965000544917</v>
+        <v>559.8267070039889</v>
       </c>
       <c r="GD111">
-        <v>419.3761628578615</v>
-      </c>
-      <c r="GE111">
-        <v>924.1404609880851</v>
-      </c>
-      <c r="GF111">
-        <v>1148.670622323147</v>
-      </c>
-      <c r="GG111">
-        <v>1872.889584658979</v>
-      </c>
-      <c r="GH111">
-        <v>1999.047367037368</v>
-      </c>
-      <c r="GI111">
-        <v>1976.757995158838</v>
-      </c>
-      <c r="GJ111">
-        <v>1901.36348160423</v>
+        <v>1815.570637426209</v>
       </c>
     </row>
-    <row r="112" spans="1:192">
+    <row r="112" spans="1:186">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -65054,58 +63056,40 @@
         <v>637.0298386880614</v>
       </c>
       <c r="FT112">
-        <v>1590.86931946082</v>
+        <v>1028.023174275989</v>
       </c>
       <c r="FU112">
+        <v>1238.626435195497</v>
+      </c>
+      <c r="FV112">
+        <v>2344.872084925416</v>
+      </c>
+      <c r="FW112">
+        <v>2099.265952192047</v>
+      </c>
+      <c r="FX112">
+        <v>137.7010425546739</v>
+      </c>
+      <c r="FY112">
+        <v>45.68096676446184</v>
+      </c>
+      <c r="FZ112">
         <v>1541.378248421275</v>
       </c>
-      <c r="FV112">
-        <v>45.68096676446184</v>
-      </c>
-      <c r="FW112">
-        <v>2344.872084925416</v>
-      </c>
-      <c r="FX112">
-        <v>2431.627126737071</v>
-      </c>
-      <c r="FY112">
-        <v>2099.265952192047</v>
-      </c>
-      <c r="FZ112">
-        <v>486.3850543544121</v>
-      </c>
       <c r="GA112">
-        <v>583.1241382928442</v>
+        <v>1741.21303802816</v>
       </c>
       <c r="GB112">
-        <v>2802.643065022577</v>
+        <v>695.4447438272553</v>
       </c>
       <c r="GC112">
-        <v>274.474807527662</v>
+        <v>696.0893822908533</v>
       </c>
       <c r="GD112">
-        <v>297.937824449033</v>
-      </c>
-      <c r="GE112">
-        <v>945.7118050407354</v>
-      </c>
-      <c r="GF112">
-        <v>1167.5825555175</v>
-      </c>
-      <c r="GG112">
-        <v>1786.306932944241</v>
-      </c>
-      <c r="GH112">
-        <v>1898.639915116206</v>
-      </c>
-      <c r="GI112">
-        <v>1918.969309874514</v>
-      </c>
-      <c r="GJ112">
-        <v>1835.40593311429</v>
+        <v>1757.793385649477</v>
       </c>
     </row>
-    <row r="113" spans="1:192">
+    <row r="113" spans="1:186">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -65632,58 +63616,40 @@
         <v>632.8414847017278</v>
       </c>
       <c r="FT113">
-        <v>1688.333336560035</v>
+        <v>1037.496969192651</v>
       </c>
       <c r="FU113">
+        <v>1249.470468742962</v>
+      </c>
+      <c r="FV113">
+        <v>2345.551624348236</v>
+      </c>
+      <c r="FW113">
+        <v>2170.463735806192</v>
+      </c>
+      <c r="FX113">
+        <v>173.7780333892728</v>
+      </c>
+      <c r="FY113">
+        <v>102.1388831184507</v>
+      </c>
+      <c r="FZ113">
         <v>1637.7956473729</v>
       </c>
-      <c r="FV113">
-        <v>102.1388831184507</v>
-      </c>
-      <c r="FW113">
-        <v>2345.551624348236</v>
-      </c>
-      <c r="FX113">
-        <v>2434.406514768615</v>
-      </c>
-      <c r="FY113">
-        <v>2170.463735806192</v>
-      </c>
-      <c r="FZ113">
-        <v>444.8759060211844</v>
-      </c>
       <c r="GA113">
-        <v>544.1050173500468</v>
+        <v>1776.225221704897</v>
       </c>
       <c r="GB113">
-        <v>2784.649414665677</v>
+        <v>629.7463392616128</v>
       </c>
       <c r="GC113">
-        <v>379.1482013107773</v>
+        <v>624.7474861721088</v>
       </c>
       <c r="GD113">
-        <v>409.6978009886682</v>
-      </c>
-      <c r="GE113">
-        <v>979.7874251298891</v>
-      </c>
-      <c r="GF113">
-        <v>1204.031931760434</v>
-      </c>
-      <c r="GG113">
-        <v>1887.206300419145</v>
-      </c>
-      <c r="GH113">
-        <v>2005.446790990313</v>
-      </c>
-      <c r="GI113">
-        <v>2005.388931444462</v>
-      </c>
-      <c r="GJ113">
-        <v>1926.172448479835</v>
+        <v>1844.098797238877</v>
       </c>
     </row>
-    <row r="114" spans="1:192">
+    <row r="114" spans="1:186">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -66210,58 +64176,40 @@
         <v>344.8073698221564</v>
       </c>
       <c r="FT114">
-        <v>1687.793486832632</v>
+        <v>745.3070664485759</v>
       </c>
       <c r="FU114">
+        <v>951.6630256009222</v>
+      </c>
+      <c r="FV114">
+        <v>2012.124162977426</v>
+      </c>
+      <c r="FW114">
+        <v>2032.520942739618</v>
+      </c>
+      <c r="FX114">
+        <v>335.9131272285742</v>
+      </c>
+      <c r="FY114">
+        <v>395.1119580307268</v>
+      </c>
+      <c r="FZ114">
         <v>1632.605522106974</v>
       </c>
-      <c r="FV114">
-        <v>395.1119580307268</v>
-      </c>
-      <c r="FW114">
-        <v>2012.124162977426</v>
-      </c>
-      <c r="FX114">
-        <v>2104.115631478226</v>
-      </c>
-      <c r="FY114">
-        <v>2032.520942739618</v>
-      </c>
-      <c r="FZ114">
-        <v>97.58375842055965</v>
-      </c>
       <c r="GA114">
-        <v>183.5944125286741</v>
+        <v>1526.12248729905</v>
       </c>
       <c r="GB114">
-        <v>2423.474584478633</v>
+        <v>255.566193350577</v>
       </c>
       <c r="GC114">
-        <v>554.4021159590952</v>
+        <v>258.8728456052818</v>
       </c>
       <c r="GD114">
-        <v>617.2991393978369</v>
-      </c>
-      <c r="GE114">
-        <v>760.1900814481912</v>
-      </c>
-      <c r="GF114">
-        <v>976.8096561746755</v>
-      </c>
-      <c r="GG114">
-        <v>1903.083966114488</v>
-      </c>
-      <c r="GH114">
-        <v>2062.470931973223</v>
-      </c>
-      <c r="GI114">
-        <v>1937.407268612432</v>
-      </c>
-      <c r="GJ114">
-        <v>1881.927395205801</v>
+        <v>1779.358110598144</v>
       </c>
     </row>
-    <row r="115" spans="1:192">
+    <row r="115" spans="1:186">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -66788,58 +64736,40 @@
         <v>346.0706491154921</v>
       </c>
       <c r="FT115">
-        <v>1748.055595253892</v>
+        <v>714.7571321275501</v>
       </c>
       <c r="FU115">
+        <v>912.4882547655593</v>
+      </c>
+      <c r="FV115">
+        <v>1943.694995221083</v>
+      </c>
+      <c r="FW115">
+        <v>2048.326903498619</v>
+      </c>
+      <c r="FX115">
+        <v>454.3700929262034</v>
+      </c>
+      <c r="FY115">
+        <v>513.1193948602713</v>
+      </c>
+      <c r="FZ115">
         <v>1692.111154718892</v>
       </c>
-      <c r="FV115">
-        <v>513.1193948602713</v>
-      </c>
-      <c r="FW115">
-        <v>1943.694995221083</v>
-      </c>
-      <c r="FX115">
-        <v>2037.217068015074</v>
-      </c>
-      <c r="FY115">
-        <v>2048.326903498619</v>
-      </c>
-      <c r="FZ115">
-        <v>133.7418966783841</v>
-      </c>
       <c r="GA115">
-        <v>149.6388913442061</v>
+        <v>1502.513699993801</v>
       </c>
       <c r="GB115">
-        <v>2336.04742417552</v>
+        <v>138.505966006069</v>
       </c>
       <c r="GC115">
-        <v>666.8706029539269</v>
+        <v>140.2141676205128</v>
       </c>
       <c r="GD115">
-        <v>731.2169426079635</v>
-      </c>
-      <c r="GE115">
-        <v>765.3791952631444</v>
-      </c>
-      <c r="GF115">
-        <v>971.8134541093157</v>
-      </c>
-      <c r="GG115">
-        <v>1966.065793780258</v>
-      </c>
-      <c r="GH115">
-        <v>2134.915097140759</v>
-      </c>
-      <c r="GI115">
-        <v>1976.484025781697</v>
-      </c>
-      <c r="GJ115">
-        <v>1928.463459936561</v>
+        <v>1820.630463283911</v>
       </c>
     </row>
-    <row r="116" spans="1:192">
+    <row r="116" spans="1:186">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -67366,58 +65296,40 @@
         <v>247.7502713028823</v>
       </c>
       <c r="FT116">
-        <v>1617.928285621456</v>
+        <v>648.1546168092279</v>
       </c>
       <c r="FU116">
+        <v>855.2252012961808</v>
+      </c>
+      <c r="FV116">
+        <v>1922.148686641001</v>
+      </c>
+      <c r="FW116">
+        <v>1941.314715809784</v>
+      </c>
+      <c r="FX116">
+        <v>364.9246639997015</v>
+      </c>
+      <c r="FY116">
+        <v>440.7041624135588</v>
+      </c>
+      <c r="FZ116">
         <v>1562.197890852499</v>
       </c>
-      <c r="FV116">
-        <v>440.7041624135588</v>
-      </c>
-      <c r="FW116">
-        <v>1922.148686641001</v>
-      </c>
-      <c r="FX116">
-        <v>2013.500202823117</v>
-      </c>
-      <c r="FY116">
-        <v>1941.314715809784</v>
-      </c>
-      <c r="FZ116">
-        <v>0</v>
-      </c>
       <c r="GA116">
-        <v>99.23882736766056</v>
+        <v>1428.546148186869</v>
       </c>
       <c r="GB116">
-        <v>2343.225155352953</v>
+        <v>237.8397684658256</v>
       </c>
       <c r="GC116">
-        <v>552.2968130437771</v>
+        <v>256.1216396655768</v>
       </c>
       <c r="GD116">
-        <v>618.9043052074642</v>
-      </c>
-      <c r="GE116">
-        <v>665.2038676860965</v>
-      </c>
-      <c r="GF116">
-        <v>880.4006839662886</v>
-      </c>
-      <c r="GG116">
-        <v>1835.209116732357</v>
-      </c>
-      <c r="GH116">
-        <v>2001.996118426327</v>
-      </c>
-      <c r="GI116">
-        <v>1855.279279024875</v>
-      </c>
-      <c r="GJ116">
-        <v>1803.639278015092</v>
+        <v>1698.246425209766</v>
       </c>
     </row>
-    <row r="117" spans="1:192">
+    <row r="117" spans="1:186">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -67944,58 +65856,40 @@
         <v>344.5740099152765</v>
       </c>
       <c r="FT117">
-        <v>1755.919570398083</v>
+        <v>703.09005971198</v>
       </c>
       <c r="FU117">
+        <v>898.4297685248182</v>
+      </c>
+      <c r="FV117">
+        <v>1922.930549456376</v>
+      </c>
+      <c r="FW117">
+        <v>2045.36287956254</v>
+      </c>
+      <c r="FX117">
+        <v>480.2393399344222</v>
+      </c>
+      <c r="FY117">
+        <v>540.0580263202095</v>
+      </c>
+      <c r="FZ117">
         <v>1699.817822149693</v>
       </c>
-      <c r="FV117">
-        <v>540.0580263202095</v>
-      </c>
-      <c r="FW117">
-        <v>1922.930549456376</v>
-      </c>
-      <c r="FX117">
-        <v>2016.716119850512</v>
-      </c>
-      <c r="FY117">
-        <v>2045.36287956254</v>
-      </c>
-      <c r="FZ117">
-        <v>148.9782262270821</v>
-      </c>
       <c r="GA117">
-        <v>146.7059141610503</v>
+        <v>1491.094675541428</v>
       </c>
       <c r="GB117">
-        <v>2311.862810038825</v>
+        <v>111.1931265040982</v>
       </c>
       <c r="GC117">
-        <v>689.9848422987005</v>
+        <v>114.7577922894453</v>
       </c>
       <c r="GD117">
-        <v>754.7996287306073</v>
-      </c>
-      <c r="GE117">
-        <v>761.6075082716216</v>
-      </c>
-      <c r="GF117">
-        <v>965.182761732832</v>
-      </c>
-      <c r="GG117">
-        <v>1974.509192501186</v>
-      </c>
-      <c r="GH117">
-        <v>2145.731351360954</v>
-      </c>
-      <c r="GI117">
-        <v>1979.028127841454</v>
-      </c>
-      <c r="GJ117">
-        <v>1932.836975716045</v>
+        <v>1823.785522505112</v>
       </c>
     </row>
-    <row r="118" spans="1:192">
+    <row r="118" spans="1:186">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -68522,58 +66416,40 @@
         <v>538.6928152400144</v>
       </c>
       <c r="FT118">
-        <v>1959.305659467555</v>
+        <v>857.6960737990105</v>
       </c>
       <c r="FU118">
+        <v>1037.0069317171</v>
+      </c>
+      <c r="FV118">
+        <v>1999.474306954776</v>
+      </c>
+      <c r="FW118">
+        <v>2228.322750662384</v>
+      </c>
+      <c r="FX118">
+        <v>630.9975252215713</v>
+      </c>
+      <c r="FY118">
+        <v>669.0908628491879</v>
+      </c>
+      <c r="FZ118">
         <v>1903.121266160041</v>
       </c>
-      <c r="FV118">
-        <v>669.0908628491879</v>
-      </c>
-      <c r="FW118">
-        <v>1999.474306954776</v>
-      </c>
-      <c r="FX118">
-        <v>2095.532498173072</v>
-      </c>
-      <c r="FY118">
-        <v>2228.322750662384</v>
-      </c>
-      <c r="FZ118">
-        <v>349.2566956143871</v>
-      </c>
       <c r="GA118">
-        <v>344.1051072164929</v>
+        <v>1639.772823432862</v>
       </c>
       <c r="GB118">
-        <v>2343.30567809679</v>
+        <v>186.7170798459564</v>
       </c>
       <c r="GC118">
-        <v>862.1791525187688</v>
+        <v>146.3547952567587</v>
       </c>
       <c r="GD118">
-        <v>923.1932566504871</v>
-      </c>
-      <c r="GE118">
-        <v>945.8252767748256</v>
-      </c>
-      <c r="GF118">
-        <v>1138.515701588459</v>
-      </c>
-      <c r="GG118">
-        <v>2178.154408449772</v>
-      </c>
-      <c r="GH118">
-        <v>2349.558603443098</v>
-      </c>
-      <c r="GI118">
-        <v>2175.902922874596</v>
-      </c>
-      <c r="GJ118">
-        <v>2132.737869262098</v>
+        <v>2021.827977770254</v>
       </c>
     </row>
-    <row r="119" spans="1:192">
+    <row r="119" spans="1:186">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -69100,55 +66976,37 @@
         <v>269.1097153918495</v>
       </c>
       <c r="FT119">
-        <v>1584.578693857734</v>
+        <v>678.6831037444309</v>
       </c>
       <c r="FU119">
+        <v>888.8417913534279</v>
+      </c>
+      <c r="FV119">
+        <v>1968.911403977059</v>
+      </c>
+      <c r="FW119">
+        <v>1936.722876804326</v>
+      </c>
+      <c r="FX119">
+        <v>294.177980799217</v>
+      </c>
+      <c r="FY119">
+        <v>372.7808667076673</v>
+      </c>
+      <c r="FZ119">
         <v>1529.371446870437</v>
       </c>
-      <c r="FV119">
-        <v>372.7808667076673</v>
-      </c>
-      <c r="FW119">
-        <v>1968.911403977059</v>
-      </c>
-      <c r="FX119">
-        <v>2059.248528747612</v>
-      </c>
-      <c r="FY119">
-        <v>1936.722876804326</v>
-      </c>
-      <c r="FZ119">
-        <v>71.65197134054419</v>
-      </c>
       <c r="GA119">
-        <v>164.7853948573026</v>
+        <v>1449.78454306351</v>
       </c>
       <c r="GB119">
-        <v>2400.059946228459</v>
+        <v>306.9141991379167</v>
       </c>
       <c r="GC119">
-        <v>482.6798693545946</v>
+        <v>322.0847281421887</v>
       </c>
       <c r="GD119">
-        <v>548.7766343113385</v>
-      </c>
-      <c r="GE119">
-        <v>672.0585267486015</v>
-      </c>
-      <c r="GF119">
-        <v>892.250585943097</v>
-      </c>
-      <c r="GG119">
-        <v>1800.003099907677</v>
-      </c>
-      <c r="GH119">
-        <v>1960.544290612054</v>
-      </c>
-      <c r="GI119">
-        <v>1835.743933953187</v>
-      </c>
-      <c r="GJ119">
-        <v>1779.262690299602</v>
+        <v>1677.39640836603</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LH_costmatrix.xlsx
+++ b/Data/LH_costmatrix.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GD119"/>
+  <dimension ref="A1:GL119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:186">
+    <row r="1" spans="1:194">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -928,8 +928,32 @@
       <c r="GD1" s="1">
         <v>184</v>
       </c>
+      <c r="GE1" s="1">
+        <v>185</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>186</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>187</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>188</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>189</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>190</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>191</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:186">
+    <row r="2" spans="1:194">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1456,40 +1480,64 @@
         <v>315.3815886356634</v>
       </c>
       <c r="FT2">
-        <v>690.3646813011139</v>
+        <v>33.02258075654508</v>
       </c>
       <c r="FU2">
-        <v>890.2547855041341</v>
+        <v>48.09471198369594</v>
       </c>
       <c r="FV2">
-        <v>1929.916211348289</v>
+        <v>2182.696054906332</v>
       </c>
       <c r="FW2">
-        <v>2017.711281567832</v>
+        <v>2329.15564227634</v>
       </c>
       <c r="FX2">
-        <v>436.40643968107</v>
+        <v>1338.014561977506</v>
       </c>
       <c r="FY2">
-        <v>499.828761115336</v>
+        <v>1262.363865818805</v>
       </c>
       <c r="FZ2">
-        <v>1659.091004192277</v>
+        <v>1911.28885518752</v>
       </c>
       <c r="GA2">
-        <v>1477.516443308458</v>
+        <v>1924.572732346781</v>
       </c>
       <c r="GB2">
-        <v>151.9261995142741</v>
+        <v>777.9564491880736</v>
       </c>
       <c r="GC2">
+        <v>803.9542396270698</v>
+      </c>
+      <c r="GD2">
+        <v>766.5692104697027</v>
+      </c>
+      <c r="GE2">
+        <v>1682.219800764477</v>
+      </c>
+      <c r="GF2">
+        <v>172.3918886685611</v>
+      </c>
+      <c r="GG2">
         <v>161.2440896462045</v>
       </c>
-      <c r="GD2">
-        <v>1788.02538151044</v>
+      <c r="GH2">
+        <v>1764.872572990439</v>
+      </c>
+      <c r="GI2">
+        <v>1676.881142161421</v>
+      </c>
+      <c r="GJ2">
+        <v>1292.599525678821</v>
+      </c>
+      <c r="GK2">
+        <v>611.3524114578044</v>
+      </c>
+      <c r="GL2">
+        <v>590.8753096158525</v>
       </c>
     </row>
-    <row r="3" spans="1:186">
+    <row r="3" spans="1:194">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2016,40 +2064,64 @@
         <v>313.8159461816721</v>
       </c>
       <c r="FT3">
-        <v>667.8128383881219</v>
+        <v>54.24925099558354</v>
       </c>
       <c r="FU3">
-        <v>863.0273146551593</v>
+        <v>35.40941737247947</v>
       </c>
       <c r="FV3">
-        <v>1889.707969954462</v>
+        <v>2201.829653085244</v>
       </c>
       <c r="FW3">
-        <v>2012.873448361303</v>
+        <v>2282.22463871915</v>
       </c>
       <c r="FX3">
-        <v>488.0424183781134</v>
+        <v>1312.030975708826</v>
       </c>
       <c r="FY3">
-        <v>552.8246308581652</v>
+        <v>1236.360358352722</v>
       </c>
       <c r="FZ3">
-        <v>1675.36195824165</v>
+        <v>1907.39653505487</v>
       </c>
       <c r="GA3">
-        <v>1455.816318836141</v>
+        <v>1920.782452427939</v>
       </c>
       <c r="GB3">
-        <v>100.953663135464</v>
+        <v>725.1964588627189</v>
       </c>
       <c r="GC3">
+        <v>752.0171429906139</v>
+      </c>
+      <c r="GD3">
+        <v>755.8968785478631</v>
+      </c>
+      <c r="GE3">
+        <v>1693.981849421586</v>
+      </c>
+      <c r="GF3">
+        <v>138.433978289197</v>
+      </c>
+      <c r="GG3">
         <v>116.9515163369199</v>
       </c>
-      <c r="GD3">
-        <v>1795.30596429027</v>
+      <c r="GH3">
+        <v>1729.65680017378</v>
+      </c>
+      <c r="GI3">
+        <v>1637.297836908685</v>
+      </c>
+      <c r="GJ3">
+        <v>1239.393482207187</v>
+      </c>
+      <c r="GK3">
+        <v>659.0940088083108</v>
+      </c>
+      <c r="GL3">
+        <v>636.795949304528</v>
       </c>
     </row>
-    <row r="4" spans="1:186">
+    <row r="4" spans="1:194">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2576,40 +2648,64 @@
         <v>282.6550824726456</v>
       </c>
       <c r="FT4">
-        <v>673.3161107358331</v>
+        <v>85.45774150680695</v>
       </c>
       <c r="FU4">
-        <v>877.5231089987452</v>
+        <v>102.5057067931175</v>
       </c>
       <c r="FV4">
-        <v>1932.709572099754</v>
+        <v>2132.225978818416</v>
       </c>
       <c r="FW4">
-        <v>1981.974322024073</v>
+        <v>2343.59718120381</v>
       </c>
       <c r="FX4">
-        <v>391.4627581450533</v>
+        <v>1322.871042592261</v>
       </c>
       <c r="FY4">
-        <v>460.4628766475249</v>
+        <v>1247.360619791888</v>
       </c>
       <c r="FZ4">
-        <v>1610.041559023887</v>
+        <v>1874.869607003378</v>
       </c>
       <c r="GA4">
-        <v>1457.547999795097</v>
+        <v>1888.067739803977</v>
       </c>
       <c r="GB4">
-        <v>199.6005562192649</v>
+        <v>820.5342063823327</v>
       </c>
       <c r="GC4">
+        <v>849.1753989060039</v>
+      </c>
+      <c r="GD4">
+        <v>737.4939851432998</v>
+      </c>
+      <c r="GE4">
+        <v>1635.500581835901</v>
+      </c>
+      <c r="GF4">
+        <v>226.8746089168945</v>
+      </c>
+      <c r="GG4">
         <v>213.5099881928784</v>
       </c>
-      <c r="GD4">
-        <v>1743.889382626035</v>
+      <c r="GH4">
+        <v>1760.593030289564</v>
+      </c>
+      <c r="GI4">
+        <v>1678.911236004129</v>
+      </c>
+      <c r="GJ4">
+        <v>1328.714351684101</v>
+      </c>
+      <c r="GK4">
+        <v>560.3880736680776</v>
+      </c>
+      <c r="GL4">
+        <v>538.5327479054644</v>
       </c>
     </row>
-    <row r="5" spans="1:186">
+    <row r="5" spans="1:194">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3136,40 +3232,64 @@
         <v>165.3961363034745</v>
       </c>
       <c r="FT5">
-        <v>499.2088224803979</v>
+        <v>215.5648122404341</v>
       </c>
       <c r="FU5">
-        <v>697.9261230434553</v>
+        <v>204.6766382232061</v>
       </c>
       <c r="FV5">
-        <v>1747.00521286878</v>
+        <v>2072.291506156633</v>
       </c>
       <c r="FW5">
-        <v>1847.575466782786</v>
+        <v>2164.134504508932</v>
       </c>
       <c r="FX5">
-        <v>527.2555201512421</v>
+        <v>1145.857426182579</v>
       </c>
       <c r="FY5">
-        <v>610.8356810933979</v>
+        <v>1070.195585469165</v>
       </c>
       <c r="FZ5">
-        <v>1540.818703126225</v>
+        <v>1742.90906859251</v>
       </c>
       <c r="GA5">
-        <v>1287.057905047885</v>
+        <v>1756.372233639983</v>
       </c>
       <c r="GB5">
-        <v>202.9037667854153</v>
+        <v>718.0893743957261</v>
       </c>
       <c r="GC5">
+        <v>759.3831687084156</v>
+      </c>
+      <c r="GD5">
+        <v>587.9787999046868</v>
+      </c>
+      <c r="GE5">
+        <v>1550.509069033862</v>
+      </c>
+      <c r="GF5">
+        <v>281.10939722698</v>
+      </c>
+      <c r="GG5">
         <v>241.2268020071976</v>
       </c>
-      <c r="GD5">
-        <v>1644.124953362366</v>
+      <c r="GH5">
+        <v>1575.560864528326</v>
+      </c>
+      <c r="GI5">
+        <v>1493.127586660244</v>
+      </c>
+      <c r="GJ5">
+        <v>1194.192857799619</v>
+      </c>
+      <c r="GK5">
+        <v>657.0184207810053</v>
+      </c>
+      <c r="GL5">
+        <v>623.8695207799367</v>
       </c>
     </row>
-    <row r="6" spans="1:186">
+    <row r="6" spans="1:194">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3696,40 +3816,64 @@
         <v>308.9697075534158</v>
       </c>
       <c r="FT6">
-        <v>704.2033245577431</v>
+        <v>91.04804121557227</v>
       </c>
       <c r="FU6">
-        <v>909.2927278698656</v>
+        <v>114.1871660817137</v>
       </c>
       <c r="FV6">
-        <v>1966.356178939537</v>
+        <v>2140.838814979187</v>
       </c>
       <c r="FW6">
-        <v>2004.435505640418</v>
+        <v>2377.05705330035</v>
       </c>
       <c r="FX6">
-        <v>368.2980322688836</v>
+        <v>1353.932247849718</v>
       </c>
       <c r="FY6">
-        <v>433.4175883183877</v>
+        <v>1278.476133202621</v>
       </c>
       <c r="FZ6">
-        <v>1620.858236866926</v>
+        <v>1896.930767292745</v>
       </c>
       <c r="GA6">
-        <v>1487.212085563108</v>
+        <v>1910.071626924605</v>
       </c>
       <c r="GB6">
-        <v>220.0126786021348</v>
+        <v>845.1010770467474</v>
       </c>
       <c r="GC6">
+        <v>871.8610333823568</v>
+      </c>
+      <c r="GD6">
+        <v>764.1087266705579</v>
+      </c>
+      <c r="GE6">
+        <v>1649.142707861918</v>
+      </c>
+      <c r="GF6">
+        <v>235.9926750336956</v>
+      </c>
+      <c r="GG6">
         <v>228.7657657151987</v>
       </c>
-      <c r="GD6">
-        <v>1760.107068229698</v>
+      <c r="GH6">
+        <v>1793.627309153909</v>
+      </c>
+      <c r="GI6">
+        <v>1712.524250521775</v>
+      </c>
+      <c r="GJ6">
+        <v>1356.847101704532</v>
+      </c>
+      <c r="GK6">
+        <v>544.1088040406474</v>
+      </c>
+      <c r="GL6">
+        <v>524.7822504163031</v>
       </c>
     </row>
-    <row r="7" spans="1:186">
+    <row r="7" spans="1:194">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4256,40 +4400,64 @@
         <v>548.8862333947122</v>
       </c>
       <c r="FT7">
-        <v>947.1368700667886</v>
+        <v>252.9202322114857</v>
       </c>
       <c r="FU7">
-        <v>1151.484563268337</v>
+        <v>275.3127758845644</v>
       </c>
       <c r="FV7">
-        <v>2196.183169056604</v>
+        <v>2303.999965680242</v>
       </c>
       <c r="FW7">
-        <v>2229.635049283246</v>
+        <v>2586.092919593492</v>
       </c>
       <c r="FX7">
-        <v>377.85605917513</v>
+        <v>1596.811843343831</v>
       </c>
       <c r="FY7">
-        <v>387.5077091653985</v>
+        <v>1521.326138642405</v>
       </c>
       <c r="FZ7">
-        <v>1797.757767487578</v>
+        <v>2120.89456078925</v>
       </c>
       <c r="GA7">
-        <v>1729.787059622296</v>
+        <v>2133.817761497707</v>
       </c>
       <c r="GB7">
-        <v>370.5135838068735</v>
+        <v>965.9398208494165</v>
       </c>
       <c r="GC7">
+        <v>976.3909703128638</v>
+      </c>
+      <c r="GD7">
+        <v>1002.661878292422</v>
+      </c>
+      <c r="GE7">
+        <v>1839.375653003462</v>
+      </c>
+      <c r="GF7">
+        <v>323.8305601867049</v>
+      </c>
+      <c r="GG7">
         <v>351.0191614855198</v>
       </c>
-      <c r="GD7">
-        <v>1961.430438226987</v>
+      <c r="GH7">
+        <v>2031.244190588242</v>
+      </c>
+      <c r="GI7">
+        <v>1943.383253369054</v>
+      </c>
+      <c r="GJ7">
+        <v>1500.664642956036</v>
+      </c>
+      <c r="GK7">
+        <v>585.3787802129897</v>
+      </c>
+      <c r="GL7">
+        <v>586.8152820784762</v>
       </c>
     </row>
-    <row r="8" spans="1:186">
+    <row r="8" spans="1:194">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4816,40 +4984,64 @@
         <v>306.537003760296</v>
       </c>
       <c r="FT8">
-        <v>680.1165221285653</v>
+        <v>40.01666145175224</v>
       </c>
       <c r="FU8">
-        <v>879.8650864082769</v>
+        <v>49.63020909605738</v>
       </c>
       <c r="FV8">
-        <v>1919.676910196227</v>
+        <v>2177.268860513786</v>
       </c>
       <c r="FW8">
-        <v>2008.879832023911</v>
+        <v>2319.61347546458</v>
       </c>
       <c r="FX8">
-        <v>440.6322541697126</v>
+        <v>1327.669726568456</v>
       </c>
       <c r="FY8">
-        <v>505.4998868973768</v>
+        <v>1252.016936980886</v>
       </c>
       <c r="FZ8">
-        <v>1653.135236689358</v>
+        <v>1902.554585060702</v>
       </c>
       <c r="GA8">
-        <v>1467.346937524479</v>
+        <v>1915.849997855788</v>
       </c>
       <c r="GB8">
-        <v>147.8863512531137</v>
+        <v>772.6712205839927</v>
       </c>
       <c r="GC8">
+        <v>799.4488510318565</v>
+      </c>
+      <c r="GD8">
+        <v>757.0874913299622</v>
+      </c>
+      <c r="GE8">
+        <v>1675.531326695622</v>
+      </c>
+      <c r="GF8">
+        <v>173.613114559202</v>
+      </c>
+      <c r="GG8">
         <v>159.7350590444235</v>
       </c>
-      <c r="GD8">
-        <v>1780.678214543751</v>
+      <c r="GH8">
+        <v>1754.450523189866</v>
+      </c>
+      <c r="GI8">
+        <v>1666.609850079516</v>
+      </c>
+      <c r="GJ8">
+        <v>1285.878882318404</v>
+      </c>
+      <c r="GK8">
+        <v>613.3982580901386</v>
+      </c>
+      <c r="GL8">
+        <v>592.1464341842486</v>
       </c>
     </row>
-    <row r="9" spans="1:186">
+    <row r="9" spans="1:194">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5376,40 +5568,64 @@
         <v>197.8680961078175</v>
       </c>
       <c r="FT9">
-        <v>571.4066360677692</v>
+        <v>149.6388913442061</v>
       </c>
       <c r="FU9">
-        <v>773.8630236214317</v>
+        <v>146.7059141610503</v>
       </c>
       <c r="FV9">
-        <v>1828.555686020546</v>
+        <v>2088.446306861457</v>
       </c>
       <c r="FW9">
-        <v>1899.252435369556</v>
+        <v>2244.737232545102</v>
       </c>
       <c r="FX9">
-        <v>457.9387294737518</v>
+        <v>1220.276290334687</v>
       </c>
       <c r="FY9">
-        <v>537.4895962142388</v>
+        <v>1144.688692761835</v>
       </c>
       <c r="FZ9">
-        <v>1560.673370672326</v>
+        <v>1793.295274577222</v>
       </c>
       <c r="GA9">
-        <v>1357.63488616813</v>
+        <v>1806.634030023188</v>
       </c>
       <c r="GB9">
-        <v>187.7851822273068</v>
+        <v>766.2846397826282</v>
       </c>
       <c r="GC9">
+        <v>802.1963637003975</v>
+      </c>
+      <c r="GD9">
+        <v>645.8766832870573</v>
+      </c>
+      <c r="GE9">
+        <v>1577.804693301043</v>
+      </c>
+      <c r="GF9">
+        <v>249.961126462766</v>
+      </c>
+      <c r="GG9">
         <v>218.6756974474958</v>
       </c>
-      <c r="GD9">
-        <v>1678.599542237891</v>
+      <c r="GH9">
+        <v>1655.619852083581</v>
+      </c>
+      <c r="GI9">
+        <v>1574.611212757783</v>
+      </c>
+      <c r="GJ9">
+        <v>1257.416923004291</v>
+      </c>
+      <c r="GK9">
+        <v>602.4159180790492</v>
+      </c>
+      <c r="GL9">
+        <v>573.2186395527904</v>
       </c>
     </row>
-    <row r="10" spans="1:186">
+    <row r="10" spans="1:194">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5936,40 +6152,64 @@
         <v>1461.595377865535</v>
       </c>
       <c r="FT10">
-        <v>1303.122918080846</v>
+        <v>1454.746741256904</v>
       </c>
       <c r="FU10">
-        <v>1242.425097351728</v>
+        <v>1427.398202096736</v>
       </c>
       <c r="FV10">
-        <v>1251.176878418219</v>
+        <v>3021.958611696206</v>
       </c>
       <c r="FW10">
-        <v>2365.808848096005</v>
+        <v>1240.422206834747</v>
       </c>
       <c r="FX10">
-        <v>1888.594557402108</v>
+        <v>1400.10336588344</v>
       </c>
       <c r="FY10">
-        <v>1961.523354543054</v>
+        <v>1367.612557802829</v>
       </c>
       <c r="FZ10">
-        <v>2511.266390825244</v>
+        <v>2303.578267959913</v>
       </c>
       <c r="GA10">
-        <v>1579.844712103981</v>
+        <v>2316.32149100169</v>
       </c>
       <c r="GB10">
-        <v>1316.43994256565</v>
+        <v>699.5957353787878</v>
       </c>
       <c r="GC10">
+        <v>699.4518022786552</v>
+      </c>
+      <c r="GD10">
+        <v>1484.702750769659</v>
+      </c>
+      <c r="GE10">
+        <v>2446.194035857552</v>
+      </c>
+      <c r="GF10">
+        <v>1343.105874080085</v>
+      </c>
+      <c r="GG10">
         <v>1323.476725275711</v>
       </c>
-      <c r="GD10">
-        <v>2444.669948481261</v>
+      <c r="GH10">
+        <v>1339.593534024121</v>
+      </c>
+      <c r="GI10">
+        <v>1126.312686046869</v>
+      </c>
+      <c r="GJ10">
+        <v>177.7979728949436</v>
+      </c>
+      <c r="GK10">
+        <v>2026.085393208891</v>
+      </c>
+      <c r="GL10">
+        <v>1990.672286692612</v>
       </c>
     </row>
-    <row r="11" spans="1:186">
+    <row r="11" spans="1:194">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6496,40 +6736,64 @@
         <v>1283.993057924355</v>
       </c>
       <c r="FT11">
-        <v>1130.785046188998</v>
+        <v>1284.91443624306</v>
       </c>
       <c r="FU11">
-        <v>1080.165273336332</v>
+        <v>1257.591986652068</v>
       </c>
       <c r="FV11">
-        <v>1218.467442353749</v>
+        <v>2865.750722220912</v>
       </c>
       <c r="FW11">
-        <v>2239.32858767394</v>
+        <v>1294.431249717264</v>
       </c>
       <c r="FX11">
-        <v>1714.717925323395</v>
+        <v>1270.738839531788</v>
       </c>
       <c r="FY11">
-        <v>1789.055123291982</v>
+        <v>1232.223986342361</v>
       </c>
       <c r="FZ11">
-        <v>2350.372934179823</v>
+        <v>2172.194737866935</v>
       </c>
       <c r="GA11">
-        <v>1454.961215984152</v>
+        <v>2185.207656289705</v>
       </c>
       <c r="GB11">
-        <v>1147.029781521533</v>
+        <v>540.7414212062423</v>
       </c>
       <c r="GC11">
+        <v>550.8865148576836</v>
+      </c>
+      <c r="GD11">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="GE11">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="GF11">
+        <v>1177.525810938293</v>
+      </c>
+      <c r="GG11">
         <v>1155.888266734348</v>
       </c>
-      <c r="GD11">
-        <v>2295.2138595336</v>
+      <c r="GH11">
+        <v>1268.813089008749</v>
+      </c>
+      <c r="GI11">
+        <v>1062.372994576193</v>
+      </c>
+      <c r="GJ11">
+        <v>0</v>
+      </c>
+      <c r="GK11">
+        <v>1849.707381781982</v>
+      </c>
+      <c r="GL11">
+        <v>1813.916337113418</v>
       </c>
     </row>
-    <row r="12" spans="1:186">
+    <row r="12" spans="1:194">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7056,40 +7320,64 @@
         <v>1106.041669761432</v>
       </c>
       <c r="FT12">
-        <v>1028.115447778283</v>
+        <v>1059.890954429132</v>
       </c>
       <c r="FU12">
-        <v>1026.307630097036</v>
+        <v>1032.605534522364</v>
       </c>
       <c r="FV12">
-        <v>1395.402470239412</v>
+        <v>2807.836298111551</v>
       </c>
       <c r="FW12">
-        <v>2260.70604099593</v>
+        <v>1536.129149294197</v>
       </c>
       <c r="FX12">
-        <v>1502.452644126769</v>
+        <v>1302.239396960077</v>
       </c>
       <c r="FY12">
-        <v>1570.892275923546</v>
+        <v>1251.28829480801</v>
       </c>
       <c r="FZ12">
-        <v>2280.410207953933</v>
+        <v>2183.624217459634</v>
       </c>
       <c r="GA12">
-        <v>1491.294702671202</v>
+        <v>2197.102018120819</v>
       </c>
       <c r="GB12">
-        <v>921.4209671586375</v>
+        <v>296.8198749537156</v>
       </c>
       <c r="GC12">
+        <v>295.1386401092607</v>
+      </c>
+      <c r="GD12">
+        <v>1215.982773525993</v>
+      </c>
+      <c r="GE12">
+        <v>2235.142025101945</v>
+      </c>
+      <c r="GF12">
+        <v>942.6252164902047</v>
+      </c>
+      <c r="GG12">
         <v>925.4911461607818</v>
       </c>
-      <c r="GD12">
-        <v>2260.885857323207</v>
+      <c r="GH12">
+        <v>1399.758741731761</v>
+      </c>
+      <c r="GI12">
+        <v>1208.004109036346</v>
+      </c>
+      <c r="GJ12">
+        <v>259.4731435209294</v>
+      </c>
+      <c r="GK12">
+        <v>1651.758675415723</v>
+      </c>
+      <c r="GL12">
+        <v>1619.532141376912</v>
       </c>
     </row>
-    <row r="13" spans="1:186">
+    <row r="13" spans="1:194">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7616,40 +7904,64 @@
         <v>1451.650000256546</v>
       </c>
       <c r="FT13">
-        <v>1392.8218207346</v>
+        <v>1360.69934213446</v>
       </c>
       <c r="FU13">
-        <v>1384.949492676528</v>
+        <v>1334.144815615324</v>
       </c>
       <c r="FV13">
-        <v>1588.590826010172</v>
+        <v>3170.263880024</v>
       </c>
       <c r="FW13">
-        <v>2595.452956163945</v>
+        <v>1593.30520647498</v>
       </c>
       <c r="FX13">
-        <v>1813.336673651245</v>
+        <v>1628.763561862952</v>
       </c>
       <c r="FY13">
-        <v>1873.120477754921</v>
+        <v>1584.190588511727</v>
       </c>
       <c r="FZ13">
-        <v>2644.098930450178</v>
+        <v>2523.200117766247</v>
       </c>
       <c r="GA13">
-        <v>1815.880191592712</v>
+        <v>2536.479488566449</v>
       </c>
       <c r="GB13">
-        <v>1225.058578820777</v>
+        <v>610.3386837218271</v>
       </c>
       <c r="GC13">
+        <v>573.8166240733705</v>
+      </c>
+      <c r="GD13">
+        <v>1580.682345658619</v>
+      </c>
+      <c r="GE13">
+        <v>2596.631647035584</v>
+      </c>
+      <c r="GF13">
+        <v>1229.443347415246</v>
+      </c>
+      <c r="GG13">
         <v>1221.228366097184</v>
       </c>
-      <c r="GD13">
-        <v>2617.789898468679</v>
+      <c r="GH13">
+        <v>1648.853065303953</v>
+      </c>
+      <c r="GI13">
+        <v>1441.505471556035</v>
+      </c>
+      <c r="GJ13">
+        <v>380.1861951930076</v>
+      </c>
+      <c r="GK13">
+        <v>1976.71702800315</v>
+      </c>
+      <c r="GL13">
+        <v>1948.050915625905</v>
       </c>
     </row>
-    <row r="14" spans="1:186">
+    <row r="14" spans="1:194">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8176,40 +8488,64 @@
         <v>1385.169897549702</v>
       </c>
       <c r="FT14">
-        <v>1192.450582448278</v>
+        <v>1413.014573012578</v>
       </c>
       <c r="FU14">
-        <v>1115.342015853947</v>
+        <v>1385.831998386128</v>
       </c>
       <c r="FV14">
-        <v>1106.769534191074</v>
+        <v>2885.339385821297</v>
       </c>
       <c r="FW14">
-        <v>2214.407076819162</v>
+        <v>1143.613443978647</v>
       </c>
       <c r="FX14">
-        <v>1832.937200566824</v>
+        <v>1250.54099321377</v>
       </c>
       <c r="FY14">
-        <v>1910.649808266605</v>
+        <v>1220.426376275395</v>
       </c>
       <c r="FZ14">
-        <v>2379.599205056869</v>
+        <v>2153.698107405418</v>
       </c>
       <c r="GA14">
-        <v>1428.627021511098</v>
+        <v>2166.343299600681</v>
       </c>
       <c r="GB14">
-        <v>1276.35468882189</v>
+        <v>685.6986900537775</v>
       </c>
       <c r="GC14">
+        <v>701.410389266373</v>
+      </c>
+      <c r="GD14">
+        <v>1369.599914058275</v>
+      </c>
+      <c r="GE14">
+        <v>2310.213379857735</v>
+      </c>
+      <c r="GF14">
+        <v>1312.131173379121</v>
+      </c>
+      <c r="GG14">
         <v>1287.938809876874</v>
       </c>
-      <c r="GD14">
-        <v>2303.392702484089</v>
+      <c r="GH14">
+        <v>1186.058230137346</v>
+      </c>
+      <c r="GI14">
+        <v>973.5778932850258</v>
+      </c>
+      <c r="GJ14">
+        <v>155.7531290556531</v>
+      </c>
+      <c r="GK14">
+        <v>1958.559091872046</v>
+      </c>
+      <c r="GL14">
+        <v>1920.768989834054</v>
       </c>
     </row>
-    <row r="15" spans="1:186">
+    <row r="15" spans="1:194">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8736,40 +9072,64 @@
         <v>1288.114482973389</v>
       </c>
       <c r="FT15">
-        <v>1203.515436496665</v>
+        <v>1230.417715482424</v>
       </c>
       <c r="FU15">
-        <v>1188.897363283744</v>
+        <v>1203.284470544041</v>
       </c>
       <c r="FV15">
-        <v>1434.550270512337</v>
+        <v>2975.631398838817</v>
       </c>
       <c r="FW15">
-        <v>2398.975878132381</v>
+        <v>1500.132893479447</v>
       </c>
       <c r="FX15">
-        <v>1677.072298399954</v>
+        <v>1433.141285614992</v>
       </c>
       <c r="FY15">
-        <v>1743.014913195684</v>
+        <v>1387.588366157884</v>
       </c>
       <c r="FZ15">
-        <v>2450.927920782348</v>
+        <v>2326.099726654063</v>
       </c>
       <c r="GA15">
-        <v>1620.746114676799</v>
+        <v>2339.402565724845</v>
       </c>
       <c r="GB15">
-        <v>1092.389293647842</v>
+        <v>465.3992412719157</v>
       </c>
       <c r="GC15">
+        <v>447.1177041585727</v>
+      </c>
+      <c r="GD15">
+        <v>1391.062678317408</v>
+      </c>
+      <c r="GE15">
+        <v>2401.429243740838</v>
+      </c>
+      <c r="GF15">
+        <v>1107.775463152544</v>
+      </c>
+      <c r="GG15">
         <v>1093.757138356614</v>
       </c>
-      <c r="GD15">
-        <v>2420.866234351441</v>
+      <c r="GH15">
+        <v>1474.369789401878</v>
+      </c>
+      <c r="GI15">
+        <v>1271.550490004668</v>
+      </c>
+      <c r="GJ15">
+        <v>217.6295994438368</v>
+      </c>
+      <c r="GK15">
+        <v>1830.282257849036</v>
+      </c>
+      <c r="GL15">
+        <v>1798.856511394922</v>
       </c>
     </row>
-    <row r="16" spans="1:186">
+    <row r="16" spans="1:194">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9296,40 +9656,64 @@
         <v>1161.18728233045</v>
       </c>
       <c r="FT16">
-        <v>1003.126918658868</v>
+        <v>1176.929540016929</v>
       </c>
       <c r="FU16">
-        <v>956.3522255744746</v>
+        <v>1149.718163041668</v>
       </c>
       <c r="FV16">
-        <v>1183.117354132929</v>
+        <v>2743.699215139246</v>
       </c>
       <c r="FW16">
-        <v>2134.260049088228</v>
+        <v>1320.539983813022</v>
       </c>
       <c r="FX16">
-        <v>1599.881043041219</v>
+        <v>1166.342210969141</v>
       </c>
       <c r="FY16">
-        <v>1676.360469784923</v>
+        <v>1124.034752982458</v>
       </c>
       <c r="FZ16">
-        <v>2226.348730157236</v>
+        <v>2064.236137088384</v>
       </c>
       <c r="GA16">
-        <v>1352.750260845459</v>
+        <v>2077.393938411798</v>
       </c>
       <c r="GB16">
-        <v>1040.073191091923</v>
+        <v>455.8446408389261</v>
       </c>
       <c r="GC16">
+        <v>479.9254076934391</v>
+      </c>
+      <c r="GD16">
+        <v>1186.644700732664</v>
+      </c>
+      <c r="GE16">
+        <v>2167.880328452104</v>
+      </c>
+      <c r="GF16">
+        <v>1075.784041125579</v>
+      </c>
+      <c r="GG16">
         <v>1051.495253183818</v>
       </c>
-      <c r="GD16">
-        <v>2176.803984931717</v>
+      <c r="GH16">
+        <v>1205.411702455812</v>
+      </c>
+      <c r="GI16">
+        <v>1006.394212818015</v>
+      </c>
+      <c r="GJ16">
+        <v>127.8372292771171</v>
+      </c>
+      <c r="GK16">
+        <v>1730.159499761465</v>
+      </c>
+      <c r="GL16">
+        <v>1693.516971856567</v>
       </c>
     </row>
-    <row r="17" spans="1:186">
+    <row r="17" spans="1:194">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9856,40 +10240,64 @@
         <v>686.4379173447376</v>
       </c>
       <c r="FT17">
-        <v>720.4183374683221</v>
+        <v>618.8483275201108</v>
       </c>
       <c r="FU17">
-        <v>801.5514813403561</v>
+        <v>591.5054822303885</v>
       </c>
       <c r="FV17">
-        <v>1536.110224681321</v>
+        <v>2500.848591676263</v>
       </c>
       <c r="FW17">
-        <v>2083.014961580369</v>
+        <v>1818.722895897162</v>
       </c>
       <c r="FX17">
-        <v>1059.874369782147</v>
+        <v>1190.935343580061</v>
       </c>
       <c r="FY17">
-        <v>1128.494047953592</v>
+        <v>1123.79696146234</v>
       </c>
       <c r="FZ17">
-        <v>1965.213608276392</v>
+        <v>1992.124408223332</v>
       </c>
       <c r="GA17">
-        <v>1372.896696281221</v>
+        <v>2005.950147103393</v>
       </c>
       <c r="GB17">
-        <v>480.4001466292172</v>
+        <v>158.2159316369835</v>
       </c>
       <c r="GC17">
+        <v>208.9013558419277</v>
+      </c>
+      <c r="GD17">
+        <v>899.1697759149674</v>
+      </c>
+      <c r="GE17">
+        <v>1942.102530201886</v>
+      </c>
+      <c r="GF17">
+        <v>509.3209062494923</v>
+      </c>
+      <c r="GG17">
         <v>487.5390549173537</v>
       </c>
-      <c r="GD17">
-        <v>1996.727149616185</v>
+      <c r="GH17">
+        <v>1453.890536718003</v>
+      </c>
+      <c r="GI17">
+        <v>1304.397485796391</v>
+      </c>
+      <c r="GJ17">
+        <v>668.5102921102138</v>
+      </c>
+      <c r="GK17">
+        <v>1212.606151055121</v>
+      </c>
+      <c r="GL17">
+        <v>1182.083672027997</v>
       </c>
     </row>
-    <row r="18" spans="1:186">
+    <row r="18" spans="1:194">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10416,40 +10824,64 @@
         <v>868.9621989519748</v>
       </c>
       <c r="FT18">
-        <v>808.8349635549422</v>
+        <v>841.2664173473372</v>
       </c>
       <c r="FU18">
-        <v>833.5982225201572</v>
+        <v>813.9305903203571</v>
       </c>
       <c r="FV18">
-        <v>1389.159077644704</v>
+        <v>2597.178549576636</v>
       </c>
       <c r="FW18">
-        <v>2098.390007109119</v>
+        <v>1621.796709564227</v>
       </c>
       <c r="FX18">
-        <v>1275.463219937366</v>
+        <v>1161.428143859306</v>
       </c>
       <c r="FY18">
-        <v>1347.474124890846</v>
+        <v>1102.379367041548</v>
       </c>
       <c r="FZ18">
-        <v>2066.02870245886</v>
+        <v>2015.138405219719</v>
       </c>
       <c r="GA18">
-        <v>1349.698871374432</v>
+        <v>2028.821605766215</v>
       </c>
       <c r="GB18">
-        <v>703.2440309269052</v>
+        <v>134.1946951228162</v>
       </c>
       <c r="GC18">
+        <v>190.4378043057455</v>
+      </c>
+      <c r="GD18">
+        <v>996.2623547411174</v>
+      </c>
+      <c r="GE18">
+        <v>2027.982481628943</v>
+      </c>
+      <c r="GF18">
+        <v>734.7192147193167</v>
+      </c>
+      <c r="GG18">
         <v>712.178141599196</v>
       </c>
-      <c r="GD18">
-        <v>2064.070963470615</v>
+      <c r="GH18">
+        <v>1343.852731267254</v>
+      </c>
+      <c r="GI18">
+        <v>1173.384798584642</v>
+      </c>
+      <c r="GJ18">
+        <v>443.8571358358769</v>
+      </c>
+      <c r="GK18">
+        <v>1418.956613608131</v>
+      </c>
+      <c r="GL18">
+        <v>1385.667691667149</v>
       </c>
     </row>
-    <row r="19" spans="1:186">
+    <row r="19" spans="1:194">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10976,40 +11408,64 @@
         <v>658.3316503717103</v>
       </c>
       <c r="FT19">
-        <v>721.1558871903726</v>
+        <v>572.6636915082458</v>
       </c>
       <c r="FU19">
-        <v>815.1395337188051</v>
+        <v>545.3633485228946</v>
       </c>
       <c r="FV19">
-        <v>1579.772104975718</v>
+        <v>2493.209661740727</v>
       </c>
       <c r="FW19">
-        <v>2095.174022367706</v>
+        <v>1868.663518865395</v>
       </c>
       <c r="FX19">
-        <v>1016.982755054867</v>
+        <v>1214.923988570906</v>
       </c>
       <c r="FY19">
-        <v>1083.841148785195</v>
+        <v>1146.471327884507</v>
       </c>
       <c r="FZ19">
-        <v>1957.114991127318</v>
+        <v>2002.725440802281</v>
       </c>
       <c r="GA19">
-        <v>1394.923214008804</v>
+        <v>2016.559553558827</v>
       </c>
       <c r="GB19">
-        <v>434.1712043477953</v>
+        <v>195.394688078447</v>
       </c>
       <c r="GC19">
+        <v>234.7419536197643</v>
+      </c>
+      <c r="GD19">
+        <v>895.8509045983132</v>
+      </c>
+      <c r="GE19">
+        <v>1937.849699786463</v>
+      </c>
+      <c r="GF19">
+        <v>459.964680510046</v>
+      </c>
+      <c r="GG19">
         <v>439.550834010808</v>
       </c>
-      <c r="GD19">
-        <v>1996.959444229212</v>
+      <c r="GH19">
+        <v>1491.844313091641</v>
+      </c>
+      <c r="GI19">
+        <v>1346.005774837223</v>
+      </c>
+      <c r="GJ19">
+        <v>717.5644714292528</v>
+      </c>
+      <c r="GK19">
+        <v>1173.546595382427</v>
+      </c>
+      <c r="GL19">
+        <v>1144.170443917885</v>
       </c>
     </row>
-    <row r="20" spans="1:186">
+    <row r="20" spans="1:194">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11536,40 +11992,64 @@
         <v>956.5093385149976</v>
       </c>
       <c r="FT20">
-        <v>1016.696908092594</v>
+        <v>811.0653893834793</v>
       </c>
       <c r="FU20">
-        <v>1086.210322822976</v>
+        <v>785.3480621148875</v>
       </c>
       <c r="FV20">
-        <v>1689.527138201934</v>
+        <v>2797.309037926208</v>
       </c>
       <c r="FW20">
-        <v>2366.113040668501</v>
+        <v>1882.042790668936</v>
       </c>
       <c r="FX20">
-        <v>1265.435235714879</v>
+        <v>1450.141658765132</v>
       </c>
       <c r="FY20">
-        <v>1319.991280714714</v>
+        <v>1387.245129782176</v>
       </c>
       <c r="FZ20">
-        <v>2261.487857708213</v>
+        <v>2277.828308367459</v>
       </c>
       <c r="GA20">
-        <v>1636.395277564387</v>
+        <v>2291.624920134501</v>
       </c>
       <c r="GB20">
-        <v>679.7543790359791</v>
+        <v>189.3950268057681</v>
       </c>
       <c r="GC20">
+        <v>119.2499436136531</v>
+      </c>
+      <c r="GD20">
+        <v>1196.095414057623</v>
+      </c>
+      <c r="GE20">
+        <v>2239.03138068126</v>
+      </c>
+      <c r="GF20">
+        <v>674.6257548563291</v>
+      </c>
+      <c r="GG20">
         <v>670.8530319688959</v>
       </c>
-      <c r="GD20">
-        <v>2292.571891080082</v>
+      <c r="GH20">
+        <v>1650.649183810079</v>
+      </c>
+      <c r="GI20">
+        <v>1478.432713598919</v>
+      </c>
+      <c r="GJ20">
+        <v>614.0156486026202</v>
+      </c>
+      <c r="GK20">
+        <v>1439.145066044629</v>
+      </c>
+      <c r="GL20">
+        <v>1414.593716085028</v>
       </c>
     </row>
-    <row r="21" spans="1:186">
+    <row r="21" spans="1:194">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12096,40 +12576,64 @@
         <v>892.5508738987196</v>
       </c>
       <c r="FT21">
-        <v>916.2421544640426</v>
+        <v>788.7291300602208</v>
       </c>
       <c r="FU21">
-        <v>974.857789362021</v>
+        <v>761.9158396373364</v>
       </c>
       <c r="FV21">
-        <v>1578.403135778178</v>
+        <v>2703.017612396271</v>
       </c>
       <c r="FW21">
-        <v>2252.672164175856</v>
+        <v>1791.333238778456</v>
       </c>
       <c r="FX21">
-        <v>1240.058169763844</v>
+        <v>1332.078726198954</v>
       </c>
       <c r="FY21">
-        <v>1301.804540031623</v>
+        <v>1269.765291343106</v>
       </c>
       <c r="FZ21">
-        <v>2168.092466597079</v>
+        <v>2165.559827437926</v>
       </c>
       <c r="GA21">
-        <v>1518.726898973712</v>
+        <v>2179.335612632073</v>
       </c>
       <c r="GB21">
-        <v>652.0766875097041</v>
+        <v>71.67504812270678</v>
       </c>
       <c r="GC21">
+        <v>0</v>
+      </c>
+      <c r="GD21">
+        <v>1098.819083516361</v>
+      </c>
+      <c r="GE21">
+        <v>2140.906899322383</v>
+      </c>
+      <c r="GF21">
+        <v>661.9364426988197</v>
+      </c>
+      <c r="GG21">
         <v>650.2283001474188</v>
       </c>
-      <c r="GD21">
-        <v>2189.431624620642</v>
+      <c r="GH21">
+        <v>1533.577882833541</v>
+      </c>
+      <c r="GI21">
+        <v>1363.807877238519</v>
+      </c>
+      <c r="GJ21">
+        <v>550.8865148576836</v>
+      </c>
+      <c r="GK21">
+        <v>1403.310391482034</v>
+      </c>
+      <c r="GL21">
+        <v>1375.358701630832</v>
       </c>
     </row>
-    <row r="22" spans="1:186">
+    <row r="22" spans="1:194">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12656,40 +13160,64 @@
         <v>844.0987264833343</v>
       </c>
       <c r="FT22">
-        <v>849.0479585273794</v>
+        <v>765.3001971313081</v>
       </c>
       <c r="FU22">
-        <v>903.7920720149059</v>
+        <v>738.1152414309634</v>
       </c>
       <c r="FV22">
-        <v>1521.801904484974</v>
+        <v>2637.454212781936</v>
       </c>
       <c r="FW22">
-        <v>2181.129490787039</v>
+        <v>1752.997237725009</v>
       </c>
       <c r="FX22">
-        <v>1211.974803267944</v>
+        <v>1260.897726577338</v>
       </c>
       <c r="FY22">
-        <v>1277.658653156077</v>
+        <v>1198.340917086457</v>
       </c>
       <c r="FZ22">
-        <v>2103.040243106572</v>
+        <v>2094.194025192947</v>
       </c>
       <c r="GA22">
-        <v>1447.372454793094</v>
+        <v>2107.965774877132</v>
       </c>
       <c r="GB22">
-        <v>627.1145873979671</v>
+        <v>0</v>
       </c>
       <c r="GC22">
+        <v>71.67504812270678</v>
+      </c>
+      <c r="GD22">
+        <v>1032.766324625263</v>
+      </c>
+      <c r="GE22">
+        <v>2073.938014463946</v>
+      </c>
+      <c r="GF22">
+        <v>645.8822385250492</v>
+      </c>
+      <c r="GG22">
         <v>629.5586374117785</v>
       </c>
-      <c r="GD22">
-        <v>2120.593147051139</v>
+      <c r="GH22">
+        <v>1469.710034203682</v>
+      </c>
+      <c r="GI22">
+        <v>1303.355668270563</v>
+      </c>
+      <c r="GJ22">
+        <v>540.7414212062423</v>
+      </c>
+      <c r="GK22">
+        <v>1368.690125379696</v>
+      </c>
+      <c r="GL22">
+        <v>1338.897548960874</v>
       </c>
     </row>
-    <row r="23" spans="1:186">
+    <row r="23" spans="1:194">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13216,40 +13744,64 @@
         <v>830.286949905208</v>
       </c>
       <c r="FT23">
-        <v>812.5093184418628</v>
+        <v>773.86948268959</v>
       </c>
       <c r="FU23">
-        <v>859.1409611512249</v>
+        <v>746.5428184506186</v>
       </c>
       <c r="FV23">
-        <v>1470.610743846127</v>
+        <v>2602.329872670471</v>
       </c>
       <c r="FW23">
-        <v>2134.238381606189</v>
+        <v>1709.709762922764</v>
       </c>
       <c r="FX23">
-        <v>1215.345112438585</v>
+        <v>1210.311734084706</v>
       </c>
       <c r="FY23">
-        <v>1284.036587173867</v>
+        <v>1148.352136223336</v>
       </c>
       <c r="FZ23">
-        <v>2068.759293323599</v>
+        <v>2048.152228000307</v>
       </c>
       <c r="GA23">
-        <v>1397.170670130281</v>
+        <v>2061.906190101228</v>
       </c>
       <c r="GB23">
-        <v>635.3669778931787</v>
+        <v>52.99949669990065</v>
       </c>
       <c r="GC23">
+        <v>122.0308818995824</v>
+      </c>
+      <c r="GD23">
+        <v>997.7392227692377</v>
+      </c>
+      <c r="GE23">
+        <v>2036.901341653366</v>
+      </c>
+      <c r="GF23">
+        <v>660.7535287653677</v>
+      </c>
+      <c r="GG23">
         <v>641.1163966592904</v>
       </c>
-      <c r="GD23">
-        <v>2080.487881224038</v>
+      <c r="GH23">
+        <v>1416.825428617343</v>
+      </c>
+      <c r="GI23">
+        <v>1251.100896755458</v>
+      </c>
+      <c r="GJ23">
+        <v>517.7164578106275</v>
+      </c>
+      <c r="GK23">
+        <v>1366.328094302374</v>
+      </c>
+      <c r="GL23">
+        <v>1334.997593611675</v>
       </c>
     </row>
-    <row r="24" spans="1:186">
+    <row r="24" spans="1:194">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13776,40 +14328,64 @@
         <v>1837.74873619307</v>
       </c>
       <c r="FT24">
-        <v>1753.532893287725</v>
+        <v>2134.915097140759</v>
       </c>
       <c r="FU24">
-        <v>1770.689052880049</v>
+        <v>2145.731351360954</v>
       </c>
       <c r="FV24">
-        <v>2420.08986910537</v>
+        <v>158.5521057776684</v>
       </c>
       <c r="FW24">
-        <v>1070.536583284225</v>
+        <v>3032.266333800138</v>
       </c>
       <c r="FX24">
-        <v>1858.759991257081</v>
+        <v>1710.236492520642</v>
       </c>
       <c r="FY24">
-        <v>1903.382094656844</v>
+        <v>1708.877044540299</v>
       </c>
       <c r="FZ24">
-        <v>500.4937523573565</v>
+        <v>1023.551974234266</v>
       </c>
       <c r="GA24">
-        <v>1591.249574041257</v>
+        <v>1020.727348986716</v>
       </c>
       <c r="GB24">
-        <v>2198.304404194826</v>
+        <v>2594.979889346879</v>
       </c>
       <c r="GC24">
+        <v>2658.767461153329</v>
+      </c>
+      <c r="GD24">
+        <v>1566.153072454196</v>
+      </c>
+      <c r="GE24">
+        <v>579.4163274486818</v>
+      </c>
+      <c r="GF24">
+        <v>2262.13592838817</v>
+      </c>
+      <c r="GG24">
         <v>2231.61347541399</v>
       </c>
-      <c r="GD24">
-        <v>655.0590286600707</v>
+      <c r="GH24">
+        <v>2128.581106670868</v>
+      </c>
+      <c r="GI24">
+        <v>2266.087640034582</v>
+      </c>
+      <c r="GJ24">
+        <v>2850.842611271256</v>
+      </c>
+      <c r="GK24">
+        <v>1668.408200485353</v>
+      </c>
+      <c r="GL24">
+        <v>1647.698095944643</v>
       </c>
     </row>
-    <row r="25" spans="1:186">
+    <row r="25" spans="1:194">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14336,40 +14912,64 @@
         <v>1653.058975003952</v>
       </c>
       <c r="FT25">
-        <v>1532.81610406397</v>
+        <v>1966.065793780258</v>
       </c>
       <c r="FU25">
-        <v>1535.319759912854</v>
+        <v>1974.509192501186</v>
       </c>
       <c r="FV25">
-        <v>2165.542723992149</v>
+        <v>257.6707504164244</v>
       </c>
       <c r="FW25">
-        <v>845.5395286766365</v>
+        <v>2777.743225316957</v>
       </c>
       <c r="FX25">
-        <v>1730.440372095904</v>
+        <v>1456.845385624637</v>
       </c>
       <c r="FY25">
-        <v>1785.406061785597</v>
+        <v>1457.258213977231</v>
       </c>
       <c r="FZ25">
-        <v>279.1297681198093</v>
+        <v>787.0231762444934</v>
       </c>
       <c r="GA25">
-        <v>1336.060138294878</v>
+        <v>785.6906047416644</v>
       </c>
       <c r="GB25">
-        <v>2018.170516050469</v>
+        <v>2379.898214048765</v>
       </c>
       <c r="GC25">
+        <v>2445.390491320444</v>
+      </c>
+      <c r="GD25">
+        <v>1347.274333669257</v>
+      </c>
+      <c r="GE25">
+        <v>328.6167491499622</v>
+      </c>
+      <c r="GF25">
+        <v>2086.581556230778</v>
+      </c>
+      <c r="GG25">
         <v>2053.314665033363</v>
       </c>
-      <c r="GD25">
-        <v>403.1816248236352</v>
+      <c r="GH25">
+        <v>1873.841851212319</v>
+      </c>
+      <c r="GI25">
+        <v>2010.854605164001</v>
+      </c>
+      <c r="GJ25">
+        <v>2614.11063290799</v>
+      </c>
+      <c r="GK25">
+        <v>1552.653111637053</v>
+      </c>
+      <c r="GL25">
+        <v>1525.762754665343</v>
       </c>
     </row>
-    <row r="26" spans="1:186">
+    <row r="26" spans="1:194">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14896,40 +15496,64 @@
         <v>1906.905932428755</v>
       </c>
       <c r="FT26">
-        <v>1790.067691801918</v>
+        <v>2215.63162074931</v>
       </c>
       <c r="FU26">
-        <v>1788.589441457957</v>
+        <v>2224.849384492247</v>
       </c>
       <c r="FV26">
-        <v>2367.239097417825</v>
+        <v>0</v>
       </c>
       <c r="FW26">
-        <v>971.7399439992511</v>
+        <v>2978.161445398661</v>
       </c>
       <c r="FX26">
-        <v>1962.779488937596</v>
+        <v>1687.827754178614</v>
       </c>
       <c r="FY26">
-        <v>2012.59800866785</v>
+        <v>1693.472690553678</v>
       </c>
       <c r="FZ26">
-        <v>536.2752611961101</v>
+        <v>938.1754923583968</v>
       </c>
       <c r="GA26">
-        <v>1555.370820870623</v>
+        <v>933.5392674050487</v>
       </c>
       <c r="GB26">
-        <v>2271.150836845505</v>
+        <v>2637.454212781936</v>
       </c>
       <c r="GC26">
+        <v>2703.017612396271</v>
+      </c>
+      <c r="GD26">
+        <v>1604.763311894769</v>
+      </c>
+      <c r="GE26">
+        <v>575.9546717543826</v>
+      </c>
+      <c r="GF26">
+        <v>2338.333692743688</v>
+      </c>
+      <c r="GG26">
         <v>2305.82214210157</v>
       </c>
-      <c r="GD26">
-        <v>606.7308341206729</v>
+      <c r="GH26">
+        <v>2078.003067948911</v>
+      </c>
+      <c r="GI26">
+        <v>2226.831199363003</v>
+      </c>
+      <c r="GJ26">
+        <v>2865.750722220912</v>
+      </c>
+      <c r="GK26">
+        <v>1778.168611469406</v>
+      </c>
+      <c r="GL26">
+        <v>1754.442681727774</v>
       </c>
     </row>
-    <row r="27" spans="1:186">
+    <row r="27" spans="1:194">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -15456,40 +16080,64 @@
         <v>2052.249646218537</v>
       </c>
       <c r="FT27">
-        <v>1915.500710875951</v>
+        <v>2366.504203673038</v>
       </c>
       <c r="FU27">
-        <v>1900.489498072391</v>
+        <v>2374.890770495464</v>
       </c>
       <c r="FV27">
-        <v>2411.18382971289</v>
+        <v>167.516770776738</v>
       </c>
       <c r="FW27">
-        <v>974.3678295961532</v>
+        <v>3018.590927675719</v>
       </c>
       <c r="FX27">
-        <v>2124.085823784338</v>
+        <v>1766.337427193555</v>
       </c>
       <c r="FY27">
-        <v>2175.600703077734</v>
+        <v>1778.331980787514</v>
       </c>
       <c r="FZ27">
-        <v>676.7601827435179</v>
+        <v>959.7422583072332</v>
       </c>
       <c r="GA27">
-        <v>1622.126768652684</v>
+        <v>952.8956049663021</v>
       </c>
       <c r="GB27">
-        <v>2417.779177254934</v>
+        <v>2764.47341475763</v>
       </c>
       <c r="GC27">
+        <v>2831.135339645348</v>
+      </c>
+      <c r="GD27">
+        <v>1732.500195056582</v>
+      </c>
+      <c r="GE27">
+        <v>690.9893717161247</v>
+      </c>
+      <c r="GF27">
+        <v>2486.669730577469</v>
+      </c>
+      <c r="GG27">
         <v>2453.137157164239</v>
       </c>
-      <c r="GD27">
-        <v>682.9075949699363</v>
+      <c r="GH27">
+        <v>2125.835661788667</v>
+      </c>
+      <c r="GI27">
+        <v>2285.689631758542</v>
+      </c>
+      <c r="GJ27">
+        <v>2971.613412956453</v>
+      </c>
+      <c r="GK27">
+        <v>1941.522710615323</v>
+      </c>
+      <c r="GL27">
+        <v>1916.876422679432</v>
       </c>
     </row>
-    <row r="28" spans="1:186">
+    <row r="28" spans="1:194">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16016,40 +16664,64 @@
         <v>1330.892736939903</v>
       </c>
       <c r="FT28">
-        <v>1261.471628467883</v>
+        <v>1631.821920068758</v>
       </c>
       <c r="FU28">
-        <v>1300.473863475917</v>
+        <v>1641.837849259902</v>
       </c>
       <c r="FV28">
-        <v>2084.20621369875</v>
+        <v>586.4430727889381</v>
       </c>
       <c r="FW28">
-        <v>967.6428057527756</v>
+        <v>2690.414472549051</v>
       </c>
       <c r="FX28">
-        <v>1380.504830054261</v>
+        <v>1316.595217312198</v>
       </c>
       <c r="FY28">
-        <v>1434.496321395527</v>
+        <v>1299.689375310997</v>
       </c>
       <c r="FZ28">
-        <v>160.0485342092437</v>
+        <v>877.5147208692647</v>
       </c>
       <c r="GA28">
-        <v>1235.221275231684</v>
+        <v>881.7786892253434</v>
       </c>
       <c r="GB28">
-        <v>1692.195480972903</v>
+        <v>2095.287940847649</v>
       </c>
       <c r="GC28">
+        <v>2157.90216187243</v>
+      </c>
+      <c r="GD28">
+        <v>1073.585795678836</v>
+      </c>
+      <c r="GE28">
+        <v>304.904350600825</v>
+      </c>
+      <c r="GF28">
+        <v>1757.073376630994</v>
+      </c>
+      <c r="GG28">
         <v>1725.883362501405</v>
       </c>
-      <c r="GD28">
-        <v>483.5656160875095</v>
+      <c r="GH28">
+        <v>1793.103473886064</v>
+      </c>
+      <c r="GI28">
+        <v>1898.249179365047</v>
+      </c>
+      <c r="GJ28">
+        <v>2376.457261219382</v>
+      </c>
+      <c r="GK28">
+        <v>1201.613663643178</v>
+      </c>
+      <c r="GL28">
+        <v>1174.962635865266</v>
       </c>
     </row>
-    <row r="29" spans="1:186">
+    <row r="29" spans="1:194">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16576,40 +17248,64 @@
         <v>1258.459187385208</v>
       </c>
       <c r="FT29">
-        <v>1163.812188167267</v>
+        <v>1570.038410411774</v>
       </c>
       <c r="FU29">
-        <v>1193.416797522116</v>
+        <v>1578.476114978563</v>
       </c>
       <c r="FV29">
-        <v>1968.137441328871</v>
+        <v>648.4509309450181</v>
       </c>
       <c r="FW29">
-        <v>888.4389276463099</v>
+        <v>2574.003135761803</v>
       </c>
       <c r="FX29">
-        <v>1346.55360742862</v>
+        <v>1200.104443142359</v>
       </c>
       <c r="FY29">
-        <v>1406.954436197033</v>
+        <v>1183.724334438453</v>
       </c>
       <c r="FZ29">
-        <v>130.0126445624274</v>
+        <v>792.5255905391259</v>
       </c>
       <c r="GA29">
-        <v>1119.117477497037</v>
+        <v>798.0352322142919</v>
       </c>
       <c r="GB29">
-        <v>1622.928395123208</v>
+        <v>2003.765577681036</v>
       </c>
       <c r="GC29">
+        <v>2067.565287493323</v>
+      </c>
+      <c r="GD29">
+        <v>976.0986337945037</v>
+      </c>
+      <c r="GE29">
+        <v>236.3378732886219</v>
+      </c>
+      <c r="GF29">
+        <v>1690.795264863541</v>
+      </c>
+      <c r="GG29">
         <v>1657.819056728566</v>
       </c>
-      <c r="GD29">
-        <v>416.6494225194275</v>
+      <c r="GH29">
+        <v>1677.228506853599</v>
+      </c>
+      <c r="GI29">
+        <v>1781.633832708048</v>
+      </c>
+      <c r="GJ29">
+        <v>2271.678408396217</v>
+      </c>
+      <c r="GK29">
+        <v>1177.700057534424</v>
+      </c>
+      <c r="GL29">
+        <v>1147.109024676767</v>
       </c>
     </row>
-    <row r="30" spans="1:186">
+    <row r="30" spans="1:194">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -17136,40 +17832,64 @@
         <v>1284.312872648968</v>
       </c>
       <c r="FT30">
-        <v>1195.454012863854</v>
+        <v>1593.341424803367</v>
       </c>
       <c r="FU30">
-        <v>1226.797611743828</v>
+        <v>1602.183463493655</v>
       </c>
       <c r="FV30">
-        <v>2000.572158023802</v>
+        <v>623.0959688387464</v>
       </c>
       <c r="FW30">
-        <v>904.7641489351713</v>
+        <v>2606.816680819979</v>
       </c>
       <c r="FX30">
-        <v>1362.380319316657</v>
+        <v>1233.743229812312</v>
       </c>
       <c r="FY30">
-        <v>1421.0631777125</v>
+        <v>1217.644335067265</v>
       </c>
       <c r="FZ30">
-        <v>121.5939988741015</v>
+        <v>810.8824856121071</v>
       </c>
       <c r="GA30">
-        <v>1151.585532993183</v>
+        <v>815.9327956499659</v>
       </c>
       <c r="GB30">
-        <v>1648.13252681184</v>
+        <v>2034.245987215027</v>
       </c>
       <c r="GC30">
+        <v>2097.796198464323</v>
+      </c>
+      <c r="GD30">
+        <v>1007.65410467755</v>
+      </c>
+      <c r="GE30">
+        <v>246.1550899265569</v>
+      </c>
+      <c r="GF30">
+        <v>1715.273822886172</v>
+      </c>
+      <c r="GG30">
         <v>1682.734352606848</v>
       </c>
-      <c r="GD30">
-        <v>427.4441476670224</v>
+      <c r="GH30">
+        <v>1709.487482697994</v>
+      </c>
+      <c r="GI30">
+        <v>1814.901094107441</v>
+      </c>
+      <c r="GJ30">
+        <v>2304.752486311645</v>
+      </c>
+      <c r="GK30">
+        <v>1190.628666584292</v>
+      </c>
+      <c r="GL30">
+        <v>1161.101655992264</v>
       </c>
     </row>
-    <row r="31" spans="1:186">
+    <row r="31" spans="1:194">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -17696,40 +18416,64 @@
         <v>1432.190468381216</v>
       </c>
       <c r="FT31">
-        <v>1313.427255105041</v>
+        <v>1748.055595253892</v>
       </c>
       <c r="FU31">
-        <v>1323.569288123069</v>
+        <v>1755.919570398083</v>
       </c>
       <c r="FV31">
-        <v>2015.814063468659</v>
+        <v>479.4083542778912</v>
       </c>
       <c r="FW31">
-        <v>808.5828555426174</v>
+        <v>2626.627364680352</v>
       </c>
       <c r="FX31">
-        <v>1527.635351676169</v>
+        <v>1277.064934699816</v>
       </c>
       <c r="FY31">
-        <v>1587.17906010864</v>
+        <v>1270.51304963491</v>
       </c>
       <c r="FZ31">
-        <v>56.97139655378361</v>
+        <v>726.4714143537923</v>
       </c>
       <c r="GA31">
-        <v>1172.650846280296</v>
+        <v>729.0539562760638</v>
       </c>
       <c r="GB31">
-        <v>1797.742311158281</v>
+        <v>2159.38352421807</v>
       </c>
       <c r="GC31">
+        <v>2224.54721714387</v>
+      </c>
+      <c r="GD31">
+        <v>1127.207405024305</v>
+      </c>
+      <c r="GE31">
+        <v>163.541453167294</v>
+      </c>
+      <c r="GF31">
+        <v>1866.943146567817</v>
+      </c>
+      <c r="GG31">
         <v>1833.18202942154</v>
       </c>
-      <c r="GD31">
-        <v>321.8858831337699</v>
+      <c r="GH31">
+        <v>1723.308143315403</v>
+      </c>
+      <c r="GI31">
+        <v>1845.81441228031</v>
+      </c>
+      <c r="GJ31">
+        <v>2403.630782641907</v>
+      </c>
+      <c r="GK31">
+        <v>1357.051011087112</v>
+      </c>
+      <c r="GL31">
+        <v>1327.240896317115</v>
       </c>
     </row>
-    <row r="32" spans="1:186">
+    <row r="32" spans="1:194">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18256,40 +19000,64 @@
         <v>1375.501742849538</v>
       </c>
       <c r="FT32">
-        <v>1257.523222365614</v>
+        <v>1692.111154718892</v>
       </c>
       <c r="FU32">
-        <v>1270.210806071794</v>
+        <v>1699.817822149693</v>
       </c>
       <c r="FV32">
-        <v>1980.441267399269</v>
+        <v>536.2752611961101</v>
       </c>
       <c r="FW32">
-        <v>809.7785923858052</v>
+        <v>2590.340308597805</v>
       </c>
       <c r="FX32">
-        <v>1476.061013173426</v>
+        <v>1233.883961317546</v>
       </c>
       <c r="FY32">
-        <v>1536.888020980227</v>
+        <v>1225.175414733926</v>
       </c>
       <c r="FZ32">
-        <v>0</v>
+        <v>722.2786785354651</v>
       </c>
       <c r="GA32">
-        <v>1134.765445180305</v>
+        <v>725.9169775681808</v>
       </c>
       <c r="GB32">
-        <v>1741.153487597905</v>
+        <v>2103.040243106572</v>
       </c>
       <c r="GC32">
+        <v>2168.092466597079</v>
+      </c>
+      <c r="GD32">
+        <v>1071.090925273024</v>
+      </c>
+      <c r="GE32">
+        <v>148.7513857171557</v>
+      </c>
+      <c r="GF32">
+        <v>1810.556042026494</v>
+      </c>
+      <c r="GG32">
         <v>1776.667907392082</v>
       </c>
-      <c r="GD32">
-        <v>324.1557342892302</v>
+      <c r="GH32">
+        <v>1688.08991884421</v>
+      </c>
+      <c r="GI32">
+        <v>1806.228205960925</v>
+      </c>
+      <c r="GJ32">
+        <v>2350.372934179823</v>
+      </c>
+      <c r="GK32">
+        <v>1307.711944994037</v>
+      </c>
+      <c r="GL32">
+        <v>1277.068398901912</v>
       </c>
     </row>
-    <row r="33" spans="1:186">
+    <row r="33" spans="1:194">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18816,40 +19584,64 @@
         <v>499.6863318086068</v>
       </c>
       <c r="FT33">
-        <v>890.9636984603683</v>
+        <v>454.3700929262034</v>
       </c>
       <c r="FU33">
-        <v>1101.884478584052</v>
+        <v>480.2393399344222</v>
       </c>
       <c r="FV33">
-        <v>2207.315718818601</v>
+        <v>1962.779488937596</v>
       </c>
       <c r="FW33">
-        <v>1996.768719322315</v>
+        <v>2665.886041556122</v>
       </c>
       <c r="FX33">
-        <v>0</v>
+        <v>1512.75630875137</v>
       </c>
       <c r="FY33">
-        <v>97.80084843190912</v>
+        <v>1440.792271727013</v>
       </c>
       <c r="FZ33">
-        <v>1476.061013173426</v>
+        <v>1885.562437974356</v>
       </c>
       <c r="GA33">
-        <v>1612.099961461016</v>
+        <v>1897.620508903207</v>
       </c>
       <c r="GB33">
-        <v>588.3016312808954</v>
+        <v>1211.974803267944</v>
       </c>
       <c r="GC33">
+        <v>1240.058169763844</v>
+      </c>
+      <c r="GD33">
+        <v>872.6733517525387</v>
+      </c>
+      <c r="GE33">
+        <v>1535.56679147305</v>
+      </c>
+      <c r="GF33">
+        <v>593.9196365080511</v>
+      </c>
+      <c r="GG33">
         <v>594.5836700271891</v>
       </c>
-      <c r="GD33">
-        <v>1674.553418278093</v>
+      <c r="GH33">
+        <v>2001.892131901087</v>
+      </c>
+      <c r="GI33">
+        <v>1953.08836736237</v>
+      </c>
+      <c r="GJ33">
+        <v>1714.717925323395</v>
+      </c>
+      <c r="GK33">
+        <v>207.5976196247393</v>
+      </c>
+      <c r="GL33">
+        <v>213.8692844463879</v>
       </c>
     </row>
-    <row r="34" spans="1:186">
+    <row r="34" spans="1:194">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19376,40 +20168,64 @@
         <v>594.4424609073457</v>
       </c>
       <c r="FT34">
-        <v>988.4218810096019</v>
+        <v>513.1193948602713</v>
       </c>
       <c r="FU34">
-        <v>1199.485455459765</v>
+        <v>540.0580263202095</v>
       </c>
       <c r="FV34">
-        <v>2304.137529427024</v>
+        <v>2012.59800866785</v>
       </c>
       <c r="FW34">
-        <v>2080.178776275282</v>
+        <v>2759.125586227252</v>
       </c>
       <c r="FX34">
-        <v>97.80084843190912</v>
+        <v>1610.302609668838</v>
       </c>
       <c r="FY34">
-        <v>0</v>
+        <v>1538.435889182408</v>
       </c>
       <c r="FZ34">
-        <v>1536.888020980227</v>
+        <v>1968.775145502505</v>
       </c>
       <c r="GA34">
-        <v>1708.449175647813</v>
+        <v>1980.648067372531</v>
       </c>
       <c r="GB34">
-        <v>650.6764070209389</v>
+        <v>1277.658653156077</v>
       </c>
       <c r="GC34">
+        <v>1301.804540031623</v>
+      </c>
+      <c r="GD34">
+        <v>969.7956996288503</v>
+      </c>
+      <c r="GE34">
+        <v>1602.872144433732</v>
+      </c>
+      <c r="GF34">
+        <v>645.3713052189403</v>
+      </c>
+      <c r="GG34">
         <v>651.9466940040791</v>
       </c>
-      <c r="GD34">
-        <v>1746.609525649385</v>
+      <c r="GH34">
+        <v>2099.596057966915</v>
+      </c>
+      <c r="GI34">
+        <v>2049.813197151171</v>
+      </c>
+      <c r="GJ34">
+        <v>1789.055123291982</v>
+      </c>
+      <c r="GK34">
+        <v>234.9779488106452</v>
+      </c>
+      <c r="GL34">
+        <v>259.9665107247332</v>
       </c>
     </row>
-    <row r="35" spans="1:186">
+    <row r="35" spans="1:194">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19936,40 +20752,64 @@
         <v>755.0872144746781</v>
       </c>
       <c r="FT35">
-        <v>1146.844587530362</v>
+        <v>653.0834358010175</v>
       </c>
       <c r="FU35">
-        <v>1357.359207942185</v>
+        <v>680.4098122154668</v>
       </c>
       <c r="FV35">
-        <v>2463.713343017408</v>
+        <v>2064.883951247962</v>
       </c>
       <c r="FW35">
-        <v>2195.327289306505</v>
+        <v>2919.719359964111</v>
       </c>
       <c r="FX35">
-        <v>256.4354105115059</v>
+        <v>1763.036192985676</v>
       </c>
       <c r="FY35">
-        <v>160.7125477956193</v>
+        <v>1691.903427777834</v>
       </c>
       <c r="FZ35">
-        <v>1611.181948250061</v>
+        <v>2083.751711071654</v>
       </c>
       <c r="GA35">
-        <v>1855.791054700558</v>
+        <v>2095.213225215817</v>
       </c>
       <c r="GB35">
-        <v>791.588200058183</v>
+        <v>1417.612595351679</v>
       </c>
       <c r="GC35">
+        <v>1437.612822467681</v>
+      </c>
+      <c r="GD35">
+        <v>1120.965921766643</v>
+      </c>
+      <c r="GE35">
+        <v>1688.456757141028</v>
+      </c>
+      <c r="GF35">
+        <v>776.1503608486036</v>
+      </c>
+      <c r="GG35">
         <v>788.284027401897</v>
       </c>
-      <c r="GD35">
-        <v>1840.332864447834</v>
+      <c r="GH35">
+        <v>2256.766365212264</v>
+      </c>
+      <c r="GI35">
+        <v>2209.510776616767</v>
+      </c>
+      <c r="GJ35">
+        <v>1936.436764601656</v>
+      </c>
+      <c r="GK35">
+        <v>313.4222322151857</v>
+      </c>
+      <c r="GL35">
+        <v>355.3380555784184</v>
       </c>
     </row>
-    <row r="36" spans="1:186">
+    <row r="36" spans="1:194">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -20496,40 +21336,64 @@
         <v>697.4835267259695</v>
       </c>
       <c r="FT36">
-        <v>1002.117727611242</v>
+        <v>782.3129816170166</v>
       </c>
       <c r="FU36">
-        <v>1195.020764219904</v>
+        <v>805.5531081219629</v>
       </c>
       <c r="FV36">
-        <v>2301.188640977916</v>
+        <v>1673.445439334468</v>
       </c>
       <c r="FW36">
-        <v>1848.251976140012</v>
+        <v>2809.945554185307</v>
       </c>
       <c r="FX36">
-        <v>354.0613554476053</v>
+        <v>1544.155490756431</v>
       </c>
       <c r="FY36">
-        <v>362.8613623325087</v>
+        <v>1479.674678123802</v>
       </c>
       <c r="FZ36">
-        <v>1224.623231128728</v>
+        <v>1737.139916954243</v>
       </c>
       <c r="GA36">
-        <v>1604.852990571556</v>
+        <v>1747.814229387478</v>
       </c>
       <c r="GB36">
-        <v>905.2263475337407</v>
+        <v>1507.42128199751</v>
       </c>
       <c r="GC36">
+        <v>1544.290282878188</v>
+      </c>
+      <c r="GD36">
+        <v>916.0963288158725</v>
+      </c>
+      <c r="GE36">
+        <v>1308.709805264569</v>
+      </c>
+      <c r="GF36">
+        <v>926.7720142531732</v>
+      </c>
+      <c r="GG36">
         <v>919.4543228573544</v>
       </c>
-      <c r="GD36">
-        <v>1466.982453320637</v>
+      <c r="GH36">
+        <v>2064.959183350502</v>
+      </c>
+      <c r="GI36">
+        <v>2052.693169167405</v>
+      </c>
+      <c r="GJ36">
+        <v>1978.194081478968</v>
+      </c>
+      <c r="GK36">
+        <v>149.4629956135532</v>
+      </c>
+      <c r="GL36">
+        <v>169.035102014544</v>
       </c>
     </row>
-    <row r="37" spans="1:186">
+    <row r="37" spans="1:194">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21056,40 +21920,64 @@
         <v>361.4727480284768</v>
       </c>
       <c r="FT37">
-        <v>749.3066154579237</v>
+        <v>385.9237020664616</v>
       </c>
       <c r="FU37">
-        <v>960.2571455318473</v>
+        <v>408.2279258858813</v>
       </c>
       <c r="FV37">
-        <v>2065.919124598204</v>
+        <v>1908.449616501309</v>
       </c>
       <c r="FW37">
-        <v>1885.766226525997</v>
+        <v>2528.03406041927</v>
       </c>
       <c r="FX37">
-        <v>141.6574987871466</v>
+        <v>1373.104671052356</v>
       </c>
       <c r="FY37">
-        <v>239.2445087355543</v>
+        <v>1300.773060414353</v>
       </c>
       <c r="FZ37">
-        <v>1406.002080099486</v>
+        <v>1775.107493123525</v>
       </c>
       <c r="GA37">
-        <v>1475.798174128969</v>
+        <v>1787.479803713</v>
       </c>
       <c r="GB37">
-        <v>506.8266747170592</v>
+        <v>1115.502421840838</v>
       </c>
       <c r="GC37">
+        <v>1149.416982191302</v>
+      </c>
+      <c r="GD37">
+        <v>734.7307554835129</v>
+      </c>
+      <c r="GE37">
+        <v>1454.199474322635</v>
+      </c>
+      <c r="GF37">
+        <v>530.8608462244374</v>
+      </c>
+      <c r="GG37">
         <v>521.5060193793727</v>
       </c>
-      <c r="GD37">
-        <v>1584.420219005443</v>
+      <c r="GH37">
+        <v>1860.358934148316</v>
+      </c>
+      <c r="GI37">
+        <v>1811.764883255047</v>
+      </c>
+      <c r="GJ37">
+        <v>1603.301329830905</v>
+      </c>
+      <c r="GK37">
+        <v>254.0091156301337</v>
+      </c>
+      <c r="GL37">
+        <v>230.3561245199942</v>
       </c>
     </row>
-    <row r="38" spans="1:186">
+    <row r="38" spans="1:194">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21616,40 +22504,64 @@
         <v>401.561301216823</v>
       </c>
       <c r="FT38">
-        <v>775.3706645785722</v>
+        <v>445.8435960490989</v>
       </c>
       <c r="FU38">
-        <v>984.5711833848133</v>
+        <v>468.2332593480066</v>
       </c>
       <c r="FV38">
-        <v>2093.972058572037</v>
+        <v>1865.847176348344</v>
       </c>
       <c r="FW38">
-        <v>1869.921850173073</v>
+        <v>2564.777166122035</v>
       </c>
       <c r="FX38">
-        <v>129.9164900021853</v>
+        <v>1388.242869066661</v>
       </c>
       <c r="FY38">
-        <v>224.2826594112225</v>
+        <v>1316.937034115198</v>
       </c>
       <c r="FZ38">
-        <v>1368.776753350516</v>
+        <v>1758.865712047157</v>
       </c>
       <c r="GA38">
-        <v>1484.308627896925</v>
+        <v>1771.029834493314</v>
       </c>
       <c r="GB38">
-        <v>566.6184373833598</v>
+        <v>1173.093270343165</v>
       </c>
       <c r="GC38">
+        <v>1207.838419401775</v>
+      </c>
+      <c r="GD38">
+        <v>746.6650947624413</v>
+      </c>
+      <c r="GE38">
+        <v>1421.813303208068</v>
+      </c>
+      <c r="GF38">
+        <v>590.7612431887263</v>
+      </c>
+      <c r="GG38">
         <v>581.5141357797614</v>
       </c>
-      <c r="GD38">
-        <v>1556.305693656192</v>
+      <c r="GH38">
+        <v>1882.747561187012</v>
+      </c>
+      <c r="GI38">
+        <v>1840.361650355569</v>
+      </c>
+      <c r="GJ38">
+        <v>1657.099095143359</v>
+      </c>
+      <c r="GK38">
+        <v>195.6094480940873</v>
+      </c>
+      <c r="GL38">
+        <v>170.3590125363384</v>
       </c>
     </row>
-    <row r="39" spans="1:186">
+    <row r="39" spans="1:194">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -22176,40 +23088,64 @@
         <v>660.3463077932836</v>
       </c>
       <c r="FT39">
-        <v>979.6001056141831</v>
+        <v>731.2169426079635</v>
       </c>
       <c r="FU39">
-        <v>1176.363780771056</v>
+        <v>754.7996287306073</v>
       </c>
       <c r="FV39">
-        <v>2285.571133856522</v>
+        <v>1717.462185776625</v>
       </c>
       <c r="FW39">
-        <v>1869.408868263184</v>
+        <v>2787.406676970597</v>
       </c>
       <c r="FX39">
-        <v>299.890945114355</v>
+        <v>1536.237489983268</v>
       </c>
       <c r="FY39">
-        <v>310.3534750620796</v>
+        <v>1470.390713380948</v>
       </c>
       <c r="FZ39">
-        <v>1261.524372511312</v>
+        <v>1758.057801485056</v>
       </c>
       <c r="GA39">
-        <v>1603.056487871657</v>
+        <v>1768.978660596158</v>
       </c>
       <c r="GB39">
-        <v>855.6643638147345</v>
+        <v>1461.62513993125</v>
       </c>
       <c r="GC39">
+        <v>1497.338919718324</v>
+      </c>
+      <c r="GD39">
+        <v>902.6998600863592</v>
+      </c>
+      <c r="GE39">
+        <v>1341.603027051589</v>
+      </c>
+      <c r="GF39">
+        <v>875.386147040361</v>
+      </c>
+      <c r="GG39">
         <v>868.9961496801742</v>
       </c>
-      <c r="GD39">
-        <v>1497.012199202651</v>
+      <c r="GH39">
+        <v>2053.579047996374</v>
+      </c>
+      <c r="GI39">
+        <v>2035.812352869028</v>
+      </c>
+      <c r="GJ39">
+        <v>1937.377589476593</v>
+      </c>
+      <c r="GK39">
+        <v>96.80673381624253</v>
+      </c>
+      <c r="GL39">
+        <v>123.5719557505343</v>
       </c>
     </row>
-    <row r="40" spans="1:186">
+    <row r="40" spans="1:194">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -22736,40 +23672,64 @@
         <v>625.0782022691268</v>
       </c>
       <c r="FT40">
-        <v>1008.862050676551</v>
+        <v>571.6666537100698</v>
       </c>
       <c r="FU40">
-        <v>1218.429976068175</v>
+        <v>598.2924274178757</v>
       </c>
       <c r="FV40">
-        <v>2327.13672205501</v>
+        <v>1964.853058476094</v>
       </c>
       <c r="FW40">
-        <v>2059.272350347574</v>
+        <v>2791.734222303068</v>
       </c>
       <c r="FX40">
-        <v>128.7498892238502</v>
+        <v>1620.356122095686</v>
       </c>
       <c r="FY40">
-        <v>66.41513577600516</v>
+        <v>1549.535280379332</v>
       </c>
       <c r="FZ40">
-        <v>1496.398381936366</v>
+        <v>1947.729419258624</v>
       </c>
       <c r="GA40">
-        <v>1711.995455368464</v>
+        <v>1959.36862893115</v>
       </c>
       <c r="GB40">
-        <v>708.166225856575</v>
+        <v>1334.274780825663</v>
       </c>
       <c r="GC40">
+        <v>1360.116120345629</v>
+      </c>
+      <c r="GD40">
+        <v>977.989286611395</v>
+      </c>
+      <c r="GE40">
+        <v>1567.01273456174</v>
+      </c>
+      <c r="GF40">
+        <v>706.5760883733919</v>
+      </c>
+      <c r="GG40">
         <v>711.3080654451011</v>
       </c>
-      <c r="GD40">
-        <v>1714.469637073092</v>
+      <c r="GH40">
+        <v>2116.687578320265</v>
+      </c>
+      <c r="GI40">
+        <v>2073.306344283998</v>
+      </c>
+      <c r="GJ40">
+        <v>1841.177312687092</v>
+      </c>
+      <c r="GK40">
+        <v>188.7049606727342</v>
+      </c>
+      <c r="GL40">
+        <v>222.8352304153107</v>
       </c>
     </row>
-    <row r="41" spans="1:186">
+    <row r="41" spans="1:194">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -23296,40 +24256,64 @@
         <v>577.8294795234111</v>
       </c>
       <c r="FT41">
-        <v>938.2598353262949</v>
+        <v>594.1241692753061</v>
       </c>
       <c r="FU41">
-        <v>1144.135077746179</v>
+        <v>618.9921133314535</v>
       </c>
       <c r="FV41">
-        <v>2256.011973688054</v>
+        <v>1848.428038898033</v>
       </c>
       <c r="FW41">
-        <v>1942.924215355498</v>
+        <v>2736.386568762136</v>
       </c>
       <c r="FX41">
-        <v>148.847245361119</v>
+        <v>1532.210225096866</v>
       </c>
       <c r="FY41">
-        <v>164.8373329215132</v>
+        <v>1462.917462432666</v>
       </c>
       <c r="FZ41">
-        <v>1376.785058571447</v>
+        <v>1831.352899155829</v>
       </c>
       <c r="GA41">
-        <v>1615.879119232104</v>
+        <v>1842.873988946081</v>
       </c>
       <c r="GB41">
-        <v>724.02932494715</v>
+        <v>1341.130591383734</v>
       </c>
       <c r="GC41">
+        <v>1372.785424273862</v>
+      </c>
+      <c r="GD41">
+        <v>890.0483309987566</v>
+      </c>
+      <c r="GE41">
+        <v>1446.883735012267</v>
+      </c>
+      <c r="GF41">
+        <v>736.3758498989716</v>
+      </c>
+      <c r="GG41">
         <v>733.7489857076861</v>
       </c>
-      <c r="GD41">
-        <v>1594.579431044276</v>
+      <c r="GH41">
+        <v>2037.051570191244</v>
+      </c>
+      <c r="GI41">
+        <v>2003.381774120835</v>
+      </c>
+      <c r="GJ41">
+        <v>1832.12521716133</v>
+      </c>
+      <c r="GK41">
+        <v>70.27439126344854</v>
+      </c>
+      <c r="GL41">
+        <v>103.4348811662454</v>
       </c>
     </row>
-    <row r="42" spans="1:186">
+    <row r="42" spans="1:194">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -23856,40 +24840,64 @@
         <v>579.7609763158861</v>
       </c>
       <c r="FT42">
-        <v>919.9292358777483</v>
+        <v>634.5664008453866</v>
       </c>
       <c r="FU42">
-        <v>1122.046662222137</v>
+        <v>658.2770785030337</v>
       </c>
       <c r="FV42">
-        <v>2233.880170327612</v>
+        <v>1778.168611469406</v>
       </c>
       <c r="FW42">
-        <v>1882.857872641294</v>
+        <v>2724.522184902092</v>
       </c>
       <c r="FX42">
-        <v>207.5976196247393</v>
+        <v>1498.505890673744</v>
       </c>
       <c r="FY42">
-        <v>234.9779488106452</v>
+        <v>1430.5479006521</v>
       </c>
       <c r="FZ42">
-        <v>1307.711944994037</v>
+        <v>1771.288616454721</v>
       </c>
       <c r="GA42">
-        <v>1575.595967659209</v>
+        <v>1782.653275156888</v>
       </c>
       <c r="GB42">
-        <v>759.7754094996569</v>
+        <v>1368.690125379696</v>
       </c>
       <c r="GC42">
+        <v>1403.310391482034</v>
+      </c>
+      <c r="GD42">
+        <v>858.6197069088229</v>
+      </c>
+      <c r="GE42">
+        <v>1379.34987739488</v>
+      </c>
+      <c r="GF42">
+        <v>778.6427445403232</v>
+      </c>
+      <c r="GG42">
         <v>772.5878423658781</v>
       </c>
-      <c r="GD42">
-        <v>1528.571909901297</v>
+      <c r="GH42">
+        <v>2009.049638453955</v>
+      </c>
+      <c r="GI42">
+        <v>1982.399522795744</v>
+      </c>
+      <c r="GJ42">
+        <v>1849.707381781982</v>
+      </c>
+      <c r="GK42">
+        <v>0</v>
+      </c>
+      <c r="GL42">
+        <v>49.79181675242354</v>
       </c>
     </row>
-    <row r="43" spans="1:186">
+    <row r="43" spans="1:194">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -24416,40 +25424,64 @@
         <v>592.5526851156742</v>
       </c>
       <c r="FT43">
-        <v>919.0251540415106</v>
+        <v>666.8706029539269</v>
       </c>
       <c r="FU43">
-        <v>1118.29276192073</v>
+        <v>689.9848422987005</v>
       </c>
       <c r="FV43">
-        <v>2229.079032317666</v>
+        <v>1736.57327351836</v>
       </c>
       <c r="FW43">
-        <v>1851.644086354249</v>
+        <v>2725.952761402729</v>
       </c>
       <c r="FX43">
-        <v>248.5427273192036</v>
+        <v>1486.627537326069</v>
       </c>
       <c r="FY43">
-        <v>277.1653991609436</v>
+        <v>1419.63079478014</v>
       </c>
       <c r="FZ43">
-        <v>1268.229875752277</v>
+        <v>1740.10814575514</v>
       </c>
       <c r="GA43">
-        <v>1559.164906045376</v>
+        <v>1751.342254479836</v>
       </c>
       <c r="GB43">
-        <v>789.5571226920863</v>
+        <v>1393.455016447605</v>
       </c>
       <c r="GC43">
+        <v>1429.589506819375</v>
+      </c>
+      <c r="GD43">
+        <v>849.331368981776</v>
+      </c>
+      <c r="GE43">
+        <v>1341.59871060092</v>
+      </c>
+      <c r="GF43">
+        <v>811.4472501685578</v>
+      </c>
+      <c r="GG43">
         <v>803.8112831074268</v>
       </c>
-      <c r="GD43">
-        <v>1492.301977372202</v>
+      <c r="GH43">
+        <v>2000.57928602719</v>
+      </c>
+      <c r="GI43">
+        <v>1978.460213983548</v>
+      </c>
+      <c r="GJ43">
+        <v>1868.74034593594</v>
+      </c>
+      <c r="GK43">
+        <v>42.49665954282744</v>
+      </c>
+      <c r="GL43">
+        <v>54.89720394667815</v>
       </c>
     </row>
-    <row r="44" spans="1:186">
+    <row r="44" spans="1:194">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -24976,40 +26008,64 @@
         <v>538.6904395112406</v>
       </c>
       <c r="FT44">
-        <v>871.915527224387</v>
+        <v>615.7766302855484</v>
       </c>
       <c r="FU44">
-        <v>1073.270664886812</v>
+        <v>638.4437241923678</v>
       </c>
       <c r="FV44">
-        <v>2184.933818183642</v>
+        <v>1754.442681727774</v>
       </c>
       <c r="FW44">
-        <v>1840.003959379539</v>
+        <v>2677.482710022975</v>
       </c>
       <c r="FX44">
-        <v>213.8692844463879</v>
+        <v>1448.715819828684</v>
       </c>
       <c r="FY44">
-        <v>259.9665107247332</v>
+        <v>1380.780827032846</v>
       </c>
       <c r="FZ44">
-        <v>1277.068398901912</v>
+        <v>1728.428836461589</v>
       </c>
       <c r="GA44">
-        <v>1526.083523222766</v>
+        <v>1739.906634973697</v>
       </c>
       <c r="GB44">
-        <v>736.8013576909603</v>
+        <v>1338.897548960874</v>
       </c>
       <c r="GC44">
+        <v>1375.358701630832</v>
+      </c>
+      <c r="GD44">
+        <v>808.9249118163835</v>
+      </c>
+      <c r="GE44">
+        <v>1344.975323227697</v>
+      </c>
+      <c r="GF44">
+        <v>760.5930825326394</v>
+      </c>
+      <c r="GG44">
         <v>751.8609641086211</v>
       </c>
-      <c r="GD44">
-        <v>1491.659691234148</v>
+      <c r="GH44">
+        <v>1959.483814068845</v>
+      </c>
+      <c r="GI44">
+        <v>1933.642377930124</v>
+      </c>
+      <c r="GJ44">
+        <v>1813.916337113418</v>
+      </c>
+      <c r="GK44">
+        <v>49.79181675242354</v>
+      </c>
+      <c r="GL44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:186">
+    <row r="45" spans="1:194">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -25536,40 +26592,64 @@
         <v>741.7761624019241</v>
       </c>
       <c r="FT45">
-        <v>973.6855734222007</v>
+        <v>472.5233268615538</v>
       </c>
       <c r="FU45">
-        <v>1118.229475395245</v>
+        <v>453.495306702631</v>
       </c>
       <c r="FV45">
-        <v>1960.280787775514</v>
+        <v>2648.668716114871</v>
       </c>
       <c r="FW45">
-        <v>2369.293856951108</v>
+        <v>2238.836476121754</v>
       </c>
       <c r="FX45">
-        <v>904.5360063674176</v>
+        <v>1548.567133170246</v>
       </c>
       <c r="FY45">
-        <v>941.3528095601845</v>
+        <v>1476.274995414913</v>
       </c>
       <c r="FZ45">
-        <v>2116.636145581857</v>
+        <v>2269.875308653382</v>
       </c>
       <c r="GA45">
-        <v>1719.337563231224</v>
+        <v>2283.618277179624</v>
       </c>
       <c r="GB45">
-        <v>381.1840643187202</v>
+        <v>493.2620174868303</v>
       </c>
       <c r="GC45">
+        <v>473.4524627003282</v>
+      </c>
+      <c r="GD45">
+        <v>1116.887223865106</v>
+      </c>
+      <c r="GE45">
+        <v>2122.229810363167</v>
+      </c>
+      <c r="GF45">
+        <v>329.2273044515715</v>
+      </c>
+      <c r="GG45">
         <v>351.0741582959446</v>
       </c>
-      <c r="GD45">
-        <v>2207.567559155363</v>
+      <c r="GH45">
+        <v>1864.372733445949</v>
+      </c>
+      <c r="GI45">
+        <v>1724.705102318632</v>
+      </c>
+      <c r="GJ45">
+        <v>1024.33879427389</v>
+      </c>
+      <c r="GK45">
+        <v>1098.773267613258</v>
+      </c>
+      <c r="GL45">
+        <v>1084.245970187232</v>
       </c>
     </row>
-    <row r="46" spans="1:186">
+    <row r="46" spans="1:194">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26096,40 +27176,64 @@
         <v>455.4653813541684</v>
       </c>
       <c r="FT46">
-        <v>731.4337756313544</v>
+        <v>212.1436878498312</v>
       </c>
       <c r="FU46">
-        <v>902.5386462825302</v>
+        <v>187.1278445257666</v>
       </c>
       <c r="FV46">
-        <v>1855.779292698527</v>
+        <v>2361.97543645961</v>
       </c>
       <c r="FW46">
-        <v>2115.599817737079</v>
+        <v>2205.606171059078</v>
       </c>
       <c r="FX46">
-        <v>666.3394621068743</v>
+        <v>1348.338882461803</v>
       </c>
       <c r="FY46">
-        <v>721.9200721722793</v>
+        <v>1273.557211884219</v>
       </c>
       <c r="FZ46">
-        <v>1830.966521834425</v>
+        <v>2013.276412955136</v>
       </c>
       <c r="GA46">
-        <v>1506.915868564414</v>
+        <v>2026.896858482842</v>
       </c>
       <c r="GB46">
-        <v>94.06942514570288</v>
+        <v>564.5988662923388</v>
       </c>
       <c r="GC46">
+        <v>582.0253368134969</v>
+      </c>
+      <c r="GD46">
+        <v>854.59151967027</v>
+      </c>
+      <c r="GE46">
+        <v>1840.118824872799</v>
+      </c>
+      <c r="GF46">
+        <v>81.6232047993592</v>
+      </c>
+      <c r="GG46">
         <v>72.49534843428812</v>
       </c>
-      <c r="GD46">
-        <v>1930.864578422501</v>
+      <c r="GH46">
+        <v>1722.042480699744</v>
+      </c>
+      <c r="GI46">
+        <v>1608.418843615509</v>
+      </c>
+      <c r="GJ46">
+        <v>1095.936964396971</v>
+      </c>
+      <c r="GK46">
+        <v>845.0818436196615</v>
+      </c>
+      <c r="GL46">
+        <v>824.2132756402364</v>
       </c>
     </row>
-    <row r="47" spans="1:186">
+    <row r="47" spans="1:194">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -26656,40 +27760,64 @@
         <v>622.2411035268569</v>
       </c>
       <c r="FT47">
-        <v>984.8565675086832</v>
+        <v>276.960529023379</v>
       </c>
       <c r="FU47">
-        <v>1175.962688388817</v>
+        <v>283.5483427769894</v>
       </c>
       <c r="FV47">
-        <v>2167.443376431992</v>
+        <v>2458.131052381989</v>
       </c>
       <c r="FW47">
-        <v>2324.499446773549</v>
+        <v>2519.155888968042</v>
       </c>
       <c r="FX47">
-        <v>565.1471001080134</v>
+        <v>1625.385611161496</v>
       </c>
       <c r="FY47">
-        <v>578.7765844126178</v>
+        <v>1549.803583156786</v>
       </c>
       <c r="FZ47">
-        <v>1942.705862896893</v>
+        <v>2217.920225520121</v>
       </c>
       <c r="GA47">
-        <v>1772.568045659715</v>
+        <v>2231.180160131348</v>
       </c>
       <c r="GB47">
-        <v>327.6075649921474</v>
+        <v>836.4603302117282</v>
       </c>
       <c r="GC47">
+        <v>836.1593720155831</v>
+      </c>
+      <c r="GD47">
+        <v>1072.231558122217</v>
+      </c>
+      <c r="GE47">
+        <v>1974.374438864762</v>
+      </c>
+      <c r="GF47">
+        <v>249.3449230920457</v>
+      </c>
+      <c r="GG47">
         <v>292.3038832835646</v>
       </c>
-      <c r="GD47">
-        <v>2086.55503047109</v>
+      <c r="GH47">
+        <v>2025.032472059124</v>
+      </c>
+      <c r="GI47">
+        <v>1918.577719378148</v>
+      </c>
+      <c r="GJ47">
+        <v>1377.057768929679</v>
+      </c>
+      <c r="GK47">
+        <v>771.6980287208512</v>
+      </c>
+      <c r="GL47">
+        <v>769.4219340353922</v>
       </c>
     </row>
-    <row r="48" spans="1:186">
+    <row r="48" spans="1:194">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -27216,40 +28344,64 @@
         <v>507.8009905580573</v>
       </c>
       <c r="FT48">
-        <v>812.921158720423</v>
+        <v>205.5551328839888</v>
       </c>
       <c r="FU48">
-        <v>989.3330802994128</v>
+        <v>188.2586437061806</v>
       </c>
       <c r="FV48">
-        <v>1947.71051178082</v>
+        <v>2406.335303967287</v>
       </c>
       <c r="FW48">
-        <v>2189.064501471923</v>
+        <v>2292.978805295378</v>
       </c>
       <c r="FX48">
-        <v>642.827697502079</v>
+        <v>1436.442388385263</v>
       </c>
       <c r="FY48">
-        <v>687.589820448837</v>
+        <v>1361.439387908185</v>
       </c>
       <c r="FZ48">
-        <v>1878.560735837452</v>
+        <v>2085.58068896</v>
       </c>
       <c r="GA48">
-        <v>1592.844294549488</v>
+        <v>2099.128167886137</v>
       </c>
       <c r="GB48">
-        <v>145.7882796965619</v>
+        <v>626.5915178077541</v>
       </c>
       <c r="GC48">
+        <v>635.6073320583638</v>
+      </c>
+      <c r="GD48">
+        <v>927.2556214530194</v>
+      </c>
+      <c r="GE48">
+        <v>1893.852326734406</v>
+      </c>
+      <c r="GF48">
+        <v>68.02076529614645</v>
+      </c>
+      <c r="GG48">
         <v>105.9898320501571</v>
       </c>
-      <c r="GD48">
-        <v>1990.498302305505</v>
+      <c r="GH48">
+        <v>1814.117379681718</v>
+      </c>
+      <c r="GI48">
+        <v>1700.555790702361</v>
+      </c>
+      <c r="GJ48">
+        <v>1164.231267850083</v>
+      </c>
+      <c r="GK48">
+        <v>833.1088191782339</v>
+      </c>
+      <c r="GL48">
+        <v>817.3587631501539</v>
       </c>
     </row>
-    <row r="49" spans="1:186">
+    <row r="49" spans="1:194">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -27776,40 +28928,64 @@
         <v>366.5033846826824</v>
       </c>
       <c r="FT49">
-        <v>671.3843689584847</v>
+        <v>138.505966006069</v>
       </c>
       <c r="FU49">
-        <v>853.8915499126527</v>
+        <v>111.1931265040982</v>
       </c>
       <c r="FV49">
-        <v>1844.775310027142</v>
+        <v>2271.150836845505</v>
       </c>
       <c r="FW49">
-        <v>2043.423364269398</v>
+        <v>2217.580546933605</v>
       </c>
       <c r="FX49">
-        <v>588.3016312808954</v>
+        <v>1302.718513299906</v>
       </c>
       <c r="FY49">
-        <v>650.6764070209389</v>
+        <v>1227.34987291986</v>
       </c>
       <c r="FZ49">
-        <v>1741.153487597905</v>
+        <v>1939.837124801346</v>
       </c>
       <c r="GA49">
-        <v>1455.106311487037</v>
+        <v>1953.379704468822</v>
       </c>
       <c r="GB49">
-        <v>0</v>
+        <v>627.1145873979671</v>
       </c>
       <c r="GC49">
+        <v>652.0766875097041</v>
+      </c>
+      <c r="GD49">
+        <v>781.6633328847261</v>
+      </c>
+      <c r="GE49">
+        <v>1752.930284369352</v>
+      </c>
+      <c r="GF49">
+        <v>85.10253074076296</v>
+      </c>
+      <c r="GG49">
         <v>40.41193271543054</v>
       </c>
-      <c r="GD49">
-        <v>1846.977048451541</v>
+      <c r="GH49">
+        <v>1697.710493559</v>
+      </c>
+      <c r="GI49">
+        <v>1594.492110243111</v>
+      </c>
+      <c r="GJ49">
+        <v>1147.029781521533</v>
+      </c>
+      <c r="GK49">
+        <v>759.7754094996569</v>
+      </c>
+      <c r="GL49">
+        <v>736.8013576909603</v>
       </c>
     </row>
-    <row r="50" spans="1:186">
+    <row r="50" spans="1:194">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -28336,40 +29512,64 @@
         <v>507.0739383664227</v>
       </c>
       <c r="FT50">
-        <v>907.1637566348161</v>
+        <v>222.5630188822824</v>
       </c>
       <c r="FU50">
-        <v>1112.439762358049</v>
+        <v>246.7640742741777</v>
       </c>
       <c r="FV50">
-        <v>2162.598411548857</v>
+        <v>2264.887177015536</v>
       </c>
       <c r="FW50">
-        <v>2186.455970611118</v>
+        <v>2558.523020105009</v>
       </c>
       <c r="FX50">
-        <v>350.5424819877144</v>
+        <v>1556.935339479376</v>
       </c>
       <c r="FY50">
-        <v>369.7623910080335</v>
+        <v>1481.511890829373</v>
       </c>
       <c r="FZ50">
-        <v>1757.206261106456</v>
+        <v>2077.719753269709</v>
       </c>
       <c r="GA50">
-        <v>1688.682576980445</v>
+        <v>2090.644522975505</v>
       </c>
       <c r="GB50">
-        <v>347.8590458716259</v>
+        <v>955.2360002939307</v>
       </c>
       <c r="GC50">
+        <v>968.7719751175831</v>
+      </c>
+      <c r="GD50">
+        <v>960.3339955103513</v>
+      </c>
+      <c r="GE50">
+        <v>1797.773746664019</v>
+      </c>
+      <c r="GF50">
+        <v>309.708240686749</v>
+      </c>
+      <c r="GG50">
         <v>332.3032396491879</v>
       </c>
-      <c r="GD50">
-        <v>1919.108233831766</v>
+      <c r="GH50">
+        <v>1994.768766742071</v>
+      </c>
+      <c r="GI50">
+        <v>1909.413222503798</v>
+      </c>
+      <c r="GJ50">
+        <v>1486.861547401626</v>
+      </c>
+      <c r="GK50">
+        <v>557.1160209261431</v>
+      </c>
+      <c r="GL50">
+        <v>555.8164620551599</v>
       </c>
     </row>
-    <row r="51" spans="1:186">
+    <row r="51" spans="1:194">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -28896,40 +30096,64 @@
         <v>440.5289576377635</v>
       </c>
       <c r="FT51">
-        <v>756.4832379997104</v>
+        <v>144.9521563952785</v>
       </c>
       <c r="FU51">
-        <v>938.3132791039594</v>
+        <v>124.3689021708289</v>
       </c>
       <c r="FV51">
-        <v>1918.361865253077</v>
+        <v>2338.333692743688</v>
       </c>
       <c r="FW51">
-        <v>2126.369210130919</v>
+        <v>2278.959077323523</v>
       </c>
       <c r="FX51">
-        <v>593.9196365080511</v>
+        <v>1386.866733768506</v>
       </c>
       <c r="FY51">
-        <v>645.3713052189403</v>
+        <v>1311.566532797169</v>
       </c>
       <c r="FZ51">
-        <v>1810.556042026494</v>
+        <v>2022.382432832028</v>
       </c>
       <c r="GA51">
-        <v>1539.993593385953</v>
+        <v>2035.894707837518</v>
       </c>
       <c r="GB51">
-        <v>85.10253074076296</v>
+        <v>645.8822385250492</v>
       </c>
       <c r="GC51">
+        <v>661.9364426988197</v>
+      </c>
+      <c r="GD51">
+        <v>864.9100117272241</v>
+      </c>
+      <c r="GE51">
+        <v>1826.182650569356</v>
+      </c>
+      <c r="GF51">
+        <v>0</v>
+      </c>
+      <c r="GG51">
         <v>45.31807952568974</v>
       </c>
-      <c r="GD51">
-        <v>1923.600294227255</v>
+      <c r="GH51">
+        <v>1776.56953916082</v>
+      </c>
+      <c r="GI51">
+        <v>1669.272649274379</v>
+      </c>
+      <c r="GJ51">
+        <v>1177.525810938293</v>
+      </c>
+      <c r="GK51">
+        <v>778.6427445403232</v>
+      </c>
+      <c r="GL51">
+        <v>760.5930825326394</v>
       </c>
     </row>
-    <row r="52" spans="1:186">
+    <row r="52" spans="1:194">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -29456,40 +30680,64 @@
         <v>519.9308673513192</v>
       </c>
       <c r="FT52">
-        <v>804.5453748469084</v>
+        <v>239.5630190317945</v>
       </c>
       <c r="FU52">
-        <v>974.8025261139062</v>
+        <v>219.1811393893774</v>
       </c>
       <c r="FV52">
-        <v>1916.373273195157</v>
+        <v>2424.027813383663</v>
       </c>
       <c r="FW52">
-        <v>2188.003725412793</v>
+        <v>2254.32488075841</v>
       </c>
       <c r="FX52">
-        <v>684.3086038330978</v>
+        <v>1419.924295339852</v>
       </c>
       <c r="FY52">
-        <v>731.3580729839653</v>
+        <v>1345.272285065386</v>
       </c>
       <c r="FZ52">
-        <v>1894.433843529429</v>
+        <v>2085.450455545356</v>
       </c>
       <c r="GA52">
-        <v>1579.367853106086</v>
+        <v>2099.056844019548</v>
       </c>
       <c r="GB52">
-        <v>153.437221927442</v>
+        <v>580.557837723432</v>
       </c>
       <c r="GC52">
+        <v>589.1980688492843</v>
+      </c>
+      <c r="GD52">
+        <v>926.6696853912049</v>
+      </c>
+      <c r="GE52">
+        <v>1906.267085249128</v>
+      </c>
+      <c r="GF52">
+        <v>94.85819537206739</v>
+      </c>
+      <c r="GG52">
         <v>118.4931435108464</v>
       </c>
-      <c r="GD52">
-        <v>1999.328086965613</v>
+      <c r="GH52">
+        <v>1787.876159824393</v>
+      </c>
+      <c r="GI52">
+        <v>1670.45017305742</v>
+      </c>
+      <c r="GJ52">
+        <v>1118.695029320384</v>
+      </c>
+      <c r="GK52">
+        <v>871.9435565069116</v>
+      </c>
+      <c r="GL52">
+        <v>854.7191709424565</v>
       </c>
     </row>
-    <row r="53" spans="1:186">
+    <row r="53" spans="1:194">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30016,40 +31264,64 @@
         <v>403.3966689560276</v>
       </c>
       <c r="FT53">
-        <v>711.5294305561113</v>
+        <v>140.2141676205128</v>
       </c>
       <c r="FU53">
-        <v>892.9961822756936</v>
+        <v>114.7577922894453</v>
       </c>
       <c r="FV53">
-        <v>1876.717489671799</v>
+        <v>2305.82214210157</v>
       </c>
       <c r="FW53">
-        <v>2083.629380884304</v>
+        <v>2242.715469121756</v>
       </c>
       <c r="FX53">
-        <v>594.5836700271891</v>
+        <v>1341.571097057493</v>
       </c>
       <c r="FY53">
-        <v>651.9466940040791</v>
+        <v>1266.263566724701</v>
       </c>
       <c r="FZ53">
-        <v>1776.667907392082</v>
+        <v>1979.950877308033</v>
       </c>
       <c r="GA53">
-        <v>1494.72308145771</v>
+        <v>1993.486321841032</v>
       </c>
       <c r="GB53">
-        <v>40.41193271543054</v>
+        <v>629.5586374117785</v>
       </c>
       <c r="GC53">
+        <v>650.2283001474188</v>
+      </c>
+      <c r="GD53">
+        <v>821.9127281234219</v>
+      </c>
+      <c r="GE53">
+        <v>1789.937396762529</v>
+      </c>
+      <c r="GF53">
+        <v>45.31807952568974</v>
+      </c>
+      <c r="GG53">
         <v>0</v>
       </c>
-      <c r="GD53">
-        <v>1885.229780341391</v>
+      <c r="GH53">
+        <v>1732.838180748347</v>
+      </c>
+      <c r="GI53">
+        <v>1627.121456427503</v>
+      </c>
+      <c r="GJ53">
+        <v>1155.888266734348</v>
+      </c>
+      <c r="GK53">
+        <v>772.5878423658781</v>
+      </c>
+      <c r="GL53">
+        <v>751.8609641086211</v>
       </c>
     </row>
-    <row r="54" spans="1:186">
+    <row r="54" spans="1:194">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -30576,40 +31848,64 @@
         <v>540.5939823983861</v>
       </c>
       <c r="FT54">
-        <v>858.3420507589772</v>
+        <v>218.3713000971788</v>
       </c>
       <c r="FU54">
-        <v>1037.229705966495</v>
+        <v>206.526371113324</v>
       </c>
       <c r="FV54">
-        <v>1998.333805919081</v>
+        <v>2431.228443106197</v>
       </c>
       <c r="FW54">
-        <v>2229.618014109515</v>
+        <v>2341.415349436308</v>
       </c>
       <c r="FX54">
-        <v>634.5104251211727</v>
+        <v>1484.895472024775</v>
       </c>
       <c r="FY54">
-        <v>672.6374765387297</v>
+        <v>1409.789313948896</v>
       </c>
       <c r="FZ54">
-        <v>1905.501971731118</v>
+        <v>2125.54791114436</v>
       </c>
       <c r="GA54">
-        <v>1640.129824602487</v>
+        <v>2139.05236606984</v>
       </c>
       <c r="GB54">
-        <v>187.5897944483013</v>
+        <v>664.1817872163393</v>
       </c>
       <c r="GC54">
+        <v>669.2301451237405</v>
+      </c>
+      <c r="GD54">
+        <v>968.2090243034412</v>
+      </c>
+      <c r="GE54">
+        <v>1924.052138685201</v>
+      </c>
+      <c r="GF54">
+        <v>103.3050652587028</v>
+      </c>
+      <c r="GG54">
         <v>147.1946295644717</v>
       </c>
-      <c r="GD54">
-        <v>2023.777614163008</v>
+      <c r="GH54">
+        <v>1864.713105611851</v>
+      </c>
+      <c r="GI54">
+        <v>1751.259878075561</v>
+      </c>
+      <c r="GJ54">
+        <v>1203.622894190623</v>
+      </c>
+      <c r="GK54">
+        <v>830.0744404441318</v>
+      </c>
+      <c r="GL54">
+        <v>817.2578983014064</v>
       </c>
     </row>
-    <row r="55" spans="1:186">
+    <row r="55" spans="1:194">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31136,40 +32432,64 @@
         <v>520.8380927333058</v>
       </c>
       <c r="FT55">
-        <v>710.054288948196</v>
+        <v>356.8642336737028</v>
       </c>
       <c r="FU55">
-        <v>854.5202191447237</v>
+        <v>330.0603384875135</v>
       </c>
       <c r="FV55">
-        <v>1743.246987433977</v>
+        <v>2415.79200558208</v>
       </c>
       <c r="FW55">
-        <v>2106.044612398462</v>
+        <v>2069.560239301473</v>
       </c>
       <c r="FX55">
-        <v>809.0502373119904</v>
+        <v>1288.632453676333</v>
       </c>
       <c r="FY55">
-        <v>869.962280914538</v>
+        <v>1215.607422230964</v>
       </c>
       <c r="FZ55">
-        <v>1880.872421527929</v>
+        <v>2007.338448747324</v>
       </c>
       <c r="GA55">
-        <v>1457.020973451717</v>
+        <v>2021.104651963596</v>
       </c>
       <c r="GB55">
-        <v>220.7600831317339</v>
+        <v>410.8224260220781</v>
       </c>
       <c r="GC55">
+        <v>431.8670645876</v>
+      </c>
+      <c r="GD55">
+        <v>858.5658500087894</v>
+      </c>
+      <c r="GE55">
+        <v>1878.166536238873</v>
+      </c>
+      <c r="GF55">
+        <v>236.1219095393501</v>
+      </c>
+      <c r="GG55">
         <v>219.045430015672</v>
       </c>
-      <c r="GD55">
-        <v>1956.149291968002</v>
+      <c r="GH55">
+        <v>1626.903693394136</v>
+      </c>
+      <c r="GI55">
+        <v>1500.328639987711</v>
+      </c>
+      <c r="GJ55">
+        <v>941.6138316362913</v>
+      </c>
+      <c r="GK55">
+        <v>978.2572048639817</v>
+      </c>
+      <c r="GL55">
+        <v>953.3706239468535</v>
       </c>
     </row>
-    <row r="56" spans="1:186">
+    <row r="56" spans="1:194">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -31696,40 +33016,64 @@
         <v>1712.958890746949</v>
       </c>
       <c r="FT56">
-        <v>1318.733953250071</v>
+        <v>1943.694995221083</v>
       </c>
       <c r="FU56">
-        <v>1112.098906652667</v>
+        <v>1922.930549456376</v>
       </c>
       <c r="FV56">
-        <v>0</v>
+        <v>2367.239097417825</v>
       </c>
       <c r="FW56">
-        <v>1468.200226639043</v>
+        <v>612.2011787023229</v>
       </c>
       <c r="FX56">
-        <v>2207.315718818601</v>
+        <v>801.3504864338805</v>
       </c>
       <c r="FY56">
-        <v>2304.137529427024</v>
+        <v>847.6816562721161</v>
       </c>
       <c r="FZ56">
-        <v>1980.441267399269</v>
+        <v>1456.902353546904</v>
       </c>
       <c r="GA56">
-        <v>849.0218689274357</v>
+        <v>1465.440699228469</v>
       </c>
       <c r="GB56">
-        <v>1844.775310027142</v>
+        <v>1521.801904484974</v>
       </c>
       <c r="GC56">
+        <v>1578.403135778178</v>
+      </c>
+      <c r="GD56">
+        <v>1385.569038720099</v>
+      </c>
+      <c r="GE56">
+        <v>1857.592856382699</v>
+      </c>
+      <c r="GF56">
+        <v>1918.361865253077</v>
+      </c>
+      <c r="GG56">
         <v>1876.717489671799</v>
       </c>
-      <c r="GD56">
-        <v>1766.468128509116</v>
+      <c r="GH56">
+        <v>292.5196854541394</v>
+      </c>
+      <c r="GI56">
+        <v>254.694544939913</v>
+      </c>
+      <c r="GJ56">
+        <v>1218.467442353749</v>
+      </c>
+      <c r="GK56">
+        <v>2233.880170327612</v>
+      </c>
+      <c r="GL56">
+        <v>2184.933818183642</v>
       </c>
     </row>
-    <row r="57" spans="1:186">
+    <row r="57" spans="1:194">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -32256,40 +33600,64 @@
         <v>1579.529605844037</v>
       </c>
       <c r="FT57">
-        <v>1181.736856332863</v>
+        <v>1819.25443870975</v>
       </c>
       <c r="FU57">
-        <v>973.5651407064667</v>
+        <v>1799.191059643063</v>
       </c>
       <c r="FV57">
-        <v>143.4959789630574</v>
+        <v>2247.01036799259</v>
       </c>
       <c r="FW57">
-        <v>1367.643024033791</v>
+        <v>741.9941724982177</v>
       </c>
       <c r="FX57">
-        <v>2071.772176640709</v>
+        <v>658.7147180752271</v>
       </c>
       <c r="FY57">
-        <v>2168.871014282338</v>
+        <v>704.2470982648775</v>
       </c>
       <c r="FZ57">
-        <v>1848.463159752431</v>
+        <v>1348.631514054774</v>
       </c>
       <c r="GA57">
-        <v>714.3329203907607</v>
+        <v>1357.882331273325</v>
       </c>
       <c r="GB57">
-        <v>1724.375570697006</v>
+        <v>1434.170334138102</v>
       </c>
       <c r="GC57">
+        <v>1493.957199761378</v>
+      </c>
+      <c r="GD57">
+        <v>1244.002265374939</v>
+      </c>
+      <c r="GE57">
+        <v>1728.367135958493</v>
+      </c>
+      <c r="GF57">
+        <v>1799.756756565802</v>
+      </c>
+      <c r="GG57">
         <v>1757.371708153376</v>
       </c>
-      <c r="GD57">
-        <v>1643.426128267196</v>
+      <c r="GH57">
+        <v>171.7930956538694</v>
+      </c>
+      <c r="GI57">
+        <v>132.6507871125202</v>
+      </c>
+      <c r="GJ57">
+        <v>1174.974862743859</v>
+      </c>
+      <c r="GK57">
+        <v>2094.449492051709</v>
+      </c>
+      <c r="GL57">
+        <v>2045.365509620538</v>
       </c>
     </row>
-    <row r="58" spans="1:186">
+    <row r="58" spans="1:194">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -32816,40 +34184,64 @@
         <v>1879.462760743626</v>
       </c>
       <c r="FT58">
-        <v>1478.570868021784</v>
+        <v>2121.918048053646</v>
       </c>
       <c r="FU58">
-        <v>1268.590074722837</v>
+        <v>2101.839233601253</v>
       </c>
       <c r="FV58">
-        <v>194.1363056056288</v>
+        <v>2390.689742061864</v>
       </c>
       <c r="FW58">
-        <v>1458.210387784508</v>
+        <v>613.3949530573411</v>
       </c>
       <c r="FX58">
-        <v>2369.465754356711</v>
+        <v>916.6920195832561</v>
       </c>
       <c r="FY58">
-        <v>2466.81567997644</v>
+        <v>972.6324946330977</v>
       </c>
       <c r="FZ58">
-        <v>2037.583738710657</v>
+        <v>1461.725604964709</v>
       </c>
       <c r="GA58">
-        <v>928.4607188114537</v>
+        <v>1468.747975706237</v>
       </c>
       <c r="GB58">
-        <v>2026.611578404819</v>
+        <v>1715.690378637673</v>
       </c>
       <c r="GC58">
+        <v>1772.484176134034</v>
+      </c>
+      <c r="GD58">
+        <v>1530.408810780716</v>
+      </c>
+      <c r="GE58">
+        <v>1907.259638794943</v>
+      </c>
+      <c r="GF58">
+        <v>2101.590298897408</v>
+      </c>
+      <c r="GG58">
         <v>2059.383943080059</v>
       </c>
-      <c r="GD58">
-        <v>1800.428307323139</v>
+      <c r="GH58">
+        <v>384.8954397713595</v>
+      </c>
+      <c r="GI58">
+        <v>432.338327311156</v>
+      </c>
+      <c r="GJ58">
+        <v>1406.225268311255</v>
+      </c>
+      <c r="GK58">
+        <v>2385.79179613437</v>
+      </c>
+      <c r="GL58">
+        <v>2336.429842641679</v>
       </c>
     </row>
-    <row r="59" spans="1:186">
+    <row r="59" spans="1:194">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -33376,40 +34768,64 @@
         <v>1458.321487475708</v>
       </c>
       <c r="FT59">
-        <v>1065.466031040204</v>
+        <v>1691.174990760594</v>
       </c>
       <c r="FU59">
-        <v>860.3717365230295</v>
+        <v>1670.754672198477</v>
       </c>
       <c r="FV59">
-        <v>254.694544939913</v>
+        <v>2226.831199363003</v>
       </c>
       <c r="FW59">
-        <v>1381.231187581728</v>
+        <v>800.6469760851916</v>
       </c>
       <c r="FX59">
-        <v>1953.08836736237</v>
+        <v>587.3184238499672</v>
       </c>
       <c r="FY59">
-        <v>2049.813197151171</v>
+        <v>622.0576979759735</v>
       </c>
       <c r="FZ59">
-        <v>1806.228205960925</v>
+        <v>1351.636941548084</v>
       </c>
       <c r="GA59">
-        <v>674.9747676672591</v>
+        <v>1361.849022960681</v>
       </c>
       <c r="GB59">
-        <v>1594.492110243111</v>
+        <v>1303.355668270563</v>
       </c>
       <c r="GC59">
+        <v>1363.807877238519</v>
+      </c>
+      <c r="GD59">
+        <v>1138.723307843685</v>
+      </c>
+      <c r="GE59">
+        <v>1692.732673551185</v>
+      </c>
+      <c r="GF59">
+        <v>1669.272649274379</v>
+      </c>
+      <c r="GG59">
         <v>1627.121456427503</v>
       </c>
-      <c r="GD59">
-        <v>1620.438158095671</v>
+      <c r="GH59">
+        <v>216.1397658727234</v>
+      </c>
+      <c r="GI59">
+        <v>0</v>
+      </c>
+      <c r="GJ59">
+        <v>1062.372994576193</v>
+      </c>
+      <c r="GK59">
+        <v>1982.399522795744</v>
+      </c>
+      <c r="GL59">
+        <v>1933.642377930124</v>
       </c>
     </row>
-    <row r="60" spans="1:186">
+    <row r="60" spans="1:194">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -33936,40 +35352,64 @@
         <v>1519.305594937145</v>
       </c>
       <c r="FT60">
-        <v>1112.384626586209</v>
+        <v>1782.456071337072</v>
       </c>
       <c r="FU60">
-        <v>900.554124244367</v>
+        <v>1764.222273142664</v>
       </c>
       <c r="FV60">
-        <v>292.5196854541394</v>
+        <v>2078.003067948911</v>
       </c>
       <c r="FW60">
-        <v>1196.240769113751</v>
+        <v>904.2643322405752</v>
       </c>
       <c r="FX60">
-        <v>2001.892131901087</v>
+        <v>531.8375708584585</v>
       </c>
       <c r="FY60">
-        <v>2099.596057966915</v>
+        <v>588.3218141507257</v>
       </c>
       <c r="FZ60">
-        <v>1688.08991884421</v>
+        <v>1176.8699027501</v>
       </c>
       <c r="GA60">
-        <v>558.6607201629156</v>
+        <v>1186.099632916821</v>
       </c>
       <c r="GB60">
-        <v>1697.710493559</v>
+        <v>1469.710034203682</v>
       </c>
       <c r="GC60">
+        <v>1533.577882833541</v>
+      </c>
+      <c r="GD60">
+        <v>1151.272157527125</v>
+      </c>
+      <c r="GE60">
+        <v>1565.099913258613</v>
+      </c>
+      <c r="GF60">
+        <v>1776.56953916082</v>
+      </c>
+      <c r="GG60">
         <v>1732.838180748347</v>
       </c>
-      <c r="GD60">
-        <v>1475.662518801673</v>
+      <c r="GH60">
+        <v>0</v>
+      </c>
+      <c r="GI60">
+        <v>216.1397658727234</v>
+      </c>
+      <c r="GJ60">
+        <v>1268.813089008749</v>
+      </c>
+      <c r="GK60">
+        <v>2009.049638453955</v>
+      </c>
+      <c r="GL60">
+        <v>1959.483814068845</v>
       </c>
     </row>
-    <row r="61" spans="1:186">
+    <row r="61" spans="1:194">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -34496,40 +35936,64 @@
         <v>1801.583669203883</v>
       </c>
       <c r="FT61">
-        <v>1404.217861256725</v>
+        <v>2037.217068015074</v>
       </c>
       <c r="FU61">
-        <v>1195.872831791194</v>
+        <v>2016.716119850512</v>
       </c>
       <c r="FV61">
-        <v>98.05901464887026</v>
+        <v>2388.147477045949</v>
       </c>
       <c r="FW61">
-        <v>1471.132315428259</v>
+        <v>593.8897389818142</v>
       </c>
       <c r="FX61">
-        <v>2294.221365649386</v>
+        <v>864.6670843717463</v>
       </c>
       <c r="FY61">
-        <v>2391.295791045003</v>
+        <v>915.9057816706</v>
       </c>
       <c r="FZ61">
-        <v>2017.65380181623</v>
+        <v>1467.263864253049</v>
       </c>
       <c r="GA61">
-        <v>894.6578043382506</v>
+        <v>1475.059423804106</v>
       </c>
       <c r="GB61">
-        <v>1939.662153799327</v>
+        <v>1619.692114480247</v>
       </c>
       <c r="GC61">
+        <v>1676.09737462393</v>
+      </c>
+      <c r="GD61">
+        <v>1464.272447824977</v>
+      </c>
+      <c r="GE61">
+        <v>1890.979430310116</v>
+      </c>
+      <c r="GF61">
+        <v>2013.768524788115</v>
+      </c>
+      <c r="GG61">
         <v>1971.914891855356</v>
       </c>
-      <c r="GD61">
-        <v>1791.949705895003</v>
+      <c r="GH61">
+        <v>337.7143857684325</v>
+      </c>
+      <c r="GI61">
+        <v>346.1031247849477</v>
+      </c>
+      <c r="GJ61">
+        <v>1309.666653667009</v>
+      </c>
+      <c r="GK61">
+        <v>2316.290433681671</v>
+      </c>
+      <c r="GL61">
+        <v>2267.141399197434</v>
       </c>
     </row>
-    <row r="62" spans="1:186">
+    <row r="62" spans="1:194">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -35056,40 +36520,64 @@
         <v>1724.192530942505</v>
       </c>
       <c r="FT62">
-        <v>1367.727932996584</v>
+        <v>1899.45718824592</v>
       </c>
       <c r="FU62">
-        <v>1183.033489393939</v>
+        <v>1875.735955408443</v>
       </c>
       <c r="FV62">
-        <v>360.9731297400503</v>
+        <v>2648.644410534672</v>
       </c>
       <c r="FW62">
-        <v>1789.713125354962</v>
+        <v>442.5183713362562</v>
       </c>
       <c r="FX62">
-        <v>2223.499704474207</v>
+        <v>995.1641800569741</v>
       </c>
       <c r="FY62">
-        <v>2316.897532167678</v>
+        <v>1018.633229863802</v>
       </c>
       <c r="FZ62">
-        <v>2224.13884244292</v>
+        <v>1766.453463980431</v>
       </c>
       <c r="GA62">
-        <v>1096.169081390228</v>
+        <v>1776.18319722209</v>
       </c>
       <c r="GB62">
-        <v>1783.887826125665</v>
+        <v>1354.898587323019</v>
       </c>
       <c r="GC62">
+        <v>1400.677587346273</v>
+      </c>
+      <c r="GD62">
+        <v>1476.87460710462</v>
+      </c>
+      <c r="GE62">
+        <v>2112.998715443366</v>
+      </c>
+      <c r="GF62">
+        <v>1847.944791441174</v>
+      </c>
+      <c r="GG62">
         <v>1810.439398390568</v>
       </c>
-      <c r="GD62">
-        <v>2042.285145376576</v>
+      <c r="GH62">
+        <v>594.191140972181</v>
+      </c>
+      <c r="GI62">
+        <v>421.8491258488434</v>
+      </c>
+      <c r="GJ62">
+        <v>956.7917471854025</v>
+      </c>
+      <c r="GK62">
+        <v>2282.706905470036</v>
+      </c>
+      <c r="GL62">
+        <v>2235.844710275173</v>
       </c>
     </row>
-    <row r="63" spans="1:186">
+    <row r="63" spans="1:194">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -35616,40 +37104,64 @@
         <v>1182.604231994676</v>
       </c>
       <c r="FT63">
-        <v>788.005044648549</v>
+        <v>1502.513699993801</v>
       </c>
       <c r="FU63">
-        <v>604.8643466475432</v>
+        <v>1491.094675541428</v>
       </c>
       <c r="FV63">
-        <v>849.0218689274357</v>
+        <v>1555.370820870623</v>
       </c>
       <c r="FW63">
-        <v>785.968908805777</v>
+        <v>1456.300827132447</v>
       </c>
       <c r="FX63">
-        <v>1612.099961461016</v>
+        <v>189.2344112232919</v>
       </c>
       <c r="FY63">
-        <v>1708.449175647813</v>
+        <v>249.4380072966607</v>
       </c>
       <c r="FZ63">
-        <v>1134.765445180305</v>
+        <v>727.4034514751789</v>
       </c>
       <c r="GA63">
-        <v>0</v>
+        <v>739.6756873231482</v>
       </c>
       <c r="GB63">
-        <v>1455.106311487037</v>
+        <v>1447.372454793094</v>
       </c>
       <c r="GC63">
+        <v>1518.726898973712</v>
+      </c>
+      <c r="GD63">
+        <v>742.1300272160526</v>
+      </c>
+      <c r="GE63">
+        <v>1018.131974997718</v>
+      </c>
+      <c r="GF63">
+        <v>1539.993593385953</v>
+      </c>
+      <c r="GG63">
         <v>1494.72308145771</v>
       </c>
-      <c r="GD63">
-        <v>948.6759183891151</v>
+      <c r="GH63">
+        <v>558.6607201629156</v>
+      </c>
+      <c r="GI63">
+        <v>674.9747676672591</v>
+      </c>
+      <c r="GJ63">
+        <v>1454.961215984152</v>
+      </c>
+      <c r="GK63">
+        <v>1575.595967659209</v>
+      </c>
+      <c r="GL63">
+        <v>1526.083523222766</v>
       </c>
     </row>
-    <row r="64" spans="1:186">
+    <row r="64" spans="1:194">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -36176,40 +37688,64 @@
         <v>1032.198007813574</v>
       </c>
       <c r="FT64">
-        <v>621.9968527315907</v>
+        <v>1318.965836580846</v>
       </c>
       <c r="FU64">
-        <v>411.3530352995165</v>
+        <v>1303.483108174969</v>
       </c>
       <c r="FV64">
-        <v>746.9099455086618</v>
+        <v>1800.281730152573</v>
       </c>
       <c r="FW64">
-        <v>1086.680734677368</v>
+        <v>1312.770493539037</v>
       </c>
       <c r="FX64">
-        <v>1505.375748213317</v>
+        <v>119.4465063911865</v>
       </c>
       <c r="FY64">
-        <v>1603.175640372244</v>
+        <v>113.2360973603547</v>
       </c>
       <c r="FZ64">
-        <v>1336.954844386958</v>
+        <v>1022.707447734859</v>
       </c>
       <c r="GA64">
-        <v>302.8748624694482</v>
+        <v>1035.43097909045</v>
       </c>
       <c r="GB64">
-        <v>1250.371479504627</v>
+        <v>1162.992986188108</v>
       </c>
       <c r="GC64">
+        <v>1233.609438559585</v>
+      </c>
+      <c r="GD64">
+        <v>649.6839626712886</v>
+      </c>
+      <c r="GE64">
+        <v>1239.214365246256</v>
+      </c>
+      <c r="GF64">
+        <v>1333.21008891156</v>
+      </c>
+      <c r="GG64">
         <v>1288.172718633219</v>
       </c>
-      <c r="GD64">
-        <v>1199.584346023232</v>
+      <c r="GH64">
+        <v>501.5996274628549</v>
+      </c>
+      <c r="GI64">
+        <v>514.1572244889345</v>
+      </c>
+      <c r="GJ64">
+        <v>1152.808813437833</v>
+      </c>
+      <c r="GK64">
+        <v>1507.582750228314</v>
+      </c>
+      <c r="GL64">
+        <v>1457.987891725407</v>
       </c>
     </row>
-    <row r="65" spans="1:186">
+    <row r="65" spans="1:194">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -36736,40 +38272,64 @@
         <v>1225.122161815765</v>
       </c>
       <c r="FT65">
-        <v>865.6813261265814</v>
+        <v>1562.542153612493</v>
       </c>
       <c r="FU65">
-        <v>720.3037768334666</v>
+        <v>1554.884191541994</v>
       </c>
       <c r="FV65">
-        <v>1058.528985589027</v>
+        <v>1325.334161500135</v>
       </c>
       <c r="FW65">
-        <v>579.638425840815</v>
+        <v>1670.037460352651</v>
       </c>
       <c r="FX65">
-        <v>1606.255646781529</v>
+        <v>396.482583266435</v>
       </c>
       <c r="FY65">
-        <v>1699.303973312193</v>
+        <v>432.8226846574206</v>
       </c>
       <c r="FZ65">
-        <v>923.6822375405293</v>
+        <v>507.9995133617334</v>
       </c>
       <c r="GA65">
-        <v>232.6038714904711</v>
+        <v>520.984119033724</v>
       </c>
       <c r="GB65">
-        <v>1534.674096410238</v>
+        <v>1608.767796622782</v>
       </c>
       <c r="GC65">
+        <v>1680.437141217518</v>
+      </c>
+      <c r="GD65">
+        <v>770.0085988518408</v>
+      </c>
+      <c r="GE65">
+        <v>799.0861652196731</v>
+      </c>
+      <c r="GF65">
+        <v>1619.560645846208</v>
+      </c>
+      <c r="GG65">
         <v>1575.026423124664</v>
       </c>
-      <c r="GD65">
-        <v>718.7378101358277</v>
+      <c r="GH65">
+        <v>766.0227412483401</v>
+      </c>
+      <c r="GI65">
+        <v>901.7719364715799</v>
+      </c>
+      <c r="GJ65">
+        <v>1664.225575478051</v>
+      </c>
+      <c r="GK65">
+        <v>1540.317987189261</v>
+      </c>
+      <c r="GL65">
+        <v>1492.150641507411</v>
       </c>
     </row>
-    <row r="66" spans="1:186">
+    <row r="66" spans="1:194">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -37296,40 +38856,64 @@
         <v>1205.121608579108</v>
       </c>
       <c r="FT66">
-        <v>813.3818880826459</v>
+        <v>1527.350496159724</v>
       </c>
       <c r="FU66">
-        <v>633.4046989818572</v>
+        <v>1516.307945780123</v>
       </c>
       <c r="FV66">
-        <v>863.8510562006435</v>
+        <v>1531.17349697149</v>
       </c>
       <c r="FW66">
-        <v>753.0000765960648</v>
+        <v>1472.984549208486</v>
       </c>
       <c r="FX66">
-        <v>1629.530639499052</v>
+        <v>223.006270215257</v>
       </c>
       <c r="FY66">
-        <v>1725.572323643961</v>
+        <v>282.0964640419007</v>
       </c>
       <c r="FZ66">
-        <v>1117.356824361293</v>
+        <v>695.6926724963672</v>
       </c>
       <c r="GA66">
-        <v>33.84503696752498</v>
+        <v>707.8592519490219</v>
       </c>
       <c r="GB66">
-        <v>1481.857611950322</v>
+        <v>1480.339600527344</v>
       </c>
       <c r="GC66">
+        <v>1551.727400219781</v>
+      </c>
+      <c r="GD66">
+        <v>761.6112661088823</v>
+      </c>
+      <c r="GE66">
+        <v>998.3161386727373</v>
+      </c>
+      <c r="GF66">
+        <v>1566.819775693637</v>
+      </c>
+      <c r="GG66">
         <v>1521.581328977206</v>
       </c>
-      <c r="GD66">
-        <v>924.4661339346878</v>
+      <c r="GH66">
+        <v>572.2070880229591</v>
+      </c>
+      <c r="GI66">
+        <v>696.8032895490587</v>
+      </c>
+      <c r="GJ66">
+        <v>1488.464409476226</v>
+      </c>
+      <c r="GK66">
+        <v>1589.196963556302</v>
+      </c>
+      <c r="GL66">
+        <v>1539.799026825227</v>
       </c>
     </row>
-    <row r="67" spans="1:186">
+    <row r="67" spans="1:194">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -37856,40 +39440,64 @@
         <v>1056.806093947772</v>
       </c>
       <c r="FT67">
-        <v>649.7771216274914</v>
+        <v>1360.985126914886</v>
       </c>
       <c r="FU67">
-        <v>449.4253952541186</v>
+        <v>1347.44032804628</v>
       </c>
       <c r="FV67">
-        <v>801.3504864338805</v>
+        <v>1687.827754178614</v>
       </c>
       <c r="FW67">
-        <v>968.6136688862637</v>
+        <v>1387.394876575396</v>
       </c>
       <c r="FX67">
-        <v>1512.75630875137</v>
+        <v>0</v>
       </c>
       <c r="FY67">
-        <v>1610.302609668838</v>
+        <v>75.67500585373878</v>
       </c>
       <c r="FZ67">
-        <v>1233.883961317546</v>
+        <v>903.4791375835238</v>
       </c>
       <c r="GA67">
-        <v>189.2344112232919</v>
+        <v>916.2446654026324</v>
       </c>
       <c r="GB67">
-        <v>1302.718513299906</v>
+        <v>1260.897726577338</v>
       </c>
       <c r="GC67">
+        <v>1332.078726198954</v>
+      </c>
+      <c r="GD67">
+        <v>642.6366431223045</v>
+      </c>
+      <c r="GE67">
+        <v>1131.178573497587</v>
+      </c>
+      <c r="GF67">
+        <v>1386.866733768506</v>
+      </c>
+      <c r="GG67">
         <v>1341.571097057493</v>
       </c>
-      <c r="GD67">
-        <v>1085.089812960672</v>
+      <c r="GH67">
+        <v>531.8375708584585</v>
+      </c>
+      <c r="GI67">
+        <v>587.3184238499672</v>
+      </c>
+      <c r="GJ67">
+        <v>1270.738839531788</v>
+      </c>
+      <c r="GK67">
+        <v>1498.505890673744</v>
+      </c>
+      <c r="GL67">
+        <v>1448.715819828684</v>
       </c>
     </row>
-    <row r="68" spans="1:186">
+    <row r="68" spans="1:194">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -38416,40 +40024,64 @@
         <v>1004.831728154517</v>
       </c>
       <c r="FT68">
-        <v>615.7102378113107</v>
+        <v>1328.453415750265</v>
       </c>
       <c r="FU68">
-        <v>445.7973109358212</v>
+        <v>1317.865584538476</v>
       </c>
       <c r="FV68">
-        <v>956.3724738276285</v>
+        <v>1531.854605450893</v>
       </c>
       <c r="FW68">
-        <v>865.0336529388038</v>
+        <v>1548.706317579863</v>
       </c>
       <c r="FX68">
-        <v>1432.486015856559</v>
+        <v>164.3054653006287</v>
       </c>
       <c r="FY68">
-        <v>1528.937183021177</v>
+        <v>162.8694842025427</v>
       </c>
       <c r="FZ68">
-        <v>1070.64142983219</v>
+        <v>787.9506054007688</v>
       </c>
       <c r="GA68">
-        <v>179.8266870929529</v>
+        <v>801.3280399507555</v>
       </c>
       <c r="GB68">
-        <v>1286.071938955801</v>
+        <v>1323.112769129727</v>
       </c>
       <c r="GC68">
+        <v>1394.787518918909</v>
+      </c>
+      <c r="GD68">
+        <v>562.3372593958078</v>
+      </c>
+      <c r="GE68">
+        <v>970.5874335205049</v>
+      </c>
+      <c r="GF68">
+        <v>1371.142440485876</v>
+      </c>
+      <c r="GG68">
         <v>1326.004541797579</v>
       </c>
-      <c r="GD68">
-        <v>932.8136102767006</v>
+      <c r="GH68">
+        <v>677.7377044674539</v>
+      </c>
+      <c r="GI68">
+        <v>749.7999279061816</v>
+      </c>
+      <c r="GJ68">
+        <v>1388.95638950359</v>
+      </c>
+      <c r="GK68">
+        <v>1398.837119456973</v>
+      </c>
+      <c r="GL68">
+        <v>1349.218847475684</v>
       </c>
     </row>
-    <row r="69" spans="1:186">
+    <row r="69" spans="1:194">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -38976,40 +40608,64 @@
         <v>1233.528694333948</v>
       </c>
       <c r="FT69">
-        <v>829.8612634329953</v>
+        <v>1543.214054574544</v>
       </c>
       <c r="FU69">
-        <v>633.3710699065343</v>
+        <v>1530.192355012328</v>
       </c>
       <c r="FV69">
-        <v>742.0425671156638</v>
+        <v>1654.240744621133</v>
       </c>
       <c r="FW69">
-        <v>852.6759613393226</v>
+        <v>1349.905749892677</v>
       </c>
       <c r="FX69">
-        <v>1678.362385521125</v>
+        <v>185.2064675161203</v>
       </c>
       <c r="FY69">
-        <v>1775.424577226897</v>
+        <v>259.9701940333196</v>
       </c>
       <c r="FZ69">
-        <v>1240.649043303421</v>
+        <v>803.9322663745264</v>
       </c>
       <c r="GA69">
-        <v>107.0697737575445</v>
+        <v>815.5232692259804</v>
       </c>
       <c r="GB69">
-        <v>1487.163740286384</v>
+        <v>1433.534981433488</v>
       </c>
       <c r="GC69">
+        <v>1504.218113870993</v>
+      </c>
+      <c r="GD69">
+        <v>805.6935487948261</v>
+      </c>
+      <c r="GE69">
+        <v>1122.380803958357</v>
+      </c>
+      <c r="GF69">
+        <v>1571.448466282287</v>
+      </c>
+      <c r="GG69">
         <v>1526.14034396636</v>
       </c>
-      <c r="GD69">
-        <v>1047.650310425549</v>
+      <c r="GH69">
+        <v>451.6022696254466</v>
+      </c>
+      <c r="GI69">
+        <v>573.0043102706254</v>
+      </c>
+      <c r="GJ69">
+        <v>1402.81190903839</v>
+      </c>
+      <c r="GK69">
+        <v>1651.905420280425</v>
+      </c>
+      <c r="GL69">
+        <v>1602.199154307693</v>
       </c>
     </row>
-    <row r="70" spans="1:186">
+    <row r="70" spans="1:194">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -39536,40 +41192,64 @@
         <v>981.9833781749766</v>
       </c>
       <c r="FT70">
-        <v>574.3948185692174</v>
+        <v>1285.312106568487</v>
       </c>
       <c r="FU70">
-        <v>373.8449167726541</v>
+        <v>1271.769746529765</v>
       </c>
       <c r="FV70">
-        <v>847.6816562721161</v>
+        <v>1693.472690553678</v>
       </c>
       <c r="FW70">
-        <v>1011.405534579599</v>
+        <v>1422.208408237486</v>
       </c>
       <c r="FX70">
-        <v>1440.792271727013</v>
+        <v>75.67500585373878</v>
       </c>
       <c r="FY70">
-        <v>1538.435889182408</v>
+        <v>0</v>
       </c>
       <c r="FZ70">
-        <v>1225.175414733926</v>
+        <v>940.3210961744718</v>
       </c>
       <c r="GA70">
-        <v>249.4380072966607</v>
+        <v>953.4334109263303</v>
       </c>
       <c r="GB70">
-        <v>1227.34987291986</v>
+        <v>1198.340917086457</v>
       </c>
       <c r="GC70">
+        <v>1269.765291343106</v>
+      </c>
+      <c r="GD70">
+        <v>572.8699181703921</v>
+      </c>
+      <c r="GE70">
+        <v>1129.568180991047</v>
+      </c>
+      <c r="GF70">
+        <v>1311.566532797169</v>
+      </c>
+      <c r="GG70">
         <v>1266.263566724701</v>
       </c>
-      <c r="GD70">
-        <v>1095.51062419614</v>
+      <c r="GH70">
+        <v>588.3218141507257</v>
+      </c>
+      <c r="GI70">
+        <v>622.0576979759735</v>
+      </c>
+      <c r="GJ70">
+        <v>1232.223986342361</v>
+      </c>
+      <c r="GK70">
+        <v>1430.5479006521</v>
+      </c>
+      <c r="GL70">
+        <v>1380.780827032846</v>
       </c>
     </row>
-    <row r="71" spans="1:186">
+    <row r="71" spans="1:194">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -40096,40 +41776,64 @@
         <v>1329.704811022829</v>
       </c>
       <c r="FT71">
-        <v>1131.616468784735</v>
+        <v>1666.722899423535</v>
       </c>
       <c r="FU71">
-        <v>1101.347691810376</v>
+        <v>1669.947742478247</v>
       </c>
       <c r="FV71">
-        <v>1711.601523545493</v>
+        <v>701.6493097757242</v>
       </c>
       <c r="FW71">
-        <v>564.0475214545233</v>
+        <v>2323.199939147177</v>
       </c>
       <c r="FX71">
-        <v>1524.940275449904</v>
+        <v>991.4753361844572</v>
       </c>
       <c r="FY71">
-        <v>1598.563169443345</v>
+        <v>993.2864878939122</v>
       </c>
       <c r="FZ71">
-        <v>282.7243549562519</v>
+        <v>464.2992954122924</v>
       </c>
       <c r="GA71">
-        <v>873.579957474921</v>
+        <v>470.567370352119</v>
       </c>
       <c r="GB71">
-        <v>1693.784647565758</v>
+        <v>1978.496700469187</v>
       </c>
       <c r="GC71">
+        <v>2046.747150058605</v>
+      </c>
+      <c r="GD71">
+        <v>955.6531922966975</v>
+      </c>
+      <c r="GE71">
+        <v>146.1486715652675</v>
+      </c>
+      <c r="GF71">
+        <v>1770.127045944276</v>
+      </c>
+      <c r="GG71">
         <v>1731.929569267134</v>
       </c>
-      <c r="GD71">
-        <v>153.9425274258294</v>
+      <c r="GH71">
+        <v>1419.128213044126</v>
+      </c>
+      <c r="GI71">
+        <v>1548.477893259393</v>
+      </c>
+      <c r="GJ71">
+        <v>2171.121949023391</v>
+      </c>
+      <c r="GK71">
+        <v>1383.235186259474</v>
+      </c>
+      <c r="GL71">
+        <v>1345.201782396599</v>
       </c>
     </row>
-    <row r="72" spans="1:186">
+    <row r="72" spans="1:194">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -40656,40 +42360,64 @@
         <v>1753.177461365114</v>
       </c>
       <c r="FT72">
-        <v>1535.33298291359</v>
+        <v>2090.97083377286</v>
       </c>
       <c r="FU72">
-        <v>1479.068988475387</v>
+        <v>2094.04396859215</v>
       </c>
       <c r="FV72">
-        <v>1890.566338866817</v>
+        <v>513.3066621313901</v>
       </c>
       <c r="FW72">
-        <v>459.1223610704129</v>
+        <v>2496.662306113575</v>
       </c>
       <c r="FX72">
-        <v>1938.722068116451</v>
+        <v>1278.890744673815</v>
       </c>
       <c r="FY72">
-        <v>2008.490445839093</v>
+        <v>1300.682778302665</v>
       </c>
       <c r="FZ72">
-        <v>513.0969448920848</v>
+        <v>436.9394597568432</v>
       </c>
       <c r="GA72">
-        <v>1121.149891729814</v>
+        <v>430.2115511320068</v>
       </c>
       <c r="GB72">
-        <v>2116.391262416923</v>
+        <v>2374.138874090274</v>
       </c>
       <c r="GC72">
+        <v>2443.733701362403</v>
+      </c>
+      <c r="GD72">
+        <v>1366.532293359762</v>
+      </c>
+      <c r="GE72">
+        <v>409.2094277671001</v>
+      </c>
+      <c r="GF72">
+        <v>2193.382999040237</v>
+      </c>
+      <c r="GG72">
         <v>2154.784348335338</v>
       </c>
-      <c r="GD72">
-        <v>270.370062834607</v>
+      <c r="GH72">
+        <v>1607.172769812898</v>
+      </c>
+      <c r="GI72">
+        <v>1773.259498760502</v>
+      </c>
+      <c r="GJ72">
+        <v>2521.774448257541</v>
+      </c>
+      <c r="GK72">
+        <v>1786.989632794816</v>
+      </c>
+      <c r="GL72">
+        <v>1751.687605798541</v>
       </c>
     </row>
-    <row r="73" spans="1:186">
+    <row r="73" spans="1:194">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -41216,40 +42944,64 @@
         <v>1646.110380745351</v>
       </c>
       <c r="FT73">
-        <v>1517.112203747157</v>
+        <v>1962.078375968808</v>
       </c>
       <c r="FU73">
-        <v>1515.073747408706</v>
+        <v>1970.030305792633</v>
       </c>
       <c r="FV73">
-        <v>2132.498827978574</v>
+        <v>273.8377376902392</v>
       </c>
       <c r="FW73">
-        <v>808.2252201700509</v>
+        <v>2744.677394159593</v>
       </c>
       <c r="FX73">
-        <v>1734.359710716395</v>
+        <v>1428.266080814007</v>
       </c>
       <c r="FY73">
-        <v>1791.014086632373</v>
+        <v>1429.975798579751</v>
       </c>
       <c r="FZ73">
-        <v>270.6369937427432</v>
+        <v>749.9720062285638</v>
       </c>
       <c r="GA73">
-        <v>1305.126252294265</v>
+        <v>748.5660563895317</v>
       </c>
       <c r="GB73">
-        <v>2011.790470834791</v>
+        <v>2365.092307862843</v>
       </c>
       <c r="GC73">
+        <v>2430.993682623861</v>
+      </c>
+      <c r="GD73">
+        <v>1332.329436063281</v>
+      </c>
+      <c r="GE73">
+        <v>304.0374006734781</v>
+      </c>
+      <c r="GF73">
+        <v>2081.10048364582</v>
+      </c>
+      <c r="GG73">
         <v>2047.29000352283</v>
       </c>
-      <c r="GD73">
-        <v>368.3541428344373</v>
+      <c r="GH73">
+        <v>1841.001032337886</v>
+      </c>
+      <c r="GI73">
+        <v>1979.667239719822</v>
+      </c>
+      <c r="GJ73">
+        <v>2592.885919350477</v>
+      </c>
+      <c r="GK73">
+        <v>1559.030148408521</v>
+      </c>
+      <c r="GL73">
+        <v>1531.146192972155</v>
       </c>
     </row>
-    <row r="74" spans="1:186">
+    <row r="74" spans="1:194">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -41776,40 +43528,64 @@
         <v>1480.304325499007</v>
       </c>
       <c r="FT74">
-        <v>1256.53463267496</v>
+        <v>1820.552981679919</v>
       </c>
       <c r="FU74">
-        <v>1204.425252578439</v>
+        <v>1822.701909027458</v>
       </c>
       <c r="FV74">
-        <v>1704.810127305452</v>
+        <v>664.4656160577582</v>
       </c>
       <c r="FW74">
-        <v>425.5276968863239</v>
+        <v>2316.521334110994</v>
       </c>
       <c r="FX74">
-        <v>1691.009059914001</v>
+        <v>1035.042642272118</v>
       </c>
       <c r="FY74">
-        <v>1765.513056301651</v>
+        <v>1048.743215873826</v>
       </c>
       <c r="FZ74">
-        <v>384.3225728969718</v>
+        <v>340.3533320526237</v>
       </c>
       <c r="GA74">
-        <v>893.2118810424475</v>
+        <v>342.9706868401224</v>
       </c>
       <c r="GB74">
-        <v>1841.888968630243</v>
+        <v>2096.55162701937</v>
       </c>
       <c r="GC74">
+        <v>2165.947372620962</v>
+      </c>
+      <c r="GD74">
+        <v>1087.875346971875</v>
+      </c>
+      <c r="GE74">
+        <v>237.4058624015208</v>
+      </c>
+      <c r="GF74">
+        <v>1919.784968615896</v>
+      </c>
+      <c r="GG74">
         <v>1880.586525798508</v>
       </c>
-      <c r="GD74">
-        <v>67.34605862364431</v>
+      <c r="GH74">
+        <v>1414.603358300334</v>
+      </c>
+      <c r="GI74">
+        <v>1562.689328967121</v>
+      </c>
+      <c r="GJ74">
+        <v>2257.173449125231</v>
+      </c>
+      <c r="GK74">
+        <v>1551.054531292355</v>
+      </c>
+      <c r="GL74">
+        <v>1512.774922140095</v>
       </c>
     </row>
-    <row r="75" spans="1:186">
+    <row r="75" spans="1:194">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -42336,40 +44112,64 @@
         <v>1595.230604037031</v>
       </c>
       <c r="FT75">
-        <v>1404.630063684894</v>
+        <v>1928.463459936561</v>
       </c>
       <c r="FU75">
-        <v>1369.086152435215</v>
+        <v>1932.836975716045</v>
       </c>
       <c r="FV75">
-        <v>1890.93639892742</v>
+        <v>476.7399328676094</v>
       </c>
       <c r="FW75">
-        <v>546.0283918483485</v>
+        <v>2502.223615724191</v>
       </c>
       <c r="FX75">
-        <v>1759.252894451268</v>
+        <v>1221.159922026921</v>
       </c>
       <c r="FY75">
-        <v>1827.021981140202</v>
+        <v>1232.528782669708</v>
       </c>
       <c r="FZ75">
-        <v>325.9135388590792</v>
+        <v>486.0326441292826</v>
       </c>
       <c r="GA75">
-        <v>1081.488532034626</v>
+        <v>484.5110804591059</v>
       </c>
       <c r="GB75">
-        <v>1960.633578879102</v>
+        <v>2250.968703903236</v>
       </c>
       <c r="GC75">
+        <v>2319.398061715976</v>
+      </c>
+      <c r="GD75">
+        <v>1228.705510457825</v>
+      </c>
+      <c r="GE75">
+        <v>224.2374854021976</v>
+      </c>
+      <c r="GF75">
+        <v>2035.69994137336</v>
+      </c>
+      <c r="GG75">
         <v>1998.328918327375</v>
       </c>
-      <c r="GD75">
-        <v>137.3981072880761</v>
+      <c r="GH75">
+        <v>1601.369819397873</v>
+      </c>
+      <c r="GI75">
+        <v>1750.985351687097</v>
+      </c>
+      <c r="GJ75">
+        <v>2431.981251108199</v>
+      </c>
+      <c r="GK75">
+        <v>1603.552937740716</v>
+      </c>
+      <c r="GL75">
+        <v>1569.207324416219</v>
       </c>
     </row>
-    <row r="76" spans="1:186">
+    <row r="76" spans="1:194">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -42896,40 +44696,64 @@
         <v>1483.258354295864</v>
       </c>
       <c r="FT76">
-        <v>1276.40284021037</v>
+        <v>1820.630463283911</v>
       </c>
       <c r="FU76">
-        <v>1234.686132749848</v>
+        <v>1823.785522505112</v>
       </c>
       <c r="FV76">
-        <v>1766.468128509116</v>
+        <v>606.7308341206729</v>
       </c>
       <c r="FW76">
-        <v>487.011547218689</v>
+        <v>2378.450378414138</v>
       </c>
       <c r="FX76">
-        <v>1674.553418278093</v>
+        <v>1085.089812960672</v>
       </c>
       <c r="FY76">
-        <v>1746.609525649385</v>
+        <v>1095.51062419614</v>
       </c>
       <c r="FZ76">
-        <v>324.1557342892302</v>
+        <v>405.7781336251169</v>
       </c>
       <c r="GA76">
-        <v>948.6759183891151</v>
+        <v>407.7673330796325</v>
       </c>
       <c r="GB76">
-        <v>1846.977048451541</v>
+        <v>2120.593147051139</v>
       </c>
       <c r="GC76">
+        <v>2189.431624620642</v>
+      </c>
+      <c r="GD76">
+        <v>1103.433129294198</v>
+      </c>
+      <c r="GE76">
+        <v>181.2894030044008</v>
+      </c>
+      <c r="GF76">
+        <v>1923.600294227255</v>
+      </c>
+      <c r="GG76">
         <v>1885.229780341391</v>
       </c>
-      <c r="GD76">
-        <v>0</v>
+      <c r="GH76">
+        <v>1475.662518801673</v>
+      </c>
+      <c r="GI76">
+        <v>1620.438158095671</v>
+      </c>
+      <c r="GJ76">
+        <v>2295.2138595336</v>
+      </c>
+      <c r="GK76">
+        <v>1528.571909901297</v>
+      </c>
+      <c r="GL76">
+        <v>1491.659691234148</v>
       </c>
     </row>
-    <row r="77" spans="1:186">
+    <row r="77" spans="1:194">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -43456,40 +45280,64 @@
         <v>1386.563828253004</v>
       </c>
       <c r="FT77">
-        <v>1224.890335583636</v>
+        <v>1715.149546015592</v>
       </c>
       <c r="FU77">
-        <v>1213.358985764359</v>
+        <v>1720.567763772338</v>
       </c>
       <c r="FV77">
-        <v>1857.592856382699</v>
+        <v>575.9546717543826</v>
       </c>
       <c r="FW77">
-        <v>662.7394045387417</v>
+        <v>2469.084695111085</v>
       </c>
       <c r="FX77">
-        <v>1535.56679147305</v>
+        <v>1131.178573497587</v>
       </c>
       <c r="FY77">
-        <v>1602.872144433732</v>
+        <v>1129.568180991047</v>
       </c>
       <c r="FZ77">
-        <v>148.7513857171557</v>
+        <v>573.7317210924773</v>
       </c>
       <c r="GA77">
-        <v>1018.131974997718</v>
+        <v>577.5624918194264</v>
       </c>
       <c r="GB77">
-        <v>1752.930284369352</v>
+        <v>2073.938014463946</v>
       </c>
       <c r="GC77">
+        <v>2140.906899322383</v>
+      </c>
+      <c r="GD77">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="GE77">
+        <v>0</v>
+      </c>
+      <c r="GF77">
+        <v>1826.182650569356</v>
+      </c>
+      <c r="GG77">
         <v>1789.937396762529</v>
       </c>
-      <c r="GD77">
-        <v>181.2894030044008</v>
+      <c r="GH77">
+        <v>1565.099913258613</v>
+      </c>
+      <c r="GI77">
+        <v>1692.732673551185</v>
+      </c>
+      <c r="GJ77">
+        <v>2289.807931209242</v>
+      </c>
+      <c r="GK77">
+        <v>1379.34987739488</v>
+      </c>
+      <c r="GL77">
+        <v>1344.975323227697</v>
       </c>
     </row>
-    <row r="78" spans="1:186">
+    <row r="78" spans="1:194">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -44016,40 +45864,64 @@
         <v>1637.217121241835</v>
       </c>
       <c r="FT78">
-        <v>1414.344807589904</v>
+        <v>1976.484025781697</v>
       </c>
       <c r="FU78">
-        <v>1357.913017983126</v>
+        <v>1979.028127841454</v>
       </c>
       <c r="FV78">
-        <v>1798.332658341223</v>
+        <v>577.1982863134238</v>
       </c>
       <c r="FW78">
-        <v>411.0816437505482</v>
+        <v>2407.259504208528</v>
       </c>
       <c r="FX78">
-        <v>1835.79991319492</v>
+        <v>1165.705846379305</v>
       </c>
       <c r="FY78">
-        <v>1907.885477686847</v>
+        <v>1185.103648887182</v>
       </c>
       <c r="FZ78">
-        <v>450.913775465109</v>
+        <v>362.3474142318991</v>
       </c>
       <c r="GA78">
-        <v>1012.615310433973</v>
+        <v>358.7639195965816</v>
       </c>
       <c r="GB78">
-        <v>1999.471197727117</v>
+        <v>2252.761725222908</v>
       </c>
       <c r="GC78">
+        <v>2322.367432356157</v>
+      </c>
+      <c r="GD78">
+        <v>1246.34942642334</v>
+      </c>
+      <c r="GE78">
+        <v>325.4031523102259</v>
+      </c>
+      <c r="GF78">
+        <v>2077.03443532564</v>
+      </c>
+      <c r="GG78">
         <v>2038.059632860892</v>
       </c>
-      <c r="GD78">
-        <v>161.2907276789513</v>
+      <c r="GH78">
+        <v>1511.936170952169</v>
+      </c>
+      <c r="GI78">
+        <v>1671.86851382694</v>
+      </c>
+      <c r="GJ78">
+        <v>2403.050632691989</v>
+      </c>
+      <c r="GK78">
+        <v>1689.527725359579</v>
+      </c>
+      <c r="GL78">
+        <v>1652.798869655626</v>
       </c>
     </row>
-    <row r="79" spans="1:186">
+    <row r="79" spans="1:194">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -44576,40 +46448,64 @@
         <v>674.4512416612494</v>
       </c>
       <c r="FT79">
-        <v>414.6354129681811</v>
+        <v>1020.219060516619</v>
       </c>
       <c r="FU79">
-        <v>420.5664161264548</v>
+        <v>1017.082360099729</v>
       </c>
       <c r="FV79">
-        <v>1373.298226931041</v>
+        <v>1382.587222149701</v>
       </c>
       <c r="FW79">
-        <v>1028.280642550083</v>
+        <v>1939.625037337395</v>
       </c>
       <c r="FX79">
-        <v>1025.863478689789</v>
+        <v>577.7877932716126</v>
       </c>
       <c r="FY79">
-        <v>1118.985232914958</v>
+        <v>525.6502835899378</v>
       </c>
       <c r="FZ79">
-        <v>855.7833727582489</v>
+        <v>922.8702218608049</v>
       </c>
       <c r="GA79">
-        <v>615.9853988904827</v>
+        <v>936.2990545543463</v>
       </c>
       <c r="GB79">
-        <v>1018.237559586634</v>
+        <v>1262.622741749623</v>
       </c>
       <c r="GC79">
+        <v>1330.38100875498</v>
+      </c>
+      <c r="GD79">
+        <v>243.6289659784976</v>
+      </c>
+      <c r="GE79">
+        <v>812.6947054043526</v>
+      </c>
+      <c r="GF79">
+        <v>1100.15644285671</v>
+      </c>
+      <c r="GG79">
         <v>1058.169753410276</v>
       </c>
-      <c r="GD79">
-        <v>862.5592459037262</v>
+      <c r="GH79">
+        <v>1109.604785361275</v>
+      </c>
+      <c r="GI79">
+        <v>1143.231824478726</v>
+      </c>
+      <c r="GJ79">
+        <v>1497.899898365263</v>
+      </c>
+      <c r="GK79">
+        <v>966.6686678914519</v>
+      </c>
+      <c r="GL79">
+        <v>917.7213742844619</v>
       </c>
     </row>
-    <row r="80" spans="1:186">
+    <row r="80" spans="1:194">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -45136,40 +47032,64 @@
         <v>632.9398862959245</v>
       </c>
       <c r="FT80">
-        <v>306.0130855747632</v>
+        <v>971.8134541093157</v>
       </c>
       <c r="FU80">
-        <v>282.377050637132</v>
+        <v>965.182761732832</v>
       </c>
       <c r="FV80">
-        <v>1273.557336349578</v>
+        <v>1513.553693513409</v>
       </c>
       <c r="FW80">
-        <v>1095.311251735366</v>
+        <v>1826.073758601715</v>
       </c>
       <c r="FX80">
-        <v>1038.733462004461</v>
+        <v>496.092848240093</v>
       </c>
       <c r="FY80">
-        <v>1134.903363763771</v>
+        <v>433.5282510262262</v>
       </c>
       <c r="FZ80">
-        <v>990.3860427871608</v>
+        <v>994.9733343838533</v>
       </c>
       <c r="GA80">
-        <v>573.6370536670489</v>
+        <v>1008.707985773778</v>
       </c>
       <c r="GB80">
-        <v>952.2675983627084</v>
+        <v>1142.964825926888</v>
       </c>
       <c r="GC80">
+        <v>1211.946953250025</v>
+      </c>
+      <c r="GD80">
+        <v>177.8786399332136</v>
+      </c>
+      <c r="GE80">
+        <v>940.5815185919871</v>
+      </c>
+      <c r="GF80">
+        <v>1036.348313858974</v>
+      </c>
+      <c r="GG80">
         <v>992.6575982978978</v>
       </c>
-      <c r="GD80">
-        <v>977.6440958475506</v>
+      <c r="GH80">
+        <v>1021.657213076435</v>
+      </c>
+      <c r="GI80">
+        <v>1035.8192848816</v>
+      </c>
+      <c r="GJ80">
+        <v>1361.051770185596</v>
+      </c>
+      <c r="GK80">
+        <v>1006.78973630586</v>
+      </c>
+      <c r="GL80">
+        <v>957.0516653228299</v>
       </c>
     </row>
-    <row r="81" spans="1:186">
+    <row r="81" spans="1:194">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -45696,40 +47616,64 @@
         <v>621.3448838802391</v>
       </c>
       <c r="FT81">
-        <v>211.9925422098528</v>
+        <v>912.4882547655593</v>
       </c>
       <c r="FU81">
-        <v>0</v>
+        <v>898.4297685248182</v>
       </c>
       <c r="FV81">
-        <v>1112.098906652667</v>
+        <v>1788.589441457957</v>
       </c>
       <c r="FW81">
-        <v>1281.528221774515</v>
+        <v>1619.287121571243</v>
       </c>
       <c r="FX81">
-        <v>1101.884478584052</v>
+        <v>449.4253952541186</v>
       </c>
       <c r="FY81">
-        <v>1199.485455459765</v>
+        <v>373.8449167726541</v>
       </c>
       <c r="FZ81">
-        <v>1270.210806071794</v>
+        <v>1191.740476816298</v>
       </c>
       <c r="GA81">
-        <v>604.8643466475432</v>
+        <v>1205.546747075071</v>
       </c>
       <c r="GB81">
-        <v>853.8915499126527</v>
+        <v>903.7920720149059</v>
       </c>
       <c r="GC81">
+        <v>974.857789362021</v>
+      </c>
+      <c r="GD81">
+        <v>295.8191950233522</v>
+      </c>
+      <c r="GE81">
+        <v>1213.358985764359</v>
+      </c>
+      <c r="GF81">
+        <v>938.3132791039594</v>
+      </c>
+      <c r="GG81">
         <v>892.9961822756936</v>
       </c>
-      <c r="GD81">
-        <v>1234.686132749848</v>
+      <c r="GH81">
+        <v>900.554124244367</v>
+      </c>
+      <c r="GI81">
+        <v>860.3717365230295</v>
+      </c>
+      <c r="GJ81">
+        <v>1080.165273336332</v>
+      </c>
+      <c r="GK81">
+        <v>1122.046662222137</v>
+      </c>
+      <c r="GL81">
+        <v>1073.270664886812</v>
       </c>
     </row>
-    <row r="82" spans="1:186">
+    <row r="82" spans="1:194">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -46256,40 +48200,64 @@
         <v>582.6816464437462</v>
       </c>
       <c r="FT82">
-        <v>193.7241692114509</v>
+        <v>903.0691263378221</v>
       </c>
       <c r="FU82">
-        <v>137.5311398406996</v>
+        <v>892.7361530665476</v>
       </c>
       <c r="FV82">
-        <v>1206.658481128847</v>
+        <v>1663.723580182163</v>
       </c>
       <c r="FW82">
-        <v>1209.204222944999</v>
+        <v>1734.500045075881</v>
       </c>
       <c r="FX82">
-        <v>1035.549813751343</v>
+        <v>478.5222352617178</v>
       </c>
       <c r="FY82">
-        <v>1133.25561500881</v>
+        <v>405.5289976565</v>
       </c>
       <c r="FZ82">
-        <v>1140.721943006315</v>
+        <v>1113.473420433824</v>
       </c>
       <c r="GA82">
-        <v>601.0347539873843</v>
+        <v>1127.300881325023</v>
       </c>
       <c r="GB82">
-        <v>864.6662271736374</v>
+        <v>1000.382845051785</v>
       </c>
       <c r="GC82">
+        <v>1070.162094913434</v>
+      </c>
+      <c r="GD82">
+        <v>179.0121187164972</v>
+      </c>
+      <c r="GE82">
+        <v>1090.224183321514</v>
+      </c>
+      <c r="GF82">
+        <v>949.7404794083108</v>
+      </c>
+      <c r="GG82">
         <v>904.8805367692</v>
       </c>
-      <c r="GD82">
-        <v>1122.424606818479</v>
+      <c r="GH82">
+        <v>975.3185350649673</v>
+      </c>
+      <c r="GI82">
+        <v>959.7476094005073</v>
+      </c>
+      <c r="GJ82">
+        <v>1211.423372066764</v>
+      </c>
+      <c r="GK82">
+        <v>1033.766314203484</v>
+      </c>
+      <c r="GL82">
+        <v>984.2351544748586</v>
       </c>
     </row>
-    <row r="83" spans="1:186">
+    <row r="83" spans="1:194">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -46816,40 +48784,64 @@
         <v>410.2639656024951</v>
       </c>
       <c r="FT83">
-        <v>0</v>
+        <v>714.7571321275501</v>
       </c>
       <c r="FU83">
-        <v>211.9925422098528</v>
+        <v>703.09005971198</v>
       </c>
       <c r="FV83">
-        <v>1318.733953250071</v>
+        <v>1790.067691801918</v>
       </c>
       <c r="FW83">
-        <v>1396.01198343432</v>
+        <v>1808.015615423747</v>
       </c>
       <c r="FX83">
-        <v>890.9636984603683</v>
+        <v>649.7771216274914</v>
       </c>
       <c r="FY83">
-        <v>988.4218810096019</v>
+        <v>574.3948185692174</v>
       </c>
       <c r="FZ83">
-        <v>1257.523222365614</v>
+        <v>1297.834673729735</v>
       </c>
       <c r="GA83">
-        <v>788.005044648549</v>
+        <v>1311.622794253509</v>
       </c>
       <c r="GB83">
-        <v>671.3843689584847</v>
+        <v>849.0479585273794</v>
       </c>
       <c r="GC83">
+        <v>916.2421544640426</v>
+      </c>
+      <c r="GD83">
+        <v>187.9009605509411</v>
+      </c>
+      <c r="GE83">
+        <v>1224.890335583636</v>
+      </c>
+      <c r="GF83">
+        <v>756.4832379997104</v>
+      </c>
+      <c r="GG83">
         <v>711.5294305561113</v>
       </c>
-      <c r="GD83">
-        <v>1276.40284021037</v>
+      <c r="GH83">
+        <v>1112.384626586209</v>
+      </c>
+      <c r="GI83">
+        <v>1065.466031040204</v>
+      </c>
+      <c r="GJ83">
+        <v>1130.785046188998</v>
+      </c>
+      <c r="GK83">
+        <v>919.9292358777483</v>
+      </c>
+      <c r="GL83">
+        <v>871.915527224387</v>
       </c>
     </row>
-    <row r="84" spans="1:186">
+    <row r="84" spans="1:194">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -47376,40 +49368,64 @@
         <v>490.7578844520484</v>
       </c>
       <c r="FT84">
-        <v>293.6777176402856</v>
+        <v>836.7465237397375</v>
       </c>
       <c r="FU84">
-        <v>390.3849238910674</v>
+        <v>834.1618669658402</v>
       </c>
       <c r="FV84">
-        <v>1452.930347077751</v>
+        <v>1506.213772885434</v>
       </c>
       <c r="FW84">
-        <v>1211.593457365197</v>
+        <v>1992.307265591839</v>
       </c>
       <c r="FX84">
-        <v>856.6671636209181</v>
+        <v>684.8603651046393</v>
       </c>
       <c r="FY84">
-        <v>951.7955616167743</v>
+        <v>620.4682258459649</v>
       </c>
       <c r="FZ84">
-        <v>971.105242567399</v>
+        <v>1105.486125307638</v>
       </c>
       <c r="GA84">
-        <v>759.8428935813431</v>
+        <v>1118.831974989301</v>
       </c>
       <c r="GB84">
-        <v>839.2199895665752</v>
+        <v>1132.047406759517</v>
       </c>
       <c r="GC84">
+        <v>1196.994772510625</v>
+      </c>
+      <c r="GD84">
+        <v>107.4292940712628</v>
+      </c>
+      <c r="GE84">
+        <v>949.7190605239954</v>
+      </c>
+      <c r="GF84">
+        <v>920.0859112198305</v>
+      </c>
+      <c r="GG84">
         <v>878.8315974729937</v>
       </c>
-      <c r="GD84">
-        <v>1020.226591728707</v>
+      <c r="GH84">
+        <v>1207.283026801016</v>
+      </c>
+      <c r="GI84">
+        <v>1210.555664713934</v>
+      </c>
+      <c r="GJ84">
+        <v>1421.402844152136</v>
+      </c>
+      <c r="GK84">
+        <v>817.57476572644</v>
+      </c>
+      <c r="GL84">
+        <v>767.871983738428</v>
       </c>
     </row>
-    <row r="85" spans="1:186">
+    <row r="85" spans="1:194">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -47936,40 +49952,64 @@
         <v>572.3459735225481</v>
       </c>
       <c r="FT85">
-        <v>406.7498615603797</v>
+        <v>916.8243478267126</v>
       </c>
       <c r="FU85">
-        <v>482.9222352005885</v>
+        <v>916.7263147535766</v>
       </c>
       <c r="FV85">
-        <v>1503.858635952434</v>
+        <v>1393.665695214136</v>
       </c>
       <c r="FW85">
-        <v>1139.234763227529</v>
+        <v>2058.686824062338</v>
       </c>
       <c r="FX85">
-        <v>885.2627783631091</v>
+        <v>716.1616135819735</v>
       </c>
       <c r="FY85">
-        <v>976.9616683642233</v>
+        <v>659.0289736762195</v>
       </c>
       <c r="FZ85">
-        <v>858.1264915265141</v>
+        <v>1030.771435965529</v>
       </c>
       <c r="GA85">
-        <v>763.5803695378321</v>
+        <v>1043.783815426651</v>
       </c>
       <c r="GB85">
-        <v>930.9861915965498</v>
+        <v>1245.425025880942</v>
       </c>
       <c r="GC85">
+        <v>1310.076394589976</v>
+      </c>
+      <c r="GD85">
+        <v>219.1491539917556</v>
+      </c>
+      <c r="GE85">
+        <v>840.5343996236766</v>
+      </c>
+      <c r="GF85">
+        <v>1009.650761368835</v>
+      </c>
+      <c r="GG85">
         <v>969.8852203700901</v>
       </c>
-      <c r="GD85">
-        <v>918.4823343640123</v>
+      <c r="GH85">
+        <v>1246.636412966999</v>
+      </c>
+      <c r="GI85">
+        <v>1267.933700563229</v>
+      </c>
+      <c r="GJ85">
+        <v>1531.5272503234</v>
+      </c>
+      <c r="GK85">
+        <v>819.3353550687783</v>
+      </c>
+      <c r="GL85">
+        <v>770.5699081451664</v>
       </c>
     </row>
-    <row r="86" spans="1:186">
+    <row r="86" spans="1:194">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -48496,40 +50536,64 @@
         <v>420.5131485125544</v>
       </c>
       <c r="FT86">
-        <v>228.2343513300683</v>
+        <v>765.3791952631444</v>
       </c>
       <c r="FU86">
-        <v>360.7341099908504</v>
+        <v>761.6075082716216</v>
       </c>
       <c r="FV86">
-        <v>1452.129922133154</v>
+        <v>1583.914020055373</v>
       </c>
       <c r="FW86">
-        <v>1283.966180389816</v>
+        <v>1977.342631865509</v>
       </c>
       <c r="FX86">
-        <v>815.4727570597178</v>
+        <v>704.5183420213989</v>
       </c>
       <c r="FY86">
-        <v>912.0844778520328</v>
+        <v>635.8870883038577</v>
       </c>
       <c r="FZ86">
-        <v>1048.308713851717</v>
+        <v>1178.852443130503</v>
       </c>
       <c r="GA86">
-        <v>796.7556962495172</v>
+        <v>1192.294019062333</v>
       </c>
       <c r="GB86">
-        <v>762.6929691364261</v>
+        <v>1055.794126046708</v>
       </c>
       <c r="GC86">
+        <v>1120.10535031013</v>
+      </c>
+      <c r="GD86">
+        <v>66.79262625569991</v>
+      </c>
+      <c r="GE86">
+        <v>1029.160186995852</v>
+      </c>
+      <c r="GF86">
+        <v>844.2958458336869</v>
+      </c>
+      <c r="GG86">
         <v>802.5186999172728</v>
       </c>
-      <c r="GD86">
-        <v>1100.127785477576</v>
+      <c r="GH86">
+        <v>1216.485348140689</v>
+      </c>
+      <c r="GI86">
+        <v>1205.47650899798</v>
+      </c>
+      <c r="GJ86">
+        <v>1358.995803506446</v>
+      </c>
+      <c r="GK86">
+        <v>794.6950308769985</v>
+      </c>
+      <c r="GL86">
+        <v>744.9398857485049</v>
       </c>
     </row>
-    <row r="87" spans="1:186">
+    <row r="87" spans="1:194">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -49056,40 +51120,64 @@
         <v>455.1515384320251</v>
       </c>
       <c r="FT87">
-        <v>187.9009605509411</v>
+        <v>795.4111346797201</v>
       </c>
       <c r="FU87">
-        <v>295.8191950233522</v>
+        <v>789.5569285862889</v>
       </c>
       <c r="FV87">
-        <v>1385.569038720099</v>
+        <v>1604.763311894769</v>
       </c>
       <c r="FW87">
-        <v>1261.823060385196</v>
+        <v>1910.927125445697</v>
       </c>
       <c r="FX87">
-        <v>872.6733517525387</v>
+        <v>642.6366431223045</v>
       </c>
       <c r="FY87">
-        <v>969.7956996288503</v>
+        <v>572.8699181703921</v>
       </c>
       <c r="FZ87">
-        <v>1071.090925273024</v>
+        <v>1158.794735382131</v>
       </c>
       <c r="GA87">
-        <v>742.1300272160526</v>
+        <v>1172.394111895128</v>
       </c>
       <c r="GB87">
-        <v>781.6633328847261</v>
+        <v>1032.766324625263</v>
       </c>
       <c r="GC87">
+        <v>1098.819083516361</v>
+      </c>
+      <c r="GD87">
+        <v>0</v>
+      </c>
+      <c r="GE87">
+        <v>1042.939864350439</v>
+      </c>
+      <c r="GF87">
+        <v>864.9100117272241</v>
+      </c>
+      <c r="GG87">
         <v>821.9127281234219</v>
       </c>
-      <c r="GD87">
-        <v>1103.433129294198</v>
+      <c r="GH87">
+        <v>1151.272157527125</v>
+      </c>
+      <c r="GI87">
+        <v>1138.723307843685</v>
+      </c>
+      <c r="GJ87">
+        <v>1313.981033523644</v>
+      </c>
+      <c r="GK87">
+        <v>858.6197069088229</v>
+      </c>
+      <c r="GL87">
+        <v>808.9249118163835</v>
       </c>
     </row>
-    <row r="88" spans="1:186">
+    <row r="88" spans="1:194">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -49616,40 +51704,64 @@
         <v>2085.840642839735</v>
       </c>
       <c r="FT88">
-        <v>1740.438631234766</v>
+        <v>2239.667415991215</v>
       </c>
       <c r="FU88">
-        <v>1559.620536310007</v>
+        <v>2214.91712298778</v>
       </c>
       <c r="FV88">
-        <v>629.7390398150832</v>
+        <v>2990.883971444247</v>
       </c>
       <c r="FW88">
-        <v>2097.559283836537</v>
+        <v>143.0416520787503</v>
       </c>
       <c r="FX88">
-        <v>2583.381310184317</v>
+        <v>1364.303128891742</v>
       </c>
       <c r="FY88">
-        <v>2675.246242760777</v>
+        <v>1392.160230471693</v>
       </c>
       <c r="FZ88">
-        <v>2584.522796704426</v>
+        <v>2086.381430791831</v>
       </c>
       <c r="GA88">
-        <v>1450.574424036748</v>
+        <v>2095.019934144823</v>
       </c>
       <c r="GB88">
-        <v>2117.973043275126</v>
+        <v>1633.819771344985</v>
       </c>
       <c r="GC88">
+        <v>1669.393447848098</v>
+      </c>
+      <c r="GD88">
+        <v>1854.168852944468</v>
+      </c>
+      <c r="GE88">
+        <v>2468.334609723202</v>
+      </c>
+      <c r="GF88">
+        <v>2176.569414190051</v>
+      </c>
+      <c r="GG88">
         <v>2141.60097883191</v>
       </c>
-      <c r="GD88">
-        <v>2387.110114446656</v>
+      <c r="GH88">
+        <v>913.4685046215703</v>
+      </c>
+      <c r="GI88">
+        <v>779.4469863019267</v>
+      </c>
+      <c r="GJ88">
+        <v>1162.365885000306</v>
+      </c>
+      <c r="GK88">
+        <v>2650.942017160602</v>
+      </c>
+      <c r="GL88">
+        <v>2604.70555940965</v>
       </c>
     </row>
-    <row r="89" spans="1:186">
+    <row r="89" spans="1:194">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -50176,40 +52288,64 @@
         <v>2166.661152871417</v>
       </c>
       <c r="FT89">
-        <v>1808.015615423747</v>
+        <v>2336.04742417552</v>
       </c>
       <c r="FU89">
-        <v>1619.287121571243</v>
+        <v>2311.862810038825</v>
       </c>
       <c r="FV89">
-        <v>612.2011787023229</v>
+        <v>2978.161445398661</v>
       </c>
       <c r="FW89">
-        <v>2064.612053979791</v>
+        <v>0</v>
       </c>
       <c r="FX89">
-        <v>2665.886041556122</v>
+        <v>1387.394876575396</v>
       </c>
       <c r="FY89">
-        <v>2759.125586227252</v>
+        <v>1422.208408237486</v>
       </c>
       <c r="FZ89">
-        <v>2590.340308597805</v>
+        <v>2060.938632139293</v>
       </c>
       <c r="GA89">
-        <v>1456.300827132447</v>
+        <v>2068.825986885106</v>
       </c>
       <c r="GB89">
-        <v>2217.580546933605</v>
+        <v>1752.997237725009</v>
       </c>
       <c r="GC89">
+        <v>1791.333238778456</v>
+      </c>
+      <c r="GD89">
+        <v>1910.927125445697</v>
+      </c>
+      <c r="GE89">
+        <v>2469.084695111085</v>
+      </c>
+      <c r="GF89">
+        <v>2278.959077323523</v>
+      </c>
+      <c r="GG89">
         <v>2242.715469121756</v>
       </c>
-      <c r="GD89">
-        <v>2378.450378414138</v>
+      <c r="GH89">
+        <v>904.2643322405752</v>
+      </c>
+      <c r="GI89">
+        <v>800.6469760851916</v>
+      </c>
+      <c r="GJ89">
+        <v>1294.431249717264</v>
+      </c>
+      <c r="GK89">
+        <v>2724.522184902092</v>
+      </c>
+      <c r="GL89">
+        <v>2677.482710022975</v>
       </c>
     </row>
-    <row r="90" spans="1:186">
+    <row r="90" spans="1:194">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -50736,40 +52872,64 @@
         <v>2341.336685435321</v>
       </c>
       <c r="FT90">
-        <v>1992.113654426658</v>
+        <v>2495.76116965053</v>
       </c>
       <c r="FU90">
-        <v>1807.837087659171</v>
+        <v>2470.943965691038</v>
       </c>
       <c r="FV90">
-        <v>814.420760765028</v>
+        <v>3179.072486159952</v>
       </c>
       <c r="FW90">
-        <v>2260.555485237192</v>
+        <v>202.7073544089431</v>
       </c>
       <c r="FX90">
-        <v>2839.229618459596</v>
+        <v>1588.352417630815</v>
       </c>
       <c r="FY90">
-        <v>2931.283173519457</v>
+        <v>1621.767263050305</v>
       </c>
       <c r="FZ90">
-        <v>2793.045987373165</v>
+        <v>2259.302450540692</v>
       </c>
       <c r="GA90">
-        <v>1658.983447191009</v>
+        <v>2266.966087105634</v>
       </c>
       <c r="GB90">
-        <v>2373.592226561971</v>
+        <v>1880.415390181699</v>
       </c>
       <c r="GC90">
+        <v>1913.33243001511</v>
+      </c>
+      <c r="GD90">
+        <v>2101.186822142997</v>
+      </c>
+      <c r="GE90">
+        <v>2671.654711549311</v>
+      </c>
+      <c r="GF90">
+        <v>2431.53950724658</v>
+      </c>
+      <c r="GG90">
         <v>2396.896899145033</v>
       </c>
-      <c r="GD90">
-        <v>2580.165780139078</v>
+      <c r="GH90">
+        <v>1106.692342292056</v>
+      </c>
+      <c r="GI90">
+        <v>1001.147029493405</v>
+      </c>
+      <c r="GJ90">
+        <v>1393.752125503732</v>
+      </c>
+      <c r="GK90">
+        <v>2904.903138690216</v>
+      </c>
+      <c r="GL90">
+        <v>2858.427081327212</v>
       </c>
     </row>
-    <row r="91" spans="1:186">
+    <row r="91" spans="1:194">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -51296,40 +53456,64 @@
         <v>2032.218298615531</v>
       </c>
       <c r="FT91">
-        <v>1646.069401725078</v>
+        <v>2244.146852220346</v>
       </c>
       <c r="FU91">
-        <v>1442.880205736041</v>
+        <v>2222.063172558537</v>
       </c>
       <c r="FV91">
-        <v>340.5001789684775</v>
+        <v>2666.033997145066</v>
       </c>
       <c r="FW91">
-        <v>1736.503454204559</v>
+        <v>342.5767844385426</v>
       </c>
       <c r="FX91">
-        <v>2529.79355376341</v>
+        <v>1141.228036364358</v>
       </c>
       <c r="FY91">
-        <v>2625.882080607564</v>
+        <v>1188.181813843192</v>
       </c>
       <c r="FZ91">
-        <v>2302.050943033654</v>
+        <v>1739.202208330768</v>
       </c>
       <c r="GA91">
-        <v>1179.000189021479</v>
+        <v>1746.375859304177</v>
       </c>
       <c r="GB91">
-        <v>2137.615585106028</v>
+        <v>1753.151848716588</v>
       </c>
       <c r="GC91">
+        <v>1802.407271748945</v>
+      </c>
+      <c r="GD91">
+        <v>1721.52108531072</v>
+      </c>
+      <c r="GE91">
+        <v>2174.624107184008</v>
+      </c>
+      <c r="GF91">
+        <v>2207.179187943532</v>
+      </c>
+      <c r="GG91">
         <v>2167.264072148903</v>
       </c>
-      <c r="GD91">
-        <v>2072.815635888687</v>
+      <c r="GH91">
+        <v>620.8987402173531</v>
+      </c>
+      <c r="GI91">
+        <v>583.1291439083998</v>
+      </c>
+      <c r="GJ91">
+        <v>1369.440922737579</v>
+      </c>
+      <c r="GK91">
+        <v>2564.584303995168</v>
+      </c>
+      <c r="GL91">
+        <v>2515.976150313739</v>
       </c>
     </row>
-    <row r="92" spans="1:186">
+    <row r="92" spans="1:194">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -51856,40 +54040,64 @@
         <v>2188.53726030792</v>
       </c>
       <c r="FT92">
-        <v>1819.985043012487</v>
+        <v>2371.234871509107</v>
       </c>
       <c r="FU92">
-        <v>1625.717722770595</v>
+        <v>2347.611344616486</v>
       </c>
       <c r="FV92">
-        <v>574.3830556368341</v>
+        <v>2928.55245556869</v>
       </c>
       <c r="FW92">
-        <v>2003.543313126395</v>
+        <v>105.1140432231545</v>
       </c>
       <c r="FX92">
-        <v>2688.223549350592</v>
+        <v>1367.400818684422</v>
       </c>
       <c r="FY92">
-        <v>2782.508769643509</v>
+        <v>1407.103660764345</v>
       </c>
       <c r="FZ92">
-        <v>2553.844855762413</v>
+        <v>2004.65466086919</v>
       </c>
       <c r="GA92">
-        <v>1423.404806204417</v>
+        <v>2012.040044084684</v>
       </c>
       <c r="GB92">
-        <v>2255.956067238684</v>
+        <v>1811.52280855225</v>
       </c>
       <c r="GC92">
+        <v>1852.715799027494</v>
+      </c>
+      <c r="GD92">
+        <v>1913.887027965326</v>
+      </c>
+      <c r="GE92">
+        <v>2429.319500166556</v>
+      </c>
+      <c r="GF92">
+        <v>2319.808370857867</v>
+      </c>
+      <c r="GG92">
         <v>2282.439818703921</v>
       </c>
-      <c r="GD92">
-        <v>2332.485326838606</v>
+      <c r="GH92">
+        <v>865.9787757738875</v>
+      </c>
+      <c r="GI92">
+        <v>786.1040075127011</v>
+      </c>
+      <c r="GJ92">
+        <v>1368.703328815124</v>
+      </c>
+      <c r="GK92">
+        <v>2739.198667521616</v>
+      </c>
+      <c r="GL92">
+        <v>2691.566375012972</v>
       </c>
     </row>
-    <row r="93" spans="1:186">
+    <row r="93" spans="1:194">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -52416,40 +54624,64 @@
         <v>2061.247868539997</v>
       </c>
       <c r="FT93">
-        <v>1701.590377244064</v>
+        <v>2233.70971626542</v>
       </c>
       <c r="FU93">
-        <v>1512.789153498068</v>
+        <v>2209.694795119422</v>
       </c>
       <c r="FV93">
-        <v>520.9447492018544</v>
+        <v>2888.052681764204</v>
       </c>
       <c r="FW93">
-        <v>1983.373323291821</v>
+        <v>106.514079164533</v>
       </c>
       <c r="FX93">
-        <v>2560.605198348382</v>
+        <v>1285.188909470451</v>
       </c>
       <c r="FY93">
-        <v>2654.028735718156</v>
+        <v>1318.632670051318</v>
       </c>
       <c r="FZ93">
-        <v>2493.431822771382</v>
+        <v>1976.025989532269</v>
       </c>
       <c r="GA93">
-        <v>1358.758856541469</v>
+        <v>1984.272077937879</v>
       </c>
       <c r="GB93">
-        <v>2116.26091364059</v>
+        <v>1661.413652401142</v>
       </c>
       <c r="GC93">
+        <v>1701.692799596894</v>
+      </c>
+      <c r="GD93">
+        <v>1804.527133820729</v>
+      </c>
+      <c r="GE93">
+        <v>2373.791387667277</v>
+      </c>
+      <c r="GF93">
+        <v>2178.549681018178</v>
+      </c>
+      <c r="GG93">
         <v>2141.880606063021</v>
       </c>
-      <c r="GD93">
-        <v>2286.529504182276</v>
+      <c r="GH93">
+        <v>810.9090465081212</v>
+      </c>
+      <c r="GI93">
+        <v>697.9361862260564</v>
+      </c>
+      <c r="GJ93">
+        <v>1215.68886474172</v>
+      </c>
+      <c r="GK93">
+        <v>2618.322594663708</v>
+      </c>
+      <c r="GL93">
+        <v>2571.234899093045</v>
       </c>
     </row>
-    <row r="94" spans="1:186">
+    <row r="94" spans="1:194">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -52976,40 +55208,64 @@
         <v>2233.877809707645</v>
       </c>
       <c r="FT94">
-        <v>1855.620481965435</v>
+        <v>2430.452446533699</v>
       </c>
       <c r="FU94">
-        <v>1656.050432871269</v>
+        <v>2407.468225111111</v>
       </c>
       <c r="FV94">
-        <v>567.5175633086475</v>
+        <v>2888.360523271532</v>
       </c>
       <c r="FW94">
-        <v>1950.357203408483</v>
+        <v>226.9480192324523</v>
       </c>
       <c r="FX94">
-        <v>2733.035398948155</v>
+        <v>1368.854225280954</v>
       </c>
       <c r="FY94">
-        <v>2828.310470874469</v>
+        <v>1414.063883308888</v>
       </c>
       <c r="FZ94">
-        <v>2530.657392835387</v>
+        <v>1957.752042229672</v>
       </c>
       <c r="GA94">
-        <v>1408.805720404409</v>
+        <v>1964.461121147874</v>
       </c>
       <c r="GB94">
-        <v>2318.761380137869</v>
+        <v>1895.737273710907</v>
       </c>
       <c r="GC94">
+        <v>1939.61708225742</v>
+      </c>
+      <c r="GD94">
+        <v>1939.100645380867</v>
+      </c>
+      <c r="GE94">
+        <v>2402.350000456121</v>
+      </c>
+      <c r="GF94">
+        <v>2385.074527866841</v>
+      </c>
+      <c r="GG94">
         <v>2346.603527209609</v>
       </c>
-      <c r="GD94">
-        <v>2297.971969800574</v>
+      <c r="GH94">
+        <v>850.6764724036894</v>
+      </c>
+      <c r="GI94">
+        <v>801.3421166641861</v>
+      </c>
+      <c r="GJ94">
+        <v>1468.734947707836</v>
+      </c>
+      <c r="GK94">
+        <v>2775.478246128722</v>
+      </c>
+      <c r="GL94">
+        <v>2727.26961221897</v>
       </c>
     </row>
-    <row r="95" spans="1:186">
+    <row r="95" spans="1:194">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -53536,40 +55792,64 @@
         <v>2068.688137287756</v>
       </c>
       <c r="FT95">
-        <v>1716.697534306984</v>
+        <v>2231.075008050379</v>
       </c>
       <c r="FU95">
-        <v>1532.214319171318</v>
+        <v>2206.651689142485</v>
       </c>
       <c r="FV95">
-        <v>575.5769397304546</v>
+        <v>2940.069799676609</v>
       </c>
       <c r="FW95">
-        <v>2042.132703633684</v>
+        <v>113.6357700454867</v>
       </c>
       <c r="FX95">
-        <v>2567.246688319327</v>
+        <v>1322.841207973713</v>
       </c>
       <c r="FY95">
-        <v>2659.846391539954</v>
+        <v>1353.075598856881</v>
       </c>
       <c r="FZ95">
-        <v>2538.50252016393</v>
+        <v>2032.442895648493</v>
       </c>
       <c r="GA95">
-        <v>1403.90047198046</v>
+        <v>2040.928815681496</v>
       </c>
       <c r="GB95">
-        <v>2111.278137876585</v>
+        <v>1640.516312538851</v>
       </c>
       <c r="GC95">
+        <v>1678.350719172</v>
+      </c>
+      <c r="GD95">
+        <v>1825.722393253814</v>
+      </c>
+      <c r="GE95">
+        <v>2420.857723788964</v>
+      </c>
+      <c r="GF95">
+        <v>2171.606901020014</v>
+      </c>
+      <c r="GG95">
         <v>2135.836312831071</v>
       </c>
-      <c r="GD95">
-        <v>2337.137084804796</v>
+      <c r="GH95">
+        <v>862.0755880038261</v>
+      </c>
+      <c r="GI95">
+        <v>736.1904849206278</v>
+      </c>
+      <c r="GJ95">
+        <v>1180.967236908127</v>
+      </c>
+      <c r="GK95">
+        <v>2630.388551976846</v>
+      </c>
+      <c r="GL95">
+        <v>2583.756175746235</v>
       </c>
     </row>
-    <row r="96" spans="1:186">
+    <row r="96" spans="1:194">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -54096,40 +56376,64 @@
         <v>1762.294127114606</v>
       </c>
       <c r="FT96">
-        <v>1454.332293229703</v>
+        <v>2108.254041354794</v>
       </c>
       <c r="FU96">
-        <v>1337.473846635528</v>
+        <v>2105.226206273136</v>
       </c>
       <c r="FV96">
-        <v>1490.783063696187</v>
+        <v>981.5638096654868</v>
       </c>
       <c r="FW96">
-        <v>60.0945328883939</v>
+        <v>2082.420511046259</v>
       </c>
       <c r="FX96">
-        <v>2056.225887684361</v>
+        <v>1016.302638479606</v>
       </c>
       <c r="FY96">
-        <v>2139.401278860867</v>
+        <v>1061.229305059099</v>
       </c>
       <c r="FZ96">
-        <v>850.535110643594</v>
+        <v>170.6649841279464</v>
       </c>
       <c r="GA96">
-        <v>831.7331936287776</v>
+        <v>158.7975272920787</v>
       </c>
       <c r="GB96">
-        <v>2102.918498254423</v>
+        <v>2235.789718278801</v>
       </c>
       <c r="GC96">
+        <v>2307.376342819616</v>
+      </c>
+      <c r="GD96">
+        <v>1321.276780816838</v>
+      </c>
+      <c r="GE96">
+        <v>705.0375249777818</v>
+      </c>
+      <c r="GF96">
+        <v>2185.937570322461</v>
+      </c>
+      <c r="GG96">
         <v>2143.140561498782</v>
       </c>
-      <c r="GD96">
-        <v>526.4692782087576</v>
+      <c r="GH96">
+        <v>1223.45336699344</v>
+      </c>
+      <c r="GI96">
+        <v>1412.798527460381</v>
+      </c>
+      <c r="GJ96">
+        <v>2286.439210074429</v>
+      </c>
+      <c r="GK96">
+        <v>1941.317257521933</v>
+      </c>
+      <c r="GL96">
+        <v>1898.645879019992</v>
       </c>
     </row>
-    <row r="97" spans="1:186">
+    <row r="97" spans="1:194">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -54656,40 +56960,64 @@
         <v>1622.338170277859</v>
       </c>
       <c r="FT97">
-        <v>1307.985543844348</v>
+        <v>1967.951750157699</v>
       </c>
       <c r="FU97">
-        <v>1189.262650007685</v>
+        <v>1964.297019334483</v>
       </c>
       <c r="FV97">
-        <v>1388.796834748075</v>
+        <v>1020.959963425247</v>
       </c>
       <c r="FW97">
-        <v>95.50454497260695</v>
+        <v>1989.434008756974</v>
       </c>
       <c r="FX97">
-        <v>1930.150333066182</v>
+        <v>873.1904658915012</v>
       </c>
       <c r="FY97">
-        <v>2015.274293857335</v>
+        <v>915.9310608499345</v>
       </c>
       <c r="FZ97">
-        <v>807.3202565481743</v>
+        <v>87.61283975886599</v>
       </c>
       <c r="GA97">
-        <v>690.9640408768793</v>
+        <v>88.70081518985772</v>
       </c>
       <c r="GB97">
-        <v>1959.681327754257</v>
+        <v>2087.602538020352</v>
       </c>
       <c r="GC97">
+        <v>2159.181325165369</v>
+      </c>
+      <c r="GD97">
+        <v>1178.127312488492</v>
+      </c>
+      <c r="GE97">
+        <v>658.602244913885</v>
+      </c>
+      <c r="GF97">
+        <v>2043.037322888909</v>
+      </c>
+      <c r="GG97">
         <v>1999.969643220091</v>
       </c>
-      <c r="GD97">
-        <v>492.8048197742068</v>
+      <c r="GH97">
+        <v>1112.858805657678</v>
+      </c>
+      <c r="GI97">
+        <v>1293.901133643789</v>
+      </c>
+      <c r="GJ97">
+        <v>2143.922720523957</v>
+      </c>
+      <c r="GK97">
+        <v>1822.818617969534</v>
+      </c>
+      <c r="GL97">
+        <v>1778.976847245407</v>
       </c>
     </row>
-    <row r="98" spans="1:186">
+    <row r="98" spans="1:194">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -55216,40 +57544,64 @@
         <v>1702.347825829961</v>
       </c>
       <c r="FT98">
-        <v>1396.01198343432</v>
+        <v>2048.326903498619</v>
       </c>
       <c r="FU98">
-        <v>1281.528221774515</v>
+        <v>2045.36287956254</v>
       </c>
       <c r="FV98">
-        <v>1468.200226639043</v>
+        <v>971.7399439992511</v>
       </c>
       <c r="FW98">
-        <v>0</v>
+        <v>2064.612053979791</v>
       </c>
       <c r="FX98">
-        <v>1996.768719322315</v>
+        <v>968.6136688862637</v>
       </c>
       <c r="FY98">
-        <v>2080.178776275282</v>
+        <v>1011.405534579599</v>
       </c>
       <c r="FZ98">
-        <v>809.7785923858052</v>
+        <v>111.5757229068901</v>
       </c>
       <c r="GA98">
-        <v>785.968908805777</v>
+        <v>100.4439222071138</v>
       </c>
       <c r="GB98">
-        <v>2043.423364269398</v>
+        <v>2181.129490787039</v>
       </c>
       <c r="GC98">
+        <v>2252.672164175856</v>
+      </c>
+      <c r="GD98">
+        <v>1261.823060385196</v>
+      </c>
+      <c r="GE98">
+        <v>662.7394045387417</v>
+      </c>
+      <c r="GF98">
+        <v>2126.369210130919</v>
+      </c>
+      <c r="GG98">
         <v>2083.629380884304</v>
       </c>
-      <c r="GD98">
-        <v>487.011547218689</v>
+      <c r="GH98">
+        <v>1196.240769113751</v>
+      </c>
+      <c r="GI98">
+        <v>1381.231187581728</v>
+      </c>
+      <c r="GJ98">
+        <v>2239.32858767394</v>
+      </c>
+      <c r="GK98">
+        <v>1882.857872641294</v>
+      </c>
+      <c r="GL98">
+        <v>1840.003959379539</v>
       </c>
     </row>
-    <row r="99" spans="1:186">
+    <row r="99" spans="1:194">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -55776,40 +58128,64 @@
         <v>1609.349008123349</v>
       </c>
       <c r="FT99">
-        <v>1311.622794253509</v>
+        <v>1955.418899440925</v>
       </c>
       <c r="FU99">
-        <v>1205.546747075071</v>
+        <v>1952.982896594497</v>
       </c>
       <c r="FV99">
-        <v>1465.440699228469</v>
+        <v>933.5392674050487</v>
       </c>
       <c r="FW99">
-        <v>100.4439222071138</v>
+        <v>2068.825986885106</v>
       </c>
       <c r="FX99">
-        <v>1897.620508903207</v>
+        <v>916.2446654026324</v>
       </c>
       <c r="FY99">
-        <v>1980.648067372531</v>
+        <v>953.4334109263303</v>
       </c>
       <c r="FZ99">
-        <v>725.9169775681808</v>
+        <v>13.83504918951825</v>
       </c>
       <c r="GA99">
-        <v>739.6756873231482</v>
+        <v>0</v>
       </c>
       <c r="GB99">
-        <v>1953.379704468822</v>
+        <v>2107.965774877132</v>
       </c>
       <c r="GC99">
+        <v>2179.335612632073</v>
+      </c>
+      <c r="GD99">
+        <v>1172.394111895128</v>
+      </c>
+      <c r="GE99">
+        <v>577.5624918194264</v>
+      </c>
+      <c r="GF99">
+        <v>2035.894707837518</v>
+      </c>
+      <c r="GG99">
         <v>1993.486321841032</v>
       </c>
-      <c r="GD99">
-        <v>407.7673330796325</v>
+      <c r="GH99">
+        <v>1186.099632916821</v>
+      </c>
+      <c r="GI99">
+        <v>1361.849022960681</v>
+      </c>
+      <c r="GJ99">
+        <v>2185.207656289705</v>
+      </c>
+      <c r="GK99">
+        <v>1782.653275156888</v>
+      </c>
+      <c r="GL99">
+        <v>1739.906634973697</v>
       </c>
     </row>
-    <row r="100" spans="1:186">
+    <row r="100" spans="1:194">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -56336,40 +58712,64 @@
         <v>1662.564205898721</v>
       </c>
       <c r="FT100">
-        <v>1370.149499797127</v>
+        <v>2008.589539067732</v>
       </c>
       <c r="FU100">
-        <v>1266.624573983381</v>
+        <v>2006.601835141661</v>
       </c>
       <c r="FV100">
-        <v>1516.955095705132</v>
+        <v>898.5532901470923</v>
       </c>
       <c r="FW100">
-        <v>82.58726662375588</v>
+        <v>2118.036163968248</v>
       </c>
       <c r="FX100">
-        <v>1941.824946580788</v>
+        <v>978.4639531158158</v>
       </c>
       <c r="FY100">
-        <v>2023.648622031338</v>
+        <v>1015.944343758013</v>
       </c>
       <c r="FZ100">
-        <v>727.8847533122329</v>
+        <v>75.91839018883931</v>
       </c>
       <c r="GA100">
-        <v>801.1993631117732</v>
+        <v>62.5477954831233</v>
       </c>
       <c r="GB100">
-        <v>2008.721719245918</v>
+        <v>2169.402735092009</v>
       </c>
       <c r="GC100">
+        <v>2240.735552766595</v>
+      </c>
+      <c r="GD100">
+        <v>1228.46894317921</v>
+      </c>
+      <c r="GE100">
+        <v>581.262218244234</v>
+      </c>
+      <c r="GF100">
+        <v>2090.924716560691</v>
+      </c>
+      <c r="GG100">
         <v>2048.751655189954</v>
       </c>
-      <c r="GD100">
-        <v>404.705062227588</v>
+      <c r="GH100">
+        <v>1239.879054014928</v>
+      </c>
+      <c r="GI100">
+        <v>1418.426355314332</v>
+      </c>
+      <c r="GJ100">
+        <v>2247.651411534252</v>
+      </c>
+      <c r="GK100">
+        <v>1822.596515017895</v>
+      </c>
+      <c r="GL100">
+        <v>1780.550999277638</v>
       </c>
     </row>
-    <row r="101" spans="1:186">
+    <row r="101" spans="1:194">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -56896,40 +59296,64 @@
         <v>1596.044088785165</v>
       </c>
       <c r="FT101">
-        <v>1297.834673729735</v>
+        <v>1942.111631994064</v>
       </c>
       <c r="FU101">
-        <v>1191.740476816298</v>
+        <v>1939.623997141491</v>
       </c>
       <c r="FV101">
-        <v>1456.902353546904</v>
+        <v>938.1754923583968</v>
       </c>
       <c r="FW101">
-        <v>111.5757229068901</v>
+        <v>2060.938632139293</v>
       </c>
       <c r="FX101">
-        <v>1885.562437974356</v>
+        <v>903.4791375835238</v>
       </c>
       <c r="FY101">
-        <v>1968.775145502505</v>
+        <v>940.3210961744718</v>
       </c>
       <c r="FZ101">
-        <v>722.2786785354651</v>
+        <v>0</v>
       </c>
       <c r="GA101">
-        <v>727.4034514751789</v>
+        <v>13.83504918951825</v>
       </c>
       <c r="GB101">
-        <v>1939.837124801346</v>
+        <v>2094.194025192947</v>
       </c>
       <c r="GC101">
+        <v>2165.559827437926</v>
+      </c>
+      <c r="GD101">
+        <v>1158.794735382131</v>
+      </c>
+      <c r="GE101">
+        <v>573.7317210924773</v>
+      </c>
+      <c r="GF101">
+        <v>2022.382432832028</v>
+      </c>
+      <c r="GG101">
         <v>1979.950877308033</v>
       </c>
-      <c r="GD101">
-        <v>405.7781336251169</v>
+      <c r="GH101">
+        <v>1176.8699027501</v>
+      </c>
+      <c r="GI101">
+        <v>1351.636941548084</v>
+      </c>
+      <c r="GJ101">
+        <v>2172.194737866935</v>
+      </c>
+      <c r="GK101">
+        <v>1771.288616454721</v>
+      </c>
+      <c r="GL101">
+        <v>1728.428836461589</v>
       </c>
     </row>
-    <row r="102" spans="1:186">
+    <row r="102" spans="1:194">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -57456,40 +59880,64 @@
         <v>1705.113718739868</v>
       </c>
       <c r="FT102">
-        <v>1401.755446385303</v>
+        <v>2051.151029779838</v>
       </c>
       <c r="FU102">
-        <v>1289.392089422479</v>
+        <v>2048.413114023567</v>
       </c>
       <c r="FV102">
-        <v>1484.803930059252</v>
+        <v>954.8776542162676</v>
       </c>
       <c r="FW102">
-        <v>17.27877067005251</v>
+        <v>2081.539941752834</v>
       </c>
       <c r="FX102">
-        <v>1995.743928471415</v>
+        <v>980.5611692648703</v>
       </c>
       <c r="FY102">
-        <v>2078.71904921713</v>
+        <v>1022.543709604305</v>
       </c>
       <c r="FZ102">
-        <v>797.8701798809374</v>
+        <v>110.4496145740397</v>
       </c>
       <c r="GA102">
-        <v>798.6172872664207</v>
+        <v>98.1261898070404</v>
       </c>
       <c r="GB102">
-        <v>2047.392900929375</v>
+        <v>2189.744111833585</v>
       </c>
       <c r="GC102">
+        <v>2261.255774144741</v>
+      </c>
+      <c r="GD102">
+        <v>1265.938970684921</v>
+      </c>
+      <c r="GE102">
+        <v>651.2471847907051</v>
+      </c>
+      <c r="GF102">
+        <v>2130.182439044253</v>
+      </c>
+      <c r="GG102">
         <v>2087.564402706695</v>
       </c>
-      <c r="GD102">
-        <v>474.574793622317</v>
+      <c r="GH102">
+        <v>1212.406763185626</v>
+      </c>
+      <c r="GI102">
+        <v>1396.807235671371</v>
+      </c>
+      <c r="GJ102">
+        <v>2251.296659748836</v>
+      </c>
+      <c r="GK102">
+        <v>1880.298620370099</v>
+      </c>
+      <c r="GL102">
+        <v>1837.679661501414</v>
       </c>
     </row>
-    <row r="103" spans="1:186">
+    <row r="103" spans="1:194">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -58016,40 +60464,64 @@
         <v>1598.17968480109</v>
       </c>
       <c r="FT103">
-        <v>1273.021128803345</v>
+        <v>1942.946648960304</v>
       </c>
       <c r="FU103">
-        <v>1146.532760020391</v>
+        <v>1938.42646261254</v>
       </c>
       <c r="FV103">
-        <v>1321.312309578699</v>
+        <v>1083.517876147561</v>
       </c>
       <c r="FW103">
-        <v>156.1299639899798</v>
+        <v>1922.207543064886</v>
       </c>
       <c r="FX103">
-        <v>1920.375945433278</v>
+        <v>816.3471326649641</v>
       </c>
       <c r="FY103">
-        <v>2007.087518780928</v>
+        <v>861.8128312620785</v>
       </c>
       <c r="FZ103">
-        <v>848.5833796309727</v>
+        <v>145.4376092883847</v>
       </c>
       <c r="GA103">
-        <v>631.9538617667313</v>
+        <v>150.2341882903527</v>
       </c>
       <c r="GB103">
-        <v>1930.301941316286</v>
+        <v>2041.16164102135</v>
       </c>
       <c r="GC103">
+        <v>2112.807597626796</v>
+      </c>
+      <c r="GD103">
+        <v>1149.921450787148</v>
+      </c>
+      <c r="GE103">
+        <v>700.0178935918827</v>
+      </c>
+      <c r="GF103">
+        <v>2014.144462413882</v>
+      </c>
+      <c r="GG103">
         <v>1970.668670968541</v>
       </c>
-      <c r="GD103">
-        <v>541.0511406344351</v>
+      <c r="GH103">
+        <v>1045.502260162672</v>
+      </c>
+      <c r="GI103">
+        <v>1227.319579812149</v>
+      </c>
+      <c r="GJ103">
+        <v>2086.50984087331</v>
+      </c>
+      <c r="GK103">
+        <v>1819.48710562677</v>
+      </c>
+      <c r="GL103">
+        <v>1774.792026467163</v>
       </c>
     </row>
-    <row r="104" spans="1:186">
+    <row r="104" spans="1:194">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -58576,40 +61048,64 @@
         <v>570.8000231720082</v>
       </c>
       <c r="FT104">
-        <v>973.0478159985477</v>
+        <v>456.9328481430812</v>
       </c>
       <c r="FU104">
-        <v>1184.922607541452</v>
+        <v>484.1451668443775</v>
       </c>
       <c r="FV104">
-        <v>2283.716066382881</v>
+        <v>2062.459549219011</v>
       </c>
       <c r="FW104">
-        <v>2104.155556190674</v>
+        <v>2728.475511396906</v>
       </c>
       <c r="FX104">
-        <v>107.8368030125127</v>
+        <v>1603.969798937923</v>
       </c>
       <c r="FY104">
-        <v>66.90852831829814</v>
+        <v>1531.163239847011</v>
       </c>
       <c r="FZ104">
-        <v>1580.268526119061</v>
+        <v>1992.99420417872</v>
       </c>
       <c r="GA104">
-        <v>1708.561029432534</v>
+        <v>2005.084062878855</v>
       </c>
       <c r="GB104">
-        <v>595.2666741366426</v>
+        <v>1222.229948182216</v>
       </c>
       <c r="GC104">
+        <v>1244.441359812316</v>
+      </c>
+      <c r="GD104">
+        <v>967.1762537502468</v>
+      </c>
+      <c r="GE104">
+        <v>1641.795950747206</v>
+      </c>
+      <c r="GF104">
+        <v>585.354226515603</v>
+      </c>
+      <c r="GG104">
         <v>594.2199238812041</v>
       </c>
-      <c r="GD104">
-        <v>1781.819075279842</v>
+      <c r="GH104">
+        <v>2085.431775567331</v>
+      </c>
+      <c r="GI104">
+        <v>2029.097875393732</v>
+      </c>
+      <c r="GJ104">
+        <v>1738.236489288902</v>
+      </c>
+      <c r="GK104">
+        <v>290.1831012974997</v>
+      </c>
+      <c r="GL104">
+        <v>308.2007945522555</v>
       </c>
     </row>
-    <row r="105" spans="1:186">
+    <row r="105" spans="1:194">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -59136,40 +61632,64 @@
         <v>512.838883159973</v>
       </c>
       <c r="FT105">
-        <v>917.6466603534349</v>
+        <v>398.3844104570986</v>
       </c>
       <c r="FU105">
-        <v>1129.634438094124</v>
+        <v>425.4443118228322</v>
       </c>
       <c r="FV105">
-        <v>2225.661375217637</v>
+        <v>2058.995117655576</v>
       </c>
       <c r="FW105">
-        <v>2072.913971981963</v>
+        <v>2667.582625079087</v>
       </c>
       <c r="FX105">
-        <v>98.11976437111069</v>
+        <v>1552.312328107621</v>
       </c>
       <c r="FY105">
-        <v>115.4101110334508</v>
+        <v>1479.069818594352</v>
       </c>
       <c r="FZ105">
-        <v>1569.071652194851</v>
+        <v>1962.044548937508</v>
       </c>
       <c r="GA105">
-        <v>1660.421314580667</v>
+        <v>1974.312123189867</v>
       </c>
       <c r="GB105">
-        <v>536.3305939588133</v>
+        <v>1163.444404434374</v>
       </c>
       <c r="GC105">
+        <v>1186.852742362502</v>
+      </c>
+      <c r="GD105">
+        <v>918.3661082112619</v>
+      </c>
+      <c r="GE105">
+        <v>1625.456134747246</v>
+      </c>
+      <c r="GF105">
+        <v>529.9655247853343</v>
+      </c>
+      <c r="GG105">
         <v>536.7998239328402</v>
       </c>
-      <c r="GD105">
-        <v>1761.390900789849</v>
+      <c r="GH105">
+        <v>2029.837802643858</v>
+      </c>
+      <c r="GI105">
+        <v>1970.992990455903</v>
+      </c>
+      <c r="GJ105">
+        <v>1677.590310659193</v>
+      </c>
+      <c r="GK105">
+        <v>303.6706548570204</v>
+      </c>
+      <c r="GL105">
+        <v>311.9832572493019</v>
       </c>
     </row>
-    <row r="106" spans="1:186">
+    <row r="106" spans="1:194">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -59696,40 +62216,64 @@
         <v>828.7347589446098</v>
       </c>
       <c r="FT106">
-        <v>1200.057033147006</v>
+        <v>775.0241648090182</v>
       </c>
       <c r="FU106">
-        <v>1406.63715077749</v>
+        <v>802.04814587897</v>
       </c>
       <c r="FV106">
-        <v>2518.315043608914</v>
+        <v>1969.366169168735</v>
       </c>
       <c r="FW106">
-        <v>2159.577132345645</v>
+        <v>2993.668618957312</v>
       </c>
       <c r="FX106">
-        <v>338.5128699185785</v>
+        <v>1793.211070854002</v>
       </c>
       <c r="FY106">
-        <v>262.2387927354486</v>
+        <v>1724.446912579278</v>
       </c>
       <c r="FZ106">
-        <v>1535.852319787468</v>
+        <v>2048.241886974753</v>
       </c>
       <c r="GA106">
-        <v>1872.530567329037</v>
+        <v>2059.14305736535</v>
       </c>
       <c r="GB106">
-        <v>912.8069507782219</v>
+        <v>1539.854343094222</v>
       </c>
       <c r="GC106">
+        <v>1563.473967424626</v>
+      </c>
+      <c r="GD106">
+        <v>1151.702936174674</v>
+      </c>
+      <c r="GE106">
+        <v>1623.038910694772</v>
+      </c>
+      <c r="GF106">
+        <v>905.0678363124032</v>
+      </c>
+      <c r="GG106">
         <v>913.3228894046953</v>
       </c>
-      <c r="GD106">
-        <v>1782.085541410669</v>
+      <c r="GH106">
+        <v>2299.685792376928</v>
+      </c>
+      <c r="GI106">
+        <v>2265.448886510263</v>
+      </c>
+      <c r="GJ106">
+        <v>2050.232160689974</v>
+      </c>
+      <c r="GK106">
+        <v>297.0051087167772</v>
+      </c>
+      <c r="GL106">
+        <v>346.4476110833114</v>
       </c>
     </row>
-    <row r="107" spans="1:186">
+    <row r="107" spans="1:194">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -60256,40 +62800,64 @@
         <v>524.5150829415981</v>
       </c>
       <c r="FT107">
-        <v>724.4476655926351</v>
+        <v>749.6895989092153</v>
       </c>
       <c r="FU107">
-        <v>899.5840896181929</v>
+        <v>764.9263762331045</v>
       </c>
       <c r="FV107">
-        <v>1991.825418293704</v>
+        <v>1497.509902247095</v>
       </c>
       <c r="FW107">
-        <v>1546.326291295974</v>
+        <v>2518.665906142461</v>
       </c>
       <c r="FX107">
-        <v>477.6512512535531</v>
+        <v>1222.156592385979</v>
       </c>
       <c r="FY107">
-        <v>546.5851025213542</v>
+        <v>1159.877542804465</v>
       </c>
       <c r="FZ107">
-        <v>999.9656633945109</v>
+        <v>1434.758341699393</v>
       </c>
       <c r="GA107">
-        <v>1276.979206655618</v>
+        <v>1446.118018638924</v>
       </c>
       <c r="GB107">
-        <v>837.9719083552271</v>
+        <v>1368.318067067148</v>
       </c>
       <c r="GC107">
+        <v>1417.011845288586</v>
+      </c>
+      <c r="GD107">
+        <v>609.1148224596865</v>
+      </c>
+      <c r="GE107">
+        <v>1058.117929102317</v>
+      </c>
+      <c r="GF107">
+        <v>887.6316570215088</v>
+      </c>
+      <c r="GG107">
         <v>864.8762192336918</v>
       </c>
-      <c r="GD107">
-        <v>1200.024502011771</v>
+      <c r="GH107">
+        <v>1747.453848932869</v>
+      </c>
+      <c r="GI107">
+        <v>1746.965817098784</v>
+      </c>
+      <c r="GJ107">
+        <v>1786.303799473342</v>
+      </c>
+      <c r="GK107">
+        <v>336.5353043744198</v>
+      </c>
+      <c r="GL107">
+        <v>294.701221637118</v>
       </c>
     </row>
-    <row r="108" spans="1:186">
+    <row r="108" spans="1:194">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -60816,40 +63384,64 @@
         <v>589.8190711278985</v>
       </c>
       <c r="FT108">
-        <v>842.612992104612</v>
+        <v>755.8574247936059</v>
       </c>
       <c r="FU108">
-        <v>1026.330399174309</v>
+        <v>774.9718893908786</v>
       </c>
       <c r="FV108">
-        <v>2125.216635042185</v>
+        <v>1557.631380079257</v>
       </c>
       <c r="FW108">
-        <v>1668.859124282156</v>
+        <v>2645.263549976445</v>
       </c>
       <c r="FX108">
-        <v>406.5485740136707</v>
+        <v>1359.888820089551</v>
       </c>
       <c r="FY108">
-        <v>456.7956713868294</v>
+        <v>1296.822993049916</v>
       </c>
       <c r="FZ108">
-        <v>1081.346922928538</v>
+        <v>1557.449093275499</v>
       </c>
       <c r="GA108">
-        <v>1416.290967694169</v>
+        <v>1568.44851940505</v>
       </c>
       <c r="GB108">
-        <v>861.2351702632395</v>
+        <v>1428.361703463058</v>
       </c>
       <c r="GC108">
+        <v>1472.170812437338</v>
+      </c>
+      <c r="GD108">
+        <v>740.1524711507923</v>
+      </c>
+      <c r="GE108">
+        <v>1152.95765814684</v>
+      </c>
+      <c r="GF108">
+        <v>899.3398344906974</v>
+      </c>
+      <c r="GG108">
         <v>882.989013034514</v>
       </c>
-      <c r="GD108">
-        <v>1303.739285787557</v>
+      <c r="GH108">
+        <v>1883.76059101719</v>
+      </c>
+      <c r="GI108">
+        <v>1878.871814791733</v>
+      </c>
+      <c r="GJ108">
+        <v>1870.692960319367</v>
+      </c>
+      <c r="GK108">
+        <v>226.7001787405618</v>
+      </c>
+      <c r="GL108">
+        <v>197.128532235374</v>
       </c>
     </row>
-    <row r="109" spans="1:186">
+    <row r="109" spans="1:194">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -61376,40 +63968,64 @@
         <v>647.294281112568</v>
       </c>
       <c r="FT109">
-        <v>1035.85174533809</v>
+        <v>574.220570498205</v>
       </c>
       <c r="FU109">
-        <v>1246.085640750749</v>
+        <v>601.1882115208662</v>
       </c>
       <c r="FV109">
-        <v>2353.355303324</v>
+        <v>1999.667989591111</v>
       </c>
       <c r="FW109">
-        <v>2096.198469191059</v>
+        <v>2813.509362711236</v>
       </c>
       <c r="FX109">
-        <v>147.6395052200767</v>
+        <v>1651.201848714982</v>
       </c>
       <c r="FY109">
-        <v>61.21525370028444</v>
+        <v>1580.036369608245</v>
       </c>
       <c r="FZ109">
-        <v>1532.792945557662</v>
+        <v>1984.661795272507</v>
       </c>
       <c r="GA109">
-        <v>1744.731010051728</v>
+        <v>1996.317572305353</v>
       </c>
       <c r="GB109">
-        <v>711.8542198202169</v>
+        <v>1338.859179375401</v>
       </c>
       <c r="GC109">
+        <v>1362.856349278076</v>
+      </c>
+      <c r="GD109">
+        <v>1009.217570879871</v>
+      </c>
+      <c r="GE109">
+        <v>1603.926483548961</v>
+      </c>
+      <c r="GF109">
+        <v>705.8012768125491</v>
+      </c>
+      <c r="GG109">
         <v>712.8900305420489</v>
       </c>
-      <c r="GD109">
-        <v>1751.60084838467</v>
+      <c r="GH109">
+        <v>2145.208692021671</v>
+      </c>
+      <c r="GI109">
+        <v>2099.291742557704</v>
+      </c>
+      <c r="GJ109">
+        <v>1850.009988287148</v>
+      </c>
+      <c r="GK109">
+        <v>225.1263150144225</v>
+      </c>
+      <c r="GL109">
+        <v>259.9990473408942</v>
       </c>
     </row>
-    <row r="110" spans="1:186">
+    <row r="110" spans="1:194">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -61936,40 +64552,64 @@
         <v>759.1253136230611</v>
       </c>
       <c r="FT110">
-        <v>1090.449337980495</v>
+        <v>793.7671976405758</v>
       </c>
       <c r="FU110">
-        <v>1288.687599001953</v>
+        <v>818.8616601478833</v>
       </c>
       <c r="FV110">
-        <v>2398.571510284511</v>
+        <v>1769.785138394243</v>
       </c>
       <c r="FW110">
-        <v>1965.544629278248</v>
+        <v>2897.606995452644</v>
       </c>
       <c r="FX110">
-        <v>342.4186708198069</v>
+        <v>1649.889709865441</v>
       </c>
       <c r="FY110">
-        <v>318.8556655696736</v>
+        <v>1584.105599049349</v>
       </c>
       <c r="FZ110">
-        <v>1332.652954140139</v>
+        <v>1854.482662328855</v>
       </c>
       <c r="GA110">
-        <v>1715.599254735632</v>
+        <v>1865.113617269248</v>
       </c>
       <c r="GB110">
-        <v>924.2724586577059</v>
+        <v>1540.610941799147</v>
       </c>
       <c r="GC110">
+        <v>1572.855061484724</v>
+      </c>
+      <c r="GD110">
+        <v>1016.26732035214</v>
+      </c>
+      <c r="GE110">
+        <v>1420.563955242887</v>
+      </c>
+      <c r="GF110">
+        <v>935.2418606333848</v>
+      </c>
+      <c r="GG110">
         <v>933.6104172457304</v>
       </c>
-      <c r="GD110">
-        <v>1580.825923868529</v>
+      <c r="GH110">
+        <v>2167.241473525227</v>
+      </c>
+      <c r="GI110">
+        <v>2148.501121150306</v>
+      </c>
+      <c r="GJ110">
+        <v>2027.22081473407</v>
+      </c>
+      <c r="GK110">
+        <v>179.4264072096175</v>
+      </c>
+      <c r="GL110">
+        <v>222.1639839070232</v>
       </c>
     </row>
-    <row r="111" spans="1:186">
+    <row r="111" spans="1:194">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -62496,40 +65136,64 @@
         <v>567.3270930370339</v>
       </c>
       <c r="FT111">
-        <v>973.9654807212918</v>
+        <v>424.8564511152118</v>
       </c>
       <c r="FU111">
-        <v>1185.943566376208</v>
+        <v>452.1998011200167</v>
       </c>
       <c r="FV111">
-        <v>2279.222959143337</v>
+        <v>2104.411167415854</v>
       </c>
       <c r="FW111">
-        <v>2130.802211677115</v>
+        <v>2715.867947902166</v>
       </c>
       <c r="FX111">
-        <v>142.7827953830283</v>
+        <v>1610.407840655428</v>
       </c>
       <c r="FY111">
-        <v>114.7460663953346</v>
+        <v>1537.004888850972</v>
       </c>
       <c r="FZ111">
-        <v>1618.843768593025</v>
+        <v>2019.84985005444</v>
       </c>
       <c r="GA111">
-        <v>1719.475747371227</v>
+        <v>2032.071560771554</v>
       </c>
       <c r="GB111">
-        <v>563.3291463236158</v>
+        <v>1189.127463179708</v>
       </c>
       <c r="GC111">
+        <v>1209.407840691068</v>
+      </c>
+      <c r="GD111">
+        <v>977.3710339724882</v>
+      </c>
+      <c r="GE111">
+        <v>1677.80459241338</v>
+      </c>
+      <c r="GF111">
+        <v>548.438966826623</v>
+      </c>
+      <c r="GG111">
         <v>559.8267070039889</v>
       </c>
-      <c r="GD111">
-        <v>1815.570637426209</v>
+      <c r="GH111">
+        <v>2085.750241287384</v>
+      </c>
+      <c r="GI111">
+        <v>2024.528974233945</v>
+      </c>
+      <c r="GJ111">
+        <v>1709.11156277478</v>
+      </c>
+      <c r="GK111">
+        <v>336.1714781092747</v>
+      </c>
+      <c r="GL111">
+        <v>351.5150897351692</v>
       </c>
     </row>
-    <row r="112" spans="1:186">
+    <row r="112" spans="1:194">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -63056,40 +65720,64 @@
         <v>637.0298386880614</v>
       </c>
       <c r="FT112">
-        <v>1028.023174275989</v>
+        <v>557.6452227921707</v>
       </c>
       <c r="FU112">
-        <v>1238.626435195497</v>
+        <v>584.665650551724</v>
       </c>
       <c r="FV112">
-        <v>2344.872084925416</v>
+        <v>2010.503452811589</v>
       </c>
       <c r="FW112">
-        <v>2099.265952192047</v>
+        <v>2802.643065022577</v>
       </c>
       <c r="FX112">
-        <v>137.7010425546739</v>
+        <v>1645.998578591556</v>
       </c>
       <c r="FY112">
-        <v>45.68096676446184</v>
+        <v>1574.563543308478</v>
       </c>
       <c r="FZ112">
-        <v>1541.378248421275</v>
+        <v>1987.759045806112</v>
       </c>
       <c r="GA112">
-        <v>1741.21303802816</v>
+        <v>1999.480516892142</v>
       </c>
       <c r="GB112">
-        <v>695.4447438272553</v>
+        <v>1322.520818095869</v>
       </c>
       <c r="GC112">
+        <v>1346.163784072551</v>
+      </c>
+      <c r="GD112">
+        <v>1004.459472665077</v>
+      </c>
+      <c r="GE112">
+        <v>1611.168802322705</v>
+      </c>
+      <c r="GF112">
+        <v>688.6305992621092</v>
+      </c>
+      <c r="GG112">
         <v>696.0893822908533</v>
       </c>
-      <c r="GD112">
-        <v>1757.793385649477</v>
+      <c r="GH112">
+        <v>2138.215224353738</v>
+      </c>
+      <c r="GI112">
+        <v>2090.687411283976</v>
+      </c>
+      <c r="GJ112">
+        <v>1834.605209884034</v>
+      </c>
+      <c r="GK112">
+        <v>233.8817833210573</v>
+      </c>
+      <c r="GL112">
+        <v>266.323670786231</v>
       </c>
     </row>
-    <row r="113" spans="1:186">
+    <row r="113" spans="1:194">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -63616,40 +66304,64 @@
         <v>632.8414847017278</v>
       </c>
       <c r="FT113">
-        <v>1037.496969192651</v>
+        <v>491.4838717085805</v>
       </c>
       <c r="FU113">
-        <v>1249.470468742962</v>
+        <v>518.8269751767691</v>
       </c>
       <c r="FV113">
-        <v>2345.551624348236</v>
+        <v>2114.718206011168</v>
       </c>
       <c r="FW113">
-        <v>2170.463735806192</v>
+        <v>2784.649414665677</v>
       </c>
       <c r="FX113">
-        <v>173.7780333892728</v>
+        <v>1670.577616822674</v>
       </c>
       <c r="FY113">
-        <v>102.1388831184507</v>
+        <v>1597.582309513214</v>
       </c>
       <c r="FZ113">
-        <v>1637.7956473729</v>
+        <v>2059.232133558864</v>
       </c>
       <c r="GA113">
-        <v>1776.225221704897</v>
+        <v>2071.268059245073</v>
       </c>
       <c r="GB113">
-        <v>629.7463392616128</v>
+        <v>1254.306065366782</v>
       </c>
       <c r="GC113">
+        <v>1273.162225163052</v>
+      </c>
+      <c r="GD113">
+        <v>1034.631411822385</v>
+      </c>
+      <c r="GE113">
+        <v>1702.130540617874</v>
+      </c>
+      <c r="GF113">
+        <v>611.3698478645507</v>
+      </c>
+      <c r="GG113">
         <v>624.7474861721088</v>
       </c>
-      <c r="GD113">
-        <v>1844.098797238877</v>
+      <c r="GH113">
+        <v>2149.769120572295</v>
+      </c>
+      <c r="GI113">
+        <v>2090.873416165564</v>
+      </c>
+      <c r="GJ113">
+        <v>1776.309358315718</v>
+      </c>
+      <c r="GK113">
+        <v>337.0459487278234</v>
+      </c>
+      <c r="GL113">
+        <v>361.48756390706</v>
       </c>
     </row>
-    <row r="114" spans="1:186">
+    <row r="114" spans="1:194">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -64176,40 +66888,64 @@
         <v>344.8073698221564</v>
       </c>
       <c r="FT114">
-        <v>745.3070664485759</v>
+        <v>118.7715661967804</v>
       </c>
       <c r="FU114">
-        <v>951.6630256009222</v>
+        <v>145.2675214154563</v>
       </c>
       <c r="FV114">
-        <v>2012.124162977426</v>
+        <v>2149.248817465333</v>
       </c>
       <c r="FW114">
-        <v>2032.520942739618</v>
+        <v>2423.474584478633</v>
       </c>
       <c r="FX114">
-        <v>335.9131272285742</v>
+        <v>1395.054982099979</v>
       </c>
       <c r="FY114">
-        <v>395.1119580307268</v>
+        <v>1319.701178162262</v>
       </c>
       <c r="FZ114">
-        <v>1632.605522106974</v>
+        <v>1924.469789097547</v>
       </c>
       <c r="GA114">
-        <v>1526.12248729905</v>
+        <v>1937.523647909464</v>
       </c>
       <c r="GB114">
-        <v>255.566193350577</v>
+        <v>882.5897323985873</v>
       </c>
       <c r="GC114">
+        <v>907.1477438293576</v>
+      </c>
+      <c r="GD114">
+        <v>798.9340702434125</v>
+      </c>
+      <c r="GE114">
+        <v>1664.826357137806</v>
+      </c>
+      <c r="GF114">
+        <v>259.105363932953</v>
+      </c>
+      <c r="GG114">
         <v>258.8728456052818</v>
       </c>
-      <c r="GD114">
-        <v>1779.358110598144</v>
+      <c r="GH114">
+        <v>1838.063366105698</v>
+      </c>
+      <c r="GI114">
+        <v>1758.202544741416</v>
+      </c>
+      <c r="GJ114">
+        <v>1398.121355141747</v>
+      </c>
+      <c r="GK114">
+        <v>520.4928865897823</v>
+      </c>
+      <c r="GL114">
+        <v>504.8185312321597</v>
       </c>
     </row>
-    <row r="115" spans="1:186">
+    <row r="115" spans="1:194">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -64736,40 +67472,64 @@
         <v>346.0706491154921</v>
       </c>
       <c r="FT115">
-        <v>714.7571321275501</v>
+        <v>0</v>
       </c>
       <c r="FU115">
-        <v>912.4882547655593</v>
+        <v>27.34888944469023</v>
       </c>
       <c r="FV115">
-        <v>1943.694995221083</v>
+        <v>2215.63162074931</v>
       </c>
       <c r="FW115">
-        <v>2048.326903498619</v>
+        <v>2336.04742417552</v>
       </c>
       <c r="FX115">
-        <v>454.3700929262034</v>
+        <v>1360.985126914886</v>
       </c>
       <c r="FY115">
-        <v>513.1193948602713</v>
+        <v>1285.312106568487</v>
       </c>
       <c r="FZ115">
-        <v>1692.111154718892</v>
+        <v>1942.111631994064</v>
       </c>
       <c r="GA115">
-        <v>1502.513699993801</v>
+        <v>1955.418899440925</v>
       </c>
       <c r="GB115">
-        <v>138.505966006069</v>
+        <v>765.3001971313081</v>
       </c>
       <c r="GC115">
+        <v>788.7291300602208</v>
+      </c>
+      <c r="GD115">
+        <v>795.4111346797201</v>
+      </c>
+      <c r="GE115">
+        <v>1715.149546015592</v>
+      </c>
+      <c r="GF115">
+        <v>144.9521563952785</v>
+      </c>
+      <c r="GG115">
         <v>140.2141676205128</v>
       </c>
-      <c r="GD115">
-        <v>1820.630463283911</v>
+      <c r="GH115">
+        <v>1782.456071337072</v>
+      </c>
+      <c r="GI115">
+        <v>1691.174990760594</v>
+      </c>
+      <c r="GJ115">
+        <v>1284.91443624306</v>
+      </c>
+      <c r="GK115">
+        <v>634.5664008453866</v>
+      </c>
+      <c r="GL115">
+        <v>615.7766302855484</v>
       </c>
     </row>
-    <row r="116" spans="1:186">
+    <row r="116" spans="1:194">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -65296,40 +68056,64 @@
         <v>247.7502713028823</v>
       </c>
       <c r="FT116">
-        <v>648.1546168092279</v>
+        <v>133.7418966783841</v>
       </c>
       <c r="FU116">
-        <v>855.2252012961808</v>
+        <v>148.9782262270821</v>
       </c>
       <c r="FV116">
-        <v>1922.148686641001</v>
+        <v>2083.94582544947</v>
       </c>
       <c r="FW116">
-        <v>1941.314715809784</v>
+        <v>2343.225155352953</v>
       </c>
       <c r="FX116">
-        <v>364.9246639997015</v>
+        <v>1297.820729016016</v>
       </c>
       <c r="FY116">
-        <v>440.7041624135588</v>
+        <v>1222.513915292828</v>
       </c>
       <c r="FZ116">
-        <v>1562.197890852499</v>
+        <v>1833.791205819771</v>
       </c>
       <c r="GA116">
-        <v>1428.546148186869</v>
+        <v>1846.930577920781</v>
       </c>
       <c r="GB116">
-        <v>237.8397684658256</v>
+        <v>849.5916606544675</v>
       </c>
       <c r="GC116">
+        <v>881.1203375670574</v>
+      </c>
+      <c r="GD116">
+        <v>702.5354803286618</v>
+      </c>
+      <c r="GE116">
+        <v>1588.59897833568</v>
+      </c>
+      <c r="GF116">
+        <v>272.9138492891167</v>
+      </c>
+      <c r="GG116">
         <v>256.1216396655768</v>
       </c>
-      <c r="GD116">
-        <v>1698.246425209766</v>
+      <c r="GH116">
+        <v>1744.091564149758</v>
+      </c>
+      <c r="GI116">
+        <v>1667.876120548888</v>
+      </c>
+      <c r="GJ116">
+        <v>1350.154048710479</v>
+      </c>
+      <c r="GK116">
+        <v>523.5779889581303</v>
+      </c>
+      <c r="GL116">
+        <v>499.2213468234353</v>
       </c>
     </row>
-    <row r="117" spans="1:186">
+    <row r="117" spans="1:194">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -65856,40 +68640,64 @@
         <v>344.5740099152765</v>
       </c>
       <c r="FT117">
-        <v>703.09005971198</v>
+        <v>27.34888944469023</v>
       </c>
       <c r="FU117">
-        <v>898.4297685248182</v>
+        <v>0</v>
       </c>
       <c r="FV117">
-        <v>1922.930549456376</v>
+        <v>2224.849384492247</v>
       </c>
       <c r="FW117">
-        <v>2045.36287956254</v>
+        <v>2311.862810038825</v>
       </c>
       <c r="FX117">
-        <v>480.2393399344222</v>
+        <v>1347.44032804628</v>
       </c>
       <c r="FY117">
-        <v>540.0580263202095</v>
+        <v>1271.769746529765</v>
       </c>
       <c r="FZ117">
-        <v>1699.817822149693</v>
+        <v>1939.623997141491</v>
       </c>
       <c r="GA117">
-        <v>1491.094675541428</v>
+        <v>1952.982896594497</v>
       </c>
       <c r="GB117">
-        <v>111.1931265040982</v>
+        <v>738.1152414309634</v>
       </c>
       <c r="GC117">
+        <v>761.9158396373364</v>
+      </c>
+      <c r="GD117">
+        <v>789.5569285862889</v>
+      </c>
+      <c r="GE117">
+        <v>1720.567763772338</v>
+      </c>
+      <c r="GF117">
+        <v>124.3689021708289</v>
+      </c>
+      <c r="GG117">
         <v>114.7577922894453</v>
       </c>
-      <c r="GD117">
-        <v>1823.785522505112</v>
+      <c r="GH117">
+        <v>1764.222273142664</v>
+      </c>
+      <c r="GI117">
+        <v>1670.754672198477</v>
+      </c>
+      <c r="GJ117">
+        <v>1257.591986652068</v>
+      </c>
+      <c r="GK117">
+        <v>658.2770785030337</v>
+      </c>
+      <c r="GL117">
+        <v>638.4437241923678</v>
       </c>
     </row>
-    <row r="118" spans="1:186">
+    <row r="118" spans="1:194">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -66416,40 +69224,64 @@
         <v>538.6928152400144</v>
       </c>
       <c r="FT118">
-        <v>857.6960737990105</v>
+        <v>215.5214838835946</v>
       </c>
       <c r="FU118">
-        <v>1037.0069317171</v>
+        <v>203.9429512369423</v>
       </c>
       <c r="FV118">
-        <v>1999.474306954776</v>
+        <v>2428.720945560795</v>
       </c>
       <c r="FW118">
-        <v>2228.322750662384</v>
+        <v>2343.30567809679</v>
       </c>
       <c r="FX118">
-        <v>630.9975252215713</v>
+        <v>1484.784297927439</v>
       </c>
       <c r="FY118">
-        <v>669.0908628491879</v>
+        <v>1409.655676017483</v>
       </c>
       <c r="FZ118">
-        <v>1903.121266160041</v>
+        <v>2124.191955785726</v>
       </c>
       <c r="GA118">
-        <v>1639.772823432862</v>
+        <v>2137.691774069002</v>
       </c>
       <c r="GB118">
-        <v>186.7170798459564</v>
+        <v>667.1167159521041</v>
       </c>
       <c r="GC118">
+        <v>672.3609978456733</v>
+      </c>
+      <c r="GD118">
+        <v>966.9899678838547</v>
+      </c>
+      <c r="GE118">
+        <v>1921.881095202411</v>
+      </c>
+      <c r="GF118">
+        <v>102.1690318662226</v>
+      </c>
+      <c r="GG118">
         <v>146.3547952567587</v>
       </c>
-      <c r="GD118">
-        <v>2021.827977770254</v>
+      <c r="GH118">
+        <v>1865.391901010512</v>
+      </c>
+      <c r="GI118">
+        <v>1752.289201635723</v>
+      </c>
+      <c r="GJ118">
+        <v>1206.470491935434</v>
+      </c>
+      <c r="GK118">
+        <v>826.6245793864421</v>
+      </c>
+      <c r="GL118">
+        <v>813.8620989492139</v>
       </c>
     </row>
-    <row r="119" spans="1:186">
+    <row r="119" spans="1:194">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -66976,37 +69808,61 @@
         <v>269.1097153918495</v>
       </c>
       <c r="FT119">
-        <v>678.6831037444309</v>
+        <v>189.8204258370733</v>
       </c>
       <c r="FU119">
-        <v>888.8417913534279</v>
+        <v>210.1145395481231</v>
       </c>
       <c r="FV119">
-        <v>1968.911403977059</v>
+        <v>2046.469917864226</v>
       </c>
       <c r="FW119">
-        <v>1936.722876804326</v>
+        <v>2400.059946228459</v>
       </c>
       <c r="FX119">
-        <v>294.177980799217</v>
+        <v>1325.911701505544</v>
       </c>
       <c r="FY119">
-        <v>372.7808667076673</v>
+        <v>1251.090528085046</v>
       </c>
       <c r="FZ119">
-        <v>1529.371446870437</v>
+        <v>1828.146724027316</v>
       </c>
       <c r="GA119">
-        <v>1449.78454306351</v>
+        <v>1841.107822145764</v>
       </c>
       <c r="GB119">
-        <v>306.9141991379167</v>
+        <v>921.2435492479507</v>
       </c>
       <c r="GC119">
+        <v>952.5966309890193</v>
+      </c>
+      <c r="GD119">
+        <v>714.8969284484222</v>
+      </c>
+      <c r="GE119">
+        <v>1561.860798907826</v>
+      </c>
+      <c r="GF119">
+        <v>334.1043939962001</v>
+      </c>
+      <c r="GG119">
         <v>322.0847281421887</v>
       </c>
-      <c r="GD119">
-        <v>1677.39640836603</v>
+      <c r="GH119">
+        <v>1783.788242396858</v>
+      </c>
+      <c r="GI119">
+        <v>1714.313590025662</v>
+      </c>
+      <c r="GJ119">
+        <v>1420.544040741213</v>
+      </c>
+      <c r="GK119">
+        <v>453.04900534069</v>
+      </c>
+      <c r="GL119">
+        <v>430.1570314008308</v>
       </c>
     </row>
   </sheetData>
